--- a/Czech Republic First League/Czech Republic First League.xlsx
+++ b/Czech Republic First League/Czech Republic First League.xlsx
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5208977</v>
+        <v>5208976</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,73 +3835,73 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K38">
+        <v>1.615</v>
+      </c>
+      <c r="L38">
+        <v>3.75</v>
+      </c>
+      <c r="M38">
+        <v>5.5</v>
+      </c>
+      <c r="N38">
         <v>1.65</v>
       </c>
-      <c r="L38">
-        <v>3.8</v>
-      </c>
-      <c r="M38">
-        <v>5</v>
-      </c>
-      <c r="N38">
-        <v>1.571</v>
-      </c>
       <c r="O38">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P38">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q38">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T38">
         <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X38">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC38">
         <v>-1</v>
@@ -3912,7 +3912,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5208978</v>
+        <v>5208977</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3924,76 +3924,76 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>2</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="L39">
+        <v>3.8</v>
+      </c>
+      <c r="M39">
         <v>5</v>
       </c>
-      <c r="M39">
-        <v>8</v>
-      </c>
       <c r="N39">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="O39">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P39">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q39">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R39">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T39">
         <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V39">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W39">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4001,7 +4001,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5208976</v>
+        <v>5208978</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4013,58 +4013,58 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
         <v>47</v>
       </c>
       <c r="K40">
-        <v>1.615</v>
+        <v>1.363</v>
       </c>
       <c r="L40">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M40">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="N40">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="O40">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P40">
-        <v>5.25</v>
+        <v>9.5</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R40">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S40">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T40">
         <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V40">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W40">
-        <v>0.6499999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4073,16 +4073,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5208992</v>
+        <v>5208991</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,76 +4903,76 @@
         <v>44996.45833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50" t="s">
+        <v>48</v>
+      </c>
+      <c r="K50">
+        <v>2.3</v>
+      </c>
+      <c r="L50">
+        <v>3.3</v>
+      </c>
+      <c r="M50">
         <v>3</v>
       </c>
-      <c r="J50" t="s">
-        <v>46</v>
-      </c>
-      <c r="K50">
-        <v>3.8</v>
-      </c>
-      <c r="L50">
-        <v>3.5</v>
-      </c>
-      <c r="M50">
-        <v>1.909</v>
-      </c>
       <c r="N50">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="O50">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P50">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q50">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S50">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V50">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y50">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA50">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB50">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
       <c r="AC50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5208991</v>
+        <v>5208987</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,76 +4992,76 @@
         <v>44996.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K51">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="L51">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N51">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O51">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P51">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S51">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V51">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X51">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
+        <v>0.825</v>
+      </c>
+      <c r="AA51">
+        <v>-1</v>
+      </c>
+      <c r="AB51">
+        <v>0.5125</v>
+      </c>
+      <c r="AC51">
         <v>-0.5</v>
-      </c>
-      <c r="AA51">
-        <v>0.4375</v>
-      </c>
-      <c r="AB51">
-        <v>1.05</v>
-      </c>
-      <c r="AC51">
-        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5069,7 +5069,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5208987</v>
+        <v>5208992</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5081,73 +5081,73 @@
         <v>44996.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
         <v>3</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K52">
-        <v>1.666</v>
+        <v>3.8</v>
       </c>
       <c r="L52">
+        <v>3.5</v>
+      </c>
+      <c r="M52">
+        <v>1.909</v>
+      </c>
+      <c r="N52">
+        <v>4.75</v>
+      </c>
+      <c r="O52">
         <v>3.75</v>
       </c>
-      <c r="M52">
-        <v>5</v>
-      </c>
-      <c r="N52">
-        <v>1.615</v>
-      </c>
-      <c r="O52">
-        <v>3.8</v>
-      </c>
       <c r="P52">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="Q52">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R52">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S52">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T52">
         <v>2.75</v>
       </c>
       <c r="U52">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W52">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z52">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB52">
-        <v>0.5125</v>
+        <v>0.4375</v>
       </c>
       <c r="AC52">
         <v>-0.5</v>
@@ -6582,7 +6582,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5209001</v>
+        <v>5208999</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6594,10 +6594,10 @@
         <v>45018.45833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6609,34 +6609,34 @@
         <v>47</v>
       </c>
       <c r="K69">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="L69">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M69">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N69">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="O69">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Q69">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S69">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T69">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
         <v>1.9</v>
@@ -6645,7 +6645,7 @@
         <v>1.95</v>
       </c>
       <c r="W69">
-        <v>0.615</v>
+        <v>1.625</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6654,10 +6654,10 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
         <v>-1</v>
@@ -6671,7 +6671,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5208999</v>
+        <v>5209000</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6683,58 +6683,58 @@
         <v>45018.45833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
         <v>47</v>
       </c>
       <c r="K70">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="L70">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M70">
-        <v>2.375</v>
+        <v>10</v>
       </c>
       <c r="N70">
-        <v>2.625</v>
+        <v>1.142</v>
       </c>
       <c r="O70">
+        <v>6.5</v>
+      </c>
+      <c r="P70">
+        <v>15</v>
+      </c>
+      <c r="Q70">
+        <v>-2.25</v>
+      </c>
+      <c r="R70">
+        <v>1.975</v>
+      </c>
+      <c r="S70">
+        <v>1.875</v>
+      </c>
+      <c r="T70">
         <v>3.5</v>
       </c>
-      <c r="P70">
-        <v>2.2</v>
-      </c>
-      <c r="Q70">
-        <v>0.25</v>
-      </c>
-      <c r="R70">
-        <v>1.75</v>
-      </c>
-      <c r="S70">
-        <v>2.05</v>
-      </c>
-      <c r="T70">
-        <v>2.5</v>
-      </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V70">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W70">
-        <v>1.625</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6743,16 +6743,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC70">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6760,7 +6760,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5209000</v>
+        <v>5209001</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6772,58 +6772,58 @@
         <v>45018.45833333334</v>
       </c>
       <c r="F71" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
         <v>47</v>
       </c>
       <c r="K71">
-        <v>1.2</v>
+        <v>1.666</v>
       </c>
       <c r="L71">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M71">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N71">
-        <v>1.142</v>
+        <v>1.615</v>
       </c>
       <c r="O71">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P71">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Q71">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R71">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S71">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T71">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U71">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V71">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W71">
-        <v>0.1419999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6832,16 +6832,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
+        <v>0.45</v>
+      </c>
+      <c r="AA71">
         <v>-0.5</v>
       </c>
-      <c r="AA71">
-        <v>0.4375</v>
-      </c>
       <c r="AB71">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7027,7 +7027,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5207025</v>
+        <v>5209005</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7039,37 +7039,37 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K74">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="L74">
         <v>3.5</v>
       </c>
       <c r="M74">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N74">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q74">
         <v>-0.5</v>
@@ -7084,31 +7084,31 @@
         <v>2.5</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W74">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z74">
+        <v>-1</v>
+      </c>
+      <c r="AA74">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB74">
+        <v>-1</v>
+      </c>
+      <c r="AC74">
         <v>0.875</v>
-      </c>
-      <c r="AA74">
-        <v>-1</v>
-      </c>
-      <c r="AB74">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC74">
-        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7116,7 +7116,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5209009</v>
+        <v>5207025</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7128,76 +7128,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K75">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L75">
         <v>3.5</v>
       </c>
       <c r="M75">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N75">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="O75">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P75">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
+        <v>1.9</v>
+      </c>
+      <c r="V75">
         <v>1.95</v>
       </c>
-      <c r="V75">
-        <v>1.9</v>
-      </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA75">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7205,7 +7205,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5209005</v>
+        <v>5209009</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7217,76 +7217,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
         <v>46</v>
       </c>
       <c r="K76">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L76">
         <v>3.5</v>
       </c>
       <c r="M76">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N76">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P76">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q76">
+        <v>-0.25</v>
+      </c>
+      <c r="R76">
+        <v>1.825</v>
+      </c>
+      <c r="S76">
+        <v>2.025</v>
+      </c>
+      <c r="T76">
+        <v>2.75</v>
+      </c>
+      <c r="U76">
+        <v>1.95</v>
+      </c>
+      <c r="V76">
+        <v>1.9</v>
+      </c>
+      <c r="W76">
+        <v>-1</v>
+      </c>
+      <c r="X76">
+        <v>-1</v>
+      </c>
+      <c r="Y76">
+        <v>2.1</v>
+      </c>
+      <c r="Z76">
+        <v>-1</v>
+      </c>
+      <c r="AA76">
+        <v>1.025</v>
+      </c>
+      <c r="AB76">
+        <v>0.475</v>
+      </c>
+      <c r="AC76">
         <v>-0.5</v>
-      </c>
-      <c r="R76">
-        <v>1.875</v>
-      </c>
-      <c r="S76">
-        <v>1.975</v>
-      </c>
-      <c r="T76">
-        <v>2.5</v>
-      </c>
-      <c r="U76">
-        <v>1.975</v>
-      </c>
-      <c r="V76">
-        <v>1.875</v>
-      </c>
-      <c r="W76">
-        <v>-1</v>
-      </c>
-      <c r="X76">
-        <v>-1</v>
-      </c>
-      <c r="Y76">
-        <v>3</v>
-      </c>
-      <c r="Z76">
-        <v>-1</v>
-      </c>
-      <c r="AA76">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB76">
-        <v>-1</v>
-      </c>
-      <c r="AC76">
-        <v>0.875</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5209010</v>
+        <v>5207026</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7395,49 +7395,49 @@
         <v>45025.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
         <v>48</v>
       </c>
       <c r="K78">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="L78">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M78">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="N78">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O78">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P78">
-        <v>3.2</v>
+        <v>1.533</v>
       </c>
       <c r="Q78">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R78">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U78">
         <v>2.025</v>
@@ -7449,22 +7449,22 @@
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7472,7 +7472,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5207026</v>
+        <v>5209007</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7484,76 +7484,76 @@
         <v>45025.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K79">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="L79">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M79">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="N79">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="O79">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P79">
-        <v>1.533</v>
+        <v>4</v>
       </c>
       <c r="Q79">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R79">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S79">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T79">
+        <v>2.75</v>
+      </c>
+      <c r="U79">
+        <v>1.95</v>
+      </c>
+      <c r="V79">
+        <v>1.9</v>
+      </c>
+      <c r="W79">
+        <v>-1</v>
+      </c>
+      <c r="X79">
+        <v>-1</v>
+      </c>
+      <c r="Y79">
         <v>3</v>
       </c>
-      <c r="U79">
-        <v>2.025</v>
-      </c>
-      <c r="V79">
-        <v>1.825</v>
-      </c>
-      <c r="W79">
-        <v>-1</v>
-      </c>
-      <c r="X79">
-        <v>3.2</v>
-      </c>
-      <c r="Y79">
-        <v>-1</v>
-      </c>
       <c r="Z79">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC79">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7561,7 +7561,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5209007</v>
+        <v>5209010</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7573,76 +7573,76 @@
         <v>45025.45833333334</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K80">
+        <v>1.95</v>
+      </c>
+      <c r="L80">
+        <v>3.4</v>
+      </c>
+      <c r="M80">
+        <v>3.4</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80">
+        <v>3.5</v>
+      </c>
+      <c r="P80">
+        <v>3.2</v>
+      </c>
+      <c r="Q80">
+        <v>-0.5</v>
+      </c>
+      <c r="R80">
+        <v>2.05</v>
+      </c>
+      <c r="S80">
         <v>1.8</v>
-      </c>
-      <c r="L80">
-        <v>3.5</v>
-      </c>
-      <c r="M80">
-        <v>3.6</v>
-      </c>
-      <c r="N80">
-        <v>1.7</v>
-      </c>
-      <c r="O80">
-        <v>3.6</v>
-      </c>
-      <c r="P80">
-        <v>4</v>
-      </c>
-      <c r="Q80">
-        <v>-0.75</v>
-      </c>
-      <c r="R80">
-        <v>2</v>
-      </c>
-      <c r="S80">
-        <v>1.85</v>
       </c>
       <c r="T80">
         <v>2.75</v>
       </c>
       <c r="U80">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V80">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y80">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB80">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AC80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -8451,7 +8451,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5209017</v>
+        <v>5207030</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8463,10 +8463,10 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G90" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8478,43 +8478,43 @@
         <v>47</v>
       </c>
       <c r="K90">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="L90">
+        <v>3.4</v>
+      </c>
+      <c r="M90">
         <v>3.2</v>
       </c>
-      <c r="M90">
-        <v>2.7</v>
-      </c>
       <c r="N90">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O90">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P90">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q90">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R90">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S90">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U90">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V90">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W90">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8523,7 +8523,7 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA90">
         <v>-1</v>
@@ -8532,7 +8532,7 @@
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5209018</v>
+        <v>5209017</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8552,67 +8552,67 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K91">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="L91">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M91">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="N91">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="O91">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P91">
+        <v>2.7</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
         <v>1.8</v>
       </c>
-      <c r="Q91">
-        <v>0.5</v>
-      </c>
-      <c r="R91">
-        <v>2</v>
-      </c>
       <c r="S91">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T91">
         <v>2.5</v>
       </c>
       <c r="U91">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V91">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X91">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA91">
         <v>-1</v>
@@ -8621,7 +8621,7 @@
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8629,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5209021</v>
+        <v>5209018</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8641,76 +8641,76 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K92">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="L92">
+        <v>3.5</v>
+      </c>
+      <c r="M92">
+        <v>1.85</v>
+      </c>
+      <c r="N92">
         <v>4</v>
       </c>
-      <c r="M92">
-        <v>5.75</v>
-      </c>
-      <c r="N92">
-        <v>1.4</v>
-      </c>
       <c r="O92">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P92">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q92">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R92">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T92">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U92">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V92">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y92">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA92">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5207030</v>
+        <v>5209021</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,40 +8730,40 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K93">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M93">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="N93">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O93">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P93">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q93">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R93">
         <v>1.95</v>
@@ -8775,31 +8775,31 @@
         <v>3</v>
       </c>
       <c r="U93">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V93">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W93">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC93">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -11299,7 +11299,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6593837</v>
+        <v>6593655</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11311,73 +11311,73 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G122" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H122">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K122">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="L122">
         <v>4.2</v>
       </c>
       <c r="M122">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="N122">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="O122">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P122">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q122">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R122">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S122">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T122">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U122">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V122">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W122">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z122">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB122">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -11388,7 +11388,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6593836</v>
+        <v>6593837</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11400,13 +11400,13 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -11415,43 +11415,43 @@
         <v>47</v>
       </c>
       <c r="K123">
+        <v>1.615</v>
+      </c>
+      <c r="L123">
+        <v>4.2</v>
+      </c>
+      <c r="M123">
+        <v>4.2</v>
+      </c>
+      <c r="N123">
+        <v>1.571</v>
+      </c>
+      <c r="O123">
+        <v>4.2</v>
+      </c>
+      <c r="P123">
+        <v>4.333</v>
+      </c>
+      <c r="Q123">
+        <v>-1</v>
+      </c>
+      <c r="R123">
+        <v>2.025</v>
+      </c>
+      <c r="S123">
+        <v>1.825</v>
+      </c>
+      <c r="T123">
         <v>3</v>
       </c>
-      <c r="L123">
-        <v>3.4</v>
-      </c>
-      <c r="M123">
-        <v>2.1</v>
-      </c>
-      <c r="N123">
-        <v>2.9</v>
-      </c>
-      <c r="O123">
-        <v>3.5</v>
-      </c>
-      <c r="P123">
-        <v>2.1</v>
-      </c>
-      <c r="Q123">
-        <v>0.25</v>
-      </c>
-      <c r="R123">
-        <v>1.925</v>
-      </c>
-      <c r="S123">
-        <v>1.925</v>
-      </c>
-      <c r="T123">
-        <v>2.75</v>
-      </c>
       <c r="U123">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V123">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W123">
-        <v>1.9</v>
+        <v>0.571</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11460,16 +11460,16 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC123">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11477,7 +11477,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6593655</v>
+        <v>6593836</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11489,76 +11489,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124" t="s">
+        <v>47</v>
+      </c>
+      <c r="K124">
         <v>3</v>
       </c>
-      <c r="J124" t="s">
-        <v>46</v>
-      </c>
-      <c r="K124">
-        <v>1.5</v>
-      </c>
       <c r="L124">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M124">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="N124">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="O124">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P124">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S124">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T124">
         <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V124">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA124">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -12278,7 +12278,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6593833</v>
+        <v>6649937</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12290,55 +12290,55 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G133" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J133" t="s">
         <v>46</v>
       </c>
       <c r="K133">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="L133">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M133">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="N133">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="O133">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P133">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R133">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12347,19 +12347,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB133">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AC133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12367,7 +12367,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6649937</v>
+        <v>6654750</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12379,40 +12379,40 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134">
         <v>0</v>
       </c>
-      <c r="I134">
+      <c r="J134" t="s">
+        <v>47</v>
+      </c>
+      <c r="K134">
+        <v>1.727</v>
+      </c>
+      <c r="L134">
+        <v>3.75</v>
+      </c>
+      <c r="M134">
+        <v>4.333</v>
+      </c>
+      <c r="N134">
+        <v>1.533</v>
+      </c>
+      <c r="O134">
         <v>4</v>
       </c>
-      <c r="J134" t="s">
-        <v>46</v>
-      </c>
-      <c r="K134">
-        <v>2.55</v>
-      </c>
-      <c r="L134">
-        <v>3.3</v>
-      </c>
-      <c r="M134">
-        <v>2.55</v>
-      </c>
-      <c r="N134">
-        <v>2.55</v>
-      </c>
-      <c r="O134">
-        <v>3.2</v>
-      </c>
       <c r="P134">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R134">
         <v>1.925</v>
@@ -12421,34 +12421,34 @@
         <v>1.925</v>
       </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U134">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V134">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA134">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB134">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12456,7 +12456,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6654750</v>
+        <v>6654751</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12468,58 +12468,58 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G135" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
         <v>47</v>
       </c>
       <c r="K135">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L135">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M135">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N135">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="O135">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P135">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q135">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R135">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S135">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T135">
         <v>3</v>
       </c>
       <c r="U135">
+        <v>1.875</v>
+      </c>
+      <c r="V135">
         <v>1.975</v>
       </c>
-      <c r="V135">
-        <v>1.875</v>
-      </c>
       <c r="W135">
-        <v>0.5329999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="X135">
         <v>-1</v>
@@ -12528,16 +12528,16 @@
         <v>-1</v>
       </c>
       <c r="Z135">
+        <v>-0.5</v>
+      </c>
+      <c r="AA135">
+        <v>0.425</v>
+      </c>
+      <c r="AB135">
         <v>0</v>
       </c>
-      <c r="AA135">
+      <c r="AC135">
         <v>-0</v>
-      </c>
-      <c r="AB135">
-        <v>-1</v>
-      </c>
-      <c r="AC135">
-        <v>0.875</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12545,7 +12545,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6654751</v>
+        <v>6593833</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12557,76 +12557,76 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G136" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K136">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L136">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M136">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N136">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="O136">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P136">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="Q136">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S136">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T136">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U136">
+        <v>1.975</v>
+      </c>
+      <c r="V136">
         <v>1.875</v>
       </c>
-      <c r="V136">
-        <v>1.975</v>
-      </c>
       <c r="W136">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z136">
+        <v>-1</v>
+      </c>
+      <c r="AA136">
+        <v>1.05</v>
+      </c>
+      <c r="AB136">
+        <v>0.4875</v>
+      </c>
+      <c r="AC136">
         <v>-0.5</v>
-      </c>
-      <c r="AA136">
-        <v>0.425</v>
-      </c>
-      <c r="AB136">
-        <v>0</v>
-      </c>
-      <c r="AC136">
-        <v>-0</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12634,7 +12634,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6681045</v>
+        <v>6681044</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12646,76 +12646,76 @@
         <v>45069.58333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K137">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M137">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N137">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="O137">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P137">
-        <v>1.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q137">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R137">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S137">
         <v>2.05</v>
       </c>
       <c r="T137">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V137">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y137">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AA137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12723,7 +12723,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6681044</v>
+        <v>6681045</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12735,76 +12735,76 @@
         <v>45069.58333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K138">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="L138">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M138">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N138">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="O138">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P138">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="Q138">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R138">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S138">
         <v>2.05</v>
       </c>
       <c r="T138">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U138">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V138">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z138">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC138">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12901,7 +12901,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6681049</v>
+        <v>6681048</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12913,49 +12913,49 @@
         <v>45070.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K140">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L140">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M140">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N140">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="O140">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P140">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q140">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S140">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T140">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U140">
         <v>1.875</v>
@@ -12964,25 +12964,25 @@
         <v>1.975</v>
       </c>
       <c r="W140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12990,7 +12990,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6681047</v>
+        <v>6681049</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13002,58 +13002,58 @@
         <v>45070.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
         <v>47</v>
       </c>
       <c r="K141">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L141">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M141">
+        <v>2.625</v>
+      </c>
+      <c r="N141">
+        <v>2</v>
+      </c>
+      <c r="O141">
+        <v>3.75</v>
+      </c>
+      <c r="P141">
+        <v>3.4</v>
+      </c>
+      <c r="Q141">
+        <v>-0.5</v>
+      </c>
+      <c r="R141">
+        <v>2.025</v>
+      </c>
+      <c r="S141">
+        <v>1.825</v>
+      </c>
+      <c r="T141">
         <v>3</v>
       </c>
-      <c r="N141">
-        <v>1.6</v>
-      </c>
-      <c r="O141">
-        <v>4.333</v>
-      </c>
-      <c r="P141">
-        <v>4.75</v>
-      </c>
-      <c r="Q141">
-        <v>-1</v>
-      </c>
-      <c r="R141">
+      <c r="U141">
+        <v>1.875</v>
+      </c>
+      <c r="V141">
         <v>1.975</v>
       </c>
-      <c r="S141">
-        <v>1.875</v>
-      </c>
-      <c r="T141">
-        <v>3.25</v>
-      </c>
-      <c r="U141">
-        <v>2.025</v>
-      </c>
-      <c r="V141">
-        <v>1.825</v>
-      </c>
       <c r="W141">
-        <v>0.6000000000000001</v>
+        <v>1</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13062,16 +13062,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC141">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13079,7 +13079,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6681048</v>
+        <v>6681047</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13091,19 +13091,19 @@
         <v>45070.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G142" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K142">
         <v>2.25</v>
@@ -13115,52 +13115,52 @@
         <v>3</v>
       </c>
       <c r="N142">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="O142">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P142">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R142">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S142">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U142">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V142">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X142">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA142">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13613,7 +13613,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6593817</v>
+        <v>6593818</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13625,55 +13625,55 @@
         <v>45074.5</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G148" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J148" t="s">
         <v>46</v>
       </c>
       <c r="K148">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="L148">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M148">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N148">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="O148">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P148">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q148">
         <v>-1</v>
       </c>
       <c r="R148">
+        <v>2</v>
+      </c>
+      <c r="S148">
         <v>1.85</v>
-      </c>
-      <c r="S148">
-        <v>2</v>
       </c>
       <c r="T148">
         <v>3.25</v>
       </c>
       <c r="U148">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V148">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13682,19 +13682,19 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC148">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13702,7 +13702,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6593818</v>
+        <v>6593817</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13714,55 +13714,55 @@
         <v>45074.5</v>
       </c>
       <c r="F149" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J149" t="s">
         <v>46</v>
       </c>
       <c r="K149">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M149">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N149">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="O149">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P149">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q149">
         <v>-1</v>
       </c>
       <c r="R149">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S149">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T149">
         <v>3.25</v>
       </c>
       <c r="U149">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V149">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W149">
         <v>-1</v>
@@ -13771,19 +13771,19 @@
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB149">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -20110,7 +20110,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6803009</v>
+        <v>6803011</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20122,58 +20122,58 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G221" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J221" t="s">
         <v>47</v>
       </c>
       <c r="K221">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="L221">
         <v>3.25</v>
       </c>
       <c r="M221">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N221">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O221">
         <v>3.25</v>
       </c>
       <c r="P221">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q221">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R221">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S221">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T221">
         <v>2.5</v>
       </c>
       <c r="U221">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V221">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W221">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20182,16 +20182,16 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA221">
         <v>-1</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC221">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20199,7 +20199,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6803007</v>
+        <v>6803009</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20211,76 +20211,76 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G222" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K222">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="L222">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M222">
+        <v>2.375</v>
+      </c>
+      <c r="N222">
         <v>3</v>
       </c>
-      <c r="N222">
-        <v>2.25</v>
-      </c>
       <c r="O222">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P222">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="Q222">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R222">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S222">
+        <v>2.1</v>
+      </c>
+      <c r="T222">
+        <v>2.5</v>
+      </c>
+      <c r="U222">
+        <v>2</v>
+      </c>
+      <c r="V222">
         <v>1.85</v>
       </c>
-      <c r="T222">
-        <v>3</v>
-      </c>
-      <c r="U222">
-        <v>2.025</v>
-      </c>
-      <c r="V222">
-        <v>1.825</v>
-      </c>
       <c r="W222">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X222">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA222">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
         <v>-1</v>
       </c>
       <c r="AC222">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20288,7 +20288,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6803005</v>
+        <v>6803007</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20300,76 +20300,76 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F223" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G223" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I223">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K223">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L223">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M223">
         <v>3</v>
       </c>
       <c r="N223">
+        <v>2.25</v>
+      </c>
+      <c r="O223">
+        <v>3.6</v>
+      </c>
+      <c r="P223">
+        <v>2.9</v>
+      </c>
+      <c r="Q223">
+        <v>-0.25</v>
+      </c>
+      <c r="R223">
+        <v>2</v>
+      </c>
+      <c r="S223">
+        <v>1.85</v>
+      </c>
+      <c r="T223">
+        <v>3</v>
+      </c>
+      <c r="U223">
+        <v>2.025</v>
+      </c>
+      <c r="V223">
+        <v>1.825</v>
+      </c>
+      <c r="W223">
+        <v>-1</v>
+      </c>
+      <c r="X223">
         <v>2.6</v>
       </c>
-      <c r="O223">
-        <v>3.3</v>
-      </c>
-      <c r="P223">
-        <v>2.625</v>
-      </c>
-      <c r="Q223">
-        <v>0</v>
-      </c>
-      <c r="R223">
-        <v>1.85</v>
-      </c>
-      <c r="S223">
-        <v>2</v>
-      </c>
-      <c r="T223">
-        <v>2.75</v>
-      </c>
-      <c r="U223">
-        <v>1.975</v>
-      </c>
-      <c r="V223">
-        <v>1.875</v>
-      </c>
-      <c r="W223">
-        <v>-1</v>
-      </c>
-      <c r="X223">
-        <v>-1</v>
-      </c>
       <c r="Y223">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA223">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AB223">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20377,7 +20377,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6803011</v>
+        <v>6803005</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20389,76 +20389,76 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F224" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G224" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H224">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I224">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J224" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K224">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L224">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M224">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N224">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="O224">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P224">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="Q224">
         <v>0</v>
       </c>
       <c r="R224">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S224">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T224">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U224">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V224">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W224">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z224">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB224">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20555,7 +20555,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6803006</v>
+        <v>6803012</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20567,46 +20567,46 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G226" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K226">
-        <v>1.909</v>
+        <v>9</v>
       </c>
       <c r="L226">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M226">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="N226">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="O226">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="P226">
-        <v>3.6</v>
+        <v>1.285</v>
       </c>
       <c r="Q226">
-        <v>-0.5</v>
+        <v>1.75</v>
       </c>
       <c r="R226">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S226">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T226">
         <v>2.75</v>
@@ -20618,25 +20618,25 @@
         <v>2</v>
       </c>
       <c r="W226">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA226">
         <v>-1</v>
       </c>
       <c r="AB226">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20644,7 +20644,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6803012</v>
+        <v>6803006</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20656,46 +20656,46 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G227" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K227">
-        <v>9</v>
+        <v>1.909</v>
       </c>
       <c r="L227">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M227">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="N227">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="O227">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="P227">
-        <v>1.285</v>
+        <v>3.6</v>
       </c>
       <c r="Q227">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R227">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S227">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T227">
         <v>2.75</v>
@@ -20707,25 +20707,25 @@
         <v>2</v>
       </c>
       <c r="W227">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X227">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA227">
         <v>-1</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC227">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -21534,7 +21534,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6803027</v>
+        <v>6803025</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21546,13 +21546,13 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F237" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G237" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -21561,34 +21561,34 @@
         <v>47</v>
       </c>
       <c r="K237">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="L237">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M237">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="N237">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="O237">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P237">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="Q237">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R237">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S237">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T237">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U237">
         <v>1.875</v>
@@ -21597,7 +21597,7 @@
         <v>1.975</v>
       </c>
       <c r="W237">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="X237">
         <v>-1</v>
@@ -21606,16 +21606,16 @@
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA237">
         <v>-1</v>
       </c>
       <c r="AB237">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21623,7 +21623,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6803021</v>
+        <v>6803022</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21635,76 +21635,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G238" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H238">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I238">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K238">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L238">
         <v>3.4</v>
       </c>
       <c r="M238">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="N238">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O238">
         <v>3.6</v>
       </c>
       <c r="P238">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="Q238">
+        <v>0.25</v>
+      </c>
+      <c r="R238">
+        <v>2</v>
+      </c>
+      <c r="S238">
+        <v>1.85</v>
+      </c>
+      <c r="T238">
+        <v>2.5</v>
+      </c>
+      <c r="U238">
+        <v>1.9</v>
+      </c>
+      <c r="V238">
+        <v>1.95</v>
+      </c>
+      <c r="W238">
+        <v>-1</v>
+      </c>
+      <c r="X238">
+        <v>2.6</v>
+      </c>
+      <c r="Y238">
+        <v>-1</v>
+      </c>
+      <c r="Z238">
         <v>0.5</v>
       </c>
-      <c r="R238">
-        <v>1.85</v>
-      </c>
-      <c r="S238">
-        <v>2</v>
-      </c>
-      <c r="T238">
-        <v>2.75</v>
-      </c>
-      <c r="U238">
-        <v>2</v>
-      </c>
-      <c r="V238">
-        <v>1.85</v>
-      </c>
-      <c r="W238">
-        <v>-1</v>
-      </c>
-      <c r="X238">
-        <v>-1</v>
-      </c>
-      <c r="Y238">
-        <v>0.909</v>
-      </c>
-      <c r="Z238">
-        <v>-1</v>
-      </c>
       <c r="AA238">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB238">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21712,7 +21712,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6803022</v>
+        <v>6803021</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21724,76 +21724,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F239" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G239" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J239" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K239">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L239">
         <v>3.4</v>
       </c>
       <c r="M239">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="N239">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O239">
         <v>3.6</v>
       </c>
       <c r="P239">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="Q239">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R239">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S239">
+        <v>2</v>
+      </c>
+      <c r="T239">
+        <v>2.75</v>
+      </c>
+      <c r="U239">
+        <v>2</v>
+      </c>
+      <c r="V239">
         <v>1.85</v>
       </c>
-      <c r="T239">
-        <v>2.5</v>
-      </c>
-      <c r="U239">
-        <v>1.9</v>
-      </c>
-      <c r="V239">
-        <v>1.95</v>
-      </c>
       <c r="W239">
         <v>-1</v>
       </c>
       <c r="X239">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z239">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC239">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21801,7 +21801,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6803025</v>
+        <v>6803027</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21813,13 +21813,13 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F240" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G240" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I240">
         <v>0</v>
@@ -21828,34 +21828,34 @@
         <v>47</v>
       </c>
       <c r="K240">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L240">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M240">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="N240">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="O240">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P240">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="Q240">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R240">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S240">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T240">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U240">
         <v>1.875</v>
@@ -21864,7 +21864,7 @@
         <v>1.975</v>
       </c>
       <c r="W240">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21873,16 +21873,16 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC240">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -23848,7 +23848,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6803047</v>
+        <v>6803046</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23860,40 +23860,40 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F263" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G263" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H263">
+        <v>1</v>
+      </c>
+      <c r="I263">
+        <v>1</v>
+      </c>
+      <c r="J263" t="s">
+        <v>48</v>
+      </c>
+      <c r="K263">
+        <v>2.45</v>
+      </c>
+      <c r="L263">
+        <v>3.4</v>
+      </c>
+      <c r="M263">
+        <v>2.75</v>
+      </c>
+      <c r="N263">
+        <v>2.625</v>
+      </c>
+      <c r="O263">
+        <v>3.1</v>
+      </c>
+      <c r="P263">
+        <v>2.7</v>
+      </c>
+      <c r="Q263">
         <v>0</v>
-      </c>
-      <c r="I263">
-        <v>1</v>
-      </c>
-      <c r="J263" t="s">
-        <v>46</v>
-      </c>
-      <c r="K263">
-        <v>1.909</v>
-      </c>
-      <c r="L263">
-        <v>3.75</v>
-      </c>
-      <c r="M263">
-        <v>3.6</v>
-      </c>
-      <c r="N263">
-        <v>2.15</v>
-      </c>
-      <c r="O263">
-        <v>3.4</v>
-      </c>
-      <c r="P263">
-        <v>3.25</v>
-      </c>
-      <c r="Q263">
-        <v>-0.25</v>
       </c>
       <c r="R263">
         <v>1.9</v>
@@ -23905,31 +23905,31 @@
         <v>2.5</v>
       </c>
       <c r="U263">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V263">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W263">
         <v>-1</v>
       </c>
       <c r="X263">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y263">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA263">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB263">
         <v>-1</v>
       </c>
       <c r="AC263">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23937,7 +23937,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6803046</v>
+        <v>6803047</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23949,40 +23949,40 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F264" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G264" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264">
         <v>1</v>
       </c>
       <c r="J264" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K264">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="L264">
+        <v>3.75</v>
+      </c>
+      <c r="M264">
+        <v>3.6</v>
+      </c>
+      <c r="N264">
+        <v>2.15</v>
+      </c>
+      <c r="O264">
         <v>3.4</v>
       </c>
-      <c r="M264">
-        <v>2.75</v>
-      </c>
-      <c r="N264">
-        <v>2.625</v>
-      </c>
-      <c r="O264">
-        <v>3.1</v>
-      </c>
       <c r="P264">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="Q264">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R264">
         <v>1.9</v>
@@ -23994,31 +23994,31 @@
         <v>2.5</v>
       </c>
       <c r="U264">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V264">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W264">
         <v>-1</v>
       </c>
       <c r="X264">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y264">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z264">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA264">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB264">
         <v>-1</v>
       </c>
       <c r="AC264">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24827,7 +24827,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6803060</v>
+        <v>6803055</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24839,58 +24839,58 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F274" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G274" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H274">
         <v>2</v>
       </c>
       <c r="I274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J274" t="s">
         <v>47</v>
       </c>
       <c r="K274">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L274">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M274">
+        <v>3.1</v>
+      </c>
+      <c r="N274">
+        <v>2.2</v>
+      </c>
+      <c r="O274">
+        <v>3</v>
+      </c>
+      <c r="P274">
         <v>3.5</v>
       </c>
-      <c r="N274">
-        <v>1.727</v>
-      </c>
-      <c r="O274">
-        <v>3.25</v>
-      </c>
-      <c r="P274">
-        <v>5</v>
-      </c>
       <c r="Q274">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R274">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S274">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T274">
         <v>2.25</v>
       </c>
       <c r="U274">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V274">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W274">
-        <v>0.7270000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="X274">
         <v>-1</v>
@@ -24899,16 +24899,16 @@
         <v>-1</v>
       </c>
       <c r="Z274">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AA274">
+        <v>-1</v>
+      </c>
+      <c r="AB274">
         <v>-0.5</v>
       </c>
-      <c r="AB274">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AC274">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -24916,7 +24916,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6803055</v>
+        <v>6803060</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24928,58 +24928,58 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F275" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G275" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H275">
         <v>2</v>
       </c>
       <c r="I275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J275" t="s">
         <v>47</v>
       </c>
       <c r="K275">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L275">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M275">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N275">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O275">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P275">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q275">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R275">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S275">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T275">
         <v>2.25</v>
       </c>
       <c r="U275">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V275">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W275">
-        <v>1.2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X275">
         <v>-1</v>
@@ -24988,16 +24988,16 @@
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AA275">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB275">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC275">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -27975,16 +27975,16 @@
         <v>3.6</v>
       </c>
       <c r="P309">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q309">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R309">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S309">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T309">
         <v>2.5</v>
@@ -28043,31 +28043,31 @@
         <v>2.9</v>
       </c>
       <c r="N310">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O310">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P310">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q310">
         <v>-0.25</v>
       </c>
       <c r="R310">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S310">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T310">
         <v>2.75</v>
       </c>
       <c r="U310">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V310">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W310">
         <v>0</v>
@@ -28117,31 +28117,31 @@
         <v>5.5</v>
       </c>
       <c r="N311">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O311">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P311">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q311">
         <v>-0.75</v>
       </c>
       <c r="R311">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S311">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T311">
         <v>2.5</v>
       </c>
       <c r="U311">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V311">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W311">
         <v>0</v>
@@ -28194,28 +28194,28 @@
         <v>2.2</v>
       </c>
       <c r="O312">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P312">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q312">
         <v>-0.25</v>
       </c>
       <c r="R312">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S312">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T312">
         <v>2.25</v>
       </c>
       <c r="U312">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V312">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W312">
         <v>0</v>
@@ -28265,31 +28265,31 @@
         <v>1.909</v>
       </c>
       <c r="N313">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O313">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P313">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="Q313">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R313">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S313">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T313">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U313">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V313">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W313">
         <v>0</v>
@@ -28413,22 +28413,22 @@
         <v>2.05</v>
       </c>
       <c r="N315">
+        <v>3.75</v>
+      </c>
+      <c r="O315">
         <v>3.5</v>
       </c>
-      <c r="O315">
-        <v>3.4</v>
-      </c>
       <c r="P315">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Q315">
         <v>0.5</v>
       </c>
       <c r="R315">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S315">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T315">
         <v>2.5</v>
@@ -28499,10 +28499,10 @@
         <v>-1.75</v>
       </c>
       <c r="R316">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S316">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T316">
         <v>3</v>

--- a/Czech Republic First League/Czech Republic First League.xlsx
+++ b/Czech Republic First League/Czech Republic First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC316"/>
+  <dimension ref="A1:AC312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5208976</v>
+        <v>5208977</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,73 +3835,73 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38">
+        <v>1.65</v>
+      </c>
+      <c r="L38">
+        <v>3.8</v>
+      </c>
+      <c r="M38">
+        <v>5</v>
+      </c>
+      <c r="N38">
+        <v>1.571</v>
+      </c>
+      <c r="O38">
         <v>4</v>
       </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38" t="s">
-        <v>47</v>
-      </c>
-      <c r="K38">
-        <v>1.615</v>
-      </c>
-      <c r="L38">
-        <v>3.75</v>
-      </c>
-      <c r="M38">
+      <c r="P38">
         <v>5.5</v>
       </c>
-      <c r="N38">
-        <v>1.65</v>
-      </c>
-      <c r="O38">
-        <v>3.6</v>
-      </c>
-      <c r="P38">
-        <v>5.25</v>
-      </c>
       <c r="Q38">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R38">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
         <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V38">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W38">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB38">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC38">
         <v>-1</v>
@@ -3912,7 +3912,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5208977</v>
+        <v>5208978</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3924,76 +3924,76 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>2</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K39">
-        <v>1.65</v>
+        <v>1.363</v>
       </c>
       <c r="L39">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M39">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N39">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="O39">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P39">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q39">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T39">
         <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V39">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X39">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4001,7 +4001,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5208978</v>
+        <v>5208976</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4013,58 +4013,58 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>47</v>
       </c>
       <c r="K40">
-        <v>1.363</v>
+        <v>1.615</v>
       </c>
       <c r="L40">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M40">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="N40">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="O40">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P40">
-        <v>9.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q40">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S40">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T40">
         <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V40">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
-        <v>0.3999999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4073,16 +4073,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
+        <v>0.825</v>
+      </c>
+      <c r="AA40">
+        <v>-1</v>
+      </c>
+      <c r="AB40">
         <v>0.925</v>
       </c>
-      <c r="AA40">
-        <v>-1</v>
-      </c>
-      <c r="AB40">
-        <v>-1</v>
-      </c>
       <c r="AC40">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5208991</v>
+        <v>5208992</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,76 +4903,76 @@
         <v>44996.45833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K50">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="L50">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M50">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="N50">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="O50">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P50">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R50">
+        <v>1.95</v>
+      </c>
+      <c r="S50">
+        <v>1.9</v>
+      </c>
+      <c r="T50">
+        <v>2.75</v>
+      </c>
+      <c r="U50">
+        <v>1.875</v>
+      </c>
+      <c r="V50">
         <v>1.975</v>
       </c>
-      <c r="S50">
-        <v>1.875</v>
-      </c>
-      <c r="T50">
-        <v>2.5</v>
-      </c>
-      <c r="U50">
-        <v>2.05</v>
-      </c>
-      <c r="V50">
-        <v>1.8</v>
-      </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z50">
+        <v>-1</v>
+      </c>
+      <c r="AA50">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB50">
+        <v>0.4375</v>
+      </c>
+      <c r="AC50">
         <v>-0.5</v>
-      </c>
-      <c r="AA50">
-        <v>0.4375</v>
-      </c>
-      <c r="AB50">
-        <v>1.05</v>
-      </c>
-      <c r="AC50">
-        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5208987</v>
+        <v>5208991</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,76 +4992,76 @@
         <v>44996.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51" t="s">
+        <v>48</v>
+      </c>
+      <c r="K51">
+        <v>2.3</v>
+      </c>
+      <c r="L51">
+        <v>3.3</v>
+      </c>
+      <c r="M51">
         <v>3</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51" t="s">
-        <v>47</v>
-      </c>
-      <c r="K51">
-        <v>1.666</v>
-      </c>
-      <c r="L51">
-        <v>3.75</v>
-      </c>
-      <c r="M51">
-        <v>5</v>
-      </c>
       <c r="N51">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O51">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P51">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q51">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W51">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB51">
-        <v>0.5125</v>
+        <v>1.05</v>
       </c>
       <c r="AC51">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5069,7 +5069,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5208992</v>
+        <v>5208987</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5081,73 +5081,73 @@
         <v>44996.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
         <v>0</v>
       </c>
-      <c r="I52">
-        <v>3</v>
-      </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K52">
+        <v>1.666</v>
+      </c>
+      <c r="L52">
+        <v>3.75</v>
+      </c>
+      <c r="M52">
+        <v>5</v>
+      </c>
+      <c r="N52">
+        <v>1.615</v>
+      </c>
+      <c r="O52">
         <v>3.8</v>
       </c>
-      <c r="L52">
-        <v>3.5</v>
-      </c>
-      <c r="M52">
-        <v>1.909</v>
-      </c>
-      <c r="N52">
-        <v>4.75</v>
-      </c>
-      <c r="O52">
-        <v>3.75</v>
-      </c>
       <c r="P52">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="Q52">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R52">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T52">
         <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V52">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA52">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.4375</v>
+        <v>0.5125</v>
       </c>
       <c r="AC52">
         <v>-0.5</v>
@@ -5870,7 +5870,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5208995</v>
+        <v>5208996</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5882,76 +5882,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K61">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L61">
+        <v>3.3</v>
+      </c>
+      <c r="M61">
         <v>3.5</v>
       </c>
-      <c r="M61">
-        <v>2.6</v>
-      </c>
       <c r="N61">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O61">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P61">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T61">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V61">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA61">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5959,7 +5959,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5208996</v>
+        <v>5208995</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5971,76 +5971,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L62">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M62">
+        <v>2.6</v>
+      </c>
+      <c r="N62">
+        <v>2.45</v>
+      </c>
+      <c r="O62">
         <v>3.5</v>
       </c>
-      <c r="N62">
-        <v>1.909</v>
-      </c>
-      <c r="O62">
-        <v>3.4</v>
-      </c>
       <c r="P62">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>1.85</v>
+      </c>
+      <c r="S62">
+        <v>2</v>
+      </c>
+      <c r="T62">
+        <v>2.75</v>
+      </c>
+      <c r="U62">
+        <v>1.875</v>
+      </c>
+      <c r="V62">
+        <v>1.975</v>
+      </c>
+      <c r="W62">
+        <v>-1</v>
+      </c>
+      <c r="X62">
+        <v>-1</v>
+      </c>
+      <c r="Y62">
+        <v>1.55</v>
+      </c>
+      <c r="Z62">
+        <v>-1</v>
+      </c>
+      <c r="AA62">
+        <v>1</v>
+      </c>
+      <c r="AB62">
+        <v>0.4375</v>
+      </c>
+      <c r="AC62">
         <v>-0.5</v>
-      </c>
-      <c r="R62">
-        <v>1.95</v>
-      </c>
-      <c r="S62">
-        <v>1.9</v>
-      </c>
-      <c r="T62">
-        <v>2.5</v>
-      </c>
-      <c r="U62">
-        <v>1.95</v>
-      </c>
-      <c r="V62">
-        <v>1.9</v>
-      </c>
-      <c r="W62">
-        <v>0.909</v>
-      </c>
-      <c r="X62">
-        <v>-1</v>
-      </c>
-      <c r="Y62">
-        <v>-1</v>
-      </c>
-      <c r="Z62">
-        <v>0.95</v>
-      </c>
-      <c r="AA62">
-        <v>-1</v>
-      </c>
-      <c r="AB62">
-        <v>0.95</v>
-      </c>
-      <c r="AC62">
-        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -7027,7 +7027,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5209005</v>
+        <v>5207025</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7039,37 +7039,37 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K74">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="L74">
         <v>3.5</v>
       </c>
       <c r="M74">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N74">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="O74">
+        <v>3.5</v>
+      </c>
+      <c r="P74">
         <v>3.6</v>
-      </c>
-      <c r="P74">
-        <v>4</v>
       </c>
       <c r="Q74">
         <v>-0.5</v>
@@ -7084,31 +7084,31 @@
         <v>2.5</v>
       </c>
       <c r="U74">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA74">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC74">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7116,7 +7116,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5207025</v>
+        <v>5209009</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7128,76 +7128,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K75">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L75">
         <v>3.5</v>
       </c>
       <c r="M75">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N75">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="O75">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P75">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q75">
+        <v>-0.25</v>
+      </c>
+      <c r="R75">
+        <v>1.825</v>
+      </c>
+      <c r="S75">
+        <v>2.025</v>
+      </c>
+      <c r="T75">
+        <v>2.75</v>
+      </c>
+      <c r="U75">
+        <v>1.95</v>
+      </c>
+      <c r="V75">
+        <v>1.9</v>
+      </c>
+      <c r="W75">
+        <v>-1</v>
+      </c>
+      <c r="X75">
+        <v>-1</v>
+      </c>
+      <c r="Y75">
+        <v>2.1</v>
+      </c>
+      <c r="Z75">
+        <v>-1</v>
+      </c>
+      <c r="AA75">
+        <v>1.025</v>
+      </c>
+      <c r="AB75">
+        <v>0.475</v>
+      </c>
+      <c r="AC75">
         <v>-0.5</v>
-      </c>
-      <c r="R75">
-        <v>1.875</v>
-      </c>
-      <c r="S75">
-        <v>1.975</v>
-      </c>
-      <c r="T75">
-        <v>2.5</v>
-      </c>
-      <c r="U75">
-        <v>1.9</v>
-      </c>
-      <c r="V75">
-        <v>1.95</v>
-      </c>
-      <c r="W75">
-        <v>0.833</v>
-      </c>
-      <c r="X75">
-        <v>-1</v>
-      </c>
-      <c r="Y75">
-        <v>-1</v>
-      </c>
-      <c r="Z75">
-        <v>0.875</v>
-      </c>
-      <c r="AA75">
-        <v>-1</v>
-      </c>
-      <c r="AB75">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC75">
-        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7205,7 +7205,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5209009</v>
+        <v>5209005</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7217,55 +7217,55 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
         <v>46</v>
       </c>
       <c r="K76">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L76">
         <v>3.5</v>
       </c>
       <c r="M76">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N76">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O76">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P76">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S76">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7274,19 +7274,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB76">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5207026</v>
+        <v>5209010</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7395,49 +7395,49 @@
         <v>45025.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
         <v>48</v>
       </c>
       <c r="K78">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="L78">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M78">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="N78">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O78">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P78">
-        <v>1.533</v>
+        <v>3.2</v>
       </c>
       <c r="Q78">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S78">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T78">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
         <v>2.025</v>
@@ -7449,22 +7449,22 @@
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC78">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7561,7 +7561,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5209010</v>
+        <v>5207026</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7573,49 +7573,49 @@
         <v>45025.45833333334</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
         <v>48</v>
       </c>
       <c r="K80">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="L80">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M80">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="N80">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O80">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P80">
-        <v>3.2</v>
+        <v>1.533</v>
       </c>
       <c r="Q80">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R80">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S80">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T80">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U80">
         <v>2.025</v>
@@ -7627,22 +7627,22 @@
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -8451,7 +8451,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5207030</v>
+        <v>5209017</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8463,10 +8463,10 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8478,43 +8478,43 @@
         <v>47</v>
       </c>
       <c r="K90">
+        <v>2.45</v>
+      </c>
+      <c r="L90">
+        <v>3.2</v>
+      </c>
+      <c r="M90">
+        <v>2.7</v>
+      </c>
+      <c r="N90">
+        <v>2.375</v>
+      </c>
+      <c r="O90">
+        <v>3.3</v>
+      </c>
+      <c r="P90">
+        <v>2.7</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>1.8</v>
+      </c>
+      <c r="S90">
         <v>2.05</v>
       </c>
-      <c r="L90">
-        <v>3.4</v>
-      </c>
-      <c r="M90">
-        <v>3.2</v>
-      </c>
-      <c r="N90">
-        <v>1.909</v>
-      </c>
-      <c r="O90">
-        <v>3.6</v>
-      </c>
-      <c r="P90">
-        <v>3.5</v>
-      </c>
-      <c r="Q90">
-        <v>-0.5</v>
-      </c>
-      <c r="R90">
-        <v>1.95</v>
-      </c>
-      <c r="S90">
-        <v>1.9</v>
-      </c>
       <c r="T90">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V90">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W90">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8523,7 +8523,7 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA90">
         <v>-1</v>
@@ -8532,7 +8532,7 @@
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5209017</v>
+        <v>5209018</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8552,67 +8552,67 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K91">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="L91">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M91">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="N91">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="O91">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R91">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T91">
         <v>2.5</v>
       </c>
       <c r="U91">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V91">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W91">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA91">
         <v>-1</v>
@@ -8621,7 +8621,7 @@
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8629,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5209018</v>
+        <v>5209021</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8641,76 +8641,76 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K92">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="L92">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M92">
-        <v>1.85</v>
+        <v>5.75</v>
       </c>
       <c r="N92">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="O92">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P92">
+        <v>6.5</v>
+      </c>
+      <c r="Q92">
+        <v>-1.25</v>
+      </c>
+      <c r="R92">
+        <v>1.95</v>
+      </c>
+      <c r="S92">
+        <v>1.9</v>
+      </c>
+      <c r="T92">
+        <v>3</v>
+      </c>
+      <c r="U92">
+        <v>2.05</v>
+      </c>
+      <c r="V92">
         <v>1.8</v>
       </c>
-      <c r="Q92">
-        <v>0.5</v>
-      </c>
-      <c r="R92">
-        <v>2</v>
-      </c>
-      <c r="S92">
-        <v>1.85</v>
-      </c>
-      <c r="T92">
-        <v>2.5</v>
-      </c>
-      <c r="U92">
-        <v>1.875</v>
-      </c>
-      <c r="V92">
-        <v>1.975</v>
-      </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC92">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5209021</v>
+        <v>5207030</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,40 +8730,40 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K93">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="N93">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O93">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P93">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q93">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R93">
         <v>1.95</v>
@@ -8775,31 +8775,31 @@
         <v>3</v>
       </c>
       <c r="U93">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V93">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA93">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -12634,7 +12634,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6681044</v>
+        <v>6681045</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12646,76 +12646,76 @@
         <v>45069.58333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G137" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K137">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="L137">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M137">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N137">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="O137">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P137">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="Q137">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R137">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S137">
         <v>2.05</v>
       </c>
       <c r="T137">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U137">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z137">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC137">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12723,7 +12723,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6681045</v>
+        <v>6681044</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12735,76 +12735,76 @@
         <v>45069.58333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K138">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M138">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N138">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="O138">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P138">
-        <v>1.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q138">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R138">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S138">
         <v>2.05</v>
       </c>
       <c r="T138">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U138">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V138">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y138">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AA138">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12901,7 +12901,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6681048</v>
+        <v>6681049</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12913,49 +12913,49 @@
         <v>45070.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K140">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L140">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M140">
+        <v>2.625</v>
+      </c>
+      <c r="N140">
+        <v>2</v>
+      </c>
+      <c r="O140">
+        <v>3.75</v>
+      </c>
+      <c r="P140">
+        <v>3.4</v>
+      </c>
+      <c r="Q140">
+        <v>-0.5</v>
+      </c>
+      <c r="R140">
+        <v>2.025</v>
+      </c>
+      <c r="S140">
+        <v>1.825</v>
+      </c>
+      <c r="T140">
         <v>3</v>
-      </c>
-      <c r="N140">
-        <v>2.8</v>
-      </c>
-      <c r="O140">
-        <v>3.5</v>
-      </c>
-      <c r="P140">
-        <v>2.45</v>
-      </c>
-      <c r="Q140">
-        <v>0</v>
-      </c>
-      <c r="R140">
-        <v>2.05</v>
-      </c>
-      <c r="S140">
-        <v>1.8</v>
-      </c>
-      <c r="T140">
-        <v>2.75</v>
       </c>
       <c r="U140">
         <v>1.875</v>
@@ -12964,25 +12964,25 @@
         <v>1.975</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X140">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
+        <v>1.025</v>
+      </c>
+      <c r="AA140">
+        <v>-1</v>
+      </c>
+      <c r="AB140">
         <v>0</v>
       </c>
-      <c r="AA140">
+      <c r="AC140">
         <v>-0</v>
-      </c>
-      <c r="AB140">
-        <v>-1</v>
-      </c>
-      <c r="AC140">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12990,7 +12990,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6681049</v>
+        <v>6681048</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13002,49 +13002,49 @@
         <v>45070.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K141">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L141">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M141">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N141">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="O141">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P141">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q141">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R141">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S141">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T141">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
         <v>1.875</v>
@@ -13053,25 +13053,25 @@
         <v>1.975</v>
       </c>
       <c r="W141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13257,7 +13257,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6593832</v>
+        <v>6593804</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13269,76 +13269,76 @@
         <v>45073.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H144">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K144">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="L144">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M144">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="N144">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="O144">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P144">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q144">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S144">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W144">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z144">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB144">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13346,7 +13346,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6593804</v>
+        <v>6593832</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13358,76 +13358,76 @@
         <v>45073.45833333334</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G145" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H145">
+        <v>4</v>
+      </c>
+      <c r="I145">
         <v>0</v>
       </c>
-      <c r="I145">
-        <v>1</v>
-      </c>
       <c r="J145" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K145">
+        <v>1.285</v>
+      </c>
+      <c r="L145">
+        <v>5.5</v>
+      </c>
+      <c r="M145">
+        <v>9.5</v>
+      </c>
+      <c r="N145">
+        <v>1.25</v>
+      </c>
+      <c r="O145">
+        <v>6</v>
+      </c>
+      <c r="P145">
+        <v>9.5</v>
+      </c>
+      <c r="Q145">
+        <v>-1.75</v>
+      </c>
+      <c r="R145">
+        <v>2.025</v>
+      </c>
+      <c r="S145">
+        <v>1.825</v>
+      </c>
+      <c r="T145">
+        <v>3</v>
+      </c>
+      <c r="U145">
         <v>1.95</v>
       </c>
-      <c r="L145">
-        <v>3.6</v>
-      </c>
-      <c r="M145">
-        <v>3.6</v>
-      </c>
-      <c r="N145">
-        <v>2</v>
-      </c>
-      <c r="O145">
-        <v>3.5</v>
-      </c>
-      <c r="P145">
-        <v>3.6</v>
-      </c>
-      <c r="Q145">
-        <v>-0.5</v>
-      </c>
-      <c r="R145">
-        <v>2</v>
-      </c>
-      <c r="S145">
-        <v>1.85</v>
-      </c>
-      <c r="T145">
-        <v>2.5</v>
-      </c>
-      <c r="U145">
-        <v>1.85</v>
-      </c>
       <c r="V145">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC145">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -14236,7 +14236,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6802938</v>
+        <v>6802940</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14248,13 +14248,13 @@
         <v>45130.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G155" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H155">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I155">
         <v>1</v>
@@ -14263,43 +14263,43 @@
         <v>47</v>
       </c>
       <c r="K155">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L155">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M155">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N155">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="O155">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P155">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="Q155">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R155">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S155">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T155">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U155">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V155">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W155">
-        <v>1.4</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14308,13 +14308,13 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA155">
         <v>-1</v>
       </c>
       <c r="AB155">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14325,7 +14325,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6802940</v>
+        <v>6802938</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14337,13 +14337,13 @@
         <v>45130.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G156" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H156">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I156">
         <v>1</v>
@@ -14352,44 +14352,44 @@
         <v>47</v>
       </c>
       <c r="K156">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L156">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M156">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N156">
+        <v>2.4</v>
+      </c>
+      <c r="O156">
+        <v>3.1</v>
+      </c>
+      <c r="P156">
+        <v>2.8</v>
+      </c>
+      <c r="Q156">
+        <v>0</v>
+      </c>
+      <c r="R156">
+        <v>1.775</v>
+      </c>
+      <c r="S156">
+        <v>2.1</v>
+      </c>
+      <c r="T156">
+        <v>2.5</v>
+      </c>
+      <c r="U156">
+        <v>2.05</v>
+      </c>
+      <c r="V156">
+        <v>1.8</v>
+      </c>
+      <c r="W156">
         <v>1.4</v>
       </c>
-      <c r="O156">
-        <v>4.333</v>
-      </c>
-      <c r="P156">
-        <v>7</v>
-      </c>
-      <c r="Q156">
-        <v>-1.25</v>
-      </c>
-      <c r="R156">
-        <v>1.95</v>
-      </c>
-      <c r="S156">
-        <v>1.9</v>
-      </c>
-      <c r="T156">
-        <v>2.75</v>
-      </c>
-      <c r="U156">
-        <v>1.925</v>
-      </c>
-      <c r="V156">
-        <v>1.925</v>
-      </c>
-      <c r="W156">
-        <v>0.3999999999999999</v>
-      </c>
       <c r="X156">
         <v>-1</v>
       </c>
@@ -14397,13 +14397,13 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -15571,7 +15571,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6802953</v>
+        <v>6802950</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15583,40 +15583,40 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G170" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K170">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="L170">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M170">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="N170">
-        <v>2.625</v>
+        <v>1.533</v>
       </c>
       <c r="O170">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P170">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="Q170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R170">
         <v>1.925</v>
@@ -15625,34 +15625,34 @@
         <v>1.925</v>
       </c>
       <c r="T170">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U170">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V170">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X170">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA170">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC170">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15660,7 +15660,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6802950</v>
+        <v>6802953</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15672,40 +15672,40 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G171" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171" t="s">
+        <v>48</v>
+      </c>
+      <c r="K171">
+        <v>2.625</v>
+      </c>
+      <c r="L171">
+        <v>3.1</v>
+      </c>
+      <c r="M171">
+        <v>2.55</v>
+      </c>
+      <c r="N171">
+        <v>2.625</v>
+      </c>
+      <c r="O171">
         <v>3</v>
       </c>
-      <c r="I171">
-        <v>1</v>
-      </c>
-      <c r="J171" t="s">
-        <v>47</v>
-      </c>
-      <c r="K171">
-        <v>1.5</v>
-      </c>
-      <c r="L171">
-        <v>4</v>
-      </c>
-      <c r="M171">
-        <v>5.75</v>
-      </c>
-      <c r="N171">
-        <v>1.533</v>
-      </c>
-      <c r="O171">
-        <v>4</v>
-      </c>
       <c r="P171">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q171">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R171">
         <v>1.925</v>
@@ -15714,34 +15714,34 @@
         <v>1.925</v>
       </c>
       <c r="T171">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U171">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V171">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W171">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB171">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -20110,7 +20110,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6803011</v>
+        <v>6803009</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20122,58 +20122,58 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G221" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H221">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I221">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
         <v>47</v>
       </c>
       <c r="K221">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="L221">
         <v>3.25</v>
       </c>
       <c r="M221">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N221">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O221">
         <v>3.25</v>
       </c>
       <c r="P221">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="Q221">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R221">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S221">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T221">
         <v>2.5</v>
       </c>
       <c r="U221">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V221">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W221">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20182,16 +20182,16 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA221">
         <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20199,7 +20199,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6803009</v>
+        <v>6803007</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20211,76 +20211,76 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G222" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K222">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="L222">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M222">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="N222">
+        <v>2.25</v>
+      </c>
+      <c r="O222">
+        <v>3.6</v>
+      </c>
+      <c r="P222">
+        <v>2.9</v>
+      </c>
+      <c r="Q222">
+        <v>-0.25</v>
+      </c>
+      <c r="R222">
+        <v>2</v>
+      </c>
+      <c r="S222">
+        <v>1.85</v>
+      </c>
+      <c r="T222">
         <v>3</v>
       </c>
-      <c r="O222">
-        <v>3.25</v>
-      </c>
-      <c r="P222">
-        <v>2.4</v>
-      </c>
-      <c r="Q222">
-        <v>0.25</v>
-      </c>
-      <c r="R222">
-        <v>1.775</v>
-      </c>
-      <c r="S222">
-        <v>2.1</v>
-      </c>
-      <c r="T222">
-        <v>2.5</v>
-      </c>
       <c r="U222">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V222">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W222">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X222">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB222">
         <v>-1</v>
       </c>
       <c r="AC222">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20288,7 +20288,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6803007</v>
+        <v>6803005</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20300,76 +20300,76 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F223" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G223" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J223" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K223">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L223">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M223">
         <v>3</v>
       </c>
       <c r="N223">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="O223">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P223">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="Q223">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R223">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S223">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T223">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U223">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V223">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W223">
         <v>-1</v>
       </c>
       <c r="X223">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z223">
+        <v>-1</v>
+      </c>
+      <c r="AA223">
+        <v>1</v>
+      </c>
+      <c r="AB223">
+        <v>0.4875</v>
+      </c>
+      <c r="AC223">
         <v>-0.5</v>
-      </c>
-      <c r="AA223">
-        <v>0.425</v>
-      </c>
-      <c r="AB223">
-        <v>-1</v>
-      </c>
-      <c r="AC223">
-        <v>0.825</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20377,7 +20377,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6803005</v>
+        <v>6803011</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20389,76 +20389,76 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G224" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I224">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K224">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L224">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M224">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N224">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="O224">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P224">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="Q224">
         <v>0</v>
       </c>
       <c r="R224">
+        <v>2</v>
+      </c>
+      <c r="S224">
         <v>1.85</v>
       </c>
-      <c r="S224">
-        <v>2</v>
-      </c>
       <c r="T224">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U224">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V224">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W224">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA224">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AC224">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -23848,7 +23848,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6803046</v>
+        <v>6803047</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23860,40 +23860,40 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F263" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G263" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263">
         <v>1</v>
       </c>
       <c r="J263" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K263">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="L263">
+        <v>3.75</v>
+      </c>
+      <c r="M263">
+        <v>3.6</v>
+      </c>
+      <c r="N263">
+        <v>2.15</v>
+      </c>
+      <c r="O263">
         <v>3.4</v>
       </c>
-      <c r="M263">
-        <v>2.75</v>
-      </c>
-      <c r="N263">
-        <v>2.625</v>
-      </c>
-      <c r="O263">
-        <v>3.1</v>
-      </c>
       <c r="P263">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="Q263">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R263">
         <v>1.9</v>
@@ -23905,31 +23905,31 @@
         <v>2.5</v>
       </c>
       <c r="U263">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V263">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W263">
         <v>-1</v>
       </c>
       <c r="X263">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y263">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z263">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA263">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB263">
         <v>-1</v>
       </c>
       <c r="AC263">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23937,7 +23937,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6803047</v>
+        <v>6803046</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23949,40 +23949,40 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F264" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G264" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H264">
+        <v>1</v>
+      </c>
+      <c r="I264">
+        <v>1</v>
+      </c>
+      <c r="J264" t="s">
+        <v>48</v>
+      </c>
+      <c r="K264">
+        <v>2.45</v>
+      </c>
+      <c r="L264">
+        <v>3.4</v>
+      </c>
+      <c r="M264">
+        <v>2.75</v>
+      </c>
+      <c r="N264">
+        <v>2.625</v>
+      </c>
+      <c r="O264">
+        <v>3.1</v>
+      </c>
+      <c r="P264">
+        <v>2.7</v>
+      </c>
+      <c r="Q264">
         <v>0</v>
-      </c>
-      <c r="I264">
-        <v>1</v>
-      </c>
-      <c r="J264" t="s">
-        <v>46</v>
-      </c>
-      <c r="K264">
-        <v>1.909</v>
-      </c>
-      <c r="L264">
-        <v>3.75</v>
-      </c>
-      <c r="M264">
-        <v>3.6</v>
-      </c>
-      <c r="N264">
-        <v>2.15</v>
-      </c>
-      <c r="O264">
-        <v>3.4</v>
-      </c>
-      <c r="P264">
-        <v>3.25</v>
-      </c>
-      <c r="Q264">
-        <v>-0.25</v>
       </c>
       <c r="R264">
         <v>1.9</v>
@@ -23994,31 +23994,31 @@
         <v>2.5</v>
       </c>
       <c r="U264">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V264">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W264">
         <v>-1</v>
       </c>
       <c r="X264">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y264">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z264">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA264">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB264">
         <v>-1</v>
       </c>
       <c r="AC264">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -27942,7 +27942,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6803094</v>
+        <v>6803097</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27951,49 +27951,49 @@
         <v>28</v>
       </c>
       <c r="E309" s="2">
-        <v>45339.45833333334</v>
+        <v>45340.45833333334</v>
       </c>
       <c r="F309" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G309" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K309">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="L309">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M309">
-        <v>4.333</v>
+        <v>1.285</v>
       </c>
       <c r="N309">
-        <v>1.8</v>
+        <v>13</v>
       </c>
       <c r="O309">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P309">
-        <v>4.5</v>
+        <v>1.222</v>
       </c>
       <c r="Q309">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R309">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S309">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T309">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U309">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V309">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W309">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6803095</v>
+        <v>6803096</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28025,49 +28025,49 @@
         <v>28</v>
       </c>
       <c r="E310" s="2">
-        <v>45339.45833333334</v>
+        <v>45340.45833333334</v>
       </c>
       <c r="F310" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G310" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="K310">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L310">
         <v>3.4</v>
       </c>
       <c r="M310">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="N310">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O310">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P310">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q310">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R310">
+        <v>1.925</v>
+      </c>
+      <c r="S310">
+        <v>1.925</v>
+      </c>
+      <c r="T310">
+        <v>2.5</v>
+      </c>
+      <c r="U310">
+        <v>2</v>
+      </c>
+      <c r="V310">
         <v>1.85</v>
-      </c>
-      <c r="S310">
-        <v>2</v>
-      </c>
-      <c r="T310">
-        <v>2.75</v>
-      </c>
-      <c r="U310">
-        <v>1.85</v>
-      </c>
-      <c r="V310">
-        <v>2</v>
       </c>
       <c r="W310">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>6803098</v>
+        <v>6803099</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28099,34 +28099,34 @@
         <v>28</v>
       </c>
       <c r="E311" s="2">
-        <v>45339.45833333334</v>
+        <v>45340.58333333334</v>
       </c>
       <c r="F311" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G311" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K311">
-        <v>1.571</v>
+        <v>1.3</v>
       </c>
       <c r="L311">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M311">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="N311">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="O311">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P311">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="Q311">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R311">
         <v>2.025</v>
@@ -28135,13 +28135,13 @@
         <v>1.825</v>
       </c>
       <c r="T311">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U311">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V311">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W311">
         <v>0</v>
@@ -28164,7 +28164,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>6803100</v>
+        <v>7654892</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28173,49 +28173,49 @@
         <v>28</v>
       </c>
       <c r="E312" s="2">
-        <v>45339.45833333334</v>
+        <v>45343.5625</v>
       </c>
       <c r="F312" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G312" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K312">
+        <v>3.1</v>
+      </c>
+      <c r="L312">
+        <v>3.2</v>
+      </c>
+      <c r="M312">
         <v>2.3</v>
       </c>
-      <c r="L312">
-        <v>3.4</v>
-      </c>
-      <c r="M312">
-        <v>3</v>
-      </c>
       <c r="N312">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="O312">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P312">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q312">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R312">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S312">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T312">
         <v>2.25</v>
       </c>
       <c r="U312">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V312">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W312">
         <v>0</v>
@@ -28230,302 +28230,6 @@
         <v>0</v>
       </c>
       <c r="AA312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:29">
-      <c r="A313" s="1">
-        <v>311</v>
-      </c>
-      <c r="B313">
-        <v>6803093</v>
-      </c>
-      <c r="C313" t="s">
-        <v>28</v>
-      </c>
-      <c r="D313" t="s">
-        <v>28</v>
-      </c>
-      <c r="E313" s="2">
-        <v>45339.58333333334</v>
-      </c>
-      <c r="F313" t="s">
-        <v>30</v>
-      </c>
-      <c r="G313" t="s">
-        <v>29</v>
-      </c>
-      <c r="K313">
-        <v>3.8</v>
-      </c>
-      <c r="L313">
-        <v>3.6</v>
-      </c>
-      <c r="M313">
-        <v>1.909</v>
-      </c>
-      <c r="N313">
-        <v>3.5</v>
-      </c>
-      <c r="O313">
-        <v>3.4</v>
-      </c>
-      <c r="P313">
-        <v>2.05</v>
-      </c>
-      <c r="Q313">
-        <v>0.25</v>
-      </c>
-      <c r="R313">
-        <v>2.1</v>
-      </c>
-      <c r="S313">
-        <v>1.775</v>
-      </c>
-      <c r="T313">
-        <v>2.5</v>
-      </c>
-      <c r="U313">
-        <v>1.925</v>
-      </c>
-      <c r="V313">
-        <v>1.925</v>
-      </c>
-      <c r="W313">
-        <v>0</v>
-      </c>
-      <c r="X313">
-        <v>0</v>
-      </c>
-      <c r="Y313">
-        <v>0</v>
-      </c>
-      <c r="Z313">
-        <v>0</v>
-      </c>
-      <c r="AA313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:29">
-      <c r="A314" s="1">
-        <v>312</v>
-      </c>
-      <c r="B314">
-        <v>6803097</v>
-      </c>
-      <c r="C314" t="s">
-        <v>28</v>
-      </c>
-      <c r="D314" t="s">
-        <v>28</v>
-      </c>
-      <c r="E314" s="2">
-        <v>45340.45833333334</v>
-      </c>
-      <c r="F314" t="s">
-        <v>45</v>
-      </c>
-      <c r="G314" t="s">
-        <v>35</v>
-      </c>
-      <c r="K314">
-        <v>8.5</v>
-      </c>
-      <c r="L314">
-        <v>6</v>
-      </c>
-      <c r="M314">
-        <v>1.285</v>
-      </c>
-      <c r="N314">
-        <v>8</v>
-      </c>
-      <c r="O314">
-        <v>5.75</v>
-      </c>
-      <c r="P314">
-        <v>1.3</v>
-      </c>
-      <c r="Q314">
-        <v>1.5</v>
-      </c>
-      <c r="R314">
-        <v>2.025</v>
-      </c>
-      <c r="S314">
-        <v>1.825</v>
-      </c>
-      <c r="T314">
-        <v>3</v>
-      </c>
-      <c r="U314">
-        <v>1.925</v>
-      </c>
-      <c r="V314">
-        <v>1.925</v>
-      </c>
-      <c r="W314">
-        <v>0</v>
-      </c>
-      <c r="X314">
-        <v>0</v>
-      </c>
-      <c r="Y314">
-        <v>0</v>
-      </c>
-      <c r="Z314">
-        <v>0</v>
-      </c>
-      <c r="AA314">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:29">
-      <c r="A315" s="1">
-        <v>313</v>
-      </c>
-      <c r="B315">
-        <v>6803096</v>
-      </c>
-      <c r="C315" t="s">
-        <v>28</v>
-      </c>
-      <c r="D315" t="s">
-        <v>28</v>
-      </c>
-      <c r="E315" s="2">
-        <v>45340.45833333334</v>
-      </c>
-      <c r="F315" t="s">
-        <v>36</v>
-      </c>
-      <c r="G315" t="s">
-        <v>31</v>
-      </c>
-      <c r="K315">
-        <v>3.5</v>
-      </c>
-      <c r="L315">
-        <v>3.4</v>
-      </c>
-      <c r="M315">
-        <v>2.05</v>
-      </c>
-      <c r="N315">
-        <v>3.75</v>
-      </c>
-      <c r="O315">
-        <v>3.5</v>
-      </c>
-      <c r="P315">
-        <v>1.95</v>
-      </c>
-      <c r="Q315">
-        <v>0.5</v>
-      </c>
-      <c r="R315">
-        <v>1.875</v>
-      </c>
-      <c r="S315">
-        <v>1.975</v>
-      </c>
-      <c r="T315">
-        <v>2.5</v>
-      </c>
-      <c r="U315">
-        <v>2</v>
-      </c>
-      <c r="V315">
-        <v>1.85</v>
-      </c>
-      <c r="W315">
-        <v>0</v>
-      </c>
-      <c r="X315">
-        <v>0</v>
-      </c>
-      <c r="Y315">
-        <v>0</v>
-      </c>
-      <c r="Z315">
-        <v>0</v>
-      </c>
-      <c r="AA315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:29">
-      <c r="A316" s="1">
-        <v>314</v>
-      </c>
-      <c r="B316">
-        <v>6803099</v>
-      </c>
-      <c r="C316" t="s">
-        <v>28</v>
-      </c>
-      <c r="D316" t="s">
-        <v>28</v>
-      </c>
-      <c r="E316" s="2">
-        <v>45340.58333333334</v>
-      </c>
-      <c r="F316" t="s">
-        <v>43</v>
-      </c>
-      <c r="G316" t="s">
-        <v>34</v>
-      </c>
-      <c r="K316">
-        <v>1.3</v>
-      </c>
-      <c r="L316">
-        <v>5.5</v>
-      </c>
-      <c r="M316">
-        <v>8.5</v>
-      </c>
-      <c r="N316">
-        <v>1.25</v>
-      </c>
-      <c r="O316">
-        <v>6</v>
-      </c>
-      <c r="P316">
-        <v>10</v>
-      </c>
-      <c r="Q316">
-        <v>-1.75</v>
-      </c>
-      <c r="R316">
-        <v>2.025</v>
-      </c>
-      <c r="S316">
-        <v>1.825</v>
-      </c>
-      <c r="T316">
-        <v>3</v>
-      </c>
-      <c r="U316">
-        <v>2.025</v>
-      </c>
-      <c r="V316">
-        <v>1.825</v>
-      </c>
-      <c r="W316">
-        <v>0</v>
-      </c>
-      <c r="X316">
-        <v>0</v>
-      </c>
-      <c r="Y316">
-        <v>0</v>
-      </c>
-      <c r="Z316">
-        <v>0</v>
-      </c>
-      <c r="AA316">
         <v>0</v>
       </c>
     </row>

--- a/Czech Republic First League/Czech Republic First League.xlsx
+++ b/Czech Republic First League/Czech Republic First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC324"/>
+  <dimension ref="A1:AC321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2844,7 +2844,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5207015</v>
+        <v>5207014</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2856,76 +2856,76 @@
         <v>44975.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>3.3</v>
       </c>
       <c r="M27">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="N27">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="O27">
         <v>3.2</v>
       </c>
       <c r="P27">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T27">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V27">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>1.1</v>
       </c>
       <c r="AB27">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2933,7 +2933,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5207014</v>
+        <v>5207015</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2945,76 +2945,76 @@
         <v>44975.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="L28">
         <v>3.3</v>
       </c>
       <c r="M28">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="N28">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="O28">
         <v>3.2</v>
       </c>
       <c r="P28">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="Q28">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U28">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V28">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y28">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>1.1</v>
+        <v>-0</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC28">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -4357,7 +4357,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5208982</v>
+        <v>5208981</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4369,46 +4369,46 @@
         <v>44989.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K44">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="L44">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M44">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N44">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="O44">
         <v>3.4</v>
       </c>
       <c r="P44">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R44">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S44">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T44">
         <v>2.5</v>
@@ -4423,22 +4423,22 @@
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y44">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4446,7 +4446,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5208981</v>
+        <v>5208982</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4458,46 +4458,46 @@
         <v>44989.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K45">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="L45">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M45">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N45">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="O45">
         <v>3.4</v>
       </c>
       <c r="P45">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="Q45">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S45">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T45">
         <v>2.5</v>
@@ -4512,22 +4512,22 @@
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z45">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC45">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5209007</v>
+        <v>5209010</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7395,76 +7395,76 @@
         <v>45025.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K78">
+        <v>1.95</v>
+      </c>
+      <c r="L78">
+        <v>3.4</v>
+      </c>
+      <c r="M78">
+        <v>3.4</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+      <c r="O78">
+        <v>3.5</v>
+      </c>
+      <c r="P78">
+        <v>3.2</v>
+      </c>
+      <c r="Q78">
+        <v>-0.5</v>
+      </c>
+      <c r="R78">
+        <v>2.05</v>
+      </c>
+      <c r="S78">
         <v>1.8</v>
-      </c>
-      <c r="L78">
-        <v>3.5</v>
-      </c>
-      <c r="M78">
-        <v>3.6</v>
-      </c>
-      <c r="N78">
-        <v>1.7</v>
-      </c>
-      <c r="O78">
-        <v>3.6</v>
-      </c>
-      <c r="P78">
-        <v>4</v>
-      </c>
-      <c r="Q78">
-        <v>-0.75</v>
-      </c>
-      <c r="R78">
-        <v>2</v>
-      </c>
-      <c r="S78">
-        <v>1.85</v>
       </c>
       <c r="T78">
         <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y78">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB78">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AC78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7472,7 +7472,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5209010</v>
+        <v>5209007</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7484,76 +7484,76 @@
         <v>45025.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K79">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L79">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M79">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N79">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O79">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P79">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q79">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R79">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S79">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T79">
         <v>2.75</v>
       </c>
       <c r="U79">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V79">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB79">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -9163,7 +9163,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5207031</v>
+        <v>5211849</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9175,37 +9175,37 @@
         <v>45041.52083333334</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K98">
         <v>3.1</v>
       </c>
       <c r="L98">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M98">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N98">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O98">
         <v>3.2</v>
       </c>
       <c r="P98">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q98">
         <v>0.25</v>
@@ -9217,34 +9217,34 @@
         <v>2</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X98">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC98">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9252,7 +9252,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5211849</v>
+        <v>5207031</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,37 +9264,37 @@
         <v>45041.52083333334</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K99">
         <v>3.1</v>
       </c>
       <c r="L99">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M99">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N99">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O99">
         <v>3.2</v>
       </c>
       <c r="P99">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q99">
         <v>0.25</v>
@@ -9306,34 +9306,34 @@
         <v>2</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W99">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9430,7 +9430,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5209025</v>
+        <v>5209023</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9442,73 +9442,73 @@
         <v>45042.52083333334</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K101">
+        <v>2.875</v>
+      </c>
+      <c r="L101">
+        <v>3.25</v>
+      </c>
+      <c r="M101">
+        <v>2.25</v>
+      </c>
+      <c r="N101">
+        <v>3.1</v>
+      </c>
+      <c r="O101">
+        <v>3.3</v>
+      </c>
+      <c r="P101">
         <v>2.1</v>
       </c>
-      <c r="L101">
-        <v>3.5</v>
-      </c>
-      <c r="M101">
-        <v>3</v>
-      </c>
-      <c r="N101">
-        <v>2.3</v>
-      </c>
-      <c r="O101">
-        <v>3.4</v>
-      </c>
-      <c r="P101">
-        <v>2.7</v>
-      </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
+        <v>1.975</v>
+      </c>
+      <c r="S101">
+        <v>1.875</v>
+      </c>
+      <c r="T101">
+        <v>2.75</v>
+      </c>
+      <c r="U101">
+        <v>2.025</v>
+      </c>
+      <c r="V101">
+        <v>1.825</v>
+      </c>
+      <c r="W101">
         <v>2.1</v>
       </c>
-      <c r="S101">
-        <v>1.775</v>
-      </c>
-      <c r="T101">
-        <v>2.5</v>
-      </c>
-      <c r="U101">
-        <v>1.9</v>
-      </c>
-      <c r="V101">
-        <v>1.95</v>
-      </c>
-      <c r="W101">
-        <v>-1</v>
-      </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA101">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9608,7 +9608,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5209023</v>
+        <v>5209025</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9620,73 +9620,73 @@
         <v>45042.52083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K103">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="L103">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M103">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N103">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="O103">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P103">
+        <v>2.7</v>
+      </c>
+      <c r="Q103">
+        <v>-0.25</v>
+      </c>
+      <c r="R103">
         <v>2.1</v>
       </c>
-      <c r="Q103">
-        <v>0.25</v>
-      </c>
-      <c r="R103">
-        <v>1.975</v>
-      </c>
       <c r="S103">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W103">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z103">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB103">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -12011,7 +12011,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6653944</v>
+        <v>6653943</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12023,61 +12023,61 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>2</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K130">
-        <v>1.222</v>
+        <v>1.833</v>
       </c>
       <c r="L130">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M130">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="N130">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="O130">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P130">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="Q130">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R130">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T130">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U130">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W130">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y130">
         <v>-1</v>
@@ -12086,13 +12086,13 @@
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB130">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC130">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12100,7 +12100,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6653943</v>
+        <v>6653944</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12112,76 +12112,76 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G131" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H131">
         <v>2</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K131">
-        <v>1.833</v>
+        <v>1.222</v>
       </c>
       <c r="L131">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M131">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="N131">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="O131">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="P131">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="Q131">
+        <v>-1.5</v>
+      </c>
+      <c r="R131">
+        <v>1.825</v>
+      </c>
+      <c r="S131">
+        <v>2.025</v>
+      </c>
+      <c r="T131">
+        <v>3.25</v>
+      </c>
+      <c r="U131">
+        <v>2.025</v>
+      </c>
+      <c r="V131">
+        <v>1.825</v>
+      </c>
+      <c r="W131">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="X131">
+        <v>-1</v>
+      </c>
+      <c r="Y131">
+        <v>-1</v>
+      </c>
+      <c r="Z131">
+        <v>-1</v>
+      </c>
+      <c r="AA131">
+        <v>1.025</v>
+      </c>
+      <c r="AB131">
         <v>-0.5</v>
       </c>
-      <c r="R131">
-        <v>1.975</v>
-      </c>
-      <c r="S131">
-        <v>1.875</v>
-      </c>
-      <c r="T131">
-        <v>2.25</v>
-      </c>
-      <c r="U131">
-        <v>1.85</v>
-      </c>
-      <c r="V131">
-        <v>2</v>
-      </c>
-      <c r="W131">
-        <v>-1</v>
-      </c>
-      <c r="X131">
-        <v>2.3</v>
-      </c>
-      <c r="Y131">
-        <v>-1</v>
-      </c>
-      <c r="Z131">
-        <v>-1</v>
-      </c>
-      <c r="AA131">
-        <v>0.875</v>
-      </c>
-      <c r="AB131">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12634,7 +12634,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6681044</v>
+        <v>6681045</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12646,76 +12646,76 @@
         <v>45069.58333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G137" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K137">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="L137">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M137">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N137">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="O137">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P137">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="Q137">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R137">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S137">
         <v>2.05</v>
       </c>
       <c r="T137">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U137">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z137">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC137">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12723,7 +12723,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6681045</v>
+        <v>6681046</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12735,55 +12735,55 @@
         <v>45069.58333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
         <v>46</v>
       </c>
       <c r="K138">
+        <v>1.444</v>
+      </c>
+      <c r="L138">
+        <v>4.333</v>
+      </c>
+      <c r="M138">
         <v>7</v>
       </c>
-      <c r="L138">
-        <v>4</v>
-      </c>
-      <c r="M138">
+      <c r="N138">
         <v>1.5</v>
       </c>
-      <c r="N138">
-        <v>6</v>
-      </c>
       <c r="O138">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P138">
-        <v>1.45</v>
+        <v>5.25</v>
       </c>
       <c r="Q138">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R138">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S138">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T138">
         <v>3</v>
       </c>
       <c r="U138">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V138">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12792,19 +12792,19 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>0.45</v>
+        <v>4.25</v>
       </c>
       <c r="Z138">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB138">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12812,7 +12812,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6681046</v>
+        <v>6681044</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12824,76 +12824,76 @@
         <v>45069.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H139">
         <v>0</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K139">
-        <v>1.444</v>
+        <v>3.6</v>
       </c>
       <c r="L139">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M139">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N139">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="O139">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P139">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q139">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R139">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S139">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T139">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U139">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V139">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y139">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA139">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12990,7 +12990,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6681048</v>
+        <v>6681047</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13002,19 +13002,19 @@
         <v>45070.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K141">
         <v>2.25</v>
@@ -13026,52 +13026,52 @@
         <v>3</v>
       </c>
       <c r="N141">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="O141">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P141">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R141">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S141">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U141">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V141">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X141">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA141">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13079,7 +13079,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6681047</v>
+        <v>6681048</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13091,19 +13091,19 @@
         <v>45070.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K142">
         <v>2.25</v>
@@ -13115,52 +13115,52 @@
         <v>3</v>
       </c>
       <c r="N142">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="O142">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P142">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q142">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R142">
+        <v>2.05</v>
+      </c>
+      <c r="S142">
+        <v>1.8</v>
+      </c>
+      <c r="T142">
+        <v>2.75</v>
+      </c>
+      <c r="U142">
+        <v>1.875</v>
+      </c>
+      <c r="V142">
         <v>1.975</v>
       </c>
-      <c r="S142">
-        <v>1.875</v>
-      </c>
-      <c r="T142">
-        <v>3.25</v>
-      </c>
-      <c r="U142">
-        <v>2.025</v>
-      </c>
-      <c r="V142">
-        <v>1.825</v>
-      </c>
       <c r="W142">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AA142">
+        <v>-0</v>
+      </c>
+      <c r="AB142">
+        <v>-1</v>
+      </c>
+      <c r="AC142">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA142">
-        <v>-1</v>
-      </c>
-      <c r="AB142">
-        <v>-1</v>
-      </c>
-      <c r="AC142">
-        <v>0.825</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13524,7 +13524,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6593816</v>
+        <v>6593817</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13536,76 +13536,76 @@
         <v>45074.5</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H147">
         <v>0</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K147">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L147">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M147">
+        <v>4.333</v>
+      </c>
+      <c r="N147">
+        <v>1.533</v>
+      </c>
+      <c r="O147">
+        <v>4.5</v>
+      </c>
+      <c r="P147">
+        <v>5.25</v>
+      </c>
+      <c r="Q147">
+        <v>-1</v>
+      </c>
+      <c r="R147">
+        <v>1.85</v>
+      </c>
+      <c r="S147">
+        <v>2</v>
+      </c>
+      <c r="T147">
         <v>3.25</v>
       </c>
-      <c r="N147">
-        <v>2.25</v>
-      </c>
-      <c r="O147">
-        <v>3.5</v>
-      </c>
-      <c r="P147">
-        <v>3</v>
-      </c>
-      <c r="Q147">
-        <v>-0.25</v>
-      </c>
-      <c r="R147">
-        <v>1.95</v>
-      </c>
-      <c r="S147">
-        <v>1.9</v>
-      </c>
-      <c r="T147">
-        <v>2.75</v>
-      </c>
       <c r="U147">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V147">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13613,7 +13613,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6593817</v>
+        <v>6593816</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13625,76 +13625,76 @@
         <v>45074.5</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G148" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H148">
         <v>0</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K148">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L148">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M148">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N148">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="O148">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P148">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q148">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
+        <v>1.95</v>
+      </c>
+      <c r="S148">
+        <v>1.9</v>
+      </c>
+      <c r="T148">
+        <v>2.75</v>
+      </c>
+      <c r="U148">
         <v>1.85</v>
       </c>
-      <c r="S148">
-        <v>2</v>
-      </c>
-      <c r="T148">
-        <v>3.25</v>
-      </c>
-      <c r="U148">
-        <v>1.875</v>
-      </c>
       <c r="V148">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y148">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA148">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="AB148">
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14503,7 +14503,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6802948</v>
+        <v>6802945</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14515,76 +14515,76 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G158" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K158">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L158">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M158">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="N158">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O158">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P158">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q158">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R158">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S158">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T158">
         <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V158">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X158">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA158">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC158">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14681,7 +14681,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6802945</v>
+        <v>6802948</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14693,76 +14693,76 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G160" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K160">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L160">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M160">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="N160">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O160">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P160">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q160">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R160">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S160">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T160">
         <v>2.75</v>
       </c>
       <c r="U160">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V160">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W160">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB160">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -15571,7 +15571,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6802953</v>
+        <v>6802954</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15583,76 +15583,76 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H170">
         <v>0</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K170">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L170">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M170">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N170">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="O170">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P170">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q170">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R170">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S170">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T170">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U170">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V170">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W170">
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB170">
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15749,7 +15749,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6802954</v>
+        <v>6802953</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15761,76 +15761,76 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G172" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H172">
         <v>0</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K172">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L172">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M172">
+        <v>2.55</v>
+      </c>
+      <c r="N172">
+        <v>2.625</v>
+      </c>
+      <c r="O172">
         <v>3</v>
       </c>
-      <c r="N172">
-        <v>1.95</v>
-      </c>
-      <c r="O172">
-        <v>3.6</v>
-      </c>
       <c r="P172">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q172">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R172">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S172">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T172">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U172">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y172">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA172">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB172">
         <v>-1</v>
       </c>
       <c r="AC172">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16283,7 +16283,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6802961</v>
+        <v>6802963</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16295,76 +16295,76 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G178" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178">
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K178">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="L178">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M178">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="N178">
-        <v>4.5</v>
+        <v>1.666</v>
       </c>
       <c r="O178">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P178">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="Q178">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R178">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S178">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T178">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U178">
+        <v>1.825</v>
+      </c>
+      <c r="V178">
         <v>2.025</v>
       </c>
-      <c r="V178">
-        <v>1.825</v>
-      </c>
       <c r="W178">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AA178">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC178">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16372,7 +16372,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6802963</v>
+        <v>6802961</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16384,76 +16384,76 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G179" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179">
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K179">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="L179">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M179">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="N179">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="O179">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P179">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="Q179">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R179">
+        <v>1.85</v>
+      </c>
+      <c r="S179">
+        <v>2</v>
+      </c>
+      <c r="T179">
+        <v>3</v>
+      </c>
+      <c r="U179">
         <v>2.025</v>
       </c>
-      <c r="S179">
+      <c r="V179">
         <v>1.825</v>
       </c>
-      <c r="T179">
-        <v>2.75</v>
-      </c>
-      <c r="U179">
-        <v>1.825</v>
-      </c>
-      <c r="V179">
-        <v>2.025</v>
-      </c>
       <c r="W179">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z179">
-        <v>0.5125</v>
+        <v>0</v>
       </c>
       <c r="AA179">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB179">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -18063,7 +18063,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6802986</v>
+        <v>6802984</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18075,58 +18075,58 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G198" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
         <v>47</v>
       </c>
       <c r="K198">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="L198">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M198">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="N198">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="O198">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P198">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="Q198">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R198">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S198">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T198">
         <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V198">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W198">
-        <v>1.3</v>
+        <v>0.444</v>
       </c>
       <c r="X198">
         <v>-1</v>
@@ -18135,16 +18135,16 @@
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB198">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18152,7 +18152,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6802984</v>
+        <v>6802986</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18164,58 +18164,58 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G199" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
         <v>47</v>
       </c>
       <c r="K199">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="L199">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M199">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="N199">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O199">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P199">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q199">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R199">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S199">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T199">
         <v>2.75</v>
       </c>
       <c r="U199">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V199">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W199">
-        <v>0.444</v>
+        <v>1.3</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18224,16 +18224,16 @@
         <v>-1</v>
       </c>
       <c r="Z199">
+        <v>1.05</v>
+      </c>
+      <c r="AA199">
+        <v>-1</v>
+      </c>
+      <c r="AB199">
+        <v>0.4625</v>
+      </c>
+      <c r="AC199">
         <v>-0.5</v>
-      </c>
-      <c r="AA199">
-        <v>0.4125</v>
-      </c>
-      <c r="AB199">
-        <v>-1</v>
-      </c>
-      <c r="AC199">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -19576,7 +19576,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6803000</v>
+        <v>6803002</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19588,49 +19588,49 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G215" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H215">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J215" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K215">
-        <v>1.45</v>
+        <v>1.9</v>
       </c>
       <c r="L215">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M215">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N215">
-        <v>1.363</v>
+        <v>1.7</v>
       </c>
       <c r="O215">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P215">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q215">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R215">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S215">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T215">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U215">
         <v>1.9</v>
@@ -19639,19 +19639,19 @@
         <v>1.95</v>
       </c>
       <c r="W215">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB215">
         <v>0.8999999999999999</v>
@@ -19665,7 +19665,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6803002</v>
+        <v>6803000</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19677,49 +19677,49 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G216" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H216">
+        <v>5</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216" t="s">
+        <v>47</v>
+      </c>
+      <c r="K216">
+        <v>1.45</v>
+      </c>
+      <c r="L216">
+        <v>4.5</v>
+      </c>
+      <c r="M216">
+        <v>6.5</v>
+      </c>
+      <c r="N216">
+        <v>1.363</v>
+      </c>
+      <c r="O216">
+        <v>5.25</v>
+      </c>
+      <c r="P216">
+        <v>7</v>
+      </c>
+      <c r="Q216">
+        <v>-1.5</v>
+      </c>
+      <c r="R216">
+        <v>2.05</v>
+      </c>
+      <c r="S216">
+        <v>1.8</v>
+      </c>
+      <c r="T216">
         <v>3</v>
-      </c>
-      <c r="I216">
-        <v>3</v>
-      </c>
-      <c r="J216" t="s">
-        <v>48</v>
-      </c>
-      <c r="K216">
-        <v>1.9</v>
-      </c>
-      <c r="L216">
-        <v>3.5</v>
-      </c>
-      <c r="M216">
-        <v>4</v>
-      </c>
-      <c r="N216">
-        <v>1.7</v>
-      </c>
-      <c r="O216">
-        <v>3.75</v>
-      </c>
-      <c r="P216">
-        <v>4.75</v>
-      </c>
-      <c r="Q216">
-        <v>-0.75</v>
-      </c>
-      <c r="R216">
-        <v>1.95</v>
-      </c>
-      <c r="S216">
-        <v>1.9</v>
-      </c>
-      <c r="T216">
-        <v>2.5</v>
       </c>
       <c r="U216">
         <v>1.9</v>
@@ -19728,19 +19728,19 @@
         <v>1.95</v>
       </c>
       <c r="W216">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X216">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y216">
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA216">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
         <v>0.8999999999999999</v>
@@ -23403,7 +23403,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6803041</v>
+        <v>6803043</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23415,76 +23415,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F258" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G258" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H258">
         <v>1</v>
       </c>
       <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258" t="s">
+        <v>47</v>
+      </c>
+      <c r="K258">
+        <v>1.7</v>
+      </c>
+      <c r="L258">
+        <v>4.2</v>
+      </c>
+      <c r="M258">
+        <v>4.333</v>
+      </c>
+      <c r="N258">
+        <v>1.533</v>
+      </c>
+      <c r="O258">
+        <v>4.5</v>
+      </c>
+      <c r="P258">
+        <v>5.5</v>
+      </c>
+      <c r="Q258">
+        <v>-1</v>
+      </c>
+      <c r="R258">
+        <v>1.875</v>
+      </c>
+      <c r="S258">
+        <v>1.975</v>
+      </c>
+      <c r="T258">
         <v>3</v>
       </c>
-      <c r="J258" t="s">
-        <v>46</v>
-      </c>
-      <c r="K258">
-        <v>3.8</v>
-      </c>
-      <c r="L258">
-        <v>3.75</v>
-      </c>
-      <c r="M258">
-        <v>1.909</v>
-      </c>
-      <c r="N258">
-        <v>3.2</v>
-      </c>
-      <c r="O258">
-        <v>3.6</v>
-      </c>
-      <c r="P258">
-        <v>2.15</v>
-      </c>
-      <c r="Q258">
-        <v>0.25</v>
-      </c>
-      <c r="R258">
-        <v>2</v>
-      </c>
-      <c r="S258">
-        <v>1.85</v>
-      </c>
-      <c r="T258">
-        <v>2.75</v>
-      </c>
       <c r="U258">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V258">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W258">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X258">
         <v>-1</v>
       </c>
       <c r="Y258">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z258">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA258">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB258">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC258">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23492,7 +23492,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6803043</v>
+        <v>6803041</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23504,76 +23504,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F259" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G259" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H259">
         <v>1</v>
       </c>
       <c r="I259">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J259" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K259">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="L259">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M259">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N259">
-        <v>1.533</v>
+        <v>3.2</v>
       </c>
       <c r="O259">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P259">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q259">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R259">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S259">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T259">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U259">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V259">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W259">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X259">
         <v>-1</v>
       </c>
       <c r="Y259">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z259">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA259">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB259">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC259">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -24382,7 +24382,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6803058</v>
+        <v>6803057</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24394,76 +24394,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F269" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G269" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J269" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K269">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L269">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M269">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="N269">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O269">
         <v>3.1</v>
       </c>
       <c r="P269">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="Q269">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R269">
+        <v>1.925</v>
+      </c>
+      <c r="S269">
+        <v>1.925</v>
+      </c>
+      <c r="T269">
+        <v>2.25</v>
+      </c>
+      <c r="U269">
+        <v>1.8</v>
+      </c>
+      <c r="V269">
         <v>2.05</v>
       </c>
-      <c r="S269">
-        <v>1.8</v>
-      </c>
-      <c r="T269">
-        <v>2.75</v>
-      </c>
-      <c r="U269">
-        <v>1.975</v>
-      </c>
-      <c r="V269">
-        <v>1.875</v>
-      </c>
       <c r="W269">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X269">
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z269">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA269">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB269">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC269">
-        <v>-0.5</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24471,7 +24471,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6803057</v>
+        <v>6803058</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24483,76 +24483,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F270" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G270" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J270" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K270">
+        <v>2.4</v>
+      </c>
+      <c r="L270">
         <v>3.1</v>
       </c>
-      <c r="L270">
-        <v>3.2</v>
-      </c>
       <c r="M270">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="N270">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O270">
         <v>3.1</v>
       </c>
       <c r="P270">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="Q270">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R270">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S270">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T270">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U270">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V270">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W270">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X270">
         <v>-1</v>
       </c>
       <c r="Y270">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z270">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA270">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB270">
+        <v>0.4875</v>
+      </c>
+      <c r="AC270">
         <v>-0.5</v>
-      </c>
-      <c r="AC270">
-        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -26251,7 +26251,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6803082</v>
+        <v>6803083</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26263,76 +26263,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F290" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G290" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290">
         <v>0</v>
       </c>
       <c r="J290" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K290">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="L290">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M290">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N290">
+        <v>1.45</v>
+      </c>
+      <c r="O290">
+        <v>4.75</v>
+      </c>
+      <c r="P290">
+        <v>6</v>
+      </c>
+      <c r="Q290">
+        <v>-1.25</v>
+      </c>
+      <c r="R290">
+        <v>2.05</v>
+      </c>
+      <c r="S290">
+        <v>1.8</v>
+      </c>
+      <c r="T290">
         <v>3</v>
       </c>
-      <c r="O290">
-        <v>3.4</v>
-      </c>
-      <c r="P290">
-        <v>2.3</v>
-      </c>
-      <c r="Q290">
-        <v>0.25</v>
-      </c>
-      <c r="R290">
+      <c r="U290">
+        <v>2.025</v>
+      </c>
+      <c r="V290">
         <v>1.825</v>
       </c>
-      <c r="S290">
-        <v>2.025</v>
-      </c>
-      <c r="T290">
-        <v>2.5</v>
-      </c>
-      <c r="U290">
-        <v>2</v>
-      </c>
-      <c r="V290">
-        <v>1.85</v>
-      </c>
       <c r="W290">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X290">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y290">
         <v>-1</v>
       </c>
       <c r="Z290">
+        <v>-1</v>
+      </c>
+      <c r="AA290">
+        <v>0.8</v>
+      </c>
+      <c r="AB290">
+        <v>-1</v>
+      </c>
+      <c r="AC290">
         <v>0.825</v>
-      </c>
-      <c r="AA290">
-        <v>-1</v>
-      </c>
-      <c r="AB290">
-        <v>-1</v>
-      </c>
-      <c r="AC290">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="291" spans="1:29">
@@ -26340,7 +26340,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>6803083</v>
+        <v>6803081</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26352,76 +26352,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F291" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G291" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I291">
         <v>0</v>
       </c>
       <c r="J291" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K291">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="L291">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M291">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N291">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="O291">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P291">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="Q291">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R291">
+        <v>1.825</v>
+      </c>
+      <c r="S291">
+        <v>2.025</v>
+      </c>
+      <c r="T291">
+        <v>2.5</v>
+      </c>
+      <c r="U291">
         <v>2.05</v>
       </c>
-      <c r="S291">
+      <c r="V291">
         <v>1.8</v>
       </c>
-      <c r="T291">
-        <v>3</v>
-      </c>
-      <c r="U291">
-        <v>2.025</v>
-      </c>
-      <c r="V291">
-        <v>1.825</v>
-      </c>
       <c r="W291">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X291">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y291">
         <v>-1</v>
       </c>
       <c r="Z291">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA291">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB291">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC291">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="292" spans="1:29">
@@ -26429,7 +26429,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6803081</v>
+        <v>6803082</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26441,13 +26441,13 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F292" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G292" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H292">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I292">
         <v>0</v>
@@ -26456,13 +26456,13 @@
         <v>47</v>
       </c>
       <c r="K292">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="L292">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M292">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="N292">
         <v>3</v>
@@ -26486,10 +26486,10 @@
         <v>2.5</v>
       </c>
       <c r="U292">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V292">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W292">
         <v>2</v>
@@ -26507,10 +26507,10 @@
         <v>-1</v>
       </c>
       <c r="AB292">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC292">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26696,7 +26696,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6803077</v>
+        <v>6803079</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26708,13 +26708,13 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F295" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G295" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295">
         <v>3</v>
@@ -26723,25 +26723,25 @@
         <v>46</v>
       </c>
       <c r="K295">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L295">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M295">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="N295">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O295">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P295">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Q295">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R295">
         <v>1.8</v>
@@ -26750,13 +26750,13 @@
         <v>2.05</v>
       </c>
       <c r="T295">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U295">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V295">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W295">
         <v>-1</v>
@@ -26765,16 +26765,16 @@
         <v>-1</v>
       </c>
       <c r="Y295">
+        <v>1</v>
+      </c>
+      <c r="Z295">
+        <v>-1</v>
+      </c>
+      <c r="AA295">
+        <v>1.05</v>
+      </c>
+      <c r="AB295">
         <v>0.8</v>
-      </c>
-      <c r="Z295">
-        <v>-0.5</v>
-      </c>
-      <c r="AA295">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AB295">
-        <v>1.025</v>
       </c>
       <c r="AC295">
         <v>-1</v>
@@ -26785,7 +26785,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6803079</v>
+        <v>6803077</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26797,13 +26797,13 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F296" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G296" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I296">
         <v>3</v>
@@ -26812,25 +26812,25 @@
         <v>46</v>
       </c>
       <c r="K296">
+        <v>5</v>
+      </c>
+      <c r="L296">
+        <v>3.75</v>
+      </c>
+      <c r="M296">
+        <v>1.666</v>
+      </c>
+      <c r="N296">
+        <v>4.5</v>
+      </c>
+      <c r="O296">
         <v>3.5</v>
       </c>
-      <c r="L296">
-        <v>3.5</v>
-      </c>
-      <c r="M296">
-        <v>2</v>
-      </c>
-      <c r="N296">
-        <v>3.6</v>
-      </c>
-      <c r="O296">
-        <v>3.3</v>
-      </c>
       <c r="P296">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Q296">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R296">
         <v>1.8</v>
@@ -26839,13 +26839,13 @@
         <v>2.05</v>
       </c>
       <c r="T296">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U296">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V296">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W296">
         <v>-1</v>
@@ -26854,16 +26854,16 @@
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Z296">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA296">
-        <v>1.05</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB296">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AC296">
         <v>-1</v>
@@ -28743,7 +28743,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>6803106</v>
+        <v>6803102</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28752,49 +28752,49 @@
         <v>28</v>
       </c>
       <c r="E318" s="2">
-        <v>45346.45833333334</v>
+        <v>45346.58333333334</v>
       </c>
       <c r="F318" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G318" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K318">
-        <v>1.95</v>
+        <v>1.166</v>
       </c>
       <c r="L318">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="M318">
-        <v>3.8</v>
+        <v>13</v>
       </c>
       <c r="N318">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="O318">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="P318">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="Q318">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R318">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S318">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T318">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U318">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V318">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W318">
         <v>0</v>
@@ -28817,7 +28817,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>6803105</v>
+        <v>6803107</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28826,49 +28826,49 @@
         <v>28</v>
       </c>
       <c r="E319" s="2">
-        <v>45346.45833333334</v>
+        <v>45347.45833333334</v>
       </c>
       <c r="F319" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G319" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K319">
-        <v>1.727</v>
+        <v>1.111</v>
       </c>
       <c r="L319">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="M319">
-        <v>4.5</v>
+        <v>17</v>
       </c>
       <c r="N319">
-        <v>1.75</v>
+        <v>1.125</v>
       </c>
       <c r="O319">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="P319">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="Q319">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R319">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S319">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T319">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U319">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V319">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W319">
         <v>0</v>
@@ -28891,7 +28891,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6803101</v>
+        <v>6803103</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28900,40 +28900,40 @@
         <v>28</v>
       </c>
       <c r="E320" s="2">
-        <v>45346.45833333334</v>
+        <v>45347.45833333334</v>
       </c>
       <c r="F320" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G320" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K320">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="L320">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M320">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="N320">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="O320">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P320">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q320">
         <v>0</v>
       </c>
       <c r="R320">
+        <v>1.975</v>
+      </c>
+      <c r="S320">
         <v>1.875</v>
-      </c>
-      <c r="S320">
-        <v>1.975</v>
       </c>
       <c r="T320">
         <v>2.5</v>
@@ -28965,7 +28965,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>6803102</v>
+        <v>6803108</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -28974,49 +28974,49 @@
         <v>28</v>
       </c>
       <c r="E321" s="2">
-        <v>45346.58333333334</v>
+        <v>45347.58333333334</v>
       </c>
       <c r="F321" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G321" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K321">
-        <v>1.166</v>
+        <v>4</v>
       </c>
       <c r="L321">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="M321">
-        <v>13</v>
+        <v>1.909</v>
       </c>
       <c r="N321">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="O321">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P321">
-        <v>11</v>
+        <v>1.833</v>
       </c>
       <c r="Q321">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R321">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S321">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T321">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U321">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V321">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W321">
         <v>0</v>
@@ -29031,228 +29031,6 @@
         <v>0</v>
       </c>
       <c r="AA321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:27">
-      <c r="A322" s="1">
-        <v>320</v>
-      </c>
-      <c r="B322">
-        <v>6803103</v>
-      </c>
-      <c r="C322" t="s">
-        <v>28</v>
-      </c>
-      <c r="D322" t="s">
-        <v>28</v>
-      </c>
-      <c r="E322" s="2">
-        <v>45347.45833333334</v>
-      </c>
-      <c r="F322" t="s">
-        <v>41</v>
-      </c>
-      <c r="G322" t="s">
-        <v>32</v>
-      </c>
-      <c r="K322">
-        <v>3.4</v>
-      </c>
-      <c r="L322">
-        <v>3.4</v>
-      </c>
-      <c r="M322">
-        <v>2.05</v>
-      </c>
-      <c r="N322">
-        <v>2.75</v>
-      </c>
-      <c r="O322">
-        <v>3.25</v>
-      </c>
-      <c r="P322">
-        <v>2.5</v>
-      </c>
-      <c r="Q322">
-        <v>0</v>
-      </c>
-      <c r="R322">
-        <v>1.975</v>
-      </c>
-      <c r="S322">
-        <v>1.875</v>
-      </c>
-      <c r="T322">
-        <v>2.5</v>
-      </c>
-      <c r="U322">
-        <v>1.925</v>
-      </c>
-      <c r="V322">
-        <v>1.925</v>
-      </c>
-      <c r="W322">
-        <v>0</v>
-      </c>
-      <c r="X322">
-        <v>0</v>
-      </c>
-      <c r="Y322">
-        <v>0</v>
-      </c>
-      <c r="Z322">
-        <v>0</v>
-      </c>
-      <c r="AA322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:27">
-      <c r="A323" s="1">
-        <v>321</v>
-      </c>
-      <c r="B323">
-        <v>6803107</v>
-      </c>
-      <c r="C323" t="s">
-        <v>28</v>
-      </c>
-      <c r="D323" t="s">
-        <v>28</v>
-      </c>
-      <c r="E323" s="2">
-        <v>45347.45833333334</v>
-      </c>
-      <c r="F323" t="s">
-        <v>33</v>
-      </c>
-      <c r="G323" t="s">
-        <v>39</v>
-      </c>
-      <c r="K323">
-        <v>1.111</v>
-      </c>
-      <c r="L323">
-        <v>8.5</v>
-      </c>
-      <c r="M323">
-        <v>17</v>
-      </c>
-      <c r="N323">
-        <v>1.125</v>
-      </c>
-      <c r="O323">
-        <v>8.5</v>
-      </c>
-      <c r="P323">
-        <v>15</v>
-      </c>
-      <c r="Q323">
-        <v>-2.25</v>
-      </c>
-      <c r="R323">
-        <v>1.925</v>
-      </c>
-      <c r="S323">
-        <v>1.925</v>
-      </c>
-      <c r="T323">
-        <v>3.25</v>
-      </c>
-      <c r="U323">
-        <v>1.925</v>
-      </c>
-      <c r="V323">
-        <v>1.925</v>
-      </c>
-      <c r="W323">
-        <v>0</v>
-      </c>
-      <c r="X323">
-        <v>0</v>
-      </c>
-      <c r="Y323">
-        <v>0</v>
-      </c>
-      <c r="Z323">
-        <v>0</v>
-      </c>
-      <c r="AA323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:27">
-      <c r="A324" s="1">
-        <v>322</v>
-      </c>
-      <c r="B324">
-        <v>6803108</v>
-      </c>
-      <c r="C324" t="s">
-        <v>28</v>
-      </c>
-      <c r="D324" t="s">
-        <v>28</v>
-      </c>
-      <c r="E324" s="2">
-        <v>45347.58333333334</v>
-      </c>
-      <c r="F324" t="s">
-        <v>31</v>
-      </c>
-      <c r="G324" t="s">
-        <v>43</v>
-      </c>
-      <c r="K324">
-        <v>4</v>
-      </c>
-      <c r="L324">
-        <v>3.3</v>
-      </c>
-      <c r="M324">
-        <v>1.909</v>
-      </c>
-      <c r="N324">
-        <v>4</v>
-      </c>
-      <c r="O324">
-        <v>3.3</v>
-      </c>
-      <c r="P324">
-        <v>1.909</v>
-      </c>
-      <c r="Q324">
-        <v>0.5</v>
-      </c>
-      <c r="R324">
-        <v>1.925</v>
-      </c>
-      <c r="S324">
-        <v>1.925</v>
-      </c>
-      <c r="T324">
-        <v>2.5</v>
-      </c>
-      <c r="U324">
-        <v>1.975</v>
-      </c>
-      <c r="V324">
-        <v>1.875</v>
-      </c>
-      <c r="W324">
-        <v>0</v>
-      </c>
-      <c r="X324">
-        <v>0</v>
-      </c>
-      <c r="Y324">
-        <v>0</v>
-      </c>
-      <c r="Z324">
-        <v>0</v>
-      </c>
-      <c r="AA324">
         <v>0</v>
       </c>
     </row>

--- a/Czech Republic First League/Czech Republic First League.xlsx
+++ b/Czech Republic First League/Czech Republic First League.xlsx
@@ -25272,7 +25272,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6803065</v>
+        <v>7521554</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25284,73 +25284,73 @@
         <v>45266.54166666666</v>
       </c>
       <c r="F279" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G279" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H279">
+        <v>1</v>
+      </c>
+      <c r="I279">
         <v>3</v>
       </c>
-      <c r="I279">
-        <v>2</v>
-      </c>
       <c r="J279" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K279">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="L279">
+        <v>3.25</v>
+      </c>
+      <c r="M279">
+        <v>2.2</v>
+      </c>
+      <c r="N279">
         <v>3.4</v>
       </c>
-      <c r="M279">
-        <v>4.75</v>
-      </c>
-      <c r="N279">
-        <v>1.6</v>
-      </c>
       <c r="O279">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P279">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q279">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R279">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S279">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T279">
         <v>2.5</v>
       </c>
       <c r="U279">
+        <v>1.825</v>
+      </c>
+      <c r="V279">
         <v>2.025</v>
       </c>
-      <c r="V279">
-        <v>1.825</v>
-      </c>
       <c r="W279">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X279">
         <v>-1</v>
       </c>
       <c r="Y279">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z279">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA279">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB279">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC279">
         <v>-1</v>
@@ -25361,7 +25361,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>7521554</v>
+        <v>6803065</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25373,73 +25373,73 @@
         <v>45266.54166666666</v>
       </c>
       <c r="F280" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G280" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I280">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J280" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K280">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="L280">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M280">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N280">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="O280">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P280">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q280">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R280">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S280">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T280">
         <v>2.5</v>
       </c>
       <c r="U280">
+        <v>2.025</v>
+      </c>
+      <c r="V280">
         <v>1.825</v>
       </c>
-      <c r="V280">
-        <v>2.025</v>
-      </c>
       <c r="W280">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X280">
         <v>-1</v>
       </c>
       <c r="Y280">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z280">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA280">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB280">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC280">
         <v>-1</v>
@@ -25984,7 +25984,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7560701</v>
+        <v>7560702</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -25996,76 +25996,76 @@
         <v>45273.54166666666</v>
       </c>
       <c r="F287" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G287" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287">
         <v>2</v>
       </c>
       <c r="J287" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K287">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="L287">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M287">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="N287">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O287">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P287">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q287">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R287">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S287">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T287">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U287">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V287">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W287">
         <v>-1</v>
       </c>
       <c r="X287">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y287">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z287">
         <v>-1</v>
       </c>
       <c r="AA287">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB287">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC287">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26073,7 +26073,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7560702</v>
+        <v>7560701</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26085,76 +26085,76 @@
         <v>45273.54166666666</v>
       </c>
       <c r="F288" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G288" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288">
         <v>2</v>
       </c>
       <c r="J288" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K288">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="L288">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M288">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="N288">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O288">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P288">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q288">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R288">
+        <v>2</v>
+      </c>
+      <c r="S288">
         <v>1.85</v>
       </c>
-      <c r="S288">
-        <v>2</v>
-      </c>
       <c r="T288">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U288">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V288">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W288">
         <v>-1</v>
       </c>
       <c r="X288">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y288">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z288">
         <v>-1</v>
       </c>
       <c r="AA288">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB288">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC288">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26340,7 +26340,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>6803080</v>
+        <v>6803082</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26352,76 +26352,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F291" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G291" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H291">
+        <v>2</v>
+      </c>
+      <c r="I291">
         <v>0</v>
       </c>
-      <c r="I291">
-        <v>1</v>
-      </c>
       <c r="J291" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K291">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="L291">
         <v>3.3</v>
       </c>
       <c r="M291">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="N291">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O291">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P291">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q291">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R291">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S291">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T291">
         <v>2.5</v>
       </c>
       <c r="U291">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V291">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W291">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X291">
         <v>-1</v>
       </c>
       <c r="Y291">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z291">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA291">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB291">
         <v>-1</v>
       </c>
       <c r="AC291">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="292" spans="1:29">
@@ -26429,7 +26429,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6803083</v>
+        <v>6803080</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26441,76 +26441,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F292" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G292" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H292">
         <v>0</v>
       </c>
       <c r="I292">
+        <v>1</v>
+      </c>
+      <c r="J292" t="s">
+        <v>47</v>
+      </c>
+      <c r="K292">
+        <v>2.3</v>
+      </c>
+      <c r="L292">
+        <v>3.3</v>
+      </c>
+      <c r="M292">
+        <v>3.1</v>
+      </c>
+      <c r="N292">
+        <v>2.5</v>
+      </c>
+      <c r="O292">
+        <v>3.3</v>
+      </c>
+      <c r="P292">
+        <v>2.8</v>
+      </c>
+      <c r="Q292">
         <v>0</v>
       </c>
-      <c r="J292" t="s">
-        <v>48</v>
-      </c>
-      <c r="K292">
-        <v>1.833</v>
-      </c>
-      <c r="L292">
-        <v>3.75</v>
-      </c>
-      <c r="M292">
-        <v>4</v>
-      </c>
-      <c r="N292">
-        <v>1.45</v>
-      </c>
-      <c r="O292">
-        <v>4.75</v>
-      </c>
-      <c r="P292">
-        <v>6</v>
-      </c>
-      <c r="Q292">
-        <v>-1.25</v>
-      </c>
       <c r="R292">
+        <v>1.8</v>
+      </c>
+      <c r="S292">
         <v>2.05</v>
       </c>
-      <c r="S292">
+      <c r="T292">
+        <v>2.5</v>
+      </c>
+      <c r="U292">
+        <v>1.95</v>
+      </c>
+      <c r="V292">
+        <v>1.9</v>
+      </c>
+      <c r="W292">
+        <v>-1</v>
+      </c>
+      <c r="X292">
+        <v>-1</v>
+      </c>
+      <c r="Y292">
         <v>1.8</v>
       </c>
-      <c r="T292">
-        <v>3</v>
-      </c>
-      <c r="U292">
-        <v>2.025</v>
-      </c>
-      <c r="V292">
-        <v>1.825</v>
-      </c>
-      <c r="W292">
-        <v>-1</v>
-      </c>
-      <c r="X292">
-        <v>3.75</v>
-      </c>
-      <c r="Y292">
-        <v>-1</v>
-      </c>
       <c r="Z292">
         <v>-1</v>
       </c>
       <c r="AA292">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB292">
         <v>-1</v>
       </c>
       <c r="AC292">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26518,7 +26518,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6803082</v>
+        <v>6803083</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26530,76 +26530,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F293" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G293" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293">
         <v>0</v>
       </c>
       <c r="J293" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K293">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="L293">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M293">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N293">
+        <v>1.45</v>
+      </c>
+      <c r="O293">
+        <v>4.75</v>
+      </c>
+      <c r="P293">
+        <v>6</v>
+      </c>
+      <c r="Q293">
+        <v>-1.25</v>
+      </c>
+      <c r="R293">
+        <v>2.05</v>
+      </c>
+      <c r="S293">
+        <v>1.8</v>
+      </c>
+      <c r="T293">
         <v>3</v>
       </c>
-      <c r="O293">
-        <v>3.4</v>
-      </c>
-      <c r="P293">
-        <v>2.3</v>
-      </c>
-      <c r="Q293">
-        <v>0.25</v>
-      </c>
-      <c r="R293">
+      <c r="U293">
+        <v>2.025</v>
+      </c>
+      <c r="V293">
         <v>1.825</v>
       </c>
-      <c r="S293">
-        <v>2.025</v>
-      </c>
-      <c r="T293">
-        <v>2.5</v>
-      </c>
-      <c r="U293">
-        <v>2</v>
-      </c>
-      <c r="V293">
-        <v>1.85</v>
-      </c>
       <c r="W293">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X293">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y293">
         <v>-1</v>
       </c>
       <c r="Z293">
+        <v>-1</v>
+      </c>
+      <c r="AA293">
+        <v>0.8</v>
+      </c>
+      <c r="AB293">
+        <v>-1</v>
+      </c>
+      <c r="AC293">
         <v>0.825</v>
-      </c>
-      <c r="AA293">
-        <v>-1</v>
-      </c>
-      <c r="AB293">
-        <v>-1</v>
-      </c>
-      <c r="AC293">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -29227,10 +29227,10 @@
         <v>-2.25</v>
       </c>
       <c r="R323">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S323">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T323">
         <v>3.25</v>

--- a/Czech Republic First League/Czech Republic First League.xlsx
+++ b/Czech Republic First League/Czech Republic First League.xlsx
@@ -103,13 +103,13 @@
     <t>Czech Republic First League</t>
   </si>
   <si>
-    <t>MFK Karvina</t>
-  </si>
-  <si>
     <t>FK Teplice</t>
   </si>
   <si>
     <t>Pardubice</t>
+  </si>
+  <si>
+    <t>MFK Karvina</t>
   </si>
   <si>
     <t>Slavia Prague</t>
@@ -127,10 +127,10 @@
     <t>Sparta Prague</t>
   </si>
   <si>
-    <t>FC Trinity Zlin</t>
+    <t>Sigma Olomouc</t>
   </si>
   <si>
-    <t>Sigma Olomouc</t>
+    <t>FC Trinity Zlin</t>
   </si>
   <si>
     <t>Banik Ostrava</t>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6802936</v>
+        <v>6802937</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,55 +631,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
       </c>
       <c r="K2">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L2">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M2">
-        <v>2.7</v>
+        <v>1.65</v>
       </c>
       <c r="N2">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="O2">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P2">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S2">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T2">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V2">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W2">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -688,16 +688,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6802937</v>
+        <v>6802933</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,46 +720,46 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="L3">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M3">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="N3">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P3">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
+        <v>2.025</v>
+      </c>
+      <c r="S3">
         <v>1.825</v>
       </c>
-      <c r="S3">
-        <v>2.025</v>
-      </c>
       <c r="T3">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
         <v>2</v>
@@ -768,19 +768,19 @@
         <v>1.85</v>
       </c>
       <c r="W3">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z3">
+        <v>-1</v>
+      </c>
+      <c r="AA3">
         <v>0.825</v>
-      </c>
-      <c r="AA3">
-        <v>-1</v>
       </c>
       <c r="AB3">
         <v>-1</v>
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6802933</v>
+        <v>6802936</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,73 +809,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M4">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N4">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O4">
         <v>3.3</v>
       </c>
       <c r="P4">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6802947</v>
+        <v>6802945</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,73 +1343,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>5.5</v>
+        <v>1.666</v>
       </c>
       <c r="L10">
+        <v>3.75</v>
+      </c>
+      <c r="M10">
         <v>4.5</v>
       </c>
-      <c r="M10">
-        <v>1.45</v>
-      </c>
       <c r="N10">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P10">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="Q10">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R10">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S10">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
+        <v>1.9</v>
+      </c>
+      <c r="V10">
         <v>1.95</v>
       </c>
-      <c r="V10">
-        <v>1.9</v>
-      </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.5125</v>
+        <v>1.05</v>
       </c>
       <c r="AA10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC10">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1429,7 +1429,7 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
         <v>44</v>
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6802945</v>
+        <v>6802947</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,73 +1521,73 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>1.666</v>
+        <v>5.5</v>
       </c>
       <c r="L12">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M12">
-        <v>4.5</v>
+        <v>1.45</v>
       </c>
       <c r="N12">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="O12">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P12">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="Q12">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R12">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S12">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U12">
+        <v>1.95</v>
+      </c>
+      <c r="V12">
         <v>1.9</v>
       </c>
-      <c r="V12">
-        <v>1.95</v>
-      </c>
       <c r="W12">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z12">
-        <v>1.05</v>
+        <v>0.5125</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB12">
+        <v>-1</v>
+      </c>
+      <c r="AC12">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC12">
-        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6802942</v>
+        <v>6802946</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1696,73 +1696,73 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="L14">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M14">
-        <v>1.285</v>
+        <v>3.6</v>
       </c>
       <c r="N14">
-        <v>7.5</v>
+        <v>1.85</v>
       </c>
       <c r="O14">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P14">
-        <v>1.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q14">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y14">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AB14">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6802946</v>
+        <v>6802942</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,73 +1785,73 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15">
+        <v>7</v>
+      </c>
+      <c r="L15">
+        <v>6</v>
+      </c>
+      <c r="M15">
+        <v>1.285</v>
+      </c>
+      <c r="N15">
+        <v>7.5</v>
+      </c>
+      <c r="O15">
+        <v>6.5</v>
+      </c>
+      <c r="P15">
+        <v>1.25</v>
+      </c>
+      <c r="Q15">
+        <v>1.75</v>
+      </c>
+      <c r="R15">
+        <v>1.95</v>
+      </c>
+      <c r="S15">
+        <v>1.9</v>
+      </c>
+      <c r="T15">
+        <v>3.25</v>
+      </c>
+      <c r="U15">
+        <v>1.85</v>
+      </c>
+      <c r="V15">
         <v>2</v>
       </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15" t="s">
-        <v>47</v>
-      </c>
-      <c r="K15">
-        <v>1.85</v>
-      </c>
-      <c r="L15">
-        <v>3.5</v>
-      </c>
-      <c r="M15">
-        <v>3.6</v>
-      </c>
-      <c r="N15">
-        <v>1.85</v>
-      </c>
-      <c r="O15">
-        <v>3.5</v>
-      </c>
-      <c r="P15">
-        <v>3.75</v>
-      </c>
-      <c r="Q15">
+      <c r="W15">
+        <v>-1</v>
+      </c>
+      <c r="X15">
+        <v>-1</v>
+      </c>
+      <c r="Y15">
+        <v>0.25</v>
+      </c>
+      <c r="Z15">
         <v>-0.5</v>
       </c>
-      <c r="R15">
-        <v>1.925</v>
-      </c>
-      <c r="S15">
-        <v>1.925</v>
-      </c>
-      <c r="T15">
-        <v>2.75</v>
-      </c>
-      <c r="U15">
-        <v>1.925</v>
-      </c>
-      <c r="V15">
-        <v>1.925</v>
-      </c>
-      <c r="W15">
-        <v>-1</v>
-      </c>
-      <c r="X15">
-        <v>2.5</v>
-      </c>
-      <c r="Y15">
-        <v>-1</v>
-      </c>
-      <c r="Z15">
-        <v>-1</v>
-      </c>
       <c r="AA15">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AB15">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1877,7 +1877,7 @@
         <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6802956</v>
+        <v>6802952</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,13 +2052,13 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -2067,61 +2067,61 @@
         <v>46</v>
       </c>
       <c r="K18">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L18">
         <v>3.4</v>
       </c>
       <c r="M18">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N18">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="O18">
         <v>3.5</v>
       </c>
       <c r="P18">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q18">
+        <v>0.5</v>
+      </c>
+      <c r="R18">
+        <v>1.875</v>
+      </c>
+      <c r="S18">
+        <v>1.975</v>
+      </c>
+      <c r="T18">
+        <v>2.75</v>
+      </c>
+      <c r="U18">
+        <v>1.9</v>
+      </c>
+      <c r="V18">
+        <v>1.95</v>
+      </c>
+      <c r="W18">
+        <v>-1</v>
+      </c>
+      <c r="X18">
+        <v>-1</v>
+      </c>
+      <c r="Y18">
+        <v>0.909</v>
+      </c>
+      <c r="Z18">
+        <v>-1</v>
+      </c>
+      <c r="AA18">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB18">
+        <v>0.45</v>
+      </c>
+      <c r="AC18">
         <v>-0.5</v>
-      </c>
-      <c r="R18">
-        <v>1.8</v>
-      </c>
-      <c r="S18">
-        <v>2.05</v>
-      </c>
-      <c r="T18">
-        <v>2.25</v>
-      </c>
-      <c r="U18">
-        <v>1.85</v>
-      </c>
-      <c r="V18">
-        <v>2</v>
-      </c>
-      <c r="W18">
-        <v>-1</v>
-      </c>
-      <c r="X18">
-        <v>-1</v>
-      </c>
-      <c r="Y18">
-        <v>3.5</v>
-      </c>
-      <c r="Z18">
-        <v>-1</v>
-      </c>
-      <c r="AA18">
-        <v>1.05</v>
-      </c>
-      <c r="AB18">
-        <v>-0.5</v>
-      </c>
-      <c r="AC18">
-        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6802951</v>
+        <v>6802956</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,76 +2141,76 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>1.166</v>
+        <v>1.909</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M19">
-        <v>15</v>
+        <v>3.75</v>
       </c>
       <c r="N19">
-        <v>1.111</v>
+        <v>1.75</v>
       </c>
       <c r="O19">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P19">
-        <v>17</v>
+        <v>4.5</v>
       </c>
       <c r="Q19">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
+        <v>1.8</v>
+      </c>
+      <c r="S19">
+        <v>2.05</v>
+      </c>
+      <c r="T19">
+        <v>2.25</v>
+      </c>
+      <c r="U19">
         <v>1.85</v>
       </c>
-      <c r="S19">
+      <c r="V19">
         <v>2</v>
       </c>
-      <c r="T19">
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
         <v>3.5</v>
       </c>
-      <c r="U19">
-        <v>1.825</v>
-      </c>
-      <c r="V19">
-        <v>2.025</v>
-      </c>
-      <c r="W19">
-        <v>0.111</v>
-      </c>
-      <c r="X19">
-        <v>-1</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
       <c r="Z19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB19">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6802952</v>
+        <v>6802951</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,76 +2230,76 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I20">
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K20">
-        <v>2.8</v>
+        <v>1.166</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M20">
-        <v>2.25</v>
+        <v>15</v>
       </c>
       <c r="N20">
-        <v>3.6</v>
+        <v>1.111</v>
       </c>
       <c r="O20">
+        <v>7.5</v>
+      </c>
+      <c r="P20">
+        <v>17</v>
+      </c>
+      <c r="Q20">
+        <v>-2.25</v>
+      </c>
+      <c r="R20">
+        <v>1.85</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="T20">
         <v>3.5</v>
       </c>
-      <c r="P20">
-        <v>1.909</v>
-      </c>
-      <c r="Q20">
-        <v>0.5</v>
-      </c>
-      <c r="R20">
-        <v>1.875</v>
-      </c>
-      <c r="S20">
-        <v>1.975</v>
-      </c>
-      <c r="T20">
-        <v>2.75</v>
-      </c>
       <c r="U20">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V20">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA20">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6802953</v>
+        <v>6802950</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,40 +2408,40 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="L22">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="N22">
-        <v>2.625</v>
+        <v>1.533</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P22">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R22">
         <v>1.925</v>
@@ -2450,34 +2450,34 @@
         <v>1.925</v>
       </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U22">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V22">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA22">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC22">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6802950</v>
+        <v>6802953</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,40 +2586,40 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24">
+        <v>2.625</v>
+      </c>
+      <c r="L24">
+        <v>3.1</v>
+      </c>
+      <c r="M24">
+        <v>2.55</v>
+      </c>
+      <c r="N24">
+        <v>2.625</v>
+      </c>
+      <c r="O24">
         <v>3</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24" t="s">
-        <v>45</v>
-      </c>
-      <c r="K24">
-        <v>1.5</v>
-      </c>
-      <c r="L24">
-        <v>4</v>
-      </c>
-      <c r="M24">
-        <v>5.75</v>
-      </c>
-      <c r="N24">
-        <v>1.533</v>
-      </c>
-      <c r="O24">
-        <v>4</v>
-      </c>
       <c r="P24">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R24">
         <v>1.925</v>
@@ -2628,34 +2628,34 @@
         <v>1.925</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V24">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W24">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB24">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2678,7 +2678,7 @@
         <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6802962</v>
+        <v>6802958</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,76 +2764,76 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="L26">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M26">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="N26">
+        <v>1.75</v>
+      </c>
+      <c r="O26">
+        <v>3.75</v>
+      </c>
+      <c r="P26">
+        <v>3.8</v>
+      </c>
+      <c r="Q26">
+        <v>-0.5</v>
+      </c>
+      <c r="R26">
+        <v>1.825</v>
+      </c>
+      <c r="S26">
+        <v>2.025</v>
+      </c>
+      <c r="T26">
         <v>2.75</v>
       </c>
-      <c r="O26">
-        <v>3.25</v>
-      </c>
-      <c r="P26">
-        <v>2.25</v>
-      </c>
-      <c r="Q26">
-        <v>0.25</v>
-      </c>
-      <c r="R26">
-        <v>1.8</v>
-      </c>
-      <c r="S26">
-        <v>2.05</v>
-      </c>
-      <c r="T26">
-        <v>2.5</v>
-      </c>
       <c r="U26">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V26">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X26">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6802958</v>
+        <v>6802962</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,76 +2853,76 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="L27">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M27">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N27">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="O27">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P27">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q27">
+        <v>0.25</v>
+      </c>
+      <c r="R27">
+        <v>1.8</v>
+      </c>
+      <c r="S27">
+        <v>2.05</v>
+      </c>
+      <c r="T27">
+        <v>2.5</v>
+      </c>
+      <c r="U27">
+        <v>1.825</v>
+      </c>
+      <c r="V27">
+        <v>2.025</v>
+      </c>
+      <c r="W27">
+        <v>-1</v>
+      </c>
+      <c r="X27">
+        <v>2.25</v>
+      </c>
+      <c r="Y27">
+        <v>-1</v>
+      </c>
+      <c r="Z27">
+        <v>0.4</v>
+      </c>
+      <c r="AA27">
         <v>-0.5</v>
       </c>
-      <c r="R27">
-        <v>1.825</v>
-      </c>
-      <c r="S27">
-        <v>2.025</v>
-      </c>
-      <c r="T27">
-        <v>2.75</v>
-      </c>
-      <c r="U27">
-        <v>1.925</v>
-      </c>
-      <c r="V27">
-        <v>1.925</v>
-      </c>
-      <c r="W27">
-        <v>0.75</v>
-      </c>
-      <c r="X27">
-        <v>-1</v>
-      </c>
-      <c r="Y27">
-        <v>-1</v>
-      </c>
-      <c r="Z27">
-        <v>0.825</v>
-      </c>
-      <c r="AA27">
-        <v>-1</v>
-      </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6802959</v>
+        <v>6802960</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,76 +3031,76 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L29">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N29">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O29">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P29">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R29">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S29">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA29">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6802960</v>
+        <v>6802959</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,76 +3120,76 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M30">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N30">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O30">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P30">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q30">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S30">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AB30">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6802963</v>
+        <v>6802961</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,76 +3209,76 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="L31">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="N31">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="O31">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P31">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R31">
+        <v>1.85</v>
+      </c>
+      <c r="S31">
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <v>3</v>
+      </c>
+      <c r="U31">
         <v>2.025</v>
       </c>
-      <c r="S31">
+      <c r="V31">
         <v>1.825</v>
       </c>
-      <c r="T31">
-        <v>2.75</v>
-      </c>
-      <c r="U31">
-        <v>1.825</v>
-      </c>
-      <c r="V31">
-        <v>2.025</v>
-      </c>
       <c r="W31">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z31">
-        <v>0.5125</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB31">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6802961</v>
+        <v>6802963</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,76 +3298,76 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M32">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="N32">
-        <v>4.5</v>
+        <v>1.666</v>
       </c>
       <c r="O32">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R32">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T32">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U32">
+        <v>1.825</v>
+      </c>
+      <c r="V32">
         <v>2.025</v>
       </c>
-      <c r="V32">
-        <v>1.825</v>
-      </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AA32">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC32">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3476,7 +3476,7 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
         <v>44</v>
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6802970</v>
+        <v>6802968</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,19 +3565,19 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K35">
         <v>1.75</v>
@@ -3586,19 +3586,19 @@
         <v>3.6</v>
       </c>
       <c r="M35">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N35">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O35">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P35">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q35">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R35">
         <v>1.925</v>
@@ -3607,34 +3607,34 @@
         <v>1.925</v>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
+        <v>1.95</v>
+      </c>
+      <c r="V35">
         <v>1.9</v>
       </c>
-      <c r="V35">
-        <v>1.95</v>
-      </c>
       <c r="W35">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC35">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6802968</v>
+        <v>6802970</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,19 +3654,19 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K36">
         <v>1.75</v>
@@ -3675,19 +3675,19 @@
         <v>3.6</v>
       </c>
       <c r="M36">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N36">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O36">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P36">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q36">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R36">
         <v>1.925</v>
@@ -3696,34 +3696,34 @@
         <v>1.925</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U36">
+        <v>1.9</v>
+      </c>
+      <c r="V36">
         <v>1.95</v>
       </c>
-      <c r="V36">
-        <v>1.9</v>
-      </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X36">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA36">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB36">
+        <v>-1</v>
+      </c>
+      <c r="AC36">
         <v>0.95</v>
-      </c>
-      <c r="AC36">
-        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3743,7 +3743,7 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
         <v>36</v>
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6802966</v>
+        <v>6802969</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,13 +3832,13 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3847,43 +3847,43 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="L38">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="N38">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="O38">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P38">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q38">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R38">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S38">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U38">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V38">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3892,16 +3892,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6802969</v>
+        <v>6802967</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,7 +3921,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s">
         <v>37</v>
@@ -3930,49 +3930,49 @@
         <v>2</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
         <v>45</v>
       </c>
       <c r="K39">
+        <v>1.55</v>
+      </c>
+      <c r="L39">
+        <v>3.8</v>
+      </c>
+      <c r="M39">
+        <v>5.25</v>
+      </c>
+      <c r="N39">
+        <v>1.45</v>
+      </c>
+      <c r="O39">
+        <v>4.2</v>
+      </c>
+      <c r="P39">
+        <v>5.75</v>
+      </c>
+      <c r="Q39">
+        <v>-1</v>
+      </c>
+      <c r="R39">
+        <v>1.825</v>
+      </c>
+      <c r="S39">
+        <v>2.025</v>
+      </c>
+      <c r="T39">
+        <v>3</v>
+      </c>
+      <c r="U39">
+        <v>2</v>
+      </c>
+      <c r="V39">
         <v>1.85</v>
       </c>
-      <c r="L39">
-        <v>3.4</v>
-      </c>
-      <c r="M39">
-        <v>3.75</v>
-      </c>
-      <c r="N39">
-        <v>1.75</v>
-      </c>
-      <c r="O39">
-        <v>3.6</v>
-      </c>
-      <c r="P39">
-        <v>4.2</v>
-      </c>
-      <c r="Q39">
-        <v>-0.75</v>
-      </c>
-      <c r="R39">
-        <v>2.025</v>
-      </c>
-      <c r="S39">
-        <v>1.825</v>
-      </c>
-      <c r="T39">
-        <v>2.75</v>
-      </c>
-      <c r="U39">
-        <v>2.025</v>
-      </c>
-      <c r="V39">
-        <v>1.825</v>
-      </c>
       <c r="W39">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3981,16 +3981,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC39">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6802967</v>
+        <v>6802966</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,59 +4010,59 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
         <v>45</v>
       </c>
       <c r="K40">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="L40">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M40">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N40">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="O40">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P40">
-        <v>5.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q40">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S40">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T40">
         <v>3</v>
       </c>
       <c r="U40">
+        <v>1.9</v>
+      </c>
+      <c r="V40">
+        <v>1.95</v>
+      </c>
+      <c r="W40">
         <v>2</v>
       </c>
-      <c r="V40">
-        <v>1.85</v>
-      </c>
-      <c r="W40">
-        <v>0.45</v>
-      </c>
       <c r="X40">
         <v>-1</v>
       </c>
@@ -4070,10 +4070,10 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA40">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
         <v>0</v>
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6802980</v>
+        <v>6802977</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,76 +4188,76 @@
         <v>45164.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K42">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L42">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M42">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="N42">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="O42">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P42">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="Q42">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R42">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S42">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T42">
         <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V42">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA42">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC42">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4265,7 +4265,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6802977</v>
+        <v>6802980</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4277,76 +4277,76 @@
         <v>45164.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K43">
+        <v>3</v>
+      </c>
+      <c r="L43">
+        <v>3.3</v>
+      </c>
+      <c r="M43">
+        <v>2.15</v>
+      </c>
+      <c r="N43">
+        <v>3.3</v>
+      </c>
+      <c r="O43">
+        <v>3.5</v>
+      </c>
+      <c r="P43">
+        <v>2</v>
+      </c>
+      <c r="Q43">
+        <v>0.5</v>
+      </c>
+      <c r="R43">
+        <v>1.8</v>
+      </c>
+      <c r="S43">
         <v>2.05</v>
-      </c>
-      <c r="L43">
-        <v>3.4</v>
-      </c>
-      <c r="M43">
-        <v>3.25</v>
-      </c>
-      <c r="N43">
-        <v>2.1</v>
-      </c>
-      <c r="O43">
-        <v>3.4</v>
-      </c>
-      <c r="P43">
-        <v>3.1</v>
-      </c>
-      <c r="Q43">
-        <v>-0.25</v>
-      </c>
-      <c r="R43">
-        <v>1.925</v>
-      </c>
-      <c r="S43">
-        <v>1.925</v>
       </c>
       <c r="T43">
         <v>2.75</v>
       </c>
       <c r="U43">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V43">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W43">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z43">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB43">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6802978</v>
+        <v>6802973</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,58 +4455,58 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H45">
         <v>2</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
         <v>45</v>
       </c>
       <c r="K45">
+        <v>1.75</v>
+      </c>
+      <c r="L45">
+        <v>3.6</v>
+      </c>
+      <c r="M45">
+        <v>4</v>
+      </c>
+      <c r="N45">
         <v>1.85</v>
-      </c>
-      <c r="L45">
-        <v>3.4</v>
-      </c>
-      <c r="M45">
-        <v>3.8</v>
-      </c>
-      <c r="N45">
-        <v>1.75</v>
       </c>
       <c r="O45">
         <v>3.5</v>
       </c>
       <c r="P45">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q45">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T45">
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V45">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W45">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4515,16 +4515,16 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC45">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7098155</v>
+        <v>6802978</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,49 +4544,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K46">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="L46">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M46">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="N46">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="O46">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P46">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q46">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S46">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
         <v>2.025</v>
@@ -4595,16 +4595,16 @@
         <v>1.825</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X46">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA46">
         <v>-1</v>
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6802973</v>
+        <v>7098155</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,76 +4633,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K47">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="L47">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M47">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="N47">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="O47">
+        <v>4.5</v>
+      </c>
+      <c r="P47">
+        <v>1.4</v>
+      </c>
+      <c r="Q47">
+        <v>1.25</v>
+      </c>
+      <c r="R47">
+        <v>1.95</v>
+      </c>
+      <c r="S47">
+        <v>1.9</v>
+      </c>
+      <c r="T47">
+        <v>3</v>
+      </c>
+      <c r="U47">
+        <v>2.025</v>
+      </c>
+      <c r="V47">
+        <v>1.825</v>
+      </c>
+      <c r="W47">
+        <v>-1</v>
+      </c>
+      <c r="X47">
         <v>3.5</v>
       </c>
-      <c r="P47">
-        <v>3.6</v>
-      </c>
-      <c r="Q47">
-        <v>-0.5</v>
-      </c>
-      <c r="R47">
-        <v>1.925</v>
-      </c>
-      <c r="S47">
-        <v>1.925</v>
-      </c>
-      <c r="T47">
-        <v>2.75</v>
-      </c>
-      <c r="U47">
-        <v>2</v>
-      </c>
-      <c r="V47">
-        <v>1.85</v>
-      </c>
-      <c r="W47">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X47">
-        <v>-1</v>
-      </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4725,7 +4725,7 @@
         <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6802986</v>
+        <v>6802988</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K49">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L49">
         <v>3.4</v>
       </c>
       <c r="M49">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="N49">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O49">
         <v>3.4</v>
       </c>
       <c r="P49">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q49">
         <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S49">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W49">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z49">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB49">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6802988</v>
+        <v>6802986</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,76 +4900,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K50">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L50">
         <v>3.4</v>
       </c>
       <c r="M50">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="N50">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O50">
         <v>3.4</v>
       </c>
       <c r="P50">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q50">
         <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S50">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC50">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4992,7 +4992,7 @@
         <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6802981</v>
+        <v>6802987</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,76 +5167,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
         <v>2</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K53">
-        <v>1.45</v>
+        <v>4.5</v>
       </c>
       <c r="L53">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M53">
+        <v>1.65</v>
+      </c>
+      <c r="N53">
         <v>5.5</v>
       </c>
-      <c r="N53">
-        <v>1.3</v>
-      </c>
       <c r="O53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P53">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="Q53">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R53">
+        <v>1.9</v>
+      </c>
+      <c r="S53">
+        <v>1.95</v>
+      </c>
+      <c r="T53">
+        <v>2.75</v>
+      </c>
+      <c r="U53">
         <v>1.925</v>
       </c>
-      <c r="S53">
+      <c r="V53">
         <v>1.925</v>
       </c>
-      <c r="T53">
-        <v>3.25</v>
-      </c>
-      <c r="U53">
-        <v>2.025</v>
-      </c>
-      <c r="V53">
-        <v>1.825</v>
-      </c>
       <c r="W53">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z53">
+        <v>-1</v>
+      </c>
+      <c r="AA53">
+        <v>0.95</v>
+      </c>
+      <c r="AB53">
+        <v>-1</v>
+      </c>
+      <c r="AC53">
         <v>0.925</v>
-      </c>
-      <c r="AA53">
-        <v>-1</v>
-      </c>
-      <c r="AB53">
-        <v>-1</v>
-      </c>
-      <c r="AC53">
-        <v>0.825</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6802987</v>
+        <v>6802981</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,76 +5256,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K54">
-        <v>4.5</v>
+        <v>1.45</v>
       </c>
       <c r="L54">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M54">
-        <v>1.65</v>
+        <v>5.5</v>
       </c>
       <c r="N54">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="O54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P54">
-        <v>1.533</v>
+        <v>7</v>
       </c>
       <c r="Q54">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R54">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T54">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V54">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5348,7 +5348,7 @@
         <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>5</v>
@@ -5437,7 +5437,7 @@
         <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6802991</v>
+        <v>6802989</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,13 +5523,13 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -5538,34 +5538,34 @@
         <v>45</v>
       </c>
       <c r="K57">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="L57">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="M57">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N57">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="O57">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P57">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q57">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S57">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T57">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
         <v>1.975</v>
@@ -5574,7 +5574,7 @@
         <v>1.875</v>
       </c>
       <c r="W57">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5583,16 +5583,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA57">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC57">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6802989</v>
+        <v>6802991</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5612,13 +5612,13 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -5627,34 +5627,34 @@
         <v>45</v>
       </c>
       <c r="K58">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="L58">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="M58">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N58">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O58">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P58">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R58">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S58">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T58">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U58">
         <v>1.975</v>
@@ -5663,7 +5663,7 @@
         <v>1.875</v>
       </c>
       <c r="W58">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5672,16 +5672,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB58">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5701,10 +5701,10 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" t="s">
         <v>29</v>
-      </c>
-      <c r="G59" t="s">
-        <v>30</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5879,7 +5879,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
         <v>32</v>
@@ -6057,7 +6057,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
         <v>42</v>
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6802999</v>
+        <v>6803004</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,49 +6235,49 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K65">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="L65">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M65">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="N65">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O65">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P65">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="Q65">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R65">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S65">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T65">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U65">
         <v>1.9</v>
@@ -6286,25 +6286,25 @@
         <v>1.95</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA65">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6803000</v>
+        <v>6803002</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,49 +6324,49 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K66">
-        <v>1.45</v>
+        <v>1.9</v>
       </c>
       <c r="L66">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M66">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N66">
-        <v>1.363</v>
+        <v>1.7</v>
       </c>
       <c r="O66">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P66">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q66">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R66">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T66">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U66">
         <v>1.9</v>
@@ -6375,19 +6375,19 @@
         <v>1.95</v>
       </c>
       <c r="W66">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB66">
         <v>0.8999999999999999</v>
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6803002</v>
+        <v>6803000</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,49 +6413,49 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H67">
+        <v>5</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>45</v>
+      </c>
+      <c r="K67">
+        <v>1.45</v>
+      </c>
+      <c r="L67">
+        <v>4.5</v>
+      </c>
+      <c r="M67">
+        <v>6.5</v>
+      </c>
+      <c r="N67">
+        <v>1.363</v>
+      </c>
+      <c r="O67">
+        <v>5.25</v>
+      </c>
+      <c r="P67">
+        <v>7</v>
+      </c>
+      <c r="Q67">
+        <v>-1.5</v>
+      </c>
+      <c r="R67">
+        <v>2.05</v>
+      </c>
+      <c r="S67">
+        <v>1.8</v>
+      </c>
+      <c r="T67">
         <v>3</v>
-      </c>
-      <c r="I67">
-        <v>3</v>
-      </c>
-      <c r="J67" t="s">
-        <v>47</v>
-      </c>
-      <c r="K67">
-        <v>1.9</v>
-      </c>
-      <c r="L67">
-        <v>3.5</v>
-      </c>
-      <c r="M67">
-        <v>4</v>
-      </c>
-      <c r="N67">
-        <v>1.7</v>
-      </c>
-      <c r="O67">
-        <v>3.75</v>
-      </c>
-      <c r="P67">
-        <v>4.75</v>
-      </c>
-      <c r="Q67">
-        <v>-0.75</v>
-      </c>
-      <c r="R67">
-        <v>1.95</v>
-      </c>
-      <c r="S67">
-        <v>1.9</v>
-      </c>
-      <c r="T67">
-        <v>2.5</v>
       </c>
       <c r="U67">
         <v>1.9</v>
@@ -6464,19 +6464,19 @@
         <v>1.95</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X67">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA67">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
         <v>0.8999999999999999</v>
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6803004</v>
+        <v>6802999</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,49 +6502,49 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
         <v>2</v>
       </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K68">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="L68">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M68">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="N68">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O68">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P68">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="Q68">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R68">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U68">
         <v>1.9</v>
@@ -6553,25 +6553,25 @@
         <v>1.95</v>
       </c>
       <c r="W68">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z68">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC68">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6594,7 +6594,7 @@
         <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -6772,7 +6772,7 @@
         <v>42</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H71">
         <v>6</v>
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6803009</v>
+        <v>6803007</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,76 +6947,76 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>47</v>
+      </c>
+      <c r="K73">
+        <v>2.15</v>
+      </c>
+      <c r="L73">
+        <v>3.5</v>
+      </c>
+      <c r="M73">
+        <v>3</v>
+      </c>
+      <c r="N73">
+        <v>2.25</v>
+      </c>
+      <c r="O73">
+        <v>3.6</v>
+      </c>
+      <c r="P73">
+        <v>2.9</v>
+      </c>
+      <c r="Q73">
+        <v>-0.25</v>
+      </c>
+      <c r="R73">
         <v>2</v>
       </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73" t="s">
-        <v>45</v>
-      </c>
-      <c r="K73">
-        <v>2.875</v>
-      </c>
-      <c r="L73">
-        <v>3.25</v>
-      </c>
-      <c r="M73">
-        <v>2.375</v>
-      </c>
-      <c r="N73">
+      <c r="S73">
+        <v>1.85</v>
+      </c>
+      <c r="T73">
         <v>3</v>
       </c>
-      <c r="O73">
-        <v>3.25</v>
-      </c>
-      <c r="P73">
-        <v>2.4</v>
-      </c>
-      <c r="Q73">
-        <v>0.25</v>
-      </c>
-      <c r="R73">
-        <v>1.775</v>
-      </c>
-      <c r="S73">
-        <v>2.1</v>
-      </c>
-      <c r="T73">
-        <v>2.5</v>
-      </c>
       <c r="U73">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V73">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W73">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB73">
         <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6803011</v>
+        <v>6803009</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,58 +7036,58 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H74">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
         <v>45</v>
       </c>
       <c r="K74">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="L74">
         <v>3.25</v>
       </c>
       <c r="M74">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N74">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O74">
         <v>3.25</v>
       </c>
       <c r="P74">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T74">
         <v>2.5</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W74">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7096,16 +7096,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6803005</v>
+        <v>6803011</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,76 +7125,76 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K75">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M75">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N75">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="O75">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P75">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="Q75">
         <v>0</v>
       </c>
       <c r="R75">
+        <v>2</v>
+      </c>
+      <c r="S75">
         <v>1.85</v>
       </c>
-      <c r="S75">
-        <v>2</v>
-      </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V75">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AC75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6803007</v>
+        <v>6803005</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7217,73 +7217,73 @@
         <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K76">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M76">
         <v>3</v>
       </c>
       <c r="N76">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P76">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R76">
+        <v>1.85</v>
+      </c>
+      <c r="S76">
         <v>2</v>
       </c>
-      <c r="S76">
-        <v>1.85</v>
-      </c>
       <c r="T76">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z76">
+        <v>-1</v>
+      </c>
+      <c r="AA76">
+        <v>1</v>
+      </c>
+      <c r="AB76">
+        <v>0.4875</v>
+      </c>
+      <c r="AC76">
         <v>-0.5</v>
-      </c>
-      <c r="AA76">
-        <v>0.425</v>
-      </c>
-      <c r="AB76">
-        <v>-1</v>
-      </c>
-      <c r="AC76">
-        <v>0.825</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7481,7 +7481,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
         <v>32</v>
@@ -7570,7 +7570,7 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
         <v>43</v>
@@ -7662,7 +7662,7 @@
         <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7751,7 +7751,7 @@
         <v>41</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7837,7 +7837,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G83" t="s">
         <v>35</v>
@@ -7929,7 +7929,7 @@
         <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8018,7 +8018,7 @@
         <v>39</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8371,7 +8371,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
         <v>43</v>
@@ -8537,7 +8537,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6803021</v>
+        <v>6803022</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8549,76 +8549,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F91" t="s">
+        <v>30</v>
+      </c>
+      <c r="G91" t="s">
         <v>37</v>
       </c>
-      <c r="G91" t="s">
-        <v>35</v>
-      </c>
       <c r="H91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K91">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L91">
         <v>3.4</v>
       </c>
       <c r="M91">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="N91">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O91">
         <v>3.6</v>
       </c>
       <c r="P91">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="Q91">
+        <v>0.25</v>
+      </c>
+      <c r="R91">
+        <v>2</v>
+      </c>
+      <c r="S91">
+        <v>1.85</v>
+      </c>
+      <c r="T91">
+        <v>2.5</v>
+      </c>
+      <c r="U91">
+        <v>1.9</v>
+      </c>
+      <c r="V91">
+        <v>1.95</v>
+      </c>
+      <c r="W91">
+        <v>-1</v>
+      </c>
+      <c r="X91">
+        <v>2.6</v>
+      </c>
+      <c r="Y91">
+        <v>-1</v>
+      </c>
+      <c r="Z91">
         <v>0.5</v>
       </c>
-      <c r="R91">
-        <v>1.85</v>
-      </c>
-      <c r="S91">
-        <v>2</v>
-      </c>
-      <c r="T91">
-        <v>2.75</v>
-      </c>
-      <c r="U91">
-        <v>2</v>
-      </c>
-      <c r="V91">
-        <v>1.85</v>
-      </c>
-      <c r="W91">
-        <v>-1</v>
-      </c>
-      <c r="X91">
-        <v>-1</v>
-      </c>
-      <c r="Y91">
-        <v>0.909</v>
-      </c>
-      <c r="Z91">
-        <v>-1</v>
-      </c>
       <c r="AA91">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6803022</v>
+        <v>6803021</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,76 +8638,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K92">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L92">
         <v>3.4</v>
       </c>
       <c r="M92">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="N92">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O92">
         <v>3.6</v>
       </c>
       <c r="P92">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R92">
+        <v>1.85</v>
+      </c>
+      <c r="S92">
         <v>2</v>
       </c>
-      <c r="S92">
+      <c r="T92">
+        <v>2.75</v>
+      </c>
+      <c r="U92">
+        <v>2</v>
+      </c>
+      <c r="V92">
         <v>1.85</v>
       </c>
-      <c r="T92">
-        <v>2.5</v>
-      </c>
-      <c r="U92">
-        <v>1.9</v>
-      </c>
-      <c r="V92">
-        <v>1.95</v>
-      </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z92">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8905,7 +8905,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G95" t="s">
         <v>39</v>
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6803032</v>
+        <v>6803031</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K97">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M97">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N97">
         <v>1.85</v>
       </c>
       <c r="O97">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P97">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q97">
         <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S97">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T97">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U97">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V97">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W97">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6803034</v>
+        <v>6803029</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K98">
+        <v>1.615</v>
+      </c>
+      <c r="L98">
+        <v>4</v>
+      </c>
+      <c r="M98">
+        <v>5</v>
+      </c>
+      <c r="N98">
+        <v>1.4</v>
+      </c>
+      <c r="O98">
+        <v>5</v>
+      </c>
+      <c r="P98">
+        <v>7</v>
+      </c>
+      <c r="Q98">
+        <v>-1.5</v>
+      </c>
+      <c r="R98">
+        <v>2.025</v>
+      </c>
+      <c r="S98">
+        <v>1.825</v>
+      </c>
+      <c r="T98">
+        <v>3</v>
+      </c>
+      <c r="U98">
         <v>2.05</v>
       </c>
-      <c r="L98">
-        <v>3.4</v>
-      </c>
-      <c r="M98">
-        <v>3.4</v>
-      </c>
-      <c r="N98">
+      <c r="V98">
         <v>1.8</v>
       </c>
-      <c r="O98">
-        <v>3.75</v>
-      </c>
-      <c r="P98">
+      <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
         <v>4</v>
       </c>
-      <c r="Q98">
-        <v>-0.75</v>
-      </c>
-      <c r="R98">
-        <v>2.05</v>
-      </c>
-      <c r="S98">
-        <v>1.8</v>
-      </c>
-      <c r="T98">
-        <v>2.75</v>
-      </c>
-      <c r="U98">
-        <v>1.825</v>
-      </c>
-      <c r="V98">
-        <v>2.025</v>
-      </c>
-      <c r="W98">
-        <v>-1</v>
-      </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
       <c r="Y98">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
+        <v>0.825</v>
+      </c>
+      <c r="AB98">
+        <v>-1</v>
+      </c>
+      <c r="AC98">
         <v>0.8</v>
-      </c>
-      <c r="AB98">
-        <v>-1</v>
-      </c>
-      <c r="AC98">
-        <v>1.025</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6803029</v>
+        <v>6803034</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K99">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="L99">
+        <v>3.4</v>
+      </c>
+      <c r="M99">
+        <v>3.4</v>
+      </c>
+      <c r="N99">
+        <v>1.8</v>
+      </c>
+      <c r="O99">
+        <v>3.75</v>
+      </c>
+      <c r="P99">
         <v>4</v>
       </c>
-      <c r="M99">
-        <v>5</v>
-      </c>
-      <c r="N99">
-        <v>1.4</v>
-      </c>
-      <c r="O99">
-        <v>5</v>
-      </c>
-      <c r="P99">
-        <v>7</v>
-      </c>
       <c r="Q99">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
+        <v>2.05</v>
+      </c>
+      <c r="S99">
+        <v>1.8</v>
+      </c>
+      <c r="T99">
+        <v>2.75</v>
+      </c>
+      <c r="U99">
+        <v>1.825</v>
+      </c>
+      <c r="V99">
         <v>2.025</v>
       </c>
-      <c r="S99">
-        <v>1.825</v>
-      </c>
-      <c r="T99">
+      <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
         <v>3</v>
       </c>
-      <c r="U99">
-        <v>2.05</v>
-      </c>
-      <c r="V99">
-        <v>1.8</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
-      <c r="X99">
-        <v>4</v>
-      </c>
-      <c r="Y99">
-        <v>-1</v>
-      </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6803031</v>
+        <v>6803032</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,76 +9350,76 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K100">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M100">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N100">
         <v>1.85</v>
       </c>
       <c r="O100">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P100">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q100">
         <v>-0.5</v>
       </c>
       <c r="R100">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S100">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T100">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U100">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V100">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X100">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA100">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6803030</v>
+        <v>6803033</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,40 +9528,40 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K102">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="L102">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M102">
-        <v>1.85</v>
+        <v>12</v>
       </c>
       <c r="N102">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="O102">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="P102">
-        <v>1.7</v>
+        <v>11</v>
       </c>
       <c r="Q102">
-        <v>0.75</v>
+        <v>-2</v>
       </c>
       <c r="R102">
         <v>1.975</v>
@@ -9570,34 +9570,34 @@
         <v>1.875</v>
       </c>
       <c r="T102">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U102">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W102">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Z102">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB102">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6803033</v>
+        <v>6803030</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,40 +9617,40 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K103">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="L103">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M103">
-        <v>12</v>
+        <v>1.85</v>
       </c>
       <c r="N103">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="O103">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="P103">
-        <v>11</v>
+        <v>1.7</v>
       </c>
       <c r="Q103">
-        <v>-2</v>
+        <v>0.75</v>
       </c>
       <c r="R103">
         <v>1.975</v>
@@ -9659,34 +9659,34 @@
         <v>1.875</v>
       </c>
       <c r="T103">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U103">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA103">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC103">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9795,10 +9795,10 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>44</v>
       </c>
       <c r="G106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9973,7 +9973,7 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
         <v>35</v>
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6803041</v>
+        <v>6803043</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,76 +10240,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H110">
         <v>1</v>
       </c>
       <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110" t="s">
+        <v>45</v>
+      </c>
+      <c r="K110">
+        <v>1.7</v>
+      </c>
+      <c r="L110">
+        <v>4.2</v>
+      </c>
+      <c r="M110">
+        <v>4.333</v>
+      </c>
+      <c r="N110">
+        <v>1.533</v>
+      </c>
+      <c r="O110">
+        <v>4.5</v>
+      </c>
+      <c r="P110">
+        <v>5.5</v>
+      </c>
+      <c r="Q110">
+        <v>-1</v>
+      </c>
+      <c r="R110">
+        <v>1.875</v>
+      </c>
+      <c r="S110">
+        <v>1.975</v>
+      </c>
+      <c r="T110">
         <v>3</v>
       </c>
-      <c r="J110" t="s">
-        <v>46</v>
-      </c>
-      <c r="K110">
-        <v>3.8</v>
-      </c>
-      <c r="L110">
-        <v>3.75</v>
-      </c>
-      <c r="M110">
-        <v>1.909</v>
-      </c>
-      <c r="N110">
-        <v>3.2</v>
-      </c>
-      <c r="O110">
-        <v>3.6</v>
-      </c>
-      <c r="P110">
-        <v>2.15</v>
-      </c>
-      <c r="Q110">
-        <v>0.25</v>
-      </c>
-      <c r="R110">
-        <v>2</v>
-      </c>
-      <c r="S110">
-        <v>1.85</v>
-      </c>
-      <c r="T110">
-        <v>2.75</v>
-      </c>
       <c r="U110">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA110">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB110">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6803043</v>
+        <v>6803041</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,76 +10329,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K111">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="L111">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M111">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N111">
-        <v>1.533</v>
+        <v>3.2</v>
       </c>
       <c r="O111">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P111">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q111">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R111">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S111">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T111">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V111">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W111">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC111">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6803046</v>
+        <v>6803051</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,76 +10507,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>1</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K113">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="L113">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M113">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="N113">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="O113">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P113">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R113">
+        <v>1.95</v>
+      </c>
+      <c r="S113">
         <v>1.9</v>
       </c>
-      <c r="S113">
-        <v>1.95</v>
-      </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U113">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V113">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X113">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA113">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10599,7 +10599,7 @@
         <v>40</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6803051</v>
+        <v>6803052</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K115">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="L115">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M115">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="N115">
-        <v>1.444</v>
+        <v>3.6</v>
       </c>
       <c r="O115">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P115">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q115">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R115">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T115">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W115">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
+        <v>0.5</v>
+      </c>
+      <c r="AA115">
         <v>-0.5</v>
       </c>
-      <c r="AA115">
-        <v>0.45</v>
-      </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC115">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6803052</v>
+        <v>6803046</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,10 +10774,10 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G116" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10789,61 +10789,61 @@
         <v>47</v>
       </c>
       <c r="K116">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="L116">
         <v>3.4</v>
       </c>
       <c r="M116">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="N116">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="O116">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P116">
+        <v>2.7</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <v>1.9</v>
+      </c>
+      <c r="S116">
+        <v>1.95</v>
+      </c>
+      <c r="T116">
+        <v>2.5</v>
+      </c>
+      <c r="U116">
+        <v>2.05</v>
+      </c>
+      <c r="V116">
+        <v>1.8</v>
+      </c>
+      <c r="W116">
+        <v>-1</v>
+      </c>
+      <c r="X116">
         <v>2.1</v>
       </c>
-      <c r="Q116">
-        <v>0.25</v>
-      </c>
-      <c r="R116">
-        <v>2</v>
-      </c>
-      <c r="S116">
-        <v>1.85</v>
-      </c>
-      <c r="T116">
-        <v>2.25</v>
-      </c>
-      <c r="U116">
-        <v>1.825</v>
-      </c>
-      <c r="V116">
-        <v>2.025</v>
-      </c>
-      <c r="W116">
-        <v>-1</v>
-      </c>
-      <c r="X116">
-        <v>2.25</v>
-      </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA116">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10866,7 +10866,7 @@
         <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6803048</v>
+        <v>6803049</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,55 +10952,55 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
         <v>1</v>
-      </c>
-      <c r="I118">
-        <v>4</v>
       </c>
       <c r="J118" t="s">
         <v>46</v>
       </c>
       <c r="K118">
-        <v>1.55</v>
+        <v>4</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M118">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="N118">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O118">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P118">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q118">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S118">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T118">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V118">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -11009,19 +11009,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>6.5</v>
+        <v>1.1</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB118">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6803049</v>
+        <v>6803048</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,55 +11041,55 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J119" t="s">
         <v>46</v>
       </c>
       <c r="K119">
+        <v>1.55</v>
+      </c>
+      <c r="L119">
         <v>4</v>
       </c>
-      <c r="L119">
-        <v>3.75</v>
-      </c>
       <c r="M119">
-        <v>1.85</v>
+        <v>5.75</v>
       </c>
       <c r="N119">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O119">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P119">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="Q119">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R119">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S119">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V119">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -11098,19 +11098,19 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC119">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11130,7 +11130,7 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G120" t="s">
         <v>32</v>
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6803053</v>
+        <v>6803057</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,76 +11308,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K122">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="L122">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M122">
+        <v>2.25</v>
+      </c>
+      <c r="N122">
+        <v>3.4</v>
+      </c>
+      <c r="O122">
+        <v>3.1</v>
+      </c>
+      <c r="P122">
+        <v>2.15</v>
+      </c>
+      <c r="Q122">
+        <v>0.25</v>
+      </c>
+      <c r="R122">
+        <v>1.925</v>
+      </c>
+      <c r="S122">
+        <v>1.925</v>
+      </c>
+      <c r="T122">
+        <v>2.25</v>
+      </c>
+      <c r="U122">
         <v>1.8</v>
       </c>
-      <c r="N122">
-        <v>4.333</v>
-      </c>
-      <c r="O122">
-        <v>3.75</v>
-      </c>
-      <c r="P122">
-        <v>1.7</v>
-      </c>
-      <c r="Q122">
-        <v>0.75</v>
-      </c>
-      <c r="R122">
-        <v>1.9</v>
-      </c>
-      <c r="S122">
-        <v>1.95</v>
-      </c>
-      <c r="T122">
-        <v>2.75</v>
-      </c>
-      <c r="U122">
-        <v>2.025</v>
-      </c>
       <c r="V122">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z122">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC122">
-        <v>0.825</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11397,7 +11397,7 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
         <v>41</v>
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6803057</v>
+        <v>6803053</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K124">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L124">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M124">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="N124">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O124">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P124">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R124">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S124">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V124">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y124">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA124">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.5249999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6803060</v>
+        <v>6803055</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,58 +11664,58 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H126">
         <v>2</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
         <v>45</v>
       </c>
       <c r="K126">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L126">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M126">
+        <v>3.1</v>
+      </c>
+      <c r="N126">
+        <v>2.2</v>
+      </c>
+      <c r="O126">
+        <v>3</v>
+      </c>
+      <c r="P126">
         <v>3.5</v>
       </c>
-      <c r="N126">
-        <v>1.727</v>
-      </c>
-      <c r="O126">
-        <v>3.25</v>
-      </c>
-      <c r="P126">
-        <v>5</v>
-      </c>
       <c r="Q126">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S126">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T126">
         <v>2.25</v>
       </c>
       <c r="U126">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V126">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W126">
-        <v>0.7270000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11724,16 +11724,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AA126">
+        <v>-1</v>
+      </c>
+      <c r="AB126">
         <v>-0.5</v>
       </c>
-      <c r="AB126">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6803055</v>
+        <v>6803060</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,58 +11753,58 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H127">
         <v>2</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
         <v>45</v>
       </c>
       <c r="K127">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L127">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M127">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N127">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O127">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P127">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q127">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R127">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S127">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T127">
         <v>2.25</v>
       </c>
       <c r="U127">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V127">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W127">
-        <v>1.2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11813,16 +11813,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB127">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC127">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11845,7 +11845,7 @@
         <v>36</v>
       </c>
       <c r="G128" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -11931,7 +11931,7 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
         <v>34</v>
@@ -12020,7 +12020,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
         <v>36</v>
@@ -12112,7 +12112,7 @@
         <v>44</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H131">
         <v>3</v>
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6803074</v>
+        <v>6803071</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,49 +12287,49 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H133">
         <v>5</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
         <v>45</v>
       </c>
       <c r="K133">
-        <v>1.55</v>
+        <v>1.666</v>
       </c>
       <c r="L133">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M133">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N133">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="O133">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P133">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q133">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R133">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S133">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
         <v>1.825</v>
@@ -12338,7 +12338,7 @@
         <v>2.025</v>
       </c>
       <c r="W133">
-        <v>0.5</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X133">
         <v>-1</v>
@@ -12347,7 +12347,7 @@
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA133">
         <v>-1</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6803071</v>
+        <v>6803074</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,49 +12465,49 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H135">
         <v>5</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J135" t="s">
         <v>45</v>
       </c>
       <c r="K135">
-        <v>1.666</v>
+        <v>1.55</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M135">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N135">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="O135">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P135">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q135">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R135">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S135">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
         <v>1.825</v>
@@ -12516,7 +12516,7 @@
         <v>2.025</v>
       </c>
       <c r="W135">
-        <v>0.6659999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X135">
         <v>-1</v>
@@ -12525,7 +12525,7 @@
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA135">
         <v>-1</v>
@@ -12913,7 +12913,7 @@
         <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6803081</v>
+        <v>6803080</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,76 +13088,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G142" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H142">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K142">
+        <v>2.3</v>
+      </c>
+      <c r="L142">
+        <v>3.3</v>
+      </c>
+      <c r="M142">
+        <v>3.1</v>
+      </c>
+      <c r="N142">
         <v>2.5</v>
       </c>
-      <c r="L142">
-        <v>3.4</v>
-      </c>
-      <c r="M142">
-        <v>2.7</v>
-      </c>
-      <c r="N142">
-        <v>3</v>
-      </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P142">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R142">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T142">
         <v>2.5</v>
       </c>
       <c r="U142">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V142">
+        <v>1.9</v>
+      </c>
+      <c r="W142">
+        <v>-1</v>
+      </c>
+      <c r="X142">
+        <v>-1</v>
+      </c>
+      <c r="Y142">
         <v>1.8</v>
       </c>
-      <c r="W142">
-        <v>2</v>
-      </c>
-      <c r="X142">
-        <v>-1</v>
-      </c>
-      <c r="Y142">
-        <v>-1</v>
-      </c>
       <c r="Z142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB142">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6803083</v>
+        <v>6803081</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,76 +13177,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G143" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I143">
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K143">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="L143">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M143">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N143">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="O143">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P143">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="Q143">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R143">
+        <v>1.825</v>
+      </c>
+      <c r="S143">
+        <v>2.025</v>
+      </c>
+      <c r="T143">
+        <v>2.5</v>
+      </c>
+      <c r="U143">
         <v>2.05</v>
       </c>
-      <c r="S143">
+      <c r="V143">
         <v>1.8</v>
       </c>
-      <c r="T143">
-        <v>3</v>
-      </c>
-      <c r="U143">
-        <v>2.025</v>
-      </c>
-      <c r="V143">
-        <v>1.825</v>
-      </c>
       <c r="W143">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X143">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6803080</v>
+        <v>6803082</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,76 +13266,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K144">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="L144">
         <v>3.3</v>
       </c>
       <c r="M144">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="N144">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O144">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P144">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S144">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T144">
         <v>2.5</v>
       </c>
       <c r="U144">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA144">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6803082</v>
+        <v>6803083</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,76 +13355,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F145" t="s">
+        <v>44</v>
+      </c>
+      <c r="G145" t="s">
         <v>31</v>
       </c>
-      <c r="G145" t="s">
-        <v>33</v>
-      </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K145">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="L145">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M145">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N145">
+        <v>1.45</v>
+      </c>
+      <c r="O145">
+        <v>4.75</v>
+      </c>
+      <c r="P145">
+        <v>6</v>
+      </c>
+      <c r="Q145">
+        <v>-1.25</v>
+      </c>
+      <c r="R145">
+        <v>2.05</v>
+      </c>
+      <c r="S145">
+        <v>1.8</v>
+      </c>
+      <c r="T145">
         <v>3</v>
       </c>
-      <c r="O145">
-        <v>3.4</v>
-      </c>
-      <c r="P145">
-        <v>2.3</v>
-      </c>
-      <c r="Q145">
-        <v>0.25</v>
-      </c>
-      <c r="R145">
+      <c r="U145">
+        <v>2.025</v>
+      </c>
+      <c r="V145">
         <v>1.825</v>
       </c>
-      <c r="S145">
-        <v>2.025</v>
-      </c>
-      <c r="T145">
-        <v>2.5</v>
-      </c>
-      <c r="U145">
-        <v>2</v>
-      </c>
-      <c r="V145">
-        <v>1.85</v>
-      </c>
       <c r="W145">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
+        <v>-1</v>
+      </c>
+      <c r="AA145">
+        <v>0.8</v>
+      </c>
+      <c r="AB145">
+        <v>-1</v>
+      </c>
+      <c r="AC145">
         <v>0.825</v>
-      </c>
-      <c r="AA145">
-        <v>-1</v>
-      </c>
-      <c r="AB145">
-        <v>-1</v>
-      </c>
-      <c r="AC145">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13622,7 +13622,7 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
         <v>42</v>
@@ -13714,7 +13714,7 @@
         <v>36</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6803090</v>
+        <v>6803087</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,13 +13800,13 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -13815,43 +13815,43 @@
         <v>45</v>
       </c>
       <c r="K150">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="L150">
         <v>3.4</v>
       </c>
       <c r="M150">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="N150">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="O150">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P150">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="Q150">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R150">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S150">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T150">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U150">
+        <v>1.875</v>
+      </c>
+      <c r="V150">
         <v>1.975</v>
       </c>
-      <c r="V150">
-        <v>1.875</v>
-      </c>
       <c r="W150">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13860,16 +13860,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>1.1</v>
+        <v>1.025</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC150">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13892,7 +13892,7 @@
         <v>34</v>
       </c>
       <c r="G151" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6803087</v>
+        <v>6803090</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,13 +13978,13 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H152">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -13993,43 +13993,43 @@
         <v>45</v>
       </c>
       <c r="K152">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="L152">
         <v>3.4</v>
       </c>
       <c r="M152">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="N152">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="O152">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P152">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q152">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S152">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T152">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U152">
+        <v>1.975</v>
+      </c>
+      <c r="V152">
         <v>1.875</v>
       </c>
-      <c r="V152">
-        <v>1.975</v>
-      </c>
       <c r="W152">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14038,16 +14038,16 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>1.025</v>
+        <v>1.1</v>
       </c>
       <c r="AA152">
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14067,7 +14067,7 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F153" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
         <v>36</v>
@@ -14245,10 +14245,10 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G155" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14601,10 +14601,10 @@
         <v>45336.54166666666</v>
       </c>
       <c r="F159" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14690,7 +14690,7 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G160" t="s">
         <v>32</v>
@@ -14767,7 +14767,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6803094</v>
+        <v>6803100</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14779,76 +14779,76 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G161" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
         <v>47</v>
       </c>
       <c r="K161">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L161">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M161">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N161">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O161">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P161">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q161">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S161">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T161">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U161">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V161">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA161">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC161">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6803095</v>
+        <v>6803098</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,73 +14868,73 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G162" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K162">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L162">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M162">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N162">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O162">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P162">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R162">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S162">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T162">
         <v>2.75</v>
       </c>
       <c r="U162">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V162">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA162">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6803098</v>
+        <v>6803094</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,76 +14957,76 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G163" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H163">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K163">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L163">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M163">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N163">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O163">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P163">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q163">
         <v>-0.75</v>
       </c>
       <c r="R163">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S163">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T163">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U163">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V163">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W163">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB163">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15034,7 +15034,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6803100</v>
+        <v>6803095</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15046,34 +15046,34 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G164" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H164">
         <v>1</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J164" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K164">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="L164">
         <v>3.4</v>
       </c>
       <c r="M164">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N164">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O164">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P164">
         <v>3.25</v>
@@ -15082,13 +15082,13 @@
         <v>-0.25</v>
       </c>
       <c r="R164">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S164">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T164">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U164">
         <v>1.825</v>
@@ -15100,22 +15100,22 @@
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB164">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC164">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15224,7 +15224,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F166" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G166" t="s">
         <v>34</v>
@@ -15313,7 +15313,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G167" t="s">
         <v>32</v>
@@ -15491,10 +15491,10 @@
         <v>45343.5625</v>
       </c>
       <c r="F169" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H169">
         <v>2</v>
@@ -15568,7 +15568,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6803104</v>
+        <v>6803106</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15580,49 +15580,49 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F170" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G170" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J170" t="s">
         <v>47</v>
       </c>
       <c r="K170">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L170">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M170">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N170">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O170">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P170">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q170">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S170">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T170">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U170">
         <v>1.925</v>
@@ -15634,22 +15634,22 @@
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA170">
-        <v>1.05</v>
+        <v>0.5125</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC170">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6803106</v>
+        <v>6803105</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,73 +15669,73 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G171" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
         <v>47</v>
       </c>
       <c r="K171">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L171">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M171">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N171">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O171">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P171">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R171">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S171">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T171">
         <v>2.5</v>
       </c>
       <c r="U171">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V171">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W171">
         <v>-1</v>
       </c>
       <c r="X171">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB171">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC171">
         <v>-1</v>
@@ -15835,7 +15835,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6803105</v>
+        <v>6803104</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15847,61 +15847,61 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G173" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
         <v>47</v>
       </c>
       <c r="K173">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L173">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M173">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N173">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O173">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P173">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q173">
         <v>-0.75</v>
       </c>
       <c r="R173">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S173">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T173">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U173">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V173">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W173">
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Y173">
         <v>-1</v>
@@ -15910,13 +15910,13 @@
         <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB173">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15939,7 +15939,7 @@
         <v>42</v>
       </c>
       <c r="G174" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H174">
         <v>3</v>
@@ -16028,7 +16028,7 @@
         <v>32</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H175">
         <v>3</v>
@@ -16117,7 +16117,7 @@
         <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16292,7 +16292,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F178" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G178" t="s">
         <v>34</v>
@@ -16307,22 +16307,22 @@
         <v>1.909</v>
       </c>
       <c r="N178">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O178">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P178">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="Q178">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R178">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S178">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T178">
         <v>2.5</v>
@@ -16366,7 +16366,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G179" t="s">
         <v>41</v>
@@ -16393,19 +16393,19 @@
         <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S179">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T179">
         <v>2.5</v>
       </c>
       <c r="U179">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V179">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W179">
         <v>0</v>
@@ -16455,16 +16455,16 @@
         <v>5.5</v>
       </c>
       <c r="N180">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="O180">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P180">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Q180">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R180">
         <v>1.875</v>
@@ -16473,13 +16473,13 @@
         <v>1.975</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U180">
+        <v>2.025</v>
+      </c>
+      <c r="V180">
         <v>1.825</v>
-      </c>
-      <c r="V180">
-        <v>2.025</v>
       </c>
       <c r="W180">
         <v>0</v>
@@ -16588,7 +16588,7 @@
         <v>45353.58333333334</v>
       </c>
       <c r="F182" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G182" t="s">
         <v>42</v>
@@ -16603,31 +16603,31 @@
         <v>1.615</v>
       </c>
       <c r="N182">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="O182">
         <v>4</v>
       </c>
       <c r="P182">
-        <v>1.615</v>
+        <v>1.6</v>
       </c>
       <c r="Q182">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R182">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S182">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T182">
         <v>2.75</v>
       </c>
       <c r="U182">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V182">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W182">
         <v>0</v>
@@ -16662,7 +16662,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F183" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G183" t="s">
         <v>33</v>
@@ -16677,31 +16677,31 @@
         <v>2.75</v>
       </c>
       <c r="N183">
+        <v>2.375</v>
+      </c>
+      <c r="O183">
+        <v>3.5</v>
+      </c>
+      <c r="P183">
+        <v>2.8</v>
+      </c>
+      <c r="Q183">
+        <v>-0.25</v>
+      </c>
+      <c r="R183">
+        <v>2.1</v>
+      </c>
+      <c r="S183">
+        <v>1.775</v>
+      </c>
+      <c r="T183">
         <v>2.5</v>
       </c>
-      <c r="O183">
-        <v>3.3</v>
-      </c>
-      <c r="P183">
-        <v>2.75</v>
-      </c>
-      <c r="Q183">
-        <v>0</v>
-      </c>
-      <c r="R183">
-        <v>1.825</v>
-      </c>
-      <c r="S183">
-        <v>2.025</v>
-      </c>
-      <c r="T183">
-        <v>2.25</v>
-      </c>
       <c r="U183">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V183">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W183">
         <v>0</v>
@@ -16736,7 +16736,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G184" t="s">
         <v>39</v>
@@ -16751,22 +16751,22 @@
         <v>1.85</v>
       </c>
       <c r="N184">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O184">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P184">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="Q184">
         <v>0.5</v>
       </c>
       <c r="R184">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S184">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T184">
         <v>2.5</v>
@@ -16825,31 +16825,31 @@
         <v>3</v>
       </c>
       <c r="N185">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O185">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P185">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q185">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R185">
+        <v>1.85</v>
+      </c>
+      <c r="S185">
         <v>2</v>
-      </c>
-      <c r="S185">
-        <v>1.85</v>
       </c>
       <c r="T185">
         <v>2.5</v>
       </c>
       <c r="U185">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V185">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W185">
         <v>0</v>

--- a/Czech Republic First League/Czech Republic First League.xlsx
+++ b/Czech Republic First League/Czech Republic First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -115,13 +115,13 @@
     <t>Slavia Prague</t>
   </si>
   <si>
-    <t>Mlada Boleslav</t>
+    <t>Slovacko</t>
   </si>
   <si>
     <t>Slovan Liberec</t>
   </si>
   <si>
-    <t>Slovacko</t>
+    <t>Mlada Boleslav</t>
   </si>
   <si>
     <t>Sparta Prague</t>
@@ -136,10 +136,10 @@
     <t>Banik Ostrava</t>
   </si>
   <si>
-    <t>Ceske Budejovice</t>
+    <t>Bohemians 1905</t>
   </si>
   <si>
-    <t>Bohemians 1905</t>
+    <t>Ceske Budejovice</t>
   </si>
   <si>
     <t>Viktoria Plzen</t>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6802934</v>
+        <v>6802940</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,10 +987,10 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -999,43 +999,43 @@
         <v>45</v>
       </c>
       <c r="K6">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="N6">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P6">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q6">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V6">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W6">
-        <v>0.833</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1044,13 +1044,13 @@
         <v>-1</v>
       </c>
       <c r="Z6">
+        <v>0.95</v>
+      </c>
+      <c r="AA6">
+        <v>-1</v>
+      </c>
+      <c r="AB6">
         <v>0.925</v>
-      </c>
-      <c r="AA6">
-        <v>-1</v>
-      </c>
-      <c r="AB6">
-        <v>0.825</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6802940</v>
+        <v>6802934</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,10 +1165,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1177,43 +1177,43 @@
         <v>45</v>
       </c>
       <c r="K8">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M8">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="N8">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P8">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="Q8">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T8">
         <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V8">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W8">
-        <v>0.3999999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1222,13 +1222,13 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6802948</v>
+        <v>6802945</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1340,76 +1340,76 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M10">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="N10">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O10">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P10">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q10">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R10">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S10">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T10">
         <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V10">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X10">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA10">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC10">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6802945</v>
+        <v>6802948</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,76 +1429,76 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L11">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="N11">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O11">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P11">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q11">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R11">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T11">
         <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W11">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB11">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1610,7 +1610,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6802946</v>
+        <v>6802944</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1696,76 +1696,76 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="L14">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M14">
+        <v>5.25</v>
+      </c>
+      <c r="N14">
+        <v>1.65</v>
+      </c>
+      <c r="O14">
         <v>3.6</v>
       </c>
-      <c r="N14">
-        <v>1.85</v>
-      </c>
-      <c r="O14">
-        <v>3.5</v>
-      </c>
       <c r="P14">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q14">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R14">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T14">
         <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB14">
-        <v>0.925</v>
+        <v>0.5125</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1785,7 +1785,7 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
         <v>32</v>
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6802944</v>
+        <v>6802946</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1874,76 +1874,76 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M16">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="N16">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O16">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S16">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
         <v>2.75</v>
       </c>
       <c r="U16">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y16">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB16">
-        <v>0.5125</v>
+        <v>0.925</v>
       </c>
       <c r="AC16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2141,7 +2141,7 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
         <v>37</v>
@@ -2233,7 +2233,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>43</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H21">
         <v>5</v>
@@ -2589,7 +2589,7 @@
         <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6802959</v>
+        <v>6802960</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,76 +3031,76 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L29">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N29">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O29">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P29">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R29">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S29">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA29">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6802963</v>
+        <v>6802961</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,76 +3120,76 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="L30">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="N30">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="O30">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P30">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R30">
+        <v>1.85</v>
+      </c>
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30">
         <v>2.025</v>
       </c>
-      <c r="S30">
+      <c r="V30">
         <v>1.825</v>
       </c>
-      <c r="T30">
-        <v>2.75</v>
-      </c>
-      <c r="U30">
-        <v>1.825</v>
-      </c>
-      <c r="V30">
-        <v>2.025</v>
-      </c>
       <c r="W30">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z30">
-        <v>0.5125</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB30">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6802961</v>
+        <v>6802963</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,76 +3209,76 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M31">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="N31">
-        <v>4.5</v>
+        <v>1.666</v>
       </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R31">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
+        <v>1.825</v>
+      </c>
+      <c r="V31">
         <v>2.025</v>
       </c>
-      <c r="V31">
-        <v>1.825</v>
-      </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AA31">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC31">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6802960</v>
+        <v>6802959</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,76 +3298,76 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M32">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N32">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O32">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P32">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q32">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S32">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T32">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V32">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AB32">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3387,7 +3387,7 @@
         <v>45151.54166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
         <v>42</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6802971</v>
+        <v>6802968</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,76 +3476,76 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
         <v>47</v>
       </c>
       <c r="K34">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="L34">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M34">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="N34">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O34">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P34">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R34">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S34">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T34">
         <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V34">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC34">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6802968</v>
+        <v>6802971</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,76 +3565,76 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
         <v>47</v>
       </c>
       <c r="K35">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="L35">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M35">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="N35">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O35">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P35">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q35">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S35">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T35">
         <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V35">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB35">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3921,10 +3921,10 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" t="s">
         <v>40</v>
-      </c>
-      <c r="G39" t="s">
-        <v>41</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6802977</v>
+        <v>6802980</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,76 +4188,76 @@
         <v>45164.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42">
+        <v>3.3</v>
+      </c>
+      <c r="M42">
+        <v>2.15</v>
+      </c>
+      <c r="N42">
+        <v>3.3</v>
+      </c>
+      <c r="O42">
+        <v>3.5</v>
+      </c>
+      <c r="P42">
+        <v>2</v>
+      </c>
+      <c r="Q42">
+        <v>0.5</v>
+      </c>
+      <c r="R42">
+        <v>1.8</v>
+      </c>
+      <c r="S42">
         <v>2.05</v>
-      </c>
-      <c r="L42">
-        <v>3.4</v>
-      </c>
-      <c r="M42">
-        <v>3.25</v>
-      </c>
-      <c r="N42">
-        <v>2.1</v>
-      </c>
-      <c r="O42">
-        <v>3.4</v>
-      </c>
-      <c r="P42">
-        <v>3.1</v>
-      </c>
-      <c r="Q42">
-        <v>-0.25</v>
-      </c>
-      <c r="R42">
-        <v>1.925</v>
-      </c>
-      <c r="S42">
-        <v>1.925</v>
       </c>
       <c r="T42">
         <v>2.75</v>
       </c>
       <c r="U42">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W42">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z42">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB42">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4265,7 +4265,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6802980</v>
+        <v>6802977</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4277,76 +4277,76 @@
         <v>45164.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K43">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L43">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M43">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="N43">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="O43">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P43">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="Q43">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R43">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T43">
         <v>2.75</v>
       </c>
       <c r="U43">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V43">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA43">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC43">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4369,7 +4369,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7098155</v>
+        <v>6802973</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,76 +4455,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K45">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="L45">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M45">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="N45">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="O45">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P45">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q45">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S45">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T45">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V45">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X45">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC45">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6802973</v>
+        <v>7098155</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,76 +4633,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K47">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="L47">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M47">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="N47">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="O47">
+        <v>4.5</v>
+      </c>
+      <c r="P47">
+        <v>1.4</v>
+      </c>
+      <c r="Q47">
+        <v>1.25</v>
+      </c>
+      <c r="R47">
+        <v>1.95</v>
+      </c>
+      <c r="S47">
+        <v>1.9</v>
+      </c>
+      <c r="T47">
+        <v>3</v>
+      </c>
+      <c r="U47">
+        <v>2.025</v>
+      </c>
+      <c r="V47">
+        <v>1.825</v>
+      </c>
+      <c r="W47">
+        <v>-1</v>
+      </c>
+      <c r="X47">
         <v>3.5</v>
       </c>
-      <c r="P47">
-        <v>3.6</v>
-      </c>
-      <c r="Q47">
-        <v>-0.5</v>
-      </c>
-      <c r="R47">
-        <v>1.925</v>
-      </c>
-      <c r="S47">
-        <v>1.925</v>
-      </c>
-      <c r="T47">
-        <v>2.75</v>
-      </c>
-      <c r="U47">
-        <v>2</v>
-      </c>
-      <c r="V47">
-        <v>1.85</v>
-      </c>
-      <c r="W47">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X47">
-        <v>-1</v>
-      </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6802984</v>
+        <v>6802986</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,58 +4900,58 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
         <v>1</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
       </c>
       <c r="J50" t="s">
         <v>45</v>
       </c>
       <c r="K50">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="L50">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="N50">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O50">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q50">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S50">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T50">
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W50">
-        <v>0.444</v>
+        <v>1.3</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4960,16 +4960,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
+        <v>1.05</v>
+      </c>
+      <c r="AA50">
+        <v>-1</v>
+      </c>
+      <c r="AB50">
+        <v>0.4625</v>
+      </c>
+      <c r="AC50">
         <v>-0.5</v>
-      </c>
-      <c r="AA50">
-        <v>0.4125</v>
-      </c>
-      <c r="AB50">
-        <v>-1</v>
-      </c>
-      <c r="AC50">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6802986</v>
+        <v>6802984</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,58 +4989,58 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>45</v>
       </c>
       <c r="K51">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M51">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="N51">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="O51">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P51">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R51">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S51">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W51">
-        <v>1.3</v>
+        <v>0.444</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5049,16 +5049,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB51">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5081,7 +5081,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5259,7 +5259,7 @@
         <v>42</v>
       </c>
       <c r="G54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6802989</v>
+        <v>6802991</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,13 +5523,13 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H57">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -5538,34 +5538,34 @@
         <v>45</v>
       </c>
       <c r="K57">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="L57">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="M57">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N57">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O57">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P57">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R57">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U57">
         <v>1.975</v>
@@ -5574,7 +5574,7 @@
         <v>1.875</v>
       </c>
       <c r="W57">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5583,16 +5583,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB57">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6802991</v>
+        <v>6802989</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5612,13 +5612,13 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -5627,34 +5627,34 @@
         <v>45</v>
       </c>
       <c r="K58">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="M58">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N58">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="O58">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P58">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q58">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R58">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S58">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T58">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
         <v>1.975</v>
@@ -5663,7 +5663,7 @@
         <v>1.875</v>
       </c>
       <c r="W58">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5672,16 +5672,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA58">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC58">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5701,7 +5701,7 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s">
         <v>39</v>
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6802990</v>
+        <v>6802994</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,76 +5968,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K62">
-        <v>5</v>
+        <v>2.35</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M62">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="N62">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="O62">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P62">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="Q62">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S62">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V62">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y62">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB62">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6802994</v>
+        <v>6802990</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K63">
-        <v>2.35</v>
+        <v>5</v>
       </c>
       <c r="L63">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M63">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="N63">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="O63">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P63">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R63">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S63">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC63">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6149,7 +6149,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>5</v>
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6803000</v>
+        <v>6803002</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,49 +6235,49 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K65">
-        <v>1.45</v>
+        <v>1.9</v>
       </c>
       <c r="L65">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M65">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N65">
-        <v>1.363</v>
+        <v>1.7</v>
       </c>
       <c r="O65">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P65">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q65">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R65">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S65">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T65">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
         <v>1.9</v>
@@ -6286,19 +6286,19 @@
         <v>1.95</v>
       </c>
       <c r="W65">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB65">
         <v>0.8999999999999999</v>
@@ -6324,10 +6324,10 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6803002</v>
+        <v>6803000</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,49 +6413,49 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H67">
+        <v>5</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>45</v>
+      </c>
+      <c r="K67">
+        <v>1.45</v>
+      </c>
+      <c r="L67">
+        <v>4.5</v>
+      </c>
+      <c r="M67">
+        <v>6.5</v>
+      </c>
+      <c r="N67">
+        <v>1.363</v>
+      </c>
+      <c r="O67">
+        <v>5.25</v>
+      </c>
+      <c r="P67">
+        <v>7</v>
+      </c>
+      <c r="Q67">
+        <v>-1.5</v>
+      </c>
+      <c r="R67">
+        <v>2.05</v>
+      </c>
+      <c r="S67">
+        <v>1.8</v>
+      </c>
+      <c r="T67">
         <v>3</v>
-      </c>
-      <c r="I67">
-        <v>3</v>
-      </c>
-      <c r="J67" t="s">
-        <v>47</v>
-      </c>
-      <c r="K67">
-        <v>1.9</v>
-      </c>
-      <c r="L67">
-        <v>3.5</v>
-      </c>
-      <c r="M67">
-        <v>4</v>
-      </c>
-      <c r="N67">
-        <v>1.7</v>
-      </c>
-      <c r="O67">
-        <v>3.75</v>
-      </c>
-      <c r="P67">
-        <v>4.75</v>
-      </c>
-      <c r="Q67">
-        <v>-0.75</v>
-      </c>
-      <c r="R67">
-        <v>1.95</v>
-      </c>
-      <c r="S67">
-        <v>1.9</v>
-      </c>
-      <c r="T67">
-        <v>2.5</v>
       </c>
       <c r="U67">
         <v>1.9</v>
@@ -6464,19 +6464,19 @@
         <v>1.95</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X67">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA67">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
         <v>0.8999999999999999</v>
@@ -6502,7 +6502,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
         <v>30</v>
@@ -6591,7 +6591,7 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s">
         <v>37</v>
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6802998</v>
+        <v>6802997</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,59 +6680,59 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H70">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
         <v>45</v>
       </c>
       <c r="K70">
+        <v>2.1</v>
+      </c>
+      <c r="L70">
+        <v>3.4</v>
+      </c>
+      <c r="M70">
+        <v>3.4</v>
+      </c>
+      <c r="N70">
+        <v>2.3</v>
+      </c>
+      <c r="O70">
+        <v>3.4</v>
+      </c>
+      <c r="P70">
+        <v>2.9</v>
+      </c>
+      <c r="Q70">
+        <v>-0.25</v>
+      </c>
+      <c r="R70">
+        <v>1.975</v>
+      </c>
+      <c r="S70">
+        <v>1.875</v>
+      </c>
+      <c r="T70">
+        <v>2.5</v>
+      </c>
+      <c r="U70">
+        <v>1.9</v>
+      </c>
+      <c r="V70">
+        <v>1.95</v>
+      </c>
+      <c r="W70">
         <v>1.3</v>
       </c>
-      <c r="L70">
-        <v>5.25</v>
-      </c>
-      <c r="M70">
-        <v>9</v>
-      </c>
-      <c r="N70">
-        <v>1.2</v>
-      </c>
-      <c r="O70">
-        <v>5.75</v>
-      </c>
-      <c r="P70">
-        <v>13</v>
-      </c>
-      <c r="Q70">
-        <v>-2</v>
-      </c>
-      <c r="R70">
-        <v>2.025</v>
-      </c>
-      <c r="S70">
-        <v>1.825</v>
-      </c>
-      <c r="T70">
-        <v>3.25</v>
-      </c>
-      <c r="U70">
-        <v>1.85</v>
-      </c>
-      <c r="V70">
-        <v>2</v>
-      </c>
-      <c r="W70">
-        <v>0.2</v>
-      </c>
       <c r="X70">
         <v>-1</v>
       </c>
@@ -6740,16 +6740,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6802997</v>
+        <v>6802998</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,58 +6769,58 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G71" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
         <v>45</v>
       </c>
       <c r="K71">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="L71">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="M71">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="N71">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P71">
-        <v>2.9</v>
+        <v>13</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R71">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S71">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U71">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W71">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6829,16 +6829,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC71">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6803011</v>
+        <v>6803007</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,40 +6947,40 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H73">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K73">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="L73">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M73">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N73">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="O73">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P73">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
         <v>2</v>
@@ -6989,34 +6989,34 @@
         <v>1.85</v>
       </c>
       <c r="T73">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W73">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6803009</v>
+        <v>6803005</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,76 +7036,76 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>3</v>
+      </c>
+      <c r="J74" t="s">
+        <v>46</v>
+      </c>
+      <c r="K74">
+        <v>2.25</v>
+      </c>
+      <c r="L74">
+        <v>3.4</v>
+      </c>
+      <c r="M74">
+        <v>3</v>
+      </c>
+      <c r="N74">
+        <v>2.6</v>
+      </c>
+      <c r="O74">
+        <v>3.3</v>
+      </c>
+      <c r="P74">
+        <v>2.625</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>1.85</v>
+      </c>
+      <c r="S74">
         <v>2</v>
       </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74" t="s">
-        <v>45</v>
-      </c>
-      <c r="K74">
-        <v>2.875</v>
-      </c>
-      <c r="L74">
-        <v>3.25</v>
-      </c>
-      <c r="M74">
-        <v>2.375</v>
-      </c>
-      <c r="N74">
-        <v>3</v>
-      </c>
-      <c r="O74">
-        <v>3.25</v>
-      </c>
-      <c r="P74">
-        <v>2.4</v>
-      </c>
-      <c r="Q74">
-        <v>0.25</v>
-      </c>
-      <c r="R74">
-        <v>1.775</v>
-      </c>
-      <c r="S74">
-        <v>2.1</v>
-      </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W74">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z74">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC74">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6803007</v>
+        <v>6803011</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,40 +7125,40 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K75">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="L75">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M75">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N75">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P75">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R75">
         <v>2</v>
@@ -7167,34 +7167,34 @@
         <v>1.85</v>
       </c>
       <c r="T75">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V75">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X75">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA75">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC75">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6803005</v>
+        <v>6803009</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,76 +7214,76 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G76" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="I76">
         <v>0</v>
       </c>
-      <c r="I76">
+      <c r="J76" t="s">
+        <v>45</v>
+      </c>
+      <c r="K76">
+        <v>2.875</v>
+      </c>
+      <c r="L76">
+        <v>3.25</v>
+      </c>
+      <c r="M76">
+        <v>2.375</v>
+      </c>
+      <c r="N76">
         <v>3</v>
       </c>
-      <c r="J76" t="s">
-        <v>46</v>
-      </c>
-      <c r="K76">
-        <v>2.25</v>
-      </c>
-      <c r="L76">
-        <v>3.4</v>
-      </c>
-      <c r="M76">
-        <v>3</v>
-      </c>
-      <c r="N76">
-        <v>2.6</v>
-      </c>
       <c r="O76">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P76">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R76">
+        <v>1.775</v>
+      </c>
+      <c r="S76">
+        <v>2.1</v>
+      </c>
+      <c r="T76">
+        <v>2.5</v>
+      </c>
+      <c r="U76">
+        <v>2</v>
+      </c>
+      <c r="V76">
         <v>1.85</v>
       </c>
-      <c r="S76">
+      <c r="W76">
         <v>2</v>
       </c>
-      <c r="T76">
-        <v>2.75</v>
-      </c>
-      <c r="U76">
-        <v>1.975</v>
-      </c>
-      <c r="V76">
-        <v>1.875</v>
-      </c>
-      <c r="W76">
-        <v>-1</v>
-      </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA76">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7392,10 +7392,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6803017</v>
+        <v>6803020</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,76 +7659,76 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K81">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M81">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="N81">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O81">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P81">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q81">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R81">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S81">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T81">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V81">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X81">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA81">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6803015</v>
+        <v>6803017</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7751,43 +7751,43 @@
         <v>40</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K82">
+        <v>1.6</v>
+      </c>
+      <c r="L82">
+        <v>4</v>
+      </c>
+      <c r="M82">
+        <v>5.25</v>
+      </c>
+      <c r="N82">
+        <v>1.4</v>
+      </c>
+      <c r="O82">
+        <v>4.75</v>
+      </c>
+      <c r="P82">
+        <v>6.5</v>
+      </c>
+      <c r="Q82">
+        <v>-1.25</v>
+      </c>
+      <c r="R82">
+        <v>1.9</v>
+      </c>
+      <c r="S82">
         <v>1.95</v>
-      </c>
-      <c r="L82">
-        <v>3.5</v>
-      </c>
-      <c r="M82">
-        <v>3.75</v>
-      </c>
-      <c r="N82">
-        <v>1.8</v>
-      </c>
-      <c r="O82">
-        <v>3.75</v>
-      </c>
-      <c r="P82">
-        <v>4</v>
-      </c>
-      <c r="Q82">
-        <v>-0.5</v>
-      </c>
-      <c r="R82">
-        <v>1.85</v>
-      </c>
-      <c r="S82">
-        <v>2</v>
       </c>
       <c r="T82">
         <v>3</v>
@@ -7799,19 +7799,19 @@
         <v>1.85</v>
       </c>
       <c r="W82">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB82">
         <v>-1</v>
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6803020</v>
+        <v>6803015</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,13 +7837,13 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -7852,43 +7852,43 @@
         <v>45</v>
       </c>
       <c r="K83">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="L83">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M83">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N83">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O83">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P83">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="Q83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S83">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T83">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U83">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V83">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W83">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7897,7 +7897,7 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA83">
         <v>-1</v>
@@ -7906,7 +7906,7 @@
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7929,7 +7929,7 @@
         <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H84">
         <v>4</v>
@@ -8537,7 +8537,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6803022</v>
+        <v>6803021</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8549,76 +8549,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K91">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L91">
         <v>3.4</v>
       </c>
       <c r="M91">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="N91">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O91">
         <v>3.6</v>
       </c>
       <c r="P91">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="Q91">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R91">
+        <v>1.85</v>
+      </c>
+      <c r="S91">
         <v>2</v>
       </c>
-      <c r="S91">
+      <c r="T91">
+        <v>2.75</v>
+      </c>
+      <c r="U91">
+        <v>2</v>
+      </c>
+      <c r="V91">
         <v>1.85</v>
       </c>
-      <c r="T91">
-        <v>2.5</v>
-      </c>
-      <c r="U91">
-        <v>1.9</v>
-      </c>
-      <c r="V91">
-        <v>1.95</v>
-      </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z91">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC91">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6803021</v>
+        <v>6803022</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,76 +8638,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K92">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L92">
         <v>3.4</v>
       </c>
       <c r="M92">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="N92">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O92">
         <v>3.6</v>
       </c>
       <c r="P92">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="Q92">
+        <v>0.25</v>
+      </c>
+      <c r="R92">
+        <v>2</v>
+      </c>
+      <c r="S92">
+        <v>1.85</v>
+      </c>
+      <c r="T92">
+        <v>2.5</v>
+      </c>
+      <c r="U92">
+        <v>1.9</v>
+      </c>
+      <c r="V92">
+        <v>1.95</v>
+      </c>
+      <c r="W92">
+        <v>-1</v>
+      </c>
+      <c r="X92">
+        <v>2.6</v>
+      </c>
+      <c r="Y92">
+        <v>-1</v>
+      </c>
+      <c r="Z92">
         <v>0.5</v>
       </c>
-      <c r="R92">
-        <v>1.85</v>
-      </c>
-      <c r="S92">
-        <v>2</v>
-      </c>
-      <c r="T92">
-        <v>2.75</v>
-      </c>
-      <c r="U92">
-        <v>2</v>
-      </c>
-      <c r="V92">
-        <v>1.85</v>
-      </c>
-      <c r="W92">
-        <v>-1</v>
-      </c>
-      <c r="X92">
-        <v>-1</v>
-      </c>
-      <c r="Y92">
-        <v>0.909</v>
-      </c>
-      <c r="Z92">
-        <v>-1</v>
-      </c>
       <c r="AA92">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8730,7 +8730,7 @@
         <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8908,7 +8908,7 @@
         <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H95">
         <v>4</v>
@@ -8997,7 +8997,7 @@
         <v>44</v>
       </c>
       <c r="G96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6803034</v>
+        <v>6803031</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,49 +9083,49 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K97">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M97">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N97">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O97">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P97">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S97">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U97">
         <v>1.825</v>
@@ -9137,16 +9137,16 @@
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y97">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB97">
         <v>-1</v>
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6803029</v>
+        <v>6803034</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K99">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="L99">
+        <v>3.4</v>
+      </c>
+      <c r="M99">
+        <v>3.4</v>
+      </c>
+      <c r="N99">
+        <v>1.8</v>
+      </c>
+      <c r="O99">
+        <v>3.75</v>
+      </c>
+      <c r="P99">
         <v>4</v>
       </c>
-      <c r="M99">
-        <v>5</v>
-      </c>
-      <c r="N99">
-        <v>1.4</v>
-      </c>
-      <c r="O99">
-        <v>5</v>
-      </c>
-      <c r="P99">
-        <v>7</v>
-      </c>
       <c r="Q99">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
+        <v>2.05</v>
+      </c>
+      <c r="S99">
+        <v>1.8</v>
+      </c>
+      <c r="T99">
+        <v>2.75</v>
+      </c>
+      <c r="U99">
+        <v>1.825</v>
+      </c>
+      <c r="V99">
         <v>2.025</v>
       </c>
-      <c r="S99">
-        <v>1.825</v>
-      </c>
-      <c r="T99">
+      <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
         <v>3</v>
       </c>
-      <c r="U99">
-        <v>2.05</v>
-      </c>
-      <c r="V99">
-        <v>1.8</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
-      <c r="X99">
-        <v>4</v>
-      </c>
-      <c r="Y99">
-        <v>-1</v>
-      </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6803031</v>
+        <v>6803029</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,61 +9350,61 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>47</v>
       </c>
       <c r="K100">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M100">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N100">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="O100">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P100">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q100">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R100">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S100">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T100">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U100">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V100">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Y100">
         <v>-1</v>
@@ -9413,13 +9413,13 @@
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9617,7 +9617,7 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
         <v>36</v>
@@ -9706,7 +9706,7 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G104" t="s">
         <v>32</v>
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6803045</v>
+        <v>6803037</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,76 +9795,76 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K105">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L105">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M105">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="N105">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="O105">
+        <v>3.8</v>
+      </c>
+      <c r="P105">
         <v>4</v>
       </c>
-      <c r="P105">
-        <v>5.25</v>
-      </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T105">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V105">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
+        <v>-1</v>
+      </c>
+      <c r="Y105">
         <v>3</v>
       </c>
-      <c r="Y105">
-        <v>-1</v>
-      </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9872,7 +9872,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6803037</v>
+        <v>6803038</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9884,76 +9884,76 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106">
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K106">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M106">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N106">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O106">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P106">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q106">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T106">
         <v>2.5</v>
       </c>
       <c r="U106">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y106">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA106">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9961,7 +9961,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6803042</v>
+        <v>6803045</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9973,76 +9973,76 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K107">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="L107">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M107">
+        <v>6</v>
+      </c>
+      <c r="N107">
+        <v>1.6</v>
+      </c>
+      <c r="O107">
+        <v>4</v>
+      </c>
+      <c r="P107">
+        <v>5.25</v>
+      </c>
+      <c r="Q107">
+        <v>-0.75</v>
+      </c>
+      <c r="R107">
+        <v>1.8</v>
+      </c>
+      <c r="S107">
+        <v>2.05</v>
+      </c>
+      <c r="T107">
         <v>2.25</v>
       </c>
-      <c r="N107">
-        <v>3.6</v>
-      </c>
-      <c r="O107">
-        <v>3.5</v>
-      </c>
-      <c r="P107">
-        <v>2.05</v>
-      </c>
-      <c r="Q107">
-        <v>0.5</v>
-      </c>
-      <c r="R107">
-        <v>1.825</v>
-      </c>
-      <c r="S107">
-        <v>2.025</v>
-      </c>
-      <c r="T107">
-        <v>2.75</v>
-      </c>
       <c r="U107">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V107">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W107">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6803038</v>
+        <v>6803042</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10062,76 +10062,76 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K108">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="L108">
+        <v>3.5</v>
+      </c>
+      <c r="M108">
+        <v>2.25</v>
+      </c>
+      <c r="N108">
         <v>3.6</v>
-      </c>
-      <c r="M108">
-        <v>2.8</v>
-      </c>
-      <c r="N108">
-        <v>2.15</v>
       </c>
       <c r="O108">
         <v>3.5</v>
       </c>
       <c r="P108">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R108">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S108">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V108">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X108">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA108">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10154,7 +10154,7 @@
         <v>36</v>
       </c>
       <c r="G109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6803043</v>
+        <v>6803041</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,76 +10240,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H110">
         <v>1</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K110">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="L110">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M110">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N110">
-        <v>1.533</v>
+        <v>3.2</v>
       </c>
       <c r="O110">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P110">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q110">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R110">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T110">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V110">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC110">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6803041</v>
+        <v>6803043</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,76 +10329,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G111" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
       <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111" t="s">
+        <v>45</v>
+      </c>
+      <c r="K111">
+        <v>1.7</v>
+      </c>
+      <c r="L111">
+        <v>4.2</v>
+      </c>
+      <c r="M111">
+        <v>4.333</v>
+      </c>
+      <c r="N111">
+        <v>1.533</v>
+      </c>
+      <c r="O111">
+        <v>4.5</v>
+      </c>
+      <c r="P111">
+        <v>5.5</v>
+      </c>
+      <c r="Q111">
+        <v>-1</v>
+      </c>
+      <c r="R111">
+        <v>1.875</v>
+      </c>
+      <c r="S111">
+        <v>1.975</v>
+      </c>
+      <c r="T111">
         <v>3</v>
       </c>
-      <c r="J111" t="s">
-        <v>46</v>
-      </c>
-      <c r="K111">
-        <v>3.8</v>
-      </c>
-      <c r="L111">
-        <v>3.75</v>
-      </c>
-      <c r="M111">
-        <v>1.909</v>
-      </c>
-      <c r="N111">
-        <v>3.2</v>
-      </c>
-      <c r="O111">
-        <v>3.6</v>
-      </c>
-      <c r="P111">
-        <v>2.15</v>
-      </c>
-      <c r="Q111">
-        <v>0.25</v>
-      </c>
-      <c r="R111">
-        <v>2</v>
-      </c>
-      <c r="S111">
-        <v>1.85</v>
-      </c>
-      <c r="T111">
-        <v>2.75</v>
-      </c>
       <c r="U111">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V111">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA111">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB111">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6803046</v>
+        <v>6803052</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,10 +10507,10 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10522,61 +10522,61 @@
         <v>47</v>
       </c>
       <c r="K113">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="L113">
         <v>3.4</v>
       </c>
       <c r="M113">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="N113">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="O113">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P113">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R113">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S113">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U113">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V113">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA113">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC113">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10596,7 +10596,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
         <v>31</v>
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6803047</v>
+        <v>6803046</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,40 +10685,40 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115">
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K115">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L115">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M115">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="N115">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="O115">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P115">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R115">
         <v>1.9</v>
@@ -10730,31 +10730,31 @@
         <v>2.5</v>
       </c>
       <c r="U115">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y115">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6803052</v>
+        <v>6803047</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,76 +10774,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116">
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K116">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L116">
+        <v>3.75</v>
+      </c>
+      <c r="M116">
+        <v>3.6</v>
+      </c>
+      <c r="N116">
+        <v>2.15</v>
+      </c>
+      <c r="O116">
         <v>3.4</v>
       </c>
-      <c r="M116">
-        <v>2.55</v>
-      </c>
-      <c r="N116">
-        <v>3.6</v>
-      </c>
-      <c r="O116">
+      <c r="P116">
         <v>3.25</v>
       </c>
-      <c r="P116">
-        <v>2.1</v>
-      </c>
       <c r="Q116">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S116">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T116">
+        <v>2.5</v>
+      </c>
+      <c r="U116">
+        <v>2.025</v>
+      </c>
+      <c r="V116">
+        <v>1.825</v>
+      </c>
+      <c r="W116">
+        <v>-1</v>
+      </c>
+      <c r="X116">
+        <v>-1</v>
+      </c>
+      <c r="Y116">
         <v>2.25</v>
       </c>
-      <c r="U116">
-        <v>1.825</v>
-      </c>
-      <c r="V116">
-        <v>2.025</v>
-      </c>
-      <c r="W116">
-        <v>-1</v>
-      </c>
-      <c r="X116">
-        <v>2.25</v>
-      </c>
-      <c r="Y116">
-        <v>-1</v>
-      </c>
       <c r="Z116">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.5125</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10863,7 +10863,7 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
         <v>30</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6803048</v>
+        <v>6803049</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,55 +10952,55 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
         <v>1</v>
-      </c>
-      <c r="I118">
-        <v>4</v>
       </c>
       <c r="J118" t="s">
         <v>46</v>
       </c>
       <c r="K118">
-        <v>1.55</v>
+        <v>4</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M118">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="N118">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O118">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P118">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q118">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S118">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T118">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V118">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -11009,19 +11009,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>6.5</v>
+        <v>1.1</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB118">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6803049</v>
+        <v>6803048</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,55 +11041,55 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J119" t="s">
         <v>46</v>
       </c>
       <c r="K119">
+        <v>1.55</v>
+      </c>
+      <c r="L119">
         <v>4</v>
       </c>
-      <c r="L119">
-        <v>3.75</v>
-      </c>
       <c r="M119">
-        <v>1.85</v>
+        <v>5.75</v>
       </c>
       <c r="N119">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O119">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P119">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="Q119">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R119">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S119">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V119">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -11098,19 +11098,19 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC119">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6803056</v>
+        <v>6803058</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,76 +11219,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K121">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L121">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M121">
         <v>2.9</v>
       </c>
       <c r="N121">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O121">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P121">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S121">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T121">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U121">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V121">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X121">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA121">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
+        <v>0.4875</v>
+      </c>
+      <c r="AC121">
         <v>-0.5</v>
-      </c>
-      <c r="AC121">
-        <v>0.4</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6803057</v>
+        <v>6803056</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>47</v>
+      </c>
+      <c r="K123">
+        <v>2.45</v>
+      </c>
+      <c r="L123">
+        <v>3</v>
+      </c>
+      <c r="M123">
+        <v>2.9</v>
+      </c>
+      <c r="N123">
+        <v>3</v>
+      </c>
+      <c r="O123">
+        <v>2.8</v>
+      </c>
+      <c r="P123">
+        <v>2.55</v>
+      </c>
+      <c r="Q123">
         <v>0</v>
       </c>
-      <c r="I123">
-        <v>2</v>
-      </c>
-      <c r="J123" t="s">
-        <v>46</v>
-      </c>
-      <c r="K123">
-        <v>3.1</v>
-      </c>
-      <c r="L123">
-        <v>3.2</v>
-      </c>
-      <c r="M123">
-        <v>2.25</v>
-      </c>
-      <c r="N123">
-        <v>3.4</v>
-      </c>
-      <c r="O123">
-        <v>3.1</v>
-      </c>
-      <c r="P123">
-        <v>2.15</v>
-      </c>
-      <c r="Q123">
-        <v>0.25</v>
-      </c>
       <c r="R123">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S123">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T123">
         <v>2.25</v>
       </c>
       <c r="U123">
+        <v>2.05</v>
+      </c>
+      <c r="V123">
         <v>1.8</v>
       </c>
-      <c r="V123">
-        <v>2.05</v>
-      </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y123">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA123">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB123">
         <v>-0.5</v>
       </c>
       <c r="AC123">
-        <v>0.5249999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6803058</v>
+        <v>6803057</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
         <v>2</v>
       </c>
-      <c r="I124">
-        <v>1</v>
-      </c>
       <c r="J124" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K124">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L124">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M124">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="N124">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O124">
         <v>3.1</v>
       </c>
       <c r="P124">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="Q124">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
+        <v>1.925</v>
+      </c>
+      <c r="S124">
+        <v>1.925</v>
+      </c>
+      <c r="T124">
+        <v>2.25</v>
+      </c>
+      <c r="U124">
+        <v>1.8</v>
+      </c>
+      <c r="V124">
         <v>2.05</v>
       </c>
-      <c r="S124">
-        <v>1.8</v>
-      </c>
-      <c r="T124">
-        <v>2.75</v>
-      </c>
-      <c r="U124">
-        <v>1.975</v>
-      </c>
-      <c r="V124">
-        <v>1.875</v>
-      </c>
       <c r="W124">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z124">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB124">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC124">
-        <v>-0.5</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11578,7 +11578,7 @@
         <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11664,7 +11664,7 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G126" t="s">
         <v>39</v>
@@ -11934,7 +11934,7 @@
         <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12109,7 +12109,7 @@
         <v>45266.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
         <v>42</v>
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6803071</v>
+        <v>6803074</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,49 +12287,49 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H133">
         <v>5</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
         <v>45</v>
       </c>
       <c r="K133">
-        <v>1.666</v>
+        <v>1.55</v>
       </c>
       <c r="L133">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M133">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N133">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="O133">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P133">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q133">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R133">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
         <v>1.825</v>
@@ -12338,7 +12338,7 @@
         <v>2.025</v>
       </c>
       <c r="W133">
-        <v>0.6659999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X133">
         <v>-1</v>
@@ -12347,7 +12347,7 @@
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA133">
         <v>-1</v>
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6803074</v>
+        <v>6803076</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,58 +12376,58 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H134">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
         <v>45</v>
       </c>
       <c r="K134">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="L134">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="M134">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N134">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="O134">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P134">
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="Q134">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R134">
+        <v>1.825</v>
+      </c>
+      <c r="S134">
+        <v>2.025</v>
+      </c>
+      <c r="T134">
+        <v>3</v>
+      </c>
+      <c r="U134">
         <v>1.925</v>
       </c>
-      <c r="S134">
+      <c r="V134">
         <v>1.925</v>
       </c>
-      <c r="T134">
-        <v>2.5</v>
-      </c>
-      <c r="U134">
-        <v>1.825</v>
-      </c>
-      <c r="V134">
-        <v>2.025</v>
-      </c>
       <c r="W134">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="X134">
         <v>-1</v>
@@ -12436,16 +12436,16 @@
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA134">
         <v>-1</v>
       </c>
       <c r="AB134">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6803076</v>
+        <v>6803071</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,58 +12465,58 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G135" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H135">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
         <v>45</v>
       </c>
       <c r="K135">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="L135">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="N135">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="O135">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P135">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="Q135">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R135">
+        <v>1.875</v>
+      </c>
+      <c r="S135">
+        <v>1.975</v>
+      </c>
+      <c r="T135">
+        <v>2.25</v>
+      </c>
+      <c r="U135">
         <v>1.825</v>
       </c>
-      <c r="S135">
+      <c r="V135">
         <v>2.025</v>
       </c>
-      <c r="T135">
-        <v>3</v>
-      </c>
-      <c r="U135">
-        <v>1.925</v>
-      </c>
-      <c r="V135">
-        <v>1.925</v>
-      </c>
       <c r="W135">
-        <v>0.25</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X135">
         <v>-1</v>
@@ -12525,16 +12525,16 @@
         <v>-1</v>
       </c>
       <c r="Z135">
+        <v>0.875</v>
+      </c>
+      <c r="AA135">
+        <v>-1</v>
+      </c>
+      <c r="AB135">
         <v>0.825</v>
       </c>
-      <c r="AA135">
-        <v>-1</v>
-      </c>
-      <c r="AB135">
-        <v>0</v>
-      </c>
       <c r="AC135">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12646,7 +12646,7 @@
         <v>42</v>
       </c>
       <c r="G137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H137">
         <v>5</v>
@@ -12735,7 +12735,7 @@
         <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12821,7 +12821,7 @@
         <v>45273.54166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
         <v>30</v>
@@ -12910,7 +12910,7 @@
         <v>45273.54166666666</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G140" t="s">
         <v>43</v>
@@ -12999,7 +12999,7 @@
         <v>45273.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
         <v>34</v>
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6803083</v>
+        <v>6803082</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,76 +13088,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142">
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K142">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="L142">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M142">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N142">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="O142">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="Q142">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S142">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T142">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V142">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X142">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13177,10 +13177,10 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F143" t="s">
+        <v>35</v>
+      </c>
+      <c r="G143" t="s">
         <v>33</v>
-      </c>
-      <c r="G143" t="s">
-        <v>35</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6803082</v>
+        <v>6803081</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,13 +13266,13 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -13281,13 +13281,13 @@
         <v>45</v>
       </c>
       <c r="K144">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="L144">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M144">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="N144">
         <v>3</v>
@@ -13311,10 +13311,10 @@
         <v>2.5</v>
       </c>
       <c r="U144">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V144">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W144">
         <v>2</v>
@@ -13332,10 +13332,10 @@
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6803081</v>
+        <v>6803083</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,76 +13355,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G145" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K145">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="L145">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M145">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N145">
+        <v>1.45</v>
+      </c>
+      <c r="O145">
+        <v>4.75</v>
+      </c>
+      <c r="P145">
+        <v>6</v>
+      </c>
+      <c r="Q145">
+        <v>-1.25</v>
+      </c>
+      <c r="R145">
+        <v>2.05</v>
+      </c>
+      <c r="S145">
+        <v>1.8</v>
+      </c>
+      <c r="T145">
         <v>3</v>
       </c>
-      <c r="O145">
-        <v>3.4</v>
-      </c>
-      <c r="P145">
-        <v>2.3</v>
-      </c>
-      <c r="Q145">
-        <v>0.25</v>
-      </c>
-      <c r="R145">
+      <c r="U145">
+        <v>2.025</v>
+      </c>
+      <c r="V145">
         <v>1.825</v>
       </c>
-      <c r="S145">
-        <v>2.025</v>
-      </c>
-      <c r="T145">
-        <v>2.5</v>
-      </c>
-      <c r="U145">
-        <v>2.05</v>
-      </c>
-      <c r="V145">
-        <v>1.8</v>
-      </c>
       <c r="W145">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
+        <v>-1</v>
+      </c>
+      <c r="AA145">
+        <v>0.8</v>
+      </c>
+      <c r="AB145">
+        <v>-1</v>
+      </c>
+      <c r="AC145">
         <v>0.825</v>
-      </c>
-      <c r="AA145">
-        <v>-1</v>
-      </c>
-      <c r="AB145">
-        <v>1.05</v>
-      </c>
-      <c r="AC145">
-        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13444,10 +13444,10 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F146" t="s">
+        <v>40</v>
+      </c>
+      <c r="G146" t="s">
         <v>41</v>
-      </c>
-      <c r="G146" t="s">
-        <v>40</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6803087</v>
+        <v>6803088</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,76 +13800,76 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
         <v>3</v>
       </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
       <c r="J150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K150">
+        <v>6.5</v>
+      </c>
+      <c r="L150">
+        <v>4.75</v>
+      </c>
+      <c r="M150">
+        <v>1.4</v>
+      </c>
+      <c r="N150">
+        <v>7.5</v>
+      </c>
+      <c r="O150">
+        <v>5</v>
+      </c>
+      <c r="P150">
+        <v>1.363</v>
+      </c>
+      <c r="Q150">
+        <v>1.5</v>
+      </c>
+      <c r="R150">
+        <v>1.825</v>
+      </c>
+      <c r="S150">
+        <v>2.025</v>
+      </c>
+      <c r="T150">
         <v>3.25</v>
       </c>
-      <c r="L150">
-        <v>3.4</v>
-      </c>
-      <c r="M150">
-        <v>1.95</v>
-      </c>
-      <c r="N150">
-        <v>4</v>
-      </c>
-      <c r="O150">
-        <v>3.8</v>
-      </c>
-      <c r="P150">
-        <v>1.8</v>
-      </c>
-      <c r="Q150">
-        <v>0.5</v>
-      </c>
-      <c r="R150">
+      <c r="U150">
         <v>2.025</v>
       </c>
-      <c r="S150">
+      <c r="V150">
         <v>1.825</v>
       </c>
-      <c r="T150">
-        <v>2.75</v>
-      </c>
-      <c r="U150">
-        <v>1.875</v>
-      </c>
-      <c r="V150">
-        <v>1.975</v>
-      </c>
       <c r="W150">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z150">
+        <v>-1</v>
+      </c>
+      <c r="AA150">
         <v>1.025</v>
       </c>
-      <c r="AA150">
-        <v>-1</v>
-      </c>
       <c r="AB150">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AC150">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13889,7 +13889,7 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G151" t="s">
         <v>31</v>
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6803088</v>
+        <v>6803090</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,76 +13978,76 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G152" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H152">
+        <v>2</v>
+      </c>
+      <c r="I152">
         <v>0</v>
       </c>
-      <c r="I152">
-        <v>3</v>
-      </c>
       <c r="J152" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K152">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="L152">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M152">
+        <v>2.9</v>
+      </c>
+      <c r="N152">
+        <v>2.4</v>
+      </c>
+      <c r="O152">
+        <v>3.3</v>
+      </c>
+      <c r="P152">
+        <v>2.9</v>
+      </c>
+      <c r="Q152">
+        <v>-0.25</v>
+      </c>
+      <c r="R152">
+        <v>2.1</v>
+      </c>
+      <c r="S152">
+        <v>1.775</v>
+      </c>
+      <c r="T152">
+        <v>2.5</v>
+      </c>
+      <c r="U152">
+        <v>1.975</v>
+      </c>
+      <c r="V152">
+        <v>1.875</v>
+      </c>
+      <c r="W152">
         <v>1.4</v>
       </c>
-      <c r="N152">
-        <v>7.5</v>
-      </c>
-      <c r="O152">
-        <v>5</v>
-      </c>
-      <c r="P152">
-        <v>1.363</v>
-      </c>
-      <c r="Q152">
-        <v>1.5</v>
-      </c>
-      <c r="R152">
-        <v>1.825</v>
-      </c>
-      <c r="S152">
-        <v>2.025</v>
-      </c>
-      <c r="T152">
-        <v>3.25</v>
-      </c>
-      <c r="U152">
-        <v>2.025</v>
-      </c>
-      <c r="V152">
-        <v>1.825</v>
-      </c>
-      <c r="W152">
-        <v>-1</v>
-      </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA152">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14055,7 +14055,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6803090</v>
+        <v>6803087</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14067,13 +14067,13 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -14082,43 +14082,43 @@
         <v>45</v>
       </c>
       <c r="K153">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="L153">
         <v>3.4</v>
       </c>
       <c r="M153">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="N153">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="O153">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P153">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R153">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S153">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T153">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U153">
+        <v>1.875</v>
+      </c>
+      <c r="V153">
         <v>1.975</v>
       </c>
-      <c r="V153">
-        <v>1.875</v>
-      </c>
       <c r="W153">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14127,16 +14127,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>1.1</v>
+        <v>1.025</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC153">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>42</v>
       </c>
       <c r="G154" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14337,7 +14337,7 @@
         <v>43</v>
       </c>
       <c r="G156" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14767,7 +14767,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6803094</v>
+        <v>6803100</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14779,76 +14779,76 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
         <v>47</v>
       </c>
       <c r="K161">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L161">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M161">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N161">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O161">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P161">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q161">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S161">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T161">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U161">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V161">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA161">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC161">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6803098</v>
+        <v>6803094</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,76 +14868,76 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G162" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H162">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K162">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L162">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M162">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N162">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O162">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P162">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q162">
         <v>-0.75</v>
       </c>
       <c r="R162">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S162">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T162">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U162">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V162">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W162">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB162">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6803100</v>
+        <v>6803098</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,76 +14957,76 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G163" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K163">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="L163">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M163">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="N163">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="O163">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P163">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R163">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S163">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T163">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U163">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V163">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X163">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA163">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC163">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15046,7 +15046,7 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G164" t="s">
         <v>39</v>
@@ -15135,7 +15135,7 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G165" t="s">
         <v>42</v>
@@ -15316,7 +15316,7 @@
         <v>38</v>
       </c>
       <c r="G167" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15568,7 +15568,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6803106</v>
+        <v>6803105</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15580,73 +15580,73 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G170" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
         <v>47</v>
       </c>
       <c r="K170">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L170">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M170">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N170">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O170">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P170">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="Q170">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R170">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S170">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T170">
         <v>2.5</v>
       </c>
       <c r="U170">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V170">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W170">
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB170">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC170">
         <v>-1</v>
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6803105</v>
+        <v>6803104</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,61 +15669,61 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G171" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
         <v>47</v>
       </c>
       <c r="K171">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L171">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M171">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N171">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O171">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P171">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q171">
         <v>-0.75</v>
       </c>
       <c r="R171">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S171">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T171">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V171">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W171">
         <v>-1</v>
       </c>
       <c r="X171">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Y171">
         <v>-1</v>
@@ -15732,13 +15732,13 @@
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB171">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6803101</v>
+        <v>6803106</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,76 +15758,76 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F172" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J172" t="s">
         <v>47</v>
       </c>
       <c r="K172">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="L172">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M172">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="N172">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O172">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P172">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S172">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T172">
         <v>2.5</v>
       </c>
       <c r="U172">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V172">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA172">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC172">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15835,7 +15835,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6803104</v>
+        <v>6803101</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15847,76 +15847,76 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>47</v>
       </c>
       <c r="K173">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="L173">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M173">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N173">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="O173">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P173">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q173">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R173">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S173">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T173">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U173">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V173">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W173">
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA173">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB173">
         <v>-1</v>
       </c>
       <c r="AC173">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16013,7 +16013,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6803103</v>
+        <v>6803107</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16025,58 +16025,58 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G175" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
         <v>45</v>
       </c>
       <c r="K175">
-        <v>3.4</v>
+        <v>1.111</v>
       </c>
       <c r="L175">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="M175">
-        <v>2.05</v>
+        <v>17</v>
       </c>
       <c r="N175">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="O175">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="P175">
-        <v>2.9</v>
+        <v>17</v>
       </c>
       <c r="Q175">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R175">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S175">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T175">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U175">
+        <v>1.85</v>
+      </c>
+      <c r="V175">
         <v>2</v>
       </c>
-      <c r="V175">
-        <v>1.8</v>
-      </c>
       <c r="W175">
-        <v>1.3</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16085,16 +16085,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
+        <v>-0.5</v>
+      </c>
+      <c r="AC175">
         <v>0.5</v>
-      </c>
-      <c r="AC175">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6803107</v>
+        <v>6803103</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,58 +16114,58 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G176" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="s">
         <v>45</v>
       </c>
       <c r="K176">
-        <v>1.111</v>
+        <v>3.4</v>
       </c>
       <c r="L176">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="M176">
-        <v>17</v>
+        <v>2.05</v>
       </c>
       <c r="N176">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="O176">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="P176">
-        <v>17</v>
+        <v>2.9</v>
       </c>
       <c r="Q176">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R176">
+        <v>2.025</v>
+      </c>
+      <c r="S176">
+        <v>1.825</v>
+      </c>
+      <c r="T176">
+        <v>2.75</v>
+      </c>
+      <c r="U176">
         <v>2</v>
       </c>
-      <c r="S176">
-        <v>1.85</v>
-      </c>
-      <c r="T176">
-        <v>3.25</v>
-      </c>
-      <c r="U176">
-        <v>1.85</v>
-      </c>
       <c r="V176">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W176">
-        <v>0.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16174,16 +16174,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
+        <v>0.5</v>
+      </c>
+      <c r="AC176">
         <v>-0.5</v>
-      </c>
-      <c r="AC176">
-        <v>0.5</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16203,7 +16203,7 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G177" t="s">
         <v>36</v>
@@ -16280,7 +16280,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6803115</v>
+        <v>6803120</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16292,61 +16292,76 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F178" t="s">
+        <v>30</v>
+      </c>
+      <c r="G178" t="s">
         <v>33</v>
       </c>
-      <c r="G178" t="s">
-        <v>40</v>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178">
+        <v>3</v>
+      </c>
+      <c r="J178" t="s">
+        <v>46</v>
       </c>
       <c r="K178">
-        <v>1.533</v>
+        <v>4</v>
       </c>
       <c r="L178">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M178">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="N178">
-        <v>1.444</v>
+        <v>3.6</v>
       </c>
       <c r="O178">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P178">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q178">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R178">
+        <v>1.85</v>
+      </c>
+      <c r="S178">
+        <v>2</v>
+      </c>
+      <c r="T178">
+        <v>2.5</v>
+      </c>
+      <c r="U178">
+        <v>1.95</v>
+      </c>
+      <c r="V178">
         <v>1.9</v>
       </c>
-      <c r="S178">
-        <v>1.95</v>
-      </c>
-      <c r="T178">
-        <v>3.25</v>
-      </c>
-      <c r="U178">
-        <v>1.975</v>
-      </c>
-      <c r="V178">
-        <v>1.875</v>
-      </c>
       <c r="W178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Z178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB178">
+        <v>0.95</v>
+      </c>
+      <c r="AC178">
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16354,7 +16369,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6803120</v>
+        <v>6803117</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16366,61 +16381,76 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G179" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="H179">
+        <v>2</v>
+      </c>
+      <c r="I179">
+        <v>2</v>
+      </c>
+      <c r="J179" t="s">
+        <v>47</v>
       </c>
       <c r="K179">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="L179">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M179">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="N179">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="O179">
         <v>3.4</v>
       </c>
       <c r="P179">
+        <v>3.75</v>
+      </c>
+      <c r="Q179">
+        <v>-0.5</v>
+      </c>
+      <c r="R179">
         <v>2.05</v>
       </c>
-      <c r="Q179">
-        <v>0.5</v>
-      </c>
-      <c r="R179">
-        <v>1.825</v>
-      </c>
       <c r="S179">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T179">
         <v>2.5</v>
       </c>
       <c r="U179">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V179">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB179">
+        <v>1</v>
+      </c>
+      <c r="AC179">
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16428,7 +16458,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6803117</v>
+        <v>6803115</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16440,61 +16470,76 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G180" t="s">
         <v>41</v>
       </c>
+      <c r="H180">
+        <v>3</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180" t="s">
+        <v>45</v>
+      </c>
       <c r="K180">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="L180">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M180">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N180">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="O180">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P180">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q180">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R180">
+        <v>1.875</v>
+      </c>
+      <c r="S180">
         <v>1.975</v>
       </c>
-      <c r="S180">
-        <v>1.875</v>
-      </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U180">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V180">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W180">
-        <v>0</v>
+        <v>0.444</v>
       </c>
       <c r="X180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA180">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB180">
+        <v>0.95</v>
+      </c>
+      <c r="AC180">
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16519,6 +16564,15 @@
       <c r="G181" t="s">
         <v>43</v>
       </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181" t="s">
+        <v>47</v>
+      </c>
       <c r="K181">
         <v>1.909</v>
       </c>
@@ -16541,10 +16595,10 @@
         <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S181">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T181">
         <v>2.5</v>
@@ -16556,19 +16610,25 @@
         <v>1.9</v>
       </c>
       <c r="W181">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X181">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y181">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB181">
+        <v>-1</v>
+      </c>
+      <c r="AC181">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16593,6 +16653,15 @@
       <c r="G182" t="s">
         <v>42</v>
       </c>
+      <c r="H182">
+        <v>2</v>
+      </c>
+      <c r="I182">
+        <v>3</v>
+      </c>
+      <c r="J182" t="s">
+        <v>46</v>
+      </c>
       <c r="K182">
         <v>5</v>
       </c>
@@ -16603,22 +16672,22 @@
         <v>1.615</v>
       </c>
       <c r="N182">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O182">
         <v>4</v>
       </c>
       <c r="P182">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="Q182">
         <v>0.75</v>
       </c>
       <c r="R182">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S182">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T182">
         <v>2.75</v>
@@ -16630,19 +16699,25 @@
         <v>1.95</v>
       </c>
       <c r="W182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
-        <v>0</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z182">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA182">
-        <v>0</v>
+        <v>0.425</v>
+      </c>
+      <c r="AB182">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC182">
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16689,19 +16764,19 @@
         <v>-0.25</v>
       </c>
       <c r="R183">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S183">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T183">
         <v>2.5</v>
       </c>
       <c r="U183">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V183">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W183">
         <v>0</v>
@@ -16763,10 +16838,10 @@
         <v>0.5</v>
       </c>
       <c r="R184">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S184">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T184">
         <v>2.5</v>
@@ -16846,10 +16921,10 @@
         <v>2.5</v>
       </c>
       <c r="U185">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V185">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W185">
         <v>0</v>

--- a/Czech Republic First League/Czech Republic First League.xlsx
+++ b/Czech Republic First League/Czech Republic First League.xlsx
@@ -106,10 +106,10 @@
     <t>FK Teplice</t>
   </si>
   <si>
-    <t>MFK Karvina</t>
+    <t>Pardubice</t>
   </si>
   <si>
-    <t>Pardubice</t>
+    <t>MFK Karvina</t>
   </si>
   <si>
     <t>Slavia Prague</t>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6802936</v>
+        <v>6802933</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,73 +720,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L3">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M3">
+        <v>2.8</v>
+      </c>
+      <c r="N3">
         <v>2.7</v>
-      </c>
-      <c r="N3">
-        <v>2.4</v>
       </c>
       <c r="O3">
         <v>3.3</v>
       </c>
       <c r="P3">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S3">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
         <v>1.4</v>
       </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>-1</v>
-      </c>
       <c r="Z3">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB3">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6802933</v>
+        <v>6802936</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,73 +809,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M4">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N4">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O4">
         <v>3.3</v>
       </c>
       <c r="P4">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1432,7 +1432,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1518,7 +1518,7 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
         <v>44</v>
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6802946</v>
+        <v>6802942</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1696,73 +1696,73 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14">
+        <v>7</v>
+      </c>
+      <c r="L14">
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <v>1.285</v>
+      </c>
+      <c r="N14">
+        <v>7.5</v>
+      </c>
+      <c r="O14">
+        <v>6.5</v>
+      </c>
+      <c r="P14">
+        <v>1.25</v>
+      </c>
+      <c r="Q14">
+        <v>1.75</v>
+      </c>
+      <c r="R14">
+        <v>1.95</v>
+      </c>
+      <c r="S14">
+        <v>1.9</v>
+      </c>
+      <c r="T14">
+        <v>3.25</v>
+      </c>
+      <c r="U14">
+        <v>1.85</v>
+      </c>
+      <c r="V14">
         <v>2</v>
       </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14">
-        <v>1.85</v>
-      </c>
-      <c r="L14">
-        <v>3.5</v>
-      </c>
-      <c r="M14">
-        <v>3.6</v>
-      </c>
-      <c r="N14">
-        <v>1.85</v>
-      </c>
-      <c r="O14">
-        <v>3.5</v>
-      </c>
-      <c r="P14">
-        <v>3.75</v>
-      </c>
-      <c r="Q14">
+      <c r="W14">
+        <v>-1</v>
+      </c>
+      <c r="X14">
+        <v>-1</v>
+      </c>
+      <c r="Y14">
+        <v>0.25</v>
+      </c>
+      <c r="Z14">
         <v>-0.5</v>
       </c>
-      <c r="R14">
-        <v>1.925</v>
-      </c>
-      <c r="S14">
-        <v>1.925</v>
-      </c>
-      <c r="T14">
-        <v>2.75</v>
-      </c>
-      <c r="U14">
-        <v>1.925</v>
-      </c>
-      <c r="V14">
-        <v>1.925</v>
-      </c>
-      <c r="W14">
-        <v>-1</v>
-      </c>
-      <c r="X14">
-        <v>2.5</v>
-      </c>
-      <c r="Y14">
-        <v>-1</v>
-      </c>
-      <c r="Z14">
-        <v>-1</v>
-      </c>
       <c r="AA14">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AB14">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6802942</v>
+        <v>6802944</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,55 +1785,55 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
         <v>46</v>
       </c>
       <c r="K15">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="L15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>1.285</v>
+        <v>5.25</v>
       </c>
       <c r="N15">
-        <v>7.5</v>
+        <v>1.65</v>
       </c>
       <c r="O15">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q15">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
+        <v>1.9</v>
+      </c>
+      <c r="S15">
         <v>1.95</v>
       </c>
-      <c r="S15">
-        <v>1.9</v>
-      </c>
       <c r="T15">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1842,19 +1842,19 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.25</v>
+        <v>3.5</v>
       </c>
       <c r="Z15">
+        <v>-1</v>
+      </c>
+      <c r="AA15">
+        <v>0.95</v>
+      </c>
+      <c r="AB15">
+        <v>0.5125</v>
+      </c>
+      <c r="AC15">
         <v>-0.5</v>
-      </c>
-      <c r="AA15">
-        <v>0.45</v>
-      </c>
-      <c r="AB15">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC15">
-        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6802944</v>
+        <v>6802946</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1874,76 +1874,76 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M16">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="N16">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O16">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S16">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
         <v>2.75</v>
       </c>
       <c r="U16">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y16">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB16">
-        <v>0.5125</v>
+        <v>0.925</v>
       </c>
       <c r="AC16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2052,7 +2052,7 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
         <v>33</v>
@@ -2144,7 +2144,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6802954</v>
+        <v>6802953</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M22">
+        <v>2.55</v>
+      </c>
+      <c r="N22">
+        <v>2.625</v>
+      </c>
+      <c r="O22">
         <v>3</v>
       </c>
-      <c r="N22">
-        <v>1.95</v>
-      </c>
-      <c r="O22">
-        <v>3.6</v>
-      </c>
       <c r="P22">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q22">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R22">
+        <v>1.925</v>
+      </c>
+      <c r="S22">
+        <v>1.925</v>
+      </c>
+      <c r="T22">
+        <v>2.5</v>
+      </c>
+      <c r="U22">
+        <v>1.975</v>
+      </c>
+      <c r="V22">
+        <v>1.875</v>
+      </c>
+      <c r="W22">
+        <v>-1</v>
+      </c>
+      <c r="X22">
         <v>2</v>
       </c>
-      <c r="S22">
-        <v>1.85</v>
-      </c>
-      <c r="T22">
-        <v>2.75</v>
-      </c>
-      <c r="U22">
-        <v>1.9</v>
-      </c>
-      <c r="V22">
-        <v>1.95</v>
-      </c>
-      <c r="W22">
-        <v>-1</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
       <c r="Y22">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6802953</v>
+        <v>6802950</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,40 +2497,40 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="L23">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="N23">
-        <v>2.625</v>
+        <v>1.533</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P23">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R23">
         <v>1.925</v>
@@ -2539,34 +2539,34 @@
         <v>1.925</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U23">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V23">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X23">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA23">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC23">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6802950</v>
+        <v>6802954</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,76 +2586,76 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="O24">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P24">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W24">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB24">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3209,10 +3209,10 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
         <v>31</v>
-      </c>
-      <c r="G31" t="s">
-        <v>30</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3476,7 +3476,7 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
         <v>44</v>
@@ -3657,7 +3657,7 @@
         <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4277,7 +4277,7 @@
         <v>45164.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
         <v>35</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7098155</v>
+        <v>6802978</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,49 +4544,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K46">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="L46">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M46">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="N46">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="O46">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P46">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q46">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S46">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
         <v>2.025</v>
@@ -4595,16 +4595,16 @@
         <v>1.825</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X46">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA46">
         <v>-1</v>
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6802978</v>
+        <v>7098155</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,49 +4633,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K47">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="L47">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M47">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="N47">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="O47">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P47">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="Q47">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R47">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S47">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T47">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U47">
         <v>2.025</v>
@@ -4684,16 +4684,16 @@
         <v>1.825</v>
       </c>
       <c r="W47">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA47">
         <v>-1</v>
@@ -4725,7 +4725,7 @@
         <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -4903,7 +4903,7 @@
         <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -5348,7 +5348,7 @@
         <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>5</v>
@@ -5523,7 +5523,7 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
         <v>29</v>
@@ -5879,7 +5879,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
         <v>32</v>
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6802999</v>
+        <v>6803000</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,46 +6235,46 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H65">
+        <v>5</v>
+      </c>
+      <c r="I65">
         <v>1</v>
       </c>
-      <c r="I65">
-        <v>2</v>
-      </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K65">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="L65">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M65">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="N65">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="O65">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P65">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q65">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R65">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S65">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T65">
         <v>3</v>
@@ -6286,25 +6286,25 @@
         <v>1.95</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA65">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC65">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6803000</v>
+        <v>6802999</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,46 +6413,46 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G67" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K67">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="L67">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M67">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="N67">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="O67">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P67">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q67">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R67">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S67">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T67">
         <v>3</v>
@@ -6464,25 +6464,25 @@
         <v>1.95</v>
       </c>
       <c r="W67">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z67">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB67">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6505,7 +6505,7 @@
         <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6772,7 +6772,7 @@
         <v>42</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H71">
         <v>6</v>
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6803009</v>
+        <v>6803007</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,76 +6947,76 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>47</v>
+      </c>
+      <c r="K73">
+        <v>2.15</v>
+      </c>
+      <c r="L73">
+        <v>3.5</v>
+      </c>
+      <c r="M73">
+        <v>3</v>
+      </c>
+      <c r="N73">
+        <v>2.25</v>
+      </c>
+      <c r="O73">
+        <v>3.6</v>
+      </c>
+      <c r="P73">
+        <v>2.9</v>
+      </c>
+      <c r="Q73">
+        <v>-0.25</v>
+      </c>
+      <c r="R73">
         <v>2</v>
       </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73" t="s">
-        <v>45</v>
-      </c>
-      <c r="K73">
-        <v>2.875</v>
-      </c>
-      <c r="L73">
-        <v>3.25</v>
-      </c>
-      <c r="M73">
-        <v>2.375</v>
-      </c>
-      <c r="N73">
+      <c r="S73">
+        <v>1.85</v>
+      </c>
+      <c r="T73">
         <v>3</v>
       </c>
-      <c r="O73">
-        <v>3.25</v>
-      </c>
-      <c r="P73">
-        <v>2.4</v>
-      </c>
-      <c r="Q73">
-        <v>0.25</v>
-      </c>
-      <c r="R73">
-        <v>1.775</v>
-      </c>
-      <c r="S73">
-        <v>2.1</v>
-      </c>
-      <c r="T73">
-        <v>2.5</v>
-      </c>
       <c r="U73">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V73">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W73">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB73">
         <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6803007</v>
+        <v>6803005</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,76 +7036,76 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K74">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L74">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
         <v>3</v>
       </c>
       <c r="N74">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P74">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R74">
+        <v>1.85</v>
+      </c>
+      <c r="S74">
         <v>2</v>
       </c>
-      <c r="S74">
-        <v>1.85</v>
-      </c>
       <c r="T74">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V74">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z74">
+        <v>-1</v>
+      </c>
+      <c r="AA74">
+        <v>1</v>
+      </c>
+      <c r="AB74">
+        <v>0.4875</v>
+      </c>
+      <c r="AC74">
         <v>-0.5</v>
-      </c>
-      <c r="AA74">
-        <v>0.425</v>
-      </c>
-      <c r="AB74">
-        <v>-1</v>
-      </c>
-      <c r="AC74">
-        <v>0.825</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6803005</v>
+        <v>6803009</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,76 +7125,76 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75">
         <v>0</v>
       </c>
-      <c r="I75">
+      <c r="J75" t="s">
+        <v>45</v>
+      </c>
+      <c r="K75">
+        <v>2.875</v>
+      </c>
+      <c r="L75">
+        <v>3.25</v>
+      </c>
+      <c r="M75">
+        <v>2.375</v>
+      </c>
+      <c r="N75">
         <v>3</v>
       </c>
-      <c r="J75" t="s">
-        <v>46</v>
-      </c>
-      <c r="K75">
-        <v>2.25</v>
-      </c>
-      <c r="L75">
-        <v>3.4</v>
-      </c>
-      <c r="M75">
-        <v>3</v>
-      </c>
-      <c r="N75">
-        <v>2.6</v>
-      </c>
       <c r="O75">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P75">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
+        <v>1.775</v>
+      </c>
+      <c r="S75">
+        <v>2.1</v>
+      </c>
+      <c r="T75">
+        <v>2.5</v>
+      </c>
+      <c r="U75">
+        <v>2</v>
+      </c>
+      <c r="V75">
         <v>1.85</v>
       </c>
-      <c r="S75">
+      <c r="W75">
         <v>2</v>
       </c>
-      <c r="T75">
-        <v>2.75</v>
-      </c>
-      <c r="U75">
-        <v>1.975</v>
-      </c>
-      <c r="V75">
-        <v>1.875</v>
-      </c>
-      <c r="W75">
-        <v>-1</v>
-      </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7214,7 +7214,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
         <v>34</v>
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6803006</v>
+        <v>6803012</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,46 +7392,46 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K78">
-        <v>1.909</v>
+        <v>9</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M78">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="N78">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="O78">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="P78">
-        <v>3.6</v>
+        <v>1.285</v>
       </c>
       <c r="Q78">
-        <v>-0.5</v>
+        <v>1.75</v>
       </c>
       <c r="R78">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T78">
         <v>2.75</v>
@@ -7443,25 +7443,25 @@
         <v>2</v>
       </c>
       <c r="W78">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7469,7 +7469,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6803012</v>
+        <v>6803006</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7481,46 +7481,46 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K79">
-        <v>9</v>
+        <v>1.909</v>
       </c>
       <c r="L79">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="N79">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="O79">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="P79">
-        <v>1.285</v>
+        <v>3.6</v>
       </c>
       <c r="Q79">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R79">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S79">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
         <v>2.75</v>
@@ -7532,25 +7532,25 @@
         <v>2</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X79">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC79">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7570,7 +7570,7 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
         <v>43</v>
@@ -7662,7 +7662,7 @@
         <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -8018,7 +8018,7 @@
         <v>39</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8460,7 +8460,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
         <v>43</v>
@@ -8549,7 +8549,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
         <v>38</v>
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6803034</v>
+        <v>6803029</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K97">
+        <v>1.615</v>
+      </c>
+      <c r="L97">
+        <v>4</v>
+      </c>
+      <c r="M97">
+        <v>5</v>
+      </c>
+      <c r="N97">
+        <v>1.4</v>
+      </c>
+      <c r="O97">
+        <v>5</v>
+      </c>
+      <c r="P97">
+        <v>7</v>
+      </c>
+      <c r="Q97">
+        <v>-1.5</v>
+      </c>
+      <c r="R97">
+        <v>2.025</v>
+      </c>
+      <c r="S97">
+        <v>1.825</v>
+      </c>
+      <c r="T97">
+        <v>3</v>
+      </c>
+      <c r="U97">
         <v>2.05</v>
       </c>
-      <c r="L97">
-        <v>3.4</v>
-      </c>
-      <c r="M97">
-        <v>3.4</v>
-      </c>
-      <c r="N97">
+      <c r="V97">
         <v>1.8</v>
       </c>
-      <c r="O97">
-        <v>3.75</v>
-      </c>
-      <c r="P97">
+      <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
         <v>4</v>
       </c>
-      <c r="Q97">
-        <v>-0.75</v>
-      </c>
-      <c r="R97">
-        <v>2.05</v>
-      </c>
-      <c r="S97">
-        <v>1.8</v>
-      </c>
-      <c r="T97">
-        <v>2.75</v>
-      </c>
-      <c r="U97">
-        <v>1.825</v>
-      </c>
-      <c r="V97">
-        <v>2.025</v>
-      </c>
-      <c r="W97">
-        <v>-1</v>
-      </c>
-      <c r="X97">
-        <v>-1</v>
-      </c>
       <c r="Y97">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
+        <v>0.825</v>
+      </c>
+      <c r="AB97">
+        <v>-1</v>
+      </c>
+      <c r="AC97">
         <v>0.8</v>
-      </c>
-      <c r="AB97">
-        <v>-1</v>
-      </c>
-      <c r="AC97">
-        <v>1.025</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6803029</v>
+        <v>6803031</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,61 +9172,61 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
         <v>47</v>
       </c>
       <c r="K98">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M98">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N98">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="O98">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="Q98">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
+        <v>1.925</v>
+      </c>
+      <c r="S98">
+        <v>1.925</v>
+      </c>
+      <c r="T98">
+        <v>2.5</v>
+      </c>
+      <c r="U98">
+        <v>1.825</v>
+      </c>
+      <c r="V98">
         <v>2.025</v>
       </c>
-      <c r="S98">
-        <v>1.825</v>
-      </c>
-      <c r="T98">
-        <v>3</v>
-      </c>
-      <c r="U98">
-        <v>2.05</v>
-      </c>
-      <c r="V98">
-        <v>1.8</v>
-      </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Y98">
         <v>-1</v>
@@ -9235,13 +9235,13 @@
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6803031</v>
+        <v>6803032</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K99">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="L99">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M99">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N99">
         <v>1.85</v>
       </c>
       <c r="O99">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P99">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q99">
         <v>-0.5</v>
       </c>
       <c r="R99">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S99">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V99">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X99">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA99">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6803032</v>
+        <v>6803034</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,76 +9350,76 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
         <v>1</v>
       </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K100">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="L100">
         <v>3.4</v>
       </c>
       <c r="M100">
+        <v>3.4</v>
+      </c>
+      <c r="N100">
+        <v>1.8</v>
+      </c>
+      <c r="O100">
+        <v>3.75</v>
+      </c>
+      <c r="P100">
         <v>4</v>
       </c>
-      <c r="N100">
-        <v>1.85</v>
-      </c>
-      <c r="O100">
-        <v>3.3</v>
-      </c>
-      <c r="P100">
-        <v>4.5</v>
-      </c>
       <c r="Q100">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S100">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T100">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V100">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W100">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z100">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6803033</v>
+        <v>6803030</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,40 +9528,40 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K102">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="L102">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M102">
-        <v>12</v>
+        <v>1.85</v>
       </c>
       <c r="N102">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="O102">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="P102">
-        <v>11</v>
+        <v>1.7</v>
       </c>
       <c r="Q102">
-        <v>-2</v>
+        <v>0.75</v>
       </c>
       <c r="R102">
         <v>1.975</v>
@@ -9570,34 +9570,34 @@
         <v>1.875</v>
       </c>
       <c r="T102">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U102">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA102">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC102">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6803030</v>
+        <v>6803033</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,40 +9617,40 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K103">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="L103">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M103">
-        <v>1.85</v>
+        <v>12</v>
       </c>
       <c r="N103">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="O103">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="P103">
-        <v>1.7</v>
+        <v>11</v>
       </c>
       <c r="Q103">
-        <v>0.75</v>
+        <v>-2</v>
       </c>
       <c r="R103">
         <v>1.975</v>
@@ -9659,34 +9659,34 @@
         <v>1.875</v>
       </c>
       <c r="T103">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U103">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V103">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W103">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Z103">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB103">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9795,7 +9795,7 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
         <v>37</v>
@@ -9961,7 +9961,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6803042</v>
+        <v>6803038</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9973,76 +9973,76 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G107" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K107">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L107">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M107">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="N107">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="O107">
         <v>3.5</v>
       </c>
       <c r="P107">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="Q107">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S107">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V107">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W107">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6803038</v>
+        <v>6803042</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10062,76 +10062,76 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K108">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="L108">
+        <v>3.5</v>
+      </c>
+      <c r="M108">
+        <v>2.25</v>
+      </c>
+      <c r="N108">
         <v>3.6</v>
-      </c>
-      <c r="M108">
-        <v>2.8</v>
-      </c>
-      <c r="N108">
-        <v>2.15</v>
       </c>
       <c r="O108">
         <v>3.5</v>
       </c>
       <c r="P108">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R108">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S108">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V108">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X108">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA108">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10240,7 +10240,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
         <v>39</v>
@@ -10599,7 +10599,7 @@
         <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10866,7 +10866,7 @@
         <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11308,7 +11308,7 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
         <v>38</v>
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6803053</v>
+        <v>6803056</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,10 +11397,10 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11412,61 +11412,61 @@
         <v>47</v>
       </c>
       <c r="K123">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="L123">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M123">
+        <v>2.9</v>
+      </c>
+      <c r="N123">
+        <v>3</v>
+      </c>
+      <c r="O123">
+        <v>2.8</v>
+      </c>
+      <c r="P123">
+        <v>2.55</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <v>2.1</v>
+      </c>
+      <c r="S123">
+        <v>1.775</v>
+      </c>
+      <c r="T123">
+        <v>2.25</v>
+      </c>
+      <c r="U123">
+        <v>2.05</v>
+      </c>
+      <c r="V123">
         <v>1.8</v>
       </c>
-      <c r="N123">
-        <v>4.333</v>
-      </c>
-      <c r="O123">
-        <v>3.75</v>
-      </c>
-      <c r="P123">
-        <v>1.7</v>
-      </c>
-      <c r="Q123">
-        <v>0.75</v>
-      </c>
-      <c r="R123">
-        <v>1.9</v>
-      </c>
-      <c r="S123">
-        <v>1.95</v>
-      </c>
-      <c r="T123">
-        <v>2.75</v>
-      </c>
-      <c r="U123">
-        <v>2.025</v>
-      </c>
-      <c r="V123">
-        <v>1.825</v>
-      </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC123">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6803056</v>
+        <v>6803053</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,10 +11486,10 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11501,61 +11501,61 @@
         <v>47</v>
       </c>
       <c r="K124">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="L124">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M124">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="N124">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="O124">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="P124">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R124">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S124">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V124">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA124">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11667,7 +11667,7 @@
         <v>44</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -12020,7 +12020,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
         <v>36</v>
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6803071</v>
+        <v>6803074</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,49 +12287,49 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H133">
         <v>5</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
         <v>45</v>
       </c>
       <c r="K133">
-        <v>1.666</v>
+        <v>1.55</v>
       </c>
       <c r="L133">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M133">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N133">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="O133">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P133">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q133">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R133">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
         <v>1.825</v>
@@ -12338,7 +12338,7 @@
         <v>2.025</v>
       </c>
       <c r="W133">
-        <v>0.6659999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X133">
         <v>-1</v>
@@ -12347,7 +12347,7 @@
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA133">
         <v>-1</v>
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6803076</v>
+        <v>6803071</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,58 +12376,58 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
         <v>45</v>
       </c>
       <c r="K134">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="L134">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="N134">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="O134">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P134">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="Q134">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R134">
+        <v>1.875</v>
+      </c>
+      <c r="S134">
+        <v>1.975</v>
+      </c>
+      <c r="T134">
+        <v>2.25</v>
+      </c>
+      <c r="U134">
         <v>1.825</v>
       </c>
-      <c r="S134">
+      <c r="V134">
         <v>2.025</v>
       </c>
-      <c r="T134">
-        <v>3</v>
-      </c>
-      <c r="U134">
-        <v>1.925</v>
-      </c>
-      <c r="V134">
-        <v>1.925</v>
-      </c>
       <c r="W134">
-        <v>0.25</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X134">
         <v>-1</v>
@@ -12436,16 +12436,16 @@
         <v>-1</v>
       </c>
       <c r="Z134">
+        <v>0.875</v>
+      </c>
+      <c r="AA134">
+        <v>-1</v>
+      </c>
+      <c r="AB134">
         <v>0.825</v>
       </c>
-      <c r="AA134">
-        <v>-1</v>
-      </c>
-      <c r="AB134">
-        <v>0</v>
-      </c>
       <c r="AC134">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6803074</v>
+        <v>6803076</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,58 +12465,58 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G135" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H135">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I135">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
         <v>45</v>
       </c>
       <c r="K135">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="L135">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="M135">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N135">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="O135">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P135">
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="Q135">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R135">
+        <v>1.825</v>
+      </c>
+      <c r="S135">
+        <v>2.025</v>
+      </c>
+      <c r="T135">
+        <v>3</v>
+      </c>
+      <c r="U135">
         <v>1.925</v>
       </c>
-      <c r="S135">
+      <c r="V135">
         <v>1.925</v>
       </c>
-      <c r="T135">
-        <v>2.5</v>
-      </c>
-      <c r="U135">
-        <v>1.825</v>
-      </c>
-      <c r="V135">
-        <v>2.025</v>
-      </c>
       <c r="W135">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="X135">
         <v>-1</v>
@@ -12525,16 +12525,16 @@
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA135">
         <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12913,7 +12913,7 @@
         <v>33</v>
       </c>
       <c r="G140" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6803083</v>
+        <v>6803080</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,76 +13088,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H142">
         <v>0</v>
       </c>
       <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142" t="s">
+        <v>46</v>
+      </c>
+      <c r="K142">
+        <v>2.3</v>
+      </c>
+      <c r="L142">
+        <v>3.3</v>
+      </c>
+      <c r="M142">
+        <v>3.1</v>
+      </c>
+      <c r="N142">
+        <v>2.5</v>
+      </c>
+      <c r="O142">
+        <v>3.3</v>
+      </c>
+      <c r="P142">
+        <v>2.8</v>
+      </c>
+      <c r="Q142">
         <v>0</v>
       </c>
-      <c r="J142" t="s">
-        <v>47</v>
-      </c>
-      <c r="K142">
-        <v>1.833</v>
-      </c>
-      <c r="L142">
-        <v>3.75</v>
-      </c>
-      <c r="M142">
-        <v>4</v>
-      </c>
-      <c r="N142">
-        <v>1.45</v>
-      </c>
-      <c r="O142">
-        <v>4.75</v>
-      </c>
-      <c r="P142">
-        <v>6</v>
-      </c>
-      <c r="Q142">
-        <v>-1.25</v>
-      </c>
       <c r="R142">
+        <v>1.8</v>
+      </c>
+      <c r="S142">
         <v>2.05</v>
       </c>
-      <c r="S142">
+      <c r="T142">
+        <v>2.5</v>
+      </c>
+      <c r="U142">
+        <v>1.95</v>
+      </c>
+      <c r="V142">
+        <v>1.9</v>
+      </c>
+      <c r="W142">
+        <v>-1</v>
+      </c>
+      <c r="X142">
+        <v>-1</v>
+      </c>
+      <c r="Y142">
         <v>1.8</v>
       </c>
-      <c r="T142">
-        <v>3</v>
-      </c>
-      <c r="U142">
-        <v>2.025</v>
-      </c>
-      <c r="V142">
-        <v>1.825</v>
-      </c>
-      <c r="W142">
-        <v>-1</v>
-      </c>
-      <c r="X142">
-        <v>3.75</v>
-      </c>
-      <c r="Y142">
-        <v>-1</v>
-      </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6803081</v>
+        <v>6803083</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,76 +13177,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G143" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H143">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K143">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="L143">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M143">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N143">
+        <v>1.45</v>
+      </c>
+      <c r="O143">
+        <v>4.75</v>
+      </c>
+      <c r="P143">
+        <v>6</v>
+      </c>
+      <c r="Q143">
+        <v>-1.25</v>
+      </c>
+      <c r="R143">
+        <v>2.05</v>
+      </c>
+      <c r="S143">
+        <v>1.8</v>
+      </c>
+      <c r="T143">
         <v>3</v>
       </c>
-      <c r="O143">
-        <v>3.4</v>
-      </c>
-      <c r="P143">
-        <v>2.3</v>
-      </c>
-      <c r="Q143">
-        <v>0.25</v>
-      </c>
-      <c r="R143">
+      <c r="U143">
+        <v>2.025</v>
+      </c>
+      <c r="V143">
         <v>1.825</v>
       </c>
-      <c r="S143">
-        <v>2.025</v>
-      </c>
-      <c r="T143">
-        <v>2.5</v>
-      </c>
-      <c r="U143">
-        <v>2.05</v>
-      </c>
-      <c r="V143">
-        <v>1.8</v>
-      </c>
       <c r="W143">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
+        <v>-1</v>
+      </c>
+      <c r="AA143">
+        <v>0.8</v>
+      </c>
+      <c r="AB143">
+        <v>-1</v>
+      </c>
+      <c r="AC143">
         <v>0.825</v>
-      </c>
-      <c r="AA143">
-        <v>-1</v>
-      </c>
-      <c r="AB143">
-        <v>1.05</v>
-      </c>
-      <c r="AC143">
-        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6803082</v>
+        <v>6803081</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,13 +13266,13 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -13281,13 +13281,13 @@
         <v>45</v>
       </c>
       <c r="K144">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="L144">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M144">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="N144">
         <v>3</v>
@@ -13311,10 +13311,10 @@
         <v>2.5</v>
       </c>
       <c r="U144">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V144">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W144">
         <v>2</v>
@@ -13332,10 +13332,10 @@
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6803080</v>
+        <v>6803082</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,76 +13355,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H145">
+        <v>2</v>
+      </c>
+      <c r="I145">
         <v>0</v>
       </c>
-      <c r="I145">
-        <v>1</v>
-      </c>
       <c r="J145" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K145">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="L145">
         <v>3.3</v>
       </c>
       <c r="M145">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="N145">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O145">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P145">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q145">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S145">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T145">
         <v>2.5</v>
       </c>
       <c r="U145">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA145">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6803092</v>
+        <v>6803090</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,76 +13800,76 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G150" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K150">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L150">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M150">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="N150">
-        <v>1.45</v>
+        <v>2.4</v>
       </c>
       <c r="O150">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P150">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q150">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R150">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S150">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T150">
         <v>2.5</v>
       </c>
       <c r="U150">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V150">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA150">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13877,7 +13877,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6803090</v>
+        <v>6803092</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13889,76 +13889,76 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151">
         <v>2</v>
       </c>
-      <c r="I151">
-        <v>0</v>
-      </c>
       <c r="J151" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K151">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L151">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M151">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="N151">
-        <v>2.4</v>
+        <v>1.45</v>
       </c>
       <c r="O151">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P151">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q151">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R151">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S151">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T151">
         <v>2.5</v>
       </c>
       <c r="U151">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V151">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W151">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z151">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC151">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6803087</v>
+        <v>6803088</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,76 +13978,76 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
         <v>3</v>
       </c>
-      <c r="I152">
-        <v>0</v>
-      </c>
       <c r="J152" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K152">
+        <v>6.5</v>
+      </c>
+      <c r="L152">
+        <v>4.75</v>
+      </c>
+      <c r="M152">
+        <v>1.4</v>
+      </c>
+      <c r="N152">
+        <v>7.5</v>
+      </c>
+      <c r="O152">
+        <v>5</v>
+      </c>
+      <c r="P152">
+        <v>1.363</v>
+      </c>
+      <c r="Q152">
+        <v>1.5</v>
+      </c>
+      <c r="R152">
+        <v>1.825</v>
+      </c>
+      <c r="S152">
+        <v>2.025</v>
+      </c>
+      <c r="T152">
         <v>3.25</v>
       </c>
-      <c r="L152">
-        <v>3.4</v>
-      </c>
-      <c r="M152">
-        <v>1.95</v>
-      </c>
-      <c r="N152">
-        <v>4</v>
-      </c>
-      <c r="O152">
-        <v>3.8</v>
-      </c>
-      <c r="P152">
-        <v>1.8</v>
-      </c>
-      <c r="Q152">
-        <v>0.5</v>
-      </c>
-      <c r="R152">
+      <c r="U152">
         <v>2.025</v>
       </c>
-      <c r="S152">
+      <c r="V152">
         <v>1.825</v>
       </c>
-      <c r="T152">
-        <v>2.75</v>
-      </c>
-      <c r="U152">
-        <v>1.875</v>
-      </c>
-      <c r="V152">
-        <v>1.975</v>
-      </c>
       <c r="W152">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z152">
+        <v>-1</v>
+      </c>
+      <c r="AA152">
         <v>1.025</v>
       </c>
-      <c r="AA152">
-        <v>-1</v>
-      </c>
       <c r="AB152">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AC152">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14055,7 +14055,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6803088</v>
+        <v>6803087</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14067,76 +14067,76 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F153" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G153" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H153">
+        <v>3</v>
+      </c>
+      <c r="I153">
         <v>0</v>
       </c>
-      <c r="I153">
+      <c r="J153" t="s">
+        <v>45</v>
+      </c>
+      <c r="K153">
+        <v>3.25</v>
+      </c>
+      <c r="L153">
+        <v>3.4</v>
+      </c>
+      <c r="M153">
+        <v>1.95</v>
+      </c>
+      <c r="N153">
+        <v>4</v>
+      </c>
+      <c r="O153">
+        <v>3.8</v>
+      </c>
+      <c r="P153">
+        <v>1.8</v>
+      </c>
+      <c r="Q153">
+        <v>0.5</v>
+      </c>
+      <c r="R153">
+        <v>2.025</v>
+      </c>
+      <c r="S153">
+        <v>1.825</v>
+      </c>
+      <c r="T153">
+        <v>2.75</v>
+      </c>
+      <c r="U153">
+        <v>1.875</v>
+      </c>
+      <c r="V153">
+        <v>1.975</v>
+      </c>
+      <c r="W153">
         <v>3</v>
       </c>
-      <c r="J153" t="s">
-        <v>46</v>
-      </c>
-      <c r="K153">
-        <v>6.5</v>
-      </c>
-      <c r="L153">
-        <v>4.75</v>
-      </c>
-      <c r="M153">
-        <v>1.4</v>
-      </c>
-      <c r="N153">
-        <v>7.5</v>
-      </c>
-      <c r="O153">
-        <v>5</v>
-      </c>
-      <c r="P153">
-        <v>1.363</v>
-      </c>
-      <c r="Q153">
-        <v>1.5</v>
-      </c>
-      <c r="R153">
-        <v>1.825</v>
-      </c>
-      <c r="S153">
-        <v>2.025</v>
-      </c>
-      <c r="T153">
-        <v>3.25</v>
-      </c>
-      <c r="U153">
-        <v>2.025</v>
-      </c>
-      <c r="V153">
-        <v>1.825</v>
-      </c>
-      <c r="W153">
-        <v>-1</v>
-      </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA153">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
+        <v>0.4375</v>
+      </c>
+      <c r="AC153">
         <v>-0.5</v>
-      </c>
-      <c r="AC153">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14233,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6803085</v>
+        <v>6803089</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14245,40 +14245,40 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G155" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H155">
         <v>2</v>
       </c>
       <c r="I155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K155">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L155">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M155">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="N155">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O155">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P155">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q155">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R155">
         <v>1.8</v>
@@ -14290,28 +14290,28 @@
         <v>2.25</v>
       </c>
       <c r="U155">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V155">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X155">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA155">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14322,7 +14322,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6803089</v>
+        <v>6803085</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14334,40 +14334,40 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H156">
         <v>2</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K156">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L156">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M156">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="N156">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="O156">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P156">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R156">
         <v>1.8</v>
@@ -14379,28 +14379,28 @@
         <v>2.25</v>
       </c>
       <c r="U156">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V156">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W156">
+        <v>-1</v>
+      </c>
+      <c r="X156">
+        <v>2.3</v>
+      </c>
+      <c r="Y156">
+        <v>-1</v>
+      </c>
+      <c r="Z156">
+        <v>0</v>
+      </c>
+      <c r="AA156">
+        <v>-0</v>
+      </c>
+      <c r="AB156">
         <v>0.8</v>
-      </c>
-      <c r="X156">
-        <v>-1</v>
-      </c>
-      <c r="Y156">
-        <v>-1</v>
-      </c>
-      <c r="Z156">
-        <v>0.8</v>
-      </c>
-      <c r="AA156">
-        <v>-1</v>
-      </c>
-      <c r="AB156">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14601,10 +14601,10 @@
         <v>45336.54166666666</v>
       </c>
       <c r="F159" t="s">
+        <v>31</v>
+      </c>
+      <c r="G159" t="s">
         <v>30</v>
-      </c>
-      <c r="G159" t="s">
-        <v>31</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14957,7 +14957,7 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G163" t="s">
         <v>29</v>
@@ -15313,7 +15313,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G167" t="s">
         <v>32</v>
@@ -15672,7 +15672,7 @@
         <v>29</v>
       </c>
       <c r="G171" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -16013,7 +16013,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6803107</v>
+        <v>6803103</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16025,58 +16025,58 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
         <v>45</v>
       </c>
       <c r="K175">
-        <v>1.111</v>
+        <v>3.4</v>
       </c>
       <c r="L175">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="M175">
-        <v>17</v>
+        <v>2.05</v>
       </c>
       <c r="N175">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="O175">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="P175">
-        <v>17</v>
+        <v>2.9</v>
       </c>
       <c r="Q175">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R175">
+        <v>2.025</v>
+      </c>
+      <c r="S175">
+        <v>1.825</v>
+      </c>
+      <c r="T175">
+        <v>2.75</v>
+      </c>
+      <c r="U175">
         <v>2</v>
       </c>
-      <c r="S175">
-        <v>1.85</v>
-      </c>
-      <c r="T175">
-        <v>3.25</v>
-      </c>
-      <c r="U175">
-        <v>1.85</v>
-      </c>
       <c r="V175">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W175">
-        <v>0.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16085,16 +16085,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
+        <v>0.5</v>
+      </c>
+      <c r="AC175">
         <v>-0.5</v>
-      </c>
-      <c r="AC175">
-        <v>0.5</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6803103</v>
+        <v>6803107</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,58 +16114,58 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G176" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
         <v>45</v>
       </c>
       <c r="K176">
-        <v>3.4</v>
+        <v>1.111</v>
       </c>
       <c r="L176">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="M176">
-        <v>2.05</v>
+        <v>17</v>
       </c>
       <c r="N176">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="O176">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="P176">
-        <v>2.9</v>
+        <v>17</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R176">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S176">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T176">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U176">
+        <v>1.85</v>
+      </c>
+      <c r="V176">
         <v>2</v>
       </c>
-      <c r="V176">
-        <v>1.8</v>
-      </c>
       <c r="W176">
-        <v>1.3</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16174,16 +16174,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
+        <v>-0.5</v>
+      </c>
+      <c r="AC176">
         <v>0.5</v>
-      </c>
-      <c r="AC176">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16369,7 +16369,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6803117</v>
+        <v>6803115</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16381,73 +16381,73 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G179" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K179">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="L179">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M179">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N179">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="O179">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P179">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q179">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R179">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S179">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T179">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U179">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V179">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X179">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA179">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16458,7 +16458,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6803115</v>
+        <v>6803120</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16470,49 +16470,49 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G180" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="I180">
         <v>3</v>
       </c>
-      <c r="I180">
-        <v>1</v>
-      </c>
       <c r="J180" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K180">
-        <v>1.533</v>
+        <v>4</v>
       </c>
       <c r="L180">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M180">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="N180">
-        <v>1.444</v>
+        <v>3.6</v>
       </c>
       <c r="O180">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P180">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q180">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R180">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S180">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T180">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U180">
         <v>1.95</v>
@@ -16521,19 +16521,19 @@
         <v>1.9</v>
       </c>
       <c r="W180">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z180">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB180">
         <v>0.95</v>
@@ -16547,7 +16547,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6803120</v>
+        <v>6803117</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16559,73 +16559,73 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G181" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K181">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="L181">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M181">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="N181">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="O181">
         <v>3.4</v>
       </c>
       <c r="P181">
+        <v>3.75</v>
+      </c>
+      <c r="Q181">
+        <v>-0.5</v>
+      </c>
+      <c r="R181">
         <v>2.05</v>
       </c>
-      <c r="Q181">
-        <v>0.5</v>
-      </c>
-      <c r="R181">
-        <v>1.85</v>
-      </c>
       <c r="S181">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T181">
         <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V181">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y181">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
+        <v>0.8</v>
+      </c>
+      <c r="AB181">
         <v>1</v>
-      </c>
-      <c r="AB181">
-        <v>0.95</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -16648,7 +16648,7 @@
         <v>45353.58333333334</v>
       </c>
       <c r="F182" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G182" t="s">
         <v>42</v>
@@ -16992,7 +16992,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6803124</v>
+        <v>6803127</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17004,13 +17004,13 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G186" t="s">
         <v>31</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -17019,43 +17019,43 @@
         <v>45</v>
       </c>
       <c r="K186">
+        <v>1.6</v>
+      </c>
+      <c r="L186">
+        <v>4</v>
+      </c>
+      <c r="M186">
+        <v>5</v>
+      </c>
+      <c r="N186">
+        <v>1.45</v>
+      </c>
+      <c r="O186">
+        <v>4.333</v>
+      </c>
+      <c r="P186">
+        <v>6</v>
+      </c>
+      <c r="Q186">
+        <v>-1</v>
+      </c>
+      <c r="R186">
+        <v>1.875</v>
+      </c>
+      <c r="S186">
+        <v>1.975</v>
+      </c>
+      <c r="T186">
+        <v>2.75</v>
+      </c>
+      <c r="U186">
         <v>1.85</v>
       </c>
-      <c r="L186">
-        <v>3.4</v>
-      </c>
-      <c r="M186">
-        <v>3.8</v>
-      </c>
-      <c r="N186">
-        <v>1.85</v>
-      </c>
-      <c r="O186">
-        <v>3.5</v>
-      </c>
-      <c r="P186">
-        <v>3.8</v>
-      </c>
-      <c r="Q186">
-        <v>-0.5</v>
-      </c>
-      <c r="R186">
-        <v>2.05</v>
-      </c>
-      <c r="S186">
-        <v>1.8</v>
-      </c>
-      <c r="T186">
-        <v>2.5</v>
-      </c>
-      <c r="U186">
-        <v>1.9</v>
-      </c>
       <c r="V186">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W186">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17064,16 +17064,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17081,7 +17081,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6803127</v>
+        <v>6803125</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17093,76 +17093,76 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G187" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
         <v>1</v>
       </c>
-      <c r="I187">
-        <v>0</v>
-      </c>
       <c r="J187" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K187">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L187">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M187">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N187">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="O187">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P187">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Q187">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R187">
+        <v>1.975</v>
+      </c>
+      <c r="S187">
         <v>1.875</v>
       </c>
-      <c r="S187">
-        <v>1.975</v>
-      </c>
       <c r="T187">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U187">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V187">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W187">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB187">
         <v>-1</v>
       </c>
       <c r="AC187">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17170,7 +17170,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6803125</v>
+        <v>6803122</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17182,40 +17182,40 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G188" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H188">
         <v>0</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K188">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L188">
         <v>3.4</v>
       </c>
       <c r="M188">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="N188">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O188">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P188">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q188">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R188">
         <v>1.975</v>
@@ -17227,31 +17227,31 @@
         <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y188">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA188">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17259,7 +17259,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6803122</v>
+        <v>6803124</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17271,76 +17271,76 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189">
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K189">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="L189">
         <v>3.4</v>
       </c>
       <c r="M189">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="N189">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O189">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P189">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q189">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R189">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S189">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T189">
         <v>2.5</v>
       </c>
       <c r="U189">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V189">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X189">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA189">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17805,7 +17805,7 @@
         <v>45367.45833333334</v>
       </c>
       <c r="F195" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G195" t="s">
         <v>40</v>
@@ -18161,7 +18161,7 @@
         <v>45368.45833333334</v>
       </c>
       <c r="F199" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G199" t="s">
         <v>39</v>
@@ -18431,7 +18431,7 @@
         <v>38</v>
       </c>
       <c r="G202" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K202">
         <v>1.615</v>
@@ -18443,31 +18443,31 @@
         <v>5.25</v>
       </c>
       <c r="N202">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="O202">
         <v>4</v>
       </c>
       <c r="P202">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="Q202">
         <v>-0.75</v>
       </c>
       <c r="R202">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S202">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T202">
         <v>2.5</v>
       </c>
       <c r="U202">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V202">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W202">
         <v>0</v>
@@ -18538,10 +18538,10 @@
         <v>2.5</v>
       </c>
       <c r="U203">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V203">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W203">
         <v>0</v>
@@ -18739,31 +18739,31 @@
         <v>6.5</v>
       </c>
       <c r="N206">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="O206">
         <v>4.2</v>
       </c>
       <c r="P206">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q206">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R206">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S206">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T206">
         <v>2.75</v>
       </c>
       <c r="U206">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V206">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W206">
         <v>0</v>
@@ -18875,7 +18875,7 @@
         <v>43</v>
       </c>
       <c r="G208" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K208">
         <v>1.615</v>

--- a/Czech Republic First League/Czech Republic First League.xlsx
+++ b/Czech Republic First League/Czech Republic First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC209"/>
+  <dimension ref="A1:AC205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6802952</v>
+        <v>6802951</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,76 +2052,76 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K18">
-        <v>2.8</v>
+        <v>1.166</v>
       </c>
       <c r="L18">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>2.25</v>
+        <v>15</v>
       </c>
       <c r="N18">
-        <v>3.6</v>
+        <v>1.111</v>
       </c>
       <c r="O18">
+        <v>7.5</v>
+      </c>
+      <c r="P18">
+        <v>17</v>
+      </c>
+      <c r="Q18">
+        <v>-2.25</v>
+      </c>
+      <c r="R18">
+        <v>1.85</v>
+      </c>
+      <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="T18">
         <v>3.5</v>
       </c>
-      <c r="P18">
-        <v>1.909</v>
-      </c>
-      <c r="Q18">
-        <v>0.5</v>
-      </c>
-      <c r="R18">
-        <v>1.875</v>
-      </c>
-      <c r="S18">
-        <v>1.975</v>
-      </c>
-      <c r="T18">
-        <v>2.75</v>
-      </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6802951</v>
+        <v>6802952</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,76 +2141,76 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>1.166</v>
+        <v>2.8</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M19">
-        <v>15</v>
+        <v>2.25</v>
       </c>
       <c r="N19">
-        <v>1.111</v>
+        <v>3.6</v>
       </c>
       <c r="O19">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P19">
-        <v>17</v>
+        <v>1.909</v>
       </c>
       <c r="Q19">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T19">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V19">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W19">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB19">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6802953</v>
+        <v>6802954</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K22">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L22">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N22">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P22">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V22">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6802950</v>
+        <v>6802953</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,40 +2497,40 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23">
+        <v>2.625</v>
+      </c>
+      <c r="L23">
+        <v>3.1</v>
+      </c>
+      <c r="M23">
+        <v>2.55</v>
+      </c>
+      <c r="N23">
+        <v>2.625</v>
+      </c>
+      <c r="O23">
         <v>3</v>
       </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23">
-        <v>1.5</v>
-      </c>
-      <c r="L23">
-        <v>4</v>
-      </c>
-      <c r="M23">
-        <v>5.75</v>
-      </c>
-      <c r="N23">
-        <v>1.533</v>
-      </c>
-      <c r="O23">
-        <v>4</v>
-      </c>
       <c r="P23">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R23">
         <v>1.925</v>
@@ -2539,34 +2539,34 @@
         <v>1.925</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W23">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB23">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6802954</v>
+        <v>6802950</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,76 +2586,76 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L24">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M24">
+        <v>5.75</v>
+      </c>
+      <c r="N24">
+        <v>1.533</v>
+      </c>
+      <c r="O24">
+        <v>4</v>
+      </c>
+      <c r="P24">
+        <v>5.5</v>
+      </c>
+      <c r="Q24">
+        <v>-1</v>
+      </c>
+      <c r="R24">
+        <v>1.925</v>
+      </c>
+      <c r="S24">
+        <v>1.925</v>
+      </c>
+      <c r="T24">
         <v>3</v>
       </c>
-      <c r="N24">
-        <v>1.95</v>
-      </c>
-      <c r="O24">
-        <v>3.6</v>
-      </c>
-      <c r="P24">
-        <v>3.4</v>
-      </c>
-      <c r="Q24">
-        <v>-0.5</v>
-      </c>
-      <c r="R24">
-        <v>2</v>
-      </c>
-      <c r="S24">
-        <v>1.85</v>
-      </c>
-      <c r="T24">
-        <v>2.75</v>
-      </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V24">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA24">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6802958</v>
+        <v>6802962</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,76 +2764,76 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M26">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N26">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="O26">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P26">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q26">
+        <v>0.25</v>
+      </c>
+      <c r="R26">
+        <v>1.8</v>
+      </c>
+      <c r="S26">
+        <v>2.05</v>
+      </c>
+      <c r="T26">
+        <v>2.5</v>
+      </c>
+      <c r="U26">
+        <v>1.825</v>
+      </c>
+      <c r="V26">
+        <v>2.025</v>
+      </c>
+      <c r="W26">
+        <v>-1</v>
+      </c>
+      <c r="X26">
+        <v>2.25</v>
+      </c>
+      <c r="Y26">
+        <v>-1</v>
+      </c>
+      <c r="Z26">
+        <v>0.4</v>
+      </c>
+      <c r="AA26">
         <v>-0.5</v>
       </c>
-      <c r="R26">
-        <v>1.825</v>
-      </c>
-      <c r="S26">
-        <v>2.025</v>
-      </c>
-      <c r="T26">
-        <v>2.75</v>
-      </c>
-      <c r="U26">
-        <v>1.925</v>
-      </c>
-      <c r="V26">
-        <v>1.925</v>
-      </c>
-      <c r="W26">
-        <v>0.75</v>
-      </c>
-      <c r="X26">
-        <v>-1</v>
-      </c>
-      <c r="Y26">
-        <v>-1</v>
-      </c>
-      <c r="Z26">
-        <v>0.825</v>
-      </c>
-      <c r="AA26">
-        <v>-1</v>
-      </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6802962</v>
+        <v>6802958</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,76 +2853,76 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="L27">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M27">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="N27">
+        <v>1.75</v>
+      </c>
+      <c r="O27">
+        <v>3.75</v>
+      </c>
+      <c r="P27">
+        <v>3.8</v>
+      </c>
+      <c r="Q27">
+        <v>-0.5</v>
+      </c>
+      <c r="R27">
+        <v>1.825</v>
+      </c>
+      <c r="S27">
+        <v>2.025</v>
+      </c>
+      <c r="T27">
         <v>2.75</v>
       </c>
-      <c r="O27">
-        <v>3.25</v>
-      </c>
-      <c r="P27">
-        <v>2.25</v>
-      </c>
-      <c r="Q27">
-        <v>0.25</v>
-      </c>
-      <c r="R27">
-        <v>1.8</v>
-      </c>
-      <c r="S27">
-        <v>2.05</v>
-      </c>
-      <c r="T27">
-        <v>2.5</v>
-      </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V27">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X27">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6802968</v>
+        <v>6802970</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,19 +3565,19 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K35">
         <v>1.75</v>
@@ -3586,19 +3586,19 @@
         <v>3.6</v>
       </c>
       <c r="M35">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N35">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O35">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P35">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q35">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R35">
         <v>1.925</v>
@@ -3607,34 +3607,34 @@
         <v>1.925</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U35">
+        <v>1.9</v>
+      </c>
+      <c r="V35">
         <v>1.95</v>
       </c>
-      <c r="V35">
-        <v>1.9</v>
-      </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X35">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA35">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB35">
+        <v>-1</v>
+      </c>
+      <c r="AC35">
         <v>0.95</v>
-      </c>
-      <c r="AC35">
-        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6802970</v>
+        <v>6802968</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,19 +3654,19 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K36">
         <v>1.75</v>
@@ -3675,19 +3675,19 @@
         <v>3.6</v>
       </c>
       <c r="M36">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N36">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O36">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P36">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q36">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R36">
         <v>1.925</v>
@@ -3696,34 +3696,34 @@
         <v>1.925</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
+        <v>1.95</v>
+      </c>
+      <c r="V36">
         <v>1.9</v>
       </c>
-      <c r="V36">
-        <v>1.95</v>
-      </c>
       <c r="W36">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC36">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6803000</v>
+        <v>6802999</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,46 +6235,46 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K65">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="L65">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M65">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="N65">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="O65">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P65">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q65">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R65">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S65">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T65">
         <v>3</v>
@@ -6286,25 +6286,25 @@
         <v>1.95</v>
       </c>
       <c r="W65">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z65">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB65">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6802999</v>
+        <v>6803000</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,46 +6413,46 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H67">
+        <v>5</v>
+      </c>
+      <c r="I67">
         <v>1</v>
       </c>
-      <c r="I67">
-        <v>2</v>
-      </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K67">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="L67">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M67">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="N67">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="O67">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P67">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q67">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R67">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S67">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T67">
         <v>3</v>
@@ -6464,25 +6464,25 @@
         <v>1.95</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA67">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC67">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6803007</v>
+        <v>6803009</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,76 +6947,76 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G73" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K73">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="L73">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M73">
+        <v>2.375</v>
+      </c>
+      <c r="N73">
         <v>3</v>
       </c>
-      <c r="N73">
-        <v>2.25</v>
-      </c>
       <c r="O73">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P73">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R73">
+        <v>1.775</v>
+      </c>
+      <c r="S73">
+        <v>2.1</v>
+      </c>
+      <c r="T73">
+        <v>2.5</v>
+      </c>
+      <c r="U73">
         <v>2</v>
       </c>
-      <c r="S73">
+      <c r="V73">
         <v>1.85</v>
       </c>
-      <c r="T73">
-        <v>3</v>
-      </c>
-      <c r="U73">
-        <v>2.025</v>
-      </c>
-      <c r="V73">
-        <v>1.825</v>
-      </c>
       <c r="W73">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X73">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA73">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
         <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6803005</v>
+        <v>6803007</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,76 +7036,76 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K74">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M74">
         <v>3</v>
       </c>
       <c r="N74">
+        <v>2.25</v>
+      </c>
+      <c r="O74">
+        <v>3.6</v>
+      </c>
+      <c r="P74">
+        <v>2.9</v>
+      </c>
+      <c r="Q74">
+        <v>-0.25</v>
+      </c>
+      <c r="R74">
+        <v>2</v>
+      </c>
+      <c r="S74">
+        <v>1.85</v>
+      </c>
+      <c r="T74">
+        <v>3</v>
+      </c>
+      <c r="U74">
+        <v>2.025</v>
+      </c>
+      <c r="V74">
+        <v>1.825</v>
+      </c>
+      <c r="W74">
+        <v>-1</v>
+      </c>
+      <c r="X74">
         <v>2.6</v>
       </c>
-      <c r="O74">
-        <v>3.3</v>
-      </c>
-      <c r="P74">
-        <v>2.625</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>1.85</v>
-      </c>
-      <c r="S74">
-        <v>2</v>
-      </c>
-      <c r="T74">
-        <v>2.75</v>
-      </c>
-      <c r="U74">
-        <v>1.975</v>
-      </c>
-      <c r="V74">
-        <v>1.875</v>
-      </c>
-      <c r="W74">
-        <v>-1</v>
-      </c>
-      <c r="X74">
-        <v>-1</v>
-      </c>
       <c r="Y74">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA74">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AB74">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6803009</v>
+        <v>6803005</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,76 +7125,76 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F75" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75" t="s">
+        <v>46</v>
+      </c>
+      <c r="K75">
+        <v>2.25</v>
+      </c>
+      <c r="L75">
+        <v>3.4</v>
+      </c>
+      <c r="M75">
+        <v>3</v>
+      </c>
+      <c r="N75">
+        <v>2.6</v>
+      </c>
+      <c r="O75">
+        <v>3.3</v>
+      </c>
+      <c r="P75">
+        <v>2.625</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>1.85</v>
+      </c>
+      <c r="S75">
         <v>2</v>
       </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75" t="s">
-        <v>45</v>
-      </c>
-      <c r="K75">
-        <v>2.875</v>
-      </c>
-      <c r="L75">
-        <v>3.25</v>
-      </c>
-      <c r="M75">
-        <v>2.375</v>
-      </c>
-      <c r="N75">
-        <v>3</v>
-      </c>
-      <c r="O75">
-        <v>3.25</v>
-      </c>
-      <c r="P75">
-        <v>2.4</v>
-      </c>
-      <c r="Q75">
-        <v>0.25</v>
-      </c>
-      <c r="R75">
-        <v>1.775</v>
-      </c>
-      <c r="S75">
-        <v>2.1</v>
-      </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V75">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W75">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z75">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC75">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6803012</v>
+        <v>6803006</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,46 +7392,46 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K78">
-        <v>9</v>
+        <v>1.909</v>
       </c>
       <c r="L78">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="N78">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="O78">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="P78">
-        <v>1.285</v>
+        <v>3.6</v>
       </c>
       <c r="Q78">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S78">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
         <v>2.75</v>
@@ -7443,25 +7443,25 @@
         <v>2</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X78">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC78">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7469,7 +7469,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6803006</v>
+        <v>6803012</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7481,46 +7481,46 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K79">
-        <v>1.909</v>
+        <v>9</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M79">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="N79">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="O79">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="P79">
-        <v>3.6</v>
+        <v>1.285</v>
       </c>
       <c r="Q79">
-        <v>-0.5</v>
+        <v>1.75</v>
       </c>
       <c r="R79">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T79">
         <v>2.75</v>
@@ -7532,25 +7532,25 @@
         <v>2</v>
       </c>
       <c r="W79">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6803029</v>
+        <v>6803034</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K97">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="L97">
+        <v>3.4</v>
+      </c>
+      <c r="M97">
+        <v>3.4</v>
+      </c>
+      <c r="N97">
+        <v>1.8</v>
+      </c>
+      <c r="O97">
+        <v>3.75</v>
+      </c>
+      <c r="P97">
         <v>4</v>
       </c>
-      <c r="M97">
-        <v>5</v>
-      </c>
-      <c r="N97">
-        <v>1.4</v>
-      </c>
-      <c r="O97">
-        <v>5</v>
-      </c>
-      <c r="P97">
-        <v>7</v>
-      </c>
       <c r="Q97">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R97">
+        <v>2.05</v>
+      </c>
+      <c r="S97">
+        <v>1.8</v>
+      </c>
+      <c r="T97">
+        <v>2.75</v>
+      </c>
+      <c r="U97">
+        <v>1.825</v>
+      </c>
+      <c r="V97">
         <v>2.025</v>
       </c>
-      <c r="S97">
-        <v>1.825</v>
-      </c>
-      <c r="T97">
+      <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
         <v>3</v>
       </c>
-      <c r="U97">
-        <v>2.05</v>
-      </c>
-      <c r="V97">
-        <v>1.8</v>
-      </c>
-      <c r="W97">
-        <v>-1</v>
-      </c>
-      <c r="X97">
-        <v>4</v>
-      </c>
-      <c r="Y97">
-        <v>-1</v>
-      </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6803031</v>
+        <v>6803029</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,61 +9172,61 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
         <v>47</v>
       </c>
       <c r="K98">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M98">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N98">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P98">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R98">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S98">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U98">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V98">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Y98">
         <v>-1</v>
@@ -9235,13 +9235,13 @@
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6803032</v>
+        <v>6803031</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K99">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="L99">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M99">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N99">
         <v>1.85</v>
       </c>
       <c r="O99">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P99">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q99">
         <v>-0.5</v>
       </c>
       <c r="R99">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S99">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V99">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W99">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6803034</v>
+        <v>6803032</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,76 +9350,76 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
         <v>0</v>
       </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
       <c r="J100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K100">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="L100">
         <v>3.4</v>
       </c>
       <c r="M100">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N100">
+        <v>1.85</v>
+      </c>
+      <c r="O100">
+        <v>3.3</v>
+      </c>
+      <c r="P100">
+        <v>4.5</v>
+      </c>
+      <c r="Q100">
+        <v>-0.5</v>
+      </c>
+      <c r="R100">
+        <v>1.875</v>
+      </c>
+      <c r="S100">
+        <v>1.975</v>
+      </c>
+      <c r="T100">
+        <v>2.25</v>
+      </c>
+      <c r="U100">
         <v>1.8</v>
       </c>
-      <c r="O100">
-        <v>3.75</v>
-      </c>
-      <c r="P100">
-        <v>4</v>
-      </c>
-      <c r="Q100">
-        <v>-0.75</v>
-      </c>
-      <c r="R100">
+      <c r="V100">
         <v>2.05</v>
       </c>
-      <c r="S100">
-        <v>1.8</v>
-      </c>
-      <c r="T100">
-        <v>2.75</v>
-      </c>
-      <c r="U100">
-        <v>1.825</v>
-      </c>
-      <c r="V100">
-        <v>2.025</v>
-      </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA100">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9961,7 +9961,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6803038</v>
+        <v>6803042</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9973,76 +9973,76 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K107">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="L107">
+        <v>3.5</v>
+      </c>
+      <c r="M107">
+        <v>2.25</v>
+      </c>
+      <c r="N107">
         <v>3.6</v>
-      </c>
-      <c r="M107">
-        <v>2.8</v>
-      </c>
-      <c r="N107">
-        <v>2.15</v>
       </c>
       <c r="O107">
         <v>3.5</v>
       </c>
       <c r="P107">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R107">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S107">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V107">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X107">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA107">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6803042</v>
+        <v>6803038</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10062,76 +10062,76 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G108" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K108">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L108">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M108">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="N108">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="O108">
         <v>3.5</v>
       </c>
       <c r="P108">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="Q108">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S108">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W108">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6803065</v>
+        <v>7521554</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,73 +12109,73 @@
         <v>45266.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
         <v>3</v>
       </c>
-      <c r="I131">
-        <v>2</v>
-      </c>
       <c r="J131" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K131">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="L131">
+        <v>3.25</v>
+      </c>
+      <c r="M131">
+        <v>2.2</v>
+      </c>
+      <c r="N131">
         <v>3.4</v>
       </c>
-      <c r="M131">
-        <v>4.75</v>
-      </c>
-      <c r="N131">
-        <v>1.6</v>
-      </c>
       <c r="O131">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q131">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S131">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
+        <v>1.825</v>
+      </c>
+      <c r="V131">
         <v>2.025</v>
       </c>
-      <c r="V131">
-        <v>1.825</v>
-      </c>
       <c r="W131">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z131">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB131">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7521554</v>
+        <v>6803065</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,73 +12198,73 @@
         <v>45266.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G132" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K132">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="L132">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M132">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N132">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P132">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R132">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S132">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T132">
         <v>2.5</v>
       </c>
       <c r="U132">
+        <v>2.025</v>
+      </c>
+      <c r="V132">
         <v>1.825</v>
       </c>
-      <c r="V132">
-        <v>2.025</v>
-      </c>
       <c r="W132">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA132">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB132">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6803074</v>
+        <v>6803076</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,58 +12287,58 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H133">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
         <v>45</v>
       </c>
       <c r="K133">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="L133">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="M133">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N133">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="O133">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P133">
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="Q133">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R133">
+        <v>1.825</v>
+      </c>
+      <c r="S133">
+        <v>2.025</v>
+      </c>
+      <c r="T133">
+        <v>3</v>
+      </c>
+      <c r="U133">
         <v>1.925</v>
       </c>
-      <c r="S133">
+      <c r="V133">
         <v>1.925</v>
       </c>
-      <c r="T133">
-        <v>2.5</v>
-      </c>
-      <c r="U133">
-        <v>1.825</v>
-      </c>
-      <c r="V133">
-        <v>2.025</v>
-      </c>
       <c r="W133">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="X133">
         <v>-1</v>
@@ -12347,16 +12347,16 @@
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA133">
         <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6803071</v>
+        <v>6803074</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,49 +12376,49 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H134">
         <v>5</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J134" t="s">
         <v>45</v>
       </c>
       <c r="K134">
-        <v>1.666</v>
+        <v>1.55</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M134">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N134">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="O134">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P134">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q134">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R134">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S134">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T134">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
         <v>1.825</v>
@@ -12427,7 +12427,7 @@
         <v>2.025</v>
       </c>
       <c r="W134">
-        <v>0.6659999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X134">
         <v>-1</v>
@@ -12436,7 +12436,7 @@
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA134">
         <v>-1</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6803076</v>
+        <v>6803071</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,58 +12465,58 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H135">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
         <v>45</v>
       </c>
       <c r="K135">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="L135">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="N135">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="O135">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P135">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="Q135">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R135">
+        <v>1.875</v>
+      </c>
+      <c r="S135">
+        <v>1.975</v>
+      </c>
+      <c r="T135">
+        <v>2.25</v>
+      </c>
+      <c r="U135">
         <v>1.825</v>
       </c>
-      <c r="S135">
+      <c r="V135">
         <v>2.025</v>
       </c>
-      <c r="T135">
-        <v>3</v>
-      </c>
-      <c r="U135">
-        <v>1.925</v>
-      </c>
-      <c r="V135">
-        <v>1.925</v>
-      </c>
       <c r="W135">
-        <v>0.25</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X135">
         <v>-1</v>
@@ -12525,16 +12525,16 @@
         <v>-1</v>
       </c>
       <c r="Z135">
+        <v>0.875</v>
+      </c>
+      <c r="AA135">
+        <v>-1</v>
+      </c>
+      <c r="AB135">
         <v>0.825</v>
       </c>
-      <c r="AA135">
-        <v>-1</v>
-      </c>
-      <c r="AB135">
-        <v>0</v>
-      </c>
       <c r="AC135">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7560701</v>
+        <v>7560702</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,76 +12821,76 @@
         <v>45273.54166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139">
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K139">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="L139">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M139">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="N139">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O139">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P139">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R139">
+        <v>1.85</v>
+      </c>
+      <c r="S139">
         <v>2</v>
       </c>
-      <c r="S139">
-        <v>1.85</v>
-      </c>
       <c r="T139">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U139">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V139">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y139">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
         <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC139">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7560702</v>
+        <v>7560701</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,76 +12910,76 @@
         <v>45273.54166666666</v>
       </c>
       <c r="F140" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K140">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="L140">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M140">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="N140">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O140">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P140">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q140">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
+        <v>2</v>
+      </c>
+      <c r="S140">
         <v>1.85</v>
       </c>
-      <c r="S140">
+      <c r="T140">
+        <v>2.5</v>
+      </c>
+      <c r="U140">
+        <v>1.85</v>
+      </c>
+      <c r="V140">
         <v>2</v>
       </c>
-      <c r="T140">
-        <v>3.25</v>
-      </c>
-      <c r="U140">
-        <v>1.925</v>
-      </c>
-      <c r="V140">
-        <v>1.925</v>
-      </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB140">
+        <v>-1</v>
+      </c>
+      <c r="AC140">
         <v>1</v>
-      </c>
-      <c r="AB140">
-        <v>0.925</v>
-      </c>
-      <c r="AC140">
-        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6803080</v>
+        <v>6803083</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,76 +13088,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H142">
         <v>0</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L142">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M142">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N142">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="O142">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P142">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Q142">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R142">
+        <v>2.05</v>
+      </c>
+      <c r="S142">
         <v>1.8</v>
       </c>
-      <c r="S142">
-        <v>2.05</v>
-      </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U142">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y142">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6803083</v>
+        <v>6803081</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,76 +13177,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I143">
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K143">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="L143">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M143">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N143">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="O143">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P143">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="Q143">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R143">
+        <v>1.825</v>
+      </c>
+      <c r="S143">
+        <v>2.025</v>
+      </c>
+      <c r="T143">
+        <v>2.5</v>
+      </c>
+      <c r="U143">
         <v>2.05</v>
       </c>
-      <c r="S143">
+      <c r="V143">
         <v>1.8</v>
       </c>
-      <c r="T143">
-        <v>3</v>
-      </c>
-      <c r="U143">
-        <v>2.025</v>
-      </c>
-      <c r="V143">
-        <v>1.825</v>
-      </c>
       <c r="W143">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X143">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6803081</v>
+        <v>6803082</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,13 +13266,13 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H144">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -13281,13 +13281,13 @@
         <v>45</v>
       </c>
       <c r="K144">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="L144">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M144">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="N144">
         <v>3</v>
@@ -13311,10 +13311,10 @@
         <v>2.5</v>
       </c>
       <c r="U144">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V144">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W144">
         <v>2</v>
@@ -13332,10 +13332,10 @@
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6803082</v>
+        <v>6803080</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,76 +13355,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K145">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="L145">
         <v>3.3</v>
       </c>
       <c r="M145">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="N145">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="O145">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P145">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q145">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R145">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T145">
         <v>2.5</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V145">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z145">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -14233,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6803089</v>
+        <v>6803085</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14245,40 +14245,40 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G155" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H155">
         <v>2</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K155">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L155">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M155">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="N155">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="O155">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P155">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="Q155">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R155">
         <v>1.8</v>
@@ -14290,28 +14290,28 @@
         <v>2.25</v>
       </c>
       <c r="U155">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V155">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W155">
+        <v>-1</v>
+      </c>
+      <c r="X155">
+        <v>2.3</v>
+      </c>
+      <c r="Y155">
+        <v>-1</v>
+      </c>
+      <c r="Z155">
+        <v>0</v>
+      </c>
+      <c r="AA155">
+        <v>-0</v>
+      </c>
+      <c r="AB155">
         <v>0.8</v>
-      </c>
-      <c r="X155">
-        <v>-1</v>
-      </c>
-      <c r="Y155">
-        <v>-1</v>
-      </c>
-      <c r="Z155">
-        <v>0.8</v>
-      </c>
-      <c r="AA155">
-        <v>-1</v>
-      </c>
-      <c r="AB155">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14322,7 +14322,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6803085</v>
+        <v>6803089</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14334,40 +14334,40 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G156" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H156">
         <v>2</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K156">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L156">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M156">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="N156">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O156">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P156">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q156">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R156">
         <v>1.8</v>
@@ -14379,28 +14379,28 @@
         <v>2.25</v>
       </c>
       <c r="U156">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V156">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X156">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA156">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -16992,7 +16992,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6803127</v>
+        <v>6803124</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17004,13 +17004,13 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G186" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -17019,43 +17019,43 @@
         <v>45</v>
       </c>
       <c r="K186">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="L186">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M186">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="N186">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="O186">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P186">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q186">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R186">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S186">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T186">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U186">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V186">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W186">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17064,16 +17064,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA186">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17081,7 +17081,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6803125</v>
+        <v>6803127</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17093,76 +17093,76 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G187" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="I187">
         <v>0</v>
       </c>
-      <c r="I187">
+      <c r="J187" t="s">
+        <v>45</v>
+      </c>
+      <c r="K187">
+        <v>1.6</v>
+      </c>
+      <c r="L187">
+        <v>4</v>
+      </c>
+      <c r="M187">
+        <v>5</v>
+      </c>
+      <c r="N187">
+        <v>1.45</v>
+      </c>
+      <c r="O187">
+        <v>4.333</v>
+      </c>
+      <c r="P187">
+        <v>6</v>
+      </c>
+      <c r="Q187">
+        <v>-1</v>
+      </c>
+      <c r="R187">
+        <v>1.875</v>
+      </c>
+      <c r="S187">
+        <v>1.975</v>
+      </c>
+      <c r="T187">
+        <v>2.75</v>
+      </c>
+      <c r="U187">
+        <v>1.85</v>
+      </c>
+      <c r="V187">
+        <v>2</v>
+      </c>
+      <c r="W187">
+        <v>0.45</v>
+      </c>
+      <c r="X187">
+        <v>-1</v>
+      </c>
+      <c r="Y187">
+        <v>-1</v>
+      </c>
+      <c r="Z187">
+        <v>0</v>
+      </c>
+      <c r="AA187">
+        <v>-0</v>
+      </c>
+      <c r="AB187">
+        <v>-1</v>
+      </c>
+      <c r="AC187">
         <v>1</v>
-      </c>
-      <c r="J187" t="s">
-        <v>46</v>
-      </c>
-      <c r="K187">
-        <v>1.8</v>
-      </c>
-      <c r="L187">
-        <v>3.4</v>
-      </c>
-      <c r="M187">
-        <v>4.2</v>
-      </c>
-      <c r="N187">
-        <v>1.7</v>
-      </c>
-      <c r="O187">
-        <v>3.5</v>
-      </c>
-      <c r="P187">
-        <v>4.5</v>
-      </c>
-      <c r="Q187">
-        <v>-0.75</v>
-      </c>
-      <c r="R187">
-        <v>1.975</v>
-      </c>
-      <c r="S187">
-        <v>1.875</v>
-      </c>
-      <c r="T187">
-        <v>2.5</v>
-      </c>
-      <c r="U187">
-        <v>1.9</v>
-      </c>
-      <c r="V187">
-        <v>1.95</v>
-      </c>
-      <c r="W187">
-        <v>-1</v>
-      </c>
-      <c r="X187">
-        <v>-1</v>
-      </c>
-      <c r="Y187">
-        <v>3.5</v>
-      </c>
-      <c r="Z187">
-        <v>-1</v>
-      </c>
-      <c r="AA187">
-        <v>0.875</v>
-      </c>
-      <c r="AB187">
-        <v>-1</v>
-      </c>
-      <c r="AC187">
-        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17170,7 +17170,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6803122</v>
+        <v>6803125</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17182,40 +17182,40 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G188" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H188">
         <v>0</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K188">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L188">
         <v>3.4</v>
       </c>
       <c r="M188">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="N188">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O188">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P188">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q188">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
         <v>1.975</v>
@@ -17227,31 +17227,31 @@
         <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V188">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17259,7 +17259,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6803124</v>
+        <v>6803122</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17271,76 +17271,76 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189">
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K189">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="L189">
         <v>3.4</v>
       </c>
       <c r="M189">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="N189">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="O189">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P189">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q189">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S189">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T189">
         <v>2.5</v>
       </c>
       <c r="U189">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V189">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W189">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -18416,7 +18416,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6803138</v>
+        <v>6804088</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18425,13 +18425,13 @@
         <v>28</v>
       </c>
       <c r="E202" s="2">
-        <v>45381.45833333334</v>
+        <v>45382.41666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G202" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K202">
         <v>1.615</v>
@@ -18440,25 +18440,25 @@
         <v>4</v>
       </c>
       <c r="M202">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="N202">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="O202">
         <v>4</v>
       </c>
       <c r="P202">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q202">
         <v>-0.75</v>
       </c>
       <c r="R202">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S202">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T202">
         <v>2.5</v>
@@ -18490,7 +18490,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6803139</v>
+        <v>6803141</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18499,49 +18499,49 @@
         <v>28</v>
       </c>
       <c r="E203" s="2">
-        <v>45381.45833333334</v>
+        <v>45382.41666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G203" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K203">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="L203">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M203">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="N203">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="O203">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P203">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q203">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R203">
+        <v>2.025</v>
+      </c>
+      <c r="S203">
+        <v>1.825</v>
+      </c>
+      <c r="T203">
+        <v>2.75</v>
+      </c>
+      <c r="U203">
+        <v>1.975</v>
+      </c>
+      <c r="V203">
         <v>1.875</v>
-      </c>
-      <c r="S203">
-        <v>1.975</v>
-      </c>
-      <c r="T203">
-        <v>2.5</v>
-      </c>
-      <c r="U203">
-        <v>1.95</v>
-      </c>
-      <c r="V203">
-        <v>1.9</v>
       </c>
       <c r="W203">
         <v>0</v>
@@ -18564,7 +18564,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6803142</v>
+        <v>6803137</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18573,49 +18573,49 @@
         <v>28</v>
       </c>
       <c r="E204" s="2">
-        <v>45381.45833333334</v>
+        <v>45382.41666666666</v>
       </c>
       <c r="F204" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G204" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K204">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="L204">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M204">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N204">
-        <v>1.363</v>
+        <v>1.615</v>
       </c>
       <c r="O204">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P204">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q204">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R204">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S204">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T204">
         <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V204">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W204">
         <v>0</v>
@@ -18638,7 +18638,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6803143</v>
+        <v>6803140</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18647,34 +18647,34 @@
         <v>28</v>
       </c>
       <c r="E205" s="2">
-        <v>45381.58333333334</v>
+        <v>45382.54166666666</v>
       </c>
       <c r="F205" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G205" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K205">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="L205">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M205">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="N205">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="O205">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="P205">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="Q205">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R205">
         <v>1.925</v>
@@ -18683,13 +18683,13 @@
         <v>1.925</v>
       </c>
       <c r="T205">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U205">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V205">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W205">
         <v>0</v>
@@ -18704,302 +18704,6 @@
         <v>0</v>
       </c>
       <c r="AA205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:29">
-      <c r="A206" s="1">
-        <v>204</v>
-      </c>
-      <c r="B206">
-        <v>6803137</v>
-      </c>
-      <c r="C206" t="s">
-        <v>28</v>
-      </c>
-      <c r="D206" t="s">
-        <v>28</v>
-      </c>
-      <c r="E206" s="2">
-        <v>45382.41666666666</v>
-      </c>
-      <c r="F206" t="s">
-        <v>33</v>
-      </c>
-      <c r="G206" t="s">
-        <v>37</v>
-      </c>
-      <c r="K206">
-        <v>1.45</v>
-      </c>
-      <c r="L206">
-        <v>4.5</v>
-      </c>
-      <c r="M206">
-        <v>6.5</v>
-      </c>
-      <c r="N206">
-        <v>1.615</v>
-      </c>
-      <c r="O206">
-        <v>4.2</v>
-      </c>
-      <c r="P206">
-        <v>5.25</v>
-      </c>
-      <c r="Q206">
-        <v>-0.75</v>
-      </c>
-      <c r="R206">
-        <v>1.8</v>
-      </c>
-      <c r="S206">
-        <v>2.05</v>
-      </c>
-      <c r="T206">
-        <v>2.75</v>
-      </c>
-      <c r="U206">
-        <v>1.95</v>
-      </c>
-      <c r="V206">
-        <v>1.9</v>
-      </c>
-      <c r="W206">
-        <v>0</v>
-      </c>
-      <c r="X206">
-        <v>0</v>
-      </c>
-      <c r="Y206">
-        <v>0</v>
-      </c>
-      <c r="Z206">
-        <v>0</v>
-      </c>
-      <c r="AA206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:29">
-      <c r="A207" s="1">
-        <v>205</v>
-      </c>
-      <c r="B207">
-        <v>6803141</v>
-      </c>
-      <c r="C207" t="s">
-        <v>28</v>
-      </c>
-      <c r="D207" t="s">
-        <v>28</v>
-      </c>
-      <c r="E207" s="2">
-        <v>45382.41666666666</v>
-      </c>
-      <c r="F207" t="s">
-        <v>39</v>
-      </c>
-      <c r="G207" t="s">
-        <v>29</v>
-      </c>
-      <c r="K207">
-        <v>1.6</v>
-      </c>
-      <c r="L207">
-        <v>4</v>
-      </c>
-      <c r="M207">
-        <v>5.25</v>
-      </c>
-      <c r="N207">
-        <v>1.6</v>
-      </c>
-      <c r="O207">
-        <v>4</v>
-      </c>
-      <c r="P207">
-        <v>5.25</v>
-      </c>
-      <c r="Q207">
-        <v>-1</v>
-      </c>
-      <c r="R207">
-        <v>2.025</v>
-      </c>
-      <c r="S207">
-        <v>1.825</v>
-      </c>
-      <c r="T207">
-        <v>2.75</v>
-      </c>
-      <c r="U207">
-        <v>1.975</v>
-      </c>
-      <c r="V207">
-        <v>1.875</v>
-      </c>
-      <c r="W207">
-        <v>0</v>
-      </c>
-      <c r="X207">
-        <v>0</v>
-      </c>
-      <c r="Y207">
-        <v>0</v>
-      </c>
-      <c r="Z207">
-        <v>0</v>
-      </c>
-      <c r="AA207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:29">
-      <c r="A208" s="1">
-        <v>206</v>
-      </c>
-      <c r="B208">
-        <v>6804088</v>
-      </c>
-      <c r="C208" t="s">
-        <v>28</v>
-      </c>
-      <c r="D208" t="s">
-        <v>28</v>
-      </c>
-      <c r="E208" s="2">
-        <v>45382.41666666666</v>
-      </c>
-      <c r="F208" t="s">
-        <v>43</v>
-      </c>
-      <c r="G208" t="s">
-        <v>31</v>
-      </c>
-      <c r="K208">
-        <v>1.615</v>
-      </c>
-      <c r="L208">
-        <v>4</v>
-      </c>
-      <c r="M208">
-        <v>5.5</v>
-      </c>
-      <c r="N208">
-        <v>1.615</v>
-      </c>
-      <c r="O208">
-        <v>4</v>
-      </c>
-      <c r="P208">
-        <v>5.5</v>
-      </c>
-      <c r="Q208">
-        <v>-0.75</v>
-      </c>
-      <c r="R208">
-        <v>1.825</v>
-      </c>
-      <c r="S208">
-        <v>2.025</v>
-      </c>
-      <c r="T208">
-        <v>2.5</v>
-      </c>
-      <c r="U208">
-        <v>1.875</v>
-      </c>
-      <c r="V208">
-        <v>1.975</v>
-      </c>
-      <c r="W208">
-        <v>0</v>
-      </c>
-      <c r="X208">
-        <v>0</v>
-      </c>
-      <c r="Y208">
-        <v>0</v>
-      </c>
-      <c r="Z208">
-        <v>0</v>
-      </c>
-      <c r="AA208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:27">
-      <c r="A209" s="1">
-        <v>207</v>
-      </c>
-      <c r="B209">
-        <v>6803140</v>
-      </c>
-      <c r="C209" t="s">
-        <v>28</v>
-      </c>
-      <c r="D209" t="s">
-        <v>28</v>
-      </c>
-      <c r="E209" s="2">
-        <v>45382.54166666666</v>
-      </c>
-      <c r="F209" t="s">
-        <v>40</v>
-      </c>
-      <c r="G209" t="s">
-        <v>36</v>
-      </c>
-      <c r="K209">
-        <v>8</v>
-      </c>
-      <c r="L209">
-        <v>5.5</v>
-      </c>
-      <c r="M209">
-        <v>1.333</v>
-      </c>
-      <c r="N209">
-        <v>7</v>
-      </c>
-      <c r="O209">
-        <v>5.75</v>
-      </c>
-      <c r="P209">
-        <v>1.363</v>
-      </c>
-      <c r="Q209">
-        <v>1.5</v>
-      </c>
-      <c r="R209">
-        <v>1.9</v>
-      </c>
-      <c r="S209">
-        <v>1.95</v>
-      </c>
-      <c r="T209">
-        <v>3.25</v>
-      </c>
-      <c r="U209">
-        <v>1.925</v>
-      </c>
-      <c r="V209">
-        <v>1.925</v>
-      </c>
-      <c r="W209">
-        <v>0</v>
-      </c>
-      <c r="X209">
-        <v>0</v>
-      </c>
-      <c r="Y209">
-        <v>0</v>
-      </c>
-      <c r="Z209">
-        <v>0</v>
-      </c>
-      <c r="AA209">
         <v>0</v>
       </c>
     </row>

--- a/Czech Republic First League/Czech Republic First League.xlsx
+++ b/Czech Republic First League/Czech Republic First League.xlsx
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6803057</v>
+        <v>6803053</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L123">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M123">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="N123">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O123">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P123">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="Q123">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R123">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S123">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T123">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U123">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V123">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y123">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA123">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.5249999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6803053</v>
+        <v>6803057</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K124">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="L124">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M124">
+        <v>2.25</v>
+      </c>
+      <c r="N124">
+        <v>3.4</v>
+      </c>
+      <c r="O124">
+        <v>3.1</v>
+      </c>
+      <c r="P124">
+        <v>2.15</v>
+      </c>
+      <c r="Q124">
+        <v>0.25</v>
+      </c>
+      <c r="R124">
+        <v>1.925</v>
+      </c>
+      <c r="S124">
+        <v>1.925</v>
+      </c>
+      <c r="T124">
+        <v>2.25</v>
+      </c>
+      <c r="U124">
         <v>1.8</v>
       </c>
-      <c r="N124">
-        <v>4.333</v>
-      </c>
-      <c r="O124">
-        <v>3.75</v>
-      </c>
-      <c r="P124">
-        <v>1.7</v>
-      </c>
-      <c r="Q124">
-        <v>0.75</v>
-      </c>
-      <c r="R124">
-        <v>1.9</v>
-      </c>
-      <c r="S124">
-        <v>1.95</v>
-      </c>
-      <c r="T124">
-        <v>2.75</v>
-      </c>
-      <c r="U124">
-        <v>2.025</v>
-      </c>
       <c r="V124">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z124">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC124">
-        <v>0.825</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7521554</v>
+        <v>6803065</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,73 +12109,73 @@
         <v>45266.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K131">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="L131">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M131">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N131">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P131">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q131">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R131">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
+        <v>2.025</v>
+      </c>
+      <c r="V131">
         <v>1.825</v>
       </c>
-      <c r="V131">
-        <v>2.025</v>
-      </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA131">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB131">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6803065</v>
+        <v>7521554</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,73 +12198,73 @@
         <v>45266.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
         <v>3</v>
       </c>
-      <c r="I132">
-        <v>2</v>
-      </c>
       <c r="J132" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K132">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="L132">
+        <v>3.25</v>
+      </c>
+      <c r="M132">
+        <v>2.2</v>
+      </c>
+      <c r="N132">
         <v>3.4</v>
       </c>
-      <c r="M132">
-        <v>4.75</v>
-      </c>
-      <c r="N132">
-        <v>1.6</v>
-      </c>
       <c r="O132">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P132">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q132">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R132">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S132">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T132">
         <v>2.5</v>
       </c>
       <c r="U132">
+        <v>1.825</v>
+      </c>
+      <c r="V132">
         <v>2.025</v>
       </c>
-      <c r="V132">
-        <v>1.825</v>
-      </c>
       <c r="W132">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z132">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB132">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6803081</v>
+        <v>6803080</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,76 +13266,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H144">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144" t="s">
+        <v>45</v>
+      </c>
+      <c r="K144">
+        <v>2.3</v>
+      </c>
+      <c r="L144">
+        <v>3.3</v>
+      </c>
+      <c r="M144">
+        <v>3.1</v>
+      </c>
+      <c r="N144">
+        <v>2.5</v>
+      </c>
+      <c r="O144">
+        <v>3.3</v>
+      </c>
+      <c r="P144">
+        <v>2.8</v>
+      </c>
+      <c r="Q144">
         <v>0</v>
       </c>
-      <c r="J144" t="s">
-        <v>46</v>
-      </c>
-      <c r="K144">
-        <v>2.5</v>
-      </c>
-      <c r="L144">
-        <v>3.4</v>
-      </c>
-      <c r="M144">
-        <v>2.7</v>
-      </c>
-      <c r="N144">
-        <v>3</v>
-      </c>
-      <c r="O144">
-        <v>3.4</v>
-      </c>
-      <c r="P144">
-        <v>2.3</v>
-      </c>
-      <c r="Q144">
-        <v>0.25</v>
-      </c>
       <c r="R144">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S144">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T144">
         <v>2.5</v>
       </c>
       <c r="U144">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V144">
+        <v>1.9</v>
+      </c>
+      <c r="W144">
+        <v>-1</v>
+      </c>
+      <c r="X144">
+        <v>-1</v>
+      </c>
+      <c r="Y144">
         <v>1.8</v>
       </c>
-      <c r="W144">
-        <v>2</v>
-      </c>
-      <c r="X144">
-        <v>-1</v>
-      </c>
-      <c r="Y144">
-        <v>-1</v>
-      </c>
       <c r="Z144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB144">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6803080</v>
+        <v>6803081</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,76 +13355,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G145" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H145">
+        <v>4</v>
+      </c>
+      <c r="I145">
         <v>0</v>
       </c>
-      <c r="I145">
-        <v>1</v>
-      </c>
       <c r="J145" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K145">
+        <v>2.5</v>
+      </c>
+      <c r="L145">
+        <v>3.4</v>
+      </c>
+      <c r="M145">
+        <v>2.7</v>
+      </c>
+      <c r="N145">
+        <v>3</v>
+      </c>
+      <c r="O145">
+        <v>3.4</v>
+      </c>
+      <c r="P145">
         <v>2.3</v>
       </c>
-      <c r="L145">
-        <v>3.3</v>
-      </c>
-      <c r="M145">
-        <v>3.1</v>
-      </c>
-      <c r="N145">
-        <v>2.5</v>
-      </c>
-      <c r="O145">
-        <v>3.3</v>
-      </c>
-      <c r="P145">
-        <v>2.8</v>
-      </c>
       <c r="Q145">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S145">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T145">
         <v>2.5</v>
       </c>
       <c r="U145">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA145">
+        <v>-1</v>
+      </c>
+      <c r="AB145">
         <v>1.05</v>
       </c>
-      <c r="AB145">
-        <v>-1</v>
-      </c>
       <c r="AC145">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -17437,7 +17437,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6803123</v>
+        <v>6803128</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17449,73 +17449,73 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G191" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I191">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K191">
-        <v>1.833</v>
+        <v>1.2</v>
       </c>
       <c r="L191">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M191">
-        <v>3.8</v>
+        <v>10</v>
       </c>
       <c r="N191">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="O191">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P191">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="Q191">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R191">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S191">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T191">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U191">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V191">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W191">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X191">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA191">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC191">
         <v>-1</v>
@@ -17526,7 +17526,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6803128</v>
+        <v>6803123</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17538,73 +17538,73 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F192" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G192" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H192">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K192">
-        <v>1.2</v>
+        <v>1.833</v>
       </c>
       <c r="L192">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M192">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="N192">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="O192">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P192">
-        <v>17</v>
+        <v>3.6</v>
       </c>
       <c r="Q192">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R192">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S192">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T192">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U192">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V192">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W192">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X192">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB192">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC192">
         <v>-1</v>
@@ -18416,7 +18416,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6803142</v>
+        <v>6803139</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18428,76 +18428,76 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F202" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G202" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K202">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L202">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M202">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N202">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O202">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P202">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q202">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R202">
+        <v>1.85</v>
+      </c>
+      <c r="S202">
+        <v>2</v>
+      </c>
+      <c r="T202">
+        <v>2.5</v>
+      </c>
+      <c r="U202">
         <v>1.975</v>
       </c>
-      <c r="S202">
+      <c r="V202">
         <v>1.875</v>
       </c>
-      <c r="T202">
-        <v>2.75</v>
-      </c>
-      <c r="U202">
-        <v>1.9</v>
-      </c>
-      <c r="V202">
-        <v>1.95</v>
-      </c>
       <c r="W202">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA202">
+        <v>-1</v>
+      </c>
+      <c r="AB202">
+        <v>-1</v>
+      </c>
+      <c r="AC202">
         <v>0.875</v>
-      </c>
-      <c r="AB202">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC202">
-        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18505,7 +18505,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6803139</v>
+        <v>6803142</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18517,76 +18517,76 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F203" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G203" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J203" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K203">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L203">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M203">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N203">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O203">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="P203">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q203">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R203">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S203">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T203">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U203">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V203">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W203">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X203">
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z203">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA203">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC203">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -19167,10 +19167,10 @@
         <v>0.75</v>
       </c>
       <c r="R210">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S210">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T210">
         <v>2.75</v>
@@ -19229,22 +19229,22 @@
         <v>2.7</v>
       </c>
       <c r="N211">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="O211">
         <v>3.25</v>
       </c>
       <c r="P211">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q211">
         <v>0</v>
       </c>
       <c r="R211">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S211">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T211">
         <v>2.5</v>
@@ -19303,31 +19303,31 @@
         <v>3.3</v>
       </c>
       <c r="N212">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="O212">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P212">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q212">
         <v>-0.25</v>
       </c>
       <c r="R212">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S212">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T212">
         <v>2.25</v>
       </c>
       <c r="U212">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V212">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W212">
         <v>0</v>
@@ -19389,10 +19389,10 @@
         <v>-1.75</v>
       </c>
       <c r="R213">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S213">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T213">
         <v>3</v>
@@ -19472,10 +19472,10 @@
         <v>2.25</v>
       </c>
       <c r="U214">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V214">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W214">
         <v>0</v>
@@ -19546,10 +19546,10 @@
         <v>2.75</v>
       </c>
       <c r="U215">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V215">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W215">
         <v>0</v>
@@ -19611,19 +19611,19 @@
         <v>0</v>
       </c>
       <c r="R216">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S216">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T216">
         <v>2.5</v>
       </c>
       <c r="U216">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V216">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W216">
         <v>0</v>
@@ -19691,13 +19691,13 @@
         <v>1.925</v>
       </c>
       <c r="T217">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U217">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V217">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W217">
         <v>0</v>

--- a/Czech Republic First League/Czech Republic First League.xlsx
+++ b/Czech Republic First League/Czech Republic First League.xlsx
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6803053</v>
+        <v>6803057</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K123">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="L123">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M123">
+        <v>2.25</v>
+      </c>
+      <c r="N123">
+        <v>3.4</v>
+      </c>
+      <c r="O123">
+        <v>3.1</v>
+      </c>
+      <c r="P123">
+        <v>2.15</v>
+      </c>
+      <c r="Q123">
+        <v>0.25</v>
+      </c>
+      <c r="R123">
+        <v>1.925</v>
+      </c>
+      <c r="S123">
+        <v>1.925</v>
+      </c>
+      <c r="T123">
+        <v>2.25</v>
+      </c>
+      <c r="U123">
         <v>1.8</v>
       </c>
-      <c r="N123">
-        <v>4.333</v>
-      </c>
-      <c r="O123">
-        <v>3.75</v>
-      </c>
-      <c r="P123">
-        <v>1.7</v>
-      </c>
-      <c r="Q123">
-        <v>0.75</v>
-      </c>
-      <c r="R123">
-        <v>1.9</v>
-      </c>
-      <c r="S123">
-        <v>1.95</v>
-      </c>
-      <c r="T123">
-        <v>2.75</v>
-      </c>
-      <c r="U123">
-        <v>2.025</v>
-      </c>
       <c r="V123">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z123">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC123">
-        <v>0.825</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6803057</v>
+        <v>6803053</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K124">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L124">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M124">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="N124">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O124">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P124">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R124">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S124">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V124">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y124">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA124">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.5249999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6803065</v>
+        <v>7521554</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,73 +12109,73 @@
         <v>45266.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
         <v>3</v>
       </c>
-      <c r="I131">
-        <v>2</v>
-      </c>
       <c r="J131" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K131">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="L131">
+        <v>3.25</v>
+      </c>
+      <c r="M131">
+        <v>2.2</v>
+      </c>
+      <c r="N131">
         <v>3.4</v>
       </c>
-      <c r="M131">
-        <v>4.75</v>
-      </c>
-      <c r="N131">
-        <v>1.6</v>
-      </c>
       <c r="O131">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q131">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S131">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
+        <v>1.825</v>
+      </c>
+      <c r="V131">
         <v>2.025</v>
       </c>
-      <c r="V131">
-        <v>1.825</v>
-      </c>
       <c r="W131">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z131">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB131">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7521554</v>
+        <v>6803065</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,73 +12198,73 @@
         <v>45266.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G132" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K132">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="L132">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M132">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N132">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P132">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R132">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S132">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T132">
         <v>2.5</v>
       </c>
       <c r="U132">
+        <v>2.025</v>
+      </c>
+      <c r="V132">
         <v>1.825</v>
       </c>
-      <c r="V132">
-        <v>2.025</v>
-      </c>
       <c r="W132">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA132">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB132">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6803080</v>
+        <v>6803081</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,76 +13266,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G144" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H144">
+        <v>4</v>
+      </c>
+      <c r="I144">
         <v>0</v>
       </c>
-      <c r="I144">
-        <v>1</v>
-      </c>
       <c r="J144" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K144">
+        <v>2.5</v>
+      </c>
+      <c r="L144">
+        <v>3.4</v>
+      </c>
+      <c r="M144">
+        <v>2.7</v>
+      </c>
+      <c r="N144">
+        <v>3</v>
+      </c>
+      <c r="O144">
+        <v>3.4</v>
+      </c>
+      <c r="P144">
         <v>2.3</v>
       </c>
-      <c r="L144">
-        <v>3.3</v>
-      </c>
-      <c r="M144">
-        <v>3.1</v>
-      </c>
-      <c r="N144">
-        <v>2.5</v>
-      </c>
-      <c r="O144">
-        <v>3.3</v>
-      </c>
-      <c r="P144">
-        <v>2.8</v>
-      </c>
       <c r="Q144">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S144">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T144">
         <v>2.5</v>
       </c>
       <c r="U144">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA144">
+        <v>-1</v>
+      </c>
+      <c r="AB144">
         <v>1.05</v>
       </c>
-      <c r="AB144">
-        <v>-1</v>
-      </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6803081</v>
+        <v>6803080</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,76 +13355,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G145" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145" t="s">
+        <v>45</v>
+      </c>
+      <c r="K145">
+        <v>2.3</v>
+      </c>
+      <c r="L145">
+        <v>3.3</v>
+      </c>
+      <c r="M145">
+        <v>3.1</v>
+      </c>
+      <c r="N145">
+        <v>2.5</v>
+      </c>
+      <c r="O145">
+        <v>3.3</v>
+      </c>
+      <c r="P145">
+        <v>2.8</v>
+      </c>
+      <c r="Q145">
         <v>0</v>
       </c>
-      <c r="J145" t="s">
-        <v>46</v>
-      </c>
-      <c r="K145">
-        <v>2.5</v>
-      </c>
-      <c r="L145">
-        <v>3.4</v>
-      </c>
-      <c r="M145">
-        <v>2.7</v>
-      </c>
-      <c r="N145">
-        <v>3</v>
-      </c>
-      <c r="O145">
-        <v>3.4</v>
-      </c>
-      <c r="P145">
-        <v>2.3</v>
-      </c>
-      <c r="Q145">
-        <v>0.25</v>
-      </c>
       <c r="R145">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T145">
         <v>2.5</v>
       </c>
       <c r="U145">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V145">
+        <v>1.9</v>
+      </c>
+      <c r="W145">
+        <v>-1</v>
+      </c>
+      <c r="X145">
+        <v>-1</v>
+      </c>
+      <c r="Y145">
         <v>1.8</v>
       </c>
-      <c r="W145">
-        <v>2</v>
-      </c>
-      <c r="X145">
-        <v>-1</v>
-      </c>
-      <c r="Y145">
-        <v>-1</v>
-      </c>
       <c r="Z145">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB145">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -17437,7 +17437,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6803128</v>
+        <v>6803123</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17449,73 +17449,73 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G191" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H191">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K191">
-        <v>1.2</v>
+        <v>1.833</v>
       </c>
       <c r="L191">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M191">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="N191">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="O191">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P191">
-        <v>17</v>
+        <v>3.6</v>
       </c>
       <c r="Q191">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R191">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S191">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T191">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V191">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W191">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X191">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB191">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC191">
         <v>-1</v>
@@ -17526,7 +17526,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6803123</v>
+        <v>6803128</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17538,73 +17538,73 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F192" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G192" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K192">
-        <v>1.833</v>
+        <v>1.2</v>
       </c>
       <c r="L192">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M192">
-        <v>3.8</v>
+        <v>10</v>
       </c>
       <c r="N192">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="O192">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P192">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="Q192">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R192">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S192">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T192">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U192">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V192">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X192">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA192">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC192">
         <v>-1</v>
@@ -18416,7 +18416,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6803139</v>
+        <v>6803142</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18428,76 +18428,76 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F202" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G202" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J202" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K202">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L202">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M202">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N202">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O202">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="P202">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q202">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R202">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S202">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T202">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U202">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V202">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W202">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z202">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC202">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18505,7 +18505,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6803142</v>
+        <v>6803139</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18517,76 +18517,76 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F203" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G203" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K203">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L203">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M203">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N203">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O203">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P203">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q203">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
+        <v>1.85</v>
+      </c>
+      <c r="S203">
+        <v>2</v>
+      </c>
+      <c r="T203">
+        <v>2.5</v>
+      </c>
+      <c r="U203">
         <v>1.975</v>
       </c>
-      <c r="S203">
+      <c r="V203">
         <v>1.875</v>
       </c>
-      <c r="T203">
-        <v>2.75</v>
-      </c>
-      <c r="U203">
-        <v>1.9</v>
-      </c>
-      <c r="V203">
-        <v>1.95</v>
-      </c>
       <c r="W203">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X203">
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA203">
+        <v>-1</v>
+      </c>
+      <c r="AB203">
+        <v>-1</v>
+      </c>
+      <c r="AC203">
         <v>0.875</v>
-      </c>
-      <c r="AB203">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC203">
-        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -19155,13 +19155,13 @@
         <v>1.5</v>
       </c>
       <c r="N210">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O210">
         <v>4</v>
       </c>
       <c r="P210">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="Q210">
         <v>0.75</v>
@@ -19176,10 +19176,10 @@
         <v>2.75</v>
       </c>
       <c r="U210">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V210">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W210">
         <v>0</v>
@@ -19241,10 +19241,10 @@
         <v>0</v>
       </c>
       <c r="R211">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S211">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T211">
         <v>2.5</v>
@@ -19303,25 +19303,25 @@
         <v>3.3</v>
       </c>
       <c r="N212">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="O212">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P212">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q212">
         <v>-0.25</v>
       </c>
       <c r="R212">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S212">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T212">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U212">
         <v>1.875</v>
@@ -19389,10 +19389,10 @@
         <v>-1.75</v>
       </c>
       <c r="R213">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S213">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T213">
         <v>3</v>
@@ -19451,10 +19451,10 @@
         <v>3.3</v>
       </c>
       <c r="N214">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O214">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P214">
         <v>3.4</v>
@@ -19469,13 +19469,13 @@
         <v>1.975</v>
       </c>
       <c r="T214">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V214">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W214">
         <v>0</v>

--- a/Czech Republic First League/Czech Republic First League.xlsx
+++ b/Czech Republic First League/Czech Republic First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -115,13 +115,13 @@
     <t>Slavia Prague</t>
   </si>
   <si>
-    <t>Mlada Boleslav</t>
+    <t>Slovacko</t>
   </si>
   <si>
     <t>Slovan Liberec</t>
   </si>
   <si>
-    <t>Slovacko</t>
+    <t>Mlada Boleslav</t>
   </si>
   <si>
     <t>Sparta Prague</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC217"/>
+  <dimension ref="A1:AC213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6802934</v>
+        <v>6802940</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,10 +987,10 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -999,43 +999,43 @@
         <v>45</v>
       </c>
       <c r="K6">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="N6">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P6">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q6">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V6">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W6">
-        <v>0.833</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1044,13 +1044,13 @@
         <v>-1</v>
       </c>
       <c r="Z6">
+        <v>0.95</v>
+      </c>
+      <c r="AA6">
+        <v>-1</v>
+      </c>
+      <c r="AB6">
         <v>0.925</v>
-      </c>
-      <c r="AA6">
-        <v>-1</v>
-      </c>
-      <c r="AB6">
-        <v>0.825</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6802940</v>
+        <v>6802934</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,10 +1165,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1177,43 +1177,43 @@
         <v>45</v>
       </c>
       <c r="K8">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M8">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="N8">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P8">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="Q8">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T8">
         <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V8">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W8">
-        <v>0.3999999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1222,13 +1222,13 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1610,7 +1610,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
         <v>34</v>
@@ -2141,7 +2141,7 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
         <v>38</v>
@@ -2233,7 +2233,7 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6802953</v>
+        <v>6802950</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,40 +2408,40 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="L22">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="N22">
-        <v>2.625</v>
+        <v>1.533</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P22">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R22">
         <v>1.925</v>
@@ -2450,34 +2450,34 @@
         <v>1.925</v>
       </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U22">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V22">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA22">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC22">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6802950</v>
+        <v>6802953</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,40 +2586,40 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24">
+        <v>2.625</v>
+      </c>
+      <c r="L24">
+        <v>3.1</v>
+      </c>
+      <c r="M24">
+        <v>2.55</v>
+      </c>
+      <c r="N24">
+        <v>2.625</v>
+      </c>
+      <c r="O24">
         <v>3</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24" t="s">
-        <v>45</v>
-      </c>
-      <c r="K24">
-        <v>1.5</v>
-      </c>
-      <c r="L24">
-        <v>4</v>
-      </c>
-      <c r="M24">
-        <v>5.75</v>
-      </c>
-      <c r="N24">
-        <v>1.533</v>
-      </c>
-      <c r="O24">
-        <v>4</v>
-      </c>
       <c r="P24">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R24">
         <v>1.925</v>
@@ -2628,34 +2628,34 @@
         <v>1.925</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V24">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W24">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB24">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3034,7 +3034,7 @@
         <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3298,7 +3298,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
         <v>32</v>
@@ -3654,10 +3654,10 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" t="s">
         <v>35</v>
-      </c>
-      <c r="G36" t="s">
-        <v>33</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6802966</v>
+        <v>6802967</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,58 +3832,58 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
         <v>45</v>
       </c>
       <c r="K38">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="L38">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M38">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="N38">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="O38">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P38">
-        <v>2.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q38">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R38">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S38">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T38">
         <v>3</v>
       </c>
       <c r="U38">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V38">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W38">
-        <v>2</v>
+        <v>0.45</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3892,10 +3892,10 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB38">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6802967</v>
+        <v>6802966</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,59 +3921,59 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>45</v>
       </c>
       <c r="K39">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="L39">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M39">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N39">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="O39">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P39">
-        <v>5.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q39">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T39">
         <v>3</v>
       </c>
       <c r="U39">
+        <v>1.9</v>
+      </c>
+      <c r="V39">
+        <v>1.95</v>
+      </c>
+      <c r="W39">
         <v>2</v>
       </c>
-      <c r="V39">
-        <v>1.85</v>
-      </c>
-      <c r="W39">
-        <v>0.45</v>
-      </c>
       <c r="X39">
         <v>-1</v>
       </c>
@@ -3981,10 +3981,10 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA39">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
         <v>0</v>
@@ -4280,7 +4280,7 @@
         <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6802986</v>
+        <v>6802988</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K49">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L49">
         <v>3.4</v>
       </c>
       <c r="M49">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="N49">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O49">
         <v>3.4</v>
       </c>
       <c r="P49">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q49">
         <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S49">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W49">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z49">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB49">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6802984</v>
+        <v>6802986</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,58 +4900,58 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
         <v>1</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
       </c>
       <c r="J50" t="s">
         <v>45</v>
       </c>
       <c r="K50">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="L50">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="N50">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O50">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q50">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S50">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T50">
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W50">
-        <v>0.444</v>
+        <v>1.3</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4960,16 +4960,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
+        <v>1.05</v>
+      </c>
+      <c r="AA50">
+        <v>-1</v>
+      </c>
+      <c r="AB50">
+        <v>0.4625</v>
+      </c>
+      <c r="AC50">
         <v>-0.5</v>
-      </c>
-      <c r="AA50">
-        <v>0.4125</v>
-      </c>
-      <c r="AB50">
-        <v>-1</v>
-      </c>
-      <c r="AC50">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6802988</v>
+        <v>6802984</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,76 +4989,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
         <v>0</v>
       </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K51">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M51">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="N51">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="O51">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P51">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R51">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S51">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA51">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5081,7 +5081,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5523,7 +5523,7 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
         <v>43</v>
@@ -6149,7 +6149,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>5</v>
@@ -6238,7 +6238,7 @@
         <v>40</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6413,7 +6413,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
         <v>29</v>
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6803007</v>
+        <v>6803009</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,76 +6947,76 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G73" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K73">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="L73">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M73">
+        <v>2.375</v>
+      </c>
+      <c r="N73">
         <v>3</v>
       </c>
-      <c r="N73">
-        <v>2.25</v>
-      </c>
       <c r="O73">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P73">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R73">
+        <v>1.775</v>
+      </c>
+      <c r="S73">
+        <v>2.1</v>
+      </c>
+      <c r="T73">
+        <v>2.5</v>
+      </c>
+      <c r="U73">
         <v>2</v>
       </c>
-      <c r="S73">
+      <c r="V73">
         <v>1.85</v>
       </c>
-      <c r="T73">
-        <v>3</v>
-      </c>
-      <c r="U73">
-        <v>2.025</v>
-      </c>
-      <c r="V73">
-        <v>1.825</v>
-      </c>
       <c r="W73">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X73">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA73">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
         <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6803009</v>
+        <v>6803007</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,76 +7036,76 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>47</v>
+      </c>
+      <c r="K74">
+        <v>2.15</v>
+      </c>
+      <c r="L74">
+        <v>3.5</v>
+      </c>
+      <c r="M74">
+        <v>3</v>
+      </c>
+      <c r="N74">
+        <v>2.25</v>
+      </c>
+      <c r="O74">
+        <v>3.6</v>
+      </c>
+      <c r="P74">
+        <v>2.9</v>
+      </c>
+      <c r="Q74">
+        <v>-0.25</v>
+      </c>
+      <c r="R74">
         <v>2</v>
       </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74" t="s">
-        <v>45</v>
-      </c>
-      <c r="K74">
-        <v>2.875</v>
-      </c>
-      <c r="L74">
-        <v>3.25</v>
-      </c>
-      <c r="M74">
-        <v>2.375</v>
-      </c>
-      <c r="N74">
+      <c r="S74">
+        <v>1.85</v>
+      </c>
+      <c r="T74">
         <v>3</v>
       </c>
-      <c r="O74">
-        <v>3.25</v>
-      </c>
-      <c r="P74">
-        <v>2.4</v>
-      </c>
-      <c r="Q74">
-        <v>0.25</v>
-      </c>
-      <c r="R74">
-        <v>1.775</v>
-      </c>
-      <c r="S74">
-        <v>2.1</v>
-      </c>
-      <c r="T74">
-        <v>2.5</v>
-      </c>
       <c r="U74">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W74">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7392,7 +7392,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
         <v>41</v>
@@ -7659,7 +7659,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
         <v>30</v>
@@ -7751,7 +7751,7 @@
         <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H82">
         <v>4</v>
@@ -8374,7 +8374,7 @@
         <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H89">
         <v>5</v>
@@ -8730,7 +8730,7 @@
         <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6803032</v>
+        <v>6803029</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K97">
-        <v>1.9</v>
+        <v>1.615</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M97">
+        <v>5</v>
+      </c>
+      <c r="N97">
+        <v>1.4</v>
+      </c>
+      <c r="O97">
+        <v>5</v>
+      </c>
+      <c r="P97">
+        <v>7</v>
+      </c>
+      <c r="Q97">
+        <v>-1.5</v>
+      </c>
+      <c r="R97">
+        <v>2.025</v>
+      </c>
+      <c r="S97">
+        <v>1.825</v>
+      </c>
+      <c r="T97">
+        <v>3</v>
+      </c>
+      <c r="U97">
+        <v>2.05</v>
+      </c>
+      <c r="V97">
+        <v>1.8</v>
+      </c>
+      <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
         <v>4</v>
       </c>
-      <c r="N97">
-        <v>1.85</v>
-      </c>
-      <c r="O97">
-        <v>3.3</v>
-      </c>
-      <c r="P97">
-        <v>4.5</v>
-      </c>
-      <c r="Q97">
-        <v>-0.5</v>
-      </c>
-      <c r="R97">
-        <v>1.875</v>
-      </c>
-      <c r="S97">
-        <v>1.975</v>
-      </c>
-      <c r="T97">
-        <v>2.25</v>
-      </c>
-      <c r="U97">
-        <v>1.8</v>
-      </c>
-      <c r="V97">
-        <v>2.05</v>
-      </c>
-      <c r="W97">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X97">
-        <v>-1</v>
-      </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6803031</v>
+        <v>6803032</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K98">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N98">
         <v>1.85</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P98">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q98">
         <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S98">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V98">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X98">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA98">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6803034</v>
+        <v>6803031</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,49 +9261,49 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K99">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="L99">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M99">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N99">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O99">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P99">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q99">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S99">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T99">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
         <v>1.825</v>
@@ -9315,16 +9315,16 @@
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y99">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB99">
         <v>-1</v>
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6803029</v>
+        <v>6803034</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,76 +9350,76 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K100">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="L100">
+        <v>3.4</v>
+      </c>
+      <c r="M100">
+        <v>3.4</v>
+      </c>
+      <c r="N100">
+        <v>1.8</v>
+      </c>
+      <c r="O100">
+        <v>3.75</v>
+      </c>
+      <c r="P100">
         <v>4</v>
       </c>
-      <c r="M100">
-        <v>5</v>
-      </c>
-      <c r="N100">
-        <v>1.4</v>
-      </c>
-      <c r="O100">
-        <v>5</v>
-      </c>
-      <c r="P100">
-        <v>7</v>
-      </c>
       <c r="Q100">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
+        <v>2.05</v>
+      </c>
+      <c r="S100">
+        <v>1.8</v>
+      </c>
+      <c r="T100">
+        <v>2.75</v>
+      </c>
+      <c r="U100">
+        <v>1.825</v>
+      </c>
+      <c r="V100">
         <v>2.025</v>
       </c>
-      <c r="S100">
-        <v>1.825</v>
-      </c>
-      <c r="T100">
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
+        <v>-1</v>
+      </c>
+      <c r="Y100">
         <v>3</v>
       </c>
-      <c r="U100">
-        <v>2.05</v>
-      </c>
-      <c r="V100">
-        <v>1.8</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
-      <c r="X100">
-        <v>4</v>
-      </c>
-      <c r="Y100">
-        <v>-1</v>
-      </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6803030</v>
+        <v>6803033</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,40 +9528,40 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K102">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="L102">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M102">
-        <v>1.85</v>
+        <v>12</v>
       </c>
       <c r="N102">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="O102">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="P102">
-        <v>1.7</v>
+        <v>11</v>
       </c>
       <c r="Q102">
-        <v>0.75</v>
+        <v>-2</v>
       </c>
       <c r="R102">
         <v>1.975</v>
@@ -9570,34 +9570,34 @@
         <v>1.875</v>
       </c>
       <c r="T102">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U102">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W102">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Z102">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB102">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6803033</v>
+        <v>6803030</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,40 +9617,40 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K103">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="L103">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M103">
-        <v>12</v>
+        <v>1.85</v>
       </c>
       <c r="N103">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="O103">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="P103">
-        <v>11</v>
+        <v>1.7</v>
       </c>
       <c r="Q103">
-        <v>-2</v>
+        <v>0.75</v>
       </c>
       <c r="R103">
         <v>1.975</v>
@@ -9659,34 +9659,34 @@
         <v>1.875</v>
       </c>
       <c r="T103">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U103">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA103">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC103">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9976,7 +9976,7 @@
         <v>30</v>
       </c>
       <c r="G107" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
         <v>43</v>
@@ -10596,7 +10596,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
         <v>31</v>
@@ -11044,7 +11044,7 @@
         <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11311,7 +11311,7 @@
         <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11664,7 +11664,7 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G126" t="s">
         <v>39</v>
@@ -11934,7 +11934,7 @@
         <v>38</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12109,7 +12109,7 @@
         <v>45266.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
         <v>42</v>
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6803071</v>
+        <v>6803074</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,49 +12287,49 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H133">
         <v>5</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
         <v>45</v>
       </c>
       <c r="K133">
-        <v>1.666</v>
+        <v>1.55</v>
       </c>
       <c r="L133">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M133">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N133">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="O133">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P133">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q133">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R133">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
         <v>1.825</v>
@@ -12338,7 +12338,7 @@
         <v>2.025</v>
       </c>
       <c r="W133">
-        <v>0.6659999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X133">
         <v>-1</v>
@@ -12347,7 +12347,7 @@
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA133">
         <v>-1</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6803074</v>
+        <v>6803071</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,49 +12465,49 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G135" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H135">
         <v>5</v>
       </c>
       <c r="I135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
         <v>45</v>
       </c>
       <c r="K135">
-        <v>1.55</v>
+        <v>1.666</v>
       </c>
       <c r="L135">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N135">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="O135">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P135">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q135">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R135">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S135">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
         <v>1.825</v>
@@ -12516,7 +12516,7 @@
         <v>2.025</v>
       </c>
       <c r="W135">
-        <v>0.5</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X135">
         <v>-1</v>
@@ -12525,7 +12525,7 @@
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA135">
         <v>-1</v>
@@ -12735,7 +12735,7 @@
         <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12821,7 +12821,7 @@
         <v>45273.54166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
         <v>29</v>
@@ -13355,10 +13355,10 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F145" t="s">
+        <v>35</v>
+      </c>
+      <c r="G145" t="s">
         <v>33</v>
-      </c>
-      <c r="G145" t="s">
-        <v>35</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6803077</v>
+        <v>6803079</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,13 +13533,13 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>3</v>
@@ -13548,25 +13548,25 @@
         <v>46</v>
       </c>
       <c r="K147">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L147">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M147">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="N147">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O147">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P147">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Q147">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R147">
         <v>1.8</v>
@@ -13575,13 +13575,13 @@
         <v>2.05</v>
       </c>
       <c r="T147">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U147">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V147">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W147">
         <v>-1</v>
@@ -13590,16 +13590,16 @@
         <v>-1</v>
       </c>
       <c r="Y147">
+        <v>1</v>
+      </c>
+      <c r="Z147">
+        <v>-1</v>
+      </c>
+      <c r="AA147">
+        <v>1.05</v>
+      </c>
+      <c r="AB147">
         <v>0.8</v>
-      </c>
-      <c r="Z147">
-        <v>-0.5</v>
-      </c>
-      <c r="AA147">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AB147">
-        <v>1.025</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6803079</v>
+        <v>6803077</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,13 +13622,13 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G148" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148">
         <v>3</v>
@@ -13637,25 +13637,25 @@
         <v>46</v>
       </c>
       <c r="K148">
+        <v>5</v>
+      </c>
+      <c r="L148">
+        <v>3.75</v>
+      </c>
+      <c r="M148">
+        <v>1.666</v>
+      </c>
+      <c r="N148">
+        <v>4.5</v>
+      </c>
+      <c r="O148">
         <v>3.5</v>
       </c>
-      <c r="L148">
-        <v>3.5</v>
-      </c>
-      <c r="M148">
-        <v>2</v>
-      </c>
-      <c r="N148">
-        <v>3.6</v>
-      </c>
-      <c r="O148">
-        <v>3.3</v>
-      </c>
       <c r="P148">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Q148">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R148">
         <v>1.8</v>
@@ -13664,13 +13664,13 @@
         <v>2.05</v>
       </c>
       <c r="T148">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V148">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13679,16 +13679,16 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA148">
-        <v>1.05</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB148">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13889,7 +13889,7 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G151" t="s">
         <v>31</v>
@@ -14159,7 +14159,7 @@
         <v>42</v>
       </c>
       <c r="G154" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14233,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6803085</v>
+        <v>6803089</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14245,40 +14245,40 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G155" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H155">
         <v>2</v>
       </c>
       <c r="I155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K155">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L155">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M155">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="N155">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O155">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P155">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q155">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R155">
         <v>1.8</v>
@@ -14290,28 +14290,28 @@
         <v>2.25</v>
       </c>
       <c r="U155">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V155">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X155">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA155">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14322,7 +14322,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6803089</v>
+        <v>6803085</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14334,40 +14334,40 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H156">
         <v>2</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K156">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L156">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M156">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="N156">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="O156">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P156">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R156">
         <v>1.8</v>
@@ -14379,28 +14379,28 @@
         <v>2.25</v>
       </c>
       <c r="U156">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V156">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W156">
+        <v>-1</v>
+      </c>
+      <c r="X156">
+        <v>2.3</v>
+      </c>
+      <c r="Y156">
+        <v>-1</v>
+      </c>
+      <c r="Z156">
+        <v>0</v>
+      </c>
+      <c r="AA156">
+        <v>-0</v>
+      </c>
+      <c r="AB156">
         <v>0.8</v>
-      </c>
-      <c r="X156">
-        <v>-1</v>
-      </c>
-      <c r="Y156">
-        <v>-1</v>
-      </c>
-      <c r="Z156">
-        <v>0.8</v>
-      </c>
-      <c r="AA156">
-        <v>-1</v>
-      </c>
-      <c r="AB156">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14957,7 +14957,7 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G163" t="s">
         <v>39</v>
@@ -15227,7 +15227,7 @@
         <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15568,7 +15568,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6803106</v>
+        <v>6803105</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15580,73 +15580,73 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G170" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
         <v>47</v>
       </c>
       <c r="K170">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L170">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M170">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N170">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O170">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P170">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="Q170">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R170">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S170">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T170">
         <v>2.5</v>
       </c>
       <c r="U170">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V170">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W170">
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB170">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC170">
         <v>-1</v>
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6803105</v>
+        <v>6803106</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,73 +15669,73 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G171" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J171" t="s">
         <v>47</v>
       </c>
       <c r="K171">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L171">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M171">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="N171">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O171">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P171">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Q171">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R171">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S171">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T171">
         <v>2.5</v>
       </c>
       <c r="U171">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V171">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W171">
         <v>-1</v>
       </c>
       <c r="X171">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA171">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AB171">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC171">
         <v>-1</v>
@@ -15761,7 +15761,7 @@
         <v>43</v>
       </c>
       <c r="G172" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -16203,7 +16203,7 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G177" t="s">
         <v>36</v>
@@ -16381,7 +16381,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G179" t="s">
         <v>40</v>
@@ -16562,7 +16562,7 @@
         <v>29</v>
       </c>
       <c r="G181" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -17170,7 +17170,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6803122</v>
+        <v>6803125</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17182,40 +17182,40 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G188" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H188">
         <v>0</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K188">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L188">
         <v>3.4</v>
       </c>
       <c r="M188">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="N188">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O188">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P188">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q188">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
         <v>1.975</v>
@@ -17227,31 +17227,31 @@
         <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V188">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17259,7 +17259,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6803125</v>
+        <v>6803122</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17271,40 +17271,40 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F189" t="s">
+        <v>41</v>
+      </c>
+      <c r="G189" t="s">
         <v>35</v>
-      </c>
-      <c r="G189" t="s">
-        <v>44</v>
       </c>
       <c r="H189">
         <v>0</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K189">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L189">
         <v>3.4</v>
       </c>
       <c r="M189">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="N189">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O189">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P189">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q189">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
         <v>1.975</v>
@@ -17316,31 +17316,31 @@
         <v>2.5</v>
       </c>
       <c r="U189">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V189">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W189">
         <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y189">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA189">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17437,7 +17437,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6803123</v>
+        <v>6803128</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17449,73 +17449,73 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G191" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I191">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K191">
-        <v>1.833</v>
+        <v>1.2</v>
       </c>
       <c r="L191">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M191">
-        <v>3.8</v>
+        <v>10</v>
       </c>
       <c r="N191">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="O191">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P191">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="Q191">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R191">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S191">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T191">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U191">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V191">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W191">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X191">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA191">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC191">
         <v>-1</v>
@@ -17526,7 +17526,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6803128</v>
+        <v>6803123</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17538,73 +17538,73 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F192" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G192" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H192">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K192">
-        <v>1.2</v>
+        <v>1.833</v>
       </c>
       <c r="L192">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M192">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="N192">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="O192">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P192">
-        <v>17</v>
+        <v>3.6</v>
       </c>
       <c r="Q192">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R192">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S192">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T192">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U192">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V192">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W192">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X192">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB192">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC192">
         <v>-1</v>
@@ -17805,7 +17805,7 @@
         <v>45367.45833333334</v>
       </c>
       <c r="F195" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G195" t="s">
         <v>38</v>
@@ -17986,7 +17986,7 @@
         <v>30</v>
       </c>
       <c r="G197" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -18416,7 +18416,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6803138</v>
+        <v>6803139</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18428,76 +18428,76 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F202" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G202" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H202">
+        <v>2</v>
+      </c>
+      <c r="I202">
         <v>0</v>
       </c>
-      <c r="I202">
+      <c r="J202" t="s">
+        <v>45</v>
+      </c>
+      <c r="K202">
+        <v>2.1</v>
+      </c>
+      <c r="L202">
+        <v>3.4</v>
+      </c>
+      <c r="M202">
+        <v>3.5</v>
+      </c>
+      <c r="N202">
+        <v>2.25</v>
+      </c>
+      <c r="O202">
+        <v>3.25</v>
+      </c>
+      <c r="P202">
+        <v>3.3</v>
+      </c>
+      <c r="Q202">
+        <v>-0.25</v>
+      </c>
+      <c r="R202">
+        <v>1.85</v>
+      </c>
+      <c r="S202">
         <v>2</v>
-      </c>
-      <c r="J202" t="s">
-        <v>46</v>
-      </c>
-      <c r="K202">
-        <v>1.615</v>
-      </c>
-      <c r="L202">
-        <v>4</v>
-      </c>
-      <c r="M202">
-        <v>5.25</v>
-      </c>
-      <c r="N202">
-        <v>1.7</v>
-      </c>
-      <c r="O202">
-        <v>4</v>
-      </c>
-      <c r="P202">
-        <v>5</v>
-      </c>
-      <c r="Q202">
-        <v>-0.75</v>
-      </c>
-      <c r="R202">
-        <v>1.875</v>
-      </c>
-      <c r="S202">
-        <v>1.975</v>
       </c>
       <c r="T202">
         <v>2.5</v>
       </c>
       <c r="U202">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V202">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA202">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB202">
         <v>-1</v>
       </c>
       <c r="AC202">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18594,7 +18594,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6803139</v>
+        <v>6803138</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18606,76 +18606,76 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F204" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G204" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
         <v>2</v>
       </c>
-      <c r="I204">
-        <v>0</v>
-      </c>
       <c r="J204" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K204">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L204">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M204">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="N204">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="O204">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P204">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q204">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R204">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S204">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T204">
         <v>2.5</v>
       </c>
       <c r="U204">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V204">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W204">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z204">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB204">
         <v>-1</v>
       </c>
       <c r="AC204">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18695,7 +18695,7 @@
         <v>45381.58333333334</v>
       </c>
       <c r="F205" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G205" t="s">
         <v>32</v>
@@ -18962,7 +18962,7 @@
         <v>45382.41666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G208" t="s">
         <v>37</v>
@@ -19128,7 +19128,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6803148</v>
+        <v>6803145</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19137,49 +19137,49 @@
         <v>28</v>
       </c>
       <c r="E210" s="2">
-        <v>45388.41666666666</v>
+        <v>45389.41666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G210" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K210">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L210">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M210">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N210">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O210">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P210">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q210">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R210">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S210">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T210">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U210">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V210">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W210">
         <v>0</v>
@@ -19202,7 +19202,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6835684</v>
+        <v>6803146</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19211,49 +19211,49 @@
         <v>28</v>
       </c>
       <c r="E211" s="2">
-        <v>45388.41666666666</v>
+        <v>45389.41666666666</v>
       </c>
       <c r="F211" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G211" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K211">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="L211">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M211">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="N211">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="O211">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P211">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="Q211">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R211">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S211">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T211">
         <v>2.5</v>
       </c>
       <c r="U211">
+        <v>1.825</v>
+      </c>
+      <c r="V211">
         <v>2.025</v>
-      </c>
-      <c r="V211">
-        <v>1.825</v>
       </c>
       <c r="W211">
         <v>0</v>
@@ -19276,7 +19276,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6849948</v>
+        <v>6803144</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19285,34 +19285,34 @@
         <v>28</v>
       </c>
       <c r="E212" s="2">
-        <v>45388.41666666666</v>
+        <v>45389.41666666666</v>
       </c>
       <c r="F212" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G212" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K212">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="L212">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M212">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="N212">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="O212">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P212">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="Q212">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R212">
         <v>1.825</v>
@@ -19321,13 +19321,13 @@
         <v>2.025</v>
       </c>
       <c r="T212">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U212">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V212">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W212">
         <v>0</v>
@@ -19350,7 +19350,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6841168</v>
+        <v>6803147</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19359,49 +19359,49 @@
         <v>28</v>
       </c>
       <c r="E213" s="2">
-        <v>45388.54166666666</v>
+        <v>45389.54166666666</v>
       </c>
       <c r="F213" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G213" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K213">
-        <v>1.25</v>
+        <v>1.333</v>
       </c>
       <c r="L213">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M213">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="N213">
-        <v>1.222</v>
+        <v>1.333</v>
       </c>
       <c r="O213">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="P213">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="Q213">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R213">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S213">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T213">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U213">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V213">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W213">
         <v>0</v>
@@ -19416,302 +19416,6 @@
         <v>0</v>
       </c>
       <c r="AA213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:29">
-      <c r="A214" s="1">
-        <v>212</v>
-      </c>
-      <c r="B214">
-        <v>6803144</v>
-      </c>
-      <c r="C214" t="s">
-        <v>28</v>
-      </c>
-      <c r="D214" t="s">
-        <v>28</v>
-      </c>
-      <c r="E214" s="2">
-        <v>45389.41666666666</v>
-      </c>
-      <c r="F214" t="s">
-        <v>30</v>
-      </c>
-      <c r="G214" t="s">
-        <v>43</v>
-      </c>
-      <c r="K214">
-        <v>2.25</v>
-      </c>
-      <c r="L214">
-        <v>3.2</v>
-      </c>
-      <c r="M214">
-        <v>3.3</v>
-      </c>
-      <c r="N214">
-        <v>2.15</v>
-      </c>
-      <c r="O214">
-        <v>3.25</v>
-      </c>
-      <c r="P214">
-        <v>3.4</v>
-      </c>
-      <c r="Q214">
-        <v>-0.25</v>
-      </c>
-      <c r="R214">
-        <v>1.825</v>
-      </c>
-      <c r="S214">
-        <v>2.025</v>
-      </c>
-      <c r="T214">
-        <v>2.5</v>
-      </c>
-      <c r="U214">
-        <v>2</v>
-      </c>
-      <c r="V214">
-        <v>1.85</v>
-      </c>
-      <c r="W214">
-        <v>0</v>
-      </c>
-      <c r="X214">
-        <v>0</v>
-      </c>
-      <c r="Y214">
-        <v>0</v>
-      </c>
-      <c r="Z214">
-        <v>0</v>
-      </c>
-      <c r="AA214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:29">
-      <c r="A215" s="1">
-        <v>213</v>
-      </c>
-      <c r="B215">
-        <v>6803145</v>
-      </c>
-      <c r="C215" t="s">
-        <v>28</v>
-      </c>
-      <c r="D215" t="s">
-        <v>28</v>
-      </c>
-      <c r="E215" s="2">
-        <v>45389.41666666666</v>
-      </c>
-      <c r="F215" t="s">
-        <v>31</v>
-      </c>
-      <c r="G215" t="s">
-        <v>40</v>
-      </c>
-      <c r="K215">
-        <v>1.95</v>
-      </c>
-      <c r="L215">
-        <v>3.5</v>
-      </c>
-      <c r="M215">
-        <v>3.75</v>
-      </c>
-      <c r="N215">
-        <v>1.95</v>
-      </c>
-      <c r="O215">
-        <v>3.5</v>
-      </c>
-      <c r="P215">
-        <v>3.75</v>
-      </c>
-      <c r="Q215">
-        <v>-0.5</v>
-      </c>
-      <c r="R215">
-        <v>1.975</v>
-      </c>
-      <c r="S215">
-        <v>1.875</v>
-      </c>
-      <c r="T215">
-        <v>2.75</v>
-      </c>
-      <c r="U215">
-        <v>1.95</v>
-      </c>
-      <c r="V215">
-        <v>1.9</v>
-      </c>
-      <c r="W215">
-        <v>0</v>
-      </c>
-      <c r="X215">
-        <v>0</v>
-      </c>
-      <c r="Y215">
-        <v>0</v>
-      </c>
-      <c r="Z215">
-        <v>0</v>
-      </c>
-      <c r="AA215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:29">
-      <c r="A216" s="1">
-        <v>214</v>
-      </c>
-      <c r="B216">
-        <v>6803146</v>
-      </c>
-      <c r="C216" t="s">
-        <v>28</v>
-      </c>
-      <c r="D216" t="s">
-        <v>28</v>
-      </c>
-      <c r="E216" s="2">
-        <v>45389.41666666666</v>
-      </c>
-      <c r="F216" t="s">
-        <v>44</v>
-      </c>
-      <c r="G216" t="s">
-        <v>39</v>
-      </c>
-      <c r="K216">
-        <v>2.625</v>
-      </c>
-      <c r="L216">
-        <v>3.2</v>
-      </c>
-      <c r="M216">
-        <v>2.625</v>
-      </c>
-      <c r="N216">
-        <v>2.625</v>
-      </c>
-      <c r="O216">
-        <v>3.2</v>
-      </c>
-      <c r="P216">
-        <v>2.625</v>
-      </c>
-      <c r="Q216">
-        <v>0</v>
-      </c>
-      <c r="R216">
-        <v>1.975</v>
-      </c>
-      <c r="S216">
-        <v>1.875</v>
-      </c>
-      <c r="T216">
-        <v>2.5</v>
-      </c>
-      <c r="U216">
-        <v>1.85</v>
-      </c>
-      <c r="V216">
-        <v>2</v>
-      </c>
-      <c r="W216">
-        <v>0</v>
-      </c>
-      <c r="X216">
-        <v>0</v>
-      </c>
-      <c r="Y216">
-        <v>0</v>
-      </c>
-      <c r="Z216">
-        <v>0</v>
-      </c>
-      <c r="AA216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:29">
-      <c r="A217" s="1">
-        <v>215</v>
-      </c>
-      <c r="B217">
-        <v>6803147</v>
-      </c>
-      <c r="C217" t="s">
-        <v>28</v>
-      </c>
-      <c r="D217" t="s">
-        <v>28</v>
-      </c>
-      <c r="E217" s="2">
-        <v>45389.54166666666</v>
-      </c>
-      <c r="F217" t="s">
-        <v>36</v>
-      </c>
-      <c r="G217" t="s">
-        <v>33</v>
-      </c>
-      <c r="K217">
-        <v>1.333</v>
-      </c>
-      <c r="L217">
-        <v>5.5</v>
-      </c>
-      <c r="M217">
-        <v>7.5</v>
-      </c>
-      <c r="N217">
-        <v>1.333</v>
-      </c>
-      <c r="O217">
-        <v>5.5</v>
-      </c>
-      <c r="P217">
-        <v>7.5</v>
-      </c>
-      <c r="Q217">
-        <v>-1.5</v>
-      </c>
-      <c r="R217">
-        <v>1.925</v>
-      </c>
-      <c r="S217">
-        <v>1.925</v>
-      </c>
-      <c r="T217">
-        <v>3</v>
-      </c>
-      <c r="U217">
-        <v>1.825</v>
-      </c>
-      <c r="V217">
-        <v>2.025</v>
-      </c>
-      <c r="W217">
-        <v>0</v>
-      </c>
-      <c r="X217">
-        <v>0</v>
-      </c>
-      <c r="Y217">
-        <v>0</v>
-      </c>
-      <c r="Z217">
-        <v>0</v>
-      </c>
-      <c r="AA217">
         <v>0</v>
       </c>
     </row>

--- a/Czech Republic First League/Czech Republic First League.xlsx
+++ b/Czech Republic First League/Czech Republic First League.xlsx
@@ -115,13 +115,13 @@
     <t>Slavia Prague</t>
   </si>
   <si>
-    <t>Slovacko</t>
+    <t>Mlada Boleslav</t>
   </si>
   <si>
     <t>Slovan Liberec</t>
   </si>
   <si>
-    <t>Mlada Boleslav</t>
+    <t>Slovacko</t>
   </si>
   <si>
     <t>Sparta Prague</t>
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6802940</v>
+        <v>6802934</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,10 +987,10 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -999,43 +999,43 @@
         <v>45</v>
       </c>
       <c r="K6">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="N6">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="O6">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P6">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="Q6">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W6">
-        <v>0.3999999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1044,13 +1044,13 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6802934</v>
+        <v>6802940</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,10 +1165,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1177,43 +1177,43 @@
         <v>45</v>
       </c>
       <c r="K8">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="N8">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="O8">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q8">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R8">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
         <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
-        <v>0.833</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1222,13 +1222,13 @@
         <v>-1</v>
       </c>
       <c r="Z8">
+        <v>0.95</v>
+      </c>
+      <c r="AA8">
+        <v>-1</v>
+      </c>
+      <c r="AB8">
         <v>0.925</v>
-      </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
-      <c r="AB8">
-        <v>0.825</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6802948</v>
+        <v>6802945</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1340,76 +1340,76 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M10">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="N10">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O10">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P10">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q10">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R10">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S10">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T10">
         <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V10">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X10">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA10">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC10">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6802945</v>
+        <v>6802947</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,76 +1429,76 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>1.666</v>
+        <v>5.5</v>
       </c>
       <c r="L11">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M11">
-        <v>4.5</v>
+        <v>1.45</v>
       </c>
       <c r="N11">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="O11">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P11">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="Q11">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R11">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U11">
+        <v>1.95</v>
+      </c>
+      <c r="V11">
         <v>1.9</v>
       </c>
-      <c r="V11">
-        <v>1.95</v>
-      </c>
       <c r="W11">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z11">
-        <v>1.05</v>
+        <v>0.5125</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB11">
+        <v>-1</v>
+      </c>
+      <c r="AC11">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC11">
-        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6802947</v>
+        <v>6802948</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,76 +1518,76 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="L12">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M12">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="N12">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P12">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="Q12">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
+        <v>1.975</v>
+      </c>
+      <c r="S12">
+        <v>1.875</v>
+      </c>
+      <c r="T12">
+        <v>2.75</v>
+      </c>
+      <c r="U12">
+        <v>1.825</v>
+      </c>
+      <c r="V12">
         <v>2.025</v>
       </c>
-      <c r="S12">
-        <v>1.825</v>
-      </c>
-      <c r="T12">
-        <v>3</v>
-      </c>
-      <c r="U12">
-        <v>1.95</v>
-      </c>
-      <c r="V12">
-        <v>1.9</v>
-      </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y12">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.5125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>-0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1610,7 +1610,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6802946</v>
+        <v>6802944</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1696,76 +1696,76 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="L14">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M14">
+        <v>5.25</v>
+      </c>
+      <c r="N14">
+        <v>1.65</v>
+      </c>
+      <c r="O14">
         <v>3.6</v>
       </c>
-      <c r="N14">
-        <v>1.85</v>
-      </c>
-      <c r="O14">
-        <v>3.5</v>
-      </c>
       <c r="P14">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q14">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R14">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T14">
         <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB14">
-        <v>0.925</v>
+        <v>0.5125</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6802944</v>
+        <v>6802946</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,76 +1785,76 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M15">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="N15">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S15">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V15">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y15">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB15">
-        <v>0.5125</v>
+        <v>0.925</v>
       </c>
       <c r="AC15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6802956</v>
+        <v>6802952</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,13 +2052,13 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
         <v>33</v>
       </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -2067,61 +2067,61 @@
         <v>46</v>
       </c>
       <c r="K18">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L18">
         <v>3.4</v>
       </c>
       <c r="M18">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N18">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="O18">
         <v>3.5</v>
       </c>
       <c r="P18">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q18">
+        <v>0.5</v>
+      </c>
+      <c r="R18">
+        <v>1.875</v>
+      </c>
+      <c r="S18">
+        <v>1.975</v>
+      </c>
+      <c r="T18">
+        <v>2.75</v>
+      </c>
+      <c r="U18">
+        <v>1.9</v>
+      </c>
+      <c r="V18">
+        <v>1.95</v>
+      </c>
+      <c r="W18">
+        <v>-1</v>
+      </c>
+      <c r="X18">
+        <v>-1</v>
+      </c>
+      <c r="Y18">
+        <v>0.909</v>
+      </c>
+      <c r="Z18">
+        <v>-1</v>
+      </c>
+      <c r="AA18">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB18">
+        <v>0.45</v>
+      </c>
+      <c r="AC18">
         <v>-0.5</v>
-      </c>
-      <c r="R18">
-        <v>1.8</v>
-      </c>
-      <c r="S18">
-        <v>2.05</v>
-      </c>
-      <c r="T18">
-        <v>2.25</v>
-      </c>
-      <c r="U18">
-        <v>1.85</v>
-      </c>
-      <c r="V18">
-        <v>2</v>
-      </c>
-      <c r="W18">
-        <v>-1</v>
-      </c>
-      <c r="X18">
-        <v>-1</v>
-      </c>
-      <c r="Y18">
-        <v>3.5</v>
-      </c>
-      <c r="Z18">
-        <v>-1</v>
-      </c>
-      <c r="AA18">
-        <v>1.05</v>
-      </c>
-      <c r="AB18">
-        <v>-0.5</v>
-      </c>
-      <c r="AC18">
-        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6802952</v>
+        <v>6802956</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,13 +2141,13 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -2156,61 +2156,61 @@
         <v>46</v>
       </c>
       <c r="K19">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L19">
         <v>3.4</v>
       </c>
       <c r="M19">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N19">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="O19">
         <v>3.5</v>
       </c>
       <c r="P19">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="Q19">
+        <v>-0.5</v>
+      </c>
+      <c r="R19">
+        <v>1.8</v>
+      </c>
+      <c r="S19">
+        <v>2.05</v>
+      </c>
+      <c r="T19">
+        <v>2.25</v>
+      </c>
+      <c r="U19">
+        <v>1.85</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
+        <v>3.5</v>
+      </c>
+      <c r="Z19">
+        <v>-1</v>
+      </c>
+      <c r="AA19">
+        <v>1.05</v>
+      </c>
+      <c r="AB19">
+        <v>-0.5</v>
+      </c>
+      <c r="AC19">
         <v>0.5</v>
-      </c>
-      <c r="R19">
-        <v>1.875</v>
-      </c>
-      <c r="S19">
-        <v>1.975</v>
-      </c>
-      <c r="T19">
-        <v>2.75</v>
-      </c>
-      <c r="U19">
-        <v>1.9</v>
-      </c>
-      <c r="V19">
-        <v>1.95</v>
-      </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
-      <c r="X19">
-        <v>-1</v>
-      </c>
-      <c r="Y19">
-        <v>0.909</v>
-      </c>
-      <c r="Z19">
-        <v>-1</v>
-      </c>
-      <c r="AA19">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB19">
-        <v>0.45</v>
-      </c>
-      <c r="AC19">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6802962</v>
+        <v>6802958</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,76 +2764,76 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="L26">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M26">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="N26">
+        <v>1.75</v>
+      </c>
+      <c r="O26">
+        <v>3.75</v>
+      </c>
+      <c r="P26">
+        <v>3.8</v>
+      </c>
+      <c r="Q26">
+        <v>-0.5</v>
+      </c>
+      <c r="R26">
+        <v>1.825</v>
+      </c>
+      <c r="S26">
+        <v>2.025</v>
+      </c>
+      <c r="T26">
         <v>2.75</v>
       </c>
-      <c r="O26">
-        <v>3.25</v>
-      </c>
-      <c r="P26">
-        <v>2.25</v>
-      </c>
-      <c r="Q26">
-        <v>0.25</v>
-      </c>
-      <c r="R26">
-        <v>1.8</v>
-      </c>
-      <c r="S26">
-        <v>2.05</v>
-      </c>
-      <c r="T26">
-        <v>2.5</v>
-      </c>
       <c r="U26">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V26">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X26">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6802958</v>
+        <v>6802962</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,76 +2853,76 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="L27">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M27">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N27">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="O27">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P27">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q27">
+        <v>0.25</v>
+      </c>
+      <c r="R27">
+        <v>1.8</v>
+      </c>
+      <c r="S27">
+        <v>2.05</v>
+      </c>
+      <c r="T27">
+        <v>2.5</v>
+      </c>
+      <c r="U27">
+        <v>1.825</v>
+      </c>
+      <c r="V27">
+        <v>2.025</v>
+      </c>
+      <c r="W27">
+        <v>-1</v>
+      </c>
+      <c r="X27">
+        <v>2.25</v>
+      </c>
+      <c r="Y27">
+        <v>-1</v>
+      </c>
+      <c r="Z27">
+        <v>0.4</v>
+      </c>
+      <c r="AA27">
         <v>-0.5</v>
       </c>
-      <c r="R27">
-        <v>1.825</v>
-      </c>
-      <c r="S27">
-        <v>2.025</v>
-      </c>
-      <c r="T27">
-        <v>2.75</v>
-      </c>
-      <c r="U27">
-        <v>1.925</v>
-      </c>
-      <c r="V27">
-        <v>1.925</v>
-      </c>
-      <c r="W27">
-        <v>0.75</v>
-      </c>
-      <c r="X27">
-        <v>-1</v>
-      </c>
-      <c r="Y27">
-        <v>-1</v>
-      </c>
-      <c r="Z27">
-        <v>0.825</v>
-      </c>
-      <c r="AA27">
-        <v>-1</v>
-      </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3120,7 +3120,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
         <v>32</v>
@@ -3301,7 +3301,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3476,10 +3476,10 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" t="s">
         <v>33</v>
-      </c>
-      <c r="G34" t="s">
-        <v>35</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6802971</v>
+        <v>6802970</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,76 +3565,76 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K35">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="L35">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M35">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N35">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="O35">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P35">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R35">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S35">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U35">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V35">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X35">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA35">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6802970</v>
+        <v>6802971</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,76 +3654,76 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36">
+        <v>2.5</v>
+      </c>
+      <c r="L36">
+        <v>3.2</v>
+      </c>
+      <c r="M36">
+        <v>2.625</v>
+      </c>
+      <c r="N36">
+        <v>2.3</v>
+      </c>
+      <c r="O36">
+        <v>3.5</v>
+      </c>
+      <c r="P36">
+        <v>2.625</v>
+      </c>
+      <c r="Q36">
         <v>0</v>
       </c>
-      <c r="J36" t="s">
-        <v>45</v>
-      </c>
-      <c r="K36">
-        <v>1.75</v>
-      </c>
-      <c r="L36">
-        <v>3.6</v>
-      </c>
-      <c r="M36">
-        <v>4</v>
-      </c>
-      <c r="N36">
-        <v>1.7</v>
-      </c>
-      <c r="O36">
-        <v>3.8</v>
-      </c>
-      <c r="P36">
-        <v>4</v>
-      </c>
-      <c r="Q36">
-        <v>-0.75</v>
-      </c>
       <c r="R36">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S36">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V36">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W36">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6802967</v>
+        <v>6802966</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,59 +3832,59 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
         <v>45</v>
       </c>
       <c r="K38">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="L38">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M38">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N38">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="O38">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P38">
-        <v>5.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q38">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R38">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S38">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T38">
         <v>3</v>
       </c>
       <c r="U38">
+        <v>1.9</v>
+      </c>
+      <c r="V38">
+        <v>1.95</v>
+      </c>
+      <c r="W38">
         <v>2</v>
       </c>
-      <c r="V38">
-        <v>1.85</v>
-      </c>
-      <c r="W38">
-        <v>0.45</v>
-      </c>
       <c r="X38">
         <v>-1</v>
       </c>
@@ -3892,10 +3892,10 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA38">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6802966</v>
+        <v>6802969</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,13 +3921,13 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3936,43 +3936,43 @@
         <v>45</v>
       </c>
       <c r="K39">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="L39">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="N39">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="O39">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P39">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q39">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S39">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T39">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V39">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3981,16 +3981,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6802969</v>
+        <v>6802967</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,58 +4010,58 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H40">
         <v>2</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>45</v>
       </c>
       <c r="K40">
+        <v>1.55</v>
+      </c>
+      <c r="L40">
+        <v>3.8</v>
+      </c>
+      <c r="M40">
+        <v>5.25</v>
+      </c>
+      <c r="N40">
+        <v>1.45</v>
+      </c>
+      <c r="O40">
+        <v>4.2</v>
+      </c>
+      <c r="P40">
+        <v>5.75</v>
+      </c>
+      <c r="Q40">
+        <v>-1</v>
+      </c>
+      <c r="R40">
+        <v>1.825</v>
+      </c>
+      <c r="S40">
+        <v>2.025</v>
+      </c>
+      <c r="T40">
+        <v>3</v>
+      </c>
+      <c r="U40">
+        <v>2</v>
+      </c>
+      <c r="V40">
         <v>1.85</v>
       </c>
-      <c r="L40">
-        <v>3.4</v>
-      </c>
-      <c r="M40">
-        <v>3.75</v>
-      </c>
-      <c r="N40">
-        <v>1.75</v>
-      </c>
-      <c r="O40">
-        <v>3.6</v>
-      </c>
-      <c r="P40">
-        <v>4.2</v>
-      </c>
-      <c r="Q40">
-        <v>-0.75</v>
-      </c>
-      <c r="R40">
-        <v>2.025</v>
-      </c>
-      <c r="S40">
-        <v>1.825</v>
-      </c>
-      <c r="T40">
-        <v>2.75</v>
-      </c>
-      <c r="U40">
-        <v>2.025</v>
-      </c>
-      <c r="V40">
-        <v>1.825</v>
-      </c>
       <c r="W40">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4070,16 +4070,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4191,7 +4191,7 @@
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7098155</v>
+        <v>6802973</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,76 +4544,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K46">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="L46">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M46">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="N46">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="O46">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P46">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q46">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S46">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V46">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X46">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA46">
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC46">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6802973</v>
+        <v>7098155</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,76 +4633,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K47">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="L47">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M47">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="N47">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="O47">
+        <v>4.5</v>
+      </c>
+      <c r="P47">
+        <v>1.4</v>
+      </c>
+      <c r="Q47">
+        <v>1.25</v>
+      </c>
+      <c r="R47">
+        <v>1.95</v>
+      </c>
+      <c r="S47">
+        <v>1.9</v>
+      </c>
+      <c r="T47">
+        <v>3</v>
+      </c>
+      <c r="U47">
+        <v>2.025</v>
+      </c>
+      <c r="V47">
+        <v>1.825</v>
+      </c>
+      <c r="W47">
+        <v>-1</v>
+      </c>
+      <c r="X47">
         <v>3.5</v>
       </c>
-      <c r="P47">
-        <v>3.6</v>
-      </c>
-      <c r="Q47">
-        <v>-0.5</v>
-      </c>
-      <c r="R47">
-        <v>1.925</v>
-      </c>
-      <c r="S47">
-        <v>1.925</v>
-      </c>
-      <c r="T47">
-        <v>2.75</v>
-      </c>
-      <c r="U47">
-        <v>2</v>
-      </c>
-      <c r="V47">
-        <v>1.85</v>
-      </c>
-      <c r="W47">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X47">
-        <v>-1</v>
-      </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6802988</v>
+        <v>6802984</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
         <v>0</v>
       </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
       <c r="J49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K49">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M49">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="N49">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="O49">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P49">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q49">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R49">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S49">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V49">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA49">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6802984</v>
+        <v>6802988</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,76 +4989,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>1</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K51">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="L51">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="N51">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="O51">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P51">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q51">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S51">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V51">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z51">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5081,7 +5081,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6802987</v>
+        <v>6802981</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,76 +5167,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
         <v>0</v>
       </c>
-      <c r="I53">
-        <v>2</v>
-      </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K53">
-        <v>4.5</v>
+        <v>1.45</v>
       </c>
       <c r="L53">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M53">
-        <v>1.65</v>
+        <v>5.5</v>
       </c>
       <c r="N53">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="O53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P53">
-        <v>1.533</v>
+        <v>7</v>
       </c>
       <c r="Q53">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R53">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S53">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T53">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V53">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA53">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6802981</v>
+        <v>6802987</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,76 +5256,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
         <v>2</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K54">
-        <v>1.45</v>
+        <v>4.5</v>
       </c>
       <c r="L54">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M54">
+        <v>1.65</v>
+      </c>
+      <c r="N54">
         <v>5.5</v>
       </c>
-      <c r="N54">
-        <v>1.3</v>
-      </c>
       <c r="O54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P54">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="Q54">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R54">
+        <v>1.9</v>
+      </c>
+      <c r="S54">
+        <v>1.95</v>
+      </c>
+      <c r="T54">
+        <v>2.75</v>
+      </c>
+      <c r="U54">
         <v>1.925</v>
       </c>
-      <c r="S54">
+      <c r="V54">
         <v>1.925</v>
       </c>
-      <c r="T54">
-        <v>3.25</v>
-      </c>
-      <c r="U54">
-        <v>2.025</v>
-      </c>
-      <c r="V54">
-        <v>1.825</v>
-      </c>
       <c r="W54">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z54">
+        <v>-1</v>
+      </c>
+      <c r="AA54">
+        <v>0.95</v>
+      </c>
+      <c r="AB54">
+        <v>-1</v>
+      </c>
+      <c r="AC54">
         <v>0.925</v>
-      </c>
-      <c r="AA54">
-        <v>-1</v>
-      </c>
-      <c r="AB54">
-        <v>-1</v>
-      </c>
-      <c r="AC54">
-        <v>0.825</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6802991</v>
+        <v>6802992</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,49 +5523,49 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K57">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="L57">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M57">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N57">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O57">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P57">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="Q57">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
         <v>1.85</v>
       </c>
-      <c r="S57">
-        <v>2</v>
-      </c>
       <c r="T57">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
         <v>1.975</v>
@@ -5574,25 +5574,25 @@
         <v>1.875</v>
       </c>
       <c r="W57">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA57">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6802993</v>
+        <v>6802991</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5612,76 +5612,76 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K58">
-        <v>2.5</v>
+        <v>1.55</v>
       </c>
       <c r="L58">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M58">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="N58">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O58">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P58">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R58">
+        <v>1.85</v>
+      </c>
+      <c r="S58">
+        <v>2</v>
+      </c>
+      <c r="T58">
+        <v>3</v>
+      </c>
+      <c r="U58">
+        <v>1.975</v>
+      </c>
+      <c r="V58">
         <v>1.875</v>
       </c>
-      <c r="S58">
-        <v>1.975</v>
-      </c>
-      <c r="T58">
-        <v>2.5</v>
-      </c>
-      <c r="U58">
-        <v>1.875</v>
-      </c>
-      <c r="V58">
-        <v>1.975</v>
-      </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA58">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC58">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6802992</v>
+        <v>6802993</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,76 +5701,76 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K59">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L59">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M59">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="N59">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O59">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P59">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q59">
         <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S59">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T59">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
+        <v>1.875</v>
+      </c>
+      <c r="V59">
         <v>1.975</v>
       </c>
-      <c r="V59">
-        <v>1.875</v>
-      </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z59">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5790,7 +5790,7 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
         <v>43</v>
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6802990</v>
+        <v>6802994</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,76 +5968,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K62">
-        <v>5</v>
+        <v>2.35</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M62">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="N62">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="O62">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P62">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="Q62">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S62">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V62">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y62">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB62">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6802994</v>
+        <v>6802990</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K63">
-        <v>2.35</v>
+        <v>5</v>
       </c>
       <c r="L63">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M63">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="N63">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="O63">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P63">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R63">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S63">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC63">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6149,7 +6149,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>5</v>
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6803000</v>
+        <v>6802999</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,46 +6235,46 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K65">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="L65">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M65">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="N65">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="O65">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P65">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q65">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R65">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S65">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T65">
         <v>3</v>
@@ -6286,25 +6286,25 @@
         <v>1.95</v>
       </c>
       <c r="W65">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z65">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB65">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6802999</v>
+        <v>6803000</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,46 +6324,46 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="I66">
         <v>1</v>
       </c>
-      <c r="I66">
-        <v>2</v>
-      </c>
       <c r="J66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K66">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="L66">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M66">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="N66">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="O66">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P66">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q66">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R66">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S66">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T66">
         <v>3</v>
@@ -6375,25 +6375,25 @@
         <v>1.95</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA66">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC66">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6413,7 +6413,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
         <v>31</v>
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6803011</v>
+        <v>6803007</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,40 +7036,40 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K74">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="L74">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M74">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N74">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="O74">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
         <v>2</v>
@@ -7078,34 +7078,34 @@
         <v>1.85</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W74">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7128,7 +7128,7 @@
         <v>44</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6803007</v>
+        <v>6803011</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,40 +7214,40 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K76">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M76">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N76">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P76">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R76">
         <v>2</v>
@@ -7256,34 +7256,34 @@
         <v>1.85</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X76">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA76">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC76">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7481,7 +7481,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
         <v>40</v>
@@ -7840,7 +7840,7 @@
         <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H83">
         <v>4</v>
@@ -7926,7 +7926,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
         <v>29</v>
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6803014</v>
+        <v>6803019</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,73 +8193,73 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87">
         <v>3</v>
       </c>
-      <c r="I87">
-        <v>2</v>
-      </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K87">
-        <v>1.3</v>
+        <v>7</v>
       </c>
       <c r="L87">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="M87">
-        <v>9</v>
+        <v>1.45</v>
       </c>
       <c r="N87">
-        <v>1.285</v>
+        <v>8.5</v>
       </c>
       <c r="O87">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P87">
-        <v>8.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q87">
-        <v>-1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R87">
+        <v>2.025</v>
+      </c>
+      <c r="S87">
         <v>1.825</v>
       </c>
-      <c r="S87">
+      <c r="T87">
+        <v>2.75</v>
+      </c>
+      <c r="U87">
+        <v>1.825</v>
+      </c>
+      <c r="V87">
         <v>2.025</v>
       </c>
-      <c r="T87">
-        <v>3</v>
-      </c>
-      <c r="U87">
-        <v>1.975</v>
-      </c>
-      <c r="V87">
-        <v>1.875</v>
-      </c>
       <c r="W87">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA87">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB87">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6803019</v>
+        <v>6803014</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,73 +8282,73 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H88">
+        <v>3</v>
+      </c>
+      <c r="I88">
         <v>2</v>
       </c>
-      <c r="I88">
+      <c r="J88" t="s">
+        <v>45</v>
+      </c>
+      <c r="K88">
+        <v>1.3</v>
+      </c>
+      <c r="L88">
+        <v>5.5</v>
+      </c>
+      <c r="M88">
+        <v>9</v>
+      </c>
+      <c r="N88">
+        <v>1.285</v>
+      </c>
+      <c r="O88">
+        <v>6</v>
+      </c>
+      <c r="P88">
+        <v>8.5</v>
+      </c>
+      <c r="Q88">
+        <v>-1.5</v>
+      </c>
+      <c r="R88">
+        <v>1.825</v>
+      </c>
+      <c r="S88">
+        <v>2.025</v>
+      </c>
+      <c r="T88">
         <v>3</v>
       </c>
-      <c r="J88" t="s">
-        <v>46</v>
-      </c>
-      <c r="K88">
-        <v>7</v>
-      </c>
-      <c r="L88">
-        <v>4.333</v>
-      </c>
-      <c r="M88">
-        <v>1.45</v>
-      </c>
-      <c r="N88">
-        <v>8.5</v>
-      </c>
-      <c r="O88">
-        <v>5</v>
-      </c>
-      <c r="P88">
-        <v>1.363</v>
-      </c>
-      <c r="Q88">
-        <v>1.25</v>
-      </c>
-      <c r="R88">
-        <v>2.025</v>
-      </c>
-      <c r="S88">
-        <v>1.825</v>
-      </c>
-      <c r="T88">
-        <v>2.75</v>
-      </c>
       <c r="U88">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB88">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6803025</v>
+        <v>6803021</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,76 +8371,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H89">
+        <v>5</v>
+      </c>
+      <c r="I89">
+        <v>9</v>
+      </c>
+      <c r="J89" t="s">
+        <v>46</v>
+      </c>
+      <c r="K89">
+        <v>3.25</v>
+      </c>
+      <c r="L89">
+        <v>3.4</v>
+      </c>
+      <c r="M89">
+        <v>2.05</v>
+      </c>
+      <c r="N89">
+        <v>3.75</v>
+      </c>
+      <c r="O89">
+        <v>3.6</v>
+      </c>
+      <c r="P89">
+        <v>1.909</v>
+      </c>
+      <c r="Q89">
+        <v>0.5</v>
+      </c>
+      <c r="R89">
+        <v>1.85</v>
+      </c>
+      <c r="S89">
+        <v>2</v>
+      </c>
+      <c r="T89">
+        <v>2.75</v>
+      </c>
+      <c r="U89">
+        <v>2</v>
+      </c>
+      <c r="V89">
+        <v>1.85</v>
+      </c>
+      <c r="W89">
+        <v>-1</v>
+      </c>
+      <c r="X89">
+        <v>-1</v>
+      </c>
+      <c r="Y89">
+        <v>0.909</v>
+      </c>
+      <c r="Z89">
+        <v>-1</v>
+      </c>
+      <c r="AA89">
         <v>1</v>
       </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89" t="s">
-        <v>45</v>
-      </c>
-      <c r="K89">
-        <v>2.4</v>
-      </c>
-      <c r="L89">
-        <v>3.25</v>
-      </c>
-      <c r="M89">
-        <v>2.7</v>
-      </c>
-      <c r="N89">
-        <v>2.25</v>
-      </c>
-      <c r="O89">
-        <v>3.4</v>
-      </c>
-      <c r="P89">
-        <v>3.1</v>
-      </c>
-      <c r="Q89">
-        <v>-0.25</v>
-      </c>
-      <c r="R89">
-        <v>2</v>
-      </c>
-      <c r="S89">
-        <v>1.85</v>
-      </c>
-      <c r="T89">
-        <v>2.5</v>
-      </c>
-      <c r="U89">
-        <v>1.875</v>
-      </c>
-      <c r="V89">
-        <v>1.975</v>
-      </c>
-      <c r="W89">
-        <v>1.25</v>
-      </c>
-      <c r="X89">
-        <v>-1</v>
-      </c>
-      <c r="Y89">
-        <v>-1</v>
-      </c>
-      <c r="Z89">
+      <c r="AB89">
         <v>1</v>
       </c>
-      <c r="AA89">
-        <v>-1</v>
-      </c>
-      <c r="AB89">
-        <v>-1</v>
-      </c>
       <c r="AC89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6803021</v>
+        <v>6803025</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,76 +8460,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K90">
+        <v>2.4</v>
+      </c>
+      <c r="L90">
         <v>3.25</v>
       </c>
-      <c r="L90">
+      <c r="M90">
+        <v>2.7</v>
+      </c>
+      <c r="N90">
+        <v>2.25</v>
+      </c>
+      <c r="O90">
         <v>3.4</v>
       </c>
-      <c r="M90">
-        <v>2.05</v>
-      </c>
-      <c r="N90">
-        <v>3.75</v>
-      </c>
-      <c r="O90">
-        <v>3.6</v>
-      </c>
       <c r="P90">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q90">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
+        <v>2</v>
+      </c>
+      <c r="S90">
         <v>1.85</v>
       </c>
-      <c r="S90">
-        <v>2</v>
-      </c>
       <c r="T90">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA90">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8730,7 +8730,7 @@
         <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6803026</v>
+        <v>6803024</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,76 +8816,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H94">
+        <v>4</v>
+      </c>
+      <c r="I94">
         <v>0</v>
       </c>
-      <c r="I94">
-        <v>1</v>
-      </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K94">
-        <v>3</v>
+        <v>1.166</v>
       </c>
       <c r="L94">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M94">
-        <v>2.15</v>
+        <v>12</v>
       </c>
       <c r="N94">
-        <v>3.8</v>
+        <v>1.142</v>
       </c>
       <c r="O94">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="P94">
-        <v>1.909</v>
+        <v>17</v>
       </c>
       <c r="Q94">
-        <v>0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R94">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S94">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T94">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U94">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V94">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA94">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC94">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6803024</v>
+        <v>6803026</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,76 +8905,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G95" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H95">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K95">
-        <v>1.166</v>
+        <v>3</v>
       </c>
       <c r="L95">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>12</v>
+        <v>2.15</v>
       </c>
       <c r="N95">
-        <v>1.142</v>
+        <v>3.8</v>
       </c>
       <c r="O95">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="P95">
-        <v>17</v>
+        <v>1.909</v>
       </c>
       <c r="Q95">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R95">
+        <v>1.9</v>
+      </c>
+      <c r="S95">
+        <v>1.95</v>
+      </c>
+      <c r="T95">
+        <v>2.5</v>
+      </c>
+      <c r="U95">
         <v>1.925</v>
       </c>
-      <c r="S95">
+      <c r="V95">
         <v>1.925</v>
       </c>
-      <c r="T95">
-        <v>3.75</v>
-      </c>
-      <c r="U95">
-        <v>1.975</v>
-      </c>
-      <c r="V95">
-        <v>1.875</v>
-      </c>
       <c r="W95">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z95">
+        <v>-1</v>
+      </c>
+      <c r="AA95">
+        <v>0.95</v>
+      </c>
+      <c r="AB95">
+        <v>-1</v>
+      </c>
+      <c r="AC95">
         <v>0.925</v>
-      </c>
-      <c r="AA95">
-        <v>-1</v>
-      </c>
-      <c r="AB95">
-        <v>0.4875</v>
-      </c>
-      <c r="AC95">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6803029</v>
+        <v>6803034</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K97">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="L97">
+        <v>3.4</v>
+      </c>
+      <c r="M97">
+        <v>3.4</v>
+      </c>
+      <c r="N97">
+        <v>1.8</v>
+      </c>
+      <c r="O97">
+        <v>3.75</v>
+      </c>
+      <c r="P97">
         <v>4</v>
       </c>
-      <c r="M97">
-        <v>5</v>
-      </c>
-      <c r="N97">
-        <v>1.4</v>
-      </c>
-      <c r="O97">
-        <v>5</v>
-      </c>
-      <c r="P97">
-        <v>7</v>
-      </c>
       <c r="Q97">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R97">
+        <v>2.05</v>
+      </c>
+      <c r="S97">
+        <v>1.8</v>
+      </c>
+      <c r="T97">
+        <v>2.75</v>
+      </c>
+      <c r="U97">
+        <v>1.825</v>
+      </c>
+      <c r="V97">
         <v>2.025</v>
       </c>
-      <c r="S97">
-        <v>1.825</v>
-      </c>
-      <c r="T97">
+      <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
         <v>3</v>
       </c>
-      <c r="U97">
-        <v>2.05</v>
-      </c>
-      <c r="V97">
-        <v>1.8</v>
-      </c>
-      <c r="W97">
-        <v>-1</v>
-      </c>
-      <c r="X97">
-        <v>4</v>
-      </c>
-      <c r="Y97">
-        <v>-1</v>
-      </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6803031</v>
+        <v>6803032</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K98">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N98">
         <v>1.85</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P98">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q98">
         <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S98">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V98">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X98">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA98">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6803032</v>
+        <v>6803029</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K99">
-        <v>1.9</v>
+        <v>1.615</v>
       </c>
       <c r="L99">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M99">
+        <v>5</v>
+      </c>
+      <c r="N99">
+        <v>1.4</v>
+      </c>
+      <c r="O99">
+        <v>5</v>
+      </c>
+      <c r="P99">
+        <v>7</v>
+      </c>
+      <c r="Q99">
+        <v>-1.5</v>
+      </c>
+      <c r="R99">
+        <v>2.025</v>
+      </c>
+      <c r="S99">
+        <v>1.825</v>
+      </c>
+      <c r="T99">
+        <v>3</v>
+      </c>
+      <c r="U99">
+        <v>2.05</v>
+      </c>
+      <c r="V99">
+        <v>1.8</v>
+      </c>
+      <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
         <v>4</v>
       </c>
-      <c r="N99">
-        <v>1.85</v>
-      </c>
-      <c r="O99">
-        <v>3.3</v>
-      </c>
-      <c r="P99">
-        <v>4.5</v>
-      </c>
-      <c r="Q99">
-        <v>-0.5</v>
-      </c>
-      <c r="R99">
-        <v>1.875</v>
-      </c>
-      <c r="S99">
-        <v>1.975</v>
-      </c>
-      <c r="T99">
-        <v>2.25</v>
-      </c>
-      <c r="U99">
-        <v>1.8</v>
-      </c>
-      <c r="V99">
-        <v>2.05</v>
-      </c>
-      <c r="W99">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X99">
-        <v>-1</v>
-      </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6803034</v>
+        <v>6803031</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,49 +9350,49 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K100">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="L100">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N100">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O100">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P100">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S100">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T100">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
         <v>1.825</v>
@@ -9404,16 +9404,16 @@
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y100">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB100">
         <v>-1</v>
@@ -9528,7 +9528,7 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
         <v>36</v>
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6803045</v>
+        <v>6803037</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,76 +9795,76 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K105">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L105">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M105">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="N105">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="O105">
+        <v>3.8</v>
+      </c>
+      <c r="P105">
         <v>4</v>
       </c>
-      <c r="P105">
-        <v>5.25</v>
-      </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T105">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V105">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
+        <v>-1</v>
+      </c>
+      <c r="Y105">
         <v>3</v>
       </c>
-      <c r="Y105">
-        <v>-1</v>
-      </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9872,7 +9872,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6803037</v>
+        <v>6803038</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9884,76 +9884,76 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106">
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K106">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M106">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N106">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O106">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P106">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q106">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T106">
         <v>2.5</v>
       </c>
       <c r="U106">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y106">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA106">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9976,7 +9976,7 @@
         <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6803038</v>
+        <v>6803045</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10062,76 +10062,76 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>47</v>
       </c>
       <c r="K108">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="L108">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M108">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="N108">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P108">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R108">
+        <v>1.8</v>
+      </c>
+      <c r="S108">
+        <v>2.05</v>
+      </c>
+      <c r="T108">
+        <v>2.25</v>
+      </c>
+      <c r="U108">
         <v>1.875</v>
       </c>
-      <c r="S108">
+      <c r="V108">
         <v>1.975</v>
       </c>
-      <c r="T108">
-        <v>2.5</v>
-      </c>
-      <c r="U108">
-        <v>1.975</v>
-      </c>
-      <c r="V108">
-        <v>1.875</v>
-      </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.4875</v>
+        <v>1.05</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6803051</v>
+        <v>6803046</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114" t="s">
+        <v>47</v>
+      </c>
+      <c r="K114">
+        <v>2.45</v>
+      </c>
+      <c r="L114">
+        <v>3.4</v>
+      </c>
+      <c r="M114">
+        <v>2.75</v>
+      </c>
+      <c r="N114">
+        <v>2.625</v>
+      </c>
+      <c r="O114">
+        <v>3.1</v>
+      </c>
+      <c r="P114">
+        <v>2.7</v>
+      </c>
+      <c r="Q114">
         <v>0</v>
       </c>
-      <c r="J114" t="s">
-        <v>45</v>
-      </c>
-      <c r="K114">
-        <v>1.5</v>
-      </c>
-      <c r="L114">
-        <v>4.333</v>
-      </c>
-      <c r="M114">
-        <v>5.75</v>
-      </c>
-      <c r="N114">
-        <v>1.444</v>
-      </c>
-      <c r="O114">
-        <v>4.5</v>
-      </c>
-      <c r="P114">
-        <v>6.5</v>
-      </c>
-      <c r="Q114">
-        <v>-1.25</v>
-      </c>
       <c r="R114">
+        <v>1.9</v>
+      </c>
+      <c r="S114">
         <v>1.95</v>
       </c>
-      <c r="S114">
-        <v>1.9</v>
-      </c>
       <c r="T114">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V114">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W114">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6803046</v>
+        <v>6803051</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,76 +10774,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K116">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="L116">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M116">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="N116">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="O116">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P116">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R116">
+        <v>1.95</v>
+      </c>
+      <c r="S116">
         <v>1.9</v>
       </c>
-      <c r="S116">
-        <v>1.95</v>
-      </c>
       <c r="T116">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U116">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X116">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
       <c r="AB116">
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6803058</v>
+        <v>6803053</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G123" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="L123">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M123">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="N123">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="O123">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P123">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R123">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S123">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T123">
         <v>2.75</v>
       </c>
       <c r="U123">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V123">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W123">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6803053</v>
+        <v>6803058</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G124" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K124">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="L124">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M124">
+        <v>2.9</v>
+      </c>
+      <c r="N124">
+        <v>2.375</v>
+      </c>
+      <c r="O124">
+        <v>3.1</v>
+      </c>
+      <c r="P124">
+        <v>2.9</v>
+      </c>
+      <c r="Q124">
+        <v>-0.25</v>
+      </c>
+      <c r="R124">
+        <v>2.05</v>
+      </c>
+      <c r="S124">
         <v>1.8</v>
-      </c>
-      <c r="N124">
-        <v>4.333</v>
-      </c>
-      <c r="O124">
-        <v>3.75</v>
-      </c>
-      <c r="P124">
-        <v>1.7</v>
-      </c>
-      <c r="Q124">
-        <v>0.75</v>
-      </c>
-      <c r="R124">
-        <v>1.9</v>
-      </c>
-      <c r="S124">
-        <v>1.95</v>
       </c>
       <c r="T124">
         <v>2.75</v>
       </c>
       <c r="U124">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V124">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X124">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC124">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6803060</v>
+        <v>6803055</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,58 +11664,58 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H126">
         <v>2</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
         <v>45</v>
       </c>
       <c r="K126">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L126">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M126">
+        <v>3.1</v>
+      </c>
+      <c r="N126">
+        <v>2.2</v>
+      </c>
+      <c r="O126">
+        <v>3</v>
+      </c>
+      <c r="P126">
         <v>3.5</v>
       </c>
-      <c r="N126">
-        <v>1.727</v>
-      </c>
-      <c r="O126">
-        <v>3.25</v>
-      </c>
-      <c r="P126">
-        <v>5</v>
-      </c>
       <c r="Q126">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S126">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T126">
         <v>2.25</v>
       </c>
       <c r="U126">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V126">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W126">
-        <v>0.7270000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11724,16 +11724,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AA126">
+        <v>-1</v>
+      </c>
+      <c r="AB126">
         <v>-0.5</v>
       </c>
-      <c r="AB126">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6803055</v>
+        <v>6803060</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,58 +11753,58 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H127">
         <v>2</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
         <v>45</v>
       </c>
       <c r="K127">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L127">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M127">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N127">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O127">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P127">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q127">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R127">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S127">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T127">
         <v>2.25</v>
       </c>
       <c r="U127">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V127">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W127">
-        <v>1.2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11813,16 +11813,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB127">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC127">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11934,7 +11934,7 @@
         <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7521554</v>
+        <v>6803065</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,73 +12109,73 @@
         <v>45266.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K131">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="L131">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M131">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N131">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P131">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q131">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R131">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
+        <v>2.025</v>
+      </c>
+      <c r="V131">
         <v>1.825</v>
       </c>
-      <c r="V131">
-        <v>2.025</v>
-      </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA131">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB131">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6803065</v>
+        <v>7521554</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,73 +12198,73 @@
         <v>45266.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
         <v>3</v>
       </c>
-      <c r="I132">
-        <v>2</v>
-      </c>
       <c r="J132" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K132">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="L132">
+        <v>3.25</v>
+      </c>
+      <c r="M132">
+        <v>2.2</v>
+      </c>
+      <c r="N132">
         <v>3.4</v>
       </c>
-      <c r="M132">
-        <v>4.75</v>
-      </c>
-      <c r="N132">
-        <v>1.6</v>
-      </c>
       <c r="O132">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P132">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q132">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R132">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S132">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T132">
         <v>2.5</v>
       </c>
       <c r="U132">
+        <v>1.825</v>
+      </c>
+      <c r="V132">
         <v>2.025</v>
       </c>
-      <c r="V132">
-        <v>1.825</v>
-      </c>
       <c r="W132">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z132">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB132">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6803074</v>
+        <v>6803071</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,49 +12376,49 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H134">
         <v>5</v>
       </c>
       <c r="I134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
         <v>45</v>
       </c>
       <c r="K134">
-        <v>1.55</v>
+        <v>1.666</v>
       </c>
       <c r="L134">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N134">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="O134">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P134">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q134">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R134">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S134">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
         <v>1.825</v>
@@ -12427,7 +12427,7 @@
         <v>2.025</v>
       </c>
       <c r="W134">
-        <v>0.5</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X134">
         <v>-1</v>
@@ -12436,7 +12436,7 @@
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA134">
         <v>-1</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6803071</v>
+        <v>6803074</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,49 +12465,49 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H135">
         <v>5</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J135" t="s">
         <v>45</v>
       </c>
       <c r="K135">
-        <v>1.666</v>
+        <v>1.55</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M135">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N135">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="O135">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P135">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q135">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R135">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S135">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
         <v>1.825</v>
@@ -12516,7 +12516,7 @@
         <v>2.025</v>
       </c>
       <c r="W135">
-        <v>0.6659999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X135">
         <v>-1</v>
@@ -12525,7 +12525,7 @@
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA135">
         <v>-1</v>
@@ -12735,7 +12735,7 @@
         <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12821,7 +12821,7 @@
         <v>45273.54166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G139" t="s">
         <v>31</v>
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6803082</v>
+        <v>6803083</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,76 +13088,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142">
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="L142">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M142">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N142">
+        <v>1.45</v>
+      </c>
+      <c r="O142">
+        <v>4.75</v>
+      </c>
+      <c r="P142">
+        <v>6</v>
+      </c>
+      <c r="Q142">
+        <v>-1.25</v>
+      </c>
+      <c r="R142">
+        <v>2.05</v>
+      </c>
+      <c r="S142">
+        <v>1.8</v>
+      </c>
+      <c r="T142">
         <v>3</v>
       </c>
-      <c r="O142">
-        <v>3.4</v>
-      </c>
-      <c r="P142">
-        <v>2.3</v>
-      </c>
-      <c r="Q142">
-        <v>0.25</v>
-      </c>
-      <c r="R142">
+      <c r="U142">
+        <v>2.025</v>
+      </c>
+      <c r="V142">
         <v>1.825</v>
       </c>
-      <c r="S142">
-        <v>2.025</v>
-      </c>
-      <c r="T142">
-        <v>2.5</v>
-      </c>
-      <c r="U142">
-        <v>2</v>
-      </c>
-      <c r="V142">
-        <v>1.85</v>
-      </c>
       <c r="W142">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
+        <v>-1</v>
+      </c>
+      <c r="AA142">
+        <v>0.8</v>
+      </c>
+      <c r="AB142">
+        <v>-1</v>
+      </c>
+      <c r="AC142">
         <v>0.825</v>
-      </c>
-      <c r="AA142">
-        <v>-1</v>
-      </c>
-      <c r="AB142">
-        <v>-1</v>
-      </c>
-      <c r="AC142">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6803083</v>
+        <v>6803081</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,76 +13177,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I143">
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K143">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="L143">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M143">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N143">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="O143">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P143">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="Q143">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R143">
+        <v>1.825</v>
+      </c>
+      <c r="S143">
+        <v>2.025</v>
+      </c>
+      <c r="T143">
+        <v>2.5</v>
+      </c>
+      <c r="U143">
         <v>2.05</v>
       </c>
-      <c r="S143">
+      <c r="V143">
         <v>1.8</v>
       </c>
-      <c r="T143">
-        <v>3</v>
-      </c>
-      <c r="U143">
-        <v>2.025</v>
-      </c>
-      <c r="V143">
-        <v>1.825</v>
-      </c>
       <c r="W143">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X143">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6803081</v>
+        <v>6803082</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,13 +13266,13 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H144">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -13281,13 +13281,13 @@
         <v>45</v>
       </c>
       <c r="K144">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="L144">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M144">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="N144">
         <v>3</v>
@@ -13311,10 +13311,10 @@
         <v>2.5</v>
       </c>
       <c r="U144">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V144">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W144">
         <v>2</v>
@@ -13332,10 +13332,10 @@
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13355,10 +13355,10 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F145" t="s">
+        <v>33</v>
+      </c>
+      <c r="G145" t="s">
         <v>35</v>
-      </c>
-      <c r="G145" t="s">
-        <v>33</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6803079</v>
+        <v>6803077</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,13 +13533,13 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G147" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147">
         <v>3</v>
@@ -13548,25 +13548,25 @@
         <v>46</v>
       </c>
       <c r="K147">
+        <v>5</v>
+      </c>
+      <c r="L147">
+        <v>3.75</v>
+      </c>
+      <c r="M147">
+        <v>1.666</v>
+      </c>
+      <c r="N147">
+        <v>4.5</v>
+      </c>
+      <c r="O147">
         <v>3.5</v>
       </c>
-      <c r="L147">
-        <v>3.5</v>
-      </c>
-      <c r="M147">
-        <v>2</v>
-      </c>
-      <c r="N147">
-        <v>3.6</v>
-      </c>
-      <c r="O147">
-        <v>3.3</v>
-      </c>
       <c r="P147">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Q147">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R147">
         <v>1.8</v>
@@ -13575,13 +13575,13 @@
         <v>2.05</v>
       </c>
       <c r="T147">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V147">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W147">
         <v>-1</v>
@@ -13590,16 +13590,16 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA147">
-        <v>1.05</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB147">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6803077</v>
+        <v>6803079</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,13 +13622,13 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148">
         <v>3</v>
@@ -13637,25 +13637,25 @@
         <v>46</v>
       </c>
       <c r="K148">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L148">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M148">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="N148">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O148">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P148">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Q148">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R148">
         <v>1.8</v>
@@ -13664,13 +13664,13 @@
         <v>2.05</v>
       </c>
       <c r="T148">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U148">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V148">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13679,16 +13679,16 @@
         <v>-1</v>
       </c>
       <c r="Y148">
+        <v>1</v>
+      </c>
+      <c r="Z148">
+        <v>-1</v>
+      </c>
+      <c r="AA148">
+        <v>1.05</v>
+      </c>
+      <c r="AB148">
         <v>0.8</v>
-      </c>
-      <c r="Z148">
-        <v>-0.5</v>
-      </c>
-      <c r="AA148">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AB148">
-        <v>1.025</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6803088</v>
+        <v>6803087</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,76 +13800,76 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H150">
+        <v>3</v>
+      </c>
+      <c r="I150">
         <v>0</v>
       </c>
-      <c r="I150">
+      <c r="J150" t="s">
+        <v>45</v>
+      </c>
+      <c r="K150">
+        <v>3.25</v>
+      </c>
+      <c r="L150">
+        <v>3.4</v>
+      </c>
+      <c r="M150">
+        <v>1.95</v>
+      </c>
+      <c r="N150">
+        <v>4</v>
+      </c>
+      <c r="O150">
+        <v>3.8</v>
+      </c>
+      <c r="P150">
+        <v>1.8</v>
+      </c>
+      <c r="Q150">
+        <v>0.5</v>
+      </c>
+      <c r="R150">
+        <v>2.025</v>
+      </c>
+      <c r="S150">
+        <v>1.825</v>
+      </c>
+      <c r="T150">
+        <v>2.75</v>
+      </c>
+      <c r="U150">
+        <v>1.875</v>
+      </c>
+      <c r="V150">
+        <v>1.975</v>
+      </c>
+      <c r="W150">
         <v>3</v>
       </c>
-      <c r="J150" t="s">
-        <v>46</v>
-      </c>
-      <c r="K150">
-        <v>6.5</v>
-      </c>
-      <c r="L150">
-        <v>4.75</v>
-      </c>
-      <c r="M150">
-        <v>1.4</v>
-      </c>
-      <c r="N150">
-        <v>7.5</v>
-      </c>
-      <c r="O150">
-        <v>5</v>
-      </c>
-      <c r="P150">
-        <v>1.363</v>
-      </c>
-      <c r="Q150">
-        <v>1.5</v>
-      </c>
-      <c r="R150">
-        <v>1.825</v>
-      </c>
-      <c r="S150">
-        <v>2.025</v>
-      </c>
-      <c r="T150">
-        <v>3.25</v>
-      </c>
-      <c r="U150">
-        <v>2.025</v>
-      </c>
-      <c r="V150">
-        <v>1.825</v>
-      </c>
-      <c r="W150">
-        <v>-1</v>
-      </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA150">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
+        <v>0.4375</v>
+      </c>
+      <c r="AC150">
         <v>-0.5</v>
-      </c>
-      <c r="AC150">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13877,7 +13877,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6803087</v>
+        <v>6803090</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13889,13 +13889,13 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G151" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -13904,43 +13904,43 @@
         <v>45</v>
       </c>
       <c r="K151">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="L151">
         <v>3.4</v>
       </c>
       <c r="M151">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="N151">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="O151">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P151">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q151">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R151">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S151">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T151">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U151">
+        <v>1.975</v>
+      </c>
+      <c r="V151">
         <v>1.875</v>
       </c>
-      <c r="V151">
-        <v>1.975</v>
-      </c>
       <c r="W151">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13949,16 +13949,16 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>1.025</v>
+        <v>1.1</v>
       </c>
       <c r="AA151">
         <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13978,7 +13978,7 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F152" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G152" t="s">
         <v>30</v>
@@ -14055,7 +14055,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6803090</v>
+        <v>6803088</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14067,76 +14067,76 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J153" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K153">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="L153">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M153">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="N153">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="O153">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P153">
-        <v>2.9</v>
+        <v>1.363</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R153">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S153">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T153">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U153">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V153">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W153">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z153">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC153">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>42</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14767,7 +14767,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6803095</v>
+        <v>6803094</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14779,76 +14779,76 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G161" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K161">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L161">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M161">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="N161">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O161">
         <v>3.6</v>
       </c>
       <c r="P161">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R161">
+        <v>2</v>
+      </c>
+      <c r="S161">
         <v>1.85</v>
       </c>
-      <c r="S161">
-        <v>2</v>
-      </c>
       <c r="T161">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U161">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V161">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y161">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB161">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6803094</v>
+        <v>6803095</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,76 +14868,76 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G162" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J162" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K162">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L162">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M162">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="N162">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O162">
         <v>3.6</v>
       </c>
       <c r="P162">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q162">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
+        <v>1.85</v>
+      </c>
+      <c r="S162">
         <v>2</v>
       </c>
-      <c r="S162">
-        <v>1.85</v>
-      </c>
       <c r="T162">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U162">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V162">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W162">
         <v>-1</v>
       </c>
       <c r="X162">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC162">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15316,7 +15316,7 @@
         <v>38</v>
       </c>
       <c r="G167" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15568,7 +15568,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6803104</v>
+        <v>6803105</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15580,61 +15580,61 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F170" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G170" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
         <v>47</v>
       </c>
       <c r="K170">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L170">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M170">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N170">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O170">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P170">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q170">
         <v>-0.75</v>
       </c>
       <c r="R170">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S170">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T170">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U170">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V170">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W170">
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Y170">
         <v>-1</v>
@@ -15643,13 +15643,13 @@
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC170">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6803106</v>
+        <v>6803104</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,49 +15669,49 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G171" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
         <v>47</v>
       </c>
       <c r="K171">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L171">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M171">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N171">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="O171">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P171">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R171">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S171">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T171">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
         <v>1.925</v>
@@ -15723,22 +15723,22 @@
         <v>-1</v>
       </c>
       <c r="X171">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.5125</v>
+        <v>1.05</v>
       </c>
       <c r="AB171">
+        <v>-1</v>
+      </c>
+      <c r="AC171">
         <v>0.925</v>
-      </c>
-      <c r="AC171">
-        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6803105</v>
+        <v>6803106</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,73 +15758,73 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F172" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J172" t="s">
         <v>47</v>
       </c>
       <c r="K172">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L172">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M172">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="N172">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O172">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P172">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Q172">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S172">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T172">
         <v>2.5</v>
       </c>
       <c r="U172">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V172">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA172">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AB172">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC172">
         <v>-1</v>
@@ -15850,7 +15850,7 @@
         <v>43</v>
       </c>
       <c r="G173" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -16203,7 +16203,7 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G177" t="s">
         <v>36</v>
@@ -16280,7 +16280,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6803113</v>
+        <v>6803115</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16292,49 +16292,49 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F178" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G178" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I178">
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K178">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="L178">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M178">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N178">
-        <v>1.85</v>
+        <v>1.444</v>
       </c>
       <c r="O178">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P178">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q178">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R178">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S178">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U178">
         <v>1.95</v>
@@ -16343,25 +16343,25 @@
         <v>1.9</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X178">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA178">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC178">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16369,7 +16369,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6803120</v>
+        <v>6803113</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16381,40 +16381,40 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G179" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H179">
         <v>1</v>
       </c>
       <c r="I179">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K179">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L179">
         <v>3.5</v>
       </c>
       <c r="M179">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N179">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="O179">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P179">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q179">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R179">
         <v>1.85</v>
@@ -16435,10 +16435,10 @@
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y179">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
         <v>-1</v>
@@ -16447,10 +16447,10 @@
         <v>1</v>
       </c>
       <c r="AB179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16458,7 +16458,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6803117</v>
+        <v>6803120</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16470,73 +16470,73 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G180" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J180" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K180">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="L180">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M180">
+        <v>1.909</v>
+      </c>
+      <c r="N180">
         <v>3.6</v>
-      </c>
-      <c r="N180">
-        <v>2</v>
       </c>
       <c r="O180">
         <v>3.4</v>
       </c>
       <c r="P180">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q180">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R180">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S180">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T180">
         <v>2.5</v>
       </c>
       <c r="U180">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V180">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z180">
         <v>-1</v>
       </c>
       <c r="AA180">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB180">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16547,7 +16547,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6803115</v>
+        <v>6803117</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16559,73 +16559,73 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G181" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181">
+        <v>2</v>
+      </c>
+      <c r="J181" t="s">
+        <v>47</v>
+      </c>
+      <c r="K181">
+        <v>2.05</v>
+      </c>
+      <c r="L181">
+        <v>3.4</v>
+      </c>
+      <c r="M181">
+        <v>3.6</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181">
+        <v>3.4</v>
+      </c>
+      <c r="P181">
+        <v>3.75</v>
+      </c>
+      <c r="Q181">
+        <v>-0.5</v>
+      </c>
+      <c r="R181">
+        <v>2.05</v>
+      </c>
+      <c r="S181">
+        <v>1.8</v>
+      </c>
+      <c r="T181">
+        <v>2.5</v>
+      </c>
+      <c r="U181">
+        <v>2</v>
+      </c>
+      <c r="V181">
+        <v>1.85</v>
+      </c>
+      <c r="W181">
+        <v>-1</v>
+      </c>
+      <c r="X181">
+        <v>2.4</v>
+      </c>
+      <c r="Y181">
+        <v>-1</v>
+      </c>
+      <c r="Z181">
+        <v>-1</v>
+      </c>
+      <c r="AA181">
+        <v>0.8</v>
+      </c>
+      <c r="AB181">
         <v>1</v>
-      </c>
-      <c r="J181" t="s">
-        <v>45</v>
-      </c>
-      <c r="K181">
-        <v>1.533</v>
-      </c>
-      <c r="L181">
-        <v>4.5</v>
-      </c>
-      <c r="M181">
-        <v>5.5</v>
-      </c>
-      <c r="N181">
-        <v>1.444</v>
-      </c>
-      <c r="O181">
-        <v>5</v>
-      </c>
-      <c r="P181">
-        <v>6.5</v>
-      </c>
-      <c r="Q181">
-        <v>-1.25</v>
-      </c>
-      <c r="R181">
-        <v>1.875</v>
-      </c>
-      <c r="S181">
-        <v>1.975</v>
-      </c>
-      <c r="T181">
-        <v>3.25</v>
-      </c>
-      <c r="U181">
-        <v>1.95</v>
-      </c>
-      <c r="V181">
-        <v>1.9</v>
-      </c>
-      <c r="W181">
-        <v>0.444</v>
-      </c>
-      <c r="X181">
-        <v>-1</v>
-      </c>
-      <c r="Y181">
-        <v>-1</v>
-      </c>
-      <c r="Z181">
-        <v>0.875</v>
-      </c>
-      <c r="AA181">
-        <v>-1</v>
-      </c>
-      <c r="AB181">
-        <v>0.95</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -16992,7 +16992,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6803122</v>
+        <v>6803127</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17004,49 +17004,49 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G186" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186">
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K186">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="L186">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M186">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="N186">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="O186">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P186">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q186">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R186">
+        <v>1.875</v>
+      </c>
+      <c r="S186">
         <v>1.975</v>
       </c>
-      <c r="S186">
-        <v>1.875</v>
-      </c>
       <c r="T186">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U186">
         <v>1.85</v>
@@ -17055,19 +17055,19 @@
         <v>2</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X186">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA186">
-        <v>0.4375</v>
+        <v>-0</v>
       </c>
       <c r="AB186">
         <v>-1</v>
@@ -17170,7 +17170,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6803125</v>
+        <v>6803122</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17182,40 +17182,40 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F188" t="s">
+        <v>40</v>
+      </c>
+      <c r="G188" t="s">
         <v>33</v>
-      </c>
-      <c r="G188" t="s">
-        <v>44</v>
       </c>
       <c r="H188">
         <v>0</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K188">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L188">
         <v>3.4</v>
       </c>
       <c r="M188">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="N188">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O188">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P188">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q188">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R188">
         <v>1.975</v>
@@ -17227,31 +17227,31 @@
         <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y188">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA188">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17259,7 +17259,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6803127</v>
+        <v>6803125</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17271,76 +17271,76 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G189" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
         <v>1</v>
       </c>
-      <c r="I189">
-        <v>0</v>
-      </c>
       <c r="J189" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K189">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L189">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M189">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N189">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="O189">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P189">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Q189">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R189">
+        <v>1.975</v>
+      </c>
+      <c r="S189">
         <v>1.875</v>
       </c>
-      <c r="S189">
-        <v>1.975</v>
-      </c>
       <c r="T189">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U189">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V189">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W189">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17793,7 +17793,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6803133</v>
+        <v>6803134</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17805,76 +17805,76 @@
         <v>45367.45833333334</v>
       </c>
       <c r="F195" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G195" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H195">
         <v>2</v>
       </c>
       <c r="I195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K195">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="L195">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M195">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N195">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="O195">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P195">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q195">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R195">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S195">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T195">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U195">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V195">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X195">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AA195">
+        <v>-1</v>
+      </c>
+      <c r="AB195">
+        <v>0.4875</v>
+      </c>
+      <c r="AC195">
         <v>-0.5</v>
-      </c>
-      <c r="AB195">
-        <v>0.925</v>
-      </c>
-      <c r="AC195">
-        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17882,7 +17882,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6803134</v>
+        <v>6803133</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17894,76 +17894,76 @@
         <v>45367.45833333334</v>
       </c>
       <c r="F196" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H196">
         <v>2</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K196">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="L196">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M196">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N196">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="O196">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P196">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q196">
+        <v>0.25</v>
+      </c>
+      <c r="R196">
+        <v>1.775</v>
+      </c>
+      <c r="S196">
+        <v>2.1</v>
+      </c>
+      <c r="T196">
+        <v>2.25</v>
+      </c>
+      <c r="U196">
+        <v>1.925</v>
+      </c>
+      <c r="V196">
+        <v>1.925</v>
+      </c>
+      <c r="W196">
+        <v>-1</v>
+      </c>
+      <c r="X196">
+        <v>2.1</v>
+      </c>
+      <c r="Y196">
+        <v>-1</v>
+      </c>
+      <c r="Z196">
+        <v>0.3875</v>
+      </c>
+      <c r="AA196">
         <v>-0.5</v>
       </c>
-      <c r="R196">
-        <v>1.925</v>
-      </c>
-      <c r="S196">
-        <v>1.925</v>
-      </c>
-      <c r="T196">
-        <v>2.75</v>
-      </c>
-      <c r="U196">
-        <v>1.975</v>
-      </c>
-      <c r="V196">
-        <v>1.875</v>
-      </c>
-      <c r="W196">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X196">
-        <v>-1</v>
-      </c>
-      <c r="Y196">
-        <v>-1</v>
-      </c>
-      <c r="Z196">
+      <c r="AB196">
         <v>0.925</v>
       </c>
-      <c r="AA196">
-        <v>-1</v>
-      </c>
-      <c r="AB196">
-        <v>0.4875</v>
-      </c>
       <c r="AC196">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17986,7 +17986,7 @@
         <v>29</v>
       </c>
       <c r="G197" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -18416,7 +18416,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6803142</v>
+        <v>6803138</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18428,55 +18428,55 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F202" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G202" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J202" t="s">
         <v>46</v>
       </c>
       <c r="K202">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="L202">
+        <v>4</v>
+      </c>
+      <c r="M202">
+        <v>5.25</v>
+      </c>
+      <c r="N202">
+        <v>1.7</v>
+      </c>
+      <c r="O202">
+        <v>4</v>
+      </c>
+      <c r="P202">
         <v>5</v>
       </c>
-      <c r="M202">
-        <v>7</v>
-      </c>
-      <c r="N202">
-        <v>1.4</v>
-      </c>
-      <c r="O202">
-        <v>4.75</v>
-      </c>
-      <c r="P202">
-        <v>6.5</v>
-      </c>
       <c r="Q202">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R202">
+        <v>1.875</v>
+      </c>
+      <c r="S202">
         <v>1.975</v>
       </c>
-      <c r="S202">
-        <v>1.875</v>
-      </c>
       <c r="T202">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U202">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V202">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W202">
         <v>-1</v>
@@ -18485,19 +18485,19 @@
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Z202">
         <v>-1</v>
       </c>
       <c r="AA202">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB202">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC202">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18594,7 +18594,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6803138</v>
+        <v>6803142</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18606,55 +18606,55 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F204" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G204" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J204" t="s">
         <v>46</v>
       </c>
       <c r="K204">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="L204">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M204">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="N204">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="O204">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P204">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q204">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R204">
+        <v>1.975</v>
+      </c>
+      <c r="S204">
         <v>1.875</v>
       </c>
-      <c r="S204">
-        <v>1.975</v>
-      </c>
       <c r="T204">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V204">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W204">
         <v>-1</v>
@@ -18663,19 +18663,19 @@
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Z204">
         <v>-1</v>
       </c>
       <c r="AA204">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC204">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18695,7 +18695,7 @@
         <v>45381.58333333334</v>
       </c>
       <c r="F205" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G205" t="s">
         <v>32</v>
@@ -18784,7 +18784,7 @@
         <v>45382.41666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G206" t="s">
         <v>38</v>
@@ -19128,7 +19128,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6803148</v>
+        <v>6849948</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19140,49 +19140,49 @@
         <v>45388.41666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G210" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H210">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210" t="s">
+        <v>47</v>
+      </c>
+      <c r="K210">
+        <v>5.75</v>
+      </c>
+      <c r="L210">
+        <v>4.333</v>
+      </c>
+      <c r="M210">
+        <v>1.5</v>
+      </c>
+      <c r="N210">
+        <v>5.5</v>
+      </c>
+      <c r="O210">
+        <v>4.2</v>
+      </c>
+      <c r="P210">
+        <v>1.55</v>
+      </c>
+      <c r="Q210">
         <v>1</v>
       </c>
-      <c r="J210" t="s">
-        <v>45</v>
-      </c>
-      <c r="K210">
-        <v>2.375</v>
-      </c>
-      <c r="L210">
-        <v>3</v>
-      </c>
-      <c r="M210">
-        <v>3.3</v>
-      </c>
-      <c r="N210">
-        <v>2.05</v>
-      </c>
-      <c r="O210">
-        <v>3.25</v>
-      </c>
-      <c r="P210">
-        <v>3.8</v>
-      </c>
-      <c r="Q210">
-        <v>-0.5</v>
-      </c>
       <c r="R210">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S210">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T210">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U210">
         <v>1.925</v>
@@ -19191,25 +19191,25 @@
         <v>1.925</v>
       </c>
       <c r="W210">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA210">
         <v>-1</v>
       </c>
       <c r="AB210">
+        <v>-1</v>
+      </c>
+      <c r="AC210">
         <v>0.925</v>
-      </c>
-      <c r="AC210">
-        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19306,7 +19306,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6849948</v>
+        <v>6803148</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19318,49 +19318,49 @@
         <v>45388.41666666666</v>
       </c>
       <c r="F212" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G212" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K212">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="L212">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M212">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="N212">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="O212">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P212">
-        <v>1.55</v>
+        <v>3.8</v>
       </c>
       <c r="Q212">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R212">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S212">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T212">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U212">
         <v>1.925</v>
@@ -19369,25 +19369,25 @@
         <v>1.925</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X212">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA212">
         <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC212">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19484,7 +19484,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6803146</v>
+        <v>6803144</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19496,55 +19496,55 @@
         <v>45389.41666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G214" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
         <v>46</v>
       </c>
       <c r="K214">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="L214">
         <v>3.2</v>
       </c>
       <c r="M214">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="N214">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O214">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P214">
+        <v>3.6</v>
+      </c>
+      <c r="Q214">
+        <v>-0.25</v>
+      </c>
+      <c r="R214">
+        <v>1.8</v>
+      </c>
+      <c r="S214">
+        <v>2.05</v>
+      </c>
+      <c r="T214">
         <v>2.5</v>
       </c>
-      <c r="Q214">
-        <v>0</v>
-      </c>
-      <c r="R214">
-        <v>2.025</v>
-      </c>
-      <c r="S214">
-        <v>1.825</v>
-      </c>
-      <c r="T214">
-        <v>2.75</v>
-      </c>
       <c r="U214">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V214">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -19553,19 +19553,19 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB214">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19573,7 +19573,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6803145</v>
+        <v>6803146</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19585,76 +19585,76 @@
         <v>45389.41666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G215" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J215" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K215">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L215">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M215">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="N215">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="O215">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P215">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q215">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R215">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S215">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T215">
         <v>2.75</v>
       </c>
       <c r="U215">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V215">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC215">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19662,7 +19662,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6803144</v>
+        <v>6803145</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19674,49 +19674,49 @@
         <v>45389.41666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G216" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216">
         <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K216">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L216">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M216">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N216">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O216">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P216">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q216">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R216">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S216">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T216">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U216">
         <v>1.925</v>
@@ -19728,16 +19728,16 @@
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y216">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB216">
         <v>-1</v>
@@ -19766,7 +19766,7 @@
         <v>36</v>
       </c>
       <c r="G217" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H217">
         <v>1</v>
@@ -19852,7 +19852,7 @@
         <v>45395.41666666666</v>
       </c>
       <c r="F218" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G218" t="s">
         <v>29</v>
@@ -19873,7 +19873,7 @@
         <v>3.75</v>
       </c>
       <c r="P218">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q218">
         <v>-0.75</v>
@@ -19953,10 +19953,10 @@
         <v>0.25</v>
       </c>
       <c r="R219">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S219">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T219">
         <v>2.75</v>
@@ -20027,10 +20027,10 @@
         <v>1</v>
       </c>
       <c r="R220">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S220">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T220">
         <v>2.75</v>
@@ -20077,7 +20077,7 @@
         <v>43</v>
       </c>
       <c r="G221" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K221">
         <v>2.5</v>
@@ -20089,22 +20089,22 @@
         <v>2.75</v>
       </c>
       <c r="N221">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O221">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P221">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q221">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S221">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T221">
         <v>2.25</v>
@@ -20385,31 +20385,31 @@
         <v>1.833</v>
       </c>
       <c r="N225">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O225">
         <v>3.75</v>
       </c>
       <c r="P225">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="Q225">
         <v>0.75</v>
       </c>
       <c r="R225">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S225">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T225">
         <v>2.5</v>
       </c>
       <c r="U225">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V225">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W225">
         <v>0</v>

--- a/Czech Republic First League/Czech Republic First League.xlsx
+++ b/Czech Republic First League/Czech Republic First League.xlsx
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6802956</v>
+        <v>6802951</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,76 +2141,76 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K19">
-        <v>1.909</v>
+        <v>1.166</v>
       </c>
       <c r="L19">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M19">
-        <v>3.75</v>
+        <v>15</v>
       </c>
       <c r="N19">
-        <v>1.75</v>
+        <v>1.111</v>
       </c>
       <c r="O19">
+        <v>7.5</v>
+      </c>
+      <c r="P19">
+        <v>17</v>
+      </c>
+      <c r="Q19">
+        <v>-2.25</v>
+      </c>
+      <c r="R19">
+        <v>1.85</v>
+      </c>
+      <c r="S19">
+        <v>2</v>
+      </c>
+      <c r="T19">
         <v>3.5</v>
       </c>
-      <c r="P19">
-        <v>4.5</v>
-      </c>
-      <c r="Q19">
-        <v>-0.5</v>
-      </c>
-      <c r="R19">
-        <v>1.8</v>
-      </c>
-      <c r="S19">
-        <v>2.05</v>
-      </c>
-      <c r="T19">
-        <v>2.25</v>
-      </c>
       <c r="U19">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA19">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC19">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6802951</v>
+        <v>6802956</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,76 +2230,76 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>1.166</v>
+        <v>1.909</v>
       </c>
       <c r="L20">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>3.75</v>
       </c>
       <c r="N20">
-        <v>1.111</v>
+        <v>1.75</v>
       </c>
       <c r="O20">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P20">
-        <v>17</v>
+        <v>4.5</v>
       </c>
       <c r="Q20">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
+        <v>1.8</v>
+      </c>
+      <c r="S20">
+        <v>2.05</v>
+      </c>
+      <c r="T20">
+        <v>2.25</v>
+      </c>
+      <c r="U20">
         <v>1.85</v>
       </c>
-      <c r="S20">
+      <c r="V20">
         <v>2</v>
       </c>
-      <c r="T20">
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
         <v>3.5</v>
       </c>
-      <c r="U20">
-        <v>1.825</v>
-      </c>
-      <c r="V20">
-        <v>2.025</v>
-      </c>
-      <c r="W20">
-        <v>0.111</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>-1</v>
-      </c>
       <c r="Z20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB20">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6803015</v>
+        <v>6803017</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,46 +7659,46 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K81">
+        <v>1.6</v>
+      </c>
+      <c r="L81">
+        <v>4</v>
+      </c>
+      <c r="M81">
+        <v>5.25</v>
+      </c>
+      <c r="N81">
+        <v>1.4</v>
+      </c>
+      <c r="O81">
+        <v>4.75</v>
+      </c>
+      <c r="P81">
+        <v>6.5</v>
+      </c>
+      <c r="Q81">
+        <v>-1.25</v>
+      </c>
+      <c r="R81">
+        <v>1.9</v>
+      </c>
+      <c r="S81">
         <v>1.95</v>
-      </c>
-      <c r="L81">
-        <v>3.5</v>
-      </c>
-      <c r="M81">
-        <v>3.75</v>
-      </c>
-      <c r="N81">
-        <v>1.8</v>
-      </c>
-      <c r="O81">
-        <v>3.75</v>
-      </c>
-      <c r="P81">
-        <v>4</v>
-      </c>
-      <c r="Q81">
-        <v>-0.5</v>
-      </c>
-      <c r="R81">
-        <v>1.85</v>
-      </c>
-      <c r="S81">
-        <v>2</v>
       </c>
       <c r="T81">
         <v>3</v>
@@ -7710,19 +7710,19 @@
         <v>1.85</v>
       </c>
       <c r="W81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB81">
         <v>-1</v>
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6803017</v>
+        <v>6803015</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,46 +7748,46 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G82" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K82">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="L82">
+        <v>3.5</v>
+      </c>
+      <c r="M82">
+        <v>3.75</v>
+      </c>
+      <c r="N82">
+        <v>1.8</v>
+      </c>
+      <c r="O82">
+        <v>3.75</v>
+      </c>
+      <c r="P82">
         <v>4</v>
       </c>
-      <c r="M82">
-        <v>5.25</v>
-      </c>
-      <c r="N82">
-        <v>1.4</v>
-      </c>
-      <c r="O82">
-        <v>4.75</v>
-      </c>
-      <c r="P82">
-        <v>6.5</v>
-      </c>
       <c r="Q82">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R82">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S82">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T82">
         <v>3</v>
@@ -7799,19 +7799,19 @@
         <v>1.85</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X82">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA82">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
         <v>-1</v>
@@ -16992,7 +16992,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6803127</v>
+        <v>6803125</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17004,76 +17004,76 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G186" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
         <v>1</v>
       </c>
-      <c r="I186">
-        <v>0</v>
-      </c>
       <c r="J186" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K186">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L186">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M186">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N186">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="O186">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P186">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Q186">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R186">
+        <v>1.975</v>
+      </c>
+      <c r="S186">
         <v>1.875</v>
       </c>
-      <c r="S186">
-        <v>1.975</v>
-      </c>
       <c r="T186">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U186">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V186">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W186">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17081,7 +17081,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6803124</v>
+        <v>6803127</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17093,13 +17093,13 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G187" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -17108,43 +17108,43 @@
         <v>45</v>
       </c>
       <c r="K187">
+        <v>1.6</v>
+      </c>
+      <c r="L187">
+        <v>4</v>
+      </c>
+      <c r="M187">
+        <v>5</v>
+      </c>
+      <c r="N187">
+        <v>1.45</v>
+      </c>
+      <c r="O187">
+        <v>4.333</v>
+      </c>
+      <c r="P187">
+        <v>6</v>
+      </c>
+      <c r="Q187">
+        <v>-1</v>
+      </c>
+      <c r="R187">
+        <v>1.875</v>
+      </c>
+      <c r="S187">
+        <v>1.975</v>
+      </c>
+      <c r="T187">
+        <v>2.75</v>
+      </c>
+      <c r="U187">
         <v>1.85</v>
       </c>
-      <c r="L187">
-        <v>3.4</v>
-      </c>
-      <c r="M187">
-        <v>3.8</v>
-      </c>
-      <c r="N187">
-        <v>1.85</v>
-      </c>
-      <c r="O187">
-        <v>3.5</v>
-      </c>
-      <c r="P187">
-        <v>3.8</v>
-      </c>
-      <c r="Q187">
-        <v>-0.5</v>
-      </c>
-      <c r="R187">
-        <v>2.05</v>
-      </c>
-      <c r="S187">
-        <v>1.8</v>
-      </c>
-      <c r="T187">
-        <v>2.5</v>
-      </c>
-      <c r="U187">
-        <v>1.9</v>
-      </c>
       <c r="V187">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W187">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17153,16 +17153,16 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB187">
         <v>-1</v>
       </c>
       <c r="AC187">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17170,7 +17170,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6803122</v>
+        <v>6803124</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17182,76 +17182,76 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G188" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188">
         <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K188">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="L188">
         <v>3.4</v>
       </c>
       <c r="M188">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="N188">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O188">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P188">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q188">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S188">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T188">
         <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V188">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W188">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X188">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA188">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17259,7 +17259,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6803125</v>
+        <v>6803122</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17271,40 +17271,40 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G189" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H189">
         <v>0</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K189">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L189">
         <v>3.4</v>
       </c>
       <c r="M189">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="N189">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O189">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P189">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q189">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
         <v>1.975</v>
@@ -17316,31 +17316,31 @@
         <v>2.5</v>
       </c>
       <c r="U189">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V189">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W189">
         <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y189">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA189">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -19484,7 +19484,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6803144</v>
+        <v>6803145</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19496,49 +19496,49 @@
         <v>45389.41666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G214" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214">
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K214">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L214">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M214">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N214">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O214">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P214">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q214">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R214">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S214">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T214">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U214">
         <v>1.925</v>
@@ -19550,16 +19550,16 @@
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y214">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB214">
         <v>-1</v>
@@ -19662,7 +19662,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6803145</v>
+        <v>6803144</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19674,49 +19674,49 @@
         <v>45389.41666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G216" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216">
         <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K216">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L216">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M216">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N216">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O216">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P216">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q216">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R216">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S216">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T216">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
         <v>1.925</v>
@@ -19728,16 +19728,16 @@
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB216">
         <v>-1</v>
@@ -19840,7 +19840,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6851033</v>
+        <v>6803151</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19852,46 +19852,46 @@
         <v>45395.41666666666</v>
       </c>
       <c r="F218" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G218" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K218">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="L218">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M218">
-        <v>4.5</v>
+        <v>1.571</v>
       </c>
       <c r="N218">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="O218">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P218">
-        <v>4.333</v>
+        <v>1.571</v>
       </c>
       <c r="Q218">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R218">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S218">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T218">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U218">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V218">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W218">
         <v>0</v>
@@ -19953,10 +19953,10 @@
         <v>0.25</v>
       </c>
       <c r="R219">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S219">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T219">
         <v>2.75</v>
@@ -19988,7 +19988,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6803151</v>
+        <v>6851033</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20000,46 +20000,46 @@
         <v>45395.41666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G220" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="K220">
-        <v>5.25</v>
+        <v>1.75</v>
       </c>
       <c r="L220">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M220">
-        <v>1.571</v>
+        <v>4.5</v>
       </c>
       <c r="N220">
-        <v>5.25</v>
+        <v>1.666</v>
       </c>
       <c r="O220">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P220">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="Q220">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R220">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S220">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T220">
         <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V220">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W220">
         <v>0</v>
@@ -20237,22 +20237,22 @@
         <v>3.4</v>
       </c>
       <c r="N223">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O223">
+        <v>3.25</v>
+      </c>
+      <c r="P223">
         <v>3.3</v>
-      </c>
-      <c r="P223">
-        <v>3.4</v>
       </c>
       <c r="Q223">
         <v>-0.25</v>
       </c>
       <c r="R223">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S223">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T223">
         <v>2.5</v>
@@ -20397,10 +20397,10 @@
         <v>0.75</v>
       </c>
       <c r="R225">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S225">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T225">
         <v>2.5</v>

--- a/Czech Republic First League/Czech Republic First League.xlsx
+++ b/Czech Republic First League/Czech Republic First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -127,10 +127,10 @@
     <t>Sparta Prague</t>
   </si>
   <si>
-    <t>Sigma Olomouc</t>
+    <t>FC Trinity Zlin</t>
   </si>
   <si>
-    <t>FC Trinity Zlin</t>
+    <t>Sigma Olomouc</t>
   </si>
   <si>
     <t>Banik Ostrava</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC233"/>
+  <dimension ref="A1:AC226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6802948</v>
+        <v>6802947</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1340,76 +1340,76 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M10">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="N10">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="O10">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P10">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="Q10">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R10">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S10">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T10">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V10">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z10">
+        <v>0.5125</v>
+      </c>
+      <c r="AA10">
         <v>-0.5</v>
       </c>
-      <c r="AA10">
-        <v>0.4375</v>
-      </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1429,7 +1429,7 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
         <v>31</v>
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6802947</v>
+        <v>6802948</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,76 +1518,76 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="L12">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M12">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="N12">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P12">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="Q12">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
+        <v>1.975</v>
+      </c>
+      <c r="S12">
+        <v>1.875</v>
+      </c>
+      <c r="T12">
+        <v>2.75</v>
+      </c>
+      <c r="U12">
+        <v>1.825</v>
+      </c>
+      <c r="V12">
         <v>2.025</v>
       </c>
-      <c r="S12">
-        <v>1.825</v>
-      </c>
-      <c r="T12">
-        <v>3</v>
-      </c>
-      <c r="U12">
-        <v>1.95</v>
-      </c>
-      <c r="V12">
-        <v>1.9</v>
-      </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y12">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.5125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>-0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6802944</v>
+        <v>6802946</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,76 +1785,76 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M15">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="N15">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S15">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V15">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y15">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB15">
-        <v>0.5125</v>
+        <v>0.925</v>
       </c>
       <c r="AC15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6802946</v>
+        <v>6802944</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1874,76 +1874,76 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="L16">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M16">
+        <v>5.25</v>
+      </c>
+      <c r="N16">
+        <v>1.65</v>
+      </c>
+      <c r="O16">
         <v>3.6</v>
       </c>
-      <c r="N16">
-        <v>1.85</v>
-      </c>
-      <c r="O16">
-        <v>3.5</v>
-      </c>
       <c r="P16">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T16">
         <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V16">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB16">
-        <v>0.925</v>
+        <v>0.5125</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2055,7 +2055,7 @@
         <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2853,7 +2853,7 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
@@ -3120,7 +3120,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
         <v>30</v>
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6802963</v>
+        <v>6802959</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,76 +3209,76 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L31">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M31">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="N31">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O31">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P31">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S31">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V31">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W31">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z31">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB31">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6802959</v>
+        <v>6802963</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,76 +3298,76 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L32">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M32">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="N32">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="O32">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R32">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S32">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T32">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U32">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA32">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC32">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6802969</v>
+        <v>6802966</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,13 +3832,13 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3847,43 +3847,43 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="L38">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M38">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="N38">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="O38">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P38">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q38">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R38">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S38">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T38">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U38">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W38">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3892,16 +3892,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3924,7 +3924,7 @@
         <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6802966</v>
+        <v>6802969</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,13 +4010,13 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4025,43 +4025,43 @@
         <v>46</v>
       </c>
       <c r="K40">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="L40">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="N40">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="O40">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P40">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q40">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S40">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W40">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4070,16 +4070,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4188,7 +4188,7 @@
         <v>45164.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
         <v>30</v>
@@ -4633,7 +4633,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
         <v>34</v>
@@ -4992,7 +4992,7 @@
         <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5437,7 +5437,7 @@
         <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5701,7 +5701,7 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
         <v>40</v>
@@ -5968,7 +5968,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
         <v>42</v>
@@ -6238,7 +6238,7 @@
         <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H65">
         <v>5</v>
@@ -6594,7 +6594,7 @@
         <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -6947,7 +6947,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
         <v>39</v>
@@ -7036,7 +7036,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
         <v>40</v>
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6803011</v>
+        <v>6803009</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,58 +7125,58 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
         <v>46</v>
       </c>
       <c r="K75">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="L75">
         <v>3.25</v>
       </c>
       <c r="M75">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N75">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O75">
         <v>3.25</v>
       </c>
       <c r="P75">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T75">
         <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V75">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W75">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7185,16 +7185,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6803009</v>
+        <v>6803011</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,58 +7214,58 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H76">
+        <v>5</v>
+      </c>
+      <c r="I76">
         <v>2</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
       </c>
       <c r="J76" t="s">
         <v>46</v>
       </c>
       <c r="K76">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="L76">
         <v>3.25</v>
       </c>
       <c r="M76">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N76">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O76">
         <v>3.25</v>
       </c>
       <c r="P76">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q76">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S76">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T76">
         <v>2.5</v>
       </c>
       <c r="U76">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W76">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7274,16 +7274,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC76">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7659,7 +7659,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G81" t="s">
         <v>35</v>
@@ -7929,7 +7929,7 @@
         <v>41</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6803014</v>
+        <v>6803019</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,73 +8193,73 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87">
         <v>3</v>
       </c>
-      <c r="I87">
-        <v>2</v>
-      </c>
       <c r="J87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K87">
-        <v>1.3</v>
+        <v>7</v>
       </c>
       <c r="L87">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="M87">
-        <v>9</v>
+        <v>1.45</v>
       </c>
       <c r="N87">
-        <v>1.285</v>
+        <v>8.5</v>
       </c>
       <c r="O87">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P87">
-        <v>8.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q87">
-        <v>-1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R87">
+        <v>2.025</v>
+      </c>
+      <c r="S87">
         <v>1.825</v>
       </c>
-      <c r="S87">
+      <c r="T87">
+        <v>2.75</v>
+      </c>
+      <c r="U87">
+        <v>1.825</v>
+      </c>
+      <c r="V87">
         <v>2.025</v>
       </c>
-      <c r="T87">
-        <v>3</v>
-      </c>
-      <c r="U87">
-        <v>1.975</v>
-      </c>
-      <c r="V87">
-        <v>1.875</v>
-      </c>
       <c r="W87">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA87">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB87">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6803019</v>
+        <v>6803014</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,73 +8282,73 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H88">
+        <v>3</v>
+      </c>
+      <c r="I88">
         <v>2</v>
       </c>
-      <c r="I88">
+      <c r="J88" t="s">
+        <v>46</v>
+      </c>
+      <c r="K88">
+        <v>1.3</v>
+      </c>
+      <c r="L88">
+        <v>5.5</v>
+      </c>
+      <c r="M88">
+        <v>9</v>
+      </c>
+      <c r="N88">
+        <v>1.285</v>
+      </c>
+      <c r="O88">
+        <v>6</v>
+      </c>
+      <c r="P88">
+        <v>8.5</v>
+      </c>
+      <c r="Q88">
+        <v>-1.5</v>
+      </c>
+      <c r="R88">
+        <v>1.825</v>
+      </c>
+      <c r="S88">
+        <v>2.025</v>
+      </c>
+      <c r="T88">
         <v>3</v>
       </c>
-      <c r="J88" t="s">
-        <v>45</v>
-      </c>
-      <c r="K88">
-        <v>7</v>
-      </c>
-      <c r="L88">
-        <v>4.333</v>
-      </c>
-      <c r="M88">
-        <v>1.45</v>
-      </c>
-      <c r="N88">
-        <v>8.5</v>
-      </c>
-      <c r="O88">
-        <v>5</v>
-      </c>
-      <c r="P88">
-        <v>1.363</v>
-      </c>
-      <c r="Q88">
-        <v>1.25</v>
-      </c>
-      <c r="R88">
-        <v>2.025</v>
-      </c>
-      <c r="S88">
-        <v>1.825</v>
-      </c>
-      <c r="T88">
-        <v>2.75</v>
-      </c>
       <c r="U88">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB88">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8552,7 +8552,7 @@
         <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8638,7 +8638,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G92" t="s">
         <v>35</v>
@@ -9350,10 +9350,10 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F100" t="s">
+        <v>38</v>
+      </c>
+      <c r="G100" t="s">
         <v>37</v>
-      </c>
-      <c r="G100" t="s">
-        <v>38</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9976,7 +9976,7 @@
         <v>44</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10065,7 +10065,7 @@
         <v>29</v>
       </c>
       <c r="G108" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -10774,7 +10774,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
         <v>44</v>
@@ -11130,7 +11130,7 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G120" t="s">
         <v>32</v>
@@ -11400,7 +11400,7 @@
         <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11845,7 +11845,7 @@
         <v>36</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -11931,7 +11931,7 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G129" t="s">
         <v>33</v>
@@ -12290,7 +12290,7 @@
         <v>34</v>
       </c>
       <c r="G133" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H133">
         <v>5</v>
@@ -13177,7 +13177,7 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
         <v>43</v>
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6803082</v>
+        <v>6803080</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,76 +13266,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K144">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="L144">
         <v>3.3</v>
       </c>
       <c r="M144">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="N144">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="O144">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P144">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q144">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R144">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S144">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T144">
         <v>2.5</v>
       </c>
       <c r="U144">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V144">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6803080</v>
+        <v>6803082</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,76 +13355,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H145">
+        <v>2</v>
+      </c>
+      <c r="I145">
         <v>0</v>
       </c>
-      <c r="I145">
-        <v>1</v>
-      </c>
       <c r="J145" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K145">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="L145">
         <v>3.3</v>
       </c>
       <c r="M145">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="N145">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O145">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P145">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q145">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S145">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T145">
         <v>2.5</v>
       </c>
       <c r="U145">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA145">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6803079</v>
+        <v>6803077</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,13 +13533,13 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G147" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147">
         <v>3</v>
@@ -13548,25 +13548,25 @@
         <v>45</v>
       </c>
       <c r="K147">
+        <v>5</v>
+      </c>
+      <c r="L147">
+        <v>3.75</v>
+      </c>
+      <c r="M147">
+        <v>1.666</v>
+      </c>
+      <c r="N147">
+        <v>4.5</v>
+      </c>
+      <c r="O147">
         <v>3.5</v>
       </c>
-      <c r="L147">
-        <v>3.5</v>
-      </c>
-      <c r="M147">
-        <v>2</v>
-      </c>
-      <c r="N147">
-        <v>3.6</v>
-      </c>
-      <c r="O147">
-        <v>3.3</v>
-      </c>
       <c r="P147">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Q147">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R147">
         <v>1.8</v>
@@ -13575,13 +13575,13 @@
         <v>2.05</v>
       </c>
       <c r="T147">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V147">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W147">
         <v>-1</v>
@@ -13590,16 +13590,16 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA147">
-        <v>1.05</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB147">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6803077</v>
+        <v>6803079</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,13 +13622,13 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G148" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148">
         <v>3</v>
@@ -13637,25 +13637,25 @@
         <v>45</v>
       </c>
       <c r="K148">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L148">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M148">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="N148">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O148">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P148">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Q148">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R148">
         <v>1.8</v>
@@ -13664,13 +13664,13 @@
         <v>2.05</v>
       </c>
       <c r="T148">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U148">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V148">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13679,16 +13679,16 @@
         <v>-1</v>
       </c>
       <c r="Y148">
+        <v>1</v>
+      </c>
+      <c r="Z148">
+        <v>-1</v>
+      </c>
+      <c r="AA148">
+        <v>1.05</v>
+      </c>
+      <c r="AB148">
         <v>0.8</v>
-      </c>
-      <c r="Z148">
-        <v>-0.5</v>
-      </c>
-      <c r="AA148">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AB148">
-        <v>1.025</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6803087</v>
+        <v>6803090</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,13 +13800,13 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G150" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -13815,43 +13815,43 @@
         <v>46</v>
       </c>
       <c r="K150">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="L150">
         <v>3.4</v>
       </c>
       <c r="M150">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="N150">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="O150">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P150">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q150">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R150">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S150">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T150">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U150">
+        <v>1.975</v>
+      </c>
+      <c r="V150">
         <v>1.875</v>
       </c>
-      <c r="V150">
-        <v>1.975</v>
-      </c>
       <c r="W150">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13860,16 +13860,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>1.025</v>
+        <v>1.1</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13877,7 +13877,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6803090</v>
+        <v>6803087</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13889,13 +13889,13 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -13904,43 +13904,43 @@
         <v>46</v>
       </c>
       <c r="K151">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="L151">
         <v>3.4</v>
       </c>
       <c r="M151">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="N151">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="O151">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P151">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="Q151">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R151">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S151">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T151">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U151">
+        <v>1.875</v>
+      </c>
+      <c r="V151">
         <v>1.975</v>
       </c>
-      <c r="V151">
-        <v>1.875</v>
-      </c>
       <c r="W151">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13949,16 +13949,16 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>1.1</v>
+        <v>1.025</v>
       </c>
       <c r="AA151">
         <v>-1</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC151">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14337,7 +14337,7 @@
         <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14690,7 +14690,7 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G160" t="s">
         <v>32</v>
@@ -14779,7 +14779,7 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G161" t="s">
         <v>43</v>
@@ -15313,7 +15313,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G167" t="s">
         <v>33</v>
@@ -15494,7 +15494,7 @@
         <v>30</v>
       </c>
       <c r="G169" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H169">
         <v>2</v>
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6803106</v>
+        <v>6803105</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,73 +15669,73 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G171" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
         <v>47</v>
       </c>
       <c r="K171">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L171">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M171">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N171">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O171">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P171">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R171">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S171">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T171">
         <v>2.5</v>
       </c>
       <c r="U171">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V171">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W171">
         <v>-1</v>
       </c>
       <c r="X171">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB171">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC171">
         <v>-1</v>
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6803101</v>
+        <v>6803106</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,76 +15758,76 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F172" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J172" t="s">
         <v>47</v>
       </c>
       <c r="K172">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="L172">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M172">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="N172">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O172">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P172">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S172">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T172">
         <v>2.5</v>
       </c>
       <c r="U172">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V172">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA172">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC172">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15835,7 +15835,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6803105</v>
+        <v>6803101</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15847,76 +15847,76 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>47</v>
       </c>
       <c r="K173">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="L173">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M173">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="N173">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="O173">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P173">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="Q173">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R173">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="S173">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T173">
         <v>2.5</v>
       </c>
       <c r="U173">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V173">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W173">
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA173">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB173">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15939,7 +15939,7 @@
         <v>42</v>
       </c>
       <c r="G174" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H174">
         <v>3</v>
@@ -16013,7 +16013,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6803103</v>
+        <v>6803107</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16025,58 +16025,58 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G175" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
         <v>46</v>
       </c>
       <c r="K175">
-        <v>3.4</v>
+        <v>1.111</v>
       </c>
       <c r="L175">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="M175">
-        <v>2.05</v>
+        <v>17</v>
       </c>
       <c r="N175">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="O175">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="P175">
-        <v>2.9</v>
+        <v>17</v>
       </c>
       <c r="Q175">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R175">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S175">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T175">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U175">
+        <v>1.85</v>
+      </c>
+      <c r="V175">
         <v>2</v>
       </c>
-      <c r="V175">
-        <v>1.8</v>
-      </c>
       <c r="W175">
-        <v>1.3</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16085,16 +16085,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
+        <v>-0.5</v>
+      </c>
+      <c r="AC175">
         <v>0.5</v>
-      </c>
-      <c r="AC175">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6803107</v>
+        <v>6803103</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,58 +16114,58 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="s">
         <v>46</v>
       </c>
       <c r="K176">
-        <v>1.111</v>
+        <v>3.4</v>
       </c>
       <c r="L176">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="M176">
-        <v>17</v>
+        <v>2.05</v>
       </c>
       <c r="N176">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="O176">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="P176">
-        <v>17</v>
+        <v>2.9</v>
       </c>
       <c r="Q176">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R176">
+        <v>2.025</v>
+      </c>
+      <c r="S176">
+        <v>1.825</v>
+      </c>
+      <c r="T176">
+        <v>2.75</v>
+      </c>
+      <c r="U176">
         <v>2</v>
       </c>
-      <c r="S176">
-        <v>1.85</v>
-      </c>
-      <c r="T176">
-        <v>3.25</v>
-      </c>
-      <c r="U176">
-        <v>1.85</v>
-      </c>
       <c r="V176">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W176">
-        <v>0.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16174,16 +16174,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
+        <v>0.5</v>
+      </c>
+      <c r="AC176">
         <v>-0.5</v>
-      </c>
-      <c r="AC176">
-        <v>0.5</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16280,7 +16280,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6803120</v>
+        <v>6803117</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16292,73 +16292,73 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F178" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G178" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K178">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="L178">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M178">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="N178">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="O178">
         <v>3.4</v>
       </c>
       <c r="P178">
+        <v>3.75</v>
+      </c>
+      <c r="Q178">
+        <v>-0.5</v>
+      </c>
+      <c r="R178">
         <v>2.05</v>
       </c>
-      <c r="Q178">
-        <v>0.5</v>
-      </c>
-      <c r="R178">
-        <v>1.85</v>
-      </c>
       <c r="S178">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T178">
         <v>2.5</v>
       </c>
       <c r="U178">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V178">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y178">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
         <v>-1</v>
       </c>
       <c r="AA178">
+        <v>0.8</v>
+      </c>
+      <c r="AB178">
         <v>1</v>
-      </c>
-      <c r="AB178">
-        <v>0.95</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16369,7 +16369,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6803117</v>
+        <v>6803120</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16381,73 +16381,73 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G179" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J179" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K179">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="L179">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M179">
+        <v>1.909</v>
+      </c>
+      <c r="N179">
         <v>3.6</v>
-      </c>
-      <c r="N179">
-        <v>2</v>
       </c>
       <c r="O179">
         <v>3.4</v>
       </c>
       <c r="P179">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q179">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R179">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S179">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T179">
         <v>2.5</v>
       </c>
       <c r="U179">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V179">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W179">
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z179">
         <v>-1</v>
       </c>
       <c r="AA179">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB179">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16826,7 +16826,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
         <v>39</v>
@@ -16992,7 +16992,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6803124</v>
+        <v>6803125</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17004,46 +17004,46 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G186" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K186">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="L186">
         <v>3.4</v>
       </c>
       <c r="M186">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="N186">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="O186">
         <v>3.5</v>
       </c>
       <c r="P186">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q186">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R186">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S186">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T186">
         <v>2.5</v>
@@ -17055,19 +17055,19 @@
         <v>1.95</v>
       </c>
       <c r="W186">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z186">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB186">
         <v>-1</v>
@@ -17081,7 +17081,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6803125</v>
+        <v>6803127</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17093,76 +17093,76 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G187" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="I187">
         <v>0</v>
       </c>
-      <c r="I187">
+      <c r="J187" t="s">
+        <v>46</v>
+      </c>
+      <c r="K187">
+        <v>1.6</v>
+      </c>
+      <c r="L187">
+        <v>4</v>
+      </c>
+      <c r="M187">
+        <v>5</v>
+      </c>
+      <c r="N187">
+        <v>1.45</v>
+      </c>
+      <c r="O187">
+        <v>4.333</v>
+      </c>
+      <c r="P187">
+        <v>6</v>
+      </c>
+      <c r="Q187">
+        <v>-1</v>
+      </c>
+      <c r="R187">
+        <v>1.875</v>
+      </c>
+      <c r="S187">
+        <v>1.975</v>
+      </c>
+      <c r="T187">
+        <v>2.75</v>
+      </c>
+      <c r="U187">
+        <v>1.85</v>
+      </c>
+      <c r="V187">
+        <v>2</v>
+      </c>
+      <c r="W187">
+        <v>0.45</v>
+      </c>
+      <c r="X187">
+        <v>-1</v>
+      </c>
+      <c r="Y187">
+        <v>-1</v>
+      </c>
+      <c r="Z187">
+        <v>0</v>
+      </c>
+      <c r="AA187">
+        <v>-0</v>
+      </c>
+      <c r="AB187">
+        <v>-1</v>
+      </c>
+      <c r="AC187">
         <v>1</v>
-      </c>
-      <c r="J187" t="s">
-        <v>45</v>
-      </c>
-      <c r="K187">
-        <v>1.8</v>
-      </c>
-      <c r="L187">
-        <v>3.4</v>
-      </c>
-      <c r="M187">
-        <v>4.2</v>
-      </c>
-      <c r="N187">
-        <v>1.7</v>
-      </c>
-      <c r="O187">
-        <v>3.5</v>
-      </c>
-      <c r="P187">
-        <v>4.5</v>
-      </c>
-      <c r="Q187">
-        <v>-0.75</v>
-      </c>
-      <c r="R187">
-        <v>1.975</v>
-      </c>
-      <c r="S187">
-        <v>1.875</v>
-      </c>
-      <c r="T187">
-        <v>2.5</v>
-      </c>
-      <c r="U187">
-        <v>1.9</v>
-      </c>
-      <c r="V187">
-        <v>1.95</v>
-      </c>
-      <c r="W187">
-        <v>-1</v>
-      </c>
-      <c r="X187">
-        <v>-1</v>
-      </c>
-      <c r="Y187">
-        <v>3.5</v>
-      </c>
-      <c r="Z187">
-        <v>-1</v>
-      </c>
-      <c r="AA187">
-        <v>0.875</v>
-      </c>
-      <c r="AB187">
-        <v>-1</v>
-      </c>
-      <c r="AC187">
-        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17170,7 +17170,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6803127</v>
+        <v>6803124</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17182,13 +17182,13 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G188" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -17197,43 +17197,43 @@
         <v>46</v>
       </c>
       <c r="K188">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="L188">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M188">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="N188">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="O188">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P188">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S188">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T188">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V188">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W188">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17242,16 +17242,16 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA188">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17363,7 +17363,7 @@
         <v>39</v>
       </c>
       <c r="G190" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         <v>40</v>
       </c>
       <c r="G192" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17719,7 +17719,7 @@
         <v>35</v>
       </c>
       <c r="G194" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H194">
         <v>2</v>
@@ -17894,7 +17894,7 @@
         <v>45367.45833333334</v>
       </c>
       <c r="F196" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G196" t="s">
         <v>41</v>
@@ -18505,7 +18505,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6803139</v>
+        <v>6803138</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18517,76 +18517,76 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F203" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G203" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
         <v>2</v>
       </c>
-      <c r="I203">
-        <v>0</v>
-      </c>
       <c r="J203" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K203">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L203">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M203">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="N203">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="O203">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P203">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q203">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R203">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S203">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T203">
         <v>2.5</v>
       </c>
       <c r="U203">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V203">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W203">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X203">
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z203">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA203">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB203">
         <v>-1</v>
       </c>
       <c r="AC203">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18594,7 +18594,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6803138</v>
+        <v>6803139</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18606,76 +18606,76 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F204" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G204" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H204">
+        <v>2</v>
+      </c>
+      <c r="I204">
         <v>0</v>
       </c>
-      <c r="I204">
+      <c r="J204" t="s">
+        <v>46</v>
+      </c>
+      <c r="K204">
+        <v>2.1</v>
+      </c>
+      <c r="L204">
+        <v>3.4</v>
+      </c>
+      <c r="M204">
+        <v>3.5</v>
+      </c>
+      <c r="N204">
+        <v>2.25</v>
+      </c>
+      <c r="O204">
+        <v>3.25</v>
+      </c>
+      <c r="P204">
+        <v>3.3</v>
+      </c>
+      <c r="Q204">
+        <v>-0.25</v>
+      </c>
+      <c r="R204">
+        <v>1.85</v>
+      </c>
+      <c r="S204">
         <v>2</v>
-      </c>
-      <c r="J204" t="s">
-        <v>45</v>
-      </c>
-      <c r="K204">
-        <v>1.615</v>
-      </c>
-      <c r="L204">
-        <v>4</v>
-      </c>
-      <c r="M204">
-        <v>5.25</v>
-      </c>
-      <c r="N204">
-        <v>1.7</v>
-      </c>
-      <c r="O204">
-        <v>4</v>
-      </c>
-      <c r="P204">
-        <v>5</v>
-      </c>
-      <c r="Q204">
-        <v>-0.75</v>
-      </c>
-      <c r="R204">
-        <v>1.875</v>
-      </c>
-      <c r="S204">
-        <v>1.975</v>
       </c>
       <c r="T204">
         <v>2.5</v>
       </c>
       <c r="U204">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V204">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W204">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA204">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
         <v>-1</v>
       </c>
       <c r="AC204">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18876,7 +18876,7 @@
         <v>35</v>
       </c>
       <c r="G207" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H207">
         <v>3</v>
@@ -19229,10 +19229,10 @@
         <v>45388.41666666666</v>
       </c>
       <c r="F211" t="s">
+        <v>37</v>
+      </c>
+      <c r="G211" t="s">
         <v>38</v>
-      </c>
-      <c r="G211" t="s">
-        <v>37</v>
       </c>
       <c r="H211">
         <v>3</v>
@@ -19484,7 +19484,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6803146</v>
+        <v>6803144</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19496,55 +19496,55 @@
         <v>45389.41666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G214" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
         <v>45</v>
       </c>
       <c r="K214">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="L214">
         <v>3.2</v>
       </c>
       <c r="M214">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="N214">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O214">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P214">
+        <v>3.6</v>
+      </c>
+      <c r="Q214">
+        <v>-0.25</v>
+      </c>
+      <c r="R214">
+        <v>1.8</v>
+      </c>
+      <c r="S214">
+        <v>2.05</v>
+      </c>
+      <c r="T214">
         <v>2.5</v>
       </c>
-      <c r="Q214">
-        <v>0</v>
-      </c>
-      <c r="R214">
-        <v>2.025</v>
-      </c>
-      <c r="S214">
-        <v>1.825</v>
-      </c>
-      <c r="T214">
-        <v>2.75</v>
-      </c>
       <c r="U214">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V214">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -19553,19 +19553,19 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB214">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19573,7 +19573,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6803145</v>
+        <v>6803146</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19585,76 +19585,76 @@
         <v>45389.41666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G215" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J215" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K215">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L215">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M215">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="N215">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="O215">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P215">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q215">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R215">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S215">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T215">
         <v>2.75</v>
       </c>
       <c r="U215">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V215">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC215">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19662,7 +19662,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6803144</v>
+        <v>6803145</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19674,49 +19674,49 @@
         <v>45389.41666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G216" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216">
         <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K216">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L216">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M216">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N216">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O216">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P216">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q216">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R216">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S216">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T216">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U216">
         <v>1.925</v>
@@ -19728,16 +19728,16 @@
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y216">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB216">
         <v>-1</v>
@@ -20196,7 +20196,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6803150</v>
+        <v>6803149</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20211,46 +20211,46 @@
         <v>37</v>
       </c>
       <c r="G222" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H222">
         <v>1</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K222">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L222">
         <v>3.3</v>
       </c>
       <c r="M222">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N222">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O222">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P222">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q222">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R222">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S222">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T222">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U222">
         <v>1.85</v>
@@ -20259,19 +20259,19 @@
         <v>2</v>
       </c>
       <c r="W222">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X222">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB222">
         <v>-1</v>
@@ -20285,7 +20285,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6803149</v>
+        <v>6803150</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20300,46 +20300,46 @@
         <v>38</v>
       </c>
       <c r="G223" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H223">
         <v>1</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K223">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L223">
         <v>3.3</v>
       </c>
       <c r="M223">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N223">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O223">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P223">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q223">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R223">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S223">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T223">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U223">
         <v>1.85</v>
@@ -20348,19 +20348,19 @@
         <v>2</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X223">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA223">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
         <v>-1</v>
@@ -20552,7 +20552,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6901377</v>
+        <v>6907696</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20561,49 +20561,49 @@
         <v>28</v>
       </c>
       <c r="E226" s="2">
-        <v>45402.41666666666</v>
+        <v>45403.54166666666</v>
       </c>
       <c r="F226" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G226" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K226">
+        <v>3.3</v>
+      </c>
+      <c r="L226">
+        <v>3.4</v>
+      </c>
+      <c r="M226">
+        <v>2.15</v>
+      </c>
+      <c r="N226">
         <v>2.875</v>
       </c>
-      <c r="L226">
+      <c r="O226">
         <v>3.3</v>
       </c>
-      <c r="M226">
+      <c r="P226">
         <v>2.45</v>
-      </c>
-      <c r="N226">
-        <v>2.625</v>
-      </c>
-      <c r="O226">
-        <v>3.4</v>
-      </c>
-      <c r="P226">
-        <v>2.55</v>
       </c>
       <c r="Q226">
         <v>0</v>
       </c>
       <c r="R226">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S226">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T226">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U226">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V226">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W226">
         <v>0</v>
@@ -20618,524 +20618,6 @@
         <v>0</v>
       </c>
       <c r="AA226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:29">
-      <c r="A227" s="1">
-        <v>225</v>
-      </c>
-      <c r="B227">
-        <v>6803154</v>
-      </c>
-      <c r="C227" t="s">
-        <v>28</v>
-      </c>
-      <c r="D227" t="s">
-        <v>28</v>
-      </c>
-      <c r="E227" s="2">
-        <v>45402.41666666666</v>
-      </c>
-      <c r="F227" t="s">
-        <v>44</v>
-      </c>
-      <c r="G227" t="s">
-        <v>38</v>
-      </c>
-      <c r="K227">
-        <v>1.7</v>
-      </c>
-      <c r="L227">
-        <v>4</v>
-      </c>
-      <c r="M227">
-        <v>4.5</v>
-      </c>
-      <c r="N227">
-        <v>2.05</v>
-      </c>
-      <c r="O227">
-        <v>3.5</v>
-      </c>
-      <c r="P227">
-        <v>3.4</v>
-      </c>
-      <c r="Q227">
-        <v>-0.5</v>
-      </c>
-      <c r="R227">
-        <v>2.05</v>
-      </c>
-      <c r="S227">
-        <v>1.8</v>
-      </c>
-      <c r="T227">
-        <v>2.5</v>
-      </c>
-      <c r="U227">
-        <v>1.925</v>
-      </c>
-      <c r="V227">
-        <v>1.925</v>
-      </c>
-      <c r="W227">
-        <v>0</v>
-      </c>
-      <c r="X227">
-        <v>0</v>
-      </c>
-      <c r="Y227">
-        <v>0</v>
-      </c>
-      <c r="Z227">
-        <v>0</v>
-      </c>
-      <c r="AA227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:29">
-      <c r="A228" s="1">
-        <v>226</v>
-      </c>
-      <c r="B228">
-        <v>6848326</v>
-      </c>
-      <c r="C228" t="s">
-        <v>28</v>
-      </c>
-      <c r="D228" t="s">
-        <v>28</v>
-      </c>
-      <c r="E228" s="2">
-        <v>45402.41666666666</v>
-      </c>
-      <c r="F228" t="s">
-        <v>36</v>
-      </c>
-      <c r="G228" t="s">
-        <v>39</v>
-      </c>
-      <c r="K228">
-        <v>1.444</v>
-      </c>
-      <c r="L228">
-        <v>5</v>
-      </c>
-      <c r="M228">
-        <v>6.5</v>
-      </c>
-      <c r="N228">
-        <v>1.333</v>
-      </c>
-      <c r="O228">
-        <v>5.5</v>
-      </c>
-      <c r="P228">
-        <v>7.5</v>
-      </c>
-      <c r="Q228">
-        <v>-1.5</v>
-      </c>
-      <c r="R228">
-        <v>1.975</v>
-      </c>
-      <c r="S228">
-        <v>1.875</v>
-      </c>
-      <c r="T228">
-        <v>3</v>
-      </c>
-      <c r="U228">
-        <v>1.925</v>
-      </c>
-      <c r="V228">
-        <v>1.925</v>
-      </c>
-      <c r="W228">
-        <v>0</v>
-      </c>
-      <c r="X228">
-        <v>0</v>
-      </c>
-      <c r="Y228">
-        <v>0</v>
-      </c>
-      <c r="Z228">
-        <v>0</v>
-      </c>
-      <c r="AA228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:29">
-      <c r="A229" s="1">
-        <v>227</v>
-      </c>
-      <c r="B229">
-        <v>6838627</v>
-      </c>
-      <c r="C229" t="s">
-        <v>28</v>
-      </c>
-      <c r="D229" t="s">
-        <v>28</v>
-      </c>
-      <c r="E229" s="2">
-        <v>45402.54166666666</v>
-      </c>
-      <c r="F229" t="s">
-        <v>30</v>
-      </c>
-      <c r="G229" t="s">
-        <v>40</v>
-      </c>
-      <c r="K229">
-        <v>1.75</v>
-      </c>
-      <c r="L229">
-        <v>3.75</v>
-      </c>
-      <c r="M229">
-        <v>4.5</v>
-      </c>
-      <c r="N229">
-        <v>1.666</v>
-      </c>
-      <c r="O229">
-        <v>3.8</v>
-      </c>
-      <c r="P229">
-        <v>5</v>
-      </c>
-      <c r="Q229">
-        <v>-0.75</v>
-      </c>
-      <c r="R229">
-        <v>1.875</v>
-      </c>
-      <c r="S229">
-        <v>1.975</v>
-      </c>
-      <c r="T229">
-        <v>2.5</v>
-      </c>
-      <c r="U229">
-        <v>1.825</v>
-      </c>
-      <c r="V229">
-        <v>2.025</v>
-      </c>
-      <c r="W229">
-        <v>0</v>
-      </c>
-      <c r="X229">
-        <v>0</v>
-      </c>
-      <c r="Y229">
-        <v>0</v>
-      </c>
-      <c r="Z229">
-        <v>0</v>
-      </c>
-      <c r="AA229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:29">
-      <c r="A230" s="1">
-        <v>228</v>
-      </c>
-      <c r="B230">
-        <v>6803153</v>
-      </c>
-      <c r="C230" t="s">
-        <v>28</v>
-      </c>
-      <c r="D230" t="s">
-        <v>28</v>
-      </c>
-      <c r="E230" s="2">
-        <v>45403.41666666666</v>
-      </c>
-      <c r="F230" t="s">
-        <v>29</v>
-      </c>
-      <c r="G230" t="s">
-        <v>35</v>
-      </c>
-      <c r="K230">
-        <v>2.7</v>
-      </c>
-      <c r="L230">
-        <v>3.4</v>
-      </c>
-      <c r="M230">
-        <v>2.5</v>
-      </c>
-      <c r="N230">
-        <v>2.5</v>
-      </c>
-      <c r="O230">
-        <v>3.4</v>
-      </c>
-      <c r="P230">
-        <v>2.7</v>
-      </c>
-      <c r="Q230">
-        <v>0</v>
-      </c>
-      <c r="R230">
-        <v>1.875</v>
-      </c>
-      <c r="S230">
-        <v>1.975</v>
-      </c>
-      <c r="T230">
-        <v>2.75</v>
-      </c>
-      <c r="U230">
-        <v>2</v>
-      </c>
-      <c r="V230">
-        <v>1.85</v>
-      </c>
-      <c r="W230">
-        <v>0</v>
-      </c>
-      <c r="X230">
-        <v>0</v>
-      </c>
-      <c r="Y230">
-        <v>0</v>
-      </c>
-      <c r="Z230">
-        <v>0</v>
-      </c>
-      <c r="AA230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:29">
-      <c r="A231" s="1">
-        <v>229</v>
-      </c>
-      <c r="B231">
-        <v>6879083</v>
-      </c>
-      <c r="C231" t="s">
-        <v>28</v>
-      </c>
-      <c r="D231" t="s">
-        <v>28</v>
-      </c>
-      <c r="E231" s="2">
-        <v>45403.41666666666</v>
-      </c>
-      <c r="F231" t="s">
-        <v>32</v>
-      </c>
-      <c r="G231" t="s">
-        <v>37</v>
-      </c>
-      <c r="K231">
-        <v>1.181</v>
-      </c>
-      <c r="L231">
-        <v>7</v>
-      </c>
-      <c r="M231">
-        <v>13</v>
-      </c>
-      <c r="N231">
-        <v>1.181</v>
-      </c>
-      <c r="O231">
-        <v>7</v>
-      </c>
-      <c r="P231">
-        <v>13</v>
-      </c>
-      <c r="Q231">
-        <v>-2</v>
-      </c>
-      <c r="R231">
-        <v>1.975</v>
-      </c>
-      <c r="S231">
-        <v>1.875</v>
-      </c>
-      <c r="T231">
-        <v>3</v>
-      </c>
-      <c r="U231">
-        <v>1.825</v>
-      </c>
-      <c r="V231">
-        <v>2.025</v>
-      </c>
-      <c r="W231">
-        <v>0</v>
-      </c>
-      <c r="X231">
-        <v>0</v>
-      </c>
-      <c r="Y231">
-        <v>0</v>
-      </c>
-      <c r="Z231">
-        <v>0</v>
-      </c>
-      <c r="AA231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:29">
-      <c r="A232" s="1">
-        <v>230</v>
-      </c>
-      <c r="B232">
-        <v>6905894</v>
-      </c>
-      <c r="C232" t="s">
-        <v>28</v>
-      </c>
-      <c r="D232" t="s">
-        <v>28</v>
-      </c>
-      <c r="E232" s="2">
-        <v>45403.41666666666</v>
-      </c>
-      <c r="F232" t="s">
-        <v>34</v>
-      </c>
-      <c r="G232" t="s">
-        <v>43</v>
-      </c>
-      <c r="K232">
-        <v>1.833</v>
-      </c>
-      <c r="L232">
-        <v>3.6</v>
-      </c>
-      <c r="M232">
-        <v>4.2</v>
-      </c>
-      <c r="N232">
-        <v>1.7</v>
-      </c>
-      <c r="O232">
-        <v>3.75</v>
-      </c>
-      <c r="P232">
-        <v>4.75</v>
-      </c>
-      <c r="Q232">
-        <v>-0.75</v>
-      </c>
-      <c r="R232">
-        <v>1.975</v>
-      </c>
-      <c r="S232">
-        <v>1.875</v>
-      </c>
-      <c r="T232">
-        <v>2.5</v>
-      </c>
-      <c r="U232">
-        <v>1.975</v>
-      </c>
-      <c r="V232">
-        <v>1.875</v>
-      </c>
-      <c r="W232">
-        <v>0</v>
-      </c>
-      <c r="X232">
-        <v>0</v>
-      </c>
-      <c r="Y232">
-        <v>0</v>
-      </c>
-      <c r="Z232">
-        <v>0</v>
-      </c>
-      <c r="AA232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:29">
-      <c r="A233" s="1">
-        <v>231</v>
-      </c>
-      <c r="B233">
-        <v>6907696</v>
-      </c>
-      <c r="C233" t="s">
-        <v>28</v>
-      </c>
-      <c r="D233" t="s">
-        <v>28</v>
-      </c>
-      <c r="E233" s="2">
-        <v>45403.54166666666</v>
-      </c>
-      <c r="F233" t="s">
-        <v>33</v>
-      </c>
-      <c r="G233" t="s">
-        <v>42</v>
-      </c>
-      <c r="K233">
-        <v>3.3</v>
-      </c>
-      <c r="L233">
-        <v>3.4</v>
-      </c>
-      <c r="M233">
-        <v>2.15</v>
-      </c>
-      <c r="N233">
-        <v>2.6</v>
-      </c>
-      <c r="O233">
-        <v>3.4</v>
-      </c>
-      <c r="P233">
-        <v>2.6</v>
-      </c>
-      <c r="Q233">
-        <v>0</v>
-      </c>
-      <c r="R233">
-        <v>1.9</v>
-      </c>
-      <c r="S233">
-        <v>1.95</v>
-      </c>
-      <c r="T233">
-        <v>2.5</v>
-      </c>
-      <c r="U233">
-        <v>1.9</v>
-      </c>
-      <c r="V233">
-        <v>1.95</v>
-      </c>
-      <c r="W233">
-        <v>0</v>
-      </c>
-      <c r="X233">
-        <v>0</v>
-      </c>
-      <c r="Y233">
-        <v>0</v>
-      </c>
-      <c r="Z233">
-        <v>0</v>
-      </c>
-      <c r="AA233">
         <v>0</v>
       </c>
     </row>

--- a/Czech Republic First League/Czech Republic First League.xlsx
+++ b/Czech Republic First League/Czech Republic First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -95,30 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>6803155</t>
-  </si>
-  <si>
-    <t>6803156</t>
-  </si>
-  <si>
-    <t>6851035</t>
-  </si>
-  <si>
-    <t>6885525</t>
-  </si>
-  <si>
-    <t>6888054</t>
-  </si>
-  <si>
-    <t>6901954</t>
-  </si>
-  <si>
-    <t>6919939</t>
-  </si>
-  <si>
-    <t>6919940</t>
   </si>
   <si>
     <t>Czech Republic First League</t>
@@ -540,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB241"/>
+  <dimension ref="A1:AB233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,16 +613,16 @@
         <v>6802933</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45129.41666666666</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -655,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J2">
         <v>2.3</v>
@@ -723,16 +699,16 @@
         <v>6802936</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45129.41666666666</v>
       </c>
       <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
         <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -741,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J3">
         <v>2.4</v>
@@ -809,16 +785,16 @@
         <v>6802937</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45129.41666666666</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -827,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J4">
         <v>4.5</v>
@@ -895,16 +871,16 @@
         <v>6802939</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45129.54166666666</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -913,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J5">
         <v>1.142</v>
@@ -981,16 +957,16 @@
         <v>6802938</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45130.41666666666</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -999,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J6">
         <v>2.1</v>
@@ -1067,16 +1043,16 @@
         <v>6802940</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45130.41666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -1085,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J7">
         <v>1.5</v>
@@ -1153,16 +1129,16 @@
         <v>6802934</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45130.41666666666</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1171,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J8">
         <v>1.833</v>
@@ -1239,16 +1215,16 @@
         <v>6802935</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45130.54166666666</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1257,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J9">
         <v>1.333</v>
@@ -1325,16 +1301,16 @@
         <v>6802945</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45136.41666666666</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1343,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J10">
         <v>1.666</v>
@@ -1411,16 +1387,16 @@
         <v>6802948</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45136.41666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1429,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J11">
         <v>2.1</v>
@@ -1497,16 +1473,16 @@
         <v>6802947</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45136.41666666666</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1515,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J12">
         <v>5.5</v>
@@ -1583,16 +1559,16 @@
         <v>6802943</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45136.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1601,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J13">
         <v>2.375</v>
@@ -1669,16 +1645,16 @@
         <v>6802942</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45137.41666666666</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1687,7 +1663,7 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J14">
         <v>7</v>
@@ -1755,16 +1731,16 @@
         <v>6802946</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45137.41666666666</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1773,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J15">
         <v>1.85</v>
@@ -1841,16 +1817,16 @@
         <v>6802944</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45137.41666666666</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1859,7 +1835,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J16">
         <v>1.533</v>
@@ -1927,16 +1903,16 @@
         <v>6802941</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45137.54166666666</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1945,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J17">
         <v>1.333</v>
@@ -2010,85 +1986,85 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6802952</v>
+        <v>6802951</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45143.41666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J18">
-        <v>2.8</v>
+        <v>1.166</v>
       </c>
       <c r="K18">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="L18">
-        <v>2.25</v>
+        <v>15</v>
       </c>
       <c r="M18">
-        <v>3.6</v>
+        <v>1.111</v>
       </c>
       <c r="N18">
+        <v>7.5</v>
+      </c>
+      <c r="O18">
+        <v>17</v>
+      </c>
+      <c r="P18">
+        <v>-2.25</v>
+      </c>
+      <c r="Q18">
+        <v>1.85</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
         <v>3.5</v>
       </c>
-      <c r="O18">
-        <v>1.909</v>
-      </c>
-      <c r="P18">
-        <v>0.5</v>
-      </c>
-      <c r="Q18">
-        <v>1.875</v>
-      </c>
-      <c r="R18">
-        <v>1.975</v>
-      </c>
-      <c r="S18">
-        <v>2.75</v>
-      </c>
       <c r="T18">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V18">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AB18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2096,85 +2072,85 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6802956</v>
+        <v>6802952</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45143.41666666666</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
         <v>44</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19" t="s">
-        <v>52</v>
-      </c>
       <c r="J19">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="K19">
         <v>3.4</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="M19">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="N19">
         <v>3.5</v>
       </c>
       <c r="O19">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="P19">
+        <v>0.5</v>
+      </c>
+      <c r="Q19">
+        <v>1.875</v>
+      </c>
+      <c r="R19">
+        <v>1.975</v>
+      </c>
+      <c r="S19">
+        <v>2.75</v>
+      </c>
+      <c r="T19">
+        <v>1.9</v>
+      </c>
+      <c r="U19">
+        <v>1.95</v>
+      </c>
+      <c r="V19">
+        <v>-1</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>0.909</v>
+      </c>
+      <c r="Y19">
+        <v>-1</v>
+      </c>
+      <c r="Z19">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA19">
+        <v>0.45</v>
+      </c>
+      <c r="AB19">
         <v>-0.5</v>
-      </c>
-      <c r="Q19">
-        <v>1.8</v>
-      </c>
-      <c r="R19">
-        <v>2.05</v>
-      </c>
-      <c r="S19">
-        <v>2.25</v>
-      </c>
-      <c r="T19">
-        <v>1.85</v>
-      </c>
-      <c r="U19">
-        <v>2</v>
-      </c>
-      <c r="V19">
-        <v>-1</v>
-      </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
-      <c r="X19">
-        <v>3.5</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
-      <c r="Z19">
-        <v>1.05</v>
-      </c>
-      <c r="AA19">
-        <v>-0.5</v>
-      </c>
-      <c r="AB19">
-        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2182,85 +2158,85 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6802951</v>
+        <v>6802956</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45143.41666666666</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
         <v>36</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J20">
-        <v>1.166</v>
+        <v>1.909</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>3.75</v>
       </c>
       <c r="M20">
-        <v>1.111</v>
+        <v>1.75</v>
       </c>
       <c r="N20">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="O20">
-        <v>17</v>
+        <v>4.5</v>
       </c>
       <c r="P20">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q20">
+        <v>1.8</v>
+      </c>
+      <c r="R20">
+        <v>2.05</v>
+      </c>
+      <c r="S20">
+        <v>2.25</v>
+      </c>
+      <c r="T20">
         <v>1.85</v>
       </c>
-      <c r="R20">
-        <v>2</v>
-      </c>
-      <c r="S20">
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>-1</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
         <v>3.5</v>
       </c>
-      <c r="T20">
-        <v>1.825</v>
-      </c>
-      <c r="U20">
-        <v>2.025</v>
-      </c>
-      <c r="V20">
-        <v>0.111</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
       <c r="Y20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA20">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2271,16 +2247,16 @@
         <v>6802949</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45143.54166666666</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -2289,7 +2265,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J21">
         <v>1.75</v>
@@ -2357,16 +2333,16 @@
         <v>6802954</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45144.41666666666</v>
       </c>
       <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" t="s">
         <v>40</v>
-      </c>
-      <c r="F22" t="s">
-        <v>48</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2375,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J22">
         <v>2.1</v>
@@ -2443,16 +2419,16 @@
         <v>6802953</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45144.41666666666</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2461,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J23">
         <v>2.625</v>
@@ -2529,16 +2505,16 @@
         <v>6802950</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45144.41666666666</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -2547,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J24">
         <v>1.5</v>
@@ -2615,25 +2591,25 @@
         <v>6802955</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45144.54166666666</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
         <v>45</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>53</v>
       </c>
       <c r="J25">
         <v>1.125</v>
@@ -2701,16 +2677,16 @@
         <v>6802962</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45150.41666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2719,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J26">
         <v>2.6</v>
@@ -2787,16 +2763,16 @@
         <v>6802958</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45150.41666666666</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2805,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J27">
         <v>1.666</v>
@@ -2873,16 +2849,16 @@
         <v>6802964</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45150.54166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2891,7 +2867,7 @@
         <v>5</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J28">
         <v>4.333</v>
@@ -2959,16 +2935,16 @@
         <v>6802963</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45151.41666666666</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2977,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J29">
         <v>1.909</v>
@@ -3045,16 +3021,16 @@
         <v>6802961</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45151.41666666666</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3063,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J30">
         <v>5</v>
@@ -3131,16 +3107,16 @@
         <v>6802960</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45151.41666666666</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -3149,7 +3125,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J31">
         <v>1.5</v>
@@ -3217,16 +3193,16 @@
         <v>6802959</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45151.41666666666</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3235,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J32">
         <v>2.4</v>
@@ -3303,16 +3279,16 @@
         <v>6802957</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45151.54166666666</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3321,7 +3297,7 @@
         <v>5</v>
       </c>
       <c r="I33" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J33">
         <v>4.333</v>
@@ -3389,16 +3365,16 @@
         <v>6802971</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3407,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J34">
         <v>2.5</v>
@@ -3475,16 +3451,16 @@
         <v>6802970</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3493,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J35">
         <v>1.75</v>
@@ -3561,16 +3537,16 @@
         <v>6802968</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3579,7 +3555,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J36">
         <v>1.75</v>
@@ -3647,16 +3623,16 @@
         <v>6802972</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45157.54166666666</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3665,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J37">
         <v>5.5</v>
@@ -3733,16 +3709,16 @@
         <v>6802966</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45158.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3751,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J38">
         <v>3</v>
@@ -3819,16 +3795,16 @@
         <v>6802967</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45158.41666666666</v>
       </c>
       <c r="E39" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3837,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J39">
         <v>1.55</v>
@@ -3905,16 +3881,16 @@
         <v>6802969</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45158.41666666666</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3923,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J40">
         <v>1.85</v>
@@ -3991,16 +3967,16 @@
         <v>6802965</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45158.54166666666</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -4009,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J41">
         <v>1.181</v>
@@ -4077,16 +4053,16 @@
         <v>6802980</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4095,7 +4071,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J42">
         <v>3</v>
@@ -4163,25 +4139,25 @@
         <v>6802977</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
         <v>45</v>
-      </c>
-      <c r="F43" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43">
-        <v>2</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43" t="s">
-        <v>53</v>
       </c>
       <c r="J43">
         <v>2.05</v>
@@ -4249,16 +4225,16 @@
         <v>7098153</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4267,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J44">
         <v>1.533</v>
@@ -4332,85 +4308,85 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7098155</v>
+        <v>6802973</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45165.41666666666</v>
       </c>
       <c r="E45" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J45">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="K45">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="L45">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="M45">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="N45">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O45">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="P45">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q45">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R45">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S45">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T45">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U45">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W45">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB45">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -4418,58 +4394,58 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6802978</v>
+        <v>7098155</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45165.41666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J46">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="K46">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="L46">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="M46">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="N46">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O46">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="P46">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q46">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R46">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S46">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T46">
         <v>2.025</v>
@@ -4478,16 +4454,16 @@
         <v>1.825</v>
       </c>
       <c r="V46">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="Z46">
         <v>-1</v>
@@ -4504,67 +4480,67 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6802973</v>
+        <v>6802978</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45165.41666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G47">
         <v>2</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J47">
+        <v>1.85</v>
+      </c>
+      <c r="K47">
+        <v>3.4</v>
+      </c>
+      <c r="L47">
+        <v>3.8</v>
+      </c>
+      <c r="M47">
         <v>1.75</v>
-      </c>
-      <c r="K47">
-        <v>3.6</v>
-      </c>
-      <c r="L47">
-        <v>4</v>
-      </c>
-      <c r="M47">
-        <v>1.85</v>
       </c>
       <c r="N47">
         <v>3.5</v>
       </c>
       <c r="O47">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P47">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q47">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R47">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S47">
         <v>2.75</v>
       </c>
       <c r="T47">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V47">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4573,16 +4549,16 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -4593,16 +4569,16 @@
         <v>7098154</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45165.54166666666</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4611,7 +4587,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J48">
         <v>1.166</v>
@@ -4679,16 +4655,16 @@
         <v>6802984</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45171.41666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4697,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J49">
         <v>1.444</v>
@@ -4765,16 +4741,16 @@
         <v>6802986</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45171.41666666666</v>
       </c>
       <c r="E50" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F50" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4783,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J50">
         <v>2.5</v>
@@ -4851,16 +4827,16 @@
         <v>6802988</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45171.41666666666</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4869,7 +4845,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J51">
         <v>2.2</v>
@@ -4937,16 +4913,16 @@
         <v>6802983</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45171.54166666666</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4955,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J52">
         <v>2.05</v>
@@ -5023,16 +4999,16 @@
         <v>6802987</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5041,7 +5017,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J53">
         <v>4.5</v>
@@ -5109,16 +5085,16 @@
         <v>6802981</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E54" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F54" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5127,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J54">
         <v>1.45</v>
@@ -5195,16 +5171,16 @@
         <v>6802985</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45172.54166666666</v>
       </c>
       <c r="E55" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -5213,7 +5189,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J55">
         <v>1.1</v>
@@ -5281,16 +5257,16 @@
         <v>6802982</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45172.625</v>
       </c>
       <c r="E56" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F56" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5299,7 +5275,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J56">
         <v>2.45</v>
@@ -5364,58 +5340,58 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6802992</v>
+        <v>6802991</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E57" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J57">
-        <v>2.25</v>
+        <v>1.55</v>
       </c>
       <c r="K57">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L57">
+        <v>5.5</v>
+      </c>
+      <c r="M57">
+        <v>1.5</v>
+      </c>
+      <c r="N57">
+        <v>4</v>
+      </c>
+      <c r="O57">
+        <v>6.5</v>
+      </c>
+      <c r="P57">
+        <v>-1</v>
+      </c>
+      <c r="Q57">
+        <v>1.85</v>
+      </c>
+      <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
         <v>3</v>
-      </c>
-      <c r="M57">
-        <v>2.3</v>
-      </c>
-      <c r="N57">
-        <v>3.4</v>
-      </c>
-      <c r="O57">
-        <v>3</v>
-      </c>
-      <c r="P57">
-        <v>-0.25</v>
-      </c>
-      <c r="Q57">
-        <v>2</v>
-      </c>
-      <c r="R57">
-        <v>1.85</v>
-      </c>
-      <c r="S57">
-        <v>2.75</v>
       </c>
       <c r="T57">
         <v>1.975</v>
@@ -5424,25 +5400,25 @@
         <v>1.875</v>
       </c>
       <c r="V57">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W57">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z57">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB57">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -5450,58 +5426,58 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6802991</v>
+        <v>6802992</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F58" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J58">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="K58">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L58">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M58">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="N58">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O58">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q58">
+        <v>2</v>
+      </c>
+      <c r="R58">
         <v>1.85</v>
       </c>
-      <c r="R58">
-        <v>2</v>
-      </c>
       <c r="S58">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T58">
         <v>1.975</v>
@@ -5510,25 +5486,25 @@
         <v>1.875</v>
       </c>
       <c r="V58">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z58">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -5539,16 +5515,16 @@
         <v>6802989</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" t="s">
         <v>42</v>
-      </c>
-      <c r="F59" t="s">
-        <v>50</v>
       </c>
       <c r="G59">
         <v>5</v>
@@ -5557,7 +5533,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J59">
         <v>1.7</v>
@@ -5625,16 +5601,16 @@
         <v>6802993</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E60" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5643,7 +5619,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J60">
         <v>2.5</v>
@@ -5711,16 +5687,16 @@
         <v>6802995</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45185.54166666666</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5729,7 +5705,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J61">
         <v>10</v>
@@ -5797,16 +5773,16 @@
         <v>6802994</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45186.41666666666</v>
       </c>
       <c r="E62" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5815,7 +5791,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J62">
         <v>2.35</v>
@@ -5883,16 +5859,16 @@
         <v>6802990</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45186.41666666666</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F63" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5901,7 +5877,7 @@
         <v>7</v>
       </c>
       <c r="I63" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J63">
         <v>5</v>
@@ -5969,16 +5945,16 @@
         <v>6802996</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45186.54166666666</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G64">
         <v>5</v>
@@ -5987,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J64">
         <v>1.5</v>
@@ -6055,16 +6031,16 @@
         <v>6802999</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E65" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F65" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6073,7 +6049,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J65">
         <v>3.1</v>
@@ -6141,16 +6117,16 @@
         <v>6803000</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E66" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G66">
         <v>5</v>
@@ -6159,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J66">
         <v>1.45</v>
@@ -6227,16 +6203,16 @@
         <v>6803002</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E67" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G67">
         <v>3</v>
@@ -6245,7 +6221,7 @@
         <v>3</v>
       </c>
       <c r="I67" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J67">
         <v>1.9</v>
@@ -6313,16 +6289,16 @@
         <v>6803004</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6331,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J68">
         <v>1.4</v>
@@ -6399,16 +6375,16 @@
         <v>6803001</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45192.54166666666</v>
       </c>
       <c r="E69" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F69" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -6417,7 +6393,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J69">
         <v>2.5</v>
@@ -6485,16 +6461,16 @@
         <v>6802998</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E70" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G70">
         <v>6</v>
@@ -6503,7 +6479,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J70">
         <v>1.3</v>
@@ -6571,16 +6547,16 @@
         <v>6802997</v>
       </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E71" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F71" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6589,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J71">
         <v>2.1</v>
@@ -6657,16 +6633,16 @@
         <v>6803003</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45193.54166666666</v>
       </c>
       <c r="E72" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F72" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6675,7 +6651,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -6743,16 +6719,16 @@
         <v>6803011</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E73" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G73">
         <v>5</v>
@@ -6761,7 +6737,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J73">
         <v>2.7</v>
@@ -6829,16 +6805,16 @@
         <v>6803009</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E74" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6847,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J74">
         <v>2.875</v>
@@ -6915,16 +6891,16 @@
         <v>6803007</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6933,7 +6909,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J75">
         <v>2.15</v>
@@ -7001,16 +6977,16 @@
         <v>6803005</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -7019,7 +6995,7 @@
         <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J76">
         <v>2.25</v>
@@ -7087,16 +7063,16 @@
         <v>6803010</v>
       </c>
       <c r="C77" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45199.54166666666</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7105,7 +7081,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J77">
         <v>1.727</v>
@@ -7170,55 +7146,55 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6803006</v>
+        <v>6803012</v>
       </c>
       <c r="C78" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J78">
-        <v>1.909</v>
+        <v>9</v>
       </c>
       <c r="K78">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="L78">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="M78">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="N78">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="O78">
-        <v>3.6</v>
+        <v>1.285</v>
       </c>
       <c r="P78">
-        <v>-0.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q78">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R78">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S78">
         <v>2.75</v>
@@ -7230,25 +7206,25 @@
         <v>2</v>
       </c>
       <c r="V78">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -7256,55 +7232,55 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6803012</v>
+        <v>6803006</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E79" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F79" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J79">
-        <v>9</v>
+        <v>1.909</v>
       </c>
       <c r="K79">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="L79">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="M79">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="N79">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="O79">
-        <v>1.285</v>
+        <v>3.6</v>
       </c>
       <c r="P79">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q79">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R79">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S79">
         <v>2.75</v>
@@ -7316,25 +7292,25 @@
         <v>2</v>
       </c>
       <c r="V79">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W79">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB79">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -7345,16 +7321,16 @@
         <v>6803008</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45200.54166666666</v>
       </c>
       <c r="E80" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F80" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7363,7 +7339,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J80">
         <v>2.3</v>
@@ -7431,16 +7407,16 @@
         <v>6803020</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E81" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G81">
         <v>2</v>
@@ -7449,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J81">
         <v>1.55</v>
@@ -7517,16 +7493,16 @@
         <v>6803017</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E82" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F82" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7535,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J82">
         <v>1.6</v>
@@ -7603,16 +7579,16 @@
         <v>6803015</v>
       </c>
       <c r="C83" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E83" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7621,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J83">
         <v>1.95</v>
@@ -7689,16 +7665,16 @@
         <v>6803018</v>
       </c>
       <c r="C84" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G84">
         <v>4</v>
@@ -7707,7 +7683,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J84">
         <v>2.05</v>
@@ -7775,25 +7751,25 @@
         <v>6803016</v>
       </c>
       <c r="C85" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45206.54166666666</v>
       </c>
       <c r="E85" t="s">
+        <v>38</v>
+      </c>
+      <c r="F85" t="s">
+        <v>28</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85" t="s">
         <v>46</v>
-      </c>
-      <c r="F85" t="s">
-        <v>36</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
-      <c r="I85" t="s">
-        <v>54</v>
       </c>
       <c r="J85">
         <v>1.6</v>
@@ -7861,16 +7837,16 @@
         <v>6803013</v>
       </c>
       <c r="C86" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E86" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F86" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7879,7 +7855,7 @@
         <v>3</v>
       </c>
       <c r="I86" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J86">
         <v>7</v>
@@ -7947,16 +7923,16 @@
         <v>6803014</v>
       </c>
       <c r="C87" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45207.54166666666</v>
       </c>
       <c r="E87" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G87">
         <v>3</v>
@@ -7965,7 +7941,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J87">
         <v>1.3</v>
@@ -8033,16 +8009,16 @@
         <v>6803019</v>
       </c>
       <c r="C88" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45207.54166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8051,7 +8027,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J88">
         <v>7</v>
@@ -8119,16 +8095,16 @@
         <v>6803021</v>
       </c>
       <c r="C89" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45220.41666666666</v>
       </c>
       <c r="E89" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G89">
         <v>5</v>
@@ -8137,7 +8113,7 @@
         <v>9</v>
       </c>
       <c r="I89" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J89">
         <v>3.25</v>
@@ -8202,58 +8178,58 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6803027</v>
+        <v>6803025</v>
       </c>
       <c r="C90" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45220.41666666666</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F90" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J90">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="K90">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L90">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="M90">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="N90">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O90">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="P90">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q90">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T90">
         <v>1.875</v>
@@ -8262,7 +8238,7 @@
         <v>1.975</v>
       </c>
       <c r="V90">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="W90">
         <v>-1</v>
@@ -8271,16 +8247,16 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -8288,58 +8264,58 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6803025</v>
+        <v>6803027</v>
       </c>
       <c r="C91" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45220.41666666666</v>
       </c>
       <c r="E91" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F91" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J91">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="K91">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L91">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="M91">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="N91">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O91">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="P91">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q91">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R91">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S91">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T91">
         <v>1.875</v>
@@ -8348,7 +8324,7 @@
         <v>1.975</v>
       </c>
       <c r="V91">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="W91">
         <v>-1</v>
@@ -8357,16 +8333,16 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB91">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8377,17 +8353,17 @@
         <v>6803022</v>
       </c>
       <c r="C92" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45220.41666666666</v>
       </c>
       <c r="E92" t="s">
+        <v>28</v>
+      </c>
+      <c r="F92" t="s">
         <v>36</v>
       </c>
-      <c r="F92" t="s">
-        <v>44</v>
-      </c>
       <c r="G92">
         <v>1</v>
       </c>
@@ -8395,7 +8371,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -8463,16 +8439,16 @@
         <v>6803028</v>
       </c>
       <c r="C93" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45220.54166666666</v>
       </c>
       <c r="E93" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8481,7 +8457,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J93">
         <v>1.3</v>
@@ -8549,16 +8525,16 @@
         <v>6803024</v>
       </c>
       <c r="C94" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45221.41666666666</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F94" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G94">
         <v>4</v>
@@ -8567,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J94">
         <v>1.166</v>
@@ -8635,16 +8611,16 @@
         <v>6803026</v>
       </c>
       <c r="C95" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45221.41666666666</v>
       </c>
       <c r="E95" t="s">
+        <v>30</v>
+      </c>
+      <c r="F95" t="s">
         <v>38</v>
-      </c>
-      <c r="F95" t="s">
-        <v>46</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8653,7 +8629,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J95">
         <v>3</v>
@@ -8721,16 +8697,16 @@
         <v>6803023</v>
       </c>
       <c r="C96" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45221.54166666666</v>
       </c>
       <c r="E96" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F96" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8739,7 +8715,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J96">
         <v>2.375</v>
@@ -8807,16 +8783,16 @@
         <v>6803034</v>
       </c>
       <c r="C97" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45227.41666666666</v>
       </c>
       <c r="E97" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8825,7 +8801,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J97">
         <v>2.05</v>
@@ -8890,70 +8866,70 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6803029</v>
+        <v>6803031</v>
       </c>
       <c r="C98" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45227.41666666666</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J98">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="K98">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L98">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M98">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="N98">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="O98">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="P98">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q98">
+        <v>1.925</v>
+      </c>
+      <c r="R98">
+        <v>1.925</v>
+      </c>
+      <c r="S98">
+        <v>2.5</v>
+      </c>
+      <c r="T98">
+        <v>1.825</v>
+      </c>
+      <c r="U98">
         <v>2.025</v>
       </c>
-      <c r="R98">
-        <v>1.825</v>
-      </c>
-      <c r="S98">
-        <v>3</v>
-      </c>
-      <c r="T98">
-        <v>2.05</v>
-      </c>
-      <c r="U98">
-        <v>1.8</v>
-      </c>
       <c r="V98">
         <v>-1</v>
       </c>
       <c r="W98">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -8962,13 +8938,13 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -8976,70 +8952,70 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6803031</v>
+        <v>6803029</v>
       </c>
       <c r="C99" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45227.41666666666</v>
       </c>
       <c r="E99" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J99">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="K99">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L99">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M99">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="N99">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="O99">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="P99">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="Q99">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="R99">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S99">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T99">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="U99">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V99">
         <v>-1</v>
       </c>
       <c r="W99">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9048,13 +9024,13 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9065,16 +9041,16 @@
         <v>6803032</v>
       </c>
       <c r="C100" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45227.41666666666</v>
       </c>
       <c r="E100" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9083,7 +9059,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J100">
         <v>1.9</v>
@@ -9151,16 +9127,16 @@
         <v>6803035</v>
       </c>
       <c r="C101" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45227.54166666666</v>
       </c>
       <c r="E101" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F101" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -9169,7 +9145,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J101">
         <v>1.7</v>
@@ -9237,16 +9213,16 @@
         <v>6803033</v>
       </c>
       <c r="C102" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45228.45833333334</v>
       </c>
       <c r="E102" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9255,7 +9231,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J102">
         <v>1.2</v>
@@ -9323,16 +9299,16 @@
         <v>6803030</v>
       </c>
       <c r="C103" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45228.45833333334</v>
       </c>
       <c r="E103" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -9341,7 +9317,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J103">
         <v>4</v>
@@ -9409,16 +9385,16 @@
         <v>6803036</v>
       </c>
       <c r="C104" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45228.58333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -9427,7 +9403,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J104">
         <v>5</v>
@@ -9495,16 +9471,16 @@
         <v>6803045</v>
       </c>
       <c r="C105" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F105" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9513,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J105">
         <v>1.5</v>
@@ -9581,16 +9557,16 @@
         <v>6803037</v>
       </c>
       <c r="C106" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F106" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9599,7 +9575,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J106">
         <v>1.909</v>
@@ -9667,16 +9643,16 @@
         <v>6803042</v>
       </c>
       <c r="C107" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E107" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9685,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J107">
         <v>3.1</v>
@@ -9753,16 +9729,16 @@
         <v>6803038</v>
       </c>
       <c r="C108" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F108" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9771,7 +9747,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J108">
         <v>2.375</v>
@@ -9839,16 +9815,16 @@
         <v>6803040</v>
       </c>
       <c r="C109" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45234.58333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F109" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9857,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J109">
         <v>1.2</v>
@@ -9925,16 +9901,16 @@
         <v>6803043</v>
       </c>
       <c r="C110" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45235.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F110" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9943,7 +9919,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J110">
         <v>1.7</v>
@@ -10011,16 +9987,16 @@
         <v>6803041</v>
       </c>
       <c r="C111" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45235.45833333334</v>
       </c>
       <c r="E111" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F111" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10029,7 +10005,7 @@
         <v>3</v>
       </c>
       <c r="I111" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J111">
         <v>3.8</v>
@@ -10097,16 +10073,16 @@
         <v>6803044</v>
       </c>
       <c r="C112" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45235.58333333334</v>
       </c>
       <c r="E112" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F112" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10115,7 +10091,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J112">
         <v>1.571</v>
@@ -10183,16 +10159,16 @@
         <v>6803052</v>
       </c>
       <c r="C113" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45241.45833333334</v>
       </c>
       <c r="E113" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F113" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10201,7 +10177,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J113">
         <v>2.625</v>
@@ -10269,16 +10245,16 @@
         <v>6803051</v>
       </c>
       <c r="C114" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45241.45833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10287,7 +10263,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J114">
         <v>1.5</v>
@@ -10355,16 +10331,16 @@
         <v>6803047</v>
       </c>
       <c r="C115" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45241.45833333334</v>
       </c>
       <c r="E115" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10373,7 +10349,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J115">
         <v>1.909</v>
@@ -10441,16 +10417,16 @@
         <v>6803046</v>
       </c>
       <c r="C116" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45241.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10459,7 +10435,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J116">
         <v>2.45</v>
@@ -10527,16 +10503,16 @@
         <v>6803627</v>
       </c>
       <c r="C117" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45241.58333333334</v>
       </c>
       <c r="E117" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10545,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J117">
         <v>1.533</v>
@@ -10613,16 +10589,16 @@
         <v>6803048</v>
       </c>
       <c r="C118" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45242.45833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10631,7 +10607,7 @@
         <v>4</v>
       </c>
       <c r="I118" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J118">
         <v>1.55</v>
@@ -10699,16 +10675,16 @@
         <v>6803049</v>
       </c>
       <c r="C119" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45242.45833333334</v>
       </c>
       <c r="E119" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10717,7 +10693,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J119">
         <v>4</v>
@@ -10785,16 +10761,16 @@
         <v>6803050</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45242.58333333334</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10803,7 +10779,7 @@
         <v>3</v>
       </c>
       <c r="I120" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J120">
         <v>6.5</v>
@@ -10871,16 +10847,16 @@
         <v>6803058</v>
       </c>
       <c r="C121" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45255.45833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10889,7 +10865,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J121">
         <v>2.4</v>
@@ -10957,16 +10933,16 @@
         <v>6803057</v>
       </c>
       <c r="C122" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45255.45833333334</v>
       </c>
       <c r="E122" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F122" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -10975,7 +10951,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J122">
         <v>3.1</v>
@@ -11043,16 +11019,16 @@
         <v>6803053</v>
       </c>
       <c r="C123" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45255.45833333334</v>
       </c>
       <c r="E123" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F123" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11061,7 +11037,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J123">
         <v>4</v>
@@ -11129,16 +11105,16 @@
         <v>6803056</v>
       </c>
       <c r="C124" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45255.45833333334</v>
       </c>
       <c r="E124" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F124" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11147,7 +11123,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J124">
         <v>2.45</v>
@@ -11215,17 +11191,17 @@
         <v>6803054</v>
       </c>
       <c r="C125" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45255.58333333334</v>
       </c>
       <c r="E125" t="s">
+        <v>31</v>
+      </c>
+      <c r="F125" t="s">
         <v>39</v>
       </c>
-      <c r="F125" t="s">
-        <v>47</v>
-      </c>
       <c r="G125">
         <v>2</v>
       </c>
@@ -11233,7 +11209,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J125">
         <v>1.1</v>
@@ -11301,16 +11277,16 @@
         <v>6803060</v>
       </c>
       <c r="C126" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E126" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -11319,7 +11295,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J126">
         <v>2.05</v>
@@ -11387,16 +11363,16 @@
         <v>6803055</v>
       </c>
       <c r="C127" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F127" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11405,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J127">
         <v>2.3</v>
@@ -11473,16 +11449,16 @@
         <v>6803059</v>
       </c>
       <c r="C128" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45256.58333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F128" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -11491,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J128">
         <v>1.142</v>
@@ -11559,16 +11535,16 @@
         <v>6803068</v>
       </c>
       <c r="C129" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45262.45833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11577,7 +11553,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J129">
         <v>2.3</v>
@@ -11645,16 +11621,16 @@
         <v>7526908</v>
       </c>
       <c r="C130" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45263.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F130" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -11663,7 +11639,7 @@
         <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J130">
         <v>6.5</v>
@@ -11728,82 +11704,82 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7521554</v>
+        <v>6803065</v>
       </c>
       <c r="C131" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45266.54166666666</v>
       </c>
       <c r="E131" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F131" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J131">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="K131">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L131">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="M131">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="N131">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O131">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="P131">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q131">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="R131">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S131">
         <v>2.5</v>
       </c>
       <c r="T131">
+        <v>2.025</v>
+      </c>
+      <c r="U131">
         <v>1.825</v>
       </c>
-      <c r="U131">
-        <v>2.025</v>
-      </c>
       <c r="V131">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z131">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB131">
         <v>-1</v>
@@ -11814,82 +11790,82 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6803065</v>
+        <v>7521554</v>
       </c>
       <c r="C132" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45266.54166666666</v>
       </c>
       <c r="E132" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
         <v>3</v>
       </c>
-      <c r="H132">
-        <v>2</v>
-      </c>
       <c r="I132" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J132">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="K132">
+        <v>3.25</v>
+      </c>
+      <c r="L132">
+        <v>2.2</v>
+      </c>
+      <c r="M132">
         <v>3.4</v>
       </c>
-      <c r="L132">
-        <v>4.75</v>
-      </c>
-      <c r="M132">
-        <v>1.6</v>
-      </c>
       <c r="N132">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O132">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="P132">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q132">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="R132">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S132">
         <v>2.5</v>
       </c>
       <c r="T132">
+        <v>1.825</v>
+      </c>
+      <c r="U132">
         <v>2.025</v>
       </c>
-      <c r="U132">
-        <v>1.825</v>
-      </c>
       <c r="V132">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y132">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA132">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB132">
         <v>-1</v>
@@ -11900,67 +11876,67 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6803071</v>
+        <v>6803076</v>
       </c>
       <c r="C133" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45269.45833333334</v>
       </c>
       <c r="E133" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F133" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G133">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J133">
-        <v>1.666</v>
+        <v>1.25</v>
       </c>
       <c r="K133">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="L133">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="M133">
-        <v>1.666</v>
+        <v>1.25</v>
       </c>
       <c r="N133">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="O133">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="P133">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q133">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R133">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S133">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T133">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U133">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V133">
-        <v>0.6659999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -11969,16 +11945,16 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:28">
@@ -11986,67 +11962,67 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6803076</v>
+        <v>6803071</v>
       </c>
       <c r="C134" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45269.45833333334</v>
       </c>
       <c r="E134" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F134" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G134">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J134">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="K134">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="L134">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="M134">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="N134">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="O134">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="P134">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q134">
+        <v>1.875</v>
+      </c>
+      <c r="R134">
+        <v>1.975</v>
+      </c>
+      <c r="S134">
+        <v>2.25</v>
+      </c>
+      <c r="T134">
         <v>1.825</v>
       </c>
-      <c r="R134">
+      <c r="U134">
         <v>2.025</v>
       </c>
-      <c r="S134">
-        <v>3</v>
-      </c>
-      <c r="T134">
-        <v>1.925</v>
-      </c>
-      <c r="U134">
-        <v>1.925</v>
-      </c>
       <c r="V134">
-        <v>0.25</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12055,16 +12031,16 @@
         <v>-1</v>
       </c>
       <c r="Y134">
+        <v>0.875</v>
+      </c>
+      <c r="Z134">
+        <v>-1</v>
+      </c>
+      <c r="AA134">
         <v>0.825</v>
       </c>
-      <c r="Z134">
-        <v>-1</v>
-      </c>
-      <c r="AA134">
-        <v>0</v>
-      </c>
       <c r="AB134">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:28">
@@ -12075,16 +12051,16 @@
         <v>6803074</v>
       </c>
       <c r="C135" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45269.45833333334</v>
       </c>
       <c r="E135" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F135" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G135">
         <v>5</v>
@@ -12093,7 +12069,7 @@
         <v>3</v>
       </c>
       <c r="I135" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J135">
         <v>1.55</v>
@@ -12161,16 +12137,16 @@
         <v>6803070</v>
       </c>
       <c r="C136" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45269.58333333334</v>
       </c>
       <c r="E136" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F136" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12179,7 +12155,7 @@
         <v>3</v>
       </c>
       <c r="I136" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J136">
         <v>2.9</v>
@@ -12247,16 +12223,16 @@
         <v>6803069</v>
       </c>
       <c r="C137" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
         <v>45270.45833333334</v>
       </c>
       <c r="E137" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F137" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G137">
         <v>5</v>
@@ -12265,7 +12241,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J137">
         <v>1.2</v>
@@ -12333,16 +12309,16 @@
         <v>6803073</v>
       </c>
       <c r="C138" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
         <v>45270.58333333334</v>
       </c>
       <c r="E138" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F138" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12351,7 +12327,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J138">
         <v>1.25</v>
@@ -12416,85 +12392,85 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7560702</v>
+        <v>7560701</v>
       </c>
       <c r="C139" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
         <v>45273.54166666666</v>
       </c>
       <c r="E139" t="s">
+        <v>39</v>
+      </c>
+      <c r="F139" t="s">
         <v>42</v>
       </c>
-      <c r="F139" t="s">
-        <v>37</v>
-      </c>
       <c r="G139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H139">
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J139">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="K139">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="L139">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M139">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="N139">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="O139">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P139">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q139">
+        <v>2</v>
+      </c>
+      <c r="R139">
         <v>1.85</v>
       </c>
-      <c r="R139">
-        <v>2</v>
-      </c>
       <c r="S139">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T139">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U139">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V139">
         <v>-1</v>
       </c>
       <c r="W139">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA139">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:28">
@@ -12502,85 +12478,85 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7560701</v>
+        <v>7560702</v>
       </c>
       <c r="C140" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2">
         <v>45273.54166666666</v>
       </c>
       <c r="E140" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F140" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H140">
         <v>2</v>
       </c>
       <c r="I140" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J140">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="K140">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="L140">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M140">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="N140">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="O140">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P140">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q140">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R140">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T140">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U140">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V140">
         <v>-1</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="X140">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB140">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:28">
@@ -12591,16 +12567,16 @@
         <v>7560700</v>
       </c>
       <c r="C141" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2">
         <v>45273.58333333334</v>
       </c>
       <c r="E141" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12609,7 +12585,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J141">
         <v>2.3</v>
@@ -12674,85 +12650,85 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6803081</v>
+        <v>6803080</v>
       </c>
       <c r="C142" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E142" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F142" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G142">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142" t="s">
+        <v>44</v>
+      </c>
+      <c r="J142">
+        <v>2.3</v>
+      </c>
+      <c r="K142">
+        <v>3.3</v>
+      </c>
+      <c r="L142">
+        <v>3.1</v>
+      </c>
+      <c r="M142">
+        <v>2.5</v>
+      </c>
+      <c r="N142">
+        <v>3.3</v>
+      </c>
+      <c r="O142">
+        <v>2.8</v>
+      </c>
+      <c r="P142">
         <v>0</v>
       </c>
-      <c r="I142" t="s">
-        <v>53</v>
-      </c>
-      <c r="J142">
-        <v>2.5</v>
-      </c>
-      <c r="K142">
-        <v>3.4</v>
-      </c>
-      <c r="L142">
-        <v>2.7</v>
-      </c>
-      <c r="M142">
-        <v>3</v>
-      </c>
-      <c r="N142">
-        <v>3.4</v>
-      </c>
-      <c r="O142">
-        <v>2.3</v>
-      </c>
-      <c r="P142">
-        <v>0.25</v>
-      </c>
       <c r="Q142">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R142">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S142">
         <v>2.5</v>
       </c>
       <c r="T142">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U142">
+        <v>1.9</v>
+      </c>
+      <c r="V142">
+        <v>-1</v>
+      </c>
+      <c r="W142">
+        <v>-1</v>
+      </c>
+      <c r="X142">
         <v>1.8</v>
       </c>
-      <c r="V142">
-        <v>2</v>
-      </c>
-      <c r="W142">
-        <v>-1</v>
-      </c>
-      <c r="X142">
-        <v>-1</v>
-      </c>
       <c r="Y142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA142">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -12760,85 +12736,85 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6803080</v>
+        <v>6803081</v>
       </c>
       <c r="C143" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E143" t="s">
+        <v>37</v>
+      </c>
+      <c r="F143" t="s">
         <v>42</v>
       </c>
-      <c r="F143" t="s">
-        <v>41</v>
-      </c>
       <c r="G143">
+        <v>4</v>
+      </c>
+      <c r="H143">
         <v>0</v>
       </c>
-      <c r="H143">
-        <v>1</v>
-      </c>
       <c r="I143" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J143">
+        <v>2.5</v>
+      </c>
+      <c r="K143">
+        <v>3.4</v>
+      </c>
+      <c r="L143">
+        <v>2.7</v>
+      </c>
+      <c r="M143">
+        <v>3</v>
+      </c>
+      <c r="N143">
+        <v>3.4</v>
+      </c>
+      <c r="O143">
         <v>2.3</v>
       </c>
-      <c r="K143">
-        <v>3.3</v>
-      </c>
-      <c r="L143">
-        <v>3.1</v>
-      </c>
-      <c r="M143">
-        <v>2.5</v>
-      </c>
-      <c r="N143">
-        <v>3.3</v>
-      </c>
-      <c r="O143">
-        <v>2.8</v>
-      </c>
       <c r="P143">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q143">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R143">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S143">
         <v>2.5</v>
       </c>
       <c r="T143">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V143">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z143">
+        <v>-1</v>
+      </c>
+      <c r="AA143">
         <v>1.05</v>
       </c>
-      <c r="AA143">
-        <v>-1</v>
-      </c>
       <c r="AB143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12849,16 +12825,16 @@
         <v>6803082</v>
       </c>
       <c r="C144" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E144" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12867,7 +12843,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J144">
         <v>2.9</v>
@@ -12935,16 +12911,16 @@
         <v>6803083</v>
       </c>
       <c r="C145" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E145" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -12953,7 +12929,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J145">
         <v>1.833</v>
@@ -13021,16 +12997,16 @@
         <v>6803078</v>
       </c>
       <c r="C146" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2">
         <v>45276.58333333334</v>
       </c>
       <c r="E146" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F146" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13039,7 +13015,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J146">
         <v>1.615</v>
@@ -13107,16 +13083,16 @@
         <v>6803077</v>
       </c>
       <c r="C147" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2">
         <v>45277.45833333334</v>
       </c>
       <c r="E147" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G147">
         <v>2</v>
@@ -13125,7 +13101,7 @@
         <v>3</v>
       </c>
       <c r="I147" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J147">
         <v>5</v>
@@ -13193,16 +13169,16 @@
         <v>6803079</v>
       </c>
       <c r="C148" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2">
         <v>45277.45833333334</v>
       </c>
       <c r="E148" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F148" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13211,7 +13187,7 @@
         <v>3</v>
       </c>
       <c r="I148" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J148">
         <v>3.5</v>
@@ -13279,16 +13255,16 @@
         <v>6803084</v>
       </c>
       <c r="C149" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2">
         <v>45277.58333333334</v>
       </c>
       <c r="E149" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13297,7 +13273,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J149">
         <v>1.181</v>
@@ -13365,16 +13341,16 @@
         <v>6803090</v>
       </c>
       <c r="C150" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E150" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F150" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13383,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J150">
         <v>2.2</v>
@@ -13451,16 +13427,16 @@
         <v>6803088</v>
       </c>
       <c r="C151" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E151" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F151" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13469,7 +13445,7 @@
         <v>3</v>
       </c>
       <c r="I151" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J151">
         <v>6.5</v>
@@ -13537,16 +13513,16 @@
         <v>6803087</v>
       </c>
       <c r="C152" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E152" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F152" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13555,7 +13531,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J152">
         <v>3.25</v>
@@ -13623,16 +13599,16 @@
         <v>6803092</v>
       </c>
       <c r="C153" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E153" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13641,7 +13617,7 @@
         <v>2</v>
       </c>
       <c r="I153" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J153">
         <v>1.4</v>
@@ -13709,16 +13685,16 @@
         <v>6803086</v>
       </c>
       <c r="C154" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2">
         <v>45332.58333333334</v>
       </c>
       <c r="E154" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F154" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13727,7 +13703,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J154">
         <v>1.45</v>
@@ -13795,16 +13771,16 @@
         <v>6803085</v>
       </c>
       <c r="C155" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2">
         <v>45333.45833333334</v>
       </c>
       <c r="E155" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F155" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -13813,7 +13789,7 @@
         <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J155">
         <v>2.3</v>
@@ -13881,25 +13857,25 @@
         <v>6803089</v>
       </c>
       <c r="C156" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2">
         <v>45333.45833333334</v>
       </c>
       <c r="E156" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F156" t="s">
+        <v>37</v>
+      </c>
+      <c r="G156">
+        <v>2</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156" t="s">
         <v>45</v>
-      </c>
-      <c r="G156">
-        <v>2</v>
-      </c>
-      <c r="H156">
-        <v>1</v>
-      </c>
-      <c r="I156" t="s">
-        <v>53</v>
       </c>
       <c r="J156">
         <v>1.85</v>
@@ -13967,16 +13943,16 @@
         <v>6803091</v>
       </c>
       <c r="C157" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2">
         <v>45333.58333333334</v>
       </c>
       <c r="E157" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F157" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G157">
         <v>4</v>
@@ -13985,7 +13961,7 @@
         <v>3</v>
       </c>
       <c r="I157" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J157">
         <v>1.222</v>
@@ -14053,16 +14029,16 @@
         <v>7549458</v>
       </c>
       <c r="C158" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D158" s="2">
         <v>45335.58333333334</v>
       </c>
       <c r="E158" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F158" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -14071,7 +14047,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J158">
         <v>2.875</v>
@@ -14139,16 +14115,16 @@
         <v>7654891</v>
       </c>
       <c r="C159" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2">
         <v>45336.54166666666</v>
       </c>
       <c r="E159" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -14157,7 +14133,7 @@
         <v>3</v>
       </c>
       <c r="I159" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J159">
         <v>2.05</v>
@@ -14225,16 +14201,16 @@
         <v>7654890</v>
       </c>
       <c r="C160" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D160" s="2">
         <v>45336.58333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14243,7 +14219,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J160">
         <v>11</v>
@@ -14311,16 +14287,16 @@
         <v>6803100</v>
       </c>
       <c r="C161" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2">
         <v>45339.45833333334</v>
       </c>
       <c r="E161" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14329,7 +14305,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J161">
         <v>2.3</v>
@@ -14397,16 +14373,16 @@
         <v>6803098</v>
       </c>
       <c r="C162" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2">
         <v>45339.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F162" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G162">
         <v>5</v>
@@ -14415,7 +14391,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J162">
         <v>1.571</v>
@@ -14483,16 +14459,16 @@
         <v>6803094</v>
       </c>
       <c r="C163" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D163" s="2">
         <v>45339.45833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F163" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -14501,7 +14477,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J163">
         <v>1.8</v>
@@ -14569,16 +14545,16 @@
         <v>6803095</v>
       </c>
       <c r="C164" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D164" s="2">
         <v>45339.45833333334</v>
       </c>
       <c r="E164" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F164" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14587,7 +14563,7 @@
         <v>3</v>
       </c>
       <c r="I164" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J164">
         <v>2.375</v>
@@ -14655,16 +14631,16 @@
         <v>6803093</v>
       </c>
       <c r="C165" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2">
         <v>45339.58333333334</v>
       </c>
       <c r="E165" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F165" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -14673,7 +14649,7 @@
         <v>2</v>
       </c>
       <c r="I165" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J165">
         <v>3.8</v>
@@ -14741,16 +14717,16 @@
         <v>6803097</v>
       </c>
       <c r="C166" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D166" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E166" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F166" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14759,7 +14735,7 @@
         <v>3</v>
       </c>
       <c r="I166" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J166">
         <v>8.5</v>
@@ -14827,25 +14803,25 @@
         <v>6803096</v>
       </c>
       <c r="C167" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D167" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E167" t="s">
+        <v>37</v>
+      </c>
+      <c r="F167" t="s">
+        <v>33</v>
+      </c>
+      <c r="G167">
+        <v>2</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167" t="s">
         <v>45</v>
-      </c>
-      <c r="F167" t="s">
-        <v>41</v>
-      </c>
-      <c r="G167">
-        <v>2</v>
-      </c>
-      <c r="H167">
-        <v>1</v>
-      </c>
-      <c r="I167" t="s">
-        <v>53</v>
       </c>
       <c r="J167">
         <v>3.5</v>
@@ -14913,16 +14889,16 @@
         <v>6803099</v>
       </c>
       <c r="C168" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D168" s="2">
         <v>45340.58333333334</v>
       </c>
       <c r="E168" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F168" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -14931,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J168">
         <v>1.3</v>
@@ -14999,16 +14975,16 @@
         <v>7654892</v>
       </c>
       <c r="C169" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D169" s="2">
         <v>45343.5625</v>
       </c>
       <c r="E169" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F169" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -15017,7 +14993,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J169">
         <v>3.1</v>
@@ -15085,16 +15061,16 @@
         <v>6803101</v>
       </c>
       <c r="C170" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D170" s="2">
         <v>45346.45833333334</v>
       </c>
       <c r="E170" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -15103,7 +15079,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J170">
         <v>2.7</v>
@@ -15168,58 +15144,58 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6803104</v>
+        <v>6803106</v>
       </c>
       <c r="C171" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D171" s="2">
         <v>45346.45833333334</v>
       </c>
       <c r="E171" t="s">
+        <v>32</v>
+      </c>
+      <c r="F171" t="s">
+        <v>43</v>
+      </c>
+      <c r="G171">
+        <v>3</v>
+      </c>
+      <c r="H171">
+        <v>3</v>
+      </c>
+      <c r="I171" t="s">
         <v>46</v>
       </c>
-      <c r="F171" t="s">
-        <v>48</v>
-      </c>
-      <c r="G171">
-        <v>1</v>
-      </c>
-      <c r="H171">
-        <v>1</v>
-      </c>
-      <c r="I171" t="s">
-        <v>54</v>
-      </c>
       <c r="J171">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="K171">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L171">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M171">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="N171">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O171">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P171">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q171">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R171">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S171">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T171">
         <v>1.925</v>
@@ -15231,22 +15207,22 @@
         <v>-1</v>
       </c>
       <c r="W171">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z171">
-        <v>1.05</v>
+        <v>0.5125</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB171">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:28">
@@ -15254,82 +15230,82 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6803106</v>
+        <v>6803105</v>
       </c>
       <c r="C172" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D172" s="2">
         <v>45346.45833333334</v>
       </c>
       <c r="E172" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F172" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J172">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="K172">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L172">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M172">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="N172">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O172">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P172">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q172">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R172">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S172">
         <v>2.5</v>
       </c>
       <c r="T172">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U172">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
         <v>-1</v>
       </c>
       <c r="W172">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA172">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB172">
         <v>-1</v>
@@ -15340,10 +15316,10 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6803105</v>
+        <v>6803104</v>
       </c>
       <c r="C173" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D173" s="2">
         <v>45346.45833333334</v>
@@ -15352,58 +15328,58 @@
         <v>38</v>
       </c>
       <c r="F173" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J173">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="K173">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L173">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M173">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="N173">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O173">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P173">
         <v>-0.75</v>
       </c>
       <c r="Q173">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R173">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S173">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T173">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U173">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V173">
         <v>-1</v>
       </c>
       <c r="W173">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15412,13 +15388,13 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA173">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="174" spans="1:28">
@@ -15429,16 +15405,16 @@
         <v>6803102</v>
       </c>
       <c r="C174" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D174" s="2">
         <v>45346.58333333334</v>
       </c>
       <c r="E174" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F174" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G174">
         <v>3</v>
@@ -15447,7 +15423,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J174">
         <v>1.166</v>
@@ -15515,16 +15491,16 @@
         <v>6803107</v>
       </c>
       <c r="C175" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D175" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E175" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G175">
         <v>3</v>
@@ -15533,7 +15509,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J175">
         <v>1.111</v>
@@ -15601,16 +15577,16 @@
         <v>6803103</v>
       </c>
       <c r="C176" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D176" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E176" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G176">
         <v>2</v>
@@ -15619,7 +15595,7 @@
         <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J176">
         <v>3.4</v>
@@ -15687,16 +15663,16 @@
         <v>6803108</v>
       </c>
       <c r="C177" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D177" s="2">
         <v>45347.58333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F177" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15705,7 +15681,7 @@
         <v>3</v>
       </c>
       <c r="I177" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J177">
         <v>4</v>
@@ -15773,16 +15749,16 @@
         <v>6803117</v>
       </c>
       <c r="C178" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D178" s="2">
         <v>45353.45833333334</v>
       </c>
       <c r="E178" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F178" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G178">
         <v>2</v>
@@ -15791,7 +15767,7 @@
         <v>2</v>
       </c>
       <c r="I178" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J178">
         <v>2.05</v>
@@ -15859,16 +15835,16 @@
         <v>6803113</v>
       </c>
       <c r="C179" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D179" s="2">
         <v>45353.45833333334</v>
       </c>
       <c r="E179" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F179" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -15877,7 +15853,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J179">
         <v>1.909</v>
@@ -15945,16 +15921,16 @@
         <v>6803115</v>
       </c>
       <c r="C180" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D180" s="2">
         <v>45353.45833333334</v>
       </c>
       <c r="E180" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F180" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G180">
         <v>3</v>
@@ -15963,7 +15939,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J180">
         <v>1.533</v>
@@ -16031,16 +16007,16 @@
         <v>6803120</v>
       </c>
       <c r="C181" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D181" s="2">
         <v>45353.45833333334</v>
       </c>
       <c r="E181" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F181" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16049,7 +16025,7 @@
         <v>3</v>
       </c>
       <c r="I181" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J181">
         <v>4</v>
@@ -16117,16 +16093,16 @@
         <v>6803114</v>
       </c>
       <c r="C182" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D182" s="2">
         <v>45353.58333333334</v>
       </c>
       <c r="E182" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F182" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G182">
         <v>2</v>
@@ -16135,7 +16111,7 @@
         <v>3</v>
       </c>
       <c r="I182" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J182">
         <v>5</v>
@@ -16203,16 +16179,16 @@
         <v>6803118</v>
       </c>
       <c r="C183" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D183" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E183" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F183" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16221,7 +16197,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J183">
         <v>2.5</v>
@@ -16289,16 +16265,16 @@
         <v>6803116</v>
       </c>
       <c r="C184" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D184" s="2">
         <v>45354.45833333334</v>
       </c>
       <c r="E184" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F184" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -16307,7 +16283,7 @@
         <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J184">
         <v>4</v>
@@ -16375,16 +16351,16 @@
         <v>6803119</v>
       </c>
       <c r="C185" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D185" s="2">
         <v>45354.58333333334</v>
       </c>
       <c r="E185" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -16393,7 +16369,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J185">
         <v>2.25</v>
@@ -16461,16 +16437,16 @@
         <v>6803122</v>
       </c>
       <c r="C186" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D186" s="2">
         <v>45360.45833333334</v>
       </c>
       <c r="E186" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F186" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16479,7 +16455,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J186">
         <v>2.25</v>
@@ -16547,16 +16523,16 @@
         <v>6803124</v>
       </c>
       <c r="C187" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D187" s="2">
         <v>45360.45833333334</v>
       </c>
       <c r="E187" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F187" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G187">
         <v>2</v>
@@ -16565,7 +16541,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J187">
         <v>1.85</v>
@@ -16633,16 +16609,16 @@
         <v>6803125</v>
       </c>
       <c r="C188" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D188" s="2">
         <v>45360.45833333334</v>
       </c>
       <c r="E188" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F188" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -16651,7 +16627,7 @@
         <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J188">
         <v>1.8</v>
@@ -16719,16 +16695,16 @@
         <v>6803127</v>
       </c>
       <c r="C189" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D189" s="2">
         <v>45360.45833333334</v>
       </c>
       <c r="E189" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -16737,7 +16713,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J189">
         <v>1.6</v>
@@ -16805,25 +16781,25 @@
         <v>6803121</v>
       </c>
       <c r="C190" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D190" s="2">
         <v>45360.58333333334</v>
       </c>
       <c r="E190" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F190" t="s">
+        <v>36</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>2</v>
+      </c>
+      <c r="I190" t="s">
         <v>44</v>
-      </c>
-      <c r="G190">
-        <v>1</v>
-      </c>
-      <c r="H190">
-        <v>2</v>
-      </c>
-      <c r="I190" t="s">
-        <v>52</v>
       </c>
       <c r="J190">
         <v>1.75</v>
@@ -16891,16 +16867,16 @@
         <v>6803128</v>
       </c>
       <c r="C191" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D191" s="2">
         <v>45361.45833333334</v>
       </c>
       <c r="E191" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F191" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G191">
         <v>4</v>
@@ -16909,7 +16885,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J191">
         <v>1.2</v>
@@ -16977,16 +16953,16 @@
         <v>6803123</v>
       </c>
       <c r="C192" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D192" s="2">
         <v>45361.45833333334</v>
       </c>
       <c r="E192" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F192" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -16995,7 +16971,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J192">
         <v>1.833</v>
@@ -17063,16 +17039,16 @@
         <v>6803126</v>
       </c>
       <c r="C193" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D193" s="2">
         <v>45361.58333333334</v>
       </c>
       <c r="E193" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F193" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G193">
         <v>4</v>
@@ -17081,7 +17057,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J193">
         <v>2.75</v>
@@ -17149,16 +17125,16 @@
         <v>6803134</v>
       </c>
       <c r="C194" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D194" s="2">
         <v>45367.45833333334</v>
       </c>
       <c r="E194" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F194" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G194">
         <v>2</v>
@@ -17167,7 +17143,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J194">
         <v>1.909</v>
@@ -17235,16 +17211,16 @@
         <v>6803131</v>
       </c>
       <c r="C195" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D195" s="2">
         <v>45367.45833333334</v>
       </c>
       <c r="E195" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F195" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G195">
         <v>2</v>
@@ -17253,7 +17229,7 @@
         <v>1</v>
       </c>
       <c r="I195" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J195">
         <v>2.15</v>
@@ -17321,16 +17297,16 @@
         <v>6803133</v>
       </c>
       <c r="C196" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D196" s="2">
         <v>45367.45833333334</v>
       </c>
       <c r="E196" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F196" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -17339,7 +17315,7 @@
         <v>2</v>
       </c>
       <c r="I196" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J196">
         <v>2.875</v>
@@ -17407,16 +17383,16 @@
         <v>6803136</v>
       </c>
       <c r="C197" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D197" s="2">
         <v>45367.58333333334</v>
       </c>
       <c r="E197" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F197" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -17425,7 +17401,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J197">
         <v>2.875</v>
@@ -17490,65 +17466,65 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6803130</v>
+        <v>6803132</v>
       </c>
       <c r="C198" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D198" s="2">
         <v>45368.45833333334</v>
       </c>
       <c r="E198" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F198" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J198">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="K198">
+        <v>3.6</v>
+      </c>
+      <c r="L198">
+        <v>2</v>
+      </c>
+      <c r="M198">
+        <v>4.75</v>
+      </c>
+      <c r="N198">
         <v>4</v>
       </c>
-      <c r="L198">
-        <v>1.8</v>
-      </c>
-      <c r="M198">
-        <v>3.2</v>
-      </c>
-      <c r="N198">
-        <v>3.5</v>
-      </c>
       <c r="O198">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="P198">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q198">
+        <v>1.975</v>
+      </c>
+      <c r="R198">
+        <v>1.875</v>
+      </c>
+      <c r="S198">
+        <v>2.75</v>
+      </c>
+      <c r="T198">
         <v>1.925</v>
       </c>
-      <c r="R198">
+      <c r="U198">
         <v>1.925</v>
       </c>
-      <c r="S198">
-        <v>2.5</v>
-      </c>
-      <c r="T198">
-        <v>1.85</v>
-      </c>
-      <c r="U198">
-        <v>2</v>
-      </c>
       <c r="V198">
         <v>-1</v>
       </c>
@@ -17556,19 +17532,19 @@
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>1.1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z198">
+        <v>0.4375</v>
+      </c>
+      <c r="AA198">
+        <v>-1</v>
+      </c>
+      <c r="AB198">
         <v>0.925</v>
-      </c>
-      <c r="AA198">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB198">
-        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:28">
@@ -17576,64 +17552,64 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6803132</v>
+        <v>6803130</v>
       </c>
       <c r="C199" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D199" s="2">
         <v>45368.45833333334</v>
       </c>
       <c r="E199" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F199" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J199">
+        <v>3.8</v>
+      </c>
+      <c r="K199">
+        <v>4</v>
+      </c>
+      <c r="L199">
+        <v>1.8</v>
+      </c>
+      <c r="M199">
+        <v>3.2</v>
+      </c>
+      <c r="N199">
         <v>3.5</v>
       </c>
-      <c r="K199">
-        <v>3.6</v>
-      </c>
-      <c r="L199">
-        <v>2</v>
-      </c>
-      <c r="M199">
-        <v>4.75</v>
-      </c>
-      <c r="N199">
-        <v>4</v>
-      </c>
       <c r="O199">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="P199">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q199">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R199">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S199">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T199">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U199">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V199">
         <v>-1</v>
@@ -17642,19 +17618,19 @@
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>0.6659999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="Y199">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB199">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:28">
@@ -17665,16 +17641,16 @@
         <v>6803135</v>
       </c>
       <c r="C200" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D200" s="2">
         <v>45368.45833333334</v>
       </c>
       <c r="E200" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F200" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G200">
         <v>3</v>
@@ -17683,7 +17659,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J200">
         <v>1.25</v>
@@ -17751,16 +17727,16 @@
         <v>6803129</v>
       </c>
       <c r="C201" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D201" s="2">
         <v>45368.58333333334</v>
       </c>
       <c r="E201" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F201" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -17769,7 +17745,7 @@
         <v>1</v>
       </c>
       <c r="I201" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J201">
         <v>1.222</v>
@@ -17837,16 +17813,16 @@
         <v>6803138</v>
       </c>
       <c r="C202" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D202" s="2">
         <v>45381.45833333334</v>
       </c>
       <c r="E202" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F202" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -17855,7 +17831,7 @@
         <v>2</v>
       </c>
       <c r="I202" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J202">
         <v>1.615</v>
@@ -17923,16 +17899,16 @@
         <v>6803139</v>
       </c>
       <c r="C203" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D203" s="2">
         <v>45381.45833333334</v>
       </c>
       <c r="E203" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F203" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17941,7 +17917,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J203">
         <v>2.1</v>
@@ -18009,16 +17985,16 @@
         <v>6803142</v>
       </c>
       <c r="C204" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D204" s="2">
         <v>45381.45833333334</v>
       </c>
       <c r="E204" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F204" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -18027,7 +18003,7 @@
         <v>3</v>
       </c>
       <c r="I204" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J204">
         <v>1.4</v>
@@ -18095,16 +18071,16 @@
         <v>6803143</v>
       </c>
       <c r="C205" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D205" s="2">
         <v>45381.58333333334</v>
       </c>
       <c r="E205" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F205" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G205">
         <v>1</v>
@@ -18113,7 +18089,7 @@
         <v>3</v>
       </c>
       <c r="I205" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J205">
         <v>4.333</v>
@@ -18181,16 +18157,16 @@
         <v>6804088</v>
       </c>
       <c r="C206" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D206" s="2">
         <v>45382.41666666666</v>
       </c>
       <c r="E206" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F206" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -18199,7 +18175,7 @@
         <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J206">
         <v>1.615</v>
@@ -18267,16 +18243,16 @@
         <v>6803141</v>
       </c>
       <c r="C207" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D207" s="2">
         <v>45382.41666666666</v>
       </c>
       <c r="E207" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F207" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G207">
         <v>4</v>
@@ -18285,7 +18261,7 @@
         <v>1</v>
       </c>
       <c r="I207" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J207">
         <v>1.6</v>
@@ -18353,16 +18329,16 @@
         <v>6803137</v>
       </c>
       <c r="C208" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D208" s="2">
         <v>45382.41666666666</v>
       </c>
       <c r="E208" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F208" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G208">
         <v>3</v>
@@ -18371,7 +18347,7 @@
         <v>2</v>
       </c>
       <c r="I208" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J208">
         <v>1.45</v>
@@ -18439,16 +18415,16 @@
         <v>6803140</v>
       </c>
       <c r="C209" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D209" s="2">
         <v>45382.54166666666</v>
       </c>
       <c r="E209" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F209" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -18457,7 +18433,7 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J209">
         <v>8</v>
@@ -18525,16 +18501,16 @@
         <v>6835684</v>
       </c>
       <c r="C210" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D210" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E210" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F210" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G210">
         <v>3</v>
@@ -18543,7 +18519,7 @@
         <v>2</v>
       </c>
       <c r="I210" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J210">
         <v>2.6</v>
@@ -18611,16 +18587,16 @@
         <v>6803148</v>
       </c>
       <c r="C211" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D211" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E211" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F211" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G211">
         <v>4</v>
@@ -18629,7 +18605,7 @@
         <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J211">
         <v>2.375</v>
@@ -18697,16 +18673,16 @@
         <v>6849948</v>
       </c>
       <c r="C212" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D212" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E212" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F212" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -18715,7 +18691,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J212">
         <v>5.75</v>
@@ -18783,16 +18759,16 @@
         <v>6841168</v>
       </c>
       <c r="C213" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D213" s="2">
         <v>45388.54166666666</v>
       </c>
       <c r="E213" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F213" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G213">
         <v>2</v>
@@ -18801,7 +18777,7 @@
         <v>1</v>
       </c>
       <c r="I213" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J213">
         <v>1.25</v>
@@ -18869,16 +18845,16 @@
         <v>6803144</v>
       </c>
       <c r="C214" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D214" s="2">
         <v>45389.41666666666</v>
       </c>
       <c r="E214" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F214" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -18887,7 +18863,7 @@
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J214">
         <v>2.25</v>
@@ -18955,16 +18931,16 @@
         <v>6803145</v>
       </c>
       <c r="C215" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D215" s="2">
         <v>45389.41666666666</v>
       </c>
       <c r="E215" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F215" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G215">
         <v>1</v>
@@ -18973,7 +18949,7 @@
         <v>1</v>
       </c>
       <c r="I215" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J215">
         <v>1.95</v>
@@ -19041,16 +19017,16 @@
         <v>6803146</v>
       </c>
       <c r="C216" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D216" s="2">
         <v>45389.41666666666</v>
       </c>
       <c r="E216" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F216" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G216">
         <v>2</v>
@@ -19059,7 +19035,7 @@
         <v>3</v>
       </c>
       <c r="I216" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J216">
         <v>2.625</v>
@@ -19127,16 +19103,16 @@
         <v>6803147</v>
       </c>
       <c r="C217" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D217" s="2">
         <v>45389.54166666666</v>
       </c>
       <c r="E217" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F217" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G217">
         <v>1</v>
@@ -19145,7 +19121,7 @@
         <v>1</v>
       </c>
       <c r="I217" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J217">
         <v>1.333</v>
@@ -19213,16 +19189,16 @@
         <v>6803152</v>
       </c>
       <c r="C218" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D218" s="2">
         <v>45395.41666666666</v>
       </c>
       <c r="E218" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F218" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G218">
         <v>3</v>
@@ -19231,7 +19207,7 @@
         <v>2</v>
       </c>
       <c r="I218" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J218">
         <v>3.1</v>
@@ -19299,16 +19275,16 @@
         <v>6851033</v>
       </c>
       <c r="C219" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D219" s="2">
         <v>45395.41666666666</v>
       </c>
       <c r="E219" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F219" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -19317,7 +19293,7 @@
         <v>2</v>
       </c>
       <c r="I219" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J219">
         <v>1.75</v>
@@ -19385,16 +19361,16 @@
         <v>6803151</v>
       </c>
       <c r="C220" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D220" s="2">
         <v>45395.41666666666</v>
       </c>
       <c r="E220" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F220" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G220">
         <v>1</v>
@@ -19403,7 +19379,7 @@
         <v>3</v>
       </c>
       <c r="I220" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J220">
         <v>5.25</v>
@@ -19471,16 +19447,16 @@
         <v>6884025</v>
       </c>
       <c r="C221" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D221" s="2">
         <v>45395.54166666666</v>
       </c>
       <c r="E221" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F221" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -19489,7 +19465,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J221">
         <v>2.5</v>
@@ -19557,25 +19533,25 @@
         <v>6869633</v>
       </c>
       <c r="C222" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D222" s="2">
         <v>45396.41666666666</v>
       </c>
       <c r="E222" t="s">
+        <v>38</v>
+      </c>
+      <c r="F222" t="s">
+        <v>29</v>
+      </c>
+      <c r="G222">
+        <v>2</v>
+      </c>
+      <c r="H222">
+        <v>2</v>
+      </c>
+      <c r="I222" t="s">
         <v>46</v>
-      </c>
-      <c r="F222" t="s">
-        <v>37</v>
-      </c>
-      <c r="G222">
-        <v>2</v>
-      </c>
-      <c r="H222">
-        <v>2</v>
-      </c>
-      <c r="I222" t="s">
-        <v>54</v>
       </c>
       <c r="J222">
         <v>1.363</v>
@@ -19643,16 +19619,16 @@
         <v>6803150</v>
       </c>
       <c r="C223" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D223" s="2">
         <v>45396.41666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F223" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -19661,7 +19637,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J223">
         <v>2.15</v>
@@ -19729,16 +19705,16 @@
         <v>6803149</v>
       </c>
       <c r="C224" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D224" s="2">
         <v>45396.41666666666</v>
       </c>
       <c r="E224" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F224" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -19747,7 +19723,7 @@
         <v>1</v>
       </c>
       <c r="I224" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J224">
         <v>2.1</v>
@@ -19815,16 +19791,16 @@
         <v>6841169</v>
       </c>
       <c r="C225" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D225" s="2">
         <v>45396.54166666666</v>
       </c>
       <c r="E225" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F225" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G225">
         <v>1</v>
@@ -19833,7 +19809,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J225">
         <v>4.2</v>
@@ -19901,16 +19877,16 @@
         <v>6901377</v>
       </c>
       <c r="C226" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D226" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E226" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F226" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G226">
         <v>1</v>
@@ -19919,7 +19895,7 @@
         <v>1</v>
       </c>
       <c r="I226" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J226">
         <v>2.875</v>
@@ -19987,16 +19963,16 @@
         <v>6803154</v>
       </c>
       <c r="C227" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D227" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E227" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F227" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -20005,7 +19981,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J227">
         <v>1.7</v>
@@ -20073,16 +20049,16 @@
         <v>6848326</v>
       </c>
       <c r="C228" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D228" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E228" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F228" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G228">
         <v>4</v>
@@ -20091,7 +20067,7 @@
         <v>3</v>
       </c>
       <c r="I228" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J228">
         <v>1.444</v>
@@ -20159,16 +20135,16 @@
         <v>6838627</v>
       </c>
       <c r="C229" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D229" s="2">
         <v>45402.54166666666</v>
       </c>
       <c r="E229" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F229" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G229">
         <v>2</v>
@@ -20177,7 +20153,7 @@
         <v>2</v>
       </c>
       <c r="I229" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J229">
         <v>1.75</v>
@@ -20242,49 +20218,49 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6879083</v>
+        <v>6905894</v>
       </c>
       <c r="C230" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D230" s="2">
         <v>45403.41666666666</v>
       </c>
       <c r="E230" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F230" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G230">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J230">
-        <v>1.181</v>
+        <v>1.833</v>
       </c>
       <c r="K230">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="L230">
-        <v>13</v>
+        <v>4.2</v>
       </c>
       <c r="M230">
-        <v>1.125</v>
+        <v>1.727</v>
       </c>
       <c r="N230">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="O230">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="P230">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q230">
         <v>1.925</v>
@@ -20293,7 +20269,7 @@
         <v>1.925</v>
       </c>
       <c r="S230">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T230">
         <v>1.85</v>
@@ -20305,7 +20281,7 @@
         <v>-1</v>
       </c>
       <c r="W230">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="X230">
         <v>-1</v>
@@ -20317,10 +20293,10 @@
         <v>0.925</v>
       </c>
       <c r="AA230">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:28">
@@ -20328,85 +20304,85 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6803153</v>
+        <v>6879083</v>
       </c>
       <c r="C231" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D231" s="2">
         <v>45403.41666666666</v>
       </c>
       <c r="E231" t="s">
+        <v>31</v>
+      </c>
+      <c r="F231" t="s">
         <v>36</v>
       </c>
-      <c r="F231" t="s">
-        <v>42</v>
-      </c>
       <c r="G231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H231">
         <v>2</v>
       </c>
       <c r="I231" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J231">
-        <v>2.7</v>
+        <v>1.181</v>
       </c>
       <c r="K231">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="L231">
-        <v>2.5</v>
+        <v>13</v>
       </c>
       <c r="M231">
-        <v>2.55</v>
+        <v>1.125</v>
       </c>
       <c r="N231">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="O231">
-        <v>2.625</v>
+        <v>15</v>
       </c>
       <c r="P231">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="Q231">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R231">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S231">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T231">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U231">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V231">
         <v>-1</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="X231">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA231">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB231">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:28">
@@ -20414,85 +20390,85 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6905894</v>
+        <v>6803153</v>
       </c>
       <c r="C232" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D232" s="2">
         <v>45403.41666666666</v>
       </c>
       <c r="E232" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F232" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G232">
+        <v>1</v>
+      </c>
+      <c r="H232">
+        <v>2</v>
+      </c>
+      <c r="I232" t="s">
+        <v>44</v>
+      </c>
+      <c r="J232">
+        <v>2.7</v>
+      </c>
+      <c r="K232">
+        <v>3.4</v>
+      </c>
+      <c r="L232">
+        <v>2.5</v>
+      </c>
+      <c r="M232">
+        <v>2.55</v>
+      </c>
+      <c r="N232">
+        <v>3.4</v>
+      </c>
+      <c r="O232">
+        <v>2.625</v>
+      </c>
+      <c r="P232">
         <v>0</v>
       </c>
-      <c r="H232">
-        <v>0</v>
-      </c>
-      <c r="I232" t="s">
-        <v>54</v>
-      </c>
-      <c r="J232">
-        <v>1.833</v>
-      </c>
-      <c r="K232">
-        <v>3.6</v>
-      </c>
-      <c r="L232">
-        <v>4.2</v>
-      </c>
-      <c r="M232">
-        <v>1.727</v>
-      </c>
-      <c r="N232">
-        <v>3.8</v>
-      </c>
-      <c r="O232">
-        <v>4.5</v>
-      </c>
-      <c r="P232">
-        <v>-0.75</v>
-      </c>
       <c r="Q232">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R232">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S232">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T232">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U232">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V232">
         <v>-1</v>
       </c>
       <c r="W232">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X232">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y232">
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA232">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB232">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="233" spans="1:28">
@@ -20503,17 +20479,17 @@
         <v>6907696</v>
       </c>
       <c r="C233" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D233" s="2">
         <v>45403.54166666666</v>
       </c>
       <c r="E233" t="s">
+        <v>33</v>
+      </c>
+      <c r="F233" t="s">
         <v>41</v>
       </c>
-      <c r="F233" t="s">
-        <v>49</v>
-      </c>
       <c r="G233">
         <v>1</v>
       </c>
@@ -20521,7 +20497,7 @@
         <v>1</v>
       </c>
       <c r="I233" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J233">
         <v>3.3</v>
@@ -20579,526 +20555,6 @@
       </c>
       <c r="AB233">
         <v>0.4875</v>
-      </c>
-    </row>
-    <row r="234" spans="1:28">
-      <c r="A234" s="1">
-        <v>232</v>
-      </c>
-      <c r="B234" t="s">
-        <v>27</v>
-      </c>
-      <c r="C234" t="s">
-        <v>35</v>
-      </c>
-      <c r="D234" s="2">
-        <v>45410.41666666666</v>
-      </c>
-      <c r="E234" t="s">
-        <v>48</v>
-      </c>
-      <c r="F234" t="s">
-        <v>36</v>
-      </c>
-      <c r="J234">
-        <v>1.727</v>
-      </c>
-      <c r="K234">
-        <v>3.5</v>
-      </c>
-      <c r="L234">
-        <v>4</v>
-      </c>
-      <c r="M234">
-        <v>1.75</v>
-      </c>
-      <c r="N234">
-        <v>3.6</v>
-      </c>
-      <c r="O234">
-        <v>4.333</v>
-      </c>
-      <c r="P234">
-        <v>-0.75</v>
-      </c>
-      <c r="Q234">
-        <v>2.05</v>
-      </c>
-      <c r="R234">
-        <v>1.8</v>
-      </c>
-      <c r="S234">
-        <v>2.75</v>
-      </c>
-      <c r="T234">
-        <v>1.95</v>
-      </c>
-      <c r="U234">
-        <v>1.9</v>
-      </c>
-      <c r="V234">
-        <v>0</v>
-      </c>
-      <c r="W234">
-        <v>0</v>
-      </c>
-      <c r="X234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:28">
-      <c r="A235" s="1">
-        <v>233</v>
-      </c>
-      <c r="B235" t="s">
-        <v>28</v>
-      </c>
-      <c r="C235" t="s">
-        <v>35</v>
-      </c>
-      <c r="D235" s="2">
-        <v>45410.41666666666</v>
-      </c>
-      <c r="E235" t="s">
-        <v>51</v>
-      </c>
-      <c r="F235" t="s">
-        <v>42</v>
-      </c>
-      <c r="J235">
-        <v>2.3</v>
-      </c>
-      <c r="K235">
-        <v>3.2</v>
-      </c>
-      <c r="L235">
-        <v>2.75</v>
-      </c>
-      <c r="M235">
-        <v>2.45</v>
-      </c>
-      <c r="N235">
-        <v>3.4</v>
-      </c>
-      <c r="O235">
-        <v>2.625</v>
-      </c>
-      <c r="P235">
-        <v>0</v>
-      </c>
-      <c r="Q235">
-        <v>1.875</v>
-      </c>
-      <c r="R235">
-        <v>1.975</v>
-      </c>
-      <c r="S235">
-        <v>2.75</v>
-      </c>
-      <c r="T235">
-        <v>1.975</v>
-      </c>
-      <c r="U235">
-        <v>1.875</v>
-      </c>
-      <c r="V235">
-        <v>0</v>
-      </c>
-      <c r="W235">
-        <v>0</v>
-      </c>
-      <c r="X235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:28">
-      <c r="A236" s="1">
-        <v>234</v>
-      </c>
-      <c r="B236" t="s">
-        <v>29</v>
-      </c>
-      <c r="C236" t="s">
-        <v>35</v>
-      </c>
-      <c r="D236" s="2">
-        <v>45410.41666666666</v>
-      </c>
-      <c r="E236" t="s">
-        <v>47</v>
-      </c>
-      <c r="F236" t="s">
-        <v>41</v>
-      </c>
-      <c r="J236">
-        <v>2.875</v>
-      </c>
-      <c r="K236">
-        <v>3.1</v>
-      </c>
-      <c r="L236">
-        <v>2.25</v>
-      </c>
-      <c r="M236">
-        <v>3.2</v>
-      </c>
-      <c r="N236">
-        <v>3.2</v>
-      </c>
-      <c r="O236">
-        <v>2.2</v>
-      </c>
-      <c r="P236">
-        <v>0.25</v>
-      </c>
-      <c r="Q236">
-        <v>1.925</v>
-      </c>
-      <c r="R236">
-        <v>1.925</v>
-      </c>
-      <c r="S236">
-        <v>2.5</v>
-      </c>
-      <c r="T236">
-        <v>1.825</v>
-      </c>
-      <c r="U236">
-        <v>2.025</v>
-      </c>
-      <c r="V236">
-        <v>0</v>
-      </c>
-      <c r="W236">
-        <v>0</v>
-      </c>
-      <c r="X236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:28">
-      <c r="A237" s="1">
-        <v>235</v>
-      </c>
-      <c r="B237" t="s">
-        <v>30</v>
-      </c>
-      <c r="C237" t="s">
-        <v>35</v>
-      </c>
-      <c r="D237" s="2">
-        <v>45410.41666666666</v>
-      </c>
-      <c r="E237" t="s">
-        <v>49</v>
-      </c>
-      <c r="F237" t="s">
-        <v>38</v>
-      </c>
-      <c r="J237">
-        <v>1.363</v>
-      </c>
-      <c r="K237">
-        <v>4.333</v>
-      </c>
-      <c r="L237">
-        <v>6.5</v>
-      </c>
-      <c r="M237">
-        <v>1.363</v>
-      </c>
-      <c r="N237">
-        <v>4.75</v>
-      </c>
-      <c r="O237">
-        <v>8</v>
-      </c>
-      <c r="P237">
-        <v>-1.25</v>
-      </c>
-      <c r="Q237">
-        <v>1.85</v>
-      </c>
-      <c r="R237">
-        <v>2</v>
-      </c>
-      <c r="S237">
-        <v>2.75</v>
-      </c>
-      <c r="T237">
-        <v>1.875</v>
-      </c>
-      <c r="U237">
-        <v>1.975</v>
-      </c>
-      <c r="V237">
-        <v>0</v>
-      </c>
-      <c r="W237">
-        <v>0</v>
-      </c>
-      <c r="X237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:28">
-      <c r="A238" s="1">
-        <v>236</v>
-      </c>
-      <c r="B238" t="s">
-        <v>31</v>
-      </c>
-      <c r="C238" t="s">
-        <v>35</v>
-      </c>
-      <c r="D238" s="2">
-        <v>45410.41666666666</v>
-      </c>
-      <c r="E238" t="s">
-        <v>50</v>
-      </c>
-      <c r="F238" t="s">
-        <v>39</v>
-      </c>
-      <c r="J238">
-        <v>6</v>
-      </c>
-      <c r="K238">
-        <v>4.333</v>
-      </c>
-      <c r="L238">
-        <v>1.4</v>
-      </c>
-      <c r="M238">
-        <v>6.5</v>
-      </c>
-      <c r="N238">
-        <v>4.5</v>
-      </c>
-      <c r="O238">
-        <v>1.444</v>
-      </c>
-      <c r="P238">
-        <v>1.25</v>
-      </c>
-      <c r="Q238">
-        <v>1.875</v>
-      </c>
-      <c r="R238">
-        <v>1.975</v>
-      </c>
-      <c r="S238">
-        <v>2.75</v>
-      </c>
-      <c r="T238">
-        <v>1.975</v>
-      </c>
-      <c r="U238">
-        <v>1.875</v>
-      </c>
-      <c r="V238">
-        <v>0</v>
-      </c>
-      <c r="W238">
-        <v>0</v>
-      </c>
-      <c r="X238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:28">
-      <c r="A239" s="1">
-        <v>237</v>
-      </c>
-      <c r="B239" t="s">
-        <v>32</v>
-      </c>
-      <c r="C239" t="s">
-        <v>35</v>
-      </c>
-      <c r="D239" s="2">
-        <v>45410.41666666666</v>
-      </c>
-      <c r="E239" t="s">
-        <v>44</v>
-      </c>
-      <c r="F239" t="s">
-        <v>43</v>
-      </c>
-      <c r="J239">
-        <v>5</v>
-      </c>
-      <c r="K239">
-        <v>4</v>
-      </c>
-      <c r="L239">
-        <v>1.5</v>
-      </c>
-      <c r="M239">
-        <v>5.5</v>
-      </c>
-      <c r="N239">
-        <v>4.2</v>
-      </c>
-      <c r="O239">
-        <v>1.533</v>
-      </c>
-      <c r="P239">
-        <v>1</v>
-      </c>
-      <c r="Q239">
-        <v>1.95</v>
-      </c>
-      <c r="R239">
-        <v>1.9</v>
-      </c>
-      <c r="S239">
-        <v>2.75</v>
-      </c>
-      <c r="T239">
-        <v>1.9</v>
-      </c>
-      <c r="U239">
-        <v>1.95</v>
-      </c>
-      <c r="V239">
-        <v>0</v>
-      </c>
-      <c r="W239">
-        <v>0</v>
-      </c>
-      <c r="X239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:28">
-      <c r="A240" s="1">
-        <v>238</v>
-      </c>
-      <c r="B240" t="s">
-        <v>33</v>
-      </c>
-      <c r="C240" t="s">
-        <v>35</v>
-      </c>
-      <c r="D240" s="2">
-        <v>45410.41666666666</v>
-      </c>
-      <c r="E240" t="s">
-        <v>45</v>
-      </c>
-      <c r="F240" t="s">
-        <v>37</v>
-      </c>
-      <c r="J240">
-        <v>2</v>
-      </c>
-      <c r="K240">
-        <v>3.3</v>
-      </c>
-      <c r="L240">
-        <v>3.25</v>
-      </c>
-      <c r="M240">
-        <v>2.05</v>
-      </c>
-      <c r="N240">
-        <v>3.4</v>
-      </c>
-      <c r="O240">
-        <v>3.4</v>
-      </c>
-      <c r="P240">
-        <v>-0.25</v>
-      </c>
-      <c r="Q240">
-        <v>1.8</v>
-      </c>
-      <c r="R240">
-        <v>2.05</v>
-      </c>
-      <c r="S240">
-        <v>2.5</v>
-      </c>
-      <c r="T240">
-        <v>1.9</v>
-      </c>
-      <c r="U240">
-        <v>1.95</v>
-      </c>
-      <c r="V240">
-        <v>0</v>
-      </c>
-      <c r="W240">
-        <v>0</v>
-      </c>
-      <c r="X240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:24">
-      <c r="A241" s="1">
-        <v>239</v>
-      </c>
-      <c r="B241" t="s">
-        <v>34</v>
-      </c>
-      <c r="C241" t="s">
-        <v>35</v>
-      </c>
-      <c r="D241" s="2">
-        <v>45410.41666666666</v>
-      </c>
-      <c r="E241" t="s">
-        <v>46</v>
-      </c>
-      <c r="F241" t="s">
-        <v>40</v>
-      </c>
-      <c r="J241">
-        <v>1.8</v>
-      </c>
-      <c r="K241">
-        <v>3.5</v>
-      </c>
-      <c r="L241">
-        <v>3.6</v>
-      </c>
-      <c r="M241">
-        <v>1.666</v>
-      </c>
-      <c r="N241">
-        <v>3.8</v>
-      </c>
-      <c r="O241">
-        <v>4.75</v>
-      </c>
-      <c r="P241">
-        <v>-0.75</v>
-      </c>
-      <c r="Q241">
-        <v>1.875</v>
-      </c>
-      <c r="R241">
-        <v>1.975</v>
-      </c>
-      <c r="S241">
-        <v>2.75</v>
-      </c>
-      <c r="T241">
-        <v>1.8</v>
-      </c>
-      <c r="U241">
-        <v>2.05</v>
-      </c>
-      <c r="V241">
-        <v>0</v>
-      </c>
-      <c r="W241">
-        <v>0</v>
-      </c>
-      <c r="X241">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Czech Republic First League/Czech Republic First League.xlsx
+++ b/Czech Republic First League/Czech Republic First League.xlsx
@@ -121,13 +121,13 @@
     <t>Czech Republic First League</t>
   </si>
   <si>
-    <t>Pardubice</t>
-  </si>
-  <si>
     <t>MFK Karvina</t>
   </si>
   <si>
     <t>FK Teplice</t>
+  </si>
+  <si>
+    <t>Pardubice</t>
   </si>
   <si>
     <t>Slavia Prague</t>
@@ -169,10 +169,10 @@
     <t>FK Jablonec</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6802933</v>
+        <v>6802936</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
@@ -643,10 +643,10 @@
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -655,61 +655,61 @@
         <v>51</v>
       </c>
       <c r="J2">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K2">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L2">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="M2">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N2">
         <v>3.3</v>
       </c>
       <c r="O2">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="R2">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S2">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T2">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U2">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V2">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z2">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB2">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6802936</v>
+        <v>6802937</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -729,55 +729,55 @@
         <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3">
+        <v>4.5</v>
+      </c>
+      <c r="K3">
+        <v>3.75</v>
+      </c>
+      <c r="L3">
+        <v>1.65</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
         <v>4</v>
       </c>
-      <c r="H3">
+      <c r="O3">
+        <v>1.571</v>
+      </c>
+      <c r="P3">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3">
-        <v>2.4</v>
-      </c>
-      <c r="K3">
-        <v>3.3</v>
-      </c>
-      <c r="L3">
-        <v>2.7</v>
-      </c>
-      <c r="M3">
-        <v>2.4</v>
-      </c>
-      <c r="N3">
-        <v>3.3</v>
-      </c>
-      <c r="O3">
-        <v>2.7</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
       <c r="Q3">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R3">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S3">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U3">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -786,16 +786,16 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -803,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6802937</v>
+        <v>6802933</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
@@ -815,46 +815,46 @@
         <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>52</v>
       </c>
       <c r="J4">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="K4">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L4">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N4">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O4">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
+        <v>2.025</v>
+      </c>
+      <c r="R4">
         <v>1.825</v>
       </c>
-      <c r="R4">
-        <v>2.025</v>
-      </c>
       <c r="S4">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T4">
         <v>2</v>
@@ -863,19 +863,19 @@
         <v>1.85</v>
       </c>
       <c r="V4">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y4">
+        <v>-1</v>
+      </c>
+      <c r="Z4">
         <v>0.825</v>
-      </c>
-      <c r="Z4">
-        <v>-1</v>
       </c>
       <c r="AA4">
         <v>-1</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J5">
         <v>1.142</v>
@@ -996,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6">
         <v>1.5</v>
@@ -1082,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J7">
         <v>1.833</v>
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J8">
         <v>2.1</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9">
         <v>1.333</v>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J10">
         <v>5.5</v>
@@ -1417,7 +1417,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J11">
         <v>1.666</v>
@@ -1500,7 +1500,7 @@
         <v>45136.41666666666</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
         <v>50</v>
@@ -1684,7 +1684,7 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J14">
         <v>7</v>
@@ -1761,7 +1761,7 @@
         <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1770,7 +1770,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J15">
         <v>1.533</v>
@@ -2016,7 +2016,7 @@
         <v>45143.41666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
         <v>40</v>
@@ -2028,7 +2028,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J18">
         <v>2.8</v>
@@ -2105,7 +2105,7 @@
         <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -2114,7 +2114,7 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J19">
         <v>1.166</v>
@@ -2200,7 +2200,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J20">
         <v>1.909</v>
@@ -2286,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J21">
         <v>1.75</v>
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J22">
         <v>1.5</v>
@@ -2446,7 +2446,7 @@
         <v>45144.41666666666</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
         <v>50</v>
@@ -2544,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J24">
         <v>2.1</v>
@@ -2630,7 +2630,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J25">
         <v>1.125</v>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J27">
         <v>1.666</v>
@@ -2888,7 +2888,7 @@
         <v>5</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J28">
         <v>4.333</v>
@@ -2974,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -3051,7 +3051,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3060,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J30">
         <v>1.5</v>
@@ -3125,7 +3125,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6802959</v>
+        <v>6802963</v>
       </c>
       <c r="C31" t="s">
         <v>34</v>
@@ -3134,13 +3134,13 @@
         <v>45151.41666666666</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3149,61 +3149,61 @@
         <v>51</v>
       </c>
       <c r="J31">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="K31">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L31">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="M31">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="N31">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O31">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="P31">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q31">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="R31">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S31">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T31">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U31">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V31">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="Z31">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB31">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3211,7 +3211,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6802963</v>
+        <v>6802959</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
@@ -3220,13 +3220,13 @@
         <v>45151.41666666666</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3235,61 +3235,61 @@
         <v>52</v>
       </c>
       <c r="J32">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="K32">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L32">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="M32">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="N32">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O32">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="P32">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q32">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="R32">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S32">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T32">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U32">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V32">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y32">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA32">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3318,7 +3318,7 @@
         <v>5</v>
       </c>
       <c r="I33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J33">
         <v>4.333</v>
@@ -3392,7 +3392,7 @@
         <v>45157.41666666666</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
         <v>50</v>
@@ -3567,7 +3567,7 @@
         <v>41</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3576,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J36">
         <v>1.75</v>
@@ -3650,7 +3650,7 @@
         <v>45157.54166666666</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F37" t="s">
         <v>42</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J38">
         <v>1.85</v>
@@ -3834,7 +3834,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J39">
         <v>1.55</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J40">
         <v>3</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J41">
         <v>1.181</v>
@@ -4080,7 +4080,7 @@
         <v>45164.41666666666</v>
       </c>
       <c r="E42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F42" t="s">
         <v>39</v>
@@ -4092,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J42">
         <v>3</v>
@@ -4169,7 +4169,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4178,7 +4178,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J43">
         <v>2.05</v>
@@ -4264,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J44">
         <v>1.533</v>
@@ -4329,7 +4329,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6802978</v>
+        <v>6802973</v>
       </c>
       <c r="C45" t="s">
         <v>34</v>
@@ -4338,58 +4338,58 @@
         <v>45165.41666666666</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J45">
+        <v>1.75</v>
+      </c>
+      <c r="K45">
+        <v>3.6</v>
+      </c>
+      <c r="L45">
+        <v>4</v>
+      </c>
+      <c r="M45">
         <v>1.85</v>
-      </c>
-      <c r="K45">
-        <v>3.4</v>
-      </c>
-      <c r="L45">
-        <v>3.8</v>
-      </c>
-      <c r="M45">
-        <v>1.75</v>
       </c>
       <c r="N45">
         <v>3.5</v>
       </c>
       <c r="O45">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P45">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q45">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R45">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S45">
         <v>2.75</v>
       </c>
       <c r="T45">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U45">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V45">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W45">
         <v>-1</v>
@@ -4398,16 +4398,16 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB45">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -4415,7 +4415,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6802973</v>
+        <v>6802978</v>
       </c>
       <c r="C46" t="s">
         <v>34</v>
@@ -4424,58 +4424,58 @@
         <v>45165.41666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G46">
         <v>2</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J46">
+        <v>1.85</v>
+      </c>
+      <c r="K46">
+        <v>3.4</v>
+      </c>
+      <c r="L46">
+        <v>3.8</v>
+      </c>
+      <c r="M46">
         <v>1.75</v>
-      </c>
-      <c r="K46">
-        <v>3.6</v>
-      </c>
-      <c r="L46">
-        <v>4</v>
-      </c>
-      <c r="M46">
-        <v>1.85</v>
       </c>
       <c r="N46">
         <v>3.5</v>
       </c>
       <c r="O46">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P46">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q46">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R46">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S46">
         <v>2.75</v>
       </c>
       <c r="T46">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V46">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="W46">
         <v>-1</v>
@@ -4484,16 +4484,16 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="47" spans="1:28">
@@ -4599,7 +4599,7 @@
         <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4608,7 +4608,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J48">
         <v>1.166</v>
@@ -4694,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J49">
         <v>1.444</v>
@@ -4780,7 +4780,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J50">
         <v>2.5</v>
@@ -4854,10 +4854,10 @@
         <v>45171.41666666666</v>
       </c>
       <c r="E51" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" t="s">
         <v>37</v>
-      </c>
-      <c r="F51" t="s">
-        <v>35</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4866,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J51">
         <v>2.2</v>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J52">
         <v>2.05</v>
@@ -5038,7 +5038,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J53">
         <v>4.5</v>
@@ -5124,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J54">
         <v>1.45</v>
@@ -5201,7 +5201,7 @@
         <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -5210,7 +5210,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J55">
         <v>1.1</v>
@@ -5296,7 +5296,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J56">
         <v>2.45</v>
@@ -5382,7 +5382,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J57">
         <v>1.7</v>
@@ -5468,7 +5468,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J58">
         <v>1.55</v>
@@ -5628,10 +5628,10 @@
         <v>45185.41666666666</v>
       </c>
       <c r="E60" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" t="s">
         <v>36</v>
-      </c>
-      <c r="F60" t="s">
-        <v>37</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5640,7 +5640,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J60">
         <v>2.5</v>
@@ -5714,7 +5714,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F61" t="s">
         <v>38</v>
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J61">
         <v>10</v>
@@ -5812,7 +5812,7 @@
         <v>7</v>
       </c>
       <c r="I62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J62">
         <v>5</v>
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J64">
         <v>1.5</v>
@@ -6061,7 +6061,7 @@
         <v>39</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J65">
         <v>1.4</v>
@@ -6147,7 +6147,7 @@
         <v>41</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -6242,7 +6242,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J67">
         <v>1.45</v>
@@ -6328,7 +6328,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J68">
         <v>3.1</v>
@@ -6414,7 +6414,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J69">
         <v>2.5</v>
@@ -6500,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J70">
         <v>2.1</v>
@@ -6577,7 +6577,7 @@
         <v>48</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G71">
         <v>6</v>
@@ -6586,7 +6586,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J71">
         <v>1.3</v>
@@ -6746,7 +6746,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="E73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
         <v>41</v>
@@ -6758,7 +6758,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J73">
         <v>2.7</v>
@@ -6844,7 +6844,7 @@
         <v>3</v>
       </c>
       <c r="I74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J74">
         <v>2.25</v>
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J76">
         <v>2.875</v>
@@ -7102,7 +7102,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J77">
         <v>1.727</v>
@@ -7188,7 +7188,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J78">
         <v>1.909</v>
@@ -7262,7 +7262,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F79" t="s">
         <v>38</v>
@@ -7348,7 +7348,7 @@
         <v>45200.54166666666</v>
       </c>
       <c r="E80" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F80" t="s">
         <v>49</v>
@@ -7446,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J81">
         <v>2.05</v>
@@ -7523,7 +7523,7 @@
         <v>39</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -7532,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J82">
         <v>1.55</v>
@@ -7695,7 +7695,7 @@
         <v>46</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7704,7 +7704,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J84">
         <v>1.95</v>
@@ -7781,7 +7781,7 @@
         <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7876,7 +7876,7 @@
         <v>3</v>
       </c>
       <c r="I86" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J86">
         <v>7</v>
@@ -7962,7 +7962,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J87">
         <v>1.3</v>
@@ -8048,7 +8048,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J88">
         <v>7</v>
@@ -8134,7 +8134,7 @@
         <v>9</v>
       </c>
       <c r="I89" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J89">
         <v>3.25</v>
@@ -8208,7 +8208,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="E90" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
         <v>44</v>
@@ -8294,7 +8294,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="E91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F91" t="s">
         <v>49</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J91">
         <v>2.4</v>
@@ -8392,7 +8392,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J92">
         <v>3.6</v>
@@ -8478,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J93">
         <v>1.3</v>
@@ -8564,7 +8564,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J94">
         <v>1.166</v>
@@ -8638,7 +8638,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="E95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F95" t="s">
         <v>45</v>
@@ -8650,7 +8650,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J95">
         <v>3</v>
@@ -8736,7 +8736,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J96">
         <v>2.375</v>
@@ -8813,7 +8813,7 @@
         <v>49</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J97">
         <v>1.9</v>
@@ -9071,7 +9071,7 @@
         <v>46</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9080,7 +9080,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J100">
         <v>2.05</v>
@@ -9166,7 +9166,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J101">
         <v>1.7</v>
@@ -9243,7 +9243,7 @@
         <v>48</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J102">
         <v>1.2</v>
@@ -9338,7 +9338,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J103">
         <v>4</v>
@@ -9424,7 +9424,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J104">
         <v>5</v>
@@ -9584,7 +9584,7 @@
         <v>45234.45833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F106" t="s">
         <v>43</v>
@@ -9596,7 +9596,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J106">
         <v>1.909</v>
@@ -9670,7 +9670,7 @@
         <v>45234.45833333334</v>
       </c>
       <c r="E107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F107" t="s">
         <v>40</v>
@@ -9682,7 +9682,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J107">
         <v>3.1</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J109">
         <v>1.2</v>
@@ -9940,7 +9940,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J110">
         <v>1.7</v>
@@ -10014,7 +10014,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="E111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F111" t="s">
         <v>45</v>
@@ -10026,7 +10026,7 @@
         <v>3</v>
       </c>
       <c r="I111" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J111">
         <v>3.8</v>
@@ -10112,7 +10112,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J112">
         <v>1.571</v>
@@ -10189,7 +10189,7 @@
         <v>40</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J113">
         <v>1.5</v>
@@ -10361,7 +10361,7 @@
         <v>46</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J115">
         <v>1.909</v>
@@ -10533,7 +10533,7 @@
         <v>47</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10542,7 +10542,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J117">
         <v>1.533</v>
@@ -10628,7 +10628,7 @@
         <v>4</v>
       </c>
       <c r="I118" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J118">
         <v>1.55</v>
@@ -10714,7 +10714,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J119">
         <v>4</v>
@@ -10800,7 +10800,7 @@
         <v>3</v>
       </c>
       <c r="I120" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J120">
         <v>6.5</v>
@@ -10886,7 +10886,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J121">
         <v>2.4</v>
@@ -11046,7 +11046,7 @@
         <v>45255.45833333334</v>
       </c>
       <c r="E123" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F123" t="s">
         <v>47</v>
@@ -11132,7 +11132,7 @@
         <v>45255.45833333334</v>
       </c>
       <c r="E124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F124" t="s">
         <v>44</v>
@@ -11144,7 +11144,7 @@
         <v>2</v>
       </c>
       <c r="I124" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J124">
         <v>3.1</v>
@@ -11230,7 +11230,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J125">
         <v>1.1</v>
@@ -11316,7 +11316,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J126">
         <v>2.3</v>
@@ -11393,7 +11393,7 @@
         <v>50</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11402,7 +11402,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J127">
         <v>2.05</v>
@@ -11488,7 +11488,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J128">
         <v>1.142</v>
@@ -11648,7 +11648,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F130" t="s">
         <v>42</v>
@@ -11660,7 +11660,7 @@
         <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J130">
         <v>6.5</v>
@@ -11737,7 +11737,7 @@
         <v>50</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11746,7 +11746,7 @@
         <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J131">
         <v>1.75</v>
@@ -11832,7 +11832,7 @@
         <v>3</v>
       </c>
       <c r="I132" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J132">
         <v>3.2</v>
@@ -11918,7 +11918,7 @@
         <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J133">
         <v>1.666</v>
@@ -12004,7 +12004,7 @@
         <v>3</v>
       </c>
       <c r="I134" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J134">
         <v>1.55</v>
@@ -12090,7 +12090,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J135">
         <v>1.25</v>
@@ -12176,7 +12176,7 @@
         <v>3</v>
       </c>
       <c r="I136" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J136">
         <v>2.9</v>
@@ -12262,7 +12262,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J137">
         <v>1.2</v>
@@ -12348,7 +12348,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J138">
         <v>1.25</v>
@@ -12434,7 +12434,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J139">
         <v>2.2</v>
@@ -12511,7 +12511,7 @@
         <v>40</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12671,7 +12671,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6803080</v>
+        <v>6803082</v>
       </c>
       <c r="C142" t="s">
         <v>34</v>
@@ -12680,76 +12680,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="E142" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="s">
         <v>51</v>
       </c>
       <c r="J142">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="K142">
         <v>3.3</v>
       </c>
       <c r="L142">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="M142">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N142">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O142">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="P142">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q142">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R142">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S142">
         <v>2.5</v>
       </c>
       <c r="T142">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V142">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z142">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -12757,7 +12757,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6803081</v>
+        <v>6803080</v>
       </c>
       <c r="C143" t="s">
         <v>34</v>
@@ -12766,76 +12766,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="E143" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F143" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G143">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="s">
         <v>52</v>
       </c>
       <c r="J143">
+        <v>2.3</v>
+      </c>
+      <c r="K143">
+        <v>3.3</v>
+      </c>
+      <c r="L143">
+        <v>3.1</v>
+      </c>
+      <c r="M143">
         <v>2.5</v>
       </c>
-      <c r="K143">
-        <v>3.4</v>
-      </c>
-      <c r="L143">
-        <v>2.7</v>
-      </c>
-      <c r="M143">
-        <v>3</v>
-      </c>
       <c r="N143">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O143">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="P143">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q143">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R143">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S143">
         <v>2.5</v>
       </c>
       <c r="T143">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U143">
+        <v>1.9</v>
+      </c>
+      <c r="V143">
+        <v>-1</v>
+      </c>
+      <c r="W143">
+        <v>-1</v>
+      </c>
+      <c r="X143">
         <v>1.8</v>
       </c>
-      <c r="V143">
-        <v>2</v>
-      </c>
-      <c r="W143">
-        <v>-1</v>
-      </c>
-      <c r="X143">
-        <v>-1</v>
-      </c>
       <c r="Y143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA143">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12843,7 +12843,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6803082</v>
+        <v>6803081</v>
       </c>
       <c r="C144" t="s">
         <v>34</v>
@@ -12852,28 +12852,28 @@
         <v>45276.45833333334</v>
       </c>
       <c r="E144" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F144" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G144">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J144">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="K144">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L144">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="M144">
         <v>3</v>
@@ -12897,10 +12897,10 @@
         <v>2.5</v>
       </c>
       <c r="T144">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U144">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V144">
         <v>2</v>
@@ -12918,10 +12918,10 @@
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -12941,7 +12941,7 @@
         <v>50</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -13122,7 +13122,7 @@
         <v>3</v>
       </c>
       <c r="I147" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J147">
         <v>3.5</v>
@@ -13208,7 +13208,7 @@
         <v>3</v>
       </c>
       <c r="I148" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J148">
         <v>5</v>
@@ -13285,7 +13285,7 @@
         <v>42</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13294,7 +13294,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J149">
         <v>1.181</v>
@@ -13371,7 +13371,7 @@
         <v>39</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13380,7 +13380,7 @@
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J150">
         <v>1.4</v>
@@ -13466,7 +13466,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J151">
         <v>2.2</v>
@@ -13540,7 +13540,7 @@
         <v>45332.45833333334</v>
       </c>
       <c r="E152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F152" t="s">
         <v>42</v>
@@ -13552,7 +13552,7 @@
         <v>3</v>
       </c>
       <c r="I152" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J152">
         <v>6.5</v>
@@ -13638,7 +13638,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J153">
         <v>3.25</v>
@@ -13884,7 +13884,7 @@
         <v>45333.45833333334</v>
       </c>
       <c r="E156" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F156" t="s">
         <v>43</v>
@@ -13896,7 +13896,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J156">
         <v>1.85</v>
@@ -13982,7 +13982,7 @@
         <v>3</v>
       </c>
       <c r="I157" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J157">
         <v>1.222</v>
@@ -14068,7 +14068,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J158">
         <v>2.875</v>
@@ -14142,10 +14142,10 @@
         <v>45336.54166666666</v>
       </c>
       <c r="E159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -14154,7 +14154,7 @@
         <v>3</v>
       </c>
       <c r="I159" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J159">
         <v>2.05</v>
@@ -14326,7 +14326,7 @@
         <v>3</v>
       </c>
       <c r="I161" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J161">
         <v>2.375</v>
@@ -14412,7 +14412,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J162">
         <v>1.571</v>
@@ -14486,10 +14486,10 @@
         <v>45339.45833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14670,7 +14670,7 @@
         <v>2</v>
       </c>
       <c r="I165" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J165">
         <v>3.8</v>
@@ -14744,7 +14744,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="E166" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F166" t="s">
         <v>38</v>
@@ -14756,7 +14756,7 @@
         <v>3</v>
       </c>
       <c r="I166" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J166">
         <v>8.5</v>
@@ -14842,7 +14842,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J167">
         <v>3.5</v>
@@ -14928,7 +14928,7 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J168">
         <v>1.3</v>
@@ -15002,7 +15002,7 @@
         <v>45343.5625</v>
       </c>
       <c r="E169" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F169" t="s">
         <v>44</v>
@@ -15014,7 +15014,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J169">
         <v>3.1</v>
@@ -15260,10 +15260,10 @@
         <v>45346.45833333334</v>
       </c>
       <c r="E172" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -15444,7 +15444,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J174">
         <v>1.166</v>
@@ -15521,7 +15521,7 @@
         <v>38</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G175">
         <v>3</v>
@@ -15530,7 +15530,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J175">
         <v>1.111</v>
@@ -15616,7 +15616,7 @@
         <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J176">
         <v>3.4</v>
@@ -15702,7 +15702,7 @@
         <v>3</v>
       </c>
       <c r="I177" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J177">
         <v>4</v>
@@ -15776,7 +15776,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="E178" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F178" t="s">
         <v>39</v>
@@ -15788,7 +15788,7 @@
         <v>3</v>
       </c>
       <c r="I178" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J178">
         <v>4</v>
@@ -16046,7 +16046,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J181">
         <v>1.533</v>
@@ -16120,7 +16120,7 @@
         <v>45353.58333333334</v>
       </c>
       <c r="E182" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F182" t="s">
         <v>48</v>
@@ -16132,7 +16132,7 @@
         <v>3</v>
       </c>
       <c r="I182" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J182">
         <v>5</v>
@@ -16206,7 +16206,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E183" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F183" t="s">
         <v>41</v>
@@ -16218,7 +16218,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J183">
         <v>2.5</v>
@@ -16304,7 +16304,7 @@
         <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J184">
         <v>4</v>
@@ -16467,7 +16467,7 @@
         <v>41</v>
       </c>
       <c r="F186" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -16476,7 +16476,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J186">
         <v>1.6</v>
@@ -16562,7 +16562,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J187">
         <v>1.8</v>
@@ -16725,7 +16725,7 @@
         <v>49</v>
       </c>
       <c r="F189" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G189">
         <v>2</v>
@@ -16734,7 +16734,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J189">
         <v>1.85</v>
@@ -16820,7 +16820,7 @@
         <v>2</v>
       </c>
       <c r="I190" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J190">
         <v>1.75</v>
@@ -16983,7 +16983,7 @@
         <v>38</v>
       </c>
       <c r="F192" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G192">
         <v>4</v>
@@ -16992,7 +16992,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J192">
         <v>1.2</v>
@@ -17078,7 +17078,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J193">
         <v>2.75</v>
@@ -17152,7 +17152,7 @@
         <v>45367.45833333334</v>
       </c>
       <c r="E194" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F194" t="s">
         <v>46</v>
@@ -17164,7 +17164,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J194">
         <v>2.15</v>
@@ -17336,7 +17336,7 @@
         <v>1</v>
       </c>
       <c r="I196" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J196">
         <v>1.909</v>
@@ -17410,7 +17410,7 @@
         <v>45367.58333333334</v>
       </c>
       <c r="E197" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F197" t="s">
         <v>39</v>
@@ -17508,7 +17508,7 @@
         <v>2</v>
       </c>
       <c r="I198" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J198">
         <v>3.8</v>
@@ -17594,7 +17594,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J199">
         <v>1.25</v>
@@ -17668,7 +17668,7 @@
         <v>45368.45833333334</v>
       </c>
       <c r="E200" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F200" t="s">
         <v>45</v>
@@ -17680,7 +17680,7 @@
         <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J200">
         <v>3.5</v>
@@ -17766,7 +17766,7 @@
         <v>1</v>
       </c>
       <c r="I201" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J201">
         <v>1.222</v>
@@ -17852,7 +17852,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J202">
         <v>2.1</v>
@@ -17929,7 +17929,7 @@
         <v>44</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -17938,7 +17938,7 @@
         <v>2</v>
       </c>
       <c r="I203" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J203">
         <v>1.615</v>
@@ -18024,7 +18024,7 @@
         <v>3</v>
       </c>
       <c r="I204" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J204">
         <v>1.4</v>
@@ -18110,7 +18110,7 @@
         <v>3</v>
       </c>
       <c r="I205" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J205">
         <v>4.333</v>
@@ -18187,7 +18187,7 @@
         <v>45</v>
       </c>
       <c r="F206" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G206">
         <v>4</v>
@@ -18196,7 +18196,7 @@
         <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J206">
         <v>1.6</v>
@@ -18273,7 +18273,7 @@
         <v>49</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -18282,7 +18282,7 @@
         <v>1</v>
       </c>
       <c r="I207" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J207">
         <v>1.615</v>
@@ -18368,7 +18368,7 @@
         <v>2</v>
       </c>
       <c r="I208" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J208">
         <v>1.45</v>
@@ -18454,7 +18454,7 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J209">
         <v>8</v>
@@ -18528,7 +18528,7 @@
         <v>45388.41666666666</v>
       </c>
       <c r="E210" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F210" t="s">
         <v>48</v>
@@ -18626,7 +18626,7 @@
         <v>2</v>
       </c>
       <c r="I211" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J211">
         <v>2.6</v>
@@ -18712,7 +18712,7 @@
         <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J212">
         <v>2.375</v>
@@ -18798,7 +18798,7 @@
         <v>1</v>
       </c>
       <c r="I213" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J213">
         <v>1.25</v>
@@ -18872,7 +18872,7 @@
         <v>45389.41666666666</v>
       </c>
       <c r="E214" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F214" t="s">
         <v>46</v>
@@ -18958,7 +18958,7 @@
         <v>45389.41666666666</v>
       </c>
       <c r="E215" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F215" t="s">
         <v>49</v>
@@ -18970,7 +18970,7 @@
         <v>1</v>
       </c>
       <c r="I215" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J215">
         <v>2.25</v>
@@ -19056,7 +19056,7 @@
         <v>3</v>
       </c>
       <c r="I216" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J216">
         <v>2.625</v>
@@ -19228,7 +19228,7 @@
         <v>3</v>
       </c>
       <c r="I218" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J218">
         <v>5.25</v>
@@ -19305,7 +19305,7 @@
         <v>40</v>
       </c>
       <c r="F219" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -19314,7 +19314,7 @@
         <v>2</v>
       </c>
       <c r="I219" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J219">
         <v>1.75</v>
@@ -19400,7 +19400,7 @@
         <v>2</v>
       </c>
       <c r="I220" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J220">
         <v>3.1</v>
@@ -19486,7 +19486,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J221">
         <v>2.5</v>
@@ -19563,7 +19563,7 @@
         <v>45</v>
       </c>
       <c r="F222" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G222">
         <v>2</v>
@@ -19649,7 +19649,7 @@
         <v>43</v>
       </c>
       <c r="F223" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -19744,7 +19744,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J224">
         <v>2.15</v>
@@ -19830,7 +19830,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J225">
         <v>4.2</v>
@@ -20002,7 +20002,7 @@
         <v>3</v>
       </c>
       <c r="I227" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J227">
         <v>1.444</v>
@@ -20076,7 +20076,7 @@
         <v>45402.41666666666</v>
       </c>
       <c r="E228" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F228" t="s">
         <v>47</v>
@@ -20162,7 +20162,7 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E229" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F229" t="s">
         <v>46</v>
@@ -20420,7 +20420,7 @@
         <v>45403.41666666666</v>
       </c>
       <c r="E232" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F232" t="s">
         <v>40</v>
@@ -20432,7 +20432,7 @@
         <v>2</v>
       </c>
       <c r="I232" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J232">
         <v>2.7</v>
@@ -20681,7 +20681,7 @@
         <v>47</v>
       </c>
       <c r="F235" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G235">
         <v>2</v>
@@ -20690,7 +20690,7 @@
         <v>1</v>
       </c>
       <c r="I235" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J235">
         <v>1.727</v>
@@ -20939,7 +20939,7 @@
         <v>48</v>
       </c>
       <c r="F238" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G238">
         <v>3</v>
@@ -20948,7 +20948,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J238">
         <v>1.363</v>
@@ -21034,7 +21034,7 @@
         <v>2</v>
       </c>
       <c r="I239" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J239">
         <v>6</v>
@@ -21120,7 +21120,7 @@
         <v>4</v>
       </c>
       <c r="I240" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J240">
         <v>5</v>
@@ -21197,7 +21197,7 @@
         <v>43</v>
       </c>
       <c r="F241" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -21206,7 +21206,7 @@
         <v>1</v>
       </c>
       <c r="I241" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J241">
         <v>2</v>
@@ -21280,7 +21280,7 @@
         <v>45416.41666666666</v>
       </c>
       <c r="E242" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F242" t="s">
         <v>43</v>
@@ -21348,7 +21348,7 @@
         <v>50</v>
       </c>
       <c r="F243" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J243">
         <v>1.615</v>
@@ -21425,31 +21425,31 @@
         <v>2.625</v>
       </c>
       <c r="M244">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="N244">
         <v>3.4</v>
       </c>
       <c r="O244">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P244">
         <v>-0.25</v>
       </c>
       <c r="Q244">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R244">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S244">
         <v>2.5</v>
       </c>
       <c r="T244">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U244">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V244">
         <v>0</v>
@@ -21490,10 +21490,10 @@
         <v>8</v>
       </c>
       <c r="M245">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="N245">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="O245">
         <v>8</v>
@@ -21502,19 +21502,19 @@
         <v>-1.5</v>
       </c>
       <c r="Q245">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R245">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S245">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T245">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U245">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V245">
         <v>0</v>
@@ -21605,7 +21605,7 @@
         <v>45417.41666666666</v>
       </c>
       <c r="E247" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F247" t="s">
         <v>41</v>
@@ -21706,10 +21706,10 @@
         <v>2.5</v>
       </c>
       <c r="T248">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U248">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V248">
         <v>0</v>

--- a/Czech Republic First League/Czech Republic First League.xlsx
+++ b/Czech Republic First League/Czech Republic First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -118,16 +118,19 @@
     <t>8157943</t>
   </si>
   <si>
+    <t>8157168</t>
+  </si>
+  <si>
     <t>Czech Republic First League</t>
+  </si>
+  <si>
+    <t>Pardubice</t>
   </si>
   <si>
     <t>MFK Karvina</t>
   </si>
   <si>
     <t>FK Teplice</t>
-  </si>
-  <si>
-    <t>Pardubice</t>
   </si>
   <si>
     <t>Slavia Prague</t>
@@ -169,10 +172,10 @@
     <t>FK Jablonec</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
@@ -537,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB248"/>
+  <dimension ref="A1:AB249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,85 +634,85 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6802936</v>
+        <v>6802933</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2">
         <v>45129.41666666666</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J2">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K2">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L2">
+        <v>2.8</v>
+      </c>
+      <c r="M2">
         <v>2.7</v>
-      </c>
-      <c r="M2">
-        <v>2.4</v>
       </c>
       <c r="N2">
         <v>3.3</v>
       </c>
       <c r="O2">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="R2">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S2">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U2">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V2">
+        <v>-1</v>
+      </c>
+      <c r="W2">
+        <v>-1</v>
+      </c>
+      <c r="X2">
         <v>1.4</v>
       </c>
-      <c r="W2">
-        <v>-1</v>
-      </c>
-      <c r="X2">
-        <v>-1</v>
-      </c>
       <c r="Y2">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA2">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -717,67 +720,67 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6802937</v>
+        <v>6802936</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2">
         <v>45129.41666666666</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J3">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="K3">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L3">
-        <v>1.65</v>
+        <v>2.7</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N3">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O3">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R3">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S3">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V3">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -786,16 +789,16 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -803,58 +806,58 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6802933</v>
+        <v>6802937</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2">
         <v>45129.41666666666</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4">
+        <v>4.5</v>
+      </c>
+      <c r="K4">
+        <v>3.75</v>
+      </c>
+      <c r="L4">
+        <v>1.65</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>1.571</v>
+      </c>
+      <c r="P4">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4">
-        <v>2.3</v>
-      </c>
-      <c r="K4">
-        <v>3.4</v>
-      </c>
-      <c r="L4">
-        <v>2.8</v>
-      </c>
-      <c r="M4">
-        <v>2.7</v>
-      </c>
-      <c r="N4">
-        <v>3.3</v>
-      </c>
-      <c r="O4">
-        <v>2.4</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
       <c r="Q4">
+        <v>1.825</v>
+      </c>
+      <c r="R4">
         <v>2.025</v>
       </c>
-      <c r="R4">
-        <v>1.825</v>
-      </c>
       <c r="S4">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T4">
         <v>2</v>
@@ -863,19 +866,19 @@
         <v>1.85</v>
       </c>
       <c r="V4">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
         <v>-1</v>
@@ -892,16 +895,16 @@
         <v>6802939</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2">
         <v>45129.54166666666</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -910,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J5">
         <v>1.142</v>
@@ -978,16 +981,16 @@
         <v>6802940</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2">
         <v>45130.41666666666</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -996,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J6">
         <v>1.5</v>
@@ -1064,16 +1067,16 @@
         <v>6802934</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2">
         <v>45130.41666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1082,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J7">
         <v>1.833</v>
@@ -1150,16 +1153,16 @@
         <v>6802938</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2">
         <v>45130.41666666666</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1168,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J8">
         <v>2.1</v>
@@ -1236,16 +1239,16 @@
         <v>6802935</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2">
         <v>45130.54166666666</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1254,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J9">
         <v>1.333</v>
@@ -1322,16 +1325,16 @@
         <v>6802947</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2">
         <v>45136.41666666666</v>
       </c>
       <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
         <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1408,16 +1411,16 @@
         <v>6802945</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2">
         <v>45136.41666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1426,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J11">
         <v>1.666</v>
@@ -1494,16 +1497,16 @@
         <v>6802948</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2">
         <v>45136.41666666666</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1512,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J12">
         <v>2.1</v>
@@ -1580,16 +1583,16 @@
         <v>6802943</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2">
         <v>45136.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1598,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J13">
         <v>2.375</v>
@@ -1666,16 +1669,16 @@
         <v>6802942</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2">
         <v>45137.41666666666</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1752,16 +1755,16 @@
         <v>6802944</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2">
         <v>45137.41666666666</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1838,16 +1841,16 @@
         <v>6802946</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2">
         <v>45137.41666666666</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1856,7 +1859,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J16">
         <v>1.85</v>
@@ -1924,16 +1927,16 @@
         <v>6802941</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2">
         <v>45137.54166666666</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1942,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J17">
         <v>1.333</v>
@@ -2010,16 +2013,16 @@
         <v>6802952</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2">
         <v>45143.41666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2096,16 +2099,16 @@
         <v>6802951</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2">
         <v>45143.41666666666</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -2114,7 +2117,7 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J19">
         <v>1.166</v>
@@ -2182,16 +2185,16 @@
         <v>6802956</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2">
         <v>45143.41666666666</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2268,16 +2271,16 @@
         <v>6802949</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2">
         <v>45143.54166666666</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -2286,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J21">
         <v>1.75</v>
@@ -2354,16 +2357,16 @@
         <v>6802950</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2">
         <v>45144.41666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -2372,7 +2375,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J22">
         <v>1.5</v>
@@ -2440,16 +2443,16 @@
         <v>6802953</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2">
         <v>45144.41666666666</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2458,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J23">
         <v>2.625</v>
@@ -2526,16 +2529,16 @@
         <v>6802954</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2">
         <v>45144.41666666666</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2612,16 +2615,16 @@
         <v>6802955</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D25" s="2">
         <v>45144.54166666666</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2630,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J25">
         <v>1.125</v>
@@ -2698,16 +2701,16 @@
         <v>6802962</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2">
         <v>45150.41666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2716,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J26">
         <v>2.6</v>
@@ -2784,16 +2787,16 @@
         <v>6802958</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2">
         <v>45150.41666666666</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2802,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J27">
         <v>1.666</v>
@@ -2870,16 +2873,16 @@
         <v>6802964</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" s="2">
         <v>45150.54166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2956,16 +2959,16 @@
         <v>6802961</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D29" s="2">
         <v>45151.41666666666</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3042,16 +3045,16 @@
         <v>6802960</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" s="2">
         <v>45151.41666666666</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3060,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J30">
         <v>1.5</v>
@@ -3125,85 +3128,85 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6802963</v>
+        <v>6802959</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D31" s="2">
         <v>45151.41666666666</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J31">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="K31">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="M31">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="N31">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O31">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="P31">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q31">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="R31">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S31">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T31">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U31">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V31">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y31">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA31">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3211,85 +3214,85 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6802959</v>
+        <v>6802963</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D32" s="2">
         <v>45151.41666666666</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J32">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="K32">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L32">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="M32">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="N32">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O32">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="P32">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q32">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="R32">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S32">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T32">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U32">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V32">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="Z32">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB32">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3300,16 +3303,16 @@
         <v>6802957</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D33" s="2">
         <v>45151.54166666666</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3386,16 +3389,16 @@
         <v>6802971</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D34" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3404,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J34">
         <v>2.5</v>
@@ -3472,16 +3475,16 @@
         <v>6802968</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D35" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3490,7 +3493,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J35">
         <v>1.75</v>
@@ -3558,16 +3561,16 @@
         <v>6802970</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D36" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3576,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J36">
         <v>1.75</v>
@@ -3644,16 +3647,16 @@
         <v>6802972</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D37" s="2">
         <v>45157.54166666666</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3662,7 +3665,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J37">
         <v>5.5</v>
@@ -3730,16 +3733,16 @@
         <v>6802969</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D38" s="2">
         <v>45158.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3748,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J38">
         <v>1.85</v>
@@ -3816,16 +3819,16 @@
         <v>6802967</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D39" s="2">
         <v>45158.41666666666</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3834,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J39">
         <v>1.55</v>
@@ -3902,16 +3905,16 @@
         <v>6802966</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D40" s="2">
         <v>45158.41666666666</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -3920,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J40">
         <v>3</v>
@@ -3988,16 +3991,16 @@
         <v>6802965</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D41" s="2">
         <v>45158.54166666666</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -4006,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J41">
         <v>1.181</v>
@@ -4074,16 +4077,16 @@
         <v>6802980</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D42" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4160,16 +4163,16 @@
         <v>6802977</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D43" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4178,7 +4181,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J43">
         <v>2.05</v>
@@ -4246,16 +4249,16 @@
         <v>7098153</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D44" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4264,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J44">
         <v>1.533</v>
@@ -4329,67 +4332,67 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6802973</v>
+        <v>6802978</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D45" s="2">
         <v>45165.41666666666</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J45">
+        <v>1.85</v>
+      </c>
+      <c r="K45">
+        <v>3.4</v>
+      </c>
+      <c r="L45">
+        <v>3.8</v>
+      </c>
+      <c r="M45">
         <v>1.75</v>
-      </c>
-      <c r="K45">
-        <v>3.6</v>
-      </c>
-      <c r="L45">
-        <v>4</v>
-      </c>
-      <c r="M45">
-        <v>1.85</v>
       </c>
       <c r="N45">
         <v>3.5</v>
       </c>
       <c r="O45">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P45">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q45">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R45">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S45">
         <v>2.75</v>
       </c>
       <c r="T45">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U45">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V45">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="W45">
         <v>-1</v>
@@ -4398,16 +4401,16 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -4415,67 +4418,67 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6802978</v>
+        <v>6802973</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D46" s="2">
         <v>45165.41666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>2</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J46">
+        <v>1.75</v>
+      </c>
+      <c r="K46">
+        <v>3.6</v>
+      </c>
+      <c r="L46">
+        <v>4</v>
+      </c>
+      <c r="M46">
         <v>1.85</v>
-      </c>
-      <c r="K46">
-        <v>3.4</v>
-      </c>
-      <c r="L46">
-        <v>3.8</v>
-      </c>
-      <c r="M46">
-        <v>1.75</v>
       </c>
       <c r="N46">
         <v>3.5</v>
       </c>
       <c r="O46">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P46">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q46">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R46">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S46">
         <v>2.75</v>
       </c>
       <c r="T46">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U46">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W46">
         <v>-1</v>
@@ -4484,16 +4487,16 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB46">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="47" spans="1:28">
@@ -4504,16 +4507,16 @@
         <v>7098155</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D47" s="2">
         <v>45165.41666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4522,7 +4525,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J47">
         <v>7</v>
@@ -4590,16 +4593,16 @@
         <v>7098154</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D48" s="2">
         <v>45165.54166666666</v>
       </c>
       <c r="E48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4608,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J48">
         <v>1.166</v>
@@ -4676,16 +4679,16 @@
         <v>6802984</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D49" s="2">
         <v>45171.41666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4694,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J49">
         <v>1.444</v>
@@ -4762,16 +4765,16 @@
         <v>6802986</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D50" s="2">
         <v>45171.41666666666</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4780,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J50">
         <v>2.5</v>
@@ -4848,16 +4851,16 @@
         <v>6802988</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D51" s="2">
         <v>45171.41666666666</v>
       </c>
       <c r="E51" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" t="s">
         <v>36</v>
-      </c>
-      <c r="F51" t="s">
-        <v>37</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4934,16 +4937,16 @@
         <v>6802983</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D52" s="2">
         <v>45171.54166666666</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4952,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J52">
         <v>2.05</v>
@@ -5020,16 +5023,16 @@
         <v>6802987</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D53" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5106,17 +5109,17 @@
         <v>6802981</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D54" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E54" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" t="s">
         <v>48</v>
       </c>
-      <c r="F54" t="s">
-        <v>47</v>
-      </c>
       <c r="G54">
         <v>2</v>
       </c>
@@ -5124,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J54">
         <v>1.45</v>
@@ -5192,16 +5195,16 @@
         <v>6802985</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D55" s="2">
         <v>45172.54166666666</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -5210,7 +5213,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J55">
         <v>1.1</v>
@@ -5278,16 +5281,16 @@
         <v>6802982</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D56" s="2">
         <v>45172.625</v>
       </c>
       <c r="E56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5364,16 +5367,16 @@
         <v>6802989</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D57" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G57">
         <v>5</v>
@@ -5382,7 +5385,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J57">
         <v>1.7</v>
@@ -5450,16 +5453,16 @@
         <v>6802991</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D58" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5468,7 +5471,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J58">
         <v>1.55</v>
@@ -5536,16 +5539,16 @@
         <v>6802992</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D59" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5554,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J59">
         <v>2.25</v>
@@ -5622,16 +5625,16 @@
         <v>6802993</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D60" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E60" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5708,16 +5711,16 @@
         <v>6802995</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D61" s="2">
         <v>45185.54166666666</v>
       </c>
       <c r="E61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5794,16 +5797,16 @@
         <v>6802990</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D62" s="2">
         <v>45186.41666666666</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5880,16 +5883,16 @@
         <v>6802994</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D63" s="2">
         <v>45186.41666666666</v>
       </c>
       <c r="E63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5898,7 +5901,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J63">
         <v>2.35</v>
@@ -5966,16 +5969,16 @@
         <v>6802996</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D64" s="2">
         <v>45186.54166666666</v>
       </c>
       <c r="E64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G64">
         <v>5</v>
@@ -5984,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J64">
         <v>1.5</v>
@@ -6052,16 +6055,16 @@
         <v>6803004</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D65" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6070,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J65">
         <v>1.4</v>
@@ -6138,16 +6141,16 @@
         <v>6803002</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D66" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -6156,7 +6159,7 @@
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J66">
         <v>1.9</v>
@@ -6224,16 +6227,16 @@
         <v>6803000</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D67" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G67">
         <v>5</v>
@@ -6242,7 +6245,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J67">
         <v>1.45</v>
@@ -6310,16 +6313,16 @@
         <v>6802999</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D68" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6396,16 +6399,16 @@
         <v>6803001</v>
       </c>
       <c r="C69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D69" s="2">
         <v>45192.54166666666</v>
       </c>
       <c r="E69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -6414,7 +6417,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J69">
         <v>2.5</v>
@@ -6482,16 +6485,16 @@
         <v>6802997</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D70" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F70" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6500,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J70">
         <v>2.1</v>
@@ -6568,16 +6571,16 @@
         <v>6802998</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D71" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G71">
         <v>6</v>
@@ -6586,7 +6589,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J71">
         <v>1.3</v>
@@ -6654,16 +6657,16 @@
         <v>6803003</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D72" s="2">
         <v>45193.54166666666</v>
       </c>
       <c r="E72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6672,7 +6675,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -6740,16 +6743,16 @@
         <v>6803011</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D73" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G73">
         <v>5</v>
@@ -6758,7 +6761,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J73">
         <v>2.7</v>
@@ -6826,16 +6829,16 @@
         <v>6803005</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D74" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6912,16 +6915,16 @@
         <v>6803007</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D75" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6930,7 +6933,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J75">
         <v>2.15</v>
@@ -6998,16 +7001,16 @@
         <v>6803009</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D76" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E76" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -7016,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J76">
         <v>2.875</v>
@@ -7084,16 +7087,16 @@
         <v>6803010</v>
       </c>
       <c r="C77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D77" s="2">
         <v>45199.54166666666</v>
       </c>
       <c r="E77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7102,7 +7105,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J77">
         <v>1.727</v>
@@ -7170,16 +7173,16 @@
         <v>6803006</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D78" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7188,7 +7191,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J78">
         <v>1.909</v>
@@ -7256,16 +7259,16 @@
         <v>6803012</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D79" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E79" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7274,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J79">
         <v>9</v>
@@ -7342,16 +7345,16 @@
         <v>6803008</v>
       </c>
       <c r="C80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D80" s="2">
         <v>45200.54166666666</v>
       </c>
       <c r="E80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7360,7 +7363,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J80">
         <v>2.3</v>
@@ -7428,16 +7431,16 @@
         <v>6803018</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D81" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G81">
         <v>4</v>
@@ -7446,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J81">
         <v>2.05</v>
@@ -7514,16 +7517,16 @@
         <v>6803020</v>
       </c>
       <c r="C82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D82" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -7532,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J82">
         <v>1.55</v>
@@ -7600,16 +7603,16 @@
         <v>6803017</v>
       </c>
       <c r="C83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D83" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -7618,7 +7621,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J83">
         <v>1.6</v>
@@ -7686,16 +7689,16 @@
         <v>6803015</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D84" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7704,7 +7707,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J84">
         <v>1.95</v>
@@ -7772,16 +7775,16 @@
         <v>6803016</v>
       </c>
       <c r="C85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D85" s="2">
         <v>45206.54166666666</v>
       </c>
       <c r="E85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7790,7 +7793,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J85">
         <v>1.6</v>
@@ -7858,16 +7861,16 @@
         <v>6803013</v>
       </c>
       <c r="C86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D86" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7944,16 +7947,16 @@
         <v>6803014</v>
       </c>
       <c r="C87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D87" s="2">
         <v>45207.54166666666</v>
       </c>
       <c r="E87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F87" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G87">
         <v>3</v>
@@ -7962,7 +7965,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J87">
         <v>1.3</v>
@@ -8030,16 +8033,16 @@
         <v>6803019</v>
       </c>
       <c r="C88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D88" s="2">
         <v>45207.54166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8116,16 +8119,16 @@
         <v>6803021</v>
       </c>
       <c r="C89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D89" s="2">
         <v>45220.41666666666</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G89">
         <v>5</v>
@@ -8202,16 +8205,16 @@
         <v>6803022</v>
       </c>
       <c r="C90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D90" s="2">
         <v>45220.41666666666</v>
       </c>
       <c r="E90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8220,7 +8223,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J90">
         <v>3</v>
@@ -8288,16 +8291,16 @@
         <v>6803025</v>
       </c>
       <c r="C91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D91" s="2">
         <v>45220.41666666666</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8306,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J91">
         <v>2.4</v>
@@ -8374,16 +8377,16 @@
         <v>6803027</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D92" s="2">
         <v>45220.41666666666</v>
       </c>
       <c r="E92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G92">
         <v>3</v>
@@ -8392,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J92">
         <v>3.6</v>
@@ -8460,16 +8463,16 @@
         <v>6803028</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D93" s="2">
         <v>45220.54166666666</v>
       </c>
       <c r="E93" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8478,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J93">
         <v>1.3</v>
@@ -8546,16 +8549,16 @@
         <v>6803024</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D94" s="2">
         <v>45221.41666666666</v>
       </c>
       <c r="E94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G94">
         <v>4</v>
@@ -8564,7 +8567,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J94">
         <v>1.166</v>
@@ -8632,16 +8635,16 @@
         <v>6803026</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D95" s="2">
         <v>45221.41666666666</v>
       </c>
       <c r="E95" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8718,16 +8721,16 @@
         <v>6803023</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D96" s="2">
         <v>45221.54166666666</v>
       </c>
       <c r="E96" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8804,16 +8807,16 @@
         <v>6803032</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D97" s="2">
         <v>45227.41666666666</v>
       </c>
       <c r="E97" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8822,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J97">
         <v>1.9</v>
@@ -8890,16 +8893,16 @@
         <v>6803031</v>
       </c>
       <c r="C98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D98" s="2">
         <v>45227.41666666666</v>
       </c>
       <c r="E98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8908,7 +8911,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J98">
         <v>1.75</v>
@@ -8976,17 +8979,17 @@
         <v>6803029</v>
       </c>
       <c r="C99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D99" s="2">
         <v>45227.41666666666</v>
       </c>
       <c r="E99" t="s">
+        <v>45</v>
+      </c>
+      <c r="F99" t="s">
         <v>44</v>
       </c>
-      <c r="F99" t="s">
-        <v>43</v>
-      </c>
       <c r="G99">
         <v>0</v>
       </c>
@@ -8994,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J99">
         <v>1.615</v>
@@ -9062,16 +9065,16 @@
         <v>6803034</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D100" s="2">
         <v>45227.41666666666</v>
       </c>
       <c r="E100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9148,16 +9151,16 @@
         <v>6803035</v>
       </c>
       <c r="C101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D101" s="2">
         <v>45227.54166666666</v>
       </c>
       <c r="E101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F101" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -9234,16 +9237,16 @@
         <v>6803033</v>
       </c>
       <c r="C102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D102" s="2">
         <v>45228.45833333334</v>
       </c>
       <c r="E102" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9320,16 +9323,16 @@
         <v>6803030</v>
       </c>
       <c r="C103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D103" s="2">
         <v>45228.45833333334</v>
       </c>
       <c r="E103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -9338,7 +9341,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J103">
         <v>4</v>
@@ -9406,16 +9409,16 @@
         <v>6803036</v>
       </c>
       <c r="C104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D104" s="2">
         <v>45228.58333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -9492,16 +9495,16 @@
         <v>6803045</v>
       </c>
       <c r="C105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D105" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F105" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9510,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J105">
         <v>1.5</v>
@@ -9578,16 +9581,16 @@
         <v>6803037</v>
       </c>
       <c r="C106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D106" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9664,16 +9667,16 @@
         <v>6803042</v>
       </c>
       <c r="C107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D107" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E107" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9682,7 +9685,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J107">
         <v>3.1</v>
@@ -9750,16 +9753,16 @@
         <v>6803038</v>
       </c>
       <c r="C108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D108" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9768,7 +9771,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J108">
         <v>2.375</v>
@@ -9836,16 +9839,16 @@
         <v>6803040</v>
       </c>
       <c r="C109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D109" s="2">
         <v>45234.58333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9854,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J109">
         <v>1.2</v>
@@ -9922,16 +9925,16 @@
         <v>6803043</v>
       </c>
       <c r="C110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D110" s="2">
         <v>45235.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9940,7 +9943,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J110">
         <v>1.7</v>
@@ -10008,16 +10011,16 @@
         <v>6803041</v>
       </c>
       <c r="C111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D111" s="2">
         <v>45235.45833333334</v>
       </c>
       <c r="E111" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10094,16 +10097,16 @@
         <v>6803044</v>
       </c>
       <c r="C112" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D112" s="2">
         <v>45235.58333333334</v>
       </c>
       <c r="E112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F112" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10180,16 +10183,16 @@
         <v>6803051</v>
       </c>
       <c r="C113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D113" s="2">
         <v>45241.45833333334</v>
       </c>
       <c r="E113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10198,7 +10201,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J113">
         <v>1.5</v>
@@ -10266,16 +10269,16 @@
         <v>6803052</v>
       </c>
       <c r="C114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D114" s="2">
         <v>45241.45833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F114" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10284,7 +10287,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J114">
         <v>2.625</v>
@@ -10352,16 +10355,16 @@
         <v>6803047</v>
       </c>
       <c r="C115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D115" s="2">
         <v>45241.45833333334</v>
       </c>
       <c r="E115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10438,16 +10441,16 @@
         <v>6803046</v>
       </c>
       <c r="C116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D116" s="2">
         <v>45241.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10456,7 +10459,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J116">
         <v>2.45</v>
@@ -10524,16 +10527,16 @@
         <v>6803627</v>
       </c>
       <c r="C117" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D117" s="2">
         <v>45241.58333333334</v>
       </c>
       <c r="E117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10542,7 +10545,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J117">
         <v>1.533</v>
@@ -10610,16 +10613,16 @@
         <v>6803048</v>
       </c>
       <c r="C118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D118" s="2">
         <v>45242.45833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F118" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10696,16 +10699,16 @@
         <v>6803049</v>
       </c>
       <c r="C119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D119" s="2">
         <v>45242.45833333334</v>
       </c>
       <c r="E119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10782,16 +10785,16 @@
         <v>6803050</v>
       </c>
       <c r="C120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D120" s="2">
         <v>45242.58333333334</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10868,16 +10871,16 @@
         <v>6803058</v>
       </c>
       <c r="C121" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D121" s="2">
         <v>45255.45833333334</v>
       </c>
       <c r="E121" t="s">
+        <v>42</v>
+      </c>
+      <c r="F121" t="s">
         <v>41</v>
-      </c>
-      <c r="F121" t="s">
-        <v>40</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10886,7 +10889,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J121">
         <v>2.4</v>
@@ -10954,16 +10957,16 @@
         <v>6803053</v>
       </c>
       <c r="C122" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D122" s="2">
         <v>45255.45833333334</v>
       </c>
       <c r="E122" t="s">
+        <v>50</v>
+      </c>
+      <c r="F122" t="s">
         <v>49</v>
-      </c>
-      <c r="F122" t="s">
-        <v>48</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10972,7 +10975,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J122">
         <v>4</v>
@@ -11040,16 +11043,16 @@
         <v>6803056</v>
       </c>
       <c r="C123" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D123" s="2">
         <v>45255.45833333334</v>
       </c>
       <c r="E123" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11058,7 +11061,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J123">
         <v>2.45</v>
@@ -11126,16 +11129,16 @@
         <v>6803057</v>
       </c>
       <c r="C124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D124" s="2">
         <v>45255.45833333334</v>
       </c>
       <c r="E124" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F124" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11212,16 +11215,16 @@
         <v>6803054</v>
       </c>
       <c r="C125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D125" s="2">
         <v>45255.58333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -11230,7 +11233,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J125">
         <v>1.1</v>
@@ -11298,16 +11301,16 @@
         <v>6803055</v>
       </c>
       <c r="C126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D126" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E126" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F126" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -11316,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J126">
         <v>2.3</v>
@@ -11384,16 +11387,16 @@
         <v>6803060</v>
       </c>
       <c r="C127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D127" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11402,7 +11405,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J127">
         <v>2.05</v>
@@ -11470,16 +11473,16 @@
         <v>6803059</v>
       </c>
       <c r="C128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D128" s="2">
         <v>45256.58333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -11488,7 +11491,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J128">
         <v>1.142</v>
@@ -11556,16 +11559,16 @@
         <v>6803068</v>
       </c>
       <c r="C129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D129" s="2">
         <v>45262.45833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11574,7 +11577,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J129">
         <v>2.3</v>
@@ -11642,16 +11645,16 @@
         <v>7526908</v>
       </c>
       <c r="C130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D130" s="2">
         <v>45263.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -11728,16 +11731,16 @@
         <v>6803065</v>
       </c>
       <c r="C131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D131" s="2">
         <v>45266.54166666666</v>
       </c>
       <c r="E131" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11746,7 +11749,7 @@
         <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J131">
         <v>1.75</v>
@@ -11814,16 +11817,16 @@
         <v>7521554</v>
       </c>
       <c r="C132" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D132" s="2">
         <v>45266.54166666666</v>
       </c>
       <c r="E132" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -11900,16 +11903,16 @@
         <v>6803071</v>
       </c>
       <c r="C133" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D133" s="2">
         <v>45269.45833333334</v>
       </c>
       <c r="E133" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G133">
         <v>5</v>
@@ -11918,7 +11921,7 @@
         <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J133">
         <v>1.666</v>
@@ -11986,16 +11989,16 @@
         <v>6803074</v>
       </c>
       <c r="C134" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D134" s="2">
         <v>45269.45833333334</v>
       </c>
       <c r="E134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G134">
         <v>5</v>
@@ -12004,7 +12007,7 @@
         <v>3</v>
       </c>
       <c r="I134" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J134">
         <v>1.55</v>
@@ -12072,16 +12075,16 @@
         <v>6803076</v>
       </c>
       <c r="C135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D135" s="2">
         <v>45269.45833333334</v>
       </c>
       <c r="E135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F135" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G135">
         <v>3</v>
@@ -12090,7 +12093,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J135">
         <v>1.25</v>
@@ -12158,16 +12161,16 @@
         <v>6803070</v>
       </c>
       <c r="C136" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D136" s="2">
         <v>45269.58333333334</v>
       </c>
       <c r="E136" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F136" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12244,16 +12247,16 @@
         <v>6803069</v>
       </c>
       <c r="C137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D137" s="2">
         <v>45270.45833333334</v>
       </c>
       <c r="E137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F137" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G137">
         <v>5</v>
@@ -12262,7 +12265,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J137">
         <v>1.2</v>
@@ -12330,16 +12333,16 @@
         <v>6803073</v>
       </c>
       <c r="C138" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D138" s="2">
         <v>45270.58333333334</v>
       </c>
       <c r="E138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12348,7 +12351,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J138">
         <v>1.25</v>
@@ -12416,16 +12419,16 @@
         <v>7560701</v>
       </c>
       <c r="C139" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D139" s="2">
         <v>45273.54166666666</v>
       </c>
       <c r="E139" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F139" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12502,16 +12505,16 @@
         <v>7560702</v>
       </c>
       <c r="C140" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D140" s="2">
         <v>45273.54166666666</v>
       </c>
       <c r="E140" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12520,7 +12523,7 @@
         <v>2</v>
       </c>
       <c r="I140" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J140">
         <v>1.45</v>
@@ -12588,16 +12591,16 @@
         <v>7560700</v>
       </c>
       <c r="C141" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D141" s="2">
         <v>45273.58333333334</v>
       </c>
       <c r="E141" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F141" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12606,7 +12609,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J141">
         <v>2.3</v>
@@ -12671,85 +12674,85 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6803082</v>
+        <v>6803080</v>
       </c>
       <c r="C142" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D142" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E142" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J142">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="K142">
         <v>3.3</v>
       </c>
       <c r="L142">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="M142">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N142">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O142">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="P142">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q142">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R142">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S142">
         <v>2.5</v>
       </c>
       <c r="T142">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U142">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -12757,85 +12760,85 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6803080</v>
+        <v>6803081</v>
       </c>
       <c r="C143" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D143" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E143" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J143">
+        <v>2.5</v>
+      </c>
+      <c r="K143">
+        <v>3.4</v>
+      </c>
+      <c r="L143">
+        <v>2.7</v>
+      </c>
+      <c r="M143">
+        <v>3</v>
+      </c>
+      <c r="N143">
+        <v>3.4</v>
+      </c>
+      <c r="O143">
         <v>2.3</v>
       </c>
-      <c r="K143">
-        <v>3.3</v>
-      </c>
-      <c r="L143">
-        <v>3.1</v>
-      </c>
-      <c r="M143">
-        <v>2.5</v>
-      </c>
-      <c r="N143">
-        <v>3.3</v>
-      </c>
-      <c r="O143">
-        <v>2.8</v>
-      </c>
       <c r="P143">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q143">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R143">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S143">
         <v>2.5</v>
       </c>
       <c r="T143">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V143">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z143">
+        <v>-1</v>
+      </c>
+      <c r="AA143">
         <v>1.05</v>
       </c>
-      <c r="AA143">
-        <v>-1</v>
-      </c>
       <c r="AB143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12843,37 +12846,37 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6803081</v>
+        <v>6803082</v>
       </c>
       <c r="C144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D144" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E144" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F144" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G144">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J144">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="K144">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L144">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="M144">
         <v>3</v>
@@ -12897,10 +12900,10 @@
         <v>2.5</v>
       </c>
       <c r="T144">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U144">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V144">
         <v>2</v>
@@ -12918,10 +12921,10 @@
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -12932,16 +12935,16 @@
         <v>6803083</v>
       </c>
       <c r="C145" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D145" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E145" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -12950,7 +12953,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J145">
         <v>1.833</v>
@@ -13018,17 +13021,17 @@
         <v>6803078</v>
       </c>
       <c r="C146" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D146" s="2">
         <v>45276.58333333334</v>
       </c>
       <c r="E146" t="s">
+        <v>48</v>
+      </c>
+      <c r="F146" t="s">
         <v>47</v>
       </c>
-      <c r="F146" t="s">
-        <v>46</v>
-      </c>
       <c r="G146">
         <v>0</v>
       </c>
@@ -13036,7 +13039,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J146">
         <v>1.615</v>
@@ -13104,16 +13107,16 @@
         <v>6803079</v>
       </c>
       <c r="C147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D147" s="2">
         <v>45277.45833333334</v>
       </c>
       <c r="E147" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F147" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13190,16 +13193,16 @@
         <v>6803077</v>
       </c>
       <c r="C148" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D148" s="2">
         <v>45277.45833333334</v>
       </c>
       <c r="E148" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G148">
         <v>2</v>
@@ -13276,16 +13279,16 @@
         <v>6803084</v>
       </c>
       <c r="C149" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D149" s="2">
         <v>45277.58333333334</v>
       </c>
       <c r="E149" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13294,7 +13297,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J149">
         <v>1.181</v>
@@ -13362,16 +13365,16 @@
         <v>6803092</v>
       </c>
       <c r="C150" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D150" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E150" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13448,16 +13451,16 @@
         <v>6803090</v>
       </c>
       <c r="C151" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D151" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E151" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F151" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -13466,7 +13469,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J151">
         <v>2.2</v>
@@ -13534,16 +13537,16 @@
         <v>6803088</v>
       </c>
       <c r="C152" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D152" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E152" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -13620,16 +13623,16 @@
         <v>6803087</v>
       </c>
       <c r="C153" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D153" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E153" t="s">
+        <v>47</v>
+      </c>
+      <c r="F153" t="s">
         <v>46</v>
-      </c>
-      <c r="F153" t="s">
-        <v>45</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -13638,7 +13641,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J153">
         <v>3.25</v>
@@ -13706,16 +13709,16 @@
         <v>6803086</v>
       </c>
       <c r="C154" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D154" s="2">
         <v>45332.58333333334</v>
       </c>
       <c r="E154" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F154" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13724,7 +13727,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J154">
         <v>1.45</v>
@@ -13792,16 +13795,16 @@
         <v>6803085</v>
       </c>
       <c r="C155" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D155" s="2">
         <v>45333.45833333334</v>
       </c>
       <c r="E155" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F155" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -13810,7 +13813,7 @@
         <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J155">
         <v>2.3</v>
@@ -13878,16 +13881,16 @@
         <v>6803089</v>
       </c>
       <c r="C156" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D156" s="2">
         <v>45333.45833333334</v>
       </c>
       <c r="E156" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G156">
         <v>2</v>
@@ -13896,7 +13899,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J156">
         <v>1.85</v>
@@ -13964,16 +13967,16 @@
         <v>6803091</v>
       </c>
       <c r="C157" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D157" s="2">
         <v>45333.58333333334</v>
       </c>
       <c r="E157" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F157" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G157">
         <v>4</v>
@@ -13982,7 +13985,7 @@
         <v>3</v>
       </c>
       <c r="I157" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J157">
         <v>1.222</v>
@@ -14050,16 +14053,16 @@
         <v>7549458</v>
       </c>
       <c r="C158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D158" s="2">
         <v>45335.58333333334</v>
       </c>
       <c r="E158" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F158" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -14136,16 +14139,16 @@
         <v>7654891</v>
       </c>
       <c r="C159" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D159" s="2">
         <v>45336.54166666666</v>
       </c>
       <c r="E159" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -14222,16 +14225,16 @@
         <v>7654890</v>
       </c>
       <c r="C160" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D160" s="2">
         <v>45336.58333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14240,7 +14243,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J160">
         <v>11</v>
@@ -14308,16 +14311,16 @@
         <v>6803095</v>
       </c>
       <c r="C161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D161" s="2">
         <v>45339.45833333334</v>
       </c>
       <c r="E161" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F161" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14394,16 +14397,16 @@
         <v>6803098</v>
       </c>
       <c r="C162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D162" s="2">
         <v>45339.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F162" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G162">
         <v>5</v>
@@ -14412,7 +14415,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J162">
         <v>1.571</v>
@@ -14480,16 +14483,16 @@
         <v>6803100</v>
       </c>
       <c r="C163" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D163" s="2">
         <v>45339.45833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14498,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J163">
         <v>2.3</v>
@@ -14566,16 +14569,16 @@
         <v>6803094</v>
       </c>
       <c r="C164" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D164" s="2">
         <v>45339.45833333334</v>
       </c>
       <c r="E164" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F164" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14584,7 +14587,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J164">
         <v>1.8</v>
@@ -14652,16 +14655,16 @@
         <v>6803093</v>
       </c>
       <c r="C165" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D165" s="2">
         <v>45339.58333333334</v>
       </c>
       <c r="E165" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F165" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -14738,16 +14741,16 @@
         <v>6803097</v>
       </c>
       <c r="C166" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D166" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E166" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14824,16 +14827,16 @@
         <v>6803096</v>
       </c>
       <c r="C167" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D167" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E167" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14842,7 +14845,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J167">
         <v>3.5</v>
@@ -14910,16 +14913,16 @@
         <v>6803099</v>
       </c>
       <c r="C168" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D168" s="2">
         <v>45340.58333333334</v>
       </c>
       <c r="E168" t="s">
+        <v>43</v>
+      </c>
+      <c r="F168" t="s">
         <v>42</v>
-      </c>
-      <c r="F168" t="s">
-        <v>41</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -14928,7 +14931,7 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J168">
         <v>1.3</v>
@@ -14996,16 +14999,16 @@
         <v>7654892</v>
       </c>
       <c r="C169" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D169" s="2">
         <v>45343.5625</v>
       </c>
       <c r="E169" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F169" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -15014,7 +15017,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J169">
         <v>3.1</v>
@@ -15082,16 +15085,16 @@
         <v>6803101</v>
       </c>
       <c r="C170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D170" s="2">
         <v>45346.45833333334</v>
       </c>
       <c r="E170" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F170" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -15100,7 +15103,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J170">
         <v>2.7</v>
@@ -15168,16 +15171,16 @@
         <v>6803104</v>
       </c>
       <c r="C171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D171" s="2">
         <v>45346.45833333334</v>
       </c>
       <c r="E171" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F171" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -15186,7 +15189,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J171">
         <v>1.8</v>
@@ -15254,16 +15257,16 @@
         <v>6803105</v>
       </c>
       <c r="C172" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D172" s="2">
         <v>45346.45833333334</v>
       </c>
       <c r="E172" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -15272,7 +15275,7 @@
         <v>2</v>
       </c>
       <c r="I172" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J172">
         <v>1.727</v>
@@ -15340,16 +15343,16 @@
         <v>6803106</v>
       </c>
       <c r="C173" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D173" s="2">
         <v>45346.45833333334</v>
       </c>
       <c r="E173" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F173" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G173">
         <v>3</v>
@@ -15358,7 +15361,7 @@
         <v>3</v>
       </c>
       <c r="I173" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J173">
         <v>1.95</v>
@@ -15426,16 +15429,16 @@
         <v>6803102</v>
       </c>
       <c r="C174" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D174" s="2">
         <v>45346.58333333334</v>
       </c>
       <c r="E174" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F174" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G174">
         <v>3</v>
@@ -15444,7 +15447,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J174">
         <v>1.166</v>
@@ -15512,16 +15515,16 @@
         <v>6803107</v>
       </c>
       <c r="C175" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D175" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E175" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F175" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G175">
         <v>3</v>
@@ -15530,7 +15533,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J175">
         <v>1.111</v>
@@ -15598,16 +15601,16 @@
         <v>6803103</v>
       </c>
       <c r="C176" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D176" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E176" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G176">
         <v>2</v>
@@ -15616,7 +15619,7 @@
         <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J176">
         <v>3.4</v>
@@ -15684,16 +15687,16 @@
         <v>6803108</v>
       </c>
       <c r="C177" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D177" s="2">
         <v>45347.58333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15770,16 +15773,16 @@
         <v>6803120</v>
       </c>
       <c r="C178" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D178" s="2">
         <v>45353.45833333334</v>
       </c>
       <c r="E178" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F178" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -15856,16 +15859,16 @@
         <v>6803117</v>
       </c>
       <c r="C179" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D179" s="2">
         <v>45353.45833333334</v>
       </c>
       <c r="E179" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F179" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G179">
         <v>2</v>
@@ -15874,7 +15877,7 @@
         <v>2</v>
       </c>
       <c r="I179" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J179">
         <v>2.05</v>
@@ -15942,16 +15945,16 @@
         <v>6803113</v>
       </c>
       <c r="C180" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D180" s="2">
         <v>45353.45833333334</v>
       </c>
       <c r="E180" t="s">
+        <v>51</v>
+      </c>
+      <c r="F180" t="s">
         <v>50</v>
-      </c>
-      <c r="F180" t="s">
-        <v>49</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -15960,7 +15963,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J180">
         <v>1.909</v>
@@ -16028,16 +16031,16 @@
         <v>6803115</v>
       </c>
       <c r="C181" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D181" s="2">
         <v>45353.45833333334</v>
       </c>
       <c r="E181" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F181" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G181">
         <v>3</v>
@@ -16046,7 +16049,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J181">
         <v>1.533</v>
@@ -16114,16 +16117,16 @@
         <v>6803114</v>
       </c>
       <c r="C182" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D182" s="2">
         <v>45353.58333333334</v>
       </c>
       <c r="E182" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F182" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G182">
         <v>2</v>
@@ -16200,16 +16203,16 @@
         <v>6803118</v>
       </c>
       <c r="C183" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D183" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E183" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16218,7 +16221,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J183">
         <v>2.5</v>
@@ -16286,16 +16289,16 @@
         <v>6803116</v>
       </c>
       <c r="C184" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D184" s="2">
         <v>45354.45833333334</v>
       </c>
       <c r="E184" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F184" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -16372,16 +16375,16 @@
         <v>6803119</v>
       </c>
       <c r="C185" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D185" s="2">
         <v>45354.58333333334</v>
       </c>
       <c r="E185" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F185" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -16390,7 +16393,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J185">
         <v>2.25</v>
@@ -16458,16 +16461,16 @@
         <v>6803127</v>
       </c>
       <c r="C186" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D186" s="2">
         <v>45360.45833333334</v>
       </c>
       <c r="E186" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -16476,7 +16479,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J186">
         <v>1.6</v>
@@ -16544,16 +16547,16 @@
         <v>6803125</v>
       </c>
       <c r="C187" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D187" s="2">
         <v>45360.45833333334</v>
       </c>
       <c r="E187" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F187" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -16630,16 +16633,16 @@
         <v>6803122</v>
       </c>
       <c r="C188" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D188" s="2">
         <v>45360.45833333334</v>
       </c>
       <c r="E188" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F188" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -16648,7 +16651,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J188">
         <v>2.25</v>
@@ -16716,16 +16719,16 @@
         <v>6803124</v>
       </c>
       <c r="C189" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D189" s="2">
         <v>45360.45833333334</v>
       </c>
       <c r="E189" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G189">
         <v>2</v>
@@ -16734,7 +16737,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J189">
         <v>1.85</v>
@@ -16802,16 +16805,16 @@
         <v>6803121</v>
       </c>
       <c r="C190" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D190" s="2">
         <v>45360.58333333334</v>
       </c>
       <c r="E190" t="s">
+        <v>46</v>
+      </c>
+      <c r="F190" t="s">
         <v>45</v>
-      </c>
-      <c r="F190" t="s">
-        <v>44</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16885,82 +16888,82 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6803123</v>
+        <v>6803128</v>
       </c>
       <c r="C191" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D191" s="2">
         <v>45361.45833333334</v>
       </c>
       <c r="E191" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F191" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G191">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="s">
         <v>53</v>
       </c>
       <c r="J191">
-        <v>1.833</v>
+        <v>1.2</v>
       </c>
       <c r="K191">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="L191">
-        <v>3.8</v>
+        <v>10</v>
       </c>
       <c r="M191">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="N191">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="O191">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="P191">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="Q191">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R191">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S191">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T191">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U191">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V191">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="W191">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z191">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB191">
         <v>-1</v>
@@ -16971,82 +16974,82 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6803128</v>
+        <v>6803123</v>
       </c>
       <c r="C192" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D192" s="2">
         <v>45361.45833333334</v>
       </c>
       <c r="E192" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F192" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G192">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J192">
-        <v>1.2</v>
+        <v>1.833</v>
       </c>
       <c r="K192">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="L192">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="M192">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="N192">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="O192">
-        <v>17</v>
+        <v>3.6</v>
       </c>
       <c r="P192">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="Q192">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R192">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S192">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T192">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U192">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V192">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA192">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB192">
         <v>-1</v>
@@ -17060,16 +17063,16 @@
         <v>6803126</v>
       </c>
       <c r="C193" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D193" s="2">
         <v>45361.58333333334</v>
       </c>
       <c r="E193" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F193" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G193">
         <v>4</v>
@@ -17078,7 +17081,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J193">
         <v>2.75</v>
@@ -17146,16 +17149,16 @@
         <v>6803131</v>
       </c>
       <c r="C194" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D194" s="2">
         <v>45367.45833333334</v>
       </c>
       <c r="E194" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F194" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G194">
         <v>2</v>
@@ -17164,7 +17167,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J194">
         <v>2.15</v>
@@ -17232,16 +17235,16 @@
         <v>6803133</v>
       </c>
       <c r="C195" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D195" s="2">
         <v>45367.45833333334</v>
       </c>
       <c r="E195" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F195" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G195">
         <v>2</v>
@@ -17250,7 +17253,7 @@
         <v>2</v>
       </c>
       <c r="I195" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J195">
         <v>2.875</v>
@@ -17318,16 +17321,16 @@
         <v>6803134</v>
       </c>
       <c r="C196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D196" s="2">
         <v>45367.45833333334</v>
       </c>
       <c r="E196" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F196" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -17336,7 +17339,7 @@
         <v>1</v>
       </c>
       <c r="I196" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J196">
         <v>1.909</v>
@@ -17404,16 +17407,16 @@
         <v>6803136</v>
       </c>
       <c r="C197" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D197" s="2">
         <v>45367.58333333334</v>
       </c>
       <c r="E197" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F197" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -17422,7 +17425,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J197">
         <v>2.875</v>
@@ -17490,16 +17493,16 @@
         <v>6803130</v>
       </c>
       <c r="C198" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D198" s="2">
         <v>45368.45833333334</v>
       </c>
       <c r="E198" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F198" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -17576,16 +17579,16 @@
         <v>6803135</v>
       </c>
       <c r="C199" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D199" s="2">
         <v>45368.45833333334</v>
       </c>
       <c r="E199" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F199" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G199">
         <v>3</v>
@@ -17594,7 +17597,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J199">
         <v>1.25</v>
@@ -17662,16 +17665,16 @@
         <v>6803132</v>
       </c>
       <c r="C200" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D200" s="2">
         <v>45368.45833333334</v>
       </c>
       <c r="E200" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F200" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -17748,16 +17751,16 @@
         <v>6803129</v>
       </c>
       <c r="C201" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D201" s="2">
         <v>45368.58333333334</v>
       </c>
       <c r="E201" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F201" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -17766,7 +17769,7 @@
         <v>1</v>
       </c>
       <c r="I201" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J201">
         <v>1.222</v>
@@ -17834,16 +17837,16 @@
         <v>6803139</v>
       </c>
       <c r="C202" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D202" s="2">
         <v>45381.45833333334</v>
       </c>
       <c r="E202" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F202" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G202">
         <v>2</v>
@@ -17852,7 +17855,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J202">
         <v>2.1</v>
@@ -17920,16 +17923,16 @@
         <v>6803138</v>
       </c>
       <c r="C203" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D203" s="2">
         <v>45381.45833333334</v>
       </c>
       <c r="E203" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F203" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -18006,16 +18009,16 @@
         <v>6803142</v>
       </c>
       <c r="C204" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D204" s="2">
         <v>45381.45833333334</v>
       </c>
       <c r="E204" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F204" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -18092,16 +18095,16 @@
         <v>6803143</v>
       </c>
       <c r="C205" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D205" s="2">
         <v>45381.58333333334</v>
       </c>
       <c r="E205" t="s">
+        <v>40</v>
+      </c>
+      <c r="F205" t="s">
         <v>39</v>
-      </c>
-      <c r="F205" t="s">
-        <v>38</v>
       </c>
       <c r="G205">
         <v>1</v>
@@ -18178,16 +18181,16 @@
         <v>6803141</v>
       </c>
       <c r="C206" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D206" s="2">
         <v>45382.41666666666</v>
       </c>
       <c r="E206" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G206">
         <v>4</v>
@@ -18196,7 +18199,7 @@
         <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J206">
         <v>1.6</v>
@@ -18264,16 +18267,16 @@
         <v>6804088</v>
       </c>
       <c r="C207" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D207" s="2">
         <v>45382.41666666666</v>
       </c>
       <c r="E207" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F207" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -18282,7 +18285,7 @@
         <v>1</v>
       </c>
       <c r="I207" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J207">
         <v>1.615</v>
@@ -18350,16 +18353,16 @@
         <v>6803137</v>
       </c>
       <c r="C208" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D208" s="2">
         <v>45382.41666666666</v>
       </c>
       <c r="E208" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F208" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G208">
         <v>3</v>
@@ -18368,7 +18371,7 @@
         <v>2</v>
       </c>
       <c r="I208" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J208">
         <v>1.45</v>
@@ -18436,16 +18439,16 @@
         <v>6803140</v>
       </c>
       <c r="C209" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D209" s="2">
         <v>45382.54166666666</v>
       </c>
       <c r="E209" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F209" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -18522,16 +18525,16 @@
         <v>6849948</v>
       </c>
       <c r="C210" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D210" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E210" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F210" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -18540,7 +18543,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J210">
         <v>5.75</v>
@@ -18608,16 +18611,16 @@
         <v>6835684</v>
       </c>
       <c r="C211" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D211" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E211" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F211" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G211">
         <v>3</v>
@@ -18626,7 +18629,7 @@
         <v>2</v>
       </c>
       <c r="I211" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J211">
         <v>2.6</v>
@@ -18694,16 +18697,16 @@
         <v>6803148</v>
       </c>
       <c r="C212" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D212" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E212" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F212" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G212">
         <v>4</v>
@@ -18712,7 +18715,7 @@
         <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J212">
         <v>2.375</v>
@@ -18780,16 +18783,16 @@
         <v>6841168</v>
       </c>
       <c r="C213" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D213" s="2">
         <v>45388.54166666666</v>
       </c>
       <c r="E213" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F213" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G213">
         <v>2</v>
@@ -18798,7 +18801,7 @@
         <v>1</v>
       </c>
       <c r="I213" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J213">
         <v>1.25</v>
@@ -18866,16 +18869,16 @@
         <v>6803145</v>
       </c>
       <c r="C214" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D214" s="2">
         <v>45389.41666666666</v>
       </c>
       <c r="E214" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F214" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -18884,7 +18887,7 @@
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J214">
         <v>1.95</v>
@@ -18952,16 +18955,16 @@
         <v>6803144</v>
       </c>
       <c r="C215" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D215" s="2">
         <v>45389.41666666666</v>
       </c>
       <c r="E215" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F215" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -19038,16 +19041,16 @@
         <v>6803146</v>
       </c>
       <c r="C216" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D216" s="2">
         <v>45389.41666666666</v>
       </c>
       <c r="E216" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F216" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G216">
         <v>2</v>
@@ -19124,16 +19127,16 @@
         <v>6803147</v>
       </c>
       <c r="C217" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D217" s="2">
         <v>45389.54166666666</v>
       </c>
       <c r="E217" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F217" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G217">
         <v>1</v>
@@ -19142,7 +19145,7 @@
         <v>1</v>
       </c>
       <c r="I217" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J217">
         <v>1.333</v>
@@ -19207,65 +19210,65 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6803151</v>
+        <v>6851033</v>
       </c>
       <c r="C218" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D218" s="2">
         <v>45395.41666666666</v>
       </c>
       <c r="E218" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F218" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G218">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218" t="s">
         <v>52</v>
       </c>
       <c r="J218">
-        <v>5.25</v>
+        <v>1.75</v>
       </c>
       <c r="K218">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="L218">
-        <v>1.571</v>
+        <v>4.5</v>
       </c>
       <c r="M218">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="N218">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="O218">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="P218">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q218">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R218">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S218">
         <v>2.75</v>
       </c>
       <c r="T218">
+        <v>1.9</v>
+      </c>
+      <c r="U218">
         <v>1.95</v>
       </c>
-      <c r="U218">
-        <v>1.9</v>
-      </c>
       <c r="V218">
         <v>-1</v>
       </c>
@@ -19273,19 +19276,19 @@
         <v>-1</v>
       </c>
       <c r="X218">
-        <v>0.571</v>
+        <v>2.75</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA218">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="219" spans="1:28">
@@ -19293,65 +19296,65 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6851033</v>
+        <v>6803151</v>
       </c>
       <c r="C219" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D219" s="2">
         <v>45395.41666666666</v>
       </c>
       <c r="E219" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F219" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G219">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I219" t="s">
         <v>52</v>
       </c>
       <c r="J219">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="K219">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="L219">
-        <v>4.5</v>
+        <v>1.571</v>
       </c>
       <c r="M219">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="N219">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="O219">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="P219">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Q219">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R219">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S219">
         <v>2.75</v>
       </c>
       <c r="T219">
+        <v>1.95</v>
+      </c>
+      <c r="U219">
         <v>1.9</v>
       </c>
-      <c r="U219">
-        <v>1.95</v>
-      </c>
       <c r="V219">
         <v>-1</v>
       </c>
@@ -19359,19 +19362,19 @@
         <v>-1</v>
       </c>
       <c r="X219">
-        <v>2.75</v>
+        <v>0.571</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA219">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB219">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:28">
@@ -19382,16 +19385,16 @@
         <v>6803152</v>
       </c>
       <c r="C220" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D220" s="2">
         <v>45395.41666666666</v>
       </c>
       <c r="E220" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F220" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G220">
         <v>3</v>
@@ -19400,7 +19403,7 @@
         <v>2</v>
       </c>
       <c r="I220" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J220">
         <v>3.1</v>
@@ -19468,16 +19471,16 @@
         <v>6884025</v>
       </c>
       <c r="C221" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D221" s="2">
         <v>45395.54166666666</v>
       </c>
       <c r="E221" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F221" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -19486,7 +19489,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J221">
         <v>2.5</v>
@@ -19551,10 +19554,10 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6869633</v>
+        <v>6803150</v>
       </c>
       <c r="C222" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D222" s="2">
         <v>45396.41666666666</v>
@@ -19563,73 +19566,73 @@
         <v>45</v>
       </c>
       <c r="F222" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="s">
         <v>53</v>
       </c>
       <c r="J222">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="K222">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="L222">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M222">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="N222">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="O222">
-        <v>8.5</v>
+        <v>3.75</v>
       </c>
       <c r="P222">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q222">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R222">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S222">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T222">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U222">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V222">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W222">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z222">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
+        <v>-1</v>
+      </c>
+      <c r="AB222">
         <v>1</v>
-      </c>
-      <c r="AB222">
-        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:28">
@@ -19637,85 +19640,85 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6803149</v>
+        <v>6869633</v>
       </c>
       <c r="C223" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D223" s="2">
         <v>45396.41666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F223" t="s">
         <v>37</v>
       </c>
       <c r="G223">
+        <v>2</v>
+      </c>
+      <c r="H223">
+        <v>2</v>
+      </c>
+      <c r="I223" t="s">
+        <v>54</v>
+      </c>
+      <c r="J223">
+        <v>1.363</v>
+      </c>
+      <c r="K223">
+        <v>5</v>
+      </c>
+      <c r="L223">
+        <v>8</v>
+      </c>
+      <c r="M223">
+        <v>1.333</v>
+      </c>
+      <c r="N223">
+        <v>5.25</v>
+      </c>
+      <c r="O223">
+        <v>8.5</v>
+      </c>
+      <c r="P223">
+        <v>-1.5</v>
+      </c>
+      <c r="Q223">
+        <v>1.975</v>
+      </c>
+      <c r="R223">
+        <v>1.875</v>
+      </c>
+      <c r="S223">
+        <v>3.25</v>
+      </c>
+      <c r="T223">
+        <v>2</v>
+      </c>
+      <c r="U223">
+        <v>1.85</v>
+      </c>
+      <c r="V223">
+        <v>-1</v>
+      </c>
+      <c r="W223">
+        <v>4.25</v>
+      </c>
+      <c r="X223">
+        <v>-1</v>
+      </c>
+      <c r="Y223">
+        <v>-1</v>
+      </c>
+      <c r="Z223">
+        <v>0.875</v>
+      </c>
+      <c r="AA223">
         <v>1</v>
       </c>
-      <c r="H223">
-        <v>1</v>
-      </c>
-      <c r="I223" t="s">
-        <v>53</v>
-      </c>
-      <c r="J223">
-        <v>2.1</v>
-      </c>
-      <c r="K223">
-        <v>3.3</v>
-      </c>
-      <c r="L223">
-        <v>3.5</v>
-      </c>
-      <c r="M223">
-        <v>2.25</v>
-      </c>
-      <c r="N223">
-        <v>3.3</v>
-      </c>
-      <c r="O223">
-        <v>3.2</v>
-      </c>
-      <c r="P223">
-        <v>-0.25</v>
-      </c>
-      <c r="Q223">
-        <v>2</v>
-      </c>
-      <c r="R223">
-        <v>1.85</v>
-      </c>
-      <c r="S223">
-        <v>2.5</v>
-      </c>
-      <c r="T223">
-        <v>1.85</v>
-      </c>
-      <c r="U223">
-        <v>2</v>
-      </c>
-      <c r="V223">
-        <v>-1</v>
-      </c>
-      <c r="W223">
-        <v>2.3</v>
-      </c>
-      <c r="X223">
-        <v>-1</v>
-      </c>
-      <c r="Y223">
-        <v>-0.5</v>
-      </c>
-      <c r="Z223">
-        <v>0.425</v>
-      </c>
-      <c r="AA223">
-        <v>-1</v>
-      </c>
       <c r="AB223">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:28">
@@ -19723,10 +19726,10 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6803150</v>
+        <v>6803149</v>
       </c>
       <c r="C224" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D224" s="2">
         <v>45396.41666666666</v>
@@ -19735,46 +19738,46 @@
         <v>44</v>
       </c>
       <c r="F224" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G224">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I224" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J224">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="K224">
         <v>3.3</v>
       </c>
       <c r="L224">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M224">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="N224">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O224">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P224">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q224">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R224">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S224">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T224">
         <v>1.85</v>
@@ -19783,19 +19786,19 @@
         <v>2</v>
       </c>
       <c r="V224">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W224">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA224">
         <v>-1</v>
@@ -19812,16 +19815,16 @@
         <v>6841169</v>
       </c>
       <c r="C225" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D225" s="2">
         <v>45396.54166666666</v>
       </c>
       <c r="E225" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F225" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G225">
         <v>1</v>
@@ -19830,7 +19833,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J225">
         <v>4.2</v>
@@ -19898,16 +19901,16 @@
         <v>6803154</v>
       </c>
       <c r="C226" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D226" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E226" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F226" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -19916,7 +19919,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J226">
         <v>1.7</v>
@@ -19984,16 +19987,16 @@
         <v>6848326</v>
       </c>
       <c r="C227" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D227" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E227" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F227" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G227">
         <v>4</v>
@@ -20002,7 +20005,7 @@
         <v>3</v>
       </c>
       <c r="I227" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J227">
         <v>1.444</v>
@@ -20070,16 +20073,16 @@
         <v>6901377</v>
       </c>
       <c r="C228" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D228" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E228" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F228" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G228">
         <v>1</v>
@@ -20088,7 +20091,7 @@
         <v>1</v>
       </c>
       <c r="I228" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J228">
         <v>2.875</v>
@@ -20156,16 +20159,16 @@
         <v>6838627</v>
       </c>
       <c r="C229" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D229" s="2">
         <v>45402.54166666666</v>
       </c>
       <c r="E229" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F229" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G229">
         <v>2</v>
@@ -20174,7 +20177,7 @@
         <v>2</v>
       </c>
       <c r="I229" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J229">
         <v>1.75</v>
@@ -20242,16 +20245,16 @@
         <v>6879083</v>
       </c>
       <c r="C230" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D230" s="2">
         <v>45403.41666666666</v>
       </c>
       <c r="E230" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F230" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G230">
         <v>2</v>
@@ -20260,7 +20263,7 @@
         <v>2</v>
       </c>
       <c r="I230" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J230">
         <v>1.181</v>
@@ -20328,16 +20331,16 @@
         <v>6905894</v>
       </c>
       <c r="C231" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D231" s="2">
         <v>45403.41666666666</v>
       </c>
       <c r="E231" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F231" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -20346,7 +20349,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J231">
         <v>1.833</v>
@@ -20414,16 +20417,16 @@
         <v>6803153</v>
       </c>
       <c r="C232" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D232" s="2">
         <v>45403.41666666666</v>
       </c>
       <c r="E232" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F232" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G232">
         <v>1</v>
@@ -20500,16 +20503,16 @@
         <v>6907696</v>
       </c>
       <c r="C233" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D233" s="2">
         <v>45403.54166666666</v>
       </c>
       <c r="E233" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F233" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -20518,7 +20521,7 @@
         <v>1</v>
       </c>
       <c r="I233" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J233">
         <v>3.3</v>
@@ -20586,16 +20589,16 @@
         <v>6919940</v>
       </c>
       <c r="C234" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D234" s="2">
         <v>45410.41666666666</v>
       </c>
       <c r="E234" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F234" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G234">
         <v>2</v>
@@ -20604,7 +20607,7 @@
         <v>2</v>
       </c>
       <c r="I234" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J234">
         <v>1.8</v>
@@ -20672,16 +20675,16 @@
         <v>6803155</v>
       </c>
       <c r="C235" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D235" s="2">
         <v>45410.41666666666</v>
       </c>
       <c r="E235" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F235" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G235">
         <v>2</v>
@@ -20690,7 +20693,7 @@
         <v>1</v>
       </c>
       <c r="I235" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J235">
         <v>1.727</v>
@@ -20758,16 +20761,16 @@
         <v>6803156</v>
       </c>
       <c r="C236" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D236" s="2">
         <v>45410.41666666666</v>
       </c>
       <c r="E236" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F236" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G236">
         <v>1</v>
@@ -20776,7 +20779,7 @@
         <v>1</v>
       </c>
       <c r="I236" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J236">
         <v>2.3</v>
@@ -20844,16 +20847,16 @@
         <v>6851035</v>
       </c>
       <c r="C237" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D237" s="2">
         <v>45410.41666666666</v>
       </c>
       <c r="E237" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G237">
         <v>2</v>
@@ -20862,7 +20865,7 @@
         <v>2</v>
       </c>
       <c r="I237" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J237">
         <v>2.875</v>
@@ -20930,16 +20933,16 @@
         <v>6885525</v>
       </c>
       <c r="C238" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D238" s="2">
         <v>45410.41666666666</v>
       </c>
       <c r="E238" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G238">
         <v>3</v>
@@ -20948,7 +20951,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J238">
         <v>1.363</v>
@@ -21016,16 +21019,16 @@
         <v>6888054</v>
       </c>
       <c r="C239" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D239" s="2">
         <v>45410.41666666666</v>
       </c>
       <c r="E239" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F239" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -21102,16 +21105,16 @@
         <v>6901954</v>
       </c>
       <c r="C240" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D240" s="2">
         <v>45410.41666666666</v>
       </c>
       <c r="E240" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F240" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G240">
         <v>1</v>
@@ -21188,16 +21191,16 @@
         <v>6919939</v>
       </c>
       <c r="C241" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D241" s="2">
         <v>45410.41666666666</v>
       </c>
       <c r="E241" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F241" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -21274,16 +21277,16 @@
         <v>27</v>
       </c>
       <c r="C242" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D242" s="2">
         <v>45416.41666666666</v>
       </c>
       <c r="E242" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F242" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J242">
         <v>1.909</v>
@@ -21339,16 +21342,16 @@
         <v>28</v>
       </c>
       <c r="C243" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D243" s="2">
         <v>45416.41666666666</v>
       </c>
       <c r="E243" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F243" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J243">
         <v>1.615</v>
@@ -21360,22 +21363,22 @@
         <v>4.75</v>
       </c>
       <c r="M243">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="N243">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O243">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P243">
         <v>-0.75</v>
       </c>
       <c r="Q243">
+        <v>1.975</v>
+      </c>
+      <c r="R243">
         <v>1.875</v>
-      </c>
-      <c r="R243">
-        <v>1.975</v>
       </c>
       <c r="S243">
         <v>2.5</v>
@@ -21404,16 +21407,16 @@
         <v>29</v>
       </c>
       <c r="C244" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D244" s="2">
         <v>45416.41666666666</v>
       </c>
       <c r="E244" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F244" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J244">
         <v>2.45</v>
@@ -21425,31 +21428,31 @@
         <v>2.625</v>
       </c>
       <c r="M244">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="N244">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O244">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P244">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q244">
+        <v>1.925</v>
+      </c>
+      <c r="R244">
+        <v>1.925</v>
+      </c>
+      <c r="S244">
+        <v>2.75</v>
+      </c>
+      <c r="T244">
+        <v>2.025</v>
+      </c>
+      <c r="U244">
         <v>1.825</v>
-      </c>
-      <c r="R244">
-        <v>2.025</v>
-      </c>
-      <c r="S244">
-        <v>2.5</v>
-      </c>
-      <c r="T244">
-        <v>1.8</v>
-      </c>
-      <c r="U244">
-        <v>2.05</v>
       </c>
       <c r="V244">
         <v>0</v>
@@ -21469,16 +21472,16 @@
         <v>30</v>
       </c>
       <c r="C245" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D245" s="2">
         <v>45416.54166666666</v>
       </c>
       <c r="E245" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F245" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J245">
         <v>1.333</v>
@@ -21490,25 +21493,25 @@
         <v>8</v>
       </c>
       <c r="M245">
-        <v>1.3</v>
+        <v>1.285</v>
       </c>
       <c r="N245">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O245">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="P245">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q245">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R245">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S245">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T245">
         <v>2.025</v>
@@ -21534,16 +21537,16 @@
         <v>31</v>
       </c>
       <c r="C246" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D246" s="2">
         <v>45417.41666666666</v>
       </c>
       <c r="E246" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F246" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J246">
         <v>1.4</v>
@@ -21599,16 +21602,16 @@
         <v>32</v>
       </c>
       <c r="C247" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D247" s="2">
         <v>45417.41666666666</v>
       </c>
       <c r="E247" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F247" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J247">
         <v>2.5</v>
@@ -21664,16 +21667,16 @@
         <v>33</v>
       </c>
       <c r="C248" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D248" s="2">
         <v>45417.41666666666</v>
       </c>
       <c r="E248" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F248" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J248">
         <v>2</v>
@@ -21685,39 +21688,104 @@
         <v>3.5</v>
       </c>
       <c r="M248">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="N248">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O248">
         <v>3.4</v>
       </c>
       <c r="P248">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q248">
+        <v>2.05</v>
+      </c>
+      <c r="R248">
         <v>1.8</v>
-      </c>
-      <c r="R248">
-        <v>2.05</v>
       </c>
       <c r="S248">
         <v>2.5</v>
       </c>
       <c r="T248">
+        <v>1.9</v>
+      </c>
+      <c r="U248">
         <v>1.95</v>
       </c>
-      <c r="U248">
+      <c r="V248">
+        <v>0</v>
+      </c>
+      <c r="W248">
+        <v>0</v>
+      </c>
+      <c r="X248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:28">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>34</v>
+      </c>
+      <c r="C249" t="s">
+        <v>35</v>
+      </c>
+      <c r="D249" s="2">
+        <v>45417.54166666666</v>
+      </c>
+      <c r="E249" t="s">
+        <v>40</v>
+      </c>
+      <c r="F249" t="s">
+        <v>43</v>
+      </c>
+      <c r="J249">
+        <v>5.5</v>
+      </c>
+      <c r="K249">
+        <v>4</v>
+      </c>
+      <c r="L249">
+        <v>1.5</v>
+      </c>
+      <c r="M249">
+        <v>5.5</v>
+      </c>
+      <c r="N249">
+        <v>4</v>
+      </c>
+      <c r="O249">
+        <v>1.5</v>
+      </c>
+      <c r="P249">
+        <v>1</v>
+      </c>
+      <c r="Q249">
+        <v>1.975</v>
+      </c>
+      <c r="R249">
+        <v>1.875</v>
+      </c>
+      <c r="S249">
+        <v>2.75</v>
+      </c>
+      <c r="T249">
         <v>1.9</v>
       </c>
-      <c r="V248">
-        <v>0</v>
-      </c>
-      <c r="W248">
-        <v>0</v>
-      </c>
-      <c r="X248">
+      <c r="U249">
+        <v>1.95</v>
+      </c>
+      <c r="V249">
+        <v>0</v>
+      </c>
+      <c r="W249">
+        <v>0</v>
+      </c>
+      <c r="X249">
         <v>0</v>
       </c>
     </row>

--- a/Czech Republic First League/Czech Republic First League.xlsx
+++ b/Czech Republic First League/Czech Republic First League.xlsx
@@ -21998,10 +21998,10 @@
         <v>-0.5</v>
       </c>
       <c r="Q250">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R250">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S250">
         <v>2.75</v>
@@ -22051,31 +22051,31 @@
         <v>8</v>
       </c>
       <c r="M251">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="N251">
         <v>4.75</v>
       </c>
       <c r="O251">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="P251">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q251">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="R251">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S251">
         <v>2.75</v>
       </c>
       <c r="T251">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U251">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V251">
         <v>0</v>
@@ -22323,10 +22323,10 @@
         <v>-0.5</v>
       </c>
       <c r="Q255">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R255">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S255">
         <v>2.75</v>

--- a/Czech Republic First League/Czech Republic First League.xlsx
+++ b/Czech Republic First League/Czech Republic First League.xlsx
@@ -100,13 +100,13 @@
     <t>8157958</t>
   </si>
   <si>
-    <t>8157959</t>
+    <t>8210454</t>
   </si>
   <si>
     <t>8157960</t>
   </si>
   <si>
-    <t>8210454</t>
+    <t>8157959</t>
   </si>
   <si>
     <t>8157174</t>
@@ -133,10 +133,10 @@
     <t>Slavia Prague</t>
   </si>
   <si>
-    <t>Mlada Boleslav</t>
+    <t>Slovan Liberec</t>
   </si>
   <si>
-    <t>Slovan Liberec</t>
+    <t>Mlada Boleslav</t>
   </si>
   <si>
     <t>Slovacko</t>
@@ -145,19 +145,19 @@
     <t>Sparta Prague</t>
   </si>
   <si>
-    <t>FC Trinity Zlin</t>
+    <t>Sigma Olomouc</t>
   </si>
   <si>
-    <t>Sigma Olomouc</t>
+    <t>FC Trinity Zlin</t>
   </si>
   <si>
     <t>Banik Ostrava</t>
   </si>
   <si>
-    <t>Ceske Budejovice</t>
+    <t>Bohemians 1905</t>
   </si>
   <si>
-    <t>Bohemians 1905</t>
+    <t>Ceske Budejovice</t>
   </si>
   <si>
     <t>Viktoria Plzen</t>
@@ -643,7 +643,7 @@
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6802934</v>
+        <v>6802938</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
@@ -987,7 +987,7 @@
         <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -999,43 +999,43 @@
         <v>52</v>
       </c>
       <c r="J6">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="K6">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L6">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M6">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="N6">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O6">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="P6">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S6">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T6">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="U6">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>0.833</v>
+        <v>1.4</v>
       </c>
       <c r="W6">
         <v>-1</v>
@@ -1044,13 +1044,13 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB6">
         <v>-1</v>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6802938</v>
+        <v>6802934</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -1073,7 +1073,7 @@
         <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1085,43 +1085,43 @@
         <v>52</v>
       </c>
       <c r="J7">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="K7">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L7">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M7">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="N7">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O7">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q7">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="R7">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T7">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="U7">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V7">
-        <v>1.4</v>
+        <v>0.833</v>
       </c>
       <c r="W7">
         <v>-1</v>
@@ -1130,13 +1130,13 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB7">
         <v>-1</v>
@@ -1159,7 +1159,7 @@
         <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -1245,7 +1245,7 @@
         <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6802947</v>
+        <v>6802945</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -1331,73 +1331,73 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J10">
-        <v>5.5</v>
+        <v>1.666</v>
       </c>
       <c r="K10">
+        <v>3.75</v>
+      </c>
+      <c r="L10">
         <v>4.5</v>
       </c>
-      <c r="L10">
-        <v>1.45</v>
-      </c>
       <c r="M10">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="N10">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="O10">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="P10">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q10">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="R10">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S10">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T10">
+        <v>1.9</v>
+      </c>
+      <c r="U10">
         <v>1.95</v>
       </c>
-      <c r="U10">
-        <v>1.9</v>
-      </c>
       <c r="V10">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.5125</v>
+        <v>1.05</v>
       </c>
       <c r="Z10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB10">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6802945</v>
+        <v>6802947</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -1417,73 +1417,73 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J11">
-        <v>1.666</v>
+        <v>5.5</v>
       </c>
       <c r="K11">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L11">
-        <v>4.5</v>
+        <v>1.45</v>
       </c>
       <c r="M11">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="N11">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="O11">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="P11">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q11">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="R11">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T11">
+        <v>1.95</v>
+      </c>
+      <c r="U11">
         <v>1.9</v>
       </c>
-      <c r="U11">
-        <v>1.95</v>
-      </c>
       <c r="V11">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y11">
-        <v>1.05</v>
+        <v>0.5125</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA11">
+        <v>-1</v>
+      </c>
+      <c r="AB11">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB11">
-        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1672,10 +1672,10 @@
         <v>45137.41666666666</v>
       </c>
       <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
         <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>40</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1749,7 +1749,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6802942</v>
+        <v>6802944</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
@@ -1761,52 +1761,52 @@
         <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="s">
         <v>51</v>
       </c>
       <c r="J15">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="K15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L15">
-        <v>1.285</v>
+        <v>5.25</v>
       </c>
       <c r="M15">
-        <v>7.5</v>
+        <v>1.65</v>
       </c>
       <c r="N15">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="O15">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="P15">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q15">
+        <v>1.9</v>
+      </c>
+      <c r="R15">
         <v>1.95</v>
       </c>
-      <c r="R15">
-        <v>1.9</v>
-      </c>
       <c r="S15">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T15">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V15">
         <v>-1</v>
@@ -1815,19 +1815,19 @@
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>0.25</v>
+        <v>3.5</v>
       </c>
       <c r="Y15">
+        <v>-1</v>
+      </c>
+      <c r="Z15">
+        <v>0.95</v>
+      </c>
+      <c r="AA15">
+        <v>0.5125</v>
+      </c>
+      <c r="AB15">
         <v>-0.5</v>
-      </c>
-      <c r="Z15">
-        <v>0.45</v>
-      </c>
-      <c r="AA15">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB15">
-        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1835,7 +1835,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6802944</v>
+        <v>6802942</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
@@ -1847,52 +1847,52 @@
         <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" t="s">
         <v>51</v>
       </c>
       <c r="J16">
-        <v>1.533</v>
+        <v>7</v>
       </c>
       <c r="K16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L16">
-        <v>5.25</v>
+        <v>1.285</v>
       </c>
       <c r="M16">
-        <v>1.65</v>
+        <v>7.5</v>
       </c>
       <c r="N16">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="O16">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="P16">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q16">
+        <v>1.95</v>
+      </c>
+      <c r="R16">
         <v>1.9</v>
       </c>
-      <c r="R16">
-        <v>1.95</v>
-      </c>
       <c r="S16">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T16">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U16">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V16">
         <v>-1</v>
@@ -1901,19 +1901,19 @@
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>3.5</v>
+        <v>0.25</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z16">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AA16">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -2105,7 +2105,7 @@
         <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2191,7 +2191,7 @@
         <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2277,7 +2277,7 @@
         <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -2532,10 +2532,10 @@
         <v>45144.41666666666</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2790,10 +2790,10 @@
         <v>45150.41666666666</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2962,7 +2962,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
         <v>38</v>
@@ -3048,7 +3048,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
         <v>41</v>
@@ -3134,7 +3134,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
         <v>37</v>
@@ -3306,7 +3306,7 @@
         <v>45151.54166666666</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
         <v>48</v>
@@ -3392,7 +3392,7 @@
         <v>45157.41666666666</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F34" t="s">
         <v>35</v>
@@ -3481,7 +3481,7 @@
         <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3727,7 +3727,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6802967</v>
+        <v>6802969</v>
       </c>
       <c r="C38" t="s">
         <v>34</v>
@@ -3736,7 +3736,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F38" t="s">
         <v>44</v>
@@ -3745,49 +3745,49 @@
         <v>2</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="s">
         <v>52</v>
       </c>
       <c r="J38">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="K38">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L38">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="N38">
+        <v>3.6</v>
+      </c>
+      <c r="O38">
         <v>4.2</v>
       </c>
-      <c r="O38">
-        <v>5.75</v>
-      </c>
       <c r="P38">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q38">
+        <v>2.025</v>
+      </c>
+      <c r="R38">
         <v>1.825</v>
       </c>
-      <c r="R38">
+      <c r="S38">
+        <v>2.75</v>
+      </c>
+      <c r="T38">
         <v>2.025</v>
       </c>
-      <c r="S38">
-        <v>3</v>
-      </c>
-      <c r="T38">
-        <v>2</v>
-      </c>
       <c r="U38">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V38">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="W38">
         <v>-1</v>
@@ -3796,16 +3796,16 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -3813,7 +3813,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6802969</v>
+        <v>6802966</v>
       </c>
       <c r="C39" t="s">
         <v>34</v>
@@ -3822,13 +3822,13 @@
         <v>45158.41666666666</v>
       </c>
       <c r="E39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3837,43 +3837,43 @@
         <v>52</v>
       </c>
       <c r="J39">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="K39">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L39">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="M39">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="N39">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O39">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="P39">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q39">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="R39">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T39">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U39">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="W39">
         <v>-1</v>
@@ -3882,16 +3882,16 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB39">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -3899,7 +3899,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6802966</v>
+        <v>6802967</v>
       </c>
       <c r="C40" t="s">
         <v>34</v>
@@ -3908,58 +3908,58 @@
         <v>45158.41666666666</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="s">
         <v>52</v>
       </c>
       <c r="J40">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="K40">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="L40">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="M40">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="N40">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O40">
-        <v>2.2</v>
+        <v>5.75</v>
       </c>
       <c r="P40">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q40">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R40">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S40">
         <v>3</v>
       </c>
       <c r="T40">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>2</v>
+        <v>0.45</v>
       </c>
       <c r="W40">
         <v>-1</v>
@@ -3968,10 +3968,10 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA40">
         <v>0</v>
@@ -4080,7 +4080,7 @@
         <v>45164.41666666666</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
         <v>37</v>
@@ -4255,7 +4255,7 @@
         <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4424,10 +4424,10 @@
         <v>45165.41666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4510,7 +4510,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F47" t="s">
         <v>49</v>
@@ -4768,7 +4768,7 @@
         <v>45171.41666666666</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F50" t="s">
         <v>50</v>
@@ -4857,7 +4857,7 @@
         <v>41</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4943,7 +4943,7 @@
         <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -5026,7 +5026,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F53" t="s">
         <v>42</v>
@@ -5115,7 +5115,7 @@
         <v>48</v>
       </c>
       <c r="F54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5287,7 +5287,7 @@
         <v>49</v>
       </c>
       <c r="F56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5456,7 +5456,7 @@
         <v>45185.41666666666</v>
       </c>
       <c r="E58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F58" t="s">
         <v>45</v>
@@ -5542,7 +5542,7 @@
         <v>45185.41666666666</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F59" t="s">
         <v>49</v>
@@ -5628,10 +5628,10 @@
         <v>45185.41666666666</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -5803,7 +5803,7 @@
         <v>50</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5886,7 +5886,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
         <v>48</v>
@@ -6058,7 +6058,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="E65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F65" t="s">
         <v>37</v>
@@ -6135,7 +6135,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6803004</v>
+        <v>6803000</v>
       </c>
       <c r="C66" t="s">
         <v>34</v>
@@ -6144,49 +6144,49 @@
         <v>45192.41666666666</v>
       </c>
       <c r="E66" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G66">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="s">
         <v>52</v>
       </c>
       <c r="J66">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="K66">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="L66">
+        <v>6.5</v>
+      </c>
+      <c r="M66">
+        <v>1.363</v>
+      </c>
+      <c r="N66">
+        <v>5.25</v>
+      </c>
+      <c r="O66">
         <v>7</v>
       </c>
-      <c r="M66">
-        <v>1.4</v>
-      </c>
-      <c r="N66">
-        <v>4.333</v>
-      </c>
-      <c r="O66">
-        <v>8</v>
-      </c>
       <c r="P66">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q66">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R66">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S66">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T66">
         <v>1.9</v>
@@ -6195,7 +6195,7 @@
         <v>1.95</v>
       </c>
       <c r="V66">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="W66">
         <v>-1</v>
@@ -6204,16 +6204,16 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB66">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:28">
@@ -6221,7 +6221,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6802999</v>
+        <v>6803004</v>
       </c>
       <c r="C67" t="s">
         <v>34</v>
@@ -6230,49 +6230,49 @@
         <v>45192.41666666666</v>
       </c>
       <c r="E67" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J67">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="K67">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="L67">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="M67">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="N67">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="O67">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="P67">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q67">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R67">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S67">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T67">
         <v>1.9</v>
@@ -6281,25 +6281,25 @@
         <v>1.95</v>
       </c>
       <c r="V67">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z67">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="68" spans="1:28">
@@ -6307,7 +6307,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6803000</v>
+        <v>6802999</v>
       </c>
       <c r="C68" t="s">
         <v>34</v>
@@ -6316,46 +6316,46 @@
         <v>45192.41666666666</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G68">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J68">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="K68">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="L68">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="M68">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="O68">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="P68">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q68">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="R68">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S68">
         <v>3</v>
@@ -6367,25 +6367,25 @@
         <v>1.95</v>
       </c>
       <c r="V68">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y68">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA68">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6402,10 +6402,10 @@
         <v>45192.54166666666</v>
       </c>
       <c r="E69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -6737,7 +6737,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6803007</v>
+        <v>6803009</v>
       </c>
       <c r="C73" t="s">
         <v>34</v>
@@ -6746,76 +6746,76 @@
         <v>45199.41666666666</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F73" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J73">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="K73">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L73">
+        <v>2.375</v>
+      </c>
+      <c r="M73">
         <v>3</v>
       </c>
-      <c r="M73">
-        <v>2.25</v>
-      </c>
       <c r="N73">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="O73">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="P73">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q73">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R73">
+        <v>2.1</v>
+      </c>
+      <c r="S73">
+        <v>2.5</v>
+      </c>
+      <c r="T73">
+        <v>2</v>
+      </c>
+      <c r="U73">
         <v>1.85</v>
       </c>
-      <c r="S73">
-        <v>3</v>
-      </c>
-      <c r="T73">
-        <v>2.025</v>
-      </c>
-      <c r="U73">
-        <v>1.825</v>
-      </c>
       <c r="V73">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W73">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z73">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
         <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -6832,7 +6832,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F74" t="s">
         <v>45</v>
@@ -6909,7 +6909,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6803009</v>
+        <v>6803007</v>
       </c>
       <c r="C75" t="s">
         <v>34</v>
@@ -6918,76 +6918,76 @@
         <v>45199.41666666666</v>
       </c>
       <c r="E75" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J75">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="K75">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L75">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="M75">
+        <v>2.25</v>
+      </c>
+      <c r="N75">
+        <v>3.6</v>
+      </c>
+      <c r="O75">
+        <v>2.9</v>
+      </c>
+      <c r="P75">
+        <v>-0.25</v>
+      </c>
+      <c r="Q75">
+        <v>2</v>
+      </c>
+      <c r="R75">
+        <v>1.85</v>
+      </c>
+      <c r="S75">
         <v>3</v>
       </c>
-      <c r="N75">
-        <v>3.25</v>
-      </c>
-      <c r="O75">
-        <v>2.4</v>
-      </c>
-      <c r="P75">
-        <v>0.25</v>
-      </c>
-      <c r="Q75">
-        <v>1.775</v>
-      </c>
-      <c r="R75">
-        <v>2.1</v>
-      </c>
-      <c r="S75">
-        <v>2.5</v>
-      </c>
       <c r="T75">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U75">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V75">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -7007,7 +7007,7 @@
         <v>36</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G76">
         <v>5</v>
@@ -7167,7 +7167,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6803006</v>
+        <v>6803012</v>
       </c>
       <c r="C78" t="s">
         <v>34</v>
@@ -7176,46 +7176,46 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F78" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J78">
-        <v>1.909</v>
+        <v>9</v>
       </c>
       <c r="K78">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="L78">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="M78">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="N78">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="O78">
-        <v>3.6</v>
+        <v>1.285</v>
       </c>
       <c r="P78">
-        <v>-0.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q78">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R78">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S78">
         <v>2.75</v>
@@ -7227,25 +7227,25 @@
         <v>2</v>
       </c>
       <c r="V78">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -7253,7 +7253,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6803012</v>
+        <v>6803006</v>
       </c>
       <c r="C79" t="s">
         <v>34</v>
@@ -7262,46 +7262,46 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E79" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J79">
-        <v>9</v>
+        <v>1.909</v>
       </c>
       <c r="K79">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="L79">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="M79">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="N79">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="O79">
-        <v>1.285</v>
+        <v>3.6</v>
       </c>
       <c r="P79">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q79">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R79">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S79">
         <v>2.75</v>
@@ -7313,25 +7313,25 @@
         <v>2</v>
       </c>
       <c r="V79">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W79">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB79">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -7425,7 +7425,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6803020</v>
+        <v>6803018</v>
       </c>
       <c r="C81" t="s">
         <v>34</v>
@@ -7434,13 +7434,13 @@
         <v>45206.41666666666</v>
       </c>
       <c r="E81" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7449,43 +7449,43 @@
         <v>52</v>
       </c>
       <c r="J81">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="K81">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="L81">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M81">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="N81">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O81">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="P81">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q81">
+        <v>2.025</v>
+      </c>
+      <c r="R81">
         <v>1.825</v>
       </c>
-      <c r="R81">
-        <v>2.025</v>
-      </c>
       <c r="S81">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T81">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U81">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V81">
-        <v>0.5</v>
+        <v>1.375</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -7494,16 +7494,16 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:28">
@@ -7511,7 +7511,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6803018</v>
+        <v>6803015</v>
       </c>
       <c r="C82" t="s">
         <v>34</v>
@@ -7520,13 +7520,13 @@
         <v>45206.41666666666</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7535,43 +7535,43 @@
         <v>52</v>
       </c>
       <c r="J82">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K82">
         <v>3.5</v>
       </c>
       <c r="L82">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M82">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="N82">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O82">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P82">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q82">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="R82">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S82">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T82">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U82">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V82">
-        <v>1.375</v>
+        <v>0.8</v>
       </c>
       <c r="W82">
         <v>-1</v>
@@ -7580,16 +7580,16 @@
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:28">
@@ -7597,7 +7597,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6803015</v>
+        <v>6803017</v>
       </c>
       <c r="C83" t="s">
         <v>34</v>
@@ -7609,43 +7609,43 @@
         <v>46</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J83">
+        <v>1.6</v>
+      </c>
+      <c r="K83">
+        <v>4</v>
+      </c>
+      <c r="L83">
+        <v>5.25</v>
+      </c>
+      <c r="M83">
+        <v>1.4</v>
+      </c>
+      <c r="N83">
+        <v>4.75</v>
+      </c>
+      <c r="O83">
+        <v>6.5</v>
+      </c>
+      <c r="P83">
+        <v>-1.25</v>
+      </c>
+      <c r="Q83">
+        <v>1.9</v>
+      </c>
+      <c r="R83">
         <v>1.95</v>
-      </c>
-      <c r="K83">
-        <v>3.5</v>
-      </c>
-      <c r="L83">
-        <v>3.75</v>
-      </c>
-      <c r="M83">
-        <v>1.8</v>
-      </c>
-      <c r="N83">
-        <v>3.75</v>
-      </c>
-      <c r="O83">
-        <v>4</v>
-      </c>
-      <c r="P83">
-        <v>-0.5</v>
-      </c>
-      <c r="Q83">
-        <v>1.85</v>
-      </c>
-      <c r="R83">
-        <v>2</v>
       </c>
       <c r="S83">
         <v>3</v>
@@ -7657,19 +7657,19 @@
         <v>1.85</v>
       </c>
       <c r="V83">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA83">
         <v>-1</v>
@@ -7683,7 +7683,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6803017</v>
+        <v>6803020</v>
       </c>
       <c r="C84" t="s">
         <v>34</v>
@@ -7692,76 +7692,76 @@
         <v>45206.41666666666</v>
       </c>
       <c r="E84" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J84">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="K84">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L84">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="M84">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="N84">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="O84">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="P84">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q84">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R84">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S84">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T84">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U84">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V84">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W84">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z84">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -7950,7 +7950,7 @@
         <v>45207.54166666666</v>
       </c>
       <c r="E87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F87" t="s">
         <v>38</v>
@@ -8122,7 +8122,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="E89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
@@ -8211,7 +8211,7 @@
         <v>35</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8294,10 +8294,10 @@
         <v>45220.41666666666</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G91">
         <v>5</v>
@@ -8555,7 +8555,7 @@
         <v>42</v>
       </c>
       <c r="F94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G94">
         <v>4</v>
@@ -8727,7 +8727,7 @@
         <v>50</v>
       </c>
       <c r="F96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8813,7 +8813,7 @@
         <v>41</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8896,7 +8896,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="E98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F98" t="s">
         <v>35</v>
@@ -9068,10 +9068,10 @@
         <v>45227.41666666666</v>
       </c>
       <c r="E100" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" t="s">
         <v>44</v>
-      </c>
-      <c r="F100" t="s">
-        <v>43</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9326,7 +9326,7 @@
         <v>45228.45833333334</v>
       </c>
       <c r="E103" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F103" t="s">
         <v>42</v>
@@ -9412,7 +9412,7 @@
         <v>45228.58333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F104" t="s">
         <v>38</v>
@@ -9587,7 +9587,7 @@
         <v>50</v>
       </c>
       <c r="F106" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -9673,7 +9673,7 @@
         <v>35</v>
       </c>
       <c r="F107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9759,7 +9759,7 @@
         <v>37</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9845,7 +9845,7 @@
         <v>42</v>
       </c>
       <c r="F109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -10014,10 +10014,10 @@
         <v>45235.45833333334</v>
       </c>
       <c r="E111" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10186,7 +10186,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="E113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F113" t="s">
         <v>50</v>
@@ -10272,7 +10272,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F114" t="s">
         <v>35</v>
@@ -10361,7 +10361,7 @@
         <v>49</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10444,7 +10444,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F116" t="s">
         <v>37</v>
@@ -10530,7 +10530,7 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E117" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F117" t="s">
         <v>36</v>
@@ -10788,7 +10788,7 @@
         <v>45242.58333333334</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F120" t="s">
         <v>38</v>
@@ -10951,7 +10951,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6803056</v>
+        <v>6803058</v>
       </c>
       <c r="C122" t="s">
         <v>34</v>
@@ -10960,76 +10960,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="E122" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F122" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J122">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="K122">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L122">
         <v>2.9</v>
       </c>
       <c r="M122">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="N122">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O122">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="P122">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q122">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R122">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S122">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T122">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="U122">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V122">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W122">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
+        <v>0.4875</v>
+      </c>
+      <c r="AB122">
         <v>-0.5</v>
-      </c>
-      <c r="AB122">
-        <v>0.4</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11049,7 +11049,7 @@
         <v>36</v>
       </c>
       <c r="F123" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11123,7 +11123,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6803058</v>
+        <v>6803056</v>
       </c>
       <c r="C124" t="s">
         <v>34</v>
@@ -11132,76 +11132,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="E124" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H124">
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J124">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="K124">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L124">
         <v>2.9</v>
       </c>
       <c r="M124">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="N124">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O124">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="P124">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q124">
+        <v>2.1</v>
+      </c>
+      <c r="R124">
+        <v>1.775</v>
+      </c>
+      <c r="S124">
+        <v>2.25</v>
+      </c>
+      <c r="T124">
         <v>2.05</v>
       </c>
-      <c r="R124">
+      <c r="U124">
         <v>1.8</v>
       </c>
-      <c r="S124">
-        <v>2.75</v>
-      </c>
-      <c r="T124">
-        <v>1.975</v>
-      </c>
-      <c r="U124">
-        <v>1.875</v>
-      </c>
       <c r="V124">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA124">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB124">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="125" spans="1:28">
@@ -11221,7 +11221,7 @@
         <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -11479,7 +11479,7 @@
         <v>42</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -11562,7 +11562,7 @@
         <v>45262.45833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F129" t="s">
         <v>41</v>
@@ -11820,7 +11820,7 @@
         <v>45266.54166666666</v>
       </c>
       <c r="E132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F132" t="s">
         <v>48</v>
@@ -11897,7 +11897,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6803076</v>
+        <v>6803074</v>
       </c>
       <c r="C133" t="s">
         <v>34</v>
@@ -11906,58 +11906,58 @@
         <v>45269.45833333334</v>
       </c>
       <c r="E133" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F133" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G133">
+        <v>5</v>
+      </c>
+      <c r="H133">
         <v>3</v>
-      </c>
-      <c r="H133">
-        <v>0</v>
       </c>
       <c r="I133" t="s">
         <v>52</v>
       </c>
       <c r="J133">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="K133">
+        <v>4.2</v>
+      </c>
+      <c r="L133">
+        <v>5</v>
+      </c>
+      <c r="M133">
+        <v>1.5</v>
+      </c>
+      <c r="N133">
+        <v>4.2</v>
+      </c>
+      <c r="O133">
         <v>5.75</v>
       </c>
-      <c r="L133">
-        <v>8</v>
-      </c>
-      <c r="M133">
-        <v>1.25</v>
-      </c>
-      <c r="N133">
-        <v>5.25</v>
-      </c>
-      <c r="O133">
-        <v>8</v>
-      </c>
       <c r="P133">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="Q133">
+        <v>1.925</v>
+      </c>
+      <c r="R133">
+        <v>1.925</v>
+      </c>
+      <c r="S133">
+        <v>2.5</v>
+      </c>
+      <c r="T133">
         <v>1.825</v>
       </c>
-      <c r="R133">
+      <c r="U133">
         <v>2.025</v>
       </c>
-      <c r="S133">
-        <v>3</v>
-      </c>
-      <c r="T133">
-        <v>1.925</v>
-      </c>
-      <c r="U133">
-        <v>1.925</v>
-      </c>
       <c r="V133">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -11966,16 +11966,16 @@
         <v>-1</v>
       </c>
       <c r="Y133">
+        <v>0.925</v>
+      </c>
+      <c r="Z133">
+        <v>-1</v>
+      </c>
+      <c r="AA133">
         <v>0.825</v>
       </c>
-      <c r="Z133">
-        <v>-1</v>
-      </c>
-      <c r="AA133">
-        <v>0</v>
-      </c>
       <c r="AB133">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:28">
@@ -11983,7 +11983,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6803074</v>
+        <v>6803076</v>
       </c>
       <c r="C134" t="s">
         <v>34</v>
@@ -11992,58 +11992,58 @@
         <v>45269.45833333334</v>
       </c>
       <c r="E134" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F134" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G134">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="s">
         <v>52</v>
       </c>
       <c r="J134">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="K134">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="L134">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M134">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="N134">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="O134">
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="P134">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="Q134">
+        <v>1.825</v>
+      </c>
+      <c r="R134">
+        <v>2.025</v>
+      </c>
+      <c r="S134">
+        <v>3</v>
+      </c>
+      <c r="T134">
         <v>1.925</v>
       </c>
-      <c r="R134">
+      <c r="U134">
         <v>1.925</v>
       </c>
-      <c r="S134">
-        <v>2.5</v>
-      </c>
-      <c r="T134">
-        <v>1.825</v>
-      </c>
-      <c r="U134">
-        <v>2.025</v>
-      </c>
       <c r="V134">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12052,16 +12052,16 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:28">
@@ -12081,7 +12081,7 @@
         <v>41</v>
       </c>
       <c r="F135" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G135">
         <v>5</v>
@@ -12253,7 +12253,7 @@
         <v>48</v>
       </c>
       <c r="F137" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G137">
         <v>5</v>
@@ -12339,7 +12339,7 @@
         <v>38</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12413,7 +12413,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7560702</v>
+        <v>7560701</v>
       </c>
       <c r="C139" t="s">
         <v>34</v>
@@ -12422,76 +12422,76 @@
         <v>45273.54166666666</v>
       </c>
       <c r="E139" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H139">
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J139">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="K139">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="L139">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M139">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="N139">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="O139">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P139">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q139">
+        <v>2</v>
+      </c>
+      <c r="R139">
         <v>1.85</v>
       </c>
-      <c r="R139">
-        <v>2</v>
-      </c>
       <c r="S139">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T139">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U139">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V139">
         <v>-1</v>
       </c>
       <c r="W139">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA139">
+        <v>-1</v>
+      </c>
+      <c r="AB139">
         <v>1</v>
-      </c>
-      <c r="AA139">
-        <v>0.925</v>
-      </c>
-      <c r="AB139">
-        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:28">
@@ -12499,7 +12499,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7560701</v>
+        <v>7560702</v>
       </c>
       <c r="C140" t="s">
         <v>34</v>
@@ -12508,76 +12508,76 @@
         <v>45273.54166666666</v>
       </c>
       <c r="E140" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F140" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H140">
         <v>2</v>
       </c>
       <c r="I140" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J140">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="K140">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="L140">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M140">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="N140">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="O140">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P140">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q140">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R140">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T140">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U140">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V140">
         <v>-1</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="X140">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB140">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:28">
@@ -12594,10 +12594,10 @@
         <v>45273.58333333334</v>
       </c>
       <c r="E141" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12671,7 +12671,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6803080</v>
+        <v>6803083</v>
       </c>
       <c r="C142" t="s">
         <v>34</v>
@@ -12680,76 +12680,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="E142" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G142">
         <v>0</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J142">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="K142">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L142">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M142">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="N142">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="O142">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="P142">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q142">
+        <v>2.05</v>
+      </c>
+      <c r="R142">
         <v>1.8</v>
       </c>
-      <c r="R142">
-        <v>2.05</v>
-      </c>
       <c r="S142">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T142">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V142">
         <v>-1</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X142">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -12757,7 +12757,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6803081</v>
+        <v>6803080</v>
       </c>
       <c r="C143" t="s">
         <v>34</v>
@@ -12766,76 +12766,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="E143" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F143" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G143">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143" t="s">
+        <v>51</v>
+      </c>
+      <c r="J143">
+        <v>2.3</v>
+      </c>
+      <c r="K143">
+        <v>3.3</v>
+      </c>
+      <c r="L143">
+        <v>3.1</v>
+      </c>
+      <c r="M143">
+        <v>2.5</v>
+      </c>
+      <c r="N143">
+        <v>3.3</v>
+      </c>
+      <c r="O143">
+        <v>2.8</v>
+      </c>
+      <c r="P143">
         <v>0</v>
       </c>
-      <c r="I143" t="s">
-        <v>52</v>
-      </c>
-      <c r="J143">
-        <v>2.5</v>
-      </c>
-      <c r="K143">
-        <v>3.4</v>
-      </c>
-      <c r="L143">
-        <v>2.7</v>
-      </c>
-      <c r="M143">
-        <v>3</v>
-      </c>
-      <c r="N143">
-        <v>3.4</v>
-      </c>
-      <c r="O143">
-        <v>2.3</v>
-      </c>
-      <c r="P143">
-        <v>0.25</v>
-      </c>
       <c r="Q143">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R143">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S143">
         <v>2.5</v>
       </c>
       <c r="T143">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U143">
+        <v>1.9</v>
+      </c>
+      <c r="V143">
+        <v>-1</v>
+      </c>
+      <c r="W143">
+        <v>-1</v>
+      </c>
+      <c r="X143">
         <v>1.8</v>
       </c>
-      <c r="V143">
-        <v>2</v>
-      </c>
-      <c r="W143">
-        <v>-1</v>
-      </c>
-      <c r="X143">
-        <v>-1</v>
-      </c>
       <c r="Y143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA143">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12843,7 +12843,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6803082</v>
+        <v>6803081</v>
       </c>
       <c r="C144" t="s">
         <v>34</v>
@@ -12852,13 +12852,13 @@
         <v>45276.45833333334</v>
       </c>
       <c r="E144" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G144">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -12867,13 +12867,13 @@
         <v>52</v>
       </c>
       <c r="J144">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="K144">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L144">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="M144">
         <v>3</v>
@@ -12897,10 +12897,10 @@
         <v>2.5</v>
       </c>
       <c r="T144">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U144">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V144">
         <v>2</v>
@@ -12918,10 +12918,10 @@
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -12929,7 +12929,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6803083</v>
+        <v>6803082</v>
       </c>
       <c r="C145" t="s">
         <v>34</v>
@@ -12938,76 +12938,76 @@
         <v>45276.45833333334</v>
       </c>
       <c r="E145" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H145">
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J145">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="K145">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="M145">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="N145">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="O145">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="P145">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q145">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S145">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T145">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U145">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V145">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W145">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z145">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:28">
@@ -13024,10 +13024,10 @@
         <v>45276.58333333334</v>
       </c>
       <c r="E146" t="s">
+        <v>46</v>
+      </c>
+      <c r="F146" t="s">
         <v>47</v>
-      </c>
-      <c r="F146" t="s">
-        <v>46</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13110,7 +13110,7 @@
         <v>45277.45833333334</v>
       </c>
       <c r="E147" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F147" t="s">
         <v>48</v>
@@ -13540,7 +13540,7 @@
         <v>45332.45833333334</v>
       </c>
       <c r="E152" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F152" t="s">
         <v>45</v>
@@ -13626,10 +13626,10 @@
         <v>45332.45833333334</v>
       </c>
       <c r="E153" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F153" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G153">
         <v>2</v>
@@ -13715,7 +13715,7 @@
         <v>48</v>
       </c>
       <c r="F154" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13789,7 +13789,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6803089</v>
+        <v>6803085</v>
       </c>
       <c r="C155" t="s">
         <v>34</v>
@@ -13798,40 +13798,40 @@
         <v>45333.45833333334</v>
       </c>
       <c r="E155" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G155">
         <v>2</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J155">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="K155">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L155">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="M155">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="N155">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O155">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="P155">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q155">
         <v>1.8</v>
@@ -13843,28 +13843,28 @@
         <v>2.25</v>
       </c>
       <c r="T155">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U155">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V155">
+        <v>-1</v>
+      </c>
+      <c r="W155">
+        <v>2.3</v>
+      </c>
+      <c r="X155">
+        <v>-1</v>
+      </c>
+      <c r="Y155">
+        <v>0</v>
+      </c>
+      <c r="Z155">
+        <v>0</v>
+      </c>
+      <c r="AA155">
         <v>0.8</v>
-      </c>
-      <c r="W155">
-        <v>-1</v>
-      </c>
-      <c r="X155">
-        <v>-1</v>
-      </c>
-      <c r="Y155">
-        <v>0.8</v>
-      </c>
-      <c r="Z155">
-        <v>-1</v>
-      </c>
-      <c r="AA155">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AB155">
         <v>-1</v>
@@ -13875,7 +13875,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6803085</v>
+        <v>6803089</v>
       </c>
       <c r="C156" t="s">
         <v>34</v>
@@ -13884,40 +13884,40 @@
         <v>45333.45833333334</v>
       </c>
       <c r="E156" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F156" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G156">
         <v>2</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J156">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="K156">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L156">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="M156">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="N156">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O156">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="P156">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q156">
         <v>1.8</v>
@@ -13929,28 +13929,28 @@
         <v>2.25</v>
       </c>
       <c r="T156">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U156">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V156">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W156">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB156">
         <v>-1</v>
@@ -14228,7 +14228,7 @@
         <v>45336.58333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F160" t="s">
         <v>38</v>
@@ -14317,7 +14317,7 @@
         <v>50</v>
       </c>
       <c r="F161" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G161">
         <v>5</v>
@@ -14400,7 +14400,7 @@
         <v>45339.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F162" t="s">
         <v>49</v>
@@ -14486,7 +14486,7 @@
         <v>45339.45833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F163" t="s">
         <v>45</v>
@@ -14658,7 +14658,7 @@
         <v>45339.58333333334</v>
       </c>
       <c r="E165" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F165" t="s">
         <v>48</v>
@@ -14830,7 +14830,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="E167" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F167" t="s">
         <v>41</v>
@@ -14919,7 +14919,7 @@
         <v>42</v>
       </c>
       <c r="F168" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -15005,7 +15005,7 @@
         <v>37</v>
       </c>
       <c r="F169" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -15088,7 +15088,7 @@
         <v>45346.45833333334</v>
       </c>
       <c r="E170" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F170" t="s">
         <v>50</v>
@@ -15263,7 +15263,7 @@
         <v>45</v>
       </c>
       <c r="F172" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15349,7 +15349,7 @@
         <v>49</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -15435,7 +15435,7 @@
         <v>48</v>
       </c>
       <c r="F174" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G174">
         <v>3</v>
@@ -15518,10 +15518,10 @@
         <v>45347.45833333334</v>
       </c>
       <c r="E175" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F175" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -15776,10 +15776,10 @@
         <v>45353.45833333334</v>
       </c>
       <c r="E178" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F178" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G178">
         <v>2</v>
@@ -15948,10 +15948,10 @@
         <v>45353.45833333334</v>
       </c>
       <c r="E180" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F180" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G180">
         <v>3</v>
@@ -16209,7 +16209,7 @@
         <v>37</v>
       </c>
       <c r="F183" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16292,7 +16292,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="E184" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F184" t="s">
         <v>45</v>
@@ -16464,10 +16464,10 @@
         <v>45360.45833333334</v>
       </c>
       <c r="E186" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F186" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16636,7 +16636,7 @@
         <v>45360.45833333334</v>
       </c>
       <c r="E188" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F188" t="s">
         <v>36</v>
@@ -16811,7 +16811,7 @@
         <v>45</v>
       </c>
       <c r="F190" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16894,10 +16894,10 @@
         <v>45361.45833333334</v>
       </c>
       <c r="E191" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F191" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G191">
         <v>2</v>
@@ -17155,7 +17155,7 @@
         <v>36</v>
       </c>
       <c r="F194" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G194">
         <v>2</v>
@@ -17238,10 +17238,10 @@
         <v>45367.45833333334</v>
       </c>
       <c r="E195" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F195" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G195">
         <v>2</v>
@@ -17324,10 +17324,10 @@
         <v>45367.45833333334</v>
       </c>
       <c r="E196" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F196" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -17487,7 +17487,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6803132</v>
+        <v>6803135</v>
       </c>
       <c r="C198" t="s">
         <v>34</v>
@@ -17496,76 +17496,76 @@
         <v>45368.45833333334</v>
       </c>
       <c r="E198" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F198" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G198">
+        <v>3</v>
+      </c>
+      <c r="H198">
         <v>0</v>
       </c>
-      <c r="H198">
-        <v>1</v>
-      </c>
       <c r="I198" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J198">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="K198">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="L198">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M198">
-        <v>4.75</v>
+        <v>1.25</v>
       </c>
       <c r="N198">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O198">
-        <v>1.666</v>
+        <v>11</v>
       </c>
       <c r="P198">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="Q198">
+        <v>1.925</v>
+      </c>
+      <c r="R198">
+        <v>1.925</v>
+      </c>
+      <c r="S198">
+        <v>3</v>
+      </c>
+      <c r="T198">
         <v>1.975</v>
       </c>
-      <c r="R198">
+      <c r="U198">
         <v>1.875</v>
       </c>
-      <c r="S198">
-        <v>2.75</v>
-      </c>
-      <c r="T198">
-        <v>1.925</v>
-      </c>
-      <c r="U198">
-        <v>1.925</v>
-      </c>
       <c r="V198">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="Z198">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB198">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:28">
@@ -17573,7 +17573,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6803130</v>
+        <v>6803132</v>
       </c>
       <c r="C199" t="s">
         <v>34</v>
@@ -17582,56 +17582,56 @@
         <v>45368.45833333334</v>
       </c>
       <c r="E199" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F199" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
         <v>1</v>
-      </c>
-      <c r="H199">
-        <v>2</v>
       </c>
       <c r="I199" t="s">
         <v>51</v>
       </c>
       <c r="J199">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="K199">
+        <v>3.6</v>
+      </c>
+      <c r="L199">
+        <v>2</v>
+      </c>
+      <c r="M199">
+        <v>4.75</v>
+      </c>
+      <c r="N199">
         <v>4</v>
       </c>
-      <c r="L199">
-        <v>1.8</v>
-      </c>
-      <c r="M199">
-        <v>3.2</v>
-      </c>
-      <c r="N199">
-        <v>3.5</v>
-      </c>
       <c r="O199">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="P199">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q199">
+        <v>1.975</v>
+      </c>
+      <c r="R199">
+        <v>1.875</v>
+      </c>
+      <c r="S199">
+        <v>2.75</v>
+      </c>
+      <c r="T199">
         <v>1.925</v>
       </c>
-      <c r="R199">
+      <c r="U199">
         <v>1.925</v>
       </c>
-      <c r="S199">
-        <v>2.5</v>
-      </c>
-      <c r="T199">
-        <v>1.85</v>
-      </c>
-      <c r="U199">
-        <v>2</v>
-      </c>
       <c r="V199">
         <v>-1</v>
       </c>
@@ -17639,19 +17639,19 @@
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>1.1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z199">
+        <v>0.4375</v>
+      </c>
+      <c r="AA199">
+        <v>-1</v>
+      </c>
+      <c r="AB199">
         <v>0.925</v>
-      </c>
-      <c r="AA199">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB199">
-        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:28">
@@ -17659,7 +17659,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6803135</v>
+        <v>6803130</v>
       </c>
       <c r="C200" t="s">
         <v>34</v>
@@ -17668,40 +17668,40 @@
         <v>45368.45833333334</v>
       </c>
       <c r="E200" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F200" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G200">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J200">
-        <v>1.25</v>
+        <v>3.8</v>
       </c>
       <c r="K200">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L200">
-        <v>12</v>
+        <v>1.8</v>
       </c>
       <c r="M200">
-        <v>1.25</v>
+        <v>3.2</v>
       </c>
       <c r="N200">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="O200">
-        <v>11</v>
+        <v>2.1</v>
       </c>
       <c r="P200">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q200">
         <v>1.925</v>
@@ -17710,34 +17710,34 @@
         <v>1.925</v>
       </c>
       <c r="S200">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T200">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U200">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V200">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y200">
+        <v>-1</v>
+      </c>
+      <c r="Z200">
         <v>0.925</v>
       </c>
-      <c r="Z200">
-        <v>-1</v>
-      </c>
       <c r="AA200">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB200">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:28">
@@ -17840,7 +17840,7 @@
         <v>45381.45833333334</v>
       </c>
       <c r="E202" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F202" t="s">
         <v>35</v>
@@ -17926,7 +17926,7 @@
         <v>45381.45833333334</v>
       </c>
       <c r="E203" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F203" t="s">
         <v>50</v>
@@ -18015,7 +18015,7 @@
         <v>48</v>
       </c>
       <c r="F204" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -18356,10 +18356,10 @@
         <v>45382.41666666666</v>
       </c>
       <c r="E208" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F208" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G208">
         <v>3</v>
@@ -18442,7 +18442,7 @@
         <v>45382.54166666666</v>
       </c>
       <c r="E209" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F209" t="s">
         <v>42</v>
@@ -18528,7 +18528,7 @@
         <v>45388.41666666666</v>
       </c>
       <c r="E210" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F210" t="s">
         <v>41</v>
@@ -18614,10 +18614,10 @@
         <v>45388.41666666666</v>
       </c>
       <c r="E211" t="s">
+        <v>44</v>
+      </c>
+      <c r="F211" t="s">
         <v>43</v>
-      </c>
-      <c r="F211" t="s">
-        <v>44</v>
       </c>
       <c r="G211">
         <v>3</v>
@@ -18789,7 +18789,7 @@
         <v>38</v>
       </c>
       <c r="F213" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G213">
         <v>2</v>
@@ -18961,7 +18961,7 @@
         <v>35</v>
       </c>
       <c r="F215" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G215">
         <v>1</v>
@@ -19133,7 +19133,7 @@
         <v>42</v>
       </c>
       <c r="F217" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G217">
         <v>1</v>
@@ -19216,7 +19216,7 @@
         <v>45395.41666666666</v>
       </c>
       <c r="E218" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F218" t="s">
         <v>37</v>
@@ -19302,10 +19302,10 @@
         <v>45395.41666666666</v>
       </c>
       <c r="E219" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F219" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G219">
         <v>3</v>
@@ -19388,7 +19388,7 @@
         <v>45395.41666666666</v>
       </c>
       <c r="E220" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F220" t="s">
         <v>42</v>
@@ -19646,7 +19646,7 @@
         <v>45396.41666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F223" t="s">
         <v>50</v>
@@ -19732,7 +19732,7 @@
         <v>45396.41666666666</v>
       </c>
       <c r="E224" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F224" t="s">
         <v>35</v>
@@ -19993,7 +19993,7 @@
         <v>50</v>
       </c>
       <c r="F227" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -20079,7 +20079,7 @@
         <v>36</v>
       </c>
       <c r="F228" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G228">
         <v>1</v>
@@ -20165,7 +20165,7 @@
         <v>37</v>
       </c>
       <c r="F229" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G229">
         <v>2</v>
@@ -20248,7 +20248,7 @@
         <v>45403.41666666666</v>
       </c>
       <c r="E230" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F230" t="s">
         <v>49</v>
@@ -20337,7 +20337,7 @@
         <v>38</v>
       </c>
       <c r="F231" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G231">
         <v>2</v>
@@ -20423,7 +20423,7 @@
         <v>35</v>
       </c>
       <c r="F232" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G232">
         <v>1</v>
@@ -20592,7 +20592,7 @@
         <v>45410.41666666666</v>
       </c>
       <c r="E234" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F234" t="s">
         <v>35</v>
@@ -20681,7 +20681,7 @@
         <v>50</v>
       </c>
       <c r="F235" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G235">
         <v>1</v>
@@ -20764,7 +20764,7 @@
         <v>45410.41666666666</v>
       </c>
       <c r="E236" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F236" t="s">
         <v>41</v>
@@ -21022,7 +21022,7 @@
         <v>45410.41666666666</v>
       </c>
       <c r="E239" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F239" t="s">
         <v>42</v>
@@ -21108,7 +21108,7 @@
         <v>45410.41666666666</v>
       </c>
       <c r="E240" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F240" t="s">
         <v>36</v>
@@ -21197,7 +21197,7 @@
         <v>45</v>
       </c>
       <c r="F241" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G241">
         <v>2</v>
@@ -21283,7 +21283,7 @@
         <v>35</v>
       </c>
       <c r="F242" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G242">
         <v>2</v>
@@ -21452,10 +21452,10 @@
         <v>45416.41666666666</v>
       </c>
       <c r="E244" t="s">
+        <v>47</v>
+      </c>
+      <c r="F244" t="s">
         <v>46</v>
-      </c>
-      <c r="F244" t="s">
-        <v>47</v>
       </c>
       <c r="G244">
         <v>2</v>
@@ -21627,7 +21627,7 @@
         <v>37</v>
       </c>
       <c r="F246" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G246">
         <v>2</v>
@@ -21713,7 +21713,7 @@
         <v>48</v>
       </c>
       <c r="F247" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G247">
         <v>3</v>
@@ -21799,7 +21799,7 @@
         <v>49</v>
       </c>
       <c r="F248" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G248">
         <v>3</v>
@@ -22057,7 +22057,7 @@
         <v>45</v>
       </c>
       <c r="F251" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -22226,7 +22226,7 @@
         <v>45424.41666666666</v>
       </c>
       <c r="E253" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F253" t="s">
         <v>37</v>
@@ -22312,7 +22312,7 @@
         <v>45424.41666666666</v>
       </c>
       <c r="E254" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F254" t="s">
         <v>50</v>
@@ -22401,7 +22401,7 @@
         <v>35</v>
       </c>
       <c r="F255" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G255">
         <v>3</v>
@@ -22484,7 +22484,7 @@
         <v>45424.41666666666</v>
       </c>
       <c r="E256" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F256" t="s">
         <v>49</v>
@@ -22573,7 +22573,7 @@
         <v>36</v>
       </c>
       <c r="F257" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G257">
         <v>2</v>
@@ -22656,7 +22656,7 @@
         <v>45426.5</v>
       </c>
       <c r="E258" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F258" t="s">
         <v>41</v>
@@ -22914,7 +22914,7 @@
         <v>45428.5</v>
       </c>
       <c r="E261" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F261" t="s">
         <v>36</v>
@@ -23086,10 +23086,10 @@
         <v>45428.5</v>
       </c>
       <c r="E263" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F263" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G263">
         <v>1</v>
@@ -23344,7 +23344,7 @@
         <v>45430.5</v>
       </c>
       <c r="E266" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F266" t="s">
         <v>42</v>
@@ -23602,10 +23602,10 @@
         <v>45431.5</v>
       </c>
       <c r="E269" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F269" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G269">
         <v>1</v>
@@ -23688,7 +23688,7 @@
         <v>45431.5</v>
       </c>
       <c r="E270" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F270" t="s">
         <v>50</v>
@@ -23774,7 +23774,7 @@
         <v>45437.54166666666</v>
       </c>
       <c r="E271" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F271" t="s">
         <v>35</v>
@@ -23801,10 +23801,10 @@
         <v>-0.75</v>
       </c>
       <c r="Q271">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R271">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S271">
         <v>3</v>
@@ -23839,40 +23839,40 @@
         <v>45437.54166666666</v>
       </c>
       <c r="E272" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F272" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J272">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="K272">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L272">
+        <v>3.5</v>
+      </c>
+      <c r="M272">
+        <v>1.95</v>
+      </c>
+      <c r="N272">
+        <v>3.5</v>
+      </c>
+      <c r="O272">
+        <v>3.4</v>
+      </c>
+      <c r="P272">
+        <v>-0.5</v>
+      </c>
+      <c r="Q272">
+        <v>2</v>
+      </c>
+      <c r="R272">
+        <v>1.85</v>
+      </c>
+      <c r="S272">
         <v>2.5</v>
-      </c>
-      <c r="M272">
-        <v>2.875</v>
-      </c>
-      <c r="N272">
-        <v>3.7</v>
-      </c>
-      <c r="O272">
-        <v>2.1</v>
-      </c>
-      <c r="P272">
-        <v>0.25</v>
-      </c>
-      <c r="Q272">
-        <v>1.95</v>
-      </c>
-      <c r="R272">
-        <v>1.9</v>
-      </c>
-      <c r="S272">
-        <v>2.75</v>
       </c>
       <c r="T272">
         <v>2.025</v>
@@ -23907,7 +23907,7 @@
         <v>36</v>
       </c>
       <c r="F273" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J273">
         <v>2</v>
@@ -23931,19 +23931,19 @@
         <v>-0.25</v>
       </c>
       <c r="Q273">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R273">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S273">
         <v>2.5</v>
       </c>
       <c r="T273">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U273">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V273">
         <v>0</v>
@@ -23969,40 +23969,40 @@
         <v>45437.54166666666</v>
       </c>
       <c r="E274" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F274" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J274">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="K274">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L274">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="M274">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="N274">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="O274">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="P274">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q274">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="R274">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S274">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T274">
         <v>2.025</v>
@@ -24052,28 +24052,28 @@
         <v>1.42</v>
       </c>
       <c r="N275">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="O275">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="P275">
         <v>-1.25</v>
       </c>
       <c r="Q275">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R275">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S275">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T275">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U275">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V275">
         <v>0</v>
@@ -24102,7 +24102,7 @@
         <v>38</v>
       </c>
       <c r="F276" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J276">
         <v>1.166</v>

--- a/Czech Republic First League/Czech Republic First League.xlsx
+++ b/Czech Republic First League/Czech Republic First League.xlsx
@@ -106,13 +106,13 @@
     <t>Czech Republic First League</t>
   </si>
   <si>
+    <t>FK Teplice</t>
+  </si>
+  <si>
     <t>MFK Karvina</t>
   </si>
   <si>
     <t>Pardubice</t>
-  </si>
-  <si>
-    <t>FK Teplice</t>
   </si>
   <si>
     <t>Slavia Prague</t>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6802936</v>
+        <v>6802937</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -634,16 +634,16 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -652,43 +652,43 @@
         <v>46</v>
       </c>
       <c r="L2">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="M2">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N2">
-        <v>2.7</v>
+        <v>1.65</v>
       </c>
       <c r="O2">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="P2">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q2">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T2">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="U2">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="V2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W2">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="X2">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="Y2">
         <v>-1</v>
@@ -697,16 +697,16 @@
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB2">
         <v>-1</v>
       </c>
       <c r="AC2">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD2">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6802933</v>
+        <v>6802936</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -726,79 +726,79 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L3">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="M3">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N3">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="O3">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="P3">
         <v>3.3</v>
       </c>
       <c r="Q3">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T3">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="U3">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W3">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6802937</v>
+        <v>6802933</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -818,52 +818,52 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L4">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="M4">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N4">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="O4">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q4">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
+        <v>2.025</v>
+      </c>
+      <c r="T4">
         <v>1.825</v>
       </c>
-      <c r="T4">
-        <v>2.025</v>
-      </c>
       <c r="U4">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V4">
         <v>2</v>
@@ -872,19 +872,19 @@
         <v>1.85</v>
       </c>
       <c r="X4">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="AA4">
+        <v>-1</v>
+      </c>
+      <c r="AB4">
         <v>0.825</v>
-      </c>
-      <c r="AB4">
-        <v>-1</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -1367,7 +1367,7 @@
         <v>45136.41666666666</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
         <v>45</v>
@@ -1554,7 +1554,7 @@
         <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -1738,7 +1738,7 @@
         <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -2195,7 +2195,7 @@
         <v>45143.41666666666</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
@@ -2290,7 +2290,7 @@
         <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -2462,7 +2462,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6802953</v>
+        <v>6802954</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -2471,16 +2471,16 @@
         <v>45144.41666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2489,64 +2489,64 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L22">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="M22">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N22">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="O22">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="P22">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q22">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S22">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U22">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V22">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W22">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC22">
         <v>-1</v>
       </c>
       <c r="AD22">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -2554,7 +2554,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6802954</v>
+        <v>6802950</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -2563,82 +2563,82 @@
         <v>45144.41666666666</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L23">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="M23">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N23">
+        <v>5.75</v>
+      </c>
+      <c r="O23">
+        <v>1.533</v>
+      </c>
+      <c r="P23">
+        <v>4</v>
+      </c>
+      <c r="Q23">
+        <v>5.5</v>
+      </c>
+      <c r="R23">
+        <v>-1</v>
+      </c>
+      <c r="S23">
+        <v>1.925</v>
+      </c>
+      <c r="T23">
+        <v>1.925</v>
+      </c>
+      <c r="U23">
         <v>3</v>
       </c>
-      <c r="O23">
-        <v>1.95</v>
-      </c>
-      <c r="P23">
-        <v>3.6</v>
-      </c>
-      <c r="Q23">
-        <v>3.4</v>
-      </c>
-      <c r="R23">
-        <v>-0.5</v>
-      </c>
-      <c r="S23">
-        <v>2</v>
-      </c>
-      <c r="T23">
-        <v>1.85</v>
-      </c>
-      <c r="U23">
-        <v>2.75</v>
-      </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W23">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AD23">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -2646,7 +2646,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6802950</v>
+        <v>6802953</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -2655,46 +2655,46 @@
         <v>45144.41666666666</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>48</v>
+      </c>
+      <c r="L24">
+        <v>2.625</v>
+      </c>
+      <c r="M24">
+        <v>3.1</v>
+      </c>
+      <c r="N24">
+        <v>2.55</v>
+      </c>
+      <c r="O24">
+        <v>2.625</v>
+      </c>
+      <c r="P24">
         <v>3</v>
       </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>2</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24" t="s">
-        <v>46</v>
-      </c>
-      <c r="L24">
-        <v>1.5</v>
-      </c>
-      <c r="M24">
-        <v>4</v>
-      </c>
-      <c r="N24">
-        <v>5.75</v>
-      </c>
-      <c r="O24">
-        <v>1.533</v>
-      </c>
-      <c r="P24">
-        <v>4</v>
-      </c>
       <c r="Q24">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="R24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S24">
         <v>1.925</v>
@@ -2703,34 +2703,34 @@
         <v>1.925</v>
       </c>
       <c r="U24">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V24">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W24">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X24">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AD24">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -3207,10 +3207,10 @@
         <v>45151.41666666666</v>
       </c>
       <c r="E30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" t="s">
         <v>31</v>
-      </c>
-      <c r="F30" t="s">
-        <v>30</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3302,7 +3302,7 @@
         <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -3566,7 +3566,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6802970</v>
+        <v>6802971</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
@@ -3575,82 +3575,82 @@
         <v>45157.41666666666</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L34">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="M34">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N34">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="O34">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="P34">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q34">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="R34">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T34">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="U34">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V34">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X34">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AB34">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC34">
         <v>-1</v>
       </c>
       <c r="AD34">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -3658,7 +3658,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6802968</v>
+        <v>6802970</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
@@ -3667,25 +3667,25 @@
         <v>45157.41666666666</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L35">
         <v>1.75</v>
@@ -3694,19 +3694,19 @@
         <v>3.6</v>
       </c>
       <c r="N35">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O35">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="P35">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q35">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R35">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S35">
         <v>1.925</v>
@@ -3715,34 +3715,34 @@
         <v>1.925</v>
       </c>
       <c r="U35">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V35">
+        <v>1.9</v>
+      </c>
+      <c r="W35">
         <v>1.95</v>
       </c>
-      <c r="W35">
-        <v>1.9</v>
-      </c>
       <c r="X35">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y35">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB35">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC35">
+        <v>-1</v>
+      </c>
+      <c r="AD35">
         <v>0.95</v>
-      </c>
-      <c r="AD35">
-        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -3750,7 +3750,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6802971</v>
+        <v>6802968</v>
       </c>
       <c r="C36" t="s">
         <v>29</v>
@@ -3759,82 +3759,82 @@
         <v>45157.41666666666</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="s">
         <v>48</v>
       </c>
       <c r="L36">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="M36">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N36">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="O36">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="P36">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q36">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S36">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T36">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U36">
         <v>2.5</v>
       </c>
       <c r="V36">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W36">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD36">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -3851,7 +3851,7 @@
         <v>45157.54166666666</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
         <v>37</v>
@@ -4314,7 +4314,7 @@
         <v>38</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4403,7 +4403,7 @@
         <v>45164.41666666666</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F43" t="s">
         <v>36</v>
@@ -4866,7 +4866,7 @@
         <v>37</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4955,10 +4955,10 @@
         <v>45171.41666666666</v>
       </c>
       <c r="E49" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" t="s">
         <v>32</v>
-      </c>
-      <c r="F49" t="s">
-        <v>31</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -5314,7 +5314,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6802987</v>
+        <v>6802981</v>
       </c>
       <c r="C53" t="s">
         <v>29</v>
@@ -5323,82 +5323,82 @@
         <v>45172.41666666666</v>
       </c>
       <c r="E53" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L53">
-        <v>4.5</v>
+        <v>1.45</v>
       </c>
       <c r="M53">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="N53">
-        <v>1.65</v>
+        <v>5.5</v>
       </c>
       <c r="O53">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="P53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q53">
-        <v>1.533</v>
+        <v>7</v>
       </c>
       <c r="R53">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="S53">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T53">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U53">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V53">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W53">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB53">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
         <v>-1</v>
       </c>
       <c r="AD53">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="54" spans="1:30">
@@ -5406,7 +5406,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6802981</v>
+        <v>6802987</v>
       </c>
       <c r="C54" t="s">
         <v>29</v>
@@ -5415,82 +5415,82 @@
         <v>45172.41666666666</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L54">
-        <v>1.45</v>
+        <v>4.5</v>
       </c>
       <c r="M54">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="N54">
+        <v>1.65</v>
+      </c>
+      <c r="O54">
         <v>5.5</v>
       </c>
-      <c r="O54">
-        <v>1.3</v>
-      </c>
       <c r="P54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q54">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="R54">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="S54">
+        <v>1.9</v>
+      </c>
+      <c r="T54">
+        <v>1.95</v>
+      </c>
+      <c r="U54">
+        <v>2.75</v>
+      </c>
+      <c r="V54">
         <v>1.925</v>
       </c>
-      <c r="T54">
+      <c r="W54">
         <v>1.925</v>
       </c>
-      <c r="U54">
-        <v>3.25</v>
-      </c>
-      <c r="V54">
-        <v>2.025</v>
-      </c>
-      <c r="W54">
-        <v>1.825</v>
-      </c>
       <c r="X54">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="AA54">
+        <v>-1</v>
+      </c>
+      <c r="AB54">
+        <v>0.95</v>
+      </c>
+      <c r="AC54">
+        <v>-1</v>
+      </c>
+      <c r="AD54">
         <v>0.925</v>
-      </c>
-      <c r="AB54">
-        <v>-1</v>
-      </c>
-      <c r="AC54">
-        <v>-1</v>
-      </c>
-      <c r="AD54">
-        <v>0.825</v>
       </c>
     </row>
     <row r="55" spans="1:30">
@@ -5510,7 +5510,7 @@
         <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -5783,10 +5783,10 @@
         <v>45185.41666666666</v>
       </c>
       <c r="E58" t="s">
+        <v>31</v>
+      </c>
+      <c r="F58" t="s">
         <v>30</v>
-      </c>
-      <c r="F58" t="s">
-        <v>32</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -6059,7 +6059,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="E61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F61" t="s">
         <v>33</v>
@@ -6614,7 +6614,7 @@
         <v>35</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G67">
         <v>3</v>
@@ -6706,7 +6706,7 @@
         <v>36</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6878,7 +6878,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6802997</v>
+        <v>6802998</v>
       </c>
       <c r="C70" t="s">
         <v>29</v>
@@ -6887,64 +6887,64 @@
         <v>45193.41666666666</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" t="s">
         <v>46</v>
       </c>
       <c r="L70">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="M70">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="N70">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="O70">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="P70">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q70">
-        <v>2.9</v>
+        <v>13</v>
       </c>
       <c r="R70">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="S70">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T70">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U70">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W70">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X70">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="Y70">
         <v>-1</v>
@@ -6953,16 +6953,16 @@
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD70">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:30">
@@ -6970,7 +6970,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6802998</v>
+        <v>6802997</v>
       </c>
       <c r="C71" t="s">
         <v>29</v>
@@ -6979,65 +6979,65 @@
         <v>45193.41666666666</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G71">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" t="s">
         <v>46</v>
       </c>
       <c r="L71">
+        <v>2.1</v>
+      </c>
+      <c r="M71">
+        <v>3.4</v>
+      </c>
+      <c r="N71">
+        <v>3.4</v>
+      </c>
+      <c r="O71">
+        <v>2.3</v>
+      </c>
+      <c r="P71">
+        <v>3.4</v>
+      </c>
+      <c r="Q71">
+        <v>2.9</v>
+      </c>
+      <c r="R71">
+        <v>-0.25</v>
+      </c>
+      <c r="S71">
+        <v>1.975</v>
+      </c>
+      <c r="T71">
+        <v>1.875</v>
+      </c>
+      <c r="U71">
+        <v>2.5</v>
+      </c>
+      <c r="V71">
+        <v>1.9</v>
+      </c>
+      <c r="W71">
+        <v>1.95</v>
+      </c>
+      <c r="X71">
         <v>1.3</v>
       </c>
-      <c r="M71">
-        <v>5.25</v>
-      </c>
-      <c r="N71">
-        <v>9</v>
-      </c>
-      <c r="O71">
-        <v>1.2</v>
-      </c>
-      <c r="P71">
-        <v>5.75</v>
-      </c>
-      <c r="Q71">
-        <v>13</v>
-      </c>
-      <c r="R71">
-        <v>-2</v>
-      </c>
-      <c r="S71">
-        <v>2.025</v>
-      </c>
-      <c r="T71">
-        <v>1.825</v>
-      </c>
-      <c r="U71">
-        <v>3.25</v>
-      </c>
-      <c r="V71">
-        <v>1.85</v>
-      </c>
-      <c r="W71">
-        <v>2</v>
-      </c>
-      <c r="X71">
-        <v>0.2</v>
-      </c>
       <c r="Y71">
         <v>-1</v>
       </c>
@@ -7045,16 +7045,16 @@
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD71">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="72" spans="1:30">
@@ -7439,7 +7439,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="E76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F76" t="s">
         <v>35</v>
@@ -7623,7 +7623,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F78" t="s">
         <v>33</v>
@@ -7807,7 +7807,7 @@
         <v>45200.54166666666</v>
       </c>
       <c r="E80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F80" t="s">
         <v>44</v>
@@ -7902,7 +7902,7 @@
         <v>36</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G81">
         <v>2</v>
@@ -8086,7 +8086,7 @@
         <v>42</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -8270,7 +8270,7 @@
         <v>40</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -8819,7 +8819,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F91" t="s">
         <v>39</v>
@@ -8911,7 +8911,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="E92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F92" t="s">
         <v>44</v>
@@ -9095,7 +9095,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="E94" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F94" t="s">
         <v>40</v>
@@ -9466,7 +9466,7 @@
         <v>42</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9822,7 +9822,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6803030</v>
+        <v>6803033</v>
       </c>
       <c r="C102" t="s">
         <v>29</v>
@@ -9831,46 +9831,46 @@
         <v>45228.45833333334</v>
       </c>
       <c r="E102" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="M102">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="N102">
-        <v>1.85</v>
+        <v>12</v>
       </c>
       <c r="O102">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="P102">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q102">
-        <v>1.7</v>
+        <v>11</v>
       </c>
       <c r="R102">
-        <v>0.75</v>
+        <v>-2</v>
       </c>
       <c r="S102">
         <v>1.975</v>
@@ -9879,34 +9879,34 @@
         <v>1.875</v>
       </c>
       <c r="U102">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W102">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X102">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AA102">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC102">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD102">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:30">
@@ -9914,7 +9914,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6803033</v>
+        <v>6803030</v>
       </c>
       <c r="C103" t="s">
         <v>29</v>
@@ -9923,46 +9923,46 @@
         <v>45228.45833333334</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L103">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="N103">
-        <v>12</v>
+        <v>1.85</v>
       </c>
       <c r="O103">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="P103">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="Q103">
-        <v>11</v>
+        <v>1.7</v>
       </c>
       <c r="R103">
-        <v>-2</v>
+        <v>0.75</v>
       </c>
       <c r="S103">
         <v>1.975</v>
@@ -9971,34 +9971,34 @@
         <v>1.875</v>
       </c>
       <c r="U103">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V103">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W103">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB103">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD103">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:30">
@@ -10098,7 +10098,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6803042</v>
+        <v>6803045</v>
       </c>
       <c r="C105" t="s">
         <v>29</v>
@@ -10107,13 +10107,13 @@
         <v>45234.45833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -10125,64 +10125,64 @@
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L105">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="M105">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N105">
+        <v>6</v>
+      </c>
+      <c r="O105">
+        <v>1.6</v>
+      </c>
+      <c r="P105">
+        <v>4</v>
+      </c>
+      <c r="Q105">
+        <v>5.25</v>
+      </c>
+      <c r="R105">
+        <v>-0.75</v>
+      </c>
+      <c r="S105">
+        <v>1.8</v>
+      </c>
+      <c r="T105">
+        <v>2.05</v>
+      </c>
+      <c r="U105">
         <v>2.25</v>
       </c>
-      <c r="O105">
-        <v>3.6</v>
-      </c>
-      <c r="P105">
-        <v>3.5</v>
-      </c>
-      <c r="Q105">
-        <v>2.05</v>
-      </c>
-      <c r="R105">
-        <v>0.5</v>
-      </c>
-      <c r="S105">
-        <v>1.825</v>
-      </c>
-      <c r="T105">
-        <v>2.025</v>
-      </c>
-      <c r="U105">
-        <v>2.75</v>
-      </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W105">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X105">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC105">
         <v>-1</v>
       </c>
       <c r="AD105">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:30">
@@ -10190,7 +10190,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6803045</v>
+        <v>6803038</v>
       </c>
       <c r="C106" t="s">
         <v>29</v>
@@ -10199,82 +10199,82 @@
         <v>45234.45833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106" t="s">
         <v>48</v>
       </c>
       <c r="L106">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="M106">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N106">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="O106">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="P106">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q106">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="R106">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S106">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T106">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="U106">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V106">
+        <v>1.975</v>
+      </c>
+      <c r="W106">
         <v>1.875</v>
       </c>
-      <c r="W106">
-        <v>1.975</v>
-      </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB106">
-        <v>1.05</v>
+        <v>0.4875</v>
       </c>
       <c r="AC106">
         <v>-1</v>
       </c>
       <c r="AD106">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="107" spans="1:30">
@@ -10282,7 +10282,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6803038</v>
+        <v>6803042</v>
       </c>
       <c r="C107" t="s">
         <v>29</v>
@@ -10291,82 +10291,82 @@
         <v>45234.45833333334</v>
       </c>
       <c r="E107" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G107">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L107">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="M107">
+        <v>3.5</v>
+      </c>
+      <c r="N107">
+        <v>2.25</v>
+      </c>
+      <c r="O107">
         <v>3.6</v>
-      </c>
-      <c r="N107">
-        <v>2.8</v>
-      </c>
-      <c r="O107">
-        <v>2.15</v>
       </c>
       <c r="P107">
         <v>3.5</v>
       </c>
       <c r="Q107">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="R107">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S107">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T107">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U107">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V107">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W107">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y107">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB107">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
         <v>-1</v>
       </c>
       <c r="AD107">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:30">
@@ -10383,7 +10383,7 @@
         <v>45234.45833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F108" t="s">
         <v>38</v>
@@ -10567,7 +10567,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F110" t="s">
         <v>40</v>
@@ -10938,7 +10938,7 @@
         <v>34</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -11030,7 +11030,7 @@
         <v>42</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -11214,7 +11214,7 @@
         <v>41</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -11570,7 +11570,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6803057</v>
+        <v>6803056</v>
       </c>
       <c r="C121" t="s">
         <v>29</v>
@@ -11582,79 +11582,79 @@
         <v>30</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L121">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="M121">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N121">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O121">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P121">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q121">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="R121">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S121">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T121">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="U121">
         <v>2.25</v>
       </c>
       <c r="V121">
+        <v>2.05</v>
+      </c>
+      <c r="W121">
         <v>1.8</v>
       </c>
-      <c r="W121">
-        <v>2.05</v>
-      </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z121">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB121">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC121">
         <v>-0.5</v>
       </c>
       <c r="AD121">
-        <v>0.5249999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="122" spans="1:30">
@@ -11662,7 +11662,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6803056</v>
+        <v>6803053</v>
       </c>
       <c r="C122" t="s">
         <v>29</v>
@@ -11671,10 +11671,10 @@
         <v>45255.45833333334</v>
       </c>
       <c r="E122" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F122" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -11692,61 +11692,61 @@
         <v>48</v>
       </c>
       <c r="L122">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="M122">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N122">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="O122">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P122">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q122">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="R122">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="S122">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T122">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U122">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V122">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W122">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD122">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="123" spans="1:30">
@@ -11754,7 +11754,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6803053</v>
+        <v>6803057</v>
       </c>
       <c r="C123" t="s">
         <v>29</v>
@@ -11763,82 +11763,82 @@
         <v>45255.45833333334</v>
       </c>
       <c r="E123" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F123" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M123">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N123">
+        <v>2.25</v>
+      </c>
+      <c r="O123">
+        <v>3.4</v>
+      </c>
+      <c r="P123">
+        <v>3.1</v>
+      </c>
+      <c r="Q123">
+        <v>2.15</v>
+      </c>
+      <c r="R123">
+        <v>0.25</v>
+      </c>
+      <c r="S123">
+        <v>1.925</v>
+      </c>
+      <c r="T123">
+        <v>1.925</v>
+      </c>
+      <c r="U123">
+        <v>2.25</v>
+      </c>
+      <c r="V123">
         <v>1.8</v>
       </c>
-      <c r="O123">
-        <v>4.333</v>
-      </c>
-      <c r="P123">
-        <v>3.75</v>
-      </c>
-      <c r="Q123">
-        <v>1.7</v>
-      </c>
-      <c r="R123">
-        <v>0.75</v>
-      </c>
-      <c r="S123">
-        <v>1.9</v>
-      </c>
-      <c r="T123">
-        <v>1.95</v>
-      </c>
-      <c r="U123">
-        <v>2.75</v>
-      </c>
-      <c r="V123">
-        <v>2.025</v>
-      </c>
       <c r="W123">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA123">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD123">
-        <v>0.825</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:30">
@@ -12134,7 +12134,7 @@
         <v>45</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -12407,7 +12407,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F130" t="s">
         <v>37</v>
@@ -12490,7 +12490,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7521554</v>
+        <v>6803065</v>
       </c>
       <c r="C131" t="s">
         <v>29</v>
@@ -12499,79 +12499,79 @@
         <v>45266.54166666666</v>
       </c>
       <c r="E131" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F131" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131">
         <v>1</v>
       </c>
       <c r="K131" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L131">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="M131">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N131">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="P131">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q131">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="R131">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S131">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T131">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="U131">
         <v>2.5</v>
       </c>
       <c r="V131">
+        <v>2.025</v>
+      </c>
+      <c r="W131">
         <v>1.825</v>
       </c>
-      <c r="W131">
-        <v>2.025</v>
-      </c>
       <c r="X131">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB131">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC131">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AD131">
         <v>-1</v>
@@ -12582,7 +12582,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6803065</v>
+        <v>7521554</v>
       </c>
       <c r="C132" t="s">
         <v>29</v>
@@ -12591,79 +12591,79 @@
         <v>45266.54166666666</v>
       </c>
       <c r="E132" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
         <v>3</v>
       </c>
-      <c r="H132">
-        <v>2</v>
-      </c>
       <c r="I132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J132">
         <v>1</v>
       </c>
       <c r="K132" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L132">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="M132">
+        <v>3.25</v>
+      </c>
+      <c r="N132">
+        <v>2.2</v>
+      </c>
+      <c r="O132">
         <v>3.4</v>
       </c>
-      <c r="N132">
-        <v>4.75</v>
-      </c>
-      <c r="O132">
-        <v>1.6</v>
-      </c>
       <c r="P132">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q132">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="R132">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S132">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T132">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="U132">
         <v>2.5</v>
       </c>
       <c r="V132">
+        <v>1.825</v>
+      </c>
+      <c r="W132">
         <v>2.025</v>
       </c>
-      <c r="W132">
-        <v>1.825</v>
-      </c>
       <c r="X132">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA132">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC132">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AD132">
         <v>-1</v>
@@ -13330,7 +13330,7 @@
         <v>34</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -13603,7 +13603,7 @@
         <v>45276.45833333334</v>
       </c>
       <c r="E143" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F143" t="s">
         <v>35</v>
@@ -13698,7 +13698,7 @@
         <v>45</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -14158,7 +14158,7 @@
         <v>37</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -14238,7 +14238,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6803092</v>
+        <v>6803088</v>
       </c>
       <c r="C150" t="s">
         <v>29</v>
@@ -14247,16 +14247,16 @@
         <v>45332.45833333334</v>
       </c>
       <c r="E150" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -14268,40 +14268,40 @@
         <v>47</v>
       </c>
       <c r="L150">
+        <v>6.5</v>
+      </c>
+      <c r="M150">
+        <v>4.75</v>
+      </c>
+      <c r="N150">
         <v>1.4</v>
       </c>
-      <c r="M150">
-        <v>4.5</v>
-      </c>
-      <c r="N150">
-        <v>6</v>
-      </c>
       <c r="O150">
-        <v>1.45</v>
+        <v>7.5</v>
       </c>
       <c r="P150">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q150">
-        <v>7</v>
+        <v>1.363</v>
       </c>
       <c r="R150">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="S150">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T150">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U150">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V150">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W150">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -14310,19 +14310,19 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>6</v>
+        <v>0.363</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AC150">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AD150">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="151" spans="1:30">
@@ -14330,7 +14330,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6803090</v>
+        <v>6803092</v>
       </c>
       <c r="C151" t="s">
         <v>29</v>
@@ -14339,82 +14339,82 @@
         <v>45332.45833333334</v>
       </c>
       <c r="E151" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151">
         <v>0</v>
       </c>
       <c r="J151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K151" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L151">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="M151">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N151">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="O151">
-        <v>2.4</v>
+        <v>1.45</v>
       </c>
       <c r="P151">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q151">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="R151">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S151">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T151">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U151">
         <v>2.5</v>
       </c>
       <c r="V151">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W151">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X151">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA151">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD151">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:30">
@@ -14422,7 +14422,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6803088</v>
+        <v>6803090</v>
       </c>
       <c r="C152" t="s">
         <v>29</v>
@@ -14431,82 +14431,82 @@
         <v>45332.45833333334</v>
       </c>
       <c r="E152" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H152">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152">
         <v>0</v>
       </c>
       <c r="J152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K152" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L152">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="M152">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N152">
+        <v>2.9</v>
+      </c>
+      <c r="O152">
+        <v>2.4</v>
+      </c>
+      <c r="P152">
+        <v>3.3</v>
+      </c>
+      <c r="Q152">
+        <v>2.9</v>
+      </c>
+      <c r="R152">
+        <v>-0.25</v>
+      </c>
+      <c r="S152">
+        <v>2.1</v>
+      </c>
+      <c r="T152">
+        <v>1.775</v>
+      </c>
+      <c r="U152">
+        <v>2.5</v>
+      </c>
+      <c r="V152">
+        <v>1.975</v>
+      </c>
+      <c r="W152">
+        <v>1.875</v>
+      </c>
+      <c r="X152">
         <v>1.4</v>
       </c>
-      <c r="O152">
-        <v>7.5</v>
-      </c>
-      <c r="P152">
-        <v>5</v>
-      </c>
-      <c r="Q152">
-        <v>1.363</v>
-      </c>
-      <c r="R152">
-        <v>1.5</v>
-      </c>
-      <c r="S152">
-        <v>1.825</v>
-      </c>
-      <c r="T152">
-        <v>2.025</v>
-      </c>
-      <c r="U152">
-        <v>3.25</v>
-      </c>
-      <c r="V152">
-        <v>2.025</v>
-      </c>
-      <c r="W152">
-        <v>1.825</v>
-      </c>
-      <c r="X152">
-        <v>-1</v>
-      </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB152">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD152">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="153" spans="1:30">
@@ -14799,7 +14799,7 @@
         <v>45333.45833333334</v>
       </c>
       <c r="E156" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F156" t="s">
         <v>38</v>
@@ -15075,10 +15075,10 @@
         <v>45336.54166666666</v>
       </c>
       <c r="E159" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -15250,7 +15250,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6803100</v>
+        <v>6803094</v>
       </c>
       <c r="C161" t="s">
         <v>29</v>
@@ -15259,19 +15259,19 @@
         <v>45339.45833333334</v>
       </c>
       <c r="E161" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161">
         <v>0</v>
@@ -15280,61 +15280,61 @@
         <v>48</v>
       </c>
       <c r="L161">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="M161">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N161">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="O161">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="P161">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q161">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="R161">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S161">
+        <v>2</v>
+      </c>
+      <c r="T161">
+        <v>1.85</v>
+      </c>
+      <c r="U161">
+        <v>2.5</v>
+      </c>
+      <c r="V161">
+        <v>1.975</v>
+      </c>
+      <c r="W161">
         <v>1.875</v>
       </c>
-      <c r="T161">
-        <v>1.975</v>
-      </c>
-      <c r="U161">
-        <v>2.25</v>
-      </c>
-      <c r="V161">
-        <v>1.825</v>
-      </c>
-      <c r="W161">
-        <v>2.025</v>
-      </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC161">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD161">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="162" spans="1:30">
@@ -15434,7 +15434,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6803094</v>
+        <v>6803100</v>
       </c>
       <c r="C163" t="s">
         <v>29</v>
@@ -15443,19 +15443,19 @@
         <v>45339.45833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F163" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163">
         <v>0</v>
@@ -15464,61 +15464,61 @@
         <v>48</v>
       </c>
       <c r="L163">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="M163">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N163">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="O163">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="P163">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q163">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="R163">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S163">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T163">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U163">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V163">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W163">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Z163">
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB163">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD163">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="164" spans="1:30">
@@ -15719,7 +15719,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="E166" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F166" t="s">
         <v>33</v>
@@ -15995,7 +15995,7 @@
         <v>45343.5625</v>
       </c>
       <c r="E169" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F169" t="s">
         <v>39</v>
@@ -16170,7 +16170,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6803105</v>
+        <v>6803104</v>
       </c>
       <c r="C171" t="s">
         <v>29</v>
@@ -16179,67 +16179,67 @@
         <v>45346.45833333334</v>
       </c>
       <c r="E171" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F171" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K171" t="s">
         <v>48</v>
       </c>
       <c r="L171">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="M171">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N171">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O171">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P171">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q171">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="R171">
         <v>-0.75</v>
       </c>
       <c r="S171">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T171">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="U171">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V171">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W171">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Z171">
         <v>-1</v>
@@ -16248,13 +16248,13 @@
         <v>-1</v>
       </c>
       <c r="AB171">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC171">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD171">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="172" spans="1:30">
@@ -16262,7 +16262,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6803104</v>
+        <v>6803105</v>
       </c>
       <c r="C172" t="s">
         <v>29</v>
@@ -16271,67 +16271,67 @@
         <v>45346.45833333334</v>
       </c>
       <c r="E172" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F172" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K172" t="s">
         <v>48</v>
       </c>
       <c r="L172">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="M172">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N172">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O172">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="P172">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q172">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="R172">
         <v>-0.75</v>
       </c>
       <c r="S172">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T172">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="U172">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V172">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W172">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Z172">
         <v>-1</v>
@@ -16340,13 +16340,13 @@
         <v>-1</v>
       </c>
       <c r="AB172">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD172">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:30">
@@ -16538,7 +16538,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6803107</v>
+        <v>6803103</v>
       </c>
       <c r="C175" t="s">
         <v>29</v>
@@ -16547,16 +16547,16 @@
         <v>45347.45833333334</v>
       </c>
       <c r="E175" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F175" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -16568,43 +16568,43 @@
         <v>46</v>
       </c>
       <c r="L175">
-        <v>1.111</v>
+        <v>3.4</v>
       </c>
       <c r="M175">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="N175">
-        <v>17</v>
+        <v>2.05</v>
       </c>
       <c r="O175">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="P175">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="Q175">
-        <v>17</v>
+        <v>2.9</v>
       </c>
       <c r="R175">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S175">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T175">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U175">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V175">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W175">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="X175">
-        <v>0.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="Y175">
         <v>-1</v>
@@ -16613,16 +16613,16 @@
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AB175">
         <v>-1</v>
       </c>
       <c r="AC175">
+        <v>0.5</v>
+      </c>
+      <c r="AD175">
         <v>-0.5</v>
-      </c>
-      <c r="AD175">
-        <v>0.5</v>
       </c>
     </row>
     <row r="176" spans="1:30">
@@ -16630,7 +16630,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6803103</v>
+        <v>6803107</v>
       </c>
       <c r="C176" t="s">
         <v>29</v>
@@ -16639,16 +16639,16 @@
         <v>45347.45833333334</v>
       </c>
       <c r="E176" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -16660,43 +16660,43 @@
         <v>46</v>
       </c>
       <c r="L176">
-        <v>3.4</v>
+        <v>1.111</v>
       </c>
       <c r="M176">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="N176">
-        <v>2.05</v>
+        <v>17</v>
       </c>
       <c r="O176">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="P176">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="Q176">
-        <v>2.9</v>
+        <v>17</v>
       </c>
       <c r="R176">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="S176">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T176">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U176">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V176">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W176">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X176">
-        <v>1.3</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="Y176">
         <v>-1</v>
@@ -16705,16 +16705,16 @@
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
+        <v>-0.5</v>
+      </c>
+      <c r="AD176">
         <v>0.5</v>
-      </c>
-      <c r="AD176">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="177" spans="1:30">
@@ -16998,7 +16998,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6803120</v>
+        <v>6803117</v>
       </c>
       <c r="C180" t="s">
         <v>29</v>
@@ -17007,79 +17007,79 @@
         <v>45353.45833333334</v>
       </c>
       <c r="E180" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K180" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L180">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="M180">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N180">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="O180">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="P180">
         <v>3.4</v>
       </c>
       <c r="Q180">
+        <v>3.75</v>
+      </c>
+      <c r="R180">
+        <v>-0.5</v>
+      </c>
+      <c r="S180">
         <v>2.05</v>
       </c>
-      <c r="R180">
-        <v>0.5</v>
-      </c>
-      <c r="S180">
-        <v>1.85</v>
-      </c>
       <c r="T180">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U180">
         <v>2.5</v>
       </c>
       <c r="V180">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W180">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z180">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC180">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AD180">
         <v>-1</v>
@@ -17090,7 +17090,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6803117</v>
+        <v>6803120</v>
       </c>
       <c r="C181" t="s">
         <v>29</v>
@@ -17099,79 +17099,79 @@
         <v>45353.45833333334</v>
       </c>
       <c r="E181" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F181" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K181" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L181">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="M181">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N181">
+        <v>1.909</v>
+      </c>
+      <c r="O181">
         <v>3.6</v>
-      </c>
-      <c r="O181">
-        <v>2</v>
       </c>
       <c r="P181">
         <v>3.4</v>
       </c>
       <c r="Q181">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="R181">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S181">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T181">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U181">
         <v>2.5</v>
       </c>
       <c r="V181">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W181">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC181">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AD181">
         <v>-1</v>
@@ -17191,7 +17191,7 @@
         <v>45353.58333333334</v>
       </c>
       <c r="E182" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F182" t="s">
         <v>43</v>
@@ -17283,7 +17283,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E183" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F183" t="s">
         <v>35</v>
@@ -17654,7 +17654,7 @@
         <v>35</v>
       </c>
       <c r="F187" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -17746,7 +17746,7 @@
         <v>44</v>
       </c>
       <c r="F188" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -18022,7 +18022,7 @@
         <v>33</v>
       </c>
       <c r="F191" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G191">
         <v>4</v>
@@ -18387,7 +18387,7 @@
         <v>45367.45833333334</v>
       </c>
       <c r="E195" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F195" t="s">
         <v>42</v>
@@ -18571,7 +18571,7 @@
         <v>45367.58333333334</v>
       </c>
       <c r="E197" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F197" t="s">
         <v>36</v>
@@ -18755,7 +18755,7 @@
         <v>45368.45833333334</v>
       </c>
       <c r="E199" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F199" t="s">
         <v>40</v>
@@ -19034,7 +19034,7 @@
         <v>39</v>
       </c>
       <c r="F202" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -19402,7 +19402,7 @@
         <v>44</v>
       </c>
       <c r="F206" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -19494,7 +19494,7 @@
         <v>40</v>
       </c>
       <c r="F207" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G207">
         <v>4</v>
@@ -19859,7 +19859,7 @@
         <v>45388.41666666666</v>
       </c>
       <c r="E211" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F211" t="s">
         <v>43</v>
@@ -20135,7 +20135,7 @@
         <v>45389.41666666666</v>
       </c>
       <c r="E214" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F214" t="s">
         <v>42</v>
@@ -20319,7 +20319,7 @@
         <v>45389.41666666666</v>
       </c>
       <c r="E216" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F216" t="s">
         <v>44</v>
@@ -20506,7 +20506,7 @@
         <v>34</v>
       </c>
       <c r="F218" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -20874,7 +20874,7 @@
         <v>40</v>
       </c>
       <c r="F222" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G222">
         <v>2</v>
@@ -20966,7 +20966,7 @@
         <v>38</v>
       </c>
       <c r="F223" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -21423,7 +21423,7 @@
         <v>45402.41666666666</v>
       </c>
       <c r="E228" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F228" t="s">
         <v>41</v>
@@ -21515,7 +21515,7 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E229" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F229" t="s">
         <v>42</v>
@@ -21699,7 +21699,7 @@
         <v>45403.41666666666</v>
       </c>
       <c r="E231" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F231" t="s">
         <v>34</v>
@@ -22162,7 +22162,7 @@
         <v>38</v>
       </c>
       <c r="F236" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -22346,7 +22346,7 @@
         <v>41</v>
       </c>
       <c r="F238" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G238">
         <v>2</v>
@@ -22622,7 +22622,7 @@
         <v>43</v>
       </c>
       <c r="F241" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G241">
         <v>3</v>
@@ -22803,7 +22803,7 @@
         <v>45416.41666666666</v>
       </c>
       <c r="E243" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F243" t="s">
         <v>38</v>
@@ -22898,7 +22898,7 @@
         <v>45</v>
       </c>
       <c r="F244" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G244">
         <v>3</v>
@@ -23171,7 +23171,7 @@
         <v>45417.41666666666</v>
       </c>
       <c r="E247" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F247" t="s">
         <v>35</v>
@@ -23714,7 +23714,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>8157945</v>
+        <v>8157944</v>
       </c>
       <c r="C253" t="s">
         <v>29</v>
@@ -23723,61 +23723,61 @@
         <v>45424.41666666666</v>
       </c>
       <c r="E253" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F253" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G253">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I253">
         <v>0</v>
       </c>
       <c r="J253">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K253" t="s">
         <v>47</v>
       </c>
       <c r="L253">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="M253">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N253">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="O253">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="P253">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q253">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="R253">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S253">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T253">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U253">
         <v>2.5</v>
       </c>
       <c r="V253">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W253">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X253">
         <v>-1</v>
@@ -23786,16 +23786,16 @@
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>1.55</v>
+        <v>3.2</v>
       </c>
       <c r="AA253">
         <v>-1</v>
       </c>
       <c r="AB253">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC253">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AD253">
         <v>-1</v>
@@ -23806,7 +23806,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>8157949</v>
+        <v>8157945</v>
       </c>
       <c r="C254" t="s">
         <v>29</v>
@@ -23815,79 +23815,79 @@
         <v>45424.41666666666</v>
       </c>
       <c r="E254" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F254" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="H254">
         <v>3</v>
       </c>
-      <c r="H254">
-        <v>2</v>
-      </c>
       <c r="I254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K254" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L254">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="M254">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N254">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O254">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="P254">
         <v>3.4</v>
       </c>
       <c r="Q254">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="R254">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S254">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T254">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U254">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V254">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W254">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X254">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y254">
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="AA254">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB254">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC254">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AD254">
         <v>-1</v>
@@ -23898,7 +23898,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>8157950</v>
+        <v>8157949</v>
       </c>
       <c r="C255" t="s">
         <v>29</v>
@@ -23907,82 +23907,82 @@
         <v>45424.41666666666</v>
       </c>
       <c r="E255" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F255" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G255">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J255">
         <v>1</v>
       </c>
       <c r="K255" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L255">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="M255">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N255">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O255">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="P255">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q255">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="R255">
         <v>-0.25</v>
       </c>
       <c r="S255">
+        <v>1.875</v>
+      </c>
+      <c r="T255">
+        <v>1.975</v>
+      </c>
+      <c r="U255">
+        <v>2.75</v>
+      </c>
+      <c r="V255">
         <v>1.925</v>
       </c>
-      <c r="T255">
+      <c r="W255">
         <v>1.925</v>
       </c>
-      <c r="U255">
-        <v>2.5</v>
-      </c>
-      <c r="V255">
-        <v>2</v>
-      </c>
-      <c r="W255">
-        <v>1.85</v>
-      </c>
       <c r="X255">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y255">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z255">
         <v>-1</v>
       </c>
       <c r="AA255">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB255">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC255">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD255">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:30">
@@ -23990,7 +23990,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>8157944</v>
+        <v>8157950</v>
       </c>
       <c r="C256" t="s">
         <v>29</v>
@@ -23999,82 +23999,82 @@
         <v>45424.41666666666</v>
       </c>
       <c r="E256" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F256" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G256">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256">
         <v>0</v>
       </c>
       <c r="J256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K256" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L256">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="M256">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N256">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O256">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="P256">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q256">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="R256">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S256">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T256">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U256">
         <v>2.5</v>
       </c>
       <c r="V256">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W256">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X256">
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z256">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="AA256">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB256">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AC256">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD256">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="257" spans="1:30">
@@ -24091,7 +24091,7 @@
         <v>45424.54166666666</v>
       </c>
       <c r="E257" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F257" t="s">
         <v>38</v>
@@ -24542,7 +24542,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>8157952</v>
+        <v>8157953</v>
       </c>
       <c r="C262" t="s">
         <v>29</v>
@@ -24551,79 +24551,79 @@
         <v>45428.5</v>
       </c>
       <c r="E262" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F262" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G262">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H262">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J262">
         <v>0</v>
       </c>
       <c r="K262" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L262">
         <v>1.833</v>
       </c>
       <c r="M262">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N262">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="O262">
+        <v>1.727</v>
+      </c>
+      <c r="P262">
+        <v>3.8</v>
+      </c>
+      <c r="Q262">
+        <v>4.75</v>
+      </c>
+      <c r="R262">
+        <v>-0.75</v>
+      </c>
+      <c r="S262">
         <v>1.95</v>
       </c>
-      <c r="P262">
-        <v>3.5</v>
-      </c>
-      <c r="Q262">
-        <v>3.9</v>
-      </c>
-      <c r="R262">
-        <v>-0.5</v>
-      </c>
-      <c r="S262">
+      <c r="T262">
         <v>1.9</v>
-      </c>
-      <c r="T262">
-        <v>1.95</v>
       </c>
       <c r="U262">
         <v>2.5</v>
       </c>
       <c r="V262">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W262">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X262">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y262">
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>2.9</v>
+        <v>-1</v>
       </c>
       <c r="AA262">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB262">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC262">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AD262">
         <v>-1</v>
@@ -24634,7 +24634,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>8157953</v>
+        <v>8157952</v>
       </c>
       <c r="C263" t="s">
         <v>29</v>
@@ -24643,79 +24643,79 @@
         <v>45428.5</v>
       </c>
       <c r="E263" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F263" t="s">
         <v>31</v>
       </c>
       <c r="G263">
+        <v>1</v>
+      </c>
+      <c r="H263">
         <v>3</v>
       </c>
-      <c r="H263">
-        <v>0</v>
-      </c>
       <c r="I263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J263">
         <v>0</v>
       </c>
       <c r="K263" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L263">
         <v>1.833</v>
       </c>
       <c r="M263">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N263">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="O263">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="P263">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q263">
-        <v>4.75</v>
+        <v>3.9</v>
       </c>
       <c r="R263">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S263">
+        <v>1.9</v>
+      </c>
+      <c r="T263">
         <v>1.95</v>
-      </c>
-      <c r="T263">
-        <v>1.9</v>
       </c>
       <c r="U263">
         <v>2.5</v>
       </c>
       <c r="V263">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W263">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X263">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y263">
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>-1</v>
+        <v>2.9</v>
       </c>
       <c r="AA263">
+        <v>-1</v>
+      </c>
+      <c r="AB263">
         <v>0.95</v>
       </c>
-      <c r="AB263">
-        <v>-1</v>
-      </c>
       <c r="AC263">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD263">
         <v>-1</v>
@@ -25011,7 +25011,7 @@
         <v>45431.41666666666</v>
       </c>
       <c r="E267" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F267" t="s">
         <v>44</v>
@@ -25287,10 +25287,10 @@
         <v>45431.5</v>
       </c>
       <c r="E270" t="s">
+        <v>32</v>
+      </c>
+      <c r="F270" t="s">
         <v>31</v>
-      </c>
-      <c r="F270" t="s">
-        <v>30</v>
       </c>
       <c r="G270">
         <v>4</v>
@@ -25382,7 +25382,7 @@
         <v>44</v>
       </c>
       <c r="F271" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G271">
         <v>2</v>
@@ -25563,7 +25563,7 @@
         <v>45437.54166666666</v>
       </c>
       <c r="E273" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F273" t="s">
         <v>42</v>
@@ -25658,7 +25658,7 @@
         <v>41</v>
       </c>
       <c r="F274" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -25824,7 +25824,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>8157174</v>
+        <v>8157175</v>
       </c>
       <c r="C276" t="s">
         <v>29</v>
@@ -25833,76 +25833,76 @@
         <v>45438.45833333334</v>
       </c>
       <c r="E276" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F276" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G276">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K276" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L276">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="M276">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="N276">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="O276">
-        <v>1.45</v>
+        <v>1.222</v>
       </c>
       <c r="P276">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="Q276">
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="R276">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="S276">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T276">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U276">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="V276">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W276">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="X276">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Y276">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z276">
         <v>-1</v>
       </c>
       <c r="AA276">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB276">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC276">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AD276">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="277" spans="1:30">
@@ -25910,7 +25910,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>8157175</v>
+        <v>8157174</v>
       </c>
       <c r="C277" t="s">
         <v>29</v>
@@ -25919,76 +25919,76 @@
         <v>45438.45833333334</v>
       </c>
       <c r="E277" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F277" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G277">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K277" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L277">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="M277">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="N277">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="O277">
-        <v>1.222</v>
+        <v>1.45</v>
       </c>
       <c r="P277">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Q277">
-        <v>11</v>
+        <v>5.75</v>
       </c>
       <c r="R277">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="S277">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T277">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U277">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="V277">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W277">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="X277">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Y277">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z277">
         <v>-1</v>
       </c>
       <c r="AA277">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB277">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC277">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AD277">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
   </sheetData>

--- a/Czech Republic First League/Czech Republic First League.xlsx
+++ b/Czech Republic First League/Czech Republic First League.xlsx
@@ -2094,7 +2094,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6802951</v>
+        <v>6802956</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -2103,82 +2103,82 @@
         <v>45143.41666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L18">
-        <v>1.166</v>
+        <v>1.909</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N18">
-        <v>15</v>
+        <v>3.75</v>
       </c>
       <c r="O18">
-        <v>1.111</v>
+        <v>1.75</v>
       </c>
       <c r="P18">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>4.5</v>
       </c>
       <c r="R18">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S18">
+        <v>1.8</v>
+      </c>
+      <c r="T18">
+        <v>2.05</v>
+      </c>
+      <c r="U18">
+        <v>2.25</v>
+      </c>
+      <c r="V18">
         <v>1.85</v>
       </c>
-      <c r="T18">
-        <v>2</v>
-      </c>
-      <c r="U18">
+      <c r="W18">
+        <v>2</v>
+      </c>
+      <c r="X18">
+        <v>-1</v>
+      </c>
+      <c r="Y18">
+        <v>-1</v>
+      </c>
+      <c r="Z18">
         <v>3.5</v>
       </c>
-      <c r="V18">
-        <v>1.825</v>
-      </c>
-      <c r="W18">
-        <v>2.025</v>
-      </c>
-      <c r="X18">
-        <v>0.111</v>
-      </c>
-      <c r="Y18">
-        <v>-1</v>
-      </c>
-      <c r="Z18">
-        <v>-1</v>
-      </c>
       <c r="AA18">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC18">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AD18">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -2186,7 +2186,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6802952</v>
+        <v>6802951</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -2195,82 +2195,82 @@
         <v>45143.41666666666</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L19">
-        <v>2.8</v>
+        <v>1.166</v>
       </c>
       <c r="M19">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N19">
-        <v>2.25</v>
+        <v>15</v>
       </c>
       <c r="O19">
-        <v>3.6</v>
+        <v>1.111</v>
       </c>
       <c r="P19">
+        <v>7.5</v>
+      </c>
+      <c r="Q19">
+        <v>17</v>
+      </c>
+      <c r="R19">
+        <v>-2.25</v>
+      </c>
+      <c r="S19">
+        <v>1.85</v>
+      </c>
+      <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="U19">
         <v>3.5</v>
       </c>
-      <c r="Q19">
-        <v>1.909</v>
-      </c>
-      <c r="R19">
-        <v>0.5</v>
-      </c>
-      <c r="S19">
-        <v>1.875</v>
-      </c>
-      <c r="T19">
-        <v>1.975</v>
-      </c>
-      <c r="U19">
-        <v>2.75</v>
-      </c>
       <c r="V19">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W19">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AD19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -2278,7 +2278,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6802956</v>
+        <v>6802952</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -2287,13 +2287,13 @@
         <v>45143.41666666666</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2302,67 +2302,67 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" t="s">
         <v>47</v>
       </c>
       <c r="L20">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="M20">
         <v>3.4</v>
       </c>
       <c r="N20">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="O20">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="P20">
         <v>3.5</v>
       </c>
       <c r="Q20">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="R20">
+        <v>0.5</v>
+      </c>
+      <c r="S20">
+        <v>1.875</v>
+      </c>
+      <c r="T20">
+        <v>1.975</v>
+      </c>
+      <c r="U20">
+        <v>2.75</v>
+      </c>
+      <c r="V20">
+        <v>1.9</v>
+      </c>
+      <c r="W20">
+        <v>1.95</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20">
+        <v>0.909</v>
+      </c>
+      <c r="AA20">
+        <v>-1</v>
+      </c>
+      <c r="AB20">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC20">
+        <v>0.45</v>
+      </c>
+      <c r="AD20">
         <v>-0.5</v>
-      </c>
-      <c r="S20">
-        <v>1.8</v>
-      </c>
-      <c r="T20">
-        <v>2.05</v>
-      </c>
-      <c r="U20">
-        <v>2.25</v>
-      </c>
-      <c r="V20">
-        <v>1.85</v>
-      </c>
-      <c r="W20">
-        <v>2</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>-1</v>
-      </c>
-      <c r="Z20">
-        <v>3.5</v>
-      </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
-      <c r="AB20">
-        <v>1.05</v>
-      </c>
-      <c r="AC20">
-        <v>-0.5</v>
-      </c>
-      <c r="AD20">
-        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -3658,7 +3658,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6802971</v>
+        <v>6802970</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
@@ -3667,82 +3667,82 @@
         <v>45157.41666666666</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L35">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="M35">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N35">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="O35">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="P35">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q35">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S35">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T35">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U35">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V35">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W35">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y35">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC35">
         <v>-1</v>
       </c>
       <c r="AD35">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -3750,7 +3750,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6802970</v>
+        <v>6802971</v>
       </c>
       <c r="C36" t="s">
         <v>29</v>
@@ -3759,82 +3759,82 @@
         <v>45157.41666666666</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L36">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="M36">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N36">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="O36">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="P36">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q36">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="R36">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S36">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T36">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="U36">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W36">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X36">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AB36">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC36">
         <v>-1</v>
       </c>
       <c r="AD36">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -4578,7 +4578,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6802978</v>
+        <v>6802973</v>
       </c>
       <c r="C45" t="s">
         <v>29</v>
@@ -4587,19 +4587,19 @@
         <v>45165.41666666666</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -4608,43 +4608,43 @@
         <v>46</v>
       </c>
       <c r="L45">
+        <v>1.75</v>
+      </c>
+      <c r="M45">
+        <v>3.6</v>
+      </c>
+      <c r="N45">
+        <v>4</v>
+      </c>
+      <c r="O45">
         <v>1.85</v>
-      </c>
-      <c r="M45">
-        <v>3.4</v>
-      </c>
-      <c r="N45">
-        <v>3.8</v>
-      </c>
-      <c r="O45">
-        <v>1.75</v>
       </c>
       <c r="P45">
         <v>3.5</v>
       </c>
       <c r="Q45">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="R45">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S45">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T45">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U45">
         <v>2.75</v>
       </c>
       <c r="V45">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X45">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y45">
         <v>-1</v>
@@ -4653,16 +4653,16 @@
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AD45">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="46" spans="1:30">
@@ -4762,7 +4762,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6802973</v>
+        <v>6802978</v>
       </c>
       <c r="C47" t="s">
         <v>29</v>
@@ -4771,19 +4771,19 @@
         <v>45165.41666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G47">
         <v>2</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -4792,43 +4792,43 @@
         <v>46</v>
       </c>
       <c r="L47">
+        <v>1.85</v>
+      </c>
+      <c r="M47">
+        <v>3.4</v>
+      </c>
+      <c r="N47">
+        <v>3.8</v>
+      </c>
+      <c r="O47">
         <v>1.75</v>
-      </c>
-      <c r="M47">
-        <v>3.6</v>
-      </c>
-      <c r="N47">
-        <v>4</v>
-      </c>
-      <c r="O47">
-        <v>1.85</v>
       </c>
       <c r="P47">
         <v>3.5</v>
       </c>
       <c r="Q47">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="R47">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S47">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T47">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U47">
         <v>2.75</v>
       </c>
       <c r="V47">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W47">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X47">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="Y47">
         <v>-1</v>
@@ -4837,16 +4837,16 @@
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD47">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="48" spans="1:30">
@@ -10926,7 +10926,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6803051</v>
+        <v>6803047</v>
       </c>
       <c r="C114" t="s">
         <v>29</v>
@@ -10935,82 +10935,82 @@
         <v>45241.45833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L114">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="M114">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N114">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="O114">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="P114">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q114">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="R114">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S114">
+        <v>1.9</v>
+      </c>
+      <c r="T114">
         <v>1.95</v>
       </c>
-      <c r="T114">
-        <v>1.9</v>
-      </c>
       <c r="U114">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V114">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W114">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X114">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="AA114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC114">
         <v>-1</v>
       </c>
       <c r="AD114">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="115" spans="1:30">
@@ -11018,7 +11018,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6803047</v>
+        <v>6803052</v>
       </c>
       <c r="C115" t="s">
         <v>29</v>
@@ -11027,82 +11027,82 @@
         <v>45241.45833333334</v>
       </c>
       <c r="E115" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L115">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="M115">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N115">
+        <v>2.55</v>
+      </c>
+      <c r="O115">
         <v>3.6</v>
       </c>
-      <c r="O115">
-        <v>2.15</v>
-      </c>
       <c r="P115">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q115">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="R115">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T115">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U115">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V115">
+        <v>1.825</v>
+      </c>
+      <c r="W115">
         <v>2.025</v>
       </c>
-      <c r="W115">
-        <v>1.825</v>
-      </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z115">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB115">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD115">
-        <v>0.825</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="116" spans="1:30">
@@ -11110,7 +11110,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6803052</v>
+        <v>6803051</v>
       </c>
       <c r="C116" t="s">
         <v>29</v>
@@ -11119,82 +11119,82 @@
         <v>45241.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F116" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G116">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116">
         <v>0</v>
       </c>
       <c r="K116" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L116">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="M116">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N116">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="O116">
-        <v>3.6</v>
+        <v>1.444</v>
       </c>
       <c r="P116">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q116">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="R116">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S116">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T116">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U116">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W116">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Y116">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AB116">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AC116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD116">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="117" spans="1:30">
@@ -12030,7 +12030,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6803055</v>
+        <v>6803060</v>
       </c>
       <c r="C126" t="s">
         <v>29</v>
@@ -12039,64 +12039,64 @@
         <v>45256.45833333334</v>
       </c>
       <c r="E126" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G126">
         <v>2</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126" t="s">
         <v>46</v>
       </c>
       <c r="L126">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="M126">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N126">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O126">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="P126">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q126">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="R126">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S126">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T126">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U126">
         <v>2.25</v>
       </c>
       <c r="V126">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W126">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X126">
-        <v>1.2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y126">
         <v>-1</v>
@@ -12105,16 +12105,16 @@
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC126">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD126">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:30">
@@ -12122,7 +12122,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6803060</v>
+        <v>6803055</v>
       </c>
       <c r="C127" t="s">
         <v>29</v>
@@ -12131,64 +12131,64 @@
         <v>45256.45833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G127">
         <v>2</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>1</v>
       </c>
       <c r="J127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127" t="s">
         <v>46</v>
       </c>
       <c r="L127">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="M127">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N127">
+        <v>3.1</v>
+      </c>
+      <c r="O127">
+        <v>2.2</v>
+      </c>
+      <c r="P127">
+        <v>3</v>
+      </c>
+      <c r="Q127">
         <v>3.5</v>
       </c>
-      <c r="O127">
-        <v>1.727</v>
-      </c>
-      <c r="P127">
-        <v>3.25</v>
-      </c>
-      <c r="Q127">
-        <v>5</v>
-      </c>
       <c r="R127">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S127">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T127">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U127">
         <v>2.25</v>
       </c>
       <c r="V127">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W127">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X127">
-        <v>0.7270000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="Y127">
         <v>-1</v>
@@ -12197,16 +12197,16 @@
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB127">
+        <v>-1</v>
+      </c>
+      <c r="AC127">
         <v>-0.5</v>
       </c>
-      <c r="AC127">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AD127">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="128" spans="1:30">
@@ -15250,7 +15250,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6803094</v>
+        <v>6803098</v>
       </c>
       <c r="C161" t="s">
         <v>29</v>
@@ -15259,82 +15259,82 @@
         <v>45339.45833333334</v>
       </c>
       <c r="E161" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F161" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G161">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K161" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L161">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="M161">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N161">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="O161">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="P161">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q161">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="R161">
         <v>-0.75</v>
       </c>
       <c r="S161">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T161">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U161">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V161">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W161">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y161">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB161">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD161">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:30">
@@ -15342,7 +15342,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6803098</v>
+        <v>6803100</v>
       </c>
       <c r="C162" t="s">
         <v>29</v>
@@ -15351,82 +15351,82 @@
         <v>45339.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F162" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G162">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162">
         <v>1</v>
       </c>
       <c r="J162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K162" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L162">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="M162">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N162">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="O162">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="P162">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q162">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="R162">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S162">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T162">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U162">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V162">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W162">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="X162">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC162">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AD162">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="163" spans="1:30">
@@ -15434,7 +15434,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6803100</v>
+        <v>6803094</v>
       </c>
       <c r="C163" t="s">
         <v>29</v>
@@ -15443,19 +15443,19 @@
         <v>45339.45833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F163" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163">
         <v>0</v>
@@ -15464,61 +15464,61 @@
         <v>48</v>
       </c>
       <c r="L163">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="M163">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N163">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="O163">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="P163">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q163">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="R163">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S163">
+        <v>2</v>
+      </c>
+      <c r="T163">
+        <v>1.85</v>
+      </c>
+      <c r="U163">
+        <v>2.5</v>
+      </c>
+      <c r="V163">
+        <v>1.975</v>
+      </c>
+      <c r="W163">
         <v>1.875</v>
       </c>
-      <c r="T163">
-        <v>1.975</v>
-      </c>
-      <c r="U163">
-        <v>2.25</v>
-      </c>
-      <c r="V163">
-        <v>1.825</v>
-      </c>
-      <c r="W163">
-        <v>2.025</v>
-      </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="Z163">
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD163">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="164" spans="1:30">
@@ -25738,7 +25738,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>8157175</v>
+        <v>8157174</v>
       </c>
       <c r="C275" t="s">
         <v>29</v>
@@ -25747,76 +25747,76 @@
         <v>45438.45833333334</v>
       </c>
       <c r="E275" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F275" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G275">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K275" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L275">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="M275">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="N275">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="O275">
-        <v>1.222</v>
+        <v>1.45</v>
       </c>
       <c r="P275">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Q275">
-        <v>11</v>
+        <v>5.75</v>
       </c>
       <c r="R275">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="S275">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T275">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U275">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="V275">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W275">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="X275">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Y275">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z275">
         <v>-1</v>
       </c>
       <c r="AA275">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB275">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC275">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AD275">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="276" spans="1:30">
@@ -25824,7 +25824,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>8157941</v>
+        <v>8157175</v>
       </c>
       <c r="C276" t="s">
         <v>29</v>
@@ -25833,13 +25833,13 @@
         <v>45438.45833333334</v>
       </c>
       <c r="E276" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F276" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G276">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H276">
         <v>0</v>
@@ -25848,25 +25848,25 @@
         <v>46</v>
       </c>
       <c r="L276">
-        <v>1.666</v>
+        <v>1.166</v>
       </c>
       <c r="M276">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N276">
-        <v>4.2</v>
+        <v>13</v>
       </c>
       <c r="O276">
-        <v>1.7</v>
+        <v>1.222</v>
       </c>
       <c r="P276">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="Q276">
-        <v>3.9</v>
+        <v>11</v>
       </c>
       <c r="R276">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="S276">
         <v>1.925</v>
@@ -25875,16 +25875,16 @@
         <v>1.925</v>
       </c>
       <c r="U276">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V276">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W276">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X276">
-        <v>0.7</v>
+        <v>0.222</v>
       </c>
       <c r="Y276">
         <v>-1</v>
@@ -25899,10 +25899,10 @@
         <v>-1</v>
       </c>
       <c r="AC276">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AD276">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="277" spans="1:30">
@@ -25910,7 +25910,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>8157174</v>
+        <v>8157941</v>
       </c>
       <c r="C277" t="s">
         <v>29</v>
@@ -25919,76 +25919,76 @@
         <v>45438.45833333334</v>
       </c>
       <c r="E277" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F277" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G277">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K277" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L277">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="M277">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N277">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="O277">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="P277">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="Q277">
-        <v>5.75</v>
+        <v>3.9</v>
       </c>
       <c r="R277">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S277">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T277">
+        <v>1.925</v>
+      </c>
+      <c r="U277">
+        <v>3.25</v>
+      </c>
+      <c r="V277">
+        <v>2</v>
+      </c>
+      <c r="W277">
         <v>1.85</v>
       </c>
-      <c r="U277">
-        <v>3</v>
-      </c>
-      <c r="V277">
-        <v>1.8</v>
-      </c>
-      <c r="W277">
-        <v>2.05</v>
-      </c>
       <c r="X277">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y277">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z277">
         <v>-1</v>
       </c>
       <c r="AA277">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB277">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC277">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD277">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Czech Republic First League/Czech Republic First League.xlsx
+++ b/Czech Republic First League/Czech Republic First League.xlsx
@@ -124,10 +124,10 @@
     <t>Mlada Boleslav</t>
   </si>
   <si>
-    <t>Slovan Liberec</t>
+    <t>Slovacko</t>
   </si>
   <si>
-    <t>Slovacko</t>
+    <t>Slovan Liberec</t>
   </si>
   <si>
     <t>Sparta Prague</t>
@@ -1085,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6802938</v>
+        <v>6802940</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -1097,10 +1097,10 @@
         <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1115,43 +1115,43 @@
         <v>47</v>
       </c>
       <c r="L7">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="M7">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N7">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="O7">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="P7">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q7">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S7">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T7">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="U7">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V7">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W7">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X7">
-        <v>1.4</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y7">
         <v>-1</v>
@@ -1160,13 +1160,13 @@
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AD7">
         <v>-1</v>
@@ -1177,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6802940</v>
+        <v>6802938</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
@@ -1189,10 +1189,10 @@
         <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1207,44 +1207,44 @@
         <v>47</v>
       </c>
       <c r="L8">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N8">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="O8">
+        <v>2.4</v>
+      </c>
+      <c r="P8">
+        <v>3.1</v>
+      </c>
+      <c r="Q8">
+        <v>2.8</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.775</v>
+      </c>
+      <c r="T8">
+        <v>2.1</v>
+      </c>
+      <c r="U8">
+        <v>2.5</v>
+      </c>
+      <c r="V8">
+        <v>2.05</v>
+      </c>
+      <c r="W8">
+        <v>1.8</v>
+      </c>
+      <c r="X8">
         <v>1.4</v>
       </c>
-      <c r="P8">
-        <v>4.333</v>
-      </c>
-      <c r="Q8">
-        <v>7</v>
-      </c>
-      <c r="R8">
-        <v>-1.25</v>
-      </c>
-      <c r="S8">
-        <v>1.95</v>
-      </c>
-      <c r="T8">
-        <v>1.9</v>
-      </c>
-      <c r="U8">
-        <v>2.75</v>
-      </c>
-      <c r="V8">
-        <v>1.925</v>
-      </c>
-      <c r="W8">
-        <v>1.925</v>
-      </c>
-      <c r="X8">
-        <v>0.3999999999999999</v>
-      </c>
       <c r="Y8">
         <v>-1</v>
       </c>
@@ -1252,13 +1252,13 @@
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AD8">
         <v>-1</v>
@@ -1649,7 +1649,7 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -2097,7 +2097,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6802952</v>
+        <v>6802951</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
@@ -2106,82 +2106,82 @@
         <v>45143.41666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L18">
-        <v>2.8</v>
+        <v>1.166</v>
       </c>
       <c r="M18">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N18">
-        <v>2.25</v>
+        <v>15</v>
       </c>
       <c r="O18">
-        <v>3.6</v>
+        <v>1.111</v>
       </c>
       <c r="P18">
+        <v>7.5</v>
+      </c>
+      <c r="Q18">
+        <v>17</v>
+      </c>
+      <c r="R18">
+        <v>-2.25</v>
+      </c>
+      <c r="S18">
+        <v>1.85</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
         <v>3.5</v>
       </c>
-      <c r="Q18">
-        <v>1.909</v>
-      </c>
-      <c r="R18">
-        <v>0.5</v>
-      </c>
-      <c r="S18">
-        <v>1.875</v>
-      </c>
-      <c r="T18">
-        <v>1.975</v>
-      </c>
-      <c r="U18">
-        <v>2.75</v>
-      </c>
       <c r="V18">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W18">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AD18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -2189,7 +2189,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6802951</v>
+        <v>6802956</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
@@ -2198,82 +2198,82 @@
         <v>45143.41666666666</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L19">
-        <v>1.166</v>
+        <v>1.909</v>
       </c>
       <c r="M19">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N19">
-        <v>15</v>
+        <v>3.75</v>
       </c>
       <c r="O19">
-        <v>1.111</v>
+        <v>1.75</v>
       </c>
       <c r="P19">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>4.5</v>
       </c>
       <c r="R19">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S19">
+        <v>1.8</v>
+      </c>
+      <c r="T19">
+        <v>2.05</v>
+      </c>
+      <c r="U19">
+        <v>2.25</v>
+      </c>
+      <c r="V19">
         <v>1.85</v>
       </c>
-      <c r="T19">
-        <v>2</v>
-      </c>
-      <c r="U19">
+      <c r="W19">
+        <v>2</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
+        <v>-1</v>
+      </c>
+      <c r="Z19">
         <v>3.5</v>
       </c>
-      <c r="V19">
-        <v>1.825</v>
-      </c>
-      <c r="W19">
-        <v>2.025</v>
-      </c>
-      <c r="X19">
-        <v>0.111</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
-      <c r="Z19">
-        <v>-1</v>
-      </c>
       <c r="AA19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC19">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AD19">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -2281,7 +2281,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6802956</v>
+        <v>6802952</v>
       </c>
       <c r="C20" t="s">
         <v>30</v>
@@ -2290,13 +2290,13 @@
         <v>45143.41666666666</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2305,67 +2305,67 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" t="s">
         <v>48</v>
       </c>
       <c r="L20">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="M20">
         <v>3.4</v>
       </c>
       <c r="N20">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="O20">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="P20">
         <v>3.5</v>
       </c>
       <c r="Q20">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="R20">
+        <v>0.5</v>
+      </c>
+      <c r="S20">
+        <v>1.875</v>
+      </c>
+      <c r="T20">
+        <v>1.975</v>
+      </c>
+      <c r="U20">
+        <v>2.75</v>
+      </c>
+      <c r="V20">
+        <v>1.9</v>
+      </c>
+      <c r="W20">
+        <v>1.95</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20">
+        <v>0.909</v>
+      </c>
+      <c r="AA20">
+        <v>-1</v>
+      </c>
+      <c r="AB20">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC20">
+        <v>0.45</v>
+      </c>
+      <c r="AD20">
         <v>-0.5</v>
-      </c>
-      <c r="S20">
-        <v>1.8</v>
-      </c>
-      <c r="T20">
-        <v>2.05</v>
-      </c>
-      <c r="U20">
-        <v>2.25</v>
-      </c>
-      <c r="V20">
-        <v>1.85</v>
-      </c>
-      <c r="W20">
-        <v>2</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>-1</v>
-      </c>
-      <c r="Z20">
-        <v>3.5</v>
-      </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
-      <c r="AB20">
-        <v>1.05</v>
-      </c>
-      <c r="AC20">
-        <v>-0.5</v>
-      </c>
-      <c r="AD20">
-        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -2474,7 +2474,7 @@
         <v>45144.41666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
         <v>42</v>
@@ -2833,7 +2833,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6802962</v>
+        <v>6802958</v>
       </c>
       <c r="C26" t="s">
         <v>30</v>
@@ -2842,82 +2842,82 @@
         <v>45150.41666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L26">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="M26">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N26">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="O26">
+        <v>1.75</v>
+      </c>
+      <c r="P26">
+        <v>3.75</v>
+      </c>
+      <c r="Q26">
+        <v>3.8</v>
+      </c>
+      <c r="R26">
+        <v>-0.5</v>
+      </c>
+      <c r="S26">
+        <v>1.825</v>
+      </c>
+      <c r="T26">
+        <v>2.025</v>
+      </c>
+      <c r="U26">
         <v>2.75</v>
       </c>
-      <c r="P26">
-        <v>3.25</v>
-      </c>
-      <c r="Q26">
-        <v>2.25</v>
-      </c>
-      <c r="R26">
-        <v>0.25</v>
-      </c>
-      <c r="S26">
-        <v>1.8</v>
-      </c>
-      <c r="T26">
-        <v>2.05</v>
-      </c>
-      <c r="U26">
-        <v>2.5</v>
-      </c>
       <c r="V26">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W26">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y26">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
         <v>-1</v>
       </c>
       <c r="AD26">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="27" spans="1:30">
@@ -2925,7 +2925,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6802958</v>
+        <v>6802962</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
@@ -2934,82 +2934,82 @@
         <v>45150.41666666666</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L27">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="M27">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N27">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="O27">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="P27">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q27">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="R27">
+        <v>0.25</v>
+      </c>
+      <c r="S27">
+        <v>1.8</v>
+      </c>
+      <c r="T27">
+        <v>2.05</v>
+      </c>
+      <c r="U27">
+        <v>2.5</v>
+      </c>
+      <c r="V27">
+        <v>1.825</v>
+      </c>
+      <c r="W27">
+        <v>2.025</v>
+      </c>
+      <c r="X27">
+        <v>-1</v>
+      </c>
+      <c r="Y27">
+        <v>2.25</v>
+      </c>
+      <c r="Z27">
+        <v>-1</v>
+      </c>
+      <c r="AA27">
+        <v>0.4</v>
+      </c>
+      <c r="AB27">
         <v>-0.5</v>
       </c>
-      <c r="S27">
-        <v>1.825</v>
-      </c>
-      <c r="T27">
-        <v>2.025</v>
-      </c>
-      <c r="U27">
-        <v>2.75</v>
-      </c>
-      <c r="V27">
-        <v>1.925</v>
-      </c>
-      <c r="W27">
-        <v>1.925</v>
-      </c>
-      <c r="X27">
-        <v>0.75</v>
-      </c>
-      <c r="Y27">
-        <v>-1</v>
-      </c>
-      <c r="Z27">
-        <v>-1</v>
-      </c>
-      <c r="AA27">
-        <v>0.825</v>
-      </c>
-      <c r="AB27">
-        <v>-1</v>
-      </c>
       <c r="AC27">
         <v>-1</v>
       </c>
       <c r="AD27">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="28" spans="1:30">
@@ -3109,7 +3109,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6802961</v>
+        <v>6802960</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
@@ -3118,13 +3118,13 @@
         <v>45151.41666666666</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3136,64 +3136,64 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="M29">
         <v>4</v>
       </c>
       <c r="N29">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="O29">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="P29">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q29">
-        <v>1.571</v>
+        <v>5.75</v>
       </c>
       <c r="R29">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="S29">
+        <v>2</v>
+      </c>
+      <c r="T29">
         <v>1.85</v>
       </c>
-      <c r="T29">
-        <v>2</v>
-      </c>
       <c r="U29">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V29">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W29">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AD29">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -3201,7 +3201,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6802960</v>
+        <v>6802959</v>
       </c>
       <c r="C30" t="s">
         <v>30</v>
@@ -3210,13 +3210,13 @@
         <v>45151.41666666666</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3225,67 +3225,67 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L30">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="M30">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N30">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O30">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="P30">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q30">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="R30">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T30">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U30">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X30">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="AA30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AC30">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD30">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -3293,7 +3293,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6802959</v>
+        <v>6802961</v>
       </c>
       <c r="C31" t="s">
         <v>30</v>
@@ -3302,10 +3302,10 @@
         <v>45151.41666666666</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3317,46 +3317,46 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="s">
         <v>48</v>
       </c>
       <c r="L31">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="M31">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N31">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="O31">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="P31">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q31">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="R31">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="S31">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T31">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U31">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V31">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W31">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3365,19 +3365,19 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>1.875</v>
+        <v>0.571</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB31">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC31">
         <v>-1</v>
       </c>
       <c r="AD31">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -3578,7 +3578,7 @@
         <v>45157.41666666666</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
         <v>35</v>
@@ -3762,7 +3762,7 @@
         <v>45157.41666666666</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
         <v>33</v>
@@ -3937,7 +3937,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6802966</v>
+        <v>6802969</v>
       </c>
       <c r="C38" t="s">
         <v>30</v>
@@ -3946,13 +3946,13 @@
         <v>45158.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3967,43 +3967,43 @@
         <v>47</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="M38">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N38">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="P38">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q38">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="R38">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S38">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T38">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U38">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V38">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W38">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X38">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Y38">
         <v>-1</v>
@@ -4012,16 +4012,16 @@
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="39" spans="1:30">
@@ -4029,7 +4029,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6802969</v>
+        <v>6802967</v>
       </c>
       <c r="C39" t="s">
         <v>30</v>
@@ -4038,64 +4038,64 @@
         <v>45158.41666666666</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G39">
         <v>2</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="s">
         <v>47</v>
       </c>
       <c r="L39">
+        <v>1.55</v>
+      </c>
+      <c r="M39">
+        <v>3.8</v>
+      </c>
+      <c r="N39">
+        <v>5.25</v>
+      </c>
+      <c r="O39">
+        <v>1.45</v>
+      </c>
+      <c r="P39">
+        <v>4.2</v>
+      </c>
+      <c r="Q39">
+        <v>5.75</v>
+      </c>
+      <c r="R39">
+        <v>-1</v>
+      </c>
+      <c r="S39">
+        <v>1.825</v>
+      </c>
+      <c r="T39">
+        <v>2.025</v>
+      </c>
+      <c r="U39">
+        <v>3</v>
+      </c>
+      <c r="V39">
+        <v>2</v>
+      </c>
+      <c r="W39">
         <v>1.85</v>
       </c>
-      <c r="M39">
-        <v>3.4</v>
-      </c>
-      <c r="N39">
-        <v>3.75</v>
-      </c>
-      <c r="O39">
-        <v>1.75</v>
-      </c>
-      <c r="P39">
-        <v>3.6</v>
-      </c>
-      <c r="Q39">
-        <v>4.2</v>
-      </c>
-      <c r="R39">
-        <v>-0.75</v>
-      </c>
-      <c r="S39">
-        <v>2.025</v>
-      </c>
-      <c r="T39">
-        <v>1.825</v>
-      </c>
-      <c r="U39">
-        <v>2.75</v>
-      </c>
-      <c r="V39">
-        <v>2.025</v>
-      </c>
-      <c r="W39">
-        <v>1.825</v>
-      </c>
       <c r="X39">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="Y39">
         <v>-1</v>
@@ -4104,16 +4104,16 @@
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD39">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -4121,7 +4121,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6802967</v>
+        <v>6802966</v>
       </c>
       <c r="C40" t="s">
         <v>30</v>
@@ -4130,64 +4130,64 @@
         <v>45158.41666666666</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="s">
         <v>47</v>
       </c>
       <c r="L40">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="M40">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="N40">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="O40">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="P40">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q40">
-        <v>5.75</v>
+        <v>2.2</v>
       </c>
       <c r="R40">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S40">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T40">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U40">
         <v>3</v>
       </c>
       <c r="V40">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W40">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="X40">
-        <v>0.45</v>
+        <v>2</v>
       </c>
       <c r="Y40">
         <v>-1</v>
@@ -4196,10 +4196,10 @@
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
         <v>0</v>
@@ -4317,7 +4317,7 @@
         <v>33</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4777,7 +4777,7 @@
         <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -5142,7 +5142,7 @@
         <v>45171.41666666666</v>
       </c>
       <c r="E51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F51" t="s">
         <v>39</v>
@@ -5317,7 +5317,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6802987</v>
+        <v>6802981</v>
       </c>
       <c r="C53" t="s">
         <v>30</v>
@@ -5326,82 +5326,82 @@
         <v>45172.41666666666</v>
       </c>
       <c r="E53" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L53">
-        <v>4.5</v>
+        <v>1.45</v>
       </c>
       <c r="M53">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="N53">
-        <v>1.65</v>
+        <v>5.5</v>
       </c>
       <c r="O53">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="P53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q53">
-        <v>1.533</v>
+        <v>7</v>
       </c>
       <c r="R53">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="S53">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T53">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U53">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V53">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W53">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB53">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
         <v>-1</v>
       </c>
       <c r="AD53">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="54" spans="1:30">
@@ -5409,7 +5409,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6802981</v>
+        <v>6802987</v>
       </c>
       <c r="C54" t="s">
         <v>30</v>
@@ -5418,82 +5418,82 @@
         <v>45172.41666666666</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L54">
-        <v>1.45</v>
+        <v>4.5</v>
       </c>
       <c r="M54">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="N54">
+        <v>1.65</v>
+      </c>
+      <c r="O54">
         <v>5.5</v>
       </c>
-      <c r="O54">
-        <v>1.3</v>
-      </c>
       <c r="P54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q54">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="R54">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="S54">
+        <v>1.9</v>
+      </c>
+      <c r="T54">
+        <v>1.95</v>
+      </c>
+      <c r="U54">
+        <v>2.75</v>
+      </c>
+      <c r="V54">
         <v>1.925</v>
       </c>
-      <c r="T54">
+      <c r="W54">
         <v>1.925</v>
       </c>
-      <c r="U54">
-        <v>3.25</v>
-      </c>
-      <c r="V54">
-        <v>2.025</v>
-      </c>
-      <c r="W54">
-        <v>1.825</v>
-      </c>
       <c r="X54">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="AA54">
+        <v>-1</v>
+      </c>
+      <c r="AB54">
+        <v>0.95</v>
+      </c>
+      <c r="AC54">
+        <v>-1</v>
+      </c>
+      <c r="AD54">
         <v>0.925</v>
-      </c>
-      <c r="AB54">
-        <v>-1</v>
-      </c>
-      <c r="AC54">
-        <v>-1</v>
-      </c>
-      <c r="AD54">
-        <v>0.825</v>
       </c>
     </row>
     <row r="55" spans="1:30">
@@ -6157,7 +6157,7 @@
         <v>46</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -6341,7 +6341,7 @@
         <v>38</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G64">
         <v>5</v>
@@ -6421,7 +6421,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6802999</v>
+        <v>6803004</v>
       </c>
       <c r="C65" t="s">
         <v>30</v>
@@ -6430,55 +6430,55 @@
         <v>45192.41666666666</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L65">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="M65">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="N65">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="O65">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="P65">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q65">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="R65">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S65">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T65">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U65">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V65">
         <v>1.9</v>
@@ -6487,25 +6487,25 @@
         <v>1.95</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB65">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD65">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="66" spans="1:30">
@@ -6513,7 +6513,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6803004</v>
+        <v>6803002</v>
       </c>
       <c r="C66" t="s">
         <v>30</v>
@@ -6525,43 +6525,43 @@
         <v>37</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K66" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L66">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="M66">
+        <v>3.5</v>
+      </c>
+      <c r="N66">
+        <v>4</v>
+      </c>
+      <c r="O66">
+        <v>1.7</v>
+      </c>
+      <c r="P66">
+        <v>3.75</v>
+      </c>
+      <c r="Q66">
         <v>4.75</v>
       </c>
-      <c r="N66">
-        <v>7</v>
-      </c>
-      <c r="O66">
-        <v>1.4</v>
-      </c>
-      <c r="P66">
-        <v>4.333</v>
-      </c>
-      <c r="Q66">
-        <v>8</v>
-      </c>
       <c r="R66">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S66">
         <v>1.95</v>
@@ -6570,7 +6570,7 @@
         <v>1.9</v>
       </c>
       <c r="U66">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V66">
         <v>1.9</v>
@@ -6579,25 +6579,25 @@
         <v>1.95</v>
       </c>
       <c r="X66">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD66">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:30">
@@ -6605,7 +6605,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6803002</v>
+        <v>6803000</v>
       </c>
       <c r="C67" t="s">
         <v>30</v>
@@ -6614,55 +6614,55 @@
         <v>45192.41666666666</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G67">
+        <v>5</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" t="s">
+        <v>47</v>
+      </c>
+      <c r="L67">
+        <v>1.45</v>
+      </c>
+      <c r="M67">
+        <v>4.5</v>
+      </c>
+      <c r="N67">
+        <v>6.5</v>
+      </c>
+      <c r="O67">
+        <v>1.363</v>
+      </c>
+      <c r="P67">
+        <v>5.25</v>
+      </c>
+      <c r="Q67">
+        <v>7</v>
+      </c>
+      <c r="R67">
+        <v>-1.5</v>
+      </c>
+      <c r="S67">
+        <v>2.05</v>
+      </c>
+      <c r="T67">
+        <v>1.8</v>
+      </c>
+      <c r="U67">
         <v>3</v>
-      </c>
-      <c r="H67">
-        <v>3</v>
-      </c>
-      <c r="I67">
-        <v>3</v>
-      </c>
-      <c r="J67">
-        <v>2</v>
-      </c>
-      <c r="K67" t="s">
-        <v>49</v>
-      </c>
-      <c r="L67">
-        <v>1.9</v>
-      </c>
-      <c r="M67">
-        <v>3.5</v>
-      </c>
-      <c r="N67">
-        <v>4</v>
-      </c>
-      <c r="O67">
-        <v>1.7</v>
-      </c>
-      <c r="P67">
-        <v>3.75</v>
-      </c>
-      <c r="Q67">
-        <v>4.75</v>
-      </c>
-      <c r="R67">
-        <v>-0.75</v>
-      </c>
-      <c r="S67">
-        <v>1.95</v>
-      </c>
-      <c r="T67">
-        <v>1.9</v>
-      </c>
-      <c r="U67">
-        <v>2.5</v>
       </c>
       <c r="V67">
         <v>1.9</v>
@@ -6671,19 +6671,19 @@
         <v>1.95</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y67">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB67">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
         <v>0.8999999999999999</v>
@@ -6697,7 +6697,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6803000</v>
+        <v>6802999</v>
       </c>
       <c r="C68" t="s">
         <v>30</v>
@@ -6706,52 +6706,52 @@
         <v>45192.41666666666</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G68">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68">
         <v>1</v>
       </c>
       <c r="K68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L68">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="M68">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="N68">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="O68">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="P68">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q68">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="R68">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="S68">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U68">
         <v>3</v>
@@ -6763,25 +6763,25 @@
         <v>1.95</v>
       </c>
       <c r="X68">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="AA68">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC68">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD68">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:30">
@@ -7353,7 +7353,7 @@
         <v>46</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -7445,7 +7445,7 @@
         <v>32</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G76">
         <v>5</v>
@@ -8178,7 +8178,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="E84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
         <v>31</v>
@@ -8454,7 +8454,7 @@
         <v>45207.54166666666</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F87" t="s">
         <v>34</v>
@@ -8730,7 +8730,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="E90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
         <v>44</v>
@@ -9009,7 +9009,7 @@
         <v>34</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -9457,7 +9457,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6803031</v>
+        <v>6803029</v>
       </c>
       <c r="C98" t="s">
         <v>30</v>
@@ -9466,67 +9466,67 @@
         <v>45227.41666666666</v>
       </c>
       <c r="E98" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" t="s">
         <v>49</v>
       </c>
       <c r="L98">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="M98">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N98">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="O98">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="P98">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q98">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="R98">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="S98">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T98">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U98">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V98">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W98">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Z98">
         <v>-1</v>
@@ -9535,13 +9535,13 @@
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC98">
         <v>-1</v>
       </c>
       <c r="AD98">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="99" spans="1:30">
@@ -9549,7 +9549,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6803029</v>
+        <v>6803031</v>
       </c>
       <c r="C99" t="s">
         <v>30</v>
@@ -9558,67 +9558,67 @@
         <v>45227.41666666666</v>
       </c>
       <c r="E99" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" t="s">
         <v>49</v>
       </c>
       <c r="L99">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="M99">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N99">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="O99">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="P99">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q99">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="R99">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S99">
+        <v>1.925</v>
+      </c>
+      <c r="T99">
+        <v>1.925</v>
+      </c>
+      <c r="U99">
+        <v>2.5</v>
+      </c>
+      <c r="V99">
+        <v>1.825</v>
+      </c>
+      <c r="W99">
         <v>2.025</v>
       </c>
-      <c r="T99">
-        <v>1.825</v>
-      </c>
-      <c r="U99">
-        <v>3</v>
-      </c>
-      <c r="V99">
-        <v>2.05</v>
-      </c>
-      <c r="W99">
-        <v>1.8</v>
-      </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Z99">
         <v>-1</v>
@@ -9627,13 +9627,13 @@
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC99">
         <v>-1</v>
       </c>
       <c r="AD99">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="100" spans="1:30">
@@ -9825,7 +9825,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6803030</v>
+        <v>6803033</v>
       </c>
       <c r="C102" t="s">
         <v>30</v>
@@ -9834,46 +9834,46 @@
         <v>45228.45833333334</v>
       </c>
       <c r="E102" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="M102">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="N102">
-        <v>1.85</v>
+        <v>12</v>
       </c>
       <c r="O102">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="P102">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q102">
-        <v>1.7</v>
+        <v>11</v>
       </c>
       <c r="R102">
-        <v>0.75</v>
+        <v>-2</v>
       </c>
       <c r="S102">
         <v>1.975</v>
@@ -9882,34 +9882,34 @@
         <v>1.875</v>
       </c>
       <c r="U102">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W102">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X102">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AA102">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC102">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD102">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:30">
@@ -9917,7 +9917,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6803033</v>
+        <v>6803030</v>
       </c>
       <c r="C103" t="s">
         <v>30</v>
@@ -9926,46 +9926,46 @@
         <v>45228.45833333334</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L103">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="N103">
-        <v>12</v>
+        <v>1.85</v>
       </c>
       <c r="O103">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="P103">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="Q103">
-        <v>11</v>
+        <v>1.7</v>
       </c>
       <c r="R103">
-        <v>-2</v>
+        <v>0.75</v>
       </c>
       <c r="S103">
         <v>1.975</v>
@@ -9974,34 +9974,34 @@
         <v>1.875</v>
       </c>
       <c r="U103">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V103">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W103">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB103">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD103">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:30">
@@ -10101,7 +10101,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6803042</v>
+        <v>6803038</v>
       </c>
       <c r="C105" t="s">
         <v>30</v>
@@ -10110,82 +10110,82 @@
         <v>45234.45833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G105">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L105">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="M105">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N105">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="P105">
         <v>3.5</v>
       </c>
       <c r="Q105">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="R105">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S105">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T105">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U105">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W105">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X105">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC105">
         <v>-1</v>
       </c>
       <c r="AD105">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="106" spans="1:30">
@@ -10193,7 +10193,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6803038</v>
+        <v>6803042</v>
       </c>
       <c r="C106" t="s">
         <v>30</v>
@@ -10202,82 +10202,82 @@
         <v>45234.45833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F106" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G106">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K106" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L106">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="M106">
+        <v>3.5</v>
+      </c>
+      <c r="N106">
+        <v>2.25</v>
+      </c>
+      <c r="O106">
         <v>3.6</v>
-      </c>
-      <c r="N106">
-        <v>2.8</v>
-      </c>
-      <c r="O106">
-        <v>2.15</v>
       </c>
       <c r="P106">
         <v>3.5</v>
       </c>
       <c r="Q106">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="R106">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S106">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T106">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U106">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V106">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W106">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y106">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB106">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
         <v>-1</v>
       </c>
       <c r="AD106">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:30">
@@ -10386,7 +10386,7 @@
         <v>45234.45833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F108" t="s">
         <v>45</v>
@@ -10662,7 +10662,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="E111" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F111" t="s">
         <v>43</v>
@@ -10941,7 +10941,7 @@
         <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -11309,7 +11309,7 @@
         <v>44</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -11674,7 +11674,7 @@
         <v>45255.45833333334</v>
       </c>
       <c r="E122" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F122" t="s">
         <v>35</v>
@@ -12033,7 +12033,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6803060</v>
+        <v>6803055</v>
       </c>
       <c r="C126" t="s">
         <v>30</v>
@@ -12042,64 +12042,64 @@
         <v>45256.45833333334</v>
       </c>
       <c r="E126" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G126">
         <v>2</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="J126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K126" t="s">
         <v>47</v>
       </c>
       <c r="L126">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="M126">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N126">
+        <v>3.1</v>
+      </c>
+      <c r="O126">
+        <v>2.2</v>
+      </c>
+      <c r="P126">
+        <v>3</v>
+      </c>
+      <c r="Q126">
         <v>3.5</v>
       </c>
-      <c r="O126">
-        <v>1.727</v>
-      </c>
-      <c r="P126">
-        <v>3.25</v>
-      </c>
-      <c r="Q126">
-        <v>5</v>
-      </c>
       <c r="R126">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S126">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T126">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U126">
         <v>2.25</v>
       </c>
       <c r="V126">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W126">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X126">
-        <v>0.7270000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="Y126">
         <v>-1</v>
@@ -12108,16 +12108,16 @@
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB126">
+        <v>-1</v>
+      </c>
+      <c r="AC126">
         <v>-0.5</v>
       </c>
-      <c r="AC126">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AD126">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="127" spans="1:30">
@@ -12125,7 +12125,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6803055</v>
+        <v>6803060</v>
       </c>
       <c r="C127" t="s">
         <v>30</v>
@@ -12134,64 +12134,64 @@
         <v>45256.45833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G127">
         <v>2</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127">
         <v>1</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127" t="s">
         <v>47</v>
       </c>
       <c r="L127">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="M127">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N127">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O127">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="P127">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q127">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="R127">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S127">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T127">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U127">
         <v>2.25</v>
       </c>
       <c r="V127">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W127">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X127">
-        <v>1.2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y127">
         <v>-1</v>
@@ -12200,16 +12200,16 @@
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC127">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD127">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:30">
@@ -12321,7 +12321,7 @@
         <v>40</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -12493,7 +12493,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6803065</v>
+        <v>7521554</v>
       </c>
       <c r="C131" t="s">
         <v>30</v>
@@ -12502,79 +12502,79 @@
         <v>45266.54166666666</v>
       </c>
       <c r="E131" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
         <v>3</v>
       </c>
-      <c r="H131">
-        <v>2</v>
-      </c>
       <c r="I131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131">
         <v>1</v>
       </c>
       <c r="K131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L131">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="M131">
+        <v>3.25</v>
+      </c>
+      <c r="N131">
+        <v>2.2</v>
+      </c>
+      <c r="O131">
         <v>3.4</v>
       </c>
-      <c r="N131">
-        <v>4.75</v>
-      </c>
-      <c r="O131">
-        <v>1.6</v>
-      </c>
       <c r="P131">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q131">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="R131">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S131">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T131">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="U131">
         <v>2.5</v>
       </c>
       <c r="V131">
+        <v>1.825</v>
+      </c>
+      <c r="W131">
         <v>2.025</v>
       </c>
-      <c r="W131">
-        <v>1.825</v>
-      </c>
       <c r="X131">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA131">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC131">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AD131">
         <v>-1</v>
@@ -12585,7 +12585,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7521554</v>
+        <v>6803065</v>
       </c>
       <c r="C132" t="s">
         <v>30</v>
@@ -12594,79 +12594,79 @@
         <v>45266.54166666666</v>
       </c>
       <c r="E132" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F132" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J132">
         <v>1</v>
       </c>
       <c r="K132" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L132">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="M132">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N132">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="P132">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q132">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="R132">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S132">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T132">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="U132">
         <v>2.5</v>
       </c>
       <c r="V132">
+        <v>2.025</v>
+      </c>
+      <c r="W132">
         <v>1.825</v>
       </c>
-      <c r="W132">
-        <v>2.025</v>
-      </c>
       <c r="X132">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB132">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC132">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AD132">
         <v>-1</v>
@@ -12778,7 +12778,7 @@
         <v>45269.45833333334</v>
       </c>
       <c r="E134" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F134" t="s">
         <v>39</v>
@@ -12870,7 +12870,7 @@
         <v>45269.45833333334</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F135" t="s">
         <v>42</v>
@@ -13229,7 +13229,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7560701</v>
+        <v>7560702</v>
       </c>
       <c r="C139" t="s">
         <v>30</v>
@@ -13238,82 +13238,82 @@
         <v>45273.54166666666</v>
       </c>
       <c r="E139" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F139" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H139">
         <v>2</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139">
         <v>2</v>
       </c>
       <c r="K139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L139">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="M139">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N139">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="O139">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="P139">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q139">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="R139">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S139">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T139">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U139">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V139">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W139">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z139">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD139">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:30">
@@ -13321,7 +13321,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7560702</v>
+        <v>7560701</v>
       </c>
       <c r="C140" t="s">
         <v>30</v>
@@ -13330,82 +13330,82 @@
         <v>45273.54166666666</v>
       </c>
       <c r="E140" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H140">
         <v>2</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140">
         <v>2</v>
       </c>
       <c r="K140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L140">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="M140">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N140">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="O140">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="P140">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q140">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="R140">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S140">
+        <v>2</v>
+      </c>
+      <c r="T140">
         <v>1.85</v>
       </c>
-      <c r="T140">
-        <v>2</v>
-      </c>
       <c r="U140">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V140">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="AA140">
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC140">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD140">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:30">
@@ -13425,7 +13425,7 @@
         <v>42</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -13505,7 +13505,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6803083</v>
+        <v>6803082</v>
       </c>
       <c r="C142" t="s">
         <v>30</v>
@@ -13514,82 +13514,82 @@
         <v>45276.45833333334</v>
       </c>
       <c r="E142" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H142">
         <v>0</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142">
         <v>0</v>
       </c>
       <c r="K142" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L142">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="M142">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N142">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="O142">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="P142">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q142">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="R142">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S142">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T142">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U142">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V142">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W142">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y142">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
         <v>-1</v>
       </c>
       <c r="AD142">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:30">
@@ -13597,7 +13597,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6803082</v>
+        <v>6803081</v>
       </c>
       <c r="C143" t="s">
         <v>30</v>
@@ -13606,19 +13606,19 @@
         <v>45276.45833333334</v>
       </c>
       <c r="E143" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G143">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H143">
         <v>0</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -13627,13 +13627,13 @@
         <v>47</v>
       </c>
       <c r="L143">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="M143">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N143">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="O143">
         <v>3</v>
@@ -13657,10 +13657,10 @@
         <v>2.5</v>
       </c>
       <c r="V143">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W143">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X143">
         <v>2</v>
@@ -13678,10 +13678,10 @@
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AD143">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:30">
@@ -13689,7 +13689,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6803081</v>
+        <v>6803080</v>
       </c>
       <c r="C144" t="s">
         <v>30</v>
@@ -13698,82 +13698,82 @@
         <v>45276.45833333334</v>
       </c>
       <c r="E144" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F144" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G144">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J144">
         <v>0</v>
       </c>
       <c r="K144" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L144">
+        <v>2.3</v>
+      </c>
+      <c r="M144">
+        <v>3.3</v>
+      </c>
+      <c r="N144">
+        <v>3.1</v>
+      </c>
+      <c r="O144">
         <v>2.5</v>
       </c>
-      <c r="M144">
-        <v>3.4</v>
-      </c>
-      <c r="N144">
-        <v>2.7</v>
-      </c>
-      <c r="O144">
-        <v>3</v>
-      </c>
       <c r="P144">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q144">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="R144">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S144">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T144">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="U144">
         <v>2.5</v>
       </c>
       <c r="V144">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W144">
+        <v>1.9</v>
+      </c>
+      <c r="X144">
+        <v>-1</v>
+      </c>
+      <c r="Y144">
+        <v>-1</v>
+      </c>
+      <c r="Z144">
         <v>1.8</v>
       </c>
-      <c r="X144">
-        <v>2</v>
-      </c>
-      <c r="Y144">
-        <v>-1</v>
-      </c>
-      <c r="Z144">
-        <v>-1</v>
-      </c>
       <c r="AA144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC144">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AD144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:30">
@@ -13781,7 +13781,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6803080</v>
+        <v>6803083</v>
       </c>
       <c r="C145" t="s">
         <v>30</v>
@@ -13790,16 +13790,16 @@
         <v>45276.45833333334</v>
       </c>
       <c r="E145" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G145">
         <v>0</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -13808,64 +13808,64 @@
         <v>0</v>
       </c>
       <c r="K145" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L145">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="M145">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N145">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O145">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="P145">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q145">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="R145">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S145">
+        <v>2.05</v>
+      </c>
+      <c r="T145">
         <v>1.8</v>
       </c>
-      <c r="T145">
-        <v>2.05</v>
-      </c>
       <c r="U145">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V145">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W145">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z145">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AC145">
         <v>-1</v>
       </c>
       <c r="AD145">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="146" spans="1:30">
@@ -14342,7 +14342,7 @@
         <v>45332.45833333334</v>
       </c>
       <c r="E151" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F151" t="s">
         <v>33</v>
@@ -14434,7 +14434,7 @@
         <v>45332.45833333334</v>
       </c>
       <c r="E152" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F152" t="s">
         <v>40</v>
@@ -15253,7 +15253,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6803095</v>
+        <v>6803100</v>
       </c>
       <c r="C161" t="s">
         <v>30</v>
@@ -15262,40 +15262,40 @@
         <v>45339.45833333334</v>
       </c>
       <c r="E161" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F161" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G161">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I161">
         <v>1</v>
       </c>
       <c r="J161">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K161" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L161">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="M161">
         <v>3.4</v>
       </c>
       <c r="N161">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O161">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P161">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q161">
         <v>3.25</v>
@@ -15304,13 +15304,13 @@
         <v>-0.25</v>
       </c>
       <c r="S161">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T161">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U161">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V161">
         <v>1.825</v>
@@ -15322,22 +15322,22 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z161">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB161">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC161">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AD161">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="162" spans="1:30">
@@ -15345,7 +15345,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6803100</v>
+        <v>6803098</v>
       </c>
       <c r="C162" t="s">
         <v>30</v>
@@ -15354,82 +15354,82 @@
         <v>45339.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F162" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162">
         <v>1</v>
       </c>
       <c r="J162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K162" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L162">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="M162">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N162">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="O162">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="P162">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q162">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="R162">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S162">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T162">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U162">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V162">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W162">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y162">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB162">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD162">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:30">
@@ -15437,7 +15437,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6803098</v>
+        <v>6803094</v>
       </c>
       <c r="C163" t="s">
         <v>30</v>
@@ -15446,82 +15446,82 @@
         <v>45339.45833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F163" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G163">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K163" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L163">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="M163">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N163">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="O163">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="P163">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q163">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="R163">
         <v>-0.75</v>
       </c>
       <c r="S163">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T163">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U163">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V163">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W163">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X163">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z163">
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC163">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD163">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="164" spans="1:30">
@@ -15529,7 +15529,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6803094</v>
+        <v>6803095</v>
       </c>
       <c r="C164" t="s">
         <v>30</v>
@@ -15538,82 +15538,82 @@
         <v>45339.45833333334</v>
       </c>
       <c r="E164" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F164" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K164" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L164">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="M164">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N164">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="O164">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="P164">
         <v>3.6</v>
       </c>
       <c r="Q164">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="R164">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S164">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T164">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U164">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V164">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W164">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="AA164">
         <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD164">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:30">
@@ -15817,7 +15817,7 @@
         <v>39</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -15909,7 +15909,7 @@
         <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -16090,7 +16090,7 @@
         <v>45346.45833333334</v>
       </c>
       <c r="E170" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F170" t="s">
         <v>46</v>
@@ -16541,7 +16541,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6803103</v>
+        <v>6803107</v>
       </c>
       <c r="C175" t="s">
         <v>30</v>
@@ -16550,16 +16550,16 @@
         <v>45347.45833333334</v>
       </c>
       <c r="E175" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F175" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -16571,43 +16571,43 @@
         <v>47</v>
       </c>
       <c r="L175">
-        <v>3.4</v>
+        <v>1.111</v>
       </c>
       <c r="M175">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="N175">
-        <v>2.05</v>
+        <v>17</v>
       </c>
       <c r="O175">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="P175">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="Q175">
-        <v>2.9</v>
+        <v>17</v>
       </c>
       <c r="R175">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="S175">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T175">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U175">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V175">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W175">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X175">
-        <v>1.3</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="Y175">
         <v>-1</v>
@@ -16616,16 +16616,16 @@
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AB175">
         <v>-1</v>
       </c>
       <c r="AC175">
+        <v>-0.5</v>
+      </c>
+      <c r="AD175">
         <v>0.5</v>
-      </c>
-      <c r="AD175">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="176" spans="1:30">
@@ -16633,7 +16633,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6803107</v>
+        <v>6803103</v>
       </c>
       <c r="C176" t="s">
         <v>30</v>
@@ -16642,16 +16642,16 @@
         <v>45347.45833333334</v>
       </c>
       <c r="E176" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F176" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -16663,43 +16663,43 @@
         <v>47</v>
       </c>
       <c r="L176">
-        <v>1.111</v>
+        <v>3.4</v>
       </c>
       <c r="M176">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="N176">
-        <v>17</v>
+        <v>2.05</v>
       </c>
       <c r="O176">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="P176">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="Q176">
-        <v>17</v>
+        <v>2.9</v>
       </c>
       <c r="R176">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S176">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T176">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U176">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V176">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W176">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="X176">
-        <v>0.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="Y176">
         <v>-1</v>
@@ -16708,16 +16708,16 @@
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
+        <v>0.5</v>
+      </c>
+      <c r="AD176">
         <v>-0.5</v>
-      </c>
-      <c r="AD176">
-        <v>0.5</v>
       </c>
     </row>
     <row r="177" spans="1:30">
@@ -16734,7 +16734,7 @@
         <v>45347.58333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F177" t="s">
         <v>38</v>
@@ -16921,7 +16921,7 @@
         <v>32</v>
       </c>
       <c r="F179" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -17289,7 +17289,7 @@
         <v>31</v>
       </c>
       <c r="F183" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -17562,7 +17562,7 @@
         <v>45360.45833333334</v>
       </c>
       <c r="E186" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F186" t="s">
         <v>46</v>
@@ -17838,7 +17838,7 @@
         <v>45360.45833333334</v>
       </c>
       <c r="E189" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F189" t="s">
         <v>32</v>
@@ -18013,7 +18013,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6803128</v>
+        <v>6803123</v>
       </c>
       <c r="C191" t="s">
         <v>30</v>
@@ -18022,79 +18022,79 @@
         <v>45361.45833333334</v>
       </c>
       <c r="E191" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F191" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G191">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K191" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L191">
-        <v>1.2</v>
+        <v>1.833</v>
       </c>
       <c r="M191">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="N191">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="O191">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="P191">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q191">
-        <v>17</v>
+        <v>3.6</v>
       </c>
       <c r="R191">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="S191">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T191">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U191">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V191">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W191">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X191">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC191">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD191">
         <v>-1</v>
@@ -18105,7 +18105,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6803123</v>
+        <v>6803128</v>
       </c>
       <c r="C192" t="s">
         <v>30</v>
@@ -18114,79 +18114,79 @@
         <v>45361.45833333334</v>
       </c>
       <c r="E192" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F192" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G192">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K192" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L192">
-        <v>1.833</v>
+        <v>1.2</v>
       </c>
       <c r="M192">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="N192">
-        <v>3.8</v>
+        <v>10</v>
       </c>
       <c r="O192">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="P192">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q192">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="R192">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="S192">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T192">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U192">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V192">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W192">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X192">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Y192">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
         <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB192">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD192">
         <v>-1</v>
@@ -18577,7 +18577,7 @@
         <v>31</v>
       </c>
       <c r="F197" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -18669,7 +18669,7 @@
         <v>34</v>
       </c>
       <c r="F198" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G198">
         <v>3</v>
@@ -19037,7 +19037,7 @@
         <v>44</v>
       </c>
       <c r="F202" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -19310,7 +19310,7 @@
         <v>45381.58333333334</v>
       </c>
       <c r="E205" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F205" t="s">
         <v>34</v>
@@ -19761,7 +19761,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6803148</v>
+        <v>6835684</v>
       </c>
       <c r="C210" t="s">
         <v>30</v>
@@ -19770,19 +19770,19 @@
         <v>45388.41666666666</v>
       </c>
       <c r="E210" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F210" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G210">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J210">
         <v>0</v>
@@ -19791,43 +19791,43 @@
         <v>47</v>
       </c>
       <c r="L210">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="M210">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N210">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="O210">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="P210">
         <v>3.25</v>
       </c>
       <c r="Q210">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="R210">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S210">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T210">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U210">
         <v>2.5</v>
       </c>
       <c r="V210">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W210">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X210">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="Y210">
         <v>-1</v>
@@ -19836,13 +19836,13 @@
         <v>-1</v>
       </c>
       <c r="AA210">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AB210">
         <v>-1</v>
       </c>
       <c r="AC210">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AD210">
         <v>-1</v>
@@ -19853,7 +19853,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6849948</v>
+        <v>6803148</v>
       </c>
       <c r="C211" t="s">
         <v>30</v>
@@ -19862,55 +19862,55 @@
         <v>45388.41666666666</v>
       </c>
       <c r="E211" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F211" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G211">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J211">
         <v>0</v>
       </c>
       <c r="K211" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L211">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="M211">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N211">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="O211">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="P211">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q211">
-        <v>1.55</v>
+        <v>3.8</v>
       </c>
       <c r="R211">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="S211">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T211">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U211">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V211">
         <v>1.925</v>
@@ -19919,25 +19919,25 @@
         <v>1.925</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y211">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
         <v>-1</v>
       </c>
       <c r="AA211">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB211">
         <v>-1</v>
       </c>
       <c r="AC211">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD211">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:30">
@@ -19945,7 +19945,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6835684</v>
+        <v>6849948</v>
       </c>
       <c r="C212" t="s">
         <v>30</v>
@@ -19954,82 +19954,82 @@
         <v>45388.41666666666</v>
       </c>
       <c r="E212" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F212" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G212">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212">
         <v>0</v>
       </c>
       <c r="K212" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L212">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="M212">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N212">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="O212">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="P212">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q212">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="R212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S212">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T212">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U212">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V212">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W212">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X212">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z212">
         <v>-1</v>
       </c>
       <c r="AA212">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB212">
         <v>-1</v>
       </c>
       <c r="AC212">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD212">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="213" spans="1:30">
@@ -20221,7 +20221,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6803145</v>
+        <v>6803144</v>
       </c>
       <c r="C215" t="s">
         <v>30</v>
@@ -20230,55 +20230,55 @@
         <v>45389.41666666666</v>
       </c>
       <c r="E215" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F215" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215">
         <v>1</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K215" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L215">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="M215">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N215">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O215">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="P215">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q215">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="R215">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S215">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T215">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="U215">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V215">
         <v>1.925</v>
@@ -20290,16 +20290,16 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -20313,7 +20313,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6803144</v>
+        <v>6803145</v>
       </c>
       <c r="C216" t="s">
         <v>30</v>
@@ -20322,55 +20322,55 @@
         <v>45389.41666666666</v>
       </c>
       <c r="E216" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F216" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216">
         <v>1</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K216" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L216">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="M216">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N216">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O216">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="P216">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q216">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="R216">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S216">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T216">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U216">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V216">
         <v>1.925</v>
@@ -20382,16 +20382,16 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z216">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
         <v>-1</v>
       </c>
       <c r="AB216">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AC216">
         <v>-1</v>
@@ -20589,7 +20589,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6851033</v>
+        <v>6803152</v>
       </c>
       <c r="C219" t="s">
         <v>30</v>
@@ -20598,82 +20598,82 @@
         <v>45395.41666666666</v>
       </c>
       <c r="E219" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F219" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G219">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H219">
         <v>2</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K219" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L219">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="M219">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N219">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="O219">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="P219">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q219">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="R219">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S219">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T219">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U219">
         <v>2.75</v>
       </c>
       <c r="V219">
+        <v>1.95</v>
+      </c>
+      <c r="W219">
         <v>1.9</v>
       </c>
-      <c r="W219">
-        <v>1.95</v>
-      </c>
       <c r="X219">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB219">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AD219">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:30">
@@ -20681,7 +20681,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6803152</v>
+        <v>6851033</v>
       </c>
       <c r="C220" t="s">
         <v>30</v>
@@ -20690,82 +20690,82 @@
         <v>45395.41666666666</v>
       </c>
       <c r="E220" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F220" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H220">
         <v>2</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K220" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L220">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="M220">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N220">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O220">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="P220">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q220">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="R220">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S220">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T220">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U220">
         <v>2.75</v>
       </c>
       <c r="V220">
+        <v>1.9</v>
+      </c>
+      <c r="W220">
         <v>1.95</v>
       </c>
-      <c r="W220">
-        <v>1.9</v>
-      </c>
       <c r="X220">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="AA220">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC220">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AD220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="221" spans="1:30">
@@ -20785,7 +20785,7 @@
         <v>45</v>
       </c>
       <c r="F221" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -21610,7 +21610,7 @@
         <v>45403.41666666666</v>
       </c>
       <c r="E230" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F230" t="s">
         <v>45</v>
@@ -21886,7 +21886,7 @@
         <v>45403.54166666666</v>
       </c>
       <c r="E233" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F233" t="s">
         <v>44</v>
@@ -22165,7 +22165,7 @@
         <v>41</v>
       </c>
       <c r="F236" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G236">
         <v>2</v>
@@ -22441,7 +22441,7 @@
         <v>43</v>
       </c>
       <c r="F239" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G239">
         <v>2</v>
@@ -23269,7 +23269,7 @@
         <v>31</v>
       </c>
       <c r="F248" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G248">
         <v>2</v>
@@ -23358,7 +23358,7 @@
         <v>45417.54166666666</v>
       </c>
       <c r="E249" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F249" t="s">
         <v>38</v>
@@ -23545,7 +23545,7 @@
         <v>44</v>
       </c>
       <c r="F251" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G251">
         <v>4</v>
@@ -23717,7 +23717,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>8157945</v>
+        <v>8157949</v>
       </c>
       <c r="C253" t="s">
         <v>30</v>
@@ -23726,79 +23726,79 @@
         <v>45424.41666666666</v>
       </c>
       <c r="E253" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F253" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G253">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H253">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K253" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L253">
+        <v>1.909</v>
+      </c>
+      <c r="M253">
+        <v>3.6</v>
+      </c>
+      <c r="N253">
+        <v>4</v>
+      </c>
+      <c r="O253">
         <v>2.1</v>
-      </c>
-      <c r="M253">
-        <v>3.5</v>
-      </c>
-      <c r="N253">
-        <v>3.3</v>
-      </c>
-      <c r="O253">
-        <v>2.625</v>
       </c>
       <c r="P253">
         <v>3.4</v>
       </c>
       <c r="Q253">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="R253">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S253">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T253">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U253">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V253">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W253">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X253">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y253">
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="AA253">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB253">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC253">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AD253">
         <v>-1</v>
@@ -23809,7 +23809,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>8157949</v>
+        <v>8157945</v>
       </c>
       <c r="C254" t="s">
         <v>30</v>
@@ -23818,79 +23818,79 @@
         <v>45424.41666666666</v>
       </c>
       <c r="E254" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F254" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="H254">
         <v>3</v>
       </c>
-      <c r="H254">
-        <v>2</v>
-      </c>
       <c r="I254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K254" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L254">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="M254">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N254">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O254">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="P254">
         <v>3.4</v>
       </c>
       <c r="Q254">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="R254">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S254">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T254">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U254">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V254">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W254">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X254">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y254">
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="AA254">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB254">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC254">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AD254">
         <v>-1</v>
@@ -23910,7 +23910,7 @@
         <v>45424.41666666666</v>
       </c>
       <c r="E255" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F255" t="s">
         <v>31</v>
@@ -24189,7 +24189,7 @@
         <v>35</v>
       </c>
       <c r="F258" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -24453,7 +24453,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>8157952</v>
+        <v>8157953</v>
       </c>
       <c r="C261" t="s">
         <v>30</v>
@@ -24462,79 +24462,79 @@
         <v>45428.5</v>
       </c>
       <c r="E261" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F261" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G261">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H261">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J261">
         <v>0</v>
       </c>
       <c r="K261" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L261">
         <v>1.833</v>
       </c>
       <c r="M261">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N261">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="O261">
+        <v>1.727</v>
+      </c>
+      <c r="P261">
+        <v>3.8</v>
+      </c>
+      <c r="Q261">
+        <v>4.75</v>
+      </c>
+      <c r="R261">
+        <v>-0.75</v>
+      </c>
+      <c r="S261">
         <v>1.95</v>
       </c>
-      <c r="P261">
-        <v>3.5</v>
-      </c>
-      <c r="Q261">
-        <v>3.9</v>
-      </c>
-      <c r="R261">
-        <v>-0.5</v>
-      </c>
-      <c r="S261">
+      <c r="T261">
         <v>1.9</v>
-      </c>
-      <c r="T261">
-        <v>1.95</v>
       </c>
       <c r="U261">
         <v>2.5</v>
       </c>
       <c r="V261">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W261">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X261">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y261">
         <v>-1</v>
       </c>
       <c r="Z261">
-        <v>2.9</v>
+        <v>-1</v>
       </c>
       <c r="AA261">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB261">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC261">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AD261">
         <v>-1</v>
@@ -24545,7 +24545,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>8157953</v>
+        <v>8157952</v>
       </c>
       <c r="C262" t="s">
         <v>30</v>
@@ -24554,79 +24554,79 @@
         <v>45428.5</v>
       </c>
       <c r="E262" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F262" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="H262">
         <v>3</v>
       </c>
-      <c r="H262">
-        <v>0</v>
-      </c>
       <c r="I262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J262">
         <v>0</v>
       </c>
       <c r="K262" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L262">
         <v>1.833</v>
       </c>
       <c r="M262">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N262">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="O262">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="P262">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q262">
-        <v>4.75</v>
+        <v>3.9</v>
       </c>
       <c r="R262">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S262">
+        <v>1.9</v>
+      </c>
+      <c r="T262">
         <v>1.95</v>
-      </c>
-      <c r="T262">
-        <v>1.9</v>